--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\blog\students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B054C45-4A16-496C-9EEA-D81F46AEA08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C798291-98F3-4605-BBF6-CB4A8598E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ИКС_431_432_433" sheetId="4" r:id="rId1"/>
-    <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId2"/>
-    <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
+    <sheet name="ИКС_432" sheetId="5" r:id="rId2"/>
+    <sheet name="ИКС_433" sheetId="6" r:id="rId3"/>
+    <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId4"/>
+    <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -631,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="228">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1303,6 +1305,18 @@
   </si>
   <si>
     <t>Штейнбрехер София В.</t>
+  </si>
+  <si>
+    <t>40 - 60 = 3</t>
+  </si>
+  <si>
+    <t>&lt;40 = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 80 = 5 </t>
+  </si>
+  <si>
+    <t>60 - 80 = 4</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1436,13 +1450,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1893,7 +1917,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2349,9 +2373,21 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2749,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
-  <dimension ref="A2:F78"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,605 +2796,274 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="260"/>
+      <c r="B3" s="262" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="260"/>
+      <c r="B4" s="263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="264" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="265" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="260">
         <v>1</v>
       </c>
       <c r="B5" s="260" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="25">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26"/>
+      <c r="C5" s="268">
+        <v>0</v>
+      </c>
+      <c r="D5" s="269"/>
       <c r="E5" s="27"/>
       <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="260">
         <v>2</v>
       </c>
       <c r="B6" s="260" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="25">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26"/>
+      <c r="C6" s="268">
+        <v>1</v>
+      </c>
+      <c r="D6" s="269"/>
       <c r="E6" s="35"/>
       <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="260">
         <v>3</v>
       </c>
       <c r="B7" s="260" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26"/>
+      <c r="C7" s="268">
+        <v>0</v>
+      </c>
+      <c r="D7" s="269"/>
       <c r="E7" s="39"/>
       <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="260">
         <v>4</v>
       </c>
       <c r="B8" s="260" t="s">
         <v>170</v>
       </c>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="260">
         <v>5</v>
       </c>
       <c r="B9" s="260" t="s">
         <v>169</v>
       </c>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="260">
         <v>6</v>
       </c>
       <c r="B10" s="260" t="s">
         <v>168</v>
       </c>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="260">
         <v>7</v>
       </c>
       <c r="B11" s="260" t="s">
         <v>167</v>
       </c>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="260">
         <v>8</v>
       </c>
       <c r="B12" s="260" t="s">
         <v>166</v>
       </c>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="260">
         <v>9</v>
       </c>
       <c r="B13" s="260" t="s">
         <v>165</v>
       </c>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="260">
         <v>10</v>
       </c>
       <c r="B14" s="260" t="s">
         <v>164</v>
       </c>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="260">
         <v>11</v>
       </c>
       <c r="B15" s="260" t="s">
         <v>163</v>
       </c>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="260">
         <v>12</v>
       </c>
       <c r="B16" s="260" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="260">
         <v>13</v>
       </c>
       <c r="B17" s="260" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="260"/>
+      <c r="D17" s="260"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="260">
         <v>14</v>
       </c>
       <c r="B18" s="260" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="260">
         <v>15</v>
       </c>
       <c r="B19" s="260" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="260">
         <v>16</v>
       </c>
       <c r="B20" s="260" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" s="260"/>
+      <c r="D20" s="260"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="260">
         <v>17</v>
       </c>
       <c r="B21" s="260" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="260">
         <v>18</v>
       </c>
       <c r="B22" s="260" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="260">
         <v>19</v>
       </c>
       <c r="B23" s="260" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="260">
         <v>20</v>
       </c>
       <c r="B24" s="260" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="260">
         <v>21</v>
       </c>
       <c r="B25" s="260" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="261" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="261" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" s="261" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="261" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" s="261" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6</v>
-      </c>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+    </row>
+    <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="261" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>7</v>
-      </c>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="261" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="261" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>9</v>
-      </c>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="261" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38" s="261" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="B39" s="261" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>12</v>
-      </c>
-      <c r="B40" s="261" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41" s="261" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="261" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43" s="261" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" s="261" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45" s="261" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>18</v>
-      </c>
-      <c r="B46" s="261" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>19</v>
-      </c>
-      <c r="B47" s="261" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>20</v>
-      </c>
-      <c r="B48" s="261" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="261" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="261" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" s="261" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" s="261" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57" s="261" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58" s="261" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59" s="261" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>8</v>
-      </c>
-      <c r="B60" s="261" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="B61" s="261" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>10</v>
-      </c>
-      <c r="B62" s="261" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>11</v>
-      </c>
-      <c r="B63" s="261" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>12</v>
-      </c>
-      <c r="B64" s="261" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>13</v>
-      </c>
-      <c r="B65" s="261" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>14</v>
-      </c>
-      <c r="B66" s="261" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>15</v>
-      </c>
-      <c r="B67" s="261" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>16</v>
-      </c>
-      <c r="B68" s="261" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>17</v>
-      </c>
-      <c r="B69" s="261" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>18</v>
-      </c>
-      <c r="B70" s="261" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>19</v>
-      </c>
-      <c r="B71" s="261" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>20</v>
-      </c>
-      <c r="B72" s="261" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>21</v>
-      </c>
-      <c r="B73" s="261" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>22</v>
-      </c>
-      <c r="B74" s="261" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>23</v>
-      </c>
-      <c r="B75" s="261" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>24</v>
-      </c>
-      <c r="B76" s="261" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77" s="261" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>26</v>
-      </c>
-      <c r="B78" s="261" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3368,6 +3073,550 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
+  <dimension ref="A2:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="A3:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="260"/>
+      <c r="B3" s="262" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="260"/>
+      <c r="B4" s="263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="264" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="260">
+        <v>1</v>
+      </c>
+      <c r="B5" s="266" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="260">
+        <v>2</v>
+      </c>
+      <c r="B6" s="266" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="260">
+        <v>3</v>
+      </c>
+      <c r="B7" s="266" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="260">
+        <v>4</v>
+      </c>
+      <c r="B8" s="266" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="260">
+        <v>5</v>
+      </c>
+      <c r="B9" s="266" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="260">
+        <v>6</v>
+      </c>
+      <c r="B10" s="266" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="260">
+        <v>7</v>
+      </c>
+      <c r="B11" s="266" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="260">
+        <v>8</v>
+      </c>
+      <c r="B12" s="266" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="260">
+        <v>9</v>
+      </c>
+      <c r="B13" s="266" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="260">
+        <v>10</v>
+      </c>
+      <c r="B14" s="266" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="260">
+        <v>11</v>
+      </c>
+      <c r="B15" s="266" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="260">
+        <v>12</v>
+      </c>
+      <c r="B16" s="266" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="260">
+        <v>13</v>
+      </c>
+      <c r="B17" s="266" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="260"/>
+      <c r="D17" s="260"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="260">
+        <v>14</v>
+      </c>
+      <c r="B18" s="266" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="260">
+        <v>15</v>
+      </c>
+      <c r="B19" s="266" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="260">
+        <v>16</v>
+      </c>
+      <c r="B20" s="266" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="260"/>
+      <c r="D20" s="260"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="260">
+        <v>17</v>
+      </c>
+      <c r="B21" s="266" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="260">
+        <v>18</v>
+      </c>
+      <c r="B22" s="266" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="260">
+        <v>19</v>
+      </c>
+      <c r="B23" s="266" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="260">
+        <v>20</v>
+      </c>
+      <c r="B24" s="266" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
+  <dimension ref="A2:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="260"/>
+      <c r="B3" s="262" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="260"/>
+      <c r="B4" s="263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="264" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="260">
+        <v>1</v>
+      </c>
+      <c r="B5" s="266" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="260">
+        <v>2</v>
+      </c>
+      <c r="B6" s="266" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="260">
+        <v>3</v>
+      </c>
+      <c r="B7" s="266" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="260">
+        <v>4</v>
+      </c>
+      <c r="B8" s="266" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="260">
+        <v>5</v>
+      </c>
+      <c r="B9" s="266" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="260">
+        <v>6</v>
+      </c>
+      <c r="B10" s="266" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="260">
+        <v>7</v>
+      </c>
+      <c r="B11" s="266" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="260">
+        <v>8</v>
+      </c>
+      <c r="B12" s="266" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="260">
+        <v>9</v>
+      </c>
+      <c r="B13" s="266" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="260">
+        <v>10</v>
+      </c>
+      <c r="B14" s="266" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="260">
+        <v>11</v>
+      </c>
+      <c r="B15" s="266" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="260">
+        <v>12</v>
+      </c>
+      <c r="B16" s="266" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="260">
+        <v>13</v>
+      </c>
+      <c r="B17" s="266" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="260"/>
+      <c r="D17" s="260"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="260">
+        <v>14</v>
+      </c>
+      <c r="B18" s="266" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="260">
+        <v>15</v>
+      </c>
+      <c r="B19" s="266" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="260">
+        <v>16</v>
+      </c>
+      <c r="B20" s="266" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="260"/>
+      <c r="D20" s="260"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="260">
+        <v>17</v>
+      </c>
+      <c r="B21" s="266" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="260">
+        <v>18</v>
+      </c>
+      <c r="B22" s="266" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="260">
+        <v>19</v>
+      </c>
+      <c r="B23" s="266" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="260">
+        <v>20</v>
+      </c>
+      <c r="B24" s="266" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="260">
+        <v>21</v>
+      </c>
+      <c r="B25" s="266" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="260">
+        <v>22</v>
+      </c>
+      <c r="B26" s="266" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="260">
+        <v>23</v>
+      </c>
+      <c r="B27" s="266" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="260"/>
+      <c r="D27" s="260"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="260">
+        <v>24</v>
+      </c>
+      <c r="B28" s="266" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="260"/>
+      <c r="D28" s="260"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="260">
+        <v>25</v>
+      </c>
+      <c r="B29" s="266" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="260">
+        <v>26</v>
+      </c>
+      <c r="B30" s="266" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="260"/>
+      <c r="D30" s="260"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ51"/>
   <sheetViews>
@@ -8853,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF45"/>
   <sheetViews>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79DE362-0992-4389-9DF0-89354AF28897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC7583-F5D8-4D3B-BEE1-5E11DDA3255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1259,9 +1259,6 @@
     <t>Короткова Анна П.</t>
   </si>
   <si>
-    <t>Крахмальный К.В.</t>
-  </si>
-  <si>
     <t>Криволапов Никита А.</t>
   </si>
   <si>
@@ -1301,9 +1298,6 @@
     <t>ХорОбров Георгий В.</t>
   </si>
   <si>
-    <t>Штейнбрехер София В.</t>
-  </si>
-  <si>
     <t>40 - 60 = 3</t>
   </si>
   <si>
@@ -1323,6 +1317,18 @@
   </si>
   <si>
     <t>К\Р</t>
+  </si>
+  <si>
+    <t>ПР1. Git</t>
+  </si>
+  <si>
+    <t>ПР2. Байткод</t>
+  </si>
+  <si>
+    <t>Крахмальный Кирилл В.</t>
+  </si>
+  <si>
+    <t>Штейнбрехер Софья В.</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1953,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2445,6 +2451,19 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3105,22 +3124,22 @@
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3373,159 +3392,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="288" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="256"/>
+      <c r="C3" s="256">
+        <v>1</v>
+      </c>
       <c r="D3" s="256"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
       <c r="B4" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="260" t="s">
+      <c r="C4" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="287" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="120"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="256"/>
+      <c r="C5" s="256">
+        <v>1</v>
+      </c>
       <c r="D5" s="256"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="256"/>
+      <c r="C6" s="256">
+        <v>1</v>
+      </c>
       <c r="D6" s="256"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
       <c r="B7" s="262" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="256"/>
+      <c r="C7" s="256">
+        <v>1</v>
+      </c>
       <c r="D7" s="256"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="256"/>
+      <c r="C8" s="256">
+        <v>1</v>
+      </c>
       <c r="D8" s="256"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="256"/>
+      <c r="C9" s="256">
+        <v>1</v>
+      </c>
       <c r="D9" s="256"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="256"/>
+      <c r="C10" s="256">
+        <v>1</v>
+      </c>
       <c r="D10" s="256"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="289" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="256"/>
+      <c r="C11" s="256">
+        <v>1</v>
+      </c>
       <c r="D11" s="256"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="256"/>
+      <c r="C12" s="256">
+        <v>1</v>
+      </c>
       <c r="D12" s="256"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
       <c r="B13" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="256"/>
+      <c r="C13" s="256">
+        <v>1</v>
+      </c>
       <c r="D13" s="256"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="256"/>
+      <c r="C14" s="256">
+        <v>1</v>
+      </c>
       <c r="D14" s="256"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="256"/>
+      <c r="C15" s="256">
+        <v>1</v>
+      </c>
       <c r="D15" s="256"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="256"/>
+        <v>230</v>
+      </c>
+      <c r="C16" s="256">
+        <v>1</v>
+      </c>
       <c r="D16" s="256"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3533,9 +3601,11 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="256"/>
+        <v>208</v>
+      </c>
+      <c r="C17" s="256">
+        <v>1</v>
+      </c>
       <c r="D17" s="256"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3543,9 +3613,11 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="256"/>
+        <v>209</v>
+      </c>
+      <c r="C18" s="256">
+        <v>1</v>
+      </c>
       <c r="D18" s="256"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3553,9 +3625,11 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="256"/>
+        <v>210</v>
+      </c>
+      <c r="C19" s="256">
+        <v>1</v>
+      </c>
       <c r="D19" s="256"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3563,9 +3637,11 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="256"/>
+        <v>211</v>
+      </c>
+      <c r="C20" s="256">
+        <v>0</v>
+      </c>
       <c r="D20" s="256"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3573,9 +3649,11 @@
         <v>17</v>
       </c>
       <c r="B21" s="262" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="256"/>
+        <v>212</v>
+      </c>
+      <c r="C21" s="256">
+        <v>1</v>
+      </c>
       <c r="D21" s="256"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3583,9 +3661,11 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="256"/>
+        <v>213</v>
+      </c>
+      <c r="C22" s="256">
+        <v>1</v>
+      </c>
       <c r="D22" s="256"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3593,9 +3673,11 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="256"/>
+        <v>214</v>
+      </c>
+      <c r="C23" s="256">
+        <v>1</v>
+      </c>
       <c r="D23" s="256"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3603,9 +3685,11 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="256"/>
+        <v>215</v>
+      </c>
+      <c r="C24" s="256">
+        <v>1</v>
+      </c>
       <c r="D24" s="256"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3613,9 +3697,11 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="256"/>
+        <v>216</v>
+      </c>
+      <c r="C25" s="256">
+        <v>1</v>
+      </c>
       <c r="D25" s="256"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3623,9 +3709,11 @@
         <v>22</v>
       </c>
       <c r="B26" s="262" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="256"/>
+        <v>217</v>
+      </c>
+      <c r="C26" s="256">
+        <v>1</v>
+      </c>
       <c r="D26" s="256"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3633,9 +3721,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="262" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="256"/>
+        <v>218</v>
+      </c>
+      <c r="C27" s="256">
+        <v>1</v>
+      </c>
       <c r="D27" s="256"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3643,9 +3733,11 @@
         <v>24</v>
       </c>
       <c r="B28" s="262" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="256"/>
+        <v>219</v>
+      </c>
+      <c r="C28" s="256">
+        <v>1</v>
+      </c>
       <c r="D28" s="256"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3653,9 +3745,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="262" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="256"/>
+        <v>220</v>
+      </c>
+      <c r="C29" s="256">
+        <v>1</v>
+      </c>
       <c r="D29" s="256"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3663,9 +3757,11 @@
         <v>26</v>
       </c>
       <c r="B30" s="262" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="256"/>
+        <v>231</v>
+      </c>
+      <c r="C30" s="256">
+        <v>1</v>
+      </c>
       <c r="D30" s="256"/>
     </row>
   </sheetData>
@@ -3677,9 +3773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM17" sqref="AM17"/>
+      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -3937,7 +4033,7 @@
         <v>149</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
@@ -6638,7 +6734,7 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC7583-F5D8-4D3B-BEE1-5E11DDA3255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9AE15E-4A22-4614-86B7-C17FDEB0987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1196,9 +1196,6 @@
     <t>СалИй Владислав.П.</t>
   </si>
   <si>
-    <t>Симонов Кирилл.Д.</t>
-  </si>
-  <si>
     <t>Стаценко Александр.О.</t>
   </si>
   <si>
@@ -1329,6 +1326,12 @@
   </si>
   <si>
     <t>Штейнбрехер Софья В.</t>
+  </si>
+  <si>
+    <t>СИмонов Кирилл.Д.</t>
+  </si>
+  <si>
+    <t>Цирукин Данила С.</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1956,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2464,6 +2467,11 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3124,22 +3132,22 @@
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3150,28 +3158,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="A3:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="258" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="256"/>
+        <v>194</v>
+      </c>
+      <c r="C3" s="256">
+        <v>1</v>
+      </c>
       <c r="D3" s="256"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
       <c r="B4" s="259" t="s">
         <v>1</v>
@@ -3182,211 +3203,482 @@
       <c r="D4" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="261"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="256"/>
+      <c r="C5" s="256">
+        <v>1</v>
+      </c>
       <c r="D5" s="256"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="256"/>
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="256"/>
+      <c r="C6" s="256">
+        <v>1</v>
+      </c>
       <c r="D6" s="256"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="256"/>
+      <c r="M6" s="256"/>
+      <c r="N6" s="256"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="256"/>
+      <c r="C7" s="292">
+        <v>0</v>
+      </c>
       <c r="D7" s="256"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="256"/>
+      <c r="C8" s="256">
+        <v>1</v>
+      </c>
       <c r="D8" s="256"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="256"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="256"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="256"/>
+      <c r="C9" s="256">
+        <v>1</v>
+      </c>
       <c r="D9" s="256"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="256"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="256"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="256"/>
+      <c r="C10" s="256">
+        <v>1</v>
+      </c>
       <c r="D10" s="256"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="256"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
       <c r="B11" s="262" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="256"/>
+      <c r="C11" s="256">
+        <v>0</v>
+      </c>
       <c r="D11" s="256"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="256"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="256"/>
+      <c r="C12" s="256">
+        <v>0</v>
+      </c>
       <c r="D12" s="256"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="289" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="256"/>
+      <c r="C13" s="256">
+        <v>1</v>
+      </c>
       <c r="D13" s="256"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="256"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="256"/>
+      <c r="C14" s="256">
+        <v>0</v>
+      </c>
       <c r="D14" s="256"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="256"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="256"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="256"/>
+      <c r="C15" s="256">
+        <v>0</v>
+      </c>
       <c r="D15" s="256"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="256"/>
+      <c r="C16" s="256">
+        <v>0</v>
+      </c>
       <c r="D16" s="256"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="256"/>
+        <v>231</v>
+      </c>
+      <c r="C17" s="256">
+        <v>1</v>
+      </c>
       <c r="D17" s="256"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="256"/>
+        <v>187</v>
+      </c>
+      <c r="C18" s="256">
+        <v>1</v>
+      </c>
       <c r="D18" s="256"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="256"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="256"/>
+        <v>188</v>
+      </c>
+      <c r="C19" s="256">
+        <v>1</v>
+      </c>
       <c r="D19" s="256"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="256"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="256"/>
+        <v>189</v>
+      </c>
+      <c r="C20" s="256">
+        <v>1</v>
+      </c>
       <c r="D20" s="256"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="256"/>
+      <c r="M20" s="256"/>
+      <c r="N20" s="256"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="262" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="256"/>
+      <c r="B21" s="291" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="292">
+        <v>0</v>
+      </c>
       <c r="D21" s="256"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="256"/>
+      <c r="M21" s="256"/>
+      <c r="N21" s="256"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="256"/>
+        <v>191</v>
+      </c>
+      <c r="C22" s="256">
+        <v>1</v>
+      </c>
       <c r="D22" s="256"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="256"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="256"/>
+        <v>192</v>
+      </c>
+      <c r="C23" s="256">
+        <v>0</v>
+      </c>
       <c r="D23" s="256"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="256"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="256"/>
+        <v>193</v>
+      </c>
+      <c r="C24" s="256">
+        <v>1</v>
+      </c>
       <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
+      <c r="N24" s="256"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="256">
+        <v>21</v>
+      </c>
+      <c r="B25" s="262" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="256">
+        <v>1</v>
+      </c>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="256"/>
+      <c r="M25" s="256"/>
+      <c r="N25" s="256"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3394,7 +3686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -3410,7 +3702,7 @@
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="288" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="256">
         <v>1</v>
@@ -3429,10 +3721,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="287" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -3457,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="256">
         <v>1</v>
@@ -3469,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="256">
         <v>1</v>
@@ -3481,7 +3773,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="262" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="256">
         <v>1</v>
@@ -3493,7 +3785,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="256">
         <v>1</v>
@@ -3505,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="256">
         <v>1</v>
@@ -3517,7 +3809,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="256">
         <v>1</v>
@@ -3529,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="289" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="256">
         <v>1</v>
@@ -3541,7 +3833,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="256">
         <v>1</v>
@@ -3553,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="262" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="256">
         <v>1</v>
@@ -3565,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="256">
         <v>1</v>
@@ -3577,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="256">
         <v>1</v>
@@ -3589,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="256">
         <v>1</v>
@@ -3601,7 +3893,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="256">
         <v>1</v>
@@ -3613,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="256">
         <v>1</v>
@@ -3625,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="256">
         <v>1</v>
@@ -3637,7 +3929,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="256">
         <v>0</v>
@@ -3649,7 +3941,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="262" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="256">
         <v>1</v>
@@ -3661,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="256">
         <v>1</v>
@@ -3673,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="256">
         <v>1</v>
@@ -3685,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="256">
         <v>1</v>
@@ -3697,7 +3989,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="256">
         <v>1</v>
@@ -3709,7 +4001,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="262" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="256">
         <v>1</v>
@@ -3721,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="262" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="256">
         <v>1</v>
@@ -3733,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="256">
         <v>1</v>
@@ -3745,7 +4037,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="256">
         <v>1</v>
@@ -3757,7 +4049,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="262" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="256">
         <v>1</v>
@@ -3933,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -4033,7 +4325,7 @@
         <v>149</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
@@ -6734,7 +7026,7 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9AE15E-4A22-4614-86B7-C17FDEB0987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E31DB-8FD6-4B68-A8A6-2F8573BC201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1106,9 +1106,6 @@
     <t>Таубин Георгий.Г.</t>
   </si>
   <si>
-    <t>Столба Антон.В.</t>
-  </si>
-  <si>
     <t>Садилов Данил.С.</t>
   </si>
   <si>
@@ -1319,9 +1316,6 @@
     <t>ПР1. Git</t>
   </si>
   <si>
-    <t>ПР2. Байткод</t>
-  </si>
-  <si>
     <t>Крахмальный Кирилл В.</t>
   </si>
   <si>
@@ -1332,6 +1326,12 @@
   </si>
   <si>
     <t>Цирукин Данила С.</t>
+  </si>
+  <si>
+    <t>СтОлба Антон.В.</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1956,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2420,7 +2420,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2472,6 +2471,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2869,285 +2874,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="256"/>
-      <c r="B3" s="258" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
+      <c r="B3" s="294" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
       <c r="B4" s="259" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="261" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="295"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
       <c r="B5" s="256" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="264">
-        <v>0</v>
-      </c>
-      <c r="D5" s="265"/>
+        <v>171</v>
+      </c>
+      <c r="C5" s="263">
+        <v>0</v>
+      </c>
+      <c r="D5" s="264"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="36"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
       <c r="B6" s="256" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="264">
-        <v>1</v>
-      </c>
-      <c r="D6" s="265"/>
+        <v>170</v>
+      </c>
+      <c r="C6" s="263">
+        <v>1</v>
+      </c>
+      <c r="D6" s="264"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="69"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="36"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
       <c r="B7" s="256" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="264">
-        <v>0</v>
-      </c>
-      <c r="D7" s="265"/>
+        <v>169</v>
+      </c>
+      <c r="C7" s="263">
+        <v>1</v>
+      </c>
+      <c r="D7" s="264"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="69"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="36"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
       <c r="B8" s="256" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C8" s="264">
+        <v>1</v>
+      </c>
+      <c r="D8" s="264"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
       <c r="B9" s="256" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C9" s="264">
+        <v>1</v>
+      </c>
+      <c r="D9" s="264"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
       <c r="B10" s="256" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="C10" s="264">
+        <v>1</v>
+      </c>
+      <c r="D10" s="264"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
       <c r="B11" s="256" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C11" s="264">
+        <v>1</v>
+      </c>
+      <c r="D11" s="264"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
       <c r="B12" s="256" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="C12" s="264">
+        <v>0</v>
+      </c>
+      <c r="D12" s="264"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
       <c r="B13" s="256" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="C13" s="264">
+        <v>1</v>
+      </c>
+      <c r="D13" s="264"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="256" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="292" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="264">
+        <v>1</v>
+      </c>
+      <c r="D14" s="264"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
       <c r="B15" s="256" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C15" s="264">
+        <v>1</v>
+      </c>
+      <c r="D15" s="264"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
       <c r="B16" s="256" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="C16" s="264">
+        <v>1</v>
+      </c>
+      <c r="D16" s="264"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
       <c r="B17" s="256" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C17" s="264">
+        <v>1</v>
+      </c>
+      <c r="D17" s="264"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
       <c r="B18" s="256" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C18" s="264">
+        <v>1</v>
+      </c>
+      <c r="D18" s="264"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
       <c r="B19" s="256" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C19" s="264">
+        <v>1</v>
+      </c>
+      <c r="D19" s="264"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
       <c r="B20" s="256" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C20" s="264">
+        <v>1</v>
+      </c>
+      <c r="D20" s="264"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
       <c r="B21" s="256" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="264">
+        <v>1</v>
+      </c>
+      <c r="D21" s="264"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
       <c r="B22" s="256" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="256"/>
-      <c r="D22" s="256"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="264">
+        <v>1</v>
+      </c>
+      <c r="D22" s="264"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
       <c r="B23" s="256" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="264">
+        <v>1</v>
+      </c>
+      <c r="D23" s="264"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
       <c r="B24" s="256" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="264">
+        <v>1</v>
+      </c>
+      <c r="D24" s="264"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
       <c r="B25" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
+      <c r="C25" s="264">
+        <v>0</v>
+      </c>
+      <c r="D25" s="264"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="256">
+        <v>22</v>
+      </c>
+      <c r="B26" s="256" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="264">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="256">
+        <v>23</v>
+      </c>
+      <c r="B27" s="256" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="264">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="256">
+        <v>24</v>
+      </c>
+      <c r="B28" s="256" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="264">
+        <v>0</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3175,7 +3462,7 @@
     <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="258" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="256">
         <v>1</v>
@@ -3198,13 +3485,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="260" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="261" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="261"/>
-      <c r="F4" s="290"/>
+      <c r="F4" s="289"/>
       <c r="G4" s="256"/>
       <c r="H4" s="256"/>
       <c r="I4" s="256"/>
@@ -3219,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="256">
         <v>1</v>
@@ -3241,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="256">
         <v>1</v>
@@ -3262,10 +3549,10 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="291" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="292">
+      <c r="B7" s="290" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="291">
         <v>0</v>
       </c>
       <c r="D7" s="256"/>
@@ -3285,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="256">
         <v>1</v>
@@ -3307,7 +3594,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="256">
         <v>1</v>
@@ -3329,7 +3616,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="256">
         <v>1</v>
@@ -3351,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="262" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="256">
         <v>0</v>
@@ -3373,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="256">
         <v>0</v>
@@ -3394,8 +3681,8 @@
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="289" t="s">
-        <v>183</v>
+      <c r="B13" s="288" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="256">
         <v>1</v>
@@ -3417,7 +3704,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="256">
         <v>0</v>
@@ -3439,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="256">
         <v>0</v>
@@ -3461,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="256">
         <v>0</v>
@@ -3483,7 +3770,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C17" s="256">
         <v>1</v>
@@ -3505,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="256">
         <v>1</v>
@@ -3527,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="256">
         <v>1</v>
@@ -3549,7 +3836,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="256">
         <v>1</v>
@@ -3570,10 +3857,10 @@
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="291" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="292">
+      <c r="B21" s="290" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="291">
         <v>0</v>
       </c>
       <c r="D21" s="256"/>
@@ -3593,7 +3880,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="256">
         <v>1</v>
@@ -3615,7 +3902,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="256">
         <v>0</v>
@@ -3637,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="256">
         <v>1</v>
@@ -3659,7 +3946,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="256">
         <v>1</v>
@@ -3686,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,8 +3988,8 @@
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="288" t="s">
-        <v>195</v>
+      <c r="B3" s="287" t="s">
+        <v>194</v>
       </c>
       <c r="C3" s="256">
         <v>1</v>
@@ -3714,18 +4001,16 @@
       <c r="B4" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="285" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="286" t="s">
+      <c r="C4" s="284" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="287" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>228</v>
-      </c>
+      <c r="E4" s="286" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3749,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="256">
         <v>1</v>
@@ -3761,7 +4046,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="256">
         <v>1</v>
@@ -3773,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="262" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="256">
         <v>1</v>
@@ -3785,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="256">
         <v>1</v>
@@ -3797,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="256">
         <v>1</v>
@@ -3809,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="256">
         <v>1</v>
@@ -3820,8 +4105,8 @@
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="289" t="s">
-        <v>202</v>
+      <c r="B11" s="288" t="s">
+        <v>201</v>
       </c>
       <c r="C11" s="256">
         <v>1</v>
@@ -3833,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="256">
         <v>1</v>
@@ -3845,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="256">
         <v>1</v>
@@ -3857,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="256">
         <v>1</v>
@@ -3869,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="256">
         <v>1</v>
@@ -3881,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" s="256">
         <v>1</v>
@@ -3893,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="256">
         <v>1</v>
@@ -3905,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="256">
         <v>1</v>
@@ -3917,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="256">
         <v>1</v>
@@ -3929,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="256">
         <v>0</v>
@@ -3941,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="262" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="256">
         <v>1</v>
@@ -3953,7 +4238,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="256">
         <v>1</v>
@@ -3965,7 +4250,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="256">
         <v>1</v>
@@ -3977,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="256">
         <v>1</v>
@@ -3989,7 +4274,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="256">
         <v>1</v>
@@ -4001,7 +4286,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="262" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="256">
         <v>1</v>
@@ -4013,7 +4298,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="262" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="256">
         <v>1</v>
@@ -4025,7 +4310,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="262" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="256">
         <v>1</v>
@@ -4037,7 +4322,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="262" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="256">
         <v>1</v>
@@ -4049,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="262" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C30" s="256">
         <v>1</v>
@@ -4225,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -4325,7 +4610,7 @@
         <v>149</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
@@ -4337,7 +4622,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="281" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="25">
@@ -4891,7 +5176,7 @@
       <c r="AP7" s="26"/>
     </row>
     <row r="8" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="283" t="s">
+      <c r="A8" s="282" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="25">
@@ -5341,111 +5626,111 @@
       </c>
       <c r="AP11" s="26"/>
     </row>
-    <row r="12" spans="1:42" s="281" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="266" t="s">
+    <row r="12" spans="1:42" s="280" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="267">
-        <v>0</v>
-      </c>
-      <c r="C12" s="268"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="270">
-        <v>1</v>
-      </c>
-      <c r="G12" s="271">
-        <v>1</v>
-      </c>
-      <c r="H12" s="270">
+      <c r="B12" s="266">
+        <v>0</v>
+      </c>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="269">
+        <v>1</v>
+      </c>
+      <c r="G12" s="270">
+        <v>1</v>
+      </c>
+      <c r="H12" s="269">
         <v>-0.5</v>
       </c>
-      <c r="I12" s="272">
+      <c r="I12" s="271">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="272">
+      <c r="J12" s="271">
         <v>-0.5</v>
       </c>
-      <c r="K12" s="273">
-        <v>1</v>
-      </c>
-      <c r="L12" s="272">
+      <c r="K12" s="272">
+        <v>1</v>
+      </c>
+      <c r="L12" s="271">
         <v>-0.5</v>
       </c>
-      <c r="M12" s="273">
+      <c r="M12" s="272">
         <v>-0.5</v>
       </c>
-      <c r="N12" s="273">
-        <v>1</v>
-      </c>
-      <c r="O12" s="273">
-        <v>1</v>
-      </c>
-      <c r="P12" s="274">
+      <c r="N12" s="272">
+        <v>1</v>
+      </c>
+      <c r="O12" s="272">
+        <v>1</v>
+      </c>
+      <c r="P12" s="273">
         <v>-0.5</v>
       </c>
-      <c r="Q12" s="273">
-        <v>1</v>
-      </c>
-      <c r="R12" s="273" t="s">
+      <c r="Q12" s="272">
+        <v>1</v>
+      </c>
+      <c r="R12" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="273">
+      <c r="S12" s="272">
         <v>3</v>
       </c>
-      <c r="T12" s="273">
-        <v>1</v>
-      </c>
-      <c r="U12" s="273">
+      <c r="T12" s="272">
+        <v>1</v>
+      </c>
+      <c r="U12" s="272">
         <v>-1</v>
       </c>
-      <c r="V12" s="272">
-        <v>1</v>
-      </c>
-      <c r="W12" s="273">
-        <v>1</v>
-      </c>
-      <c r="X12" s="273">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="273">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="273"/>
-      <c r="AA12" s="273"/>
-      <c r="AB12" s="273"/>
-      <c r="AC12" s="275">
+      <c r="V12" s="271">
+        <v>1</v>
+      </c>
+      <c r="W12" s="272">
+        <v>1</v>
+      </c>
+      <c r="X12" s="272">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="272">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="272"/>
+      <c r="AA12" s="272"/>
+      <c r="AB12" s="272"/>
+      <c r="AC12" s="274">
         <f>-40 - 40 - 40</f>
         <v>-120</v>
       </c>
-      <c r="AD12" s="276">
+      <c r="AD12" s="275">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AE12" s="277">
+      <c r="AE12" s="276">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="AF12" s="277">
+      <c r="AF12" s="276">
         <v>-100</v>
       </c>
-      <c r="AG12" s="278">
+      <c r="AG12" s="277">
         <v>-100</v>
       </c>
-      <c r="AH12" s="279">
+      <c r="AH12" s="278">
         <v>-100</v>
       </c>
-      <c r="AI12" s="279"/>
-      <c r="AJ12" s="279"/>
-      <c r="AK12" s="279"/>
-      <c r="AL12" s="279"/>
-      <c r="AM12" s="279"/>
-      <c r="AN12" s="279"/>
-      <c r="AO12" s="280">
+      <c r="AI12" s="278"/>
+      <c r="AJ12" s="278"/>
+      <c r="AK12" s="278"/>
+      <c r="AL12" s="278"/>
+      <c r="AM12" s="278"/>
+      <c r="AN12" s="278"/>
+      <c r="AO12" s="279">
         <f t="shared" si="1"/>
         <v>16.53846153846154</v>
       </c>
-      <c r="AP12" s="268"/>
+      <c r="AP12" s="267"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
@@ -5895,7 +6180,7 @@
       <c r="AP16" s="26"/>
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="284" t="s">
+      <c r="A17" s="283" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="25">
@@ -6009,7 +6294,7 @@
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="283" t="s">
+      <c r="A18" s="282" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="25">
@@ -6572,7 +6857,7 @@
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="284" t="s">
+      <c r="A23" s="283" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="25">
@@ -7026,7 +7311,7 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E31DB-8FD6-4B68-A8A6-2F8573BC201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B19AD7-E55E-4514-AF3F-6567434971F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="258">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1332,6 +1332,81 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>https://github.com/ITska-web/Android-projects</t>
+  </si>
+  <si>
+    <t>https://github.com/arina983/visual_programming</t>
+  </si>
+  <si>
+    <t>https://github.com/Emeteil/android-learning</t>
+  </si>
+  <si>
+    <t>https://github.com/grgrv-egr/vizual1</t>
+  </si>
+  <si>
+    <t>https://github.com/seg0ga/AndroidDevelopment_sibsutis</t>
+  </si>
+  <si>
+    <t>https://github.com/Dobromilov/Android_WP/tree/main</t>
+  </si>
+  <si>
+    <t>https://github.com/Drozd433Mary/D2kvisual</t>
+  </si>
+  <si>
+    <t>https://github.com/dyusha42/mobi</t>
+  </si>
+  <si>
+    <t>https://github.com/EgeeReyZee/Visual_Programming</t>
+  </si>
+  <si>
+    <t>https://github.com/annkits/VP_HCI.git</t>
+  </si>
+  <si>
+    <t>https://github.com/keepshelly/HCI.git</t>
+  </si>
+  <si>
+    <t>https://github.com/M1sterToXic/Android_development/blob/main/README.md</t>
+  </si>
+  <si>
+    <t>https://github.com/bagg1487/Project_Android</t>
+  </si>
+  <si>
+    <t>https://github.com/bounclown/android_projects#</t>
+  </si>
+  <si>
+    <t>https://github.com/Lisenko-Valeria/android_something</t>
+  </si>
+  <si>
+    <t>https://github.com/Darkness1853/Android-Project.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Roma-jpg1/Android_project</t>
+  </si>
+  <si>
+    <t>https://github.com/CodebyTecs</t>
+  </si>
+  <si>
+    <t>https://github.com/vadimpopov1/Visual-Programming.git</t>
+  </si>
+  <si>
+    <t>https://github.com/PopoVal116/visual_programming</t>
+  </si>
+  <si>
+    <t>https://github.com/quincyque0/RoadTo1000Commits</t>
+  </si>
+  <si>
+    <t>https://github.com/GLISTMISHA2/Android_Project</t>
+  </si>
+  <si>
+    <t>https://github.com/JoraBarjomi/Android_Programming.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Ssteynbreher/Android_visual-programming</t>
+  </si>
+  <si>
+    <t>ПР2. Human</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +2031,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2477,6 +2552,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3974,14 +4050,14 @@
   <dimension ref="A2:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4010,7 +4086,9 @@
       <c r="E4" s="286" t="s">
         <v>226</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -4039,7 +4117,9 @@
       <c r="C5" s="256">
         <v>1</v>
       </c>
-      <c r="D5" s="256"/>
+      <c r="D5" s="296" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
@@ -4051,7 +4131,9 @@
       <c r="C6" s="256">
         <v>1</v>
       </c>
-      <c r="D6" s="256"/>
+      <c r="D6" s="296" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
@@ -4063,7 +4145,9 @@
       <c r="C7" s="256">
         <v>1</v>
       </c>
-      <c r="D7" s="256"/>
+      <c r="D7" s="296" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
@@ -4075,7 +4159,9 @@
       <c r="C8" s="256">
         <v>1</v>
       </c>
-      <c r="D8" s="256"/>
+      <c r="D8" s="296" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
@@ -4087,7 +4173,9 @@
       <c r="C9" s="256">
         <v>1</v>
       </c>
-      <c r="D9" s="256"/>
+      <c r="D9" s="296" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
@@ -4099,7 +4187,9 @@
       <c r="C10" s="256">
         <v>1</v>
       </c>
-      <c r="D10" s="256"/>
+      <c r="D10" s="296" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
@@ -4111,7 +4201,9 @@
       <c r="C11" s="256">
         <v>1</v>
       </c>
-      <c r="D11" s="256"/>
+      <c r="D11" s="296" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
@@ -4123,7 +4215,9 @@
       <c r="C12" s="256">
         <v>1</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="296" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
@@ -4135,7 +4229,9 @@
       <c r="C13" s="256">
         <v>1</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="296" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
@@ -4147,7 +4243,6 @@
       <c r="C14" s="256">
         <v>1</v>
       </c>
-      <c r="D14" s="256"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
@@ -4159,7 +4254,9 @@
       <c r="C15" s="256">
         <v>1</v>
       </c>
-      <c r="D15" s="256"/>
+      <c r="D15" s="296" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
@@ -4171,7 +4268,9 @@
       <c r="C16" s="256">
         <v>1</v>
       </c>
-      <c r="D16" s="256"/>
+      <c r="D16" s="296" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
@@ -4183,7 +4282,9 @@
       <c r="C17" s="256">
         <v>1</v>
       </c>
-      <c r="D17" s="256"/>
+      <c r="D17" s="296" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
@@ -4195,7 +4296,9 @@
       <c r="C18" s="256">
         <v>1</v>
       </c>
-      <c r="D18" s="256"/>
+      <c r="D18" s="296" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
@@ -4207,7 +4310,6 @@
       <c r="C19" s="256">
         <v>1</v>
       </c>
-      <c r="D19" s="256"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
@@ -4219,7 +4321,9 @@
       <c r="C20" s="256">
         <v>0</v>
       </c>
-      <c r="D20" s="256"/>
+      <c r="D20" s="296" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
@@ -4231,7 +4335,9 @@
       <c r="C21" s="256">
         <v>1</v>
       </c>
-      <c r="D21" s="256"/>
+      <c r="D21" s="296" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
@@ -4243,7 +4349,9 @@
       <c r="C22" s="256">
         <v>1</v>
       </c>
-      <c r="D22" s="256"/>
+      <c r="D22" s="296" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
@@ -4255,7 +4363,9 @@
       <c r="C23" s="256">
         <v>1</v>
       </c>
-      <c r="D23" s="256"/>
+      <c r="D23" s="296" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
@@ -4267,7 +4377,9 @@
       <c r="C24" s="256">
         <v>1</v>
       </c>
-      <c r="D24" s="256"/>
+      <c r="D24" s="296" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
@@ -4279,7 +4391,9 @@
       <c r="C25" s="256">
         <v>1</v>
       </c>
-      <c r="D25" s="256"/>
+      <c r="D25" s="296" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
@@ -4291,7 +4405,9 @@
       <c r="C26" s="256">
         <v>1</v>
       </c>
-      <c r="D26" s="256"/>
+      <c r="D26" s="296" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
@@ -4303,7 +4419,9 @@
       <c r="C27" s="256">
         <v>1</v>
       </c>
-      <c r="D27" s="256"/>
+      <c r="D27" s="296" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
@@ -4315,7 +4433,9 @@
       <c r="C28" s="256">
         <v>1</v>
       </c>
-      <c r="D28" s="256"/>
+      <c r="D28" s="296" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="256">
@@ -4327,7 +4447,9 @@
       <c r="C29" s="256">
         <v>1</v>
       </c>
-      <c r="D29" s="256"/>
+      <c r="D29" s="296" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="256">
@@ -4339,9 +4461,37 @@
       <c r="C30" s="256">
         <v>1</v>
       </c>
-      <c r="D30" s="256"/>
+      <c r="D30" s="296" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{35602F18-F7C7-440A-8671-5BAED164562D}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{BE77414A-4419-4B1A-9733-AE230022A7BC}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{F22EBB5C-8007-4660-A11F-48671A6C4DE8}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{06508BE1-E9A0-471D-89E2-837CD4251450}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
+    <hyperlink ref="D29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
+    <hyperlink ref="D30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
+    <hyperlink ref="D20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
+    <hyperlink ref="D18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B19AD7-E55E-4514-AF3F-6567434971F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF85F10-76F5-46B9-8397-321785B99369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1470" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -668,9 +668,6 @@
     <t>SSH</t>
   </si>
   <si>
-    <t>ПР5. Telephony</t>
-  </si>
-  <si>
     <t>Амыев Самыр Аткырович</t>
   </si>
   <si>
@@ -1070,9 +1067,6 @@
     <t>Шаповал Никита</t>
   </si>
   <si>
-    <t>ПР6. Web-sockets</t>
-  </si>
-  <si>
     <t>https://github.com/memomimia/GPS_APP</t>
   </si>
   <si>
@@ -1407,6 +1401,12 @@
   </si>
   <si>
     <t>ПР2. Human</t>
+  </si>
+  <si>
+    <t>ПР5. Сокеты</t>
+  </si>
+  <si>
+    <t>ПР4. Telephony</t>
   </si>
 </sst>
 </file>
@@ -2968,7 +2968,7 @@
     <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="256"/>
       <c r="B3" s="294" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="293"/>
       <c r="D3" s="293"/>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="261" t="s">
         <v>4</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="256" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="263">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="256" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="263">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="256" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="263">
         <v>1</v>
@@ -3057,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="256" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="264">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="256" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="264">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="256" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="264">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="256" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="264">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="256" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="264">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="256" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="264">
         <v>1</v>
@@ -3183,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="292" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="264">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="256" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="264">
         <v>1</v>
@@ -3225,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="256" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="264">
         <v>1</v>
@@ -3246,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="256" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="264">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="256" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C18" s="264">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="256" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="264">
         <v>1</v>
@@ -3309,7 +3309,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="256" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="264">
         <v>1</v>
@@ -3330,7 +3330,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="256" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="264">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="256" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="264">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="256" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="264">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="256" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="264">
         <v>1</v>
@@ -3414,7 +3414,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="256" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="264">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="256" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26" s="264">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="256" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="264">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="256" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28" s="264">
         <v>0</v>
@@ -3495,22 +3495,22 @@
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3538,7 @@
     <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="258" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="256">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="261" t="s">
         <v>4</v>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="256">
         <v>1</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="256">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="290" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="291">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="256">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="256">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="256">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="262" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="256">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="256">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="288" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" s="256">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="256">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="256">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="256">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="256">
         <v>1</v>
@@ -3868,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="256">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="256">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" s="256">
         <v>1</v>
@@ -3934,7 +3934,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="290" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="291">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="256">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" s="256">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="256">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C25" s="256">
         <v>1</v>
@@ -4049,7 +4049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4065,7 +4065,7 @@
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="287" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="256">
         <v>1</v>
@@ -4078,16 +4078,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="284" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="285" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="286" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -4112,13 +4112,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="256">
         <v>1</v>
       </c>
       <c r="D5" s="296" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4126,13 +4126,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="262" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" s="256">
         <v>1</v>
       </c>
       <c r="D6" s="296" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4140,13 +4140,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="262" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="256">
         <v>1</v>
       </c>
       <c r="D7" s="296" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4154,13 +4154,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="262" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" s="256">
         <v>1</v>
       </c>
       <c r="D8" s="296" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4168,13 +4168,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="262" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="256">
         <v>1</v>
       </c>
       <c r="D9" s="296" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4182,13 +4182,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="262" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="256">
         <v>1</v>
       </c>
       <c r="D10" s="296" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4196,13 +4196,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="288" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="256">
         <v>1</v>
       </c>
       <c r="D11" s="296" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4210,13 +4210,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="262" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" s="256">
         <v>1</v>
       </c>
       <c r="D12" s="296" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4224,13 +4224,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="262" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="256">
         <v>1</v>
       </c>
       <c r="D13" s="296" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4238,7 +4238,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="262" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="256">
         <v>1</v>
@@ -4249,13 +4249,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="262" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="256">
         <v>1</v>
       </c>
       <c r="D15" s="296" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4263,13 +4263,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="262" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" s="256">
         <v>1</v>
       </c>
       <c r="D16" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4277,13 +4277,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="262" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="256">
         <v>1</v>
       </c>
       <c r="D17" s="296" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="262" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" s="256">
         <v>1</v>
       </c>
       <c r="D18" s="296" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="262" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="256">
         <v>1</v>
@@ -4316,13 +4316,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="262" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="256">
         <v>0</v>
       </c>
       <c r="D20" s="296" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4330,13 +4330,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="262" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="256">
         <v>1</v>
       </c>
       <c r="D21" s="296" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4344,13 +4344,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="262" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" s="256">
         <v>1</v>
       </c>
       <c r="D22" s="296" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4358,13 +4358,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="262" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="256">
         <v>1</v>
       </c>
       <c r="D23" s="296" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4372,13 +4372,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="262" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C24" s="256">
         <v>1</v>
       </c>
       <c r="D24" s="296" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4386,13 +4386,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="262" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="256">
         <v>1</v>
       </c>
       <c r="D25" s="296" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4400,13 +4400,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="262" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C26" s="256">
         <v>1</v>
       </c>
       <c r="D26" s="296" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4414,13 +4414,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="262" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" s="256">
         <v>1</v>
       </c>
       <c r="D27" s="296" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4428,13 +4428,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="262" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C28" s="256">
         <v>1</v>
       </c>
       <c r="D28" s="296" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4442,13 +4442,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="262" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C29" s="256">
         <v>1</v>
       </c>
       <c r="D29" s="296" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4456,13 +4456,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="262" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C30" s="256">
         <v>1</v>
       </c>
       <c r="D30" s="296" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4500,9 +4500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
+      <selection pane="topRight" activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7">
@@ -4660,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -4751,39 +4751,39 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>145</v>
+        <v>256</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
       <c r="AO2" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="25">
         <v>0</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="28">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X3" s="29">
         <v>1</v>
@@ -4883,17 +4883,17 @@
     </row>
     <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="25">
         <v>0</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="28">
         <v>1</v>
@@ -4981,30 +4981,32 @@
       <c r="AI4" s="98">
         <v>0</v>
       </c>
-      <c r="AJ4" s="98"/>
+      <c r="AJ4" s="98">
+        <v>100</v>
+      </c>
       <c r="AK4" s="98"/>
       <c r="AL4" s="98"/>
       <c r="AM4" s="98"/>
       <c r="AN4" s="98"/>
       <c r="AO4" s="33">
         <f t="shared" ref="AO4:AO27" si="1">SUM(100*SUM(F4:AB4),AC4:AN4)/$AO$1</f>
-        <v>65.769230769230774</v>
+        <v>69.615384615384613</v>
       </c>
       <c r="AP4" s="26"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="25">
         <v>0</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="28">
         <v>1</v>
@@ -5043,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="30">
         <v>3</v>
@@ -5058,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5" s="30">
         <v>1</v>
@@ -5105,17 +5107,17 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="254" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="25">
         <v>0</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="28">
         <v>1</v>
@@ -5217,14 +5219,14 @@
     </row>
     <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="254" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="25">
         <v>0</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="28">
@@ -5279,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" s="30">
         <v>1</v>
@@ -5327,17 +5329,17 @@
     </row>
     <row r="8" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="282" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="25">
         <v>0</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -5424,7 +5426,9 @@
       <c r="AI8" s="146">
         <v>300</v>
       </c>
-      <c r="AJ8" s="113"/>
+      <c r="AJ8" s="113">
+        <v>100</v>
+      </c>
       <c r="AK8" s="241">
         <v>100</v>
       </c>
@@ -5433,23 +5437,23 @@
       <c r="AN8" s="113"/>
       <c r="AO8" s="33">
         <f t="shared" si="1"/>
-        <v>123.07692307692308</v>
+        <v>126.92307692307692</v>
       </c>
       <c r="AP8" s="25"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="25">
         <v>0</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -5551,7 +5555,7 @@
     </row>
     <row r="10" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="254" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="25">
         <v>0</v>
@@ -5561,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="28">
         <v>1</v>
@@ -5600,7 +5604,7 @@
         <v>-0.5</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S10" s="46">
         <v>3</v>
@@ -5663,17 +5667,17 @@
     </row>
     <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="254" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="25">
         <v>0</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
@@ -5778,7 +5782,7 @@
     </row>
     <row r="12" spans="1:42" s="280" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="266">
         <v>0</v>
@@ -5823,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12" s="272">
         <v>3</v>
@@ -5884,17 +5888,17 @@
     </row>
     <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="25">
         <v>0</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="28">
         <v>1</v>
@@ -5984,27 +5988,29 @@
       <c r="AI13" s="98">
         <v>0</v>
       </c>
-      <c r="AJ13" s="98"/>
+      <c r="AJ13" s="98">
+        <v>100</v>
+      </c>
       <c r="AK13" s="98"/>
       <c r="AL13" s="98"/>
       <c r="AM13" s="98"/>
       <c r="AN13" s="98"/>
       <c r="AO13" s="33">
         <f t="shared" si="1"/>
-        <v>94.615384615384613</v>
+        <v>98.461538461538467</v>
       </c>
       <c r="AP13" s="26"/>
     </row>
     <row r="14" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="25">
         <v>0</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="50">
@@ -6044,7 +6050,7 @@
         <v>-0.5</v>
       </c>
       <c r="R14" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" s="46">
         <v>3</v>
@@ -6107,17 +6113,17 @@
     </row>
     <row r="15" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="25">
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="28">
         <v>1</v>
@@ -6219,17 +6225,17 @@
     </row>
     <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="25">
         <v>0</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="28">
         <v>1</v>
@@ -6268,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" s="30">
         <v>3</v>
@@ -6283,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X16" s="30">
         <v>1</v>
@@ -6331,17 +6337,17 @@
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="283" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -6430,7 +6436,9 @@
       <c r="AI17" s="98">
         <v>0</v>
       </c>
-      <c r="AJ17" s="98"/>
+      <c r="AJ17" s="98">
+        <v>100</v>
+      </c>
       <c r="AK17" s="142">
         <v>100</v>
       </c>
@@ -6439,13 +6447,13 @@
       <c r="AN17" s="98"/>
       <c r="AO17" s="33">
         <f t="shared" si="1"/>
-        <v>90.384615384615387</v>
+        <v>94.230769230769226</v>
       </c>
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="282" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="25">
         <v>0</v>
@@ -6455,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="28">
         <v>1</v>
@@ -6559,7 +6567,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="25">
         <v>0</v>
@@ -6569,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="28">
         <v>1</v>
@@ -6671,7 +6679,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="254" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="25">
         <v>0</v>
@@ -6681,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="28">
         <v>1</v>
@@ -6785,7 +6793,7 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" s="254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="25">
         <v>0</v>
@@ -6832,7 +6840,7 @@
         <v>-0.5</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S21" s="48">
         <v>3</v>
@@ -6847,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X21" s="48">
         <v>1</v>
@@ -6895,17 +6903,17 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="25">
         <v>0</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="28">
         <v>1</v>
@@ -7008,17 +7016,17 @@
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" s="283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="25">
         <v>0</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="28">
         <v>1</v>
@@ -7108,7 +7116,9 @@
       <c r="AI23" s="98">
         <v>0</v>
       </c>
-      <c r="AJ23" s="98"/>
+      <c r="AJ23" s="98">
+        <v>100</v>
+      </c>
       <c r="AK23" s="142">
         <v>100</v>
       </c>
@@ -7117,23 +7127,23 @@
       <c r="AN23" s="98"/>
       <c r="AO23" s="33">
         <f t="shared" si="1"/>
-        <v>94.230769230769226</v>
+        <v>98.07692307692308</v>
       </c>
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" s="254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="25">
         <v>0</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="28">
         <v>1</v>
@@ -7237,7 +7247,7 @@
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" s="254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="25">
         <v>0</v>
@@ -7347,7 +7357,7 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" s="254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="25">
         <v>0</v>
@@ -7357,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="28">
         <v>1</v>
@@ -7396,7 +7406,7 @@
         <v>-0.5</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S26" s="48">
         <v>3</v>
@@ -7461,17 +7471,17 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="50">
         <v>1</v>
@@ -7596,7 +7606,7 @@
     </row>
     <row r="28" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
@@ -7771,11 +7781,11 @@
       </c>
       <c r="AI29" s="121" t="str">
         <f t="shared" si="3"/>
-        <v>ПР5. Telephony</v>
+        <v>ПР4. Telephony</v>
       </c>
       <c r="AJ29" s="121" t="str">
         <f t="shared" si="3"/>
-        <v>ПР6. Web-sockets</v>
+        <v>ПР5. Сокеты</v>
       </c>
       <c r="AK29" s="121" t="str">
         <f t="shared" si="3"/>
@@ -7800,7 +7810,7 @@
     </row>
     <row r="30" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="25">
         <v>2</v>
@@ -7808,7 +7818,7 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="28">
         <v>1</v>
@@ -7847,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="R30" s="67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S30" s="28">
         <v>3</v>
@@ -7907,7 +7917,7 @@
     </row>
     <row r="31" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="25">
         <v>0</v>
@@ -7967,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X31" s="73">
         <v>1</v>
@@ -8011,7 +8021,7 @@
     </row>
     <row r="32" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="25">
         <v>0</v>
@@ -8019,7 +8029,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="28">
         <v>1</v>
@@ -8119,7 +8129,7 @@
     </row>
     <row r="33" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="244" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="25">
         <v>2</v>
@@ -8127,7 +8137,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="136" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="28">
         <v>1</v>
@@ -8226,7 +8236,7 @@
     </row>
     <row r="34" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="25">
         <v>2</v>
@@ -8234,7 +8244,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="28">
         <v>1</v>
@@ -8333,7 +8343,7 @@
     </row>
     <row r="35" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="252" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="25">
         <v>0</v>
@@ -8341,7 +8351,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F35" s="28">
         <v>1</v>
@@ -8380,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="R35" s="67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S35" s="45">
         <v>3</v>
@@ -8440,7 +8450,7 @@
     </row>
     <row r="36" spans="1:63" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="25">
         <v>2</v>
@@ -8448,7 +8458,7 @@
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="50">
         <v>1</v>
@@ -8569,7 +8579,7 @@
     </row>
     <row r="37" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="25">
         <v>2</v>
@@ -8577,7 +8587,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="28">
         <v>1</v>
@@ -8679,7 +8689,7 @@
     </row>
     <row r="38" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="25">
         <v>0</v>
@@ -8687,7 +8697,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="28">
         <v>1</v>
@@ -8787,7 +8797,7 @@
     </row>
     <row r="39" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="25">
         <v>2</v>
@@ -8795,7 +8805,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F39" s="28">
         <v>1</v>
@@ -8896,7 +8906,7 @@
     </row>
     <row r="40" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="244" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="25">
         <v>2</v>
@@ -8904,7 +8914,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
@@ -9002,7 +9012,7 @@
     </row>
     <row r="41" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="245" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="25">
         <v>2</v>
@@ -9010,7 +9020,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" s="28">
         <v>1</v>
@@ -9109,7 +9119,7 @@
     </row>
     <row r="42" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="25">
         <v>2</v>
@@ -9117,7 +9127,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="28">
         <v>1</v>
@@ -9217,7 +9227,7 @@
     </row>
     <row r="43" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="25">
         <v>0</v>
@@ -9225,7 +9235,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" s="28">
         <v>1</v>
@@ -9326,13 +9336,13 @@
     </row>
     <row r="44" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="25">
-        <v>0</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>84</v>
       </c>
       <c r="F44" s="28">
         <v>1</v>
@@ -9434,7 +9444,7 @@
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="25">
         <v>0</v>
@@ -9442,7 +9452,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="28">
         <v>1</v>
@@ -9542,7 +9552,7 @@
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="25">
         <v>1</v>
@@ -9550,7 +9560,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="28">
         <v>1</v>
@@ -9651,7 +9661,7 @@
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="25">
         <v>1</v>
@@ -9659,7 +9669,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F47" s="28">
         <v>1</v>
@@ -9759,7 +9769,7 @@
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A48" s="255" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="25">
         <v>0</v>
@@ -9767,7 +9777,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="28">
         <v>1</v>
@@ -9864,7 +9874,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="246" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="25">
         <v>1</v>
@@ -9872,7 +9882,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="28">
         <v>1</v>
@@ -9975,7 +9985,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="25">
         <v>2</v>
@@ -9983,7 +9993,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="28">
         <v>1</v>
@@ -10191,7 +10201,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
@@ -10213,7 +10223,7 @@
       <c r="U1" s="85"/>
       <c r="V1" s="58"/>
       <c r="W1" s="86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X1" s="87"/>
       <c r="Y1" s="15"/>
@@ -10235,22 +10245,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="91" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="J2" s="16">
         <v>45579</v>
@@ -10283,44 +10293,44 @@
         <v>45649</v>
       </c>
       <c r="T2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="92" t="s">
+      <c r="V2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="X2" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="Y2" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="94" t="s">
+      <c r="Z2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AA2" s="21" t="s">
-        <v>112</v>
-      </c>
       <c r="AB2" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21"/>
       <c r="AE2" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="171">
         <v>0</v>
@@ -10389,7 +10399,7 @@
     </row>
     <row r="4" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="205">
         <v>0</v>
@@ -10448,7 +10458,7 @@
     </row>
     <row r="5" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -10497,7 +10507,7 @@
     </row>
     <row r="6" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="223">
         <v>0</v>
@@ -10507,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="224" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="224">
         <v>0</v>
@@ -10561,7 +10571,7 @@
     </row>
     <row r="7" spans="1:32" s="204" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="203">
         <v>0</v>
@@ -10616,7 +10626,7 @@
     </row>
     <row r="8" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="182">
         <v>0</v>
@@ -10669,7 +10679,7 @@
     </row>
     <row r="9" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -10707,7 +10717,7 @@
     </row>
     <row r="10" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="148">
         <v>2</v>
@@ -10775,7 +10785,7 @@
     </row>
     <row r="11" spans="1:32" s="222" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="214">
         <v>0</v>
@@ -10844,7 +10854,7 @@
     </row>
     <row r="12" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="205">
         <v>0</v>
@@ -10905,7 +10915,7 @@
     </row>
     <row r="13" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="100">
         <v>0</v>
@@ -10958,7 +10968,7 @@
     </row>
     <row r="14" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="148">
         <v>2</v>
@@ -11028,7 +11038,7 @@
     </row>
     <row r="15" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="182">
         <v>0</v>
@@ -11083,7 +11093,7 @@
     </row>
     <row r="16" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
@@ -11227,7 +11237,7 @@
       <c r="AC17" s="91"/>
       <c r="AD17" s="91"/>
       <c r="AE17" s="91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF17" s="91" t="str">
         <f>AF2</f>
@@ -11236,7 +11246,7 @@
     </row>
     <row r="18" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="232" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="161">
         <v>2</v>
@@ -11301,7 +11311,7 @@
     </row>
     <row r="19" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="182">
         <v>0</v>
@@ -11356,7 +11366,7 @@
     </row>
     <row r="20" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="148">
         <v>2</v>
@@ -11425,7 +11435,7 @@
     </row>
     <row r="21" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="148">
         <v>2</v>
@@ -11494,7 +11504,7 @@
     </row>
     <row r="22" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="233" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="223">
         <v>1</v>
@@ -11558,7 +11568,7 @@
     </row>
     <row r="23" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="182">
         <v>0</v>
@@ -11613,7 +11623,7 @@
     </row>
     <row r="24" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="182">
         <v>0</v>
@@ -11668,7 +11678,7 @@
     </row>
     <row r="25" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="193" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="182">
         <v>0</v>
@@ -11723,7 +11733,7 @@
     </row>
     <row r="26" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="182">
         <v>0</v>
@@ -11778,7 +11788,7 @@
     </row>
     <row r="27" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" s="223">
         <v>0</v>
@@ -11842,7 +11852,7 @@
     </row>
     <row r="28" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="148">
         <v>1</v>
@@ -11910,7 +11920,7 @@
     </row>
     <row r="29" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="148">
         <v>2</v>
@@ -11978,7 +11988,7 @@
     </row>
     <row r="30" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="148">
         <v>2</v>
@@ -12046,7 +12056,7 @@
     </row>
     <row r="31" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="235" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="205">
         <v>0</v>
@@ -12106,7 +12116,7 @@
     </row>
     <row r="32" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="182">
         <v>0</v>
@@ -12161,7 +12171,7 @@
     </row>
     <row r="33" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="235" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="205">
         <v>2</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF85F10-76F5-46B9-8397-321785B99369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F058F-C0D6-4689-9267-1033D24A39AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="277">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1407,6 +1407,63 @@
   </si>
   <si>
     <t>ПР4. Telephony</t>
+  </si>
+  <si>
+    <t>https://github.com/sea-krevetka/visual-prog-android</t>
+  </si>
+  <si>
+    <t>https://github.com/SandelMan222/visualprogramm</t>
+  </si>
+  <si>
+    <t>https://github.com/TayaVoin/VisualProg</t>
+  </si>
+  <si>
+    <t>https://github.com/defutfqr/vis</t>
+  </si>
+  <si>
+    <t>https://github.com/alenkatopprogger/visual</t>
+  </si>
+  <si>
+    <t>https://github.com/TheR1nkro/Visual</t>
+  </si>
+  <si>
+    <t>https://github.com/NikitaMakarov393/android-project</t>
+  </si>
+  <si>
+    <t>https://github.com/BlexArown/Visual-programming</t>
+  </si>
+  <si>
+    <t>https://github.com/Gmmba/Visual_Programming</t>
+  </si>
+  <si>
+    <t>https://github.com/Tesayaa/programming</t>
+  </si>
+  <si>
+    <t>https://github.com/saliyvlad/Android</t>
+  </si>
+  <si>
+    <t>https://github.com/kirill2068/vizualnoe-progr</t>
+  </si>
+  <si>
+    <t>https://github.com/KBACokk/Android_programm</t>
+  </si>
+  <si>
+    <t>https://github.com/MissViktoria/Visual</t>
+  </si>
+  <si>
+    <t>https://github.com/nevertoomuch/AndroidProject/tree/main#</t>
+  </si>
+  <si>
+    <t>https://github.com/Vapr2610/android</t>
+  </si>
+  <si>
+    <t>https://github.com/FacelessProfile/VProg</t>
+  </si>
+  <si>
+    <t>https://github.com/lolokeyt/Android--</t>
+  </si>
+  <si>
+    <t>https://github.com/Nikitulka0120/Android-project</t>
   </si>
 </sst>
 </file>
@@ -3523,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3644,9 @@
       <c r="C5" s="256">
         <v>1</v>
       </c>
-      <c r="D5" s="256"/>
+      <c r="D5" s="296" t="s">
+        <v>258</v>
+      </c>
       <c r="E5" s="256"/>
       <c r="F5" s="256"/>
       <c r="G5" s="256"/>
@@ -3609,7 +3668,9 @@
       <c r="C6" s="256">
         <v>1</v>
       </c>
-      <c r="D6" s="256"/>
+      <c r="D6" s="296" t="s">
+        <v>259</v>
+      </c>
       <c r="E6" s="256"/>
       <c r="F6" s="256"/>
       <c r="G6" s="256"/>
@@ -3653,7 +3714,9 @@
       <c r="C8" s="256">
         <v>1</v>
       </c>
-      <c r="D8" s="256"/>
+      <c r="D8" s="296" t="s">
+        <v>260</v>
+      </c>
       <c r="E8" s="256"/>
       <c r="F8" s="256"/>
       <c r="G8" s="256"/>
@@ -3675,7 +3738,9 @@
       <c r="C9" s="256">
         <v>1</v>
       </c>
-      <c r="D9" s="256"/>
+      <c r="D9" s="296" t="s">
+        <v>261</v>
+      </c>
       <c r="E9" s="256"/>
       <c r="F9" s="256"/>
       <c r="G9" s="256"/>
@@ -3697,7 +3762,9 @@
       <c r="C10" s="256">
         <v>1</v>
       </c>
-      <c r="D10" s="256"/>
+      <c r="D10" s="296" t="s">
+        <v>262</v>
+      </c>
       <c r="E10" s="256"/>
       <c r="F10" s="256"/>
       <c r="G10" s="256"/>
@@ -3719,7 +3786,9 @@
       <c r="C11" s="256">
         <v>0</v>
       </c>
-      <c r="D11" s="256"/>
+      <c r="D11" s="296" t="s">
+        <v>263</v>
+      </c>
       <c r="E11" s="256"/>
       <c r="F11" s="256"/>
       <c r="G11" s="256"/>
@@ -3741,7 +3810,9 @@
       <c r="C12" s="256">
         <v>0</v>
       </c>
-      <c r="D12" s="256"/>
+      <c r="D12" s="296" t="s">
+        <v>264</v>
+      </c>
       <c r="E12" s="256"/>
       <c r="F12" s="256"/>
       <c r="G12" s="256"/>
@@ -3763,7 +3834,9 @@
       <c r="C13" s="256">
         <v>1</v>
       </c>
-      <c r="D13" s="256"/>
+      <c r="D13" s="296" t="s">
+        <v>265</v>
+      </c>
       <c r="E13" s="256"/>
       <c r="F13" s="256"/>
       <c r="G13" s="256"/>
@@ -3785,7 +3858,9 @@
       <c r="C14" s="256">
         <v>0</v>
       </c>
-      <c r="D14" s="256"/>
+      <c r="D14" s="296" t="s">
+        <v>266</v>
+      </c>
       <c r="E14" s="256"/>
       <c r="F14" s="256"/>
       <c r="G14" s="256"/>
@@ -3807,7 +3882,9 @@
       <c r="C15" s="256">
         <v>0</v>
       </c>
-      <c r="D15" s="256"/>
+      <c r="D15" s="296" t="s">
+        <v>267</v>
+      </c>
       <c r="E15" s="256"/>
       <c r="F15" s="256"/>
       <c r="G15" s="256"/>
@@ -3829,7 +3906,9 @@
       <c r="C16" s="256">
         <v>0</v>
       </c>
-      <c r="D16" s="256"/>
+      <c r="D16" s="296" t="s">
+        <v>268</v>
+      </c>
       <c r="E16" s="256"/>
       <c r="F16" s="256"/>
       <c r="G16" s="256"/>
@@ -3851,7 +3930,9 @@
       <c r="C17" s="256">
         <v>1</v>
       </c>
-      <c r="D17" s="256"/>
+      <c r="D17" s="296" t="s">
+        <v>269</v>
+      </c>
       <c r="E17" s="256"/>
       <c r="F17" s="256"/>
       <c r="G17" s="256"/>
@@ -3873,7 +3954,9 @@
       <c r="C18" s="256">
         <v>1</v>
       </c>
-      <c r="D18" s="256"/>
+      <c r="D18" s="296" t="s">
+        <v>270</v>
+      </c>
       <c r="E18" s="256"/>
       <c r="F18" s="256"/>
       <c r="G18" s="256"/>
@@ -3895,7 +3978,9 @@
       <c r="C19" s="256">
         <v>1</v>
       </c>
-      <c r="D19" s="256"/>
+      <c r="D19" s="296" t="s">
+        <v>271</v>
+      </c>
       <c r="E19" s="256"/>
       <c r="F19" s="256"/>
       <c r="G19" s="256"/>
@@ -3917,7 +4002,9 @@
       <c r="C20" s="256">
         <v>1</v>
       </c>
-      <c r="D20" s="256"/>
+      <c r="D20" s="296" t="s">
+        <v>272</v>
+      </c>
       <c r="E20" s="256"/>
       <c r="F20" s="256"/>
       <c r="G20" s="256"/>
@@ -3961,7 +4048,9 @@
       <c r="C22" s="256">
         <v>1</v>
       </c>
-      <c r="D22" s="256"/>
+      <c r="D22" s="296" t="s">
+        <v>274</v>
+      </c>
       <c r="E22" s="256"/>
       <c r="F22" s="256"/>
       <c r="G22" s="256"/>
@@ -3983,7 +4072,9 @@
       <c r="C23" s="256">
         <v>0</v>
       </c>
-      <c r="D23" s="256"/>
+      <c r="D23" s="296" t="s">
+        <v>275</v>
+      </c>
       <c r="E23" s="256"/>
       <c r="F23" s="256"/>
       <c r="G23" s="256"/>
@@ -4005,7 +4096,9 @@
       <c r="C24" s="256">
         <v>1</v>
       </c>
-      <c r="D24" s="256"/>
+      <c r="D24" s="296" t="s">
+        <v>276</v>
+      </c>
       <c r="E24" s="256"/>
       <c r="F24" s="256"/>
       <c r="G24" s="256"/>
@@ -4027,7 +4120,9 @@
       <c r="C25" s="256">
         <v>1</v>
       </c>
-      <c r="D25" s="256"/>
+      <c r="D25" s="296" t="s">
+        <v>273</v>
+      </c>
       <c r="E25" s="256"/>
       <c r="F25" s="256"/>
       <c r="G25" s="256"/>
@@ -4040,8 +4135,29 @@
       <c r="N25" s="256"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
+    <hyperlink ref="D6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
+    <hyperlink ref="D8" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
+    <hyperlink ref="D9" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
+    <hyperlink ref="D10" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
+    <hyperlink ref="D11" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
+    <hyperlink ref="D12" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
+    <hyperlink ref="D13" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
+    <hyperlink ref="D14" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
+    <hyperlink ref="D15" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
+    <hyperlink ref="D16" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
+    <hyperlink ref="D17" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
+    <hyperlink ref="D18" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
+    <hyperlink ref="D19" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
+    <hyperlink ref="D20" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
+    <hyperlink ref="D25" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
+    <hyperlink ref="D22" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
+    <hyperlink ref="D23" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
+    <hyperlink ref="D24" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4500,7 +4616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AM22" sqref="AM22"/>
     </sheetView>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F058F-C0D6-4689-9267-1033D24A39AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684EA77C-0156-450D-B187-32E8CE5944ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -3580,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -4165,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,7 +4184,7 @@
         <v>192</v>
       </c>
       <c r="C3" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="256"/>
     </row>
@@ -4231,7 +4231,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="296" t="s">
         <v>231</v>
@@ -4245,7 +4245,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="296" t="s">
         <v>232</v>
@@ -4259,7 +4259,7 @@
         <v>195</v>
       </c>
       <c r="C7" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="296" t="s">
         <v>233</v>
@@ -4273,7 +4273,7 @@
         <v>196</v>
       </c>
       <c r="C8" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="296" t="s">
         <v>234</v>
@@ -4287,7 +4287,7 @@
         <v>197</v>
       </c>
       <c r="C9" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="296" t="s">
         <v>235</v>
@@ -4301,7 +4301,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="296" t="s">
         <v>236</v>
@@ -4315,7 +4315,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="296" t="s">
         <v>237</v>
@@ -4329,7 +4329,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="296" t="s">
         <v>238</v>
@@ -4343,7 +4343,7 @@
         <v>201</v>
       </c>
       <c r="C13" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="296" t="s">
         <v>239</v>
@@ -4357,7 +4357,7 @@
         <v>202</v>
       </c>
       <c r="C14" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>203</v>
       </c>
       <c r="C15" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="296" t="s">
         <v>240</v>
@@ -4382,7 +4382,7 @@
         <v>225</v>
       </c>
       <c r="C16" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="296" t="s">
         <v>241</v>
@@ -4396,7 +4396,7 @@
         <v>204</v>
       </c>
       <c r="C17" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="296" t="s">
         <v>242</v>
@@ -4410,7 +4410,7 @@
         <v>205</v>
       </c>
       <c r="C18" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="296" t="s">
         <v>243</v>
@@ -4424,7 +4424,7 @@
         <v>206</v>
       </c>
       <c r="C19" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>207</v>
       </c>
       <c r="C20" s="256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="296" t="s">
         <v>244</v>
@@ -4449,7 +4449,7 @@
         <v>208</v>
       </c>
       <c r="C21" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="296" t="s">
         <v>245</v>
@@ -4463,7 +4463,7 @@
         <v>209</v>
       </c>
       <c r="C22" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="296" t="s">
         <v>246</v>
@@ -4477,7 +4477,7 @@
         <v>210</v>
       </c>
       <c r="C23" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="296" t="s">
         <v>247</v>
@@ -4491,7 +4491,7 @@
         <v>211</v>
       </c>
       <c r="C24" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="296" t="s">
         <v>248</v>
@@ -4505,7 +4505,7 @@
         <v>212</v>
       </c>
       <c r="C25" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="296" t="s">
         <v>249</v>
@@ -4519,7 +4519,7 @@
         <v>213</v>
       </c>
       <c r="C26" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="296" t="s">
         <v>250</v>
@@ -4533,7 +4533,7 @@
         <v>214</v>
       </c>
       <c r="C27" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="296" t="s">
         <v>251</v>
@@ -4547,7 +4547,7 @@
         <v>215</v>
       </c>
       <c r="C28" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="296" t="s">
         <v>252</v>
@@ -4561,7 +4561,7 @@
         <v>216</v>
       </c>
       <c r="C29" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="296" t="s">
         <v>253</v>
@@ -4575,7 +4575,7 @@
         <v>226</v>
       </c>
       <c r="C30" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="296" t="s">
         <v>254</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684EA77C-0156-450D-B187-32E8CE5944ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BC833-D7E9-40CB-BAF4-2B5E828C3C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="281">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1464,6 +1464,18 @@
   </si>
   <si>
     <t>https://github.com/Nikitulka0120/Android-project</t>
+  </si>
+  <si>
+    <t>ПР0. Git</t>
+  </si>
+  <si>
+    <t>ПР1. Class</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ПР2. Наследование. Threads</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2100,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2610,6 +2622,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3580,15 +3595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3598,7 +3615,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="256"/>
       <c r="E3" s="256"/>
@@ -3623,9 +3640,15 @@
       <c r="D4" s="261" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="261"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="256"/>
+      <c r="E4" s="261" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="289" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="256" t="s">
+        <v>280</v>
+      </c>
       <c r="H4" s="256"/>
       <c r="I4" s="256"/>
       <c r="J4" s="256"/>
@@ -3638,18 +3661,24 @@
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="297" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="296" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
+      <c r="E5" s="256">
+        <v>100</v>
+      </c>
+      <c r="F5" s="256">
+        <v>100</v>
+      </c>
+      <c r="G5" s="256">
+        <v>100</v>
+      </c>
       <c r="H5" s="256"/>
       <c r="I5" s="256"/>
       <c r="J5" s="256"/>
@@ -3671,8 +3700,12 @@
       <c r="D6" s="296" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
+      <c r="E6" s="256">
+        <v>50</v>
+      </c>
+      <c r="F6" s="256">
+        <v>0</v>
+      </c>
       <c r="G6" s="256"/>
       <c r="H6" s="256"/>
       <c r="I6" s="256"/>
@@ -3692,9 +3725,15 @@
       <c r="C7" s="291">
         <v>0</v>
       </c>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="D7" s="256">
+        <v>0</v>
+      </c>
+      <c r="E7" s="256">
+        <v>0</v>
+      </c>
+      <c r="F7" s="256">
+        <v>0</v>
+      </c>
       <c r="G7" s="256"/>
       <c r="H7" s="256"/>
       <c r="I7" s="256"/>
@@ -3712,13 +3751,17 @@
         <v>175</v>
       </c>
       <c r="C8" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="296" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="E8" s="256">
+        <v>100</v>
+      </c>
+      <c r="F8" s="256">
+        <v>100</v>
+      </c>
       <c r="G8" s="256"/>
       <c r="H8" s="256"/>
       <c r="I8" s="256"/>
@@ -3736,13 +3779,17 @@
         <v>176</v>
       </c>
       <c r="C9" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="296" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
+      <c r="E9" s="256">
+        <v>100</v>
+      </c>
+      <c r="F9" s="256">
+        <v>100</v>
+      </c>
       <c r="G9" s="256"/>
       <c r="H9" s="256"/>
       <c r="I9" s="256"/>
@@ -3760,13 +3807,17 @@
         <v>177</v>
       </c>
       <c r="C10" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="296" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
+      <c r="E10" s="256">
+        <v>100</v>
+      </c>
+      <c r="F10" s="256">
+        <v>90</v>
+      </c>
       <c r="G10" s="256"/>
       <c r="H10" s="256"/>
       <c r="I10" s="256"/>
@@ -3789,8 +3840,12 @@
       <c r="D11" s="296" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
+      <c r="E11" s="256">
+        <v>0</v>
+      </c>
+      <c r="F11" s="256">
+        <v>0</v>
+      </c>
       <c r="G11" s="256"/>
       <c r="H11" s="256"/>
       <c r="I11" s="256"/>
@@ -3813,8 +3868,12 @@
       <c r="D12" s="296" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
+      <c r="E12" s="256">
+        <v>0</v>
+      </c>
+      <c r="F12" s="256">
+        <v>0</v>
+      </c>
       <c r="G12" s="256"/>
       <c r="H12" s="256"/>
       <c r="I12" s="256"/>
@@ -3837,8 +3896,12 @@
       <c r="D13" s="296" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
+      <c r="E13" s="256">
+        <v>100</v>
+      </c>
+      <c r="F13" s="256">
+        <v>0</v>
+      </c>
       <c r="G13" s="256"/>
       <c r="H13" s="256"/>
       <c r="I13" s="256"/>
@@ -3856,13 +3919,17 @@
         <v>181</v>
       </c>
       <c r="C14" s="256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
+      <c r="E14" s="256">
+        <v>100</v>
+      </c>
+      <c r="F14" s="256" t="s">
+        <v>279</v>
+      </c>
       <c r="G14" s="256"/>
       <c r="H14" s="256"/>
       <c r="I14" s="256"/>
@@ -3885,8 +3952,12 @@
       <c r="D15" s="296" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
+      <c r="E15" s="256">
+        <v>0</v>
+      </c>
+      <c r="F15" s="256">
+        <v>0</v>
+      </c>
       <c r="G15" s="256"/>
       <c r="H15" s="256"/>
       <c r="I15" s="256"/>
@@ -3909,8 +3980,12 @@
       <c r="D16" s="296" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
+      <c r="E16" s="256">
+        <v>100</v>
+      </c>
+      <c r="F16" s="256">
+        <v>0</v>
+      </c>
       <c r="G16" s="256"/>
       <c r="H16" s="256"/>
       <c r="I16" s="256"/>
@@ -3928,13 +4003,17 @@
         <v>227</v>
       </c>
       <c r="C17" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="296" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
+      <c r="E17" s="256">
+        <v>0</v>
+      </c>
+      <c r="F17" s="256">
+        <v>0</v>
+      </c>
       <c r="G17" s="256"/>
       <c r="H17" s="256"/>
       <c r="I17" s="256"/>
@@ -3952,13 +4031,17 @@
         <v>184</v>
       </c>
       <c r="C18" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="296" t="s">
         <v>270</v>
       </c>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
+      <c r="E18" s="256">
+        <v>100</v>
+      </c>
+      <c r="F18" s="256">
+        <v>100</v>
+      </c>
       <c r="G18" s="256"/>
       <c r="H18" s="256"/>
       <c r="I18" s="256"/>
@@ -3981,8 +4064,12 @@
       <c r="D19" s="296" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
+      <c r="E19" s="256">
+        <v>100</v>
+      </c>
+      <c r="F19" s="256">
+        <v>100</v>
+      </c>
       <c r="G19" s="256"/>
       <c r="H19" s="256"/>
       <c r="I19" s="256"/>
@@ -4000,13 +4087,17 @@
         <v>186</v>
       </c>
       <c r="C20" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
+      <c r="E20" s="256">
+        <v>100</v>
+      </c>
+      <c r="F20" s="256">
+        <v>0</v>
+      </c>
       <c r="G20" s="256"/>
       <c r="H20" s="256"/>
       <c r="I20" s="256"/>
@@ -4026,9 +4117,15 @@
       <c r="C21" s="291">
         <v>0</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
+      <c r="D21" s="256">
+        <v>0</v>
+      </c>
+      <c r="E21" s="256">
+        <v>0</v>
+      </c>
+      <c r="F21" s="256">
+        <v>0</v>
+      </c>
       <c r="G21" s="256"/>
       <c r="H21" s="256"/>
       <c r="I21" s="256"/>
@@ -4046,7 +4143,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="296" t="s">
         <v>274</v>
@@ -4070,7 +4167,7 @@
         <v>189</v>
       </c>
       <c r="C23" s="256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="296" t="s">
         <v>275</v>
@@ -4094,7 +4191,7 @@
         <v>190</v>
       </c>
       <c r="C24" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="296" t="s">
         <v>276</v>
@@ -4118,7 +4215,7 @@
         <v>228</v>
       </c>
       <c r="C25" s="256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="296" t="s">
         <v>273</v>
@@ -4165,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <dimension ref="A2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -2,22 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6BC833-D7E9-40CB-BAF4-2B5E828C3C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25709C63-74FD-42E9-8AEC-DA4C7209BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
     <sheet name="ИКС_432" sheetId="5" r:id="rId2"/>
     <sheet name="ИКС_433" sheetId="6" r:id="rId3"/>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId4"/>
-    <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="CONST" sheetId="7" r:id="rId5"/>
+    <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -633,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="319">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1476,6 +1477,120 @@
   </si>
   <si>
     <t>ПР2. Наследование. Threads</t>
+  </si>
+  <si>
+    <t>https://github.com/dokbrawn/visprog</t>
+  </si>
+  <si>
+    <t>https://github.com/avdasich/visprog-hci</t>
+  </si>
+  <si>
+    <t>https://github.com/fANLO77/Visual-Programing</t>
+  </si>
+  <si>
+    <t>https://github.com/tofing/Android.git</t>
+  </si>
+  <si>
+    <t>https://github.com/PavelVOLK1929/AndroidStuding</t>
+  </si>
+  <si>
+    <t>https://github.com/beyxnd3r/AndroidProject</t>
+  </si>
+  <si>
+    <t>https://github.com/DvornikovAA404/Android-GPS.git</t>
+  </si>
+  <si>
+    <t>https://github.com/Umbrakernel/Android-project</t>
+  </si>
+  <si>
+    <t>https://github.com/tortikmam/Visual.git</t>
+  </si>
+  <si>
+    <t>https://github.com/exxbtw/AndroidProject/</t>
+  </si>
+  <si>
+    <t>https://github.com/iliyagitH/andprog</t>
+  </si>
+  <si>
+    <t>https://github.com/iken4ik/Oop</t>
+  </si>
+  <si>
+    <t>https://github.com/Qreuff/android_project</t>
+  </si>
+  <si>
+    <t>https://github.com/Sadilivdanil/Android.git</t>
+  </si>
+  <si>
+    <t>https://github.com/WillzKing/VPaHMD.git</t>
+  </si>
+  <si>
+    <t>https://github.com/larke4/android/tree/main</t>
+  </si>
+  <si>
+    <t>https://github.com/bebrium/AndroidOOP</t>
+  </si>
+  <si>
+    <t>https://github.com/SilverPulse/Android</t>
+  </si>
+  <si>
+    <t>https://github.com/thausoma/mobiledev</t>
+  </si>
+  <si>
+    <t>Боровченко Юрий А.</t>
+  </si>
+  <si>
+    <t>https://github.com/qwertynhappy-del/Visual_p_Brovchenko</t>
+  </si>
+  <si>
+    <t>ПР.1 Основы ООП.</t>
+  </si>
+  <si>
+    <t>Global List</t>
+  </si>
+  <si>
+    <t>Visual Programming</t>
+  </si>
+  <si>
+    <t>ПР1. Основы ООП.</t>
+  </si>
+  <si>
+    <t>ПР2. Наследование. Thread.</t>
+  </si>
+  <si>
+    <t>ПР3. Интерфейсы.</t>
+  </si>
+  <si>
+    <t>ПР4. Android. Основы.</t>
+  </si>
+  <si>
+    <t>ПР5. Android. Виджеты.</t>
+  </si>
+  <si>
+    <t>ПР6. Android. Калькулятор.</t>
+  </si>
+  <si>
+    <t>Пр7. Android. МедиаПлеер.</t>
+  </si>
+  <si>
+    <t>ПР0. Git.</t>
+  </si>
+  <si>
+    <t>ПР8. Android. Json.</t>
+  </si>
+  <si>
+    <t>ПР9. Android. Местоположение Телефона</t>
+  </si>
+  <si>
+    <t>ПР10. Android. Информация о 2\3\4\5G.</t>
+  </si>
+  <si>
+    <t>ПР11. Android. Сокеты.</t>
+  </si>
+  <si>
+    <t>ПР12. Desktop. Python. Сокеты</t>
+  </si>
+  <si>
+    <t>ПР13. Desktop. База данных.</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1626,6 +1741,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1823,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2092,6 +2213,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2100,7 +2251,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2553,16 +2704,9 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2597,34 +2741,75 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3022,10 +3207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
-  <dimension ref="A2:M37"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,537 +3219,934 @@
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="256"/>
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="284" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
+      <c r="C3" s="283">
+        <v>2</v>
+      </c>
+      <c r="D3" s="283"/>
       <c r="E3" s="6"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="259" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="260" t="s">
+      <c r="B4" s="302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="303" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="295"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="313" t="str">
+        <f>CONST!C3</f>
+        <v>ПР0. Git.</v>
+      </c>
+      <c r="F4" s="314" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="307"/>
+      <c r="N4" s="307"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="307"/>
+      <c r="V4" s="308"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
       <c r="B5" s="256" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="263">
-        <v>0</v>
-      </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="309">
+        <v>0</v>
+      </c>
+      <c r="D5" s="285" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="310">
+        <v>0</v>
+      </c>
+      <c r="F5" s="311">
+        <v>0</v>
+      </c>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="289"/>
+      <c r="Q5" s="289"/>
+      <c r="R5" s="289"/>
+      <c r="S5" s="289"/>
+      <c r="T5" s="290"/>
+      <c r="U5" s="290"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
       <c r="B6" s="256" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="263">
-        <v>1</v>
-      </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="260">
+        <v>2</v>
+      </c>
+      <c r="D6" s="285" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="291">
+        <v>100</v>
+      </c>
+      <c r="F6" s="286">
+        <v>0</v>
+      </c>
+      <c r="G6" s="288"/>
+      <c r="H6" s="288"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="288"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="288"/>
+      <c r="N6" s="289"/>
+      <c r="O6" s="289"/>
+      <c r="P6" s="289"/>
+      <c r="Q6" s="289"/>
+      <c r="R6" s="289"/>
+      <c r="S6" s="289"/>
+      <c r="T6" s="290"/>
+      <c r="U6" s="290"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
       <c r="B7" s="256" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="263">
-        <v>1</v>
-      </c>
-      <c r="D7" s="264"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="260">
+        <v>2</v>
+      </c>
+      <c r="D7" s="285" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="292">
+        <v>0</v>
+      </c>
+      <c r="F7" s="286">
+        <v>0</v>
+      </c>
+      <c r="G7" s="288"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="288"/>
+      <c r="K7" s="288"/>
+      <c r="L7" s="288"/>
+      <c r="M7" s="288"/>
+      <c r="N7" s="289"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
       <c r="B8" s="256" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="264">
-        <v>1</v>
-      </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="261">
+        <v>1</v>
+      </c>
+      <c r="D8" s="285" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="288">
+        <v>0</v>
+      </c>
+      <c r="F8" s="288">
+        <v>0</v>
+      </c>
+      <c r="G8" s="288"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="288"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="288"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="289"/>
+      <c r="O8" s="289"/>
+      <c r="P8" s="289"/>
+      <c r="Q8" s="289"/>
+      <c r="R8" s="289"/>
+      <c r="S8" s="289"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
       <c r="B9" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="264">
-        <v>1</v>
-      </c>
-      <c r="D9" s="264"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="261">
+        <v>2</v>
+      </c>
+      <c r="D9" s="285" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="288">
+        <v>100</v>
+      </c>
+      <c r="F9" s="288">
+        <v>100</v>
+      </c>
+      <c r="G9" s="288"/>
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="288"/>
+      <c r="L9" s="288"/>
+      <c r="M9" s="288"/>
+      <c r="N9" s="289"/>
+      <c r="O9" s="289"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="289"/>
+      <c r="T9" s="290"/>
+      <c r="U9" s="290"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
       <c r="B10" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="264">
-        <v>1</v>
-      </c>
-      <c r="D10" s="264"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="261">
+        <v>2</v>
+      </c>
+      <c r="D10" s="285" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="288">
+        <v>100</v>
+      </c>
+      <c r="F10" s="288">
+        <v>90</v>
+      </c>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="288"/>
+      <c r="N10" s="289"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="289"/>
+      <c r="Q10" s="289"/>
+      <c r="R10" s="289"/>
+      <c r="S10" s="289"/>
+      <c r="T10" s="290"/>
+      <c r="U10" s="290"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
       <c r="B11" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="264">
-        <v>1</v>
-      </c>
-      <c r="D11" s="264"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="261">
+        <v>2</v>
+      </c>
+      <c r="D11" s="285" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="288">
+        <v>100</v>
+      </c>
+      <c r="F11" s="288">
+        <v>100</v>
+      </c>
+      <c r="G11" s="288"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="288"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="289"/>
+      <c r="Q11" s="289"/>
+      <c r="R11" s="289"/>
+      <c r="S11" s="289"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
       <c r="B12" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="264">
-        <v>0</v>
-      </c>
-      <c r="D12" s="264"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="261">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="288">
+        <v>0</v>
+      </c>
+      <c r="F12" s="288">
+        <v>0</v>
+      </c>
+      <c r="G12" s="288"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="288"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="289"/>
+      <c r="P12" s="289"/>
+      <c r="Q12" s="289"/>
+      <c r="R12" s="289"/>
+      <c r="S12" s="289"/>
+      <c r="T12" s="290"/>
+      <c r="U12" s="290"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
       <c r="B13" s="256" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="264">
-        <v>1</v>
-      </c>
-      <c r="D13" s="264"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="261">
+        <v>2</v>
+      </c>
+      <c r="D13" s="285" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="288">
+        <v>100</v>
+      </c>
+      <c r="F13" s="288">
+        <v>100</v>
+      </c>
+      <c r="G13" s="288"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="288"/>
+      <c r="J13" s="288"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="288"/>
+      <c r="N13" s="289"/>
+      <c r="O13" s="289"/>
+      <c r="P13" s="289"/>
+      <c r="Q13" s="289"/>
+      <c r="R13" s="289"/>
+      <c r="S13" s="289"/>
+      <c r="T13" s="290"/>
+      <c r="U13" s="290"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="292" t="s">
+      <c r="B14" s="282" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="264">
-        <v>1</v>
-      </c>
-      <c r="D14" s="264"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="261">
+        <v>1</v>
+      </c>
+      <c r="D14" s="285" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="288">
+        <v>100</v>
+      </c>
+      <c r="F14" s="288">
+        <v>100</v>
+      </c>
+      <c r="G14" s="288"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="289"/>
+      <c r="O14" s="289"/>
+      <c r="P14" s="289"/>
+      <c r="Q14" s="289"/>
+      <c r="R14" s="289"/>
+      <c r="S14" s="289"/>
+      <c r="T14" s="290"/>
+      <c r="U14" s="290"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
       <c r="B15" s="256" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="264">
-        <v>1</v>
-      </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="261">
+        <v>2</v>
+      </c>
+      <c r="D15" s="285" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="288">
+        <v>100</v>
+      </c>
+      <c r="F15" s="288">
+        <v>100</v>
+      </c>
+      <c r="G15" s="288"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="288"/>
+      <c r="J15" s="288"/>
+      <c r="K15" s="288"/>
+      <c r="L15" s="288"/>
+      <c r="M15" s="288"/>
+      <c r="N15" s="289"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="290"/>
+      <c r="U15" s="290"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
       <c r="B16" s="256" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="264">
-        <v>1</v>
-      </c>
-      <c r="D16" s="264"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="261">
+        <v>2</v>
+      </c>
+      <c r="D16" s="285" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="288">
+        <v>100</v>
+      </c>
+      <c r="F16" s="288">
+        <v>100</v>
+      </c>
+      <c r="G16" s="288"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="288"/>
+      <c r="L16" s="288"/>
+      <c r="M16" s="288"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="289"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="289"/>
+      <c r="R16" s="289"/>
+      <c r="S16" s="289"/>
+      <c r="T16" s="290"/>
+      <c r="U16" s="290"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
       <c r="B17" s="256" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="264">
-        <v>1</v>
-      </c>
-      <c r="D17" s="264"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="261">
+        <v>1</v>
+      </c>
+      <c r="D17" s="285" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="288">
+        <v>0</v>
+      </c>
+      <c r="F17" s="288">
+        <v>0</v>
+      </c>
+      <c r="G17" s="288"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="288"/>
+      <c r="L17" s="288"/>
+      <c r="M17" s="288"/>
+      <c r="N17" s="289"/>
+      <c r="O17" s="289"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="289"/>
+      <c r="R17" s="289"/>
+      <c r="S17" s="289"/>
+      <c r="T17" s="290"/>
+      <c r="U17" s="290"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
       <c r="B18" s="256" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="264">
-        <v>1</v>
-      </c>
-      <c r="D18" s="264"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="261">
+        <v>2</v>
+      </c>
+      <c r="D18" s="285" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="288">
+        <v>100</v>
+      </c>
+      <c r="F18" s="288">
+        <v>100</v>
+      </c>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="288"/>
+      <c r="N18" s="289"/>
+      <c r="O18" s="289"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="289"/>
+      <c r="S18" s="289"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="290"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
       <c r="B19" s="256" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="264">
-        <v>1</v>
-      </c>
-      <c r="D19" s="264"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="261">
+        <v>2</v>
+      </c>
+      <c r="D19" s="285" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="288">
+        <v>100</v>
+      </c>
+      <c r="F19" s="288">
+        <v>100</v>
+      </c>
+      <c r="G19" s="288"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="288"/>
+      <c r="J19" s="288"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="288"/>
+      <c r="N19" s="289"/>
+      <c r="O19" s="289"/>
+      <c r="P19" s="289"/>
+      <c r="Q19" s="289"/>
+      <c r="R19" s="289"/>
+      <c r="S19" s="289"/>
+      <c r="T19" s="290"/>
+      <c r="U19" s="290"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
       <c r="B20" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="264">
-        <v>1</v>
-      </c>
-      <c r="D20" s="264"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="261">
+        <v>2</v>
+      </c>
+      <c r="D20" s="285" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="288">
+        <v>0</v>
+      </c>
+      <c r="F20" s="288">
+        <v>0</v>
+      </c>
+      <c r="G20" s="288"/>
+      <c r="H20" s="288"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="288"/>
+      <c r="K20" s="288"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
+      <c r="N20" s="289"/>
+      <c r="O20" s="289"/>
+      <c r="P20" s="289"/>
+      <c r="Q20" s="289"/>
+      <c r="R20" s="289"/>
+      <c r="S20" s="289"/>
+      <c r="T20" s="290"/>
+      <c r="U20" s="290"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
       <c r="B21" s="256" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="264">
-        <v>1</v>
-      </c>
-      <c r="D21" s="264"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="261">
+        <v>2</v>
+      </c>
+      <c r="D21" s="285" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="288">
+        <v>100</v>
+      </c>
+      <c r="F21" s="288">
+        <v>100</v>
+      </c>
+      <c r="G21" s="288"/>
+      <c r="H21" s="288"/>
+      <c r="I21" s="288"/>
+      <c r="J21" s="288"/>
+      <c r="K21" s="288"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
+      <c r="N21" s="289"/>
+      <c r="O21" s="289"/>
+      <c r="P21" s="289"/>
+      <c r="Q21" s="289"/>
+      <c r="R21" s="289"/>
+      <c r="S21" s="289"/>
+      <c r="T21" s="290"/>
+      <c r="U21" s="290"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
       <c r="B22" s="256" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="264">
-        <v>1</v>
-      </c>
-      <c r="D22" s="264"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="261">
+        <v>1</v>
+      </c>
+      <c r="D22" s="285" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="288">
+        <v>100</v>
+      </c>
+      <c r="F22" s="288">
+        <v>100</v>
+      </c>
+      <c r="G22" s="288"/>
+      <c r="H22" s="288"/>
+      <c r="I22" s="288"/>
+      <c r="J22" s="288"/>
+      <c r="K22" s="288"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="289"/>
+      <c r="P22" s="289"/>
+      <c r="Q22" s="289"/>
+      <c r="R22" s="289"/>
+      <c r="S22" s="289"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="290"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
       <c r="B23" s="256" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="264">
-        <v>1</v>
-      </c>
-      <c r="D23" s="264"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="261">
+        <v>2</v>
+      </c>
+      <c r="D23" s="285" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="288">
+        <v>100</v>
+      </c>
+      <c r="F23" s="288">
+        <v>100</v>
+      </c>
+      <c r="G23" s="288"/>
+      <c r="H23" s="288"/>
+      <c r="I23" s="288"/>
+      <c r="J23" s="288"/>
+      <c r="K23" s="288"/>
+      <c r="L23" s="288"/>
+      <c r="M23" s="288"/>
+      <c r="N23" s="289"/>
+      <c r="O23" s="289"/>
+      <c r="P23" s="289"/>
+      <c r="Q23" s="289"/>
+      <c r="R23" s="289"/>
+      <c r="S23" s="289"/>
+      <c r="T23" s="290"/>
+      <c r="U23" s="290"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
       <c r="B24" s="256" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="264">
-        <v>1</v>
-      </c>
-      <c r="D24" s="264"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="261">
+        <v>2</v>
+      </c>
+      <c r="D24" s="285" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="288">
+        <v>100</v>
+      </c>
+      <c r="F24" s="288">
+        <v>0</v>
+      </c>
+      <c r="G24" s="288"/>
+      <c r="H24" s="288"/>
+      <c r="I24" s="288"/>
+      <c r="J24" s="288"/>
+      <c r="K24" s="288"/>
+      <c r="L24" s="288"/>
+      <c r="M24" s="288"/>
+      <c r="N24" s="289"/>
+      <c r="O24" s="289"/>
+      <c r="P24" s="289"/>
+      <c r="Q24" s="289"/>
+      <c r="R24" s="289"/>
+      <c r="S24" s="289"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
       <c r="B25" s="256" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="264">
-        <v>0</v>
-      </c>
-      <c r="D25" s="264"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="261">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="288">
+        <v>0</v>
+      </c>
+      <c r="F25" s="288">
+        <v>0</v>
+      </c>
+      <c r="G25" s="288"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="288"/>
+      <c r="J25" s="288"/>
+      <c r="K25" s="288"/>
+      <c r="L25" s="288"/>
+      <c r="M25" s="288"/>
+      <c r="N25" s="289"/>
+      <c r="O25" s="289"/>
+      <c r="P25" s="289"/>
+      <c r="Q25" s="289"/>
+      <c r="R25" s="289"/>
+      <c r="S25" s="289"/>
+      <c r="T25" s="290"/>
+      <c r="U25" s="290"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
         <v>22</v>
       </c>
       <c r="B26" s="256" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="264">
-        <v>0</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="C26" s="261">
+        <v>1</v>
+      </c>
+      <c r="D26" s="285" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="288">
+        <v>0</v>
+      </c>
+      <c r="F26" s="288">
+        <v>0</v>
+      </c>
+      <c r="G26" s="288"/>
+      <c r="H26" s="288"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="288"/>
+      <c r="K26" s="288"/>
+      <c r="L26" s="288"/>
+      <c r="M26" s="288"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="290"/>
+      <c r="U26" s="290"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
         <v>23</v>
       </c>
       <c r="B27" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="264">
+      <c r="C27" s="261">
         <v>0</v>
       </c>
       <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="288"/>
+      <c r="H27" s="288"/>
+      <c r="I27" s="288"/>
+      <c r="J27" s="288"/>
+      <c r="K27" s="288"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="288"/>
+      <c r="N27" s="289"/>
+      <c r="O27" s="289"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="290"/>
+      <c r="U27" s="290"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
         <v>24</v>
       </c>
       <c r="B28" s="256" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="264">
+      <c r="C28" s="261">
         <v>0</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="288"/>
+      <c r="H28" s="288"/>
+      <c r="I28" s="288"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="288"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="288"/>
+      <c r="N28" s="289"/>
+      <c r="O28" s="289"/>
+      <c r="P28" s="289"/>
+      <c r="Q28" s="289"/>
+      <c r="R28" s="289"/>
+      <c r="S28" s="289"/>
+      <c r="T28" s="290"/>
+      <c r="U28" s="290"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
@@ -3586,17 +4169,40 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{B88B1819-D74D-4525-9C23-64EF1FA59B9A}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{999A75C5-570C-4159-8C1B-8497D937A254}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{1B568726-0B54-496A-95E7-55277168022F}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{25880CEC-1834-4C25-8577-4B1A2336E35F}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{918D6868-F4A5-4195-9600-219F97ECD7FE}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{D8EC3E77-02EF-4728-B9E6-55355B90D4FE}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{D3E822BB-CED0-4E5F-94BA-77B9FF9E4B86}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{F9D3A8F7-AD97-4A14-923F-240B7D1537E2}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{14C0A389-C375-469D-A68D-C8FFF6B89859}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{30B128E1-0910-4C9F-B972-CFA730448FA6}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{76EF706F-C4F7-448C-BDF1-93DCAF15FC7A}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{E9537228-D47C-4C70-9C98-BF3B91095510}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{5CC09A73-81B7-49E0-A2C0-DFF436F14274}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{74133A5C-74EE-4043-A5BF-ED4569C22305}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{BF746EEF-332F-4301-91BD-72B56229B7C4}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{7992B8D8-C241-4C51-80E0-A3836DAF783A}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{CE73B5BE-F526-4A0F-8EA2-B91B9C7D762C}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{F0EE29BA-7AD7-4853-A58E-30ADC4429E5F}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{740E61FA-303F-4BB2-9328-4D80629BB4C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
-  <dimension ref="A2:N25"/>
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,10 +4214,10 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="281" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="256">
@@ -3629,607 +4235,761 @@
       <c r="M3" s="256"/>
       <c r="N3" s="256"/>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="259" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="260" t="s">
+      <c r="B4" s="302" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="303" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="261" t="s">
+      <c r="E4" s="304" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="289" t="s">
+      <c r="F4" s="305" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="256" t="s">
+      <c r="G4" s="306" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="307"/>
+      <c r="U4" s="308"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="256">
+      <c r="C5" s="299">
         <v>2</v>
       </c>
-      <c r="D5" s="296" t="s">
+      <c r="D5" s="300" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="256">
-        <v>100</v>
-      </c>
-      <c r="F5" s="256">
-        <v>100</v>
-      </c>
-      <c r="G5" s="256">
-        <v>100</v>
-      </c>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="256"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="299">
+        <v>100</v>
+      </c>
+      <c r="F5" s="299">
+        <v>100</v>
+      </c>
+      <c r="G5" s="299">
+        <v>100</v>
+      </c>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
+      <c r="U5" s="301"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="294" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="256">
-        <v>1</v>
-      </c>
-      <c r="D6" s="296" t="s">
+      <c r="C6" s="261">
+        <v>1</v>
+      </c>
+      <c r="D6" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="256">
+      <c r="E6" s="261">
         <v>50</v>
       </c>
-      <c r="F6" s="256">
-        <v>0</v>
-      </c>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="261">
+        <v>0</v>
+      </c>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="295" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="291">
-        <v>0</v>
-      </c>
-      <c r="D7" s="256">
-        <v>0</v>
-      </c>
-      <c r="E7" s="256">
-        <v>0</v>
-      </c>
-      <c r="F7" s="256">
-        <v>0</v>
-      </c>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="296">
+        <v>0</v>
+      </c>
+      <c r="D7" s="261">
+        <v>0</v>
+      </c>
+      <c r="E7" s="261">
+        <v>0</v>
+      </c>
+      <c r="F7" s="261">
+        <v>0</v>
+      </c>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="294" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="256">
+      <c r="C8" s="261">
         <v>2</v>
       </c>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="256">
-        <v>100</v>
-      </c>
-      <c r="F8" s="256">
-        <v>100</v>
-      </c>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="261">
+        <v>100</v>
+      </c>
+      <c r="F8" s="261">
+        <v>100</v>
+      </c>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="294" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="256">
+      <c r="C9" s="261">
         <v>2</v>
       </c>
-      <c r="D9" s="296" t="s">
+      <c r="D9" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="256">
-        <v>100</v>
-      </c>
-      <c r="F9" s="256">
-        <v>100</v>
-      </c>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="256"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="256"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="261">
+        <v>100</v>
+      </c>
+      <c r="F9" s="261">
+        <v>100</v>
+      </c>
+      <c r="G9" s="261"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="261"/>
+      <c r="M9" s="261"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="256">
+      <c r="C10" s="261">
         <v>2</v>
       </c>
-      <c r="D10" s="296" t="s">
+      <c r="D10" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="256">
-        <v>100</v>
-      </c>
-      <c r="F10" s="256">
+      <c r="E10" s="261">
+        <v>100</v>
+      </c>
+      <c r="F10" s="261">
         <v>90</v>
       </c>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="256"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="261"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="261"/>
+      <c r="L10" s="261"/>
+      <c r="M10" s="261"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="262" t="s">
+      <c r="B11" s="294" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="256">
-        <v>0</v>
-      </c>
-      <c r="D11" s="296" t="s">
+      <c r="C11" s="261">
+        <v>0</v>
+      </c>
+      <c r="D11" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="256">
-        <v>0</v>
-      </c>
-      <c r="F11" s="256">
-        <v>0</v>
-      </c>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="256"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="261">
+        <v>0</v>
+      </c>
+      <c r="F11" s="261">
+        <v>0</v>
+      </c>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="261"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="294" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="256">
-        <v>0</v>
-      </c>
-      <c r="D12" s="296" t="s">
+      <c r="C12" s="261">
+        <v>0</v>
+      </c>
+      <c r="D12" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="256">
-        <v>0</v>
-      </c>
-      <c r="F12" s="256">
-        <v>0</v>
-      </c>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="261">
+        <v>0</v>
+      </c>
+      <c r="F12" s="261">
+        <v>0</v>
+      </c>
+      <c r="G12" s="261"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
+      <c r="N12" s="261"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="288" t="s">
+      <c r="B13" s="297" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="256">
-        <v>1</v>
-      </c>
-      <c r="D13" s="296" t="s">
+      <c r="C13" s="261">
+        <v>1</v>
+      </c>
+      <c r="D13" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="256">
-        <v>100</v>
-      </c>
-      <c r="F13" s="256">
-        <v>0</v>
-      </c>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="261">
+        <v>100</v>
+      </c>
+      <c r="F13" s="261">
+        <v>0</v>
+      </c>
+      <c r="G13" s="261"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="261"/>
+      <c r="M13" s="261"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="294" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="256">
-        <v>1</v>
-      </c>
-      <c r="D14" s="296" t="s">
+      <c r="C14" s="261">
+        <v>1</v>
+      </c>
+      <c r="D14" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="E14" s="256">
-        <v>100</v>
-      </c>
-      <c r="F14" s="256" t="s">
+      <c r="E14" s="261">
+        <v>100</v>
+      </c>
+      <c r="F14" s="261" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="261"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="261"/>
+      <c r="L14" s="261"/>
+      <c r="M14" s="261"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="294" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="256">
-        <v>0</v>
-      </c>
-      <c r="D15" s="296" t="s">
+      <c r="C15" s="261">
+        <v>0</v>
+      </c>
+      <c r="D15" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E15" s="256">
-        <v>0</v>
-      </c>
-      <c r="F15" s="256">
-        <v>0</v>
-      </c>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="261">
+        <v>0</v>
+      </c>
+      <c r="F15" s="261">
+        <v>0</v>
+      </c>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="261"/>
+      <c r="L15" s="261"/>
+      <c r="M15" s="261"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="294" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="256">
-        <v>0</v>
-      </c>
-      <c r="D16" s="296" t="s">
+      <c r="C16" s="261">
+        <v>0</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="E16" s="256">
-        <v>100</v>
-      </c>
-      <c r="F16" s="256">
-        <v>0</v>
-      </c>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="261">
+        <v>100</v>
+      </c>
+      <c r="F16" s="261">
+        <v>0</v>
+      </c>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="294" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="256">
+      <c r="C17" s="261">
         <v>2</v>
       </c>
-      <c r="D17" s="296" t="s">
+      <c r="D17" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="E17" s="256">
-        <v>0</v>
-      </c>
-      <c r="F17" s="256">
-        <v>0</v>
-      </c>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="261">
+        <v>0</v>
+      </c>
+      <c r="F17" s="261">
+        <v>0</v>
+      </c>
+      <c r="G17" s="261"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="261"/>
+      <c r="L17" s="261"/>
+      <c r="M17" s="261"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="294" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="256">
+      <c r="C18" s="261">
         <v>2</v>
       </c>
-      <c r="D18" s="296" t="s">
+      <c r="D18" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="E18" s="256">
-        <v>100</v>
-      </c>
-      <c r="F18" s="256">
-        <v>100</v>
-      </c>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="261">
+        <v>100</v>
+      </c>
+      <c r="F18" s="261">
+        <v>100</v>
+      </c>
+      <c r="G18" s="261"/>
+      <c r="H18" s="261"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="261"/>
+      <c r="M18" s="261"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="294" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="256">
-        <v>1</v>
-      </c>
-      <c r="D19" s="296" t="s">
+      <c r="C19" s="261">
+        <v>1</v>
+      </c>
+      <c r="D19" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="256">
-        <v>100</v>
-      </c>
-      <c r="F19" s="256">
-        <v>100</v>
-      </c>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="261">
+        <v>100</v>
+      </c>
+      <c r="F19" s="261">
+        <v>100</v>
+      </c>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
+      <c r="K19" s="261"/>
+      <c r="L19" s="261"/>
+      <c r="M19" s="261"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="256">
+      <c r="C20" s="261">
         <v>2</v>
       </c>
-      <c r="D20" s="296" t="s">
+      <c r="D20" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="256">
-        <v>100</v>
-      </c>
-      <c r="F20" s="256">
-        <v>0</v>
-      </c>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="261">
+        <v>100</v>
+      </c>
+      <c r="F20" s="261">
+        <v>0</v>
+      </c>
+      <c r="G20" s="261"/>
+      <c r="H20" s="261"/>
+      <c r="I20" s="261"/>
+      <c r="J20" s="261"/>
+      <c r="K20" s="261"/>
+      <c r="L20" s="261"/>
+      <c r="M20" s="261"/>
+      <c r="N20" s="261"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="295" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="291">
-        <v>0</v>
-      </c>
-      <c r="D21" s="256">
-        <v>0</v>
-      </c>
-      <c r="E21" s="256">
-        <v>0</v>
-      </c>
-      <c r="F21" s="256">
-        <v>0</v>
-      </c>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="296">
+        <v>0</v>
+      </c>
+      <c r="D21" s="261">
+        <v>0</v>
+      </c>
+      <c r="E21" s="261">
+        <v>0</v>
+      </c>
+      <c r="F21" s="261">
+        <v>0</v>
+      </c>
+      <c r="G21" s="261"/>
+      <c r="H21" s="261"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="261"/>
+      <c r="K21" s="261"/>
+      <c r="L21" s="261"/>
+      <c r="M21" s="261"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="294" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="256">
+      <c r="C22" s="261">
         <v>2</v>
       </c>
-      <c r="D22" s="296" t="s">
+      <c r="D22" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="294" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="256">
-        <v>1</v>
-      </c>
-      <c r="D23" s="296" t="s">
+      <c r="C23" s="261">
+        <v>1</v>
+      </c>
+      <c r="D23" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="261"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="261"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="261"/>
+      <c r="J23" s="261"/>
+      <c r="K23" s="261"/>
+      <c r="L23" s="261"/>
+      <c r="M23" s="261"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="294" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="256">
+      <c r="C24" s="261">
         <v>2</v>
       </c>
-      <c r="D24" s="296" t="s">
+      <c r="D24" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="261"/>
+      <c r="F24" s="261"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="261"/>
+      <c r="I24" s="261"/>
+      <c r="J24" s="261"/>
+      <c r="K24" s="261"/>
+      <c r="L24" s="261"/>
+      <c r="M24" s="261"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="294" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="256">
+      <c r="C25" s="261">
         <v>2</v>
       </c>
-      <c r="D25" s="296" t="s">
+      <c r="D25" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="256"/>
+      <c r="E25" s="261"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="261"/>
+      <c r="I25" s="261"/>
+      <c r="J25" s="261"/>
+      <c r="K25" s="261"/>
+      <c r="L25" s="261"/>
+      <c r="M25" s="261"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4260,10 +5020,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A2:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,7 +5038,7 @@
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="281" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="256">
@@ -4285,398 +5046,894 @@
       </c>
       <c r="D3" s="256"/>
     </row>
-    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="256"/>
-      <c r="B4" s="259" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="284" t="s">
+      <c r="B4" s="293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="258" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="285" t="s">
+      <c r="D4" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="286" t="s">
+      <c r="E4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="315" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="120"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="62"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="294" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="256">
+      <c r="C5" s="261">
         <v>2</v>
       </c>
-      <c r="D5" s="296" t="s">
+      <c r="D5" s="136" t="s">
         <v>231</v>
       </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="294" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="256">
+      <c r="C6" s="261">
         <v>2</v>
       </c>
-      <c r="D6" s="296" t="s">
+      <c r="D6" s="136" t="s">
         <v>232</v>
       </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="262" t="s">
+      <c r="B7" s="294" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="256">
+      <c r="C7" s="261">
         <v>2</v>
       </c>
-      <c r="D7" s="296" t="s">
+      <c r="D7" s="136" t="s">
         <v>233</v>
       </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="262" t="s">
+      <c r="B8" s="294" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="256">
+      <c r="C8" s="261">
         <v>2</v>
       </c>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="136" t="s">
         <v>234</v>
       </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="262" t="s">
+      <c r="B9" s="294" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="256">
+      <c r="C9" s="261">
         <v>2</v>
       </c>
-      <c r="D9" s="296" t="s">
+      <c r="D9" s="136" t="s">
         <v>235</v>
       </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="294" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="256">
+      <c r="C10" s="261">
         <v>2</v>
       </c>
-      <c r="D10" s="296" t="s">
+      <c r="D10" s="136" t="s">
         <v>236</v>
       </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="288" t="s">
+      <c r="B11" s="297" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="256">
+      <c r="C11" s="261">
         <v>2</v>
       </c>
-      <c r="D11" s="296" t="s">
+      <c r="D11" s="136" t="s">
         <v>237</v>
       </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="262" t="s">
+      <c r="B12" s="294" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="256">
+      <c r="C12" s="261">
         <v>2</v>
       </c>
-      <c r="D12" s="296" t="s">
+      <c r="D12" s="136" t="s">
         <v>238</v>
       </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="262" t="s">
+      <c r="B13" s="294" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="256">
+      <c r="C13" s="261">
         <v>2</v>
       </c>
-      <c r="D13" s="296" t="s">
+      <c r="D13" s="136" t="s">
         <v>239</v>
       </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="294" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="256">
+      <c r="C14" s="261">
         <v>2</v>
       </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="294" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="256">
+      <c r="C15" s="261">
         <v>2</v>
       </c>
-      <c r="D15" s="296" t="s">
+      <c r="D15" s="136" t="s">
         <v>240</v>
       </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="262" t="s">
+      <c r="B16" s="294" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="256">
+      <c r="C16" s="261">
         <v>2</v>
       </c>
-      <c r="D16" s="296" t="s">
+      <c r="D16" s="136" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="262" t="s">
+      <c r="B17" s="294" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="256">
+      <c r="C17" s="261">
         <v>2</v>
       </c>
-      <c r="D17" s="296" t="s">
+      <c r="D17" s="136" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="294" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="256">
+      <c r="C18" s="261">
         <v>2</v>
       </c>
-      <c r="D18" s="296" t="s">
+      <c r="D18" s="136" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="294" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="256">
+      <c r="C19" s="261">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="262" t="s">
+      <c r="B20" s="294" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="256">
-        <v>1</v>
-      </c>
-      <c r="D20" s="296" t="s">
+      <c r="C20" s="261">
+        <v>1</v>
+      </c>
+      <c r="D20" s="136" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="262" t="s">
+      <c r="B21" s="294" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="256">
+      <c r="C21" s="261">
         <v>2</v>
       </c>
-      <c r="D21" s="296" t="s">
+      <c r="D21" s="136" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="262" t="s">
+      <c r="B22" s="294" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="256">
+      <c r="C22" s="261">
         <v>2</v>
       </c>
-      <c r="D22" s="296" t="s">
+      <c r="D22" s="136" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="262" t="s">
+      <c r="B23" s="294" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="256">
+      <c r="C23" s="261">
         <v>2</v>
       </c>
-      <c r="D23" s="296" t="s">
+      <c r="D23" s="136" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="262" t="s">
+      <c r="B24" s="294" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="256">
+      <c r="C24" s="261">
         <v>2</v>
       </c>
-      <c r="D24" s="296" t="s">
+      <c r="D24" s="136" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="262" t="s">
+      <c r="B25" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="256">
+      <c r="C25" s="261">
         <v>2</v>
       </c>
-      <c r="D25" s="296" t="s">
+      <c r="D25" s="136" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="262" t="s">
+      <c r="B26" s="294" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="256">
+      <c r="C26" s="261">
         <v>2</v>
       </c>
-      <c r="D26" s="296" t="s">
+      <c r="D26" s="136" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="262" t="s">
+      <c r="B27" s="294" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="256">
+      <c r="C27" s="261">
         <v>2</v>
       </c>
-      <c r="D27" s="296" t="s">
+      <c r="D27" s="136" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="262" t="s">
+      <c r="B28" s="294" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="256">
+      <c r="C28" s="261">
         <v>2</v>
       </c>
-      <c r="D28" s="296" t="s">
+      <c r="D28" s="136" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="256">
         <v>25</v>
       </c>
-      <c r="B29" s="262" t="s">
+      <c r="B29" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="256">
+      <c r="C29" s="261">
         <v>2</v>
       </c>
-      <c r="D29" s="296" t="s">
+      <c r="D29" s="136" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="262" t="s">
+      <c r="B30" s="294" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="256">
+      <c r="C30" s="261">
         <v>2</v>
       </c>
-      <c r="D30" s="296" t="s">
+      <c r="D30" s="136" t="s">
         <v>254</v>
       </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4711,11 +5968,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM22" sqref="AM22"/>
+      <selection pane="topRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,7 +6243,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="278" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -5541,7 +6799,7 @@
       <c r="AP7" s="26"/>
     </row>
     <row r="8" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="282" t="s">
+      <c r="A8" s="279" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25">
@@ -5993,111 +7251,111 @@
       </c>
       <c r="AP11" s="26"/>
     </row>
-    <row r="12" spans="1:42" s="280" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="265" t="s">
+    <row r="12" spans="1:42" s="277" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="266">
-        <v>0</v>
-      </c>
-      <c r="C12" s="267"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="269">
-        <v>1</v>
-      </c>
-      <c r="G12" s="270">
-        <v>1</v>
-      </c>
-      <c r="H12" s="269">
+      <c r="B12" s="263">
+        <v>0</v>
+      </c>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="266">
+        <v>1</v>
+      </c>
+      <c r="G12" s="267">
+        <v>1</v>
+      </c>
+      <c r="H12" s="266">
         <v>-0.5</v>
       </c>
-      <c r="I12" s="271">
+      <c r="I12" s="268">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="271">
+      <c r="J12" s="268">
         <v>-0.5</v>
       </c>
-      <c r="K12" s="272">
-        <v>1</v>
-      </c>
-      <c r="L12" s="271">
+      <c r="K12" s="269">
+        <v>1</v>
+      </c>
+      <c r="L12" s="268">
         <v>-0.5</v>
       </c>
-      <c r="M12" s="272">
+      <c r="M12" s="269">
         <v>-0.5</v>
       </c>
-      <c r="N12" s="272">
-        <v>1</v>
-      </c>
-      <c r="O12" s="272">
-        <v>1</v>
-      </c>
-      <c r="P12" s="273">
+      <c r="N12" s="269">
+        <v>1</v>
+      </c>
+      <c r="O12" s="269">
+        <v>1</v>
+      </c>
+      <c r="P12" s="270">
         <v>-0.5</v>
       </c>
-      <c r="Q12" s="272">
-        <v>1</v>
-      </c>
-      <c r="R12" s="272" t="s">
+      <c r="Q12" s="269">
+        <v>1</v>
+      </c>
+      <c r="R12" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="272">
+      <c r="S12" s="269">
         <v>3</v>
       </c>
-      <c r="T12" s="272">
-        <v>1</v>
-      </c>
-      <c r="U12" s="272">
+      <c r="T12" s="269">
+        <v>1</v>
+      </c>
+      <c r="U12" s="269">
         <v>-1</v>
       </c>
-      <c r="V12" s="271">
-        <v>1</v>
-      </c>
-      <c r="W12" s="272">
-        <v>1</v>
-      </c>
-      <c r="X12" s="272">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="272">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="272"/>
-      <c r="AA12" s="272"/>
-      <c r="AB12" s="272"/>
-      <c r="AC12" s="274">
+      <c r="V12" s="268">
+        <v>1</v>
+      </c>
+      <c r="W12" s="269">
+        <v>1</v>
+      </c>
+      <c r="X12" s="269">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="269">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="269"/>
+      <c r="AA12" s="269"/>
+      <c r="AB12" s="269"/>
+      <c r="AC12" s="271">
         <f>-40 - 40 - 40</f>
         <v>-120</v>
       </c>
-      <c r="AD12" s="275">
+      <c r="AD12" s="272">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AE12" s="276">
+      <c r="AE12" s="273">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="AF12" s="276">
+      <c r="AF12" s="273">
         <v>-100</v>
       </c>
-      <c r="AG12" s="277">
+      <c r="AG12" s="274">
         <v>-100</v>
       </c>
-      <c r="AH12" s="278">
+      <c r="AH12" s="275">
         <v>-100</v>
       </c>
-      <c r="AI12" s="278"/>
-      <c r="AJ12" s="278"/>
-      <c r="AK12" s="278"/>
-      <c r="AL12" s="278"/>
-      <c r="AM12" s="278"/>
-      <c r="AN12" s="278"/>
-      <c r="AO12" s="279">
+      <c r="AI12" s="275"/>
+      <c r="AJ12" s="275"/>
+      <c r="AK12" s="275"/>
+      <c r="AL12" s="275"/>
+      <c r="AM12" s="275"/>
+      <c r="AN12" s="275"/>
+      <c r="AO12" s="276">
         <f t="shared" si="1"/>
         <v>16.53846153846154</v>
       </c>
-      <c r="AP12" s="267"/>
+      <c r="AP12" s="264"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
@@ -6549,7 +7807,7 @@
       <c r="AP16" s="26"/>
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="283" t="s">
+      <c r="A17" s="280" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="25">
@@ -6665,7 +7923,7 @@
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="282" t="s">
+      <c r="A18" s="279" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25">
@@ -7228,7 +8486,7 @@
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="283" t="s">
+      <c r="A23" s="280" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="25">
@@ -10383,7 +11641,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A96A7-D442-4F53-8C8F-2DEFBF394149}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="B2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="287" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="287" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="287" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="287" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="287" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="287" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="287" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="287" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="287" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="287" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="287" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="287" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="287" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="287" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="287" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="287" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25709C63-74FD-42E9-8AEC-DA4C7209BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D642DC-3D7A-4B41-ACCD-83E214B6628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="320">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>СтОлба Антон.В.</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>https://github.com/ITska-web/Android-projects</t>
   </si>
   <si>
@@ -1591,6 +1588,12 @@
   </si>
   <si>
     <t>ПР13. Desktop. База данных.</t>
+  </si>
+  <si>
+    <t>Богатырев Юрий А.</t>
+  </si>
+  <si>
+    <t>Заров Иван А.</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2810,6 +2813,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3210,8 +3217,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3260,7 @@
         <v>ПР0. Git.</v>
       </c>
       <c r="F4" s="314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="307"/>
       <c r="H4" s="307"/>
@@ -3283,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="285" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="310">
         <v>0</v>
@@ -3320,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="285" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E6" s="291">
         <v>100</v>
@@ -3357,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E7" s="292">
         <v>0</v>
@@ -3394,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="288">
         <v>0</v>
@@ -3431,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="288">
         <v>100</v>
@@ -3468,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E10" s="288">
         <v>100</v>
@@ -3505,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="288">
         <v>100</v>
@@ -3579,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E13" s="288">
         <v>100</v>
@@ -3616,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="285" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E14" s="288">
         <v>100</v>
@@ -3653,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" s="288">
         <v>100</v>
@@ -3690,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E16" s="288">
         <v>100</v>
@@ -3727,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E17" s="288">
         <v>0</v>
@@ -3764,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="288">
         <v>100</v>
@@ -3801,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="285" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E19" s="288">
         <v>100</v>
@@ -3838,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="288">
         <v>0</v>
@@ -3875,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="285" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E21" s="288">
         <v>100</v>
@@ -3912,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="285" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E22" s="288">
         <v>100</v>
@@ -3949,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E23" s="288">
         <v>100</v>
@@ -3986,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="285" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E24" s="288">
         <v>100</v>
@@ -4054,13 +4061,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="256" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="261">
+        <v>1</v>
+      </c>
+      <c r="D26" s="285" t="s">
         <v>300</v>
-      </c>
-      <c r="C26" s="261">
-        <v>1</v>
-      </c>
-      <c r="D26" s="285" t="s">
-        <v>301</v>
       </c>
       <c r="E26" s="288">
         <v>0</v>
@@ -4091,7 +4098,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="256" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C27" s="261">
         <v>0</v>
@@ -4122,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="256" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="C28" s="261">
         <v>0</v>
@@ -4201,8 +4208,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,13 +4254,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="304" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="305" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="305" t="s">
-        <v>278</v>
-      </c>
       <c r="G4" s="306" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" s="306"/>
       <c r="I4" s="306"/>
@@ -4281,7 +4288,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="300" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="299">
         <v>100</v>
@@ -4318,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="261">
         <v>50</v>
@@ -4346,19 +4353,19 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="295" t="s">
+      <c r="B7" s="316" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="296">
-        <v>0</v>
-      </c>
-      <c r="D7" s="261">
-        <v>0</v>
-      </c>
-      <c r="E7" s="261">
-        <v>0</v>
-      </c>
-      <c r="F7" s="261">
+      <c r="C7" s="317">
+        <v>0</v>
+      </c>
+      <c r="D7" s="317">
+        <v>0</v>
+      </c>
+      <c r="E7" s="317">
+        <v>0</v>
+      </c>
+      <c r="F7" s="317">
         <v>0</v>
       </c>
       <c r="G7" s="261"/>
@@ -4388,7 +4395,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="261">
         <v>100</v>
@@ -4423,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="261">
         <v>100</v>
@@ -4458,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="261">
         <v>100</v>
@@ -4493,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="261">
         <v>0</v>
@@ -4528,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="261">
         <v>0</v>
@@ -4563,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="261">
         <v>100</v>
@@ -4598,13 +4605,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="261">
         <v>100</v>
       </c>
       <c r="F14" s="261" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="261"/>
       <c r="H14" s="261"/>
@@ -4633,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="261">
         <v>0</v>
@@ -4668,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="261">
         <v>100</v>
@@ -4703,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="261">
         <v>0</v>
@@ -4738,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="261">
         <v>100</v>
@@ -4773,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="261">
         <v>100</v>
@@ -4808,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="261">
         <v>100</v>
@@ -4878,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" s="261"/>
       <c r="F22" s="261"/>
@@ -4909,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E23" s="261"/>
       <c r="F23" s="261"/>
@@ -4940,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" s="261"/>
       <c r="F24" s="261"/>
@@ -4971,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="261"/>
       <c r="F25" s="261"/>
@@ -5061,7 +5068,7 @@
         <v>224</v>
       </c>
       <c r="F4" s="315" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -5092,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -5125,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -5158,7 +5165,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -5191,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -5224,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -5257,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -5290,7 +5297,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -5323,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -5356,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -5420,7 +5427,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -5453,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -5486,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -5519,7 +5526,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -5583,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -5616,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -5649,7 +5656,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -5682,7 +5689,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -5715,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -5748,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -5781,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -5814,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -5847,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -5880,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -5913,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -6222,10 +6229,10 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>147</v>
@@ -11660,80 +11667,80 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="287" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="287" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="287" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="287" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="287" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="287" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="287" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="287" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="287" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="287" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="287" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="287" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D642DC-3D7A-4B41-ACCD-83E214B6628D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950F4F5-0642-43C3-9122-B4696DEEB2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="321">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>Заров Иван А.</t>
+  </si>
+  <si>
+    <t>калькулятор сдал</t>
   </si>
 </sst>
 </file>
@@ -4208,8 +4211,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,7 +5034,7 @@
   <dimension ref="A2:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5978,9 +5981,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,20 +6004,20 @@
     <col min="31" max="31" width="10.42578125" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="15.28515625" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" customWidth="1"/>
     <col min="37" max="40" width="9.140625" customWidth="1"/>
     <col min="41" max="41" width="27.42578125" customWidth="1"/>
     <col min="42" max="42" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7">
@@ -6127,7 +6130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="24" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" s="24" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="278" t="s">
         <v>11</v>
       </c>
@@ -6358,8 +6361,11 @@
         <v>38.46153846153846</v>
       </c>
       <c r="AP3" s="26"/>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="254" t="s">
         <v>14</v>
       </c>
@@ -6472,7 +6478,7 @@
       </c>
       <c r="AP4" s="26"/>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="254" t="s">
         <v>16</v>
       </c>
@@ -6583,7 +6589,7 @@
       </c>
       <c r="AP5" s="26"/>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="254" t="s">
         <v>18</v>
       </c>
@@ -6592,7 +6598,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="136" t="s">
         <v>19</v>
@@ -6695,7 +6701,7 @@
       </c>
       <c r="AP6" s="26"/>
     </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="254" t="s">
         <v>20</v>
       </c>
@@ -6805,7 +6811,7 @@
       </c>
       <c r="AP7" s="26"/>
     </row>
-    <row r="8" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="279" t="s">
         <v>21</v>
       </c>
@@ -6814,7 +6820,7 @@
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>22</v>
@@ -6919,7 +6925,7 @@
       </c>
       <c r="AP8" s="25"/>
     </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="254" t="s">
         <v>23</v>
       </c>
@@ -6928,7 +6934,7 @@
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>24</v>
@@ -7031,7 +7037,7 @@
       </c>
       <c r="AP9" s="26"/>
     </row>
-    <row r="10" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="254" t="s">
         <v>25</v>
       </c>
@@ -7143,7 +7149,7 @@
       </c>
       <c r="AP10" s="25"/>
     </row>
-    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="254" t="s">
         <v>27</v>
       </c>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>28</v>
@@ -7258,7 +7264,7 @@
       </c>
       <c r="AP11" s="26"/>
     </row>
-    <row r="12" spans="1:42" s="277" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="277" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="262" t="s">
         <v>29</v>
       </c>
@@ -7364,7 +7370,7 @@
       </c>
       <c r="AP12" s="264"/>
     </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7379,7 @@
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="136" t="s">
         <v>31</v>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="AP13" s="26"/>
     </row>
-    <row r="14" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="254" t="s">
         <v>32</v>
       </c>
@@ -7589,7 +7595,7 @@
       </c>
       <c r="AP14" s="25"/>
     </row>
-    <row r="15" spans="1:42" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="254" t="s">
         <v>33</v>
       </c>
@@ -7598,7 +7604,7 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>34</v>
@@ -7701,7 +7707,7 @@
       </c>
       <c r="AP15" s="25"/>
     </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="254" t="s">
         <v>35</v>
       </c>
@@ -7710,7 +7716,7 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>36</v>
@@ -8164,7 +8170,7 @@
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>44</v>
@@ -8388,7 +8394,7 @@
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>47</v>
@@ -8501,7 +8507,7 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>49</v>
@@ -8618,7 +8624,7 @@
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>51</v>
@@ -8732,7 +8738,7 @@
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="28">
@@ -8842,7 +8848,7 @@
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>54</v>
@@ -8956,7 +8962,7 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>55</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7950F4F5-0642-43C3-9122-B4696DEEB2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83C3B0-3E25-4AE4-9FC4-E0585A4555B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="323">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>https://github.com/Roma-jpg1/Android_project</t>
   </si>
   <si>
-    <t>https://github.com/CodebyTecs</t>
-  </si>
-  <si>
     <t>https://github.com/vadimpopov1/Visual-Programming.git</t>
   </si>
   <si>
@@ -1597,6 +1594,15 @@
   </si>
   <si>
     <t>калькулятор сдал</t>
+  </si>
+  <si>
+    <t>https://github.com/CodebyTecs/visual-programming</t>
+  </si>
+  <si>
+    <t>https://github.com/Nimda3/Visual-programming</t>
+  </si>
+  <si>
+    <t>https://github.com/mitsum551/Android</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1947,6 +1953,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2257,7 +2269,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,9 +2798,6 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -2820,6 +2829,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3249,38 +3265,38 @@
     </row>
     <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="302" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="303" t="s">
+      <c r="B4" s="301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="302" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="304" t="s">
+      <c r="D4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="313" t="str">
+      <c r="E4" s="312" t="str">
         <f>CONST!C3</f>
         <v>ПР0. Git.</v>
       </c>
-      <c r="F4" s="314" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
-      <c r="M4" s="307"/>
-      <c r="N4" s="307"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="307"/>
-      <c r="V4" s="308"/>
+      <c r="F4" s="313" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
+      <c r="M4" s="306"/>
+      <c r="N4" s="306"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
+      <c r="R4" s="306"/>
+      <c r="S4" s="306"/>
+      <c r="T4" s="306"/>
+      <c r="U4" s="306"/>
+      <c r="V4" s="307"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
@@ -3289,25 +3305,25 @@
       <c r="B5" s="256" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="309">
+      <c r="C5" s="308">
         <v>0</v>
       </c>
       <c r="D5" s="285" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="310">
-        <v>0</v>
-      </c>
-      <c r="F5" s="311">
-        <v>0</v>
-      </c>
-      <c r="G5" s="312"/>
-      <c r="H5" s="312"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="312"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="312"/>
+        <v>279</v>
+      </c>
+      <c r="E5" s="309">
+        <v>0</v>
+      </c>
+      <c r="F5" s="310">
+        <v>0</v>
+      </c>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
+      <c r="M5" s="311"/>
       <c r="N5" s="289"/>
       <c r="O5" s="289"/>
       <c r="P5" s="289"/>
@@ -3330,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="285" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E6" s="291">
         <v>100</v>
@@ -3367,7 +3383,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="285" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="292">
         <v>0</v>
@@ -3404,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E8" s="288">
         <v>0</v>
@@ -3441,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="288">
         <v>100</v>
@@ -3478,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10" s="288">
         <v>100</v>
@@ -3515,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" s="288">
         <v>100</v>
@@ -3589,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="288">
         <v>100</v>
@@ -3626,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14" s="288">
         <v>100</v>
@@ -3663,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="285" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="288">
         <v>100</v>
@@ -3700,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="285" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E16" s="288">
         <v>100</v>
@@ -3737,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="285" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E17" s="288">
         <v>0</v>
@@ -3774,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18" s="288">
         <v>100</v>
@@ -3811,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E19" s="288">
         <v>100</v>
@@ -3848,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="285" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20" s="288">
         <v>0</v>
@@ -3885,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="288">
         <v>100</v>
@@ -3922,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="285" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E22" s="288">
         <v>100</v>
@@ -3959,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="285" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23" s="288">
         <v>100</v>
@@ -3996,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="288">
         <v>100</v>
@@ -4064,13 +4080,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="256" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="261">
+        <v>1</v>
+      </c>
+      <c r="D26" s="285" t="s">
         <v>299</v>
-      </c>
-      <c r="C26" s="261">
-        <v>1</v>
-      </c>
-      <c r="D26" s="285" t="s">
-        <v>300</v>
       </c>
       <c r="E26" s="288">
         <v>0</v>
@@ -4101,7 +4117,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="256" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="261">
         <v>0</v>
@@ -4132,7 +4148,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="256" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" s="261">
         <v>0</v>
@@ -4212,7 +4228,7 @@
   <dimension ref="A2:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,75 +4263,75 @@
     </row>
     <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="302" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="303" t="s">
+      <c r="B4" s="301" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="302" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="304" t="s">
+      <c r="D4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="303" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="304" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="305" t="s">
-        <v>277</v>
-      </c>
-      <c r="G4" s="306" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="307"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="307"/>
-      <c r="R4" s="307"/>
-      <c r="S4" s="307"/>
-      <c r="T4" s="307"/>
-      <c r="U4" s="308"/>
+      <c r="G4" s="305" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="305"/>
+      <c r="K4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="305"/>
+      <c r="N4" s="305"/>
+      <c r="O4" s="306"/>
+      <c r="P4" s="306"/>
+      <c r="Q4" s="306"/>
+      <c r="R4" s="306"/>
+      <c r="S4" s="306"/>
+      <c r="T4" s="306"/>
+      <c r="U4" s="307"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="319" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="299">
+      <c r="C5" s="298">
         <v>2</v>
       </c>
-      <c r="D5" s="300" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="299">
-        <v>100</v>
-      </c>
-      <c r="F5" s="299">
-        <v>100</v>
-      </c>
-      <c r="G5" s="299">
-        <v>100</v>
-      </c>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="299"/>
-      <c r="N5" s="299"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-      <c r="U5" s="301"/>
+      <c r="D5" s="299" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="298">
+        <v>100</v>
+      </c>
+      <c r="F5" s="298">
+        <v>100</v>
+      </c>
+      <c r="G5" s="298">
+        <v>100</v>
+      </c>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="300"/>
+      <c r="P5" s="300"/>
+      <c r="Q5" s="300"/>
+      <c r="R5" s="300"/>
+      <c r="S5" s="300"/>
+      <c r="T5" s="300"/>
+      <c r="U5" s="300"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
@@ -4328,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" s="261">
         <v>50</v>
@@ -4356,19 +4372,19 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="316" t="s">
+      <c r="B7" s="315" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="317">
-        <v>0</v>
-      </c>
-      <c r="D7" s="317">
-        <v>0</v>
-      </c>
-      <c r="E7" s="317">
-        <v>0</v>
-      </c>
-      <c r="F7" s="317">
+      <c r="C7" s="316">
+        <v>0</v>
+      </c>
+      <c r="D7" s="316">
+        <v>0</v>
+      </c>
+      <c r="E7" s="316">
+        <v>0</v>
+      </c>
+      <c r="F7" s="316">
         <v>0</v>
       </c>
       <c r="G7" s="261"/>
@@ -4398,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="261">
         <v>100</v>
@@ -4433,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="261">
         <v>100</v>
@@ -4468,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="261">
         <v>100</v>
@@ -4503,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="261">
         <v>0</v>
@@ -4538,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="261">
         <v>0</v>
@@ -4573,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="261">
         <v>100</v>
@@ -4608,13 +4624,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="261">
         <v>100</v>
       </c>
       <c r="F14" s="261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G14" s="261"/>
       <c r="H14" s="261"/>
@@ -4643,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="261">
         <v>0</v>
@@ -4678,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="261">
         <v>100</v>
@@ -4713,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="261">
         <v>0</v>
@@ -4748,7 +4764,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="261">
         <v>100</v>
@@ -4783,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="261">
         <v>100</v>
@@ -4818,7 +4834,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="261">
         <v>100</v>
@@ -4888,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="136" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="261"/>
       <c r="F22" s="261"/>
@@ -4919,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" s="261"/>
       <c r="F23" s="261"/>
@@ -4950,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E24" s="261"/>
       <c r="F24" s="261"/>
@@ -4981,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="261"/>
       <c r="F25" s="261"/>
@@ -5031,32 +5047,33 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A2:W30"/>
+  <dimension ref="A2:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="281" t="s">
         <v>192</v>
       </c>
       <c r="C3" s="256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="256"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="256"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="256"/>
       <c r="B4" s="293" t="s">
         <v>1</v>
@@ -5064,16 +5081,18 @@
       <c r="C4" s="258" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="259" t="s">
+      <c r="D4" s="317">
+        <v>45918</v>
+      </c>
+      <c r="E4" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="315" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="314" t="s">
+        <v>253</v>
+      </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
@@ -5089,9 +5108,10 @@
       <c r="T4" s="58"/>
       <c r="U4" s="58"/>
       <c r="V4" s="58"/>
-      <c r="W4" s="62"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W4" s="58"/>
+      <c r="X4" s="62"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
@@ -5101,12 +5121,18 @@
       <c r="C5" s="261">
         <v>2</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="261">
+        <v>0</v>
+      </c>
+      <c r="E5" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="26">
+        <v>100</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -5123,8 +5149,9 @@
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
       <c r="W5" s="26"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X5" s="26"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
@@ -5134,12 +5161,18 @@
       <c r="C6" s="261">
         <v>2</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="261">
+        <v>1</v>
+      </c>
+      <c r="E6" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="26">
+        <v>100</v>
+      </c>
+      <c r="G6" s="26">
+        <v>100</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -5156,8 +5189,9 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X6" s="26"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
@@ -5167,12 +5201,18 @@
       <c r="C7" s="261">
         <v>2</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="261">
+        <v>1</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="26">
+        <v>100</v>
+      </c>
+      <c r="G7" s="26">
+        <v>100</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
@@ -5189,8 +5229,9 @@
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X7" s="26"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
@@ -5200,12 +5241,18 @@
       <c r="C8" s="261">
         <v>2</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="261">
+        <v>1</v>
+      </c>
+      <c r="E8" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="26">
+        <v>100</v>
+      </c>
+      <c r="G8" s="26">
+        <v>100</v>
+      </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -5222,8 +5269,9 @@
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X8" s="26"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
@@ -5233,12 +5281,18 @@
       <c r="C9" s="261">
         <v>2</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="261">
+        <v>1</v>
+      </c>
+      <c r="E9" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="26">
+        <v>100</v>
+      </c>
+      <c r="G9" s="26">
+        <v>100</v>
+      </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -5255,8 +5309,9 @@
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X9" s="26"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
@@ -5266,12 +5321,18 @@
       <c r="C10" s="261">
         <v>2</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="261">
+        <v>1</v>
+      </c>
+      <c r="E10" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="26">
+        <v>100</v>
+      </c>
+      <c r="G10" s="26">
+        <v>100</v>
+      </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
@@ -5288,8 +5349,9 @@
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X10" s="26"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
@@ -5299,12 +5361,18 @@
       <c r="C11" s="261">
         <v>2</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="261">
+        <v>0</v>
+      </c>
+      <c r="E11" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="26">
+        <v>100</v>
+      </c>
+      <c r="G11" s="26">
+        <v>100</v>
+      </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
@@ -5321,8 +5389,9 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X11" s="26"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
@@ -5332,12 +5401,18 @@
       <c r="C12" s="261">
         <v>2</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="261">
+        <v>1</v>
+      </c>
+      <c r="E12" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="26">
+        <v>100</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
@@ -5354,8 +5429,9 @@
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X12" s="26"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
@@ -5365,12 +5441,18 @@
       <c r="C13" s="261">
         <v>2</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="261">
+        <v>1</v>
+      </c>
+      <c r="E13" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="26">
+        <v>100</v>
+      </c>
+      <c r="G13" s="26">
+        <v>90</v>
+      </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
@@ -5387,8 +5469,9 @@
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X13" s="26"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
@@ -5398,10 +5481,18 @@
       <c r="C14" s="261">
         <v>2</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="261">
+        <v>1</v>
+      </c>
+      <c r="E14" s="285" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="26">
+        <v>20</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -5418,8 +5509,9 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X14" s="26"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
@@ -5429,12 +5521,18 @@
       <c r="C15" s="261">
         <v>2</v>
       </c>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="261">
+        <v>0</v>
+      </c>
+      <c r="E15" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="26">
+        <v>100</v>
+      </c>
+      <c r="G15" s="26">
+        <v>100</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
@@ -5451,8 +5549,9 @@
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X15" s="26"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
@@ -5462,12 +5561,18 @@
       <c r="C16" s="261">
         <v>2</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="261">
+        <v>1</v>
+      </c>
+      <c r="E16" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="26">
+        <v>60</v>
+      </c>
+      <c r="G16" s="26">
+        <v>100</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
@@ -5484,8 +5589,9 @@
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X16" s="26"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
@@ -5495,12 +5601,18 @@
       <c r="C17" s="261">
         <v>2</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="261">
+        <v>1</v>
+      </c>
+      <c r="E17" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="26">
+        <v>100</v>
+      </c>
+      <c r="G17" s="26">
+        <v>100</v>
+      </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -5517,8 +5629,9 @@
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
       <c r="W17" s="26"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X17" s="26"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
@@ -5528,12 +5641,18 @@
       <c r="C18" s="261">
         <v>2</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="261">
+        <v>1</v>
+      </c>
+      <c r="E18" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="26">
+        <v>100</v>
+      </c>
+      <c r="G18" s="26">
+        <v>100</v>
+      </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
@@ -5550,8 +5669,9 @@
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X18" s="26"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
@@ -5561,10 +5681,18 @@
       <c r="C19" s="261">
         <v>2</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="261">
+        <v>1</v>
+      </c>
+      <c r="E19" s="285" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="26">
+        <v>100</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
@@ -5581,8 +5709,9 @@
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X19" s="26"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
@@ -5592,12 +5721,18 @@
       <c r="C20" s="261">
         <v>1</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="261">
+        <v>1</v>
+      </c>
+      <c r="E20" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="26">
+        <v>100</v>
+      </c>
+      <c r="G20" s="26">
+        <v>100</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
@@ -5614,8 +5749,9 @@
       <c r="U20" s="26"/>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X20" s="26"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
@@ -5625,12 +5761,18 @@
       <c r="C21" s="261">
         <v>2</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="261">
+        <v>1</v>
+      </c>
+      <c r="E21" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="26">
+        <v>100</v>
+      </c>
+      <c r="G21" s="26">
+        <v>100</v>
+      </c>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
@@ -5647,23 +5789,30 @@
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X21" s="26"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="294" t="s">
+      <c r="B22" s="318" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="261">
         <v>2</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="261">
+        <v>1</v>
+      </c>
+      <c r="E22" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="26">
+        <v>100</v>
+      </c>
+      <c r="G22" s="26">
+        <v>100</v>
+      </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
@@ -5680,8 +5829,9 @@
       <c r="U22" s="26"/>
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X22" s="26"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
@@ -5691,12 +5841,18 @@
       <c r="C23" s="261">
         <v>2</v>
       </c>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="261">
+        <v>1</v>
+      </c>
+      <c r="E23" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="26">
+        <v>100</v>
+      </c>
+      <c r="G23" s="26">
+        <v>80</v>
+      </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -5713,8 +5869,9 @@
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X23" s="26"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
@@ -5724,12 +5881,18 @@
       <c r="C24" s="261">
         <v>2</v>
       </c>
-      <c r="D24" s="136" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="261">
+        <v>1</v>
+      </c>
+      <c r="E24" s="136" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="26">
+        <v>100</v>
+      </c>
+      <c r="G24" s="26">
+        <v>100</v>
+      </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
@@ -5746,8 +5909,9 @@
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X24" s="26"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
@@ -5757,12 +5921,18 @@
       <c r="C25" s="261">
         <v>2</v>
       </c>
-      <c r="D25" s="136" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="261">
+        <v>1</v>
+      </c>
+      <c r="E25" s="136" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="26">
+        <v>100</v>
+      </c>
+      <c r="G25" s="26">
+        <v>100</v>
+      </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
@@ -5779,8 +5949,9 @@
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X25" s="26"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
         <v>22</v>
       </c>
@@ -5790,12 +5961,18 @@
       <c r="C26" s="261">
         <v>2</v>
       </c>
-      <c r="D26" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="261">
+        <v>1</v>
+      </c>
+      <c r="E26" s="136" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="26">
+        <v>100</v>
+      </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
@@ -5812,23 +5989,30 @@
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X26" s="26"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="318" t="s">
         <v>214</v>
       </c>
       <c r="C27" s="261">
         <v>2</v>
       </c>
-      <c r="D27" s="136" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="D27" s="261">
+        <v>1</v>
+      </c>
+      <c r="E27" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="26">
+        <v>100</v>
+      </c>
+      <c r="G27" s="26">
+        <v>100</v>
+      </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
@@ -5845,8 +6029,9 @@
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X27" s="26"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
         <v>24</v>
       </c>
@@ -5856,12 +6041,18 @@
       <c r="C28" s="261">
         <v>2</v>
       </c>
-      <c r="D28" s="136" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="D28" s="261">
+        <v>1</v>
+      </c>
+      <c r="E28" s="136" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="26">
+        <v>100</v>
+      </c>
+      <c r="G28" s="26">
+        <v>100</v>
+      </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -5878,8 +6069,9 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="256">
         <v>25</v>
       </c>
@@ -5889,12 +6081,18 @@
       <c r="C29" s="261">
         <v>2</v>
       </c>
-      <c r="D29" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="D29" s="261">
+        <v>1</v>
+      </c>
+      <c r="E29" s="136" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="26">
+        <v>100</v>
+      </c>
+      <c r="G29" s="26">
+        <v>100</v>
+      </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
@@ -5911,8 +6109,9 @@
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
       <c r="W29" s="26"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X29" s="26"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="256">
         <v>26</v>
       </c>
@@ -5922,12 +6121,18 @@
       <c r="C30" s="261">
         <v>2</v>
       </c>
-      <c r="D30" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="D30" s="261">
+        <v>0</v>
+      </c>
+      <c r="E30" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="26">
+        <v>100</v>
+      </c>
+      <c r="G30" s="26">
+        <v>100</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -5944,35 +6149,39 @@
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{35602F18-F7C7-440A-8671-5BAED164562D}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{BE77414A-4419-4B1A-9733-AE230022A7BC}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{F22EBB5C-8007-4660-A11F-48671A6C4DE8}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{06508BE1-E9A0-471D-89E2-837CD4251450}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
-    <hyperlink ref="D26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
-    <hyperlink ref="D23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
-    <hyperlink ref="D15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
-    <hyperlink ref="D30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
-    <hyperlink ref="D20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
-    <hyperlink ref="D17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
-    <hyperlink ref="D18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{35602F18-F7C7-440A-8671-5BAED164562D}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{BE77414A-4419-4B1A-9733-AE230022A7BC}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{F22EBB5C-8007-4660-A11F-48671A6C4DE8}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{06508BE1-E9A0-471D-89E2-837CD4251450}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
+    <hyperlink ref="E26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
+    <hyperlink ref="E25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
+    <hyperlink ref="E23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
+    <hyperlink ref="E28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
+    <hyperlink ref="E29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
+    <hyperlink ref="E20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
+    <hyperlink ref="E17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
+    <hyperlink ref="E18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
+    <hyperlink ref="E19" r:id="rId25" tooltip="https://github.com/Nimda3/Visual-programming" xr:uid="{442DC397-A830-45C2-8248-B84CCC0F261B}"/>
+    <hyperlink ref="E14" r:id="rId26" tooltip="https://github.com/mitsum551/Android" xr:uid="{CF3532AD-8157-4BBA-B73B-B8998A61BF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -5981,9 +6190,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
+      <selection pane="topRight" activeCell="AQ4" sqref="AQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,10 +6441,10 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>147</v>
@@ -6362,7 +6571,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -11673,80 +11882,80 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="287" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="287" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="287" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="287" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="287" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="287" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="287" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="287" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="287" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="287" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="287" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="287" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="287" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="287" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83C3B0-3E25-4AE4-9FC4-E0585A4555B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF8E4E6-FD11-427D-942A-27F118B22F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="323">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1467,9 +1467,6 @@
     <t>ПР1. Class</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>ПР2. Наследование. Threads</t>
   </si>
   <si>
@@ -1603,6 +1600,9 @@
   </si>
   <si>
     <t>https://github.com/mitsum551/Android</t>
+  </si>
+  <si>
+    <t>УСПЕВАЕМОСТЬ</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2261,6 +2261,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2269,7 +2293,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2722,11 +2746,9 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2762,7 +2784,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2794,15 +2815,12 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2810,7 +2828,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2829,11 +2846,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3234,988 +3277,1102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A2:W37"/>
+  <dimension ref="A2:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="2" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="284" t="s">
+      <c r="B3" s="281" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="283">
+      <c r="C3" s="316"/>
+      <c r="D3" s="280">
         <v>2</v>
       </c>
-      <c r="D3" s="283"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="280"/>
+      <c r="F3" s="114">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="301" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="302" t="s">
+      <c r="B4" s="319" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="320" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="E4" s="297" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="312" t="str">
+      <c r="F4" s="305" t="str">
         <f>CONST!C3</f>
         <v>ПР0. Git.</v>
       </c>
-      <c r="F4" s="313" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="307"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="306" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" s="300"/>
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="300"/>
+      <c r="N4" s="300"/>
+      <c r="O4" s="300"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="300"/>
+      <c r="U4" s="300"/>
+      <c r="V4" s="300"/>
+      <c r="W4" s="301"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="259" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="308">
-        <v>0</v>
-      </c>
-      <c r="D5" s="285" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="309">
-        <v>0</v>
-      </c>
-      <c r="F5" s="310">
-        <v>0</v>
-      </c>
-      <c r="G5" s="311"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="311"/>
-      <c r="J5" s="311"/>
-      <c r="K5" s="311"/>
-      <c r="L5" s="311"/>
-      <c r="M5" s="311"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="289"/>
-      <c r="Q5" s="289"/>
-      <c r="R5" s="289"/>
-      <c r="S5" s="289"/>
-      <c r="T5" s="290"/>
-      <c r="U5" s="290"/>
-      <c r="V5" s="1"/>
+      <c r="C5" s="322">
+        <f>((D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="323">
+        <v>0</v>
+      </c>
+      <c r="E5" s="282" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="302">
+        <v>0</v>
+      </c>
+      <c r="G5" s="303">
+        <v>0</v>
+      </c>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="286"/>
+      <c r="Q5" s="286"/>
+      <c r="R5" s="286"/>
+      <c r="S5" s="286"/>
+      <c r="T5" s="286"/>
+      <c r="U5" s="287"/>
+      <c r="V5" s="287"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="259" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="260">
+      <c r="C6" s="322">
+        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D6" s="324">
         <v>2</v>
       </c>
-      <c r="D6" s="285" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="291">
-        <v>100</v>
-      </c>
-      <c r="F6" s="286">
-        <v>0</v>
-      </c>
-      <c r="G6" s="288"/>
-      <c r="H6" s="288"/>
-      <c r="I6" s="288"/>
-      <c r="J6" s="288"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="288"/>
-      <c r="M6" s="288"/>
-      <c r="N6" s="289"/>
-      <c r="O6" s="289"/>
-      <c r="P6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="289"/>
-      <c r="T6" s="290"/>
-      <c r="U6" s="290"/>
-      <c r="V6" s="1"/>
+      <c r="E6" s="282" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="288">
+        <v>100</v>
+      </c>
+      <c r="G6" s="283">
+        <v>0</v>
+      </c>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="285"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="287"/>
+      <c r="V6" s="287"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="259" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="260">
+      <c r="C7" s="322">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D7" s="324">
         <v>2</v>
       </c>
-      <c r="D7" s="285" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="292">
-        <v>0</v>
-      </c>
-      <c r="F7" s="286">
-        <v>0</v>
-      </c>
-      <c r="G7" s="288"/>
-      <c r="H7" s="288"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="288"/>
-      <c r="K7" s="288"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="288"/>
-      <c r="N7" s="289"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="289"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="290"/>
-      <c r="U7" s="290"/>
-      <c r="V7" s="1"/>
+      <c r="E7" s="282" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="289">
+        <v>0</v>
+      </c>
+      <c r="G7" s="283">
+        <v>0</v>
+      </c>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="286"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="286"/>
+      <c r="R7" s="286"/>
+      <c r="S7" s="286"/>
+      <c r="T7" s="286"/>
+      <c r="U7" s="287"/>
+      <c r="V7" s="287"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="259" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="261">
-        <v>1</v>
-      </c>
-      <c r="D8" s="285" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="288">
-        <v>0</v>
-      </c>
-      <c r="F8" s="288">
-        <v>0</v>
-      </c>
-      <c r="G8" s="288"/>
-      <c r="H8" s="288"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="288"/>
-      <c r="K8" s="288"/>
-      <c r="L8" s="288"/>
-      <c r="M8" s="288"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="289"/>
-      <c r="P8" s="289"/>
-      <c r="Q8" s="289"/>
-      <c r="R8" s="289"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="1"/>
+      <c r="C8" s="322">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D8" s="322">
+        <v>1</v>
+      </c>
+      <c r="E8" s="282" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="285">
+        <v>0</v>
+      </c>
+      <c r="G8" s="285">
+        <v>0</v>
+      </c>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="285"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="286"/>
+      <c r="R8" s="286"/>
+      <c r="S8" s="286"/>
+      <c r="T8" s="286"/>
+      <c r="U8" s="287"/>
+      <c r="V8" s="287"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="259" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="261">
+      <c r="C9" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="322">
         <v>2</v>
       </c>
-      <c r="D9" s="285" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="288">
-        <v>100</v>
-      </c>
-      <c r="F9" s="288">
-        <v>100</v>
-      </c>
-      <c r="G9" s="288"/>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="288"/>
-      <c r="L9" s="288"/>
-      <c r="M9" s="288"/>
-      <c r="N9" s="289"/>
-      <c r="O9" s="289"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="289"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="1"/>
+      <c r="E9" s="282" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="285">
+        <v>100</v>
+      </c>
+      <c r="G9" s="285">
+        <v>100</v>
+      </c>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="286"/>
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="287"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="256" t="s">
+      <c r="B10" s="259" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="261">
+      <c r="C10" s="322">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D10" s="322">
         <v>2</v>
       </c>
-      <c r="D10" s="285" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="288">
-        <v>100</v>
-      </c>
-      <c r="F10" s="288">
+      <c r="E10" s="282" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="285">
+        <v>100</v>
+      </c>
+      <c r="G10" s="285">
         <v>90</v>
       </c>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="289"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
-      <c r="Q10" s="289"/>
-      <c r="R10" s="289"/>
-      <c r="S10" s="289"/>
-      <c r="T10" s="290"/>
-      <c r="U10" s="290"/>
-      <c r="V10" s="1"/>
+      <c r="H10" s="285"/>
+      <c r="I10" s="285"/>
+      <c r="J10" s="285"/>
+      <c r="K10" s="285"/>
+      <c r="L10" s="285"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="286"/>
+      <c r="Q10" s="286"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="286"/>
+      <c r="T10" s="286"/>
+      <c r="U10" s="287"/>
+      <c r="V10" s="287"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="259" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="261">
+      <c r="C11" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="322">
         <v>2</v>
       </c>
-      <c r="D11" s="285" t="s">
-        <v>285</v>
-      </c>
-      <c r="E11" s="288">
-        <v>100</v>
-      </c>
-      <c r="F11" s="288">
-        <v>100</v>
-      </c>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="289"/>
-      <c r="O11" s="289"/>
-      <c r="P11" s="289"/>
-      <c r="Q11" s="289"/>
-      <c r="R11" s="289"/>
-      <c r="S11" s="289"/>
-      <c r="T11" s="290"/>
-      <c r="U11" s="290"/>
-      <c r="V11" s="1"/>
+      <c r="E11" s="282" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="285">
+        <v>100</v>
+      </c>
+      <c r="G11" s="285">
+        <v>100</v>
+      </c>
+      <c r="H11" s="285"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="285"/>
+      <c r="L11" s="285"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="285"/>
+      <c r="O11" s="286"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="287"/>
+      <c r="V11" s="287"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="256" t="s">
+      <c r="B12" s="259" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="261">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="288">
-        <v>0</v>
-      </c>
-      <c r="F12" s="288">
-        <v>0</v>
-      </c>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="289"/>
-      <c r="O12" s="289"/>
-      <c r="P12" s="289"/>
-      <c r="Q12" s="289"/>
-      <c r="R12" s="289"/>
-      <c r="S12" s="289"/>
-      <c r="T12" s="290"/>
-      <c r="U12" s="290"/>
-      <c r="V12" s="1"/>
+      <c r="C12" s="322">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="322">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="285">
+        <v>0</v>
+      </c>
+      <c r="G12" s="285">
+        <v>0</v>
+      </c>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="286"/>
+      <c r="P12" s="286"/>
+      <c r="Q12" s="286"/>
+      <c r="R12" s="286"/>
+      <c r="S12" s="286"/>
+      <c r="T12" s="286"/>
+      <c r="U12" s="287"/>
+      <c r="V12" s="287"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="259" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="261">
+      <c r="C13" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D13" s="322">
         <v>2</v>
       </c>
-      <c r="D13" s="285" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="288">
-        <v>100</v>
-      </c>
-      <c r="F13" s="288">
-        <v>100</v>
-      </c>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="289"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="289"/>
-      <c r="Q13" s="289"/>
-      <c r="R13" s="289"/>
-      <c r="S13" s="289"/>
-      <c r="T13" s="290"/>
-      <c r="U13" s="290"/>
-      <c r="V13" s="1"/>
+      <c r="E13" s="282" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="285">
+        <v>100</v>
+      </c>
+      <c r="G13" s="285">
+        <v>100</v>
+      </c>
+      <c r="H13" s="285"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="285"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="285"/>
+      <c r="O13" s="286"/>
+      <c r="P13" s="286"/>
+      <c r="Q13" s="286"/>
+      <c r="R13" s="286"/>
+      <c r="S13" s="286"/>
+      <c r="T13" s="286"/>
+      <c r="U13" s="287"/>
+      <c r="V13" s="287"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="282" t="s">
+      <c r="B14" s="321" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="261">
-        <v>1</v>
-      </c>
-      <c r="D14" s="285" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="288">
-        <v>100</v>
-      </c>
-      <c r="F14" s="288">
-        <v>100</v>
-      </c>
-      <c r="G14" s="288"/>
-      <c r="H14" s="288"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="289"/>
-      <c r="O14" s="289"/>
-      <c r="P14" s="289"/>
-      <c r="Q14" s="289"/>
-      <c r="R14" s="289"/>
-      <c r="S14" s="289"/>
-      <c r="T14" s="290"/>
-      <c r="U14" s="290"/>
-      <c r="V14" s="1"/>
+      <c r="C14" s="322">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D14" s="322">
+        <v>1</v>
+      </c>
+      <c r="E14" s="282" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="285">
+        <v>100</v>
+      </c>
+      <c r="G14" s="285">
+        <v>100</v>
+      </c>
+      <c r="H14" s="285"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="285"/>
+      <c r="M14" s="285"/>
+      <c r="N14" s="285"/>
+      <c r="O14" s="286"/>
+      <c r="P14" s="286"/>
+      <c r="Q14" s="286"/>
+      <c r="R14" s="286"/>
+      <c r="S14" s="286"/>
+      <c r="T14" s="286"/>
+      <c r="U14" s="287"/>
+      <c r="V14" s="287"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="256" t="s">
+      <c r="B15" s="259" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="261">
+      <c r="C15" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D15" s="322">
         <v>2</v>
       </c>
-      <c r="D15" s="285" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="288">
-        <v>100</v>
-      </c>
-      <c r="F15" s="288">
-        <v>100</v>
-      </c>
-      <c r="G15" s="288"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="288"/>
-      <c r="N15" s="289"/>
-      <c r="O15" s="289"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="290"/>
-      <c r="V15" s="1"/>
+      <c r="E15" s="282" t="s">
+        <v>287</v>
+      </c>
+      <c r="F15" s="285">
+        <v>100</v>
+      </c>
+      <c r="G15" s="285">
+        <v>100</v>
+      </c>
+      <c r="H15" s="285"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="285"/>
+      <c r="K15" s="285"/>
+      <c r="L15" s="285"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="285"/>
+      <c r="O15" s="286"/>
+      <c r="P15" s="286"/>
+      <c r="Q15" s="286"/>
+      <c r="R15" s="286"/>
+      <c r="S15" s="286"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="287"/>
+      <c r="V15" s="287"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="259" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="261">
+      <c r="C16" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D16" s="322">
         <v>2</v>
       </c>
-      <c r="D16" s="285" t="s">
-        <v>289</v>
-      </c>
-      <c r="E16" s="288">
-        <v>100</v>
-      </c>
-      <c r="F16" s="288">
-        <v>100</v>
-      </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="288"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="288"/>
-      <c r="N16" s="289"/>
-      <c r="O16" s="289"/>
-      <c r="P16" s="289"/>
-      <c r="Q16" s="289"/>
-      <c r="R16" s="289"/>
-      <c r="S16" s="289"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="1"/>
+      <c r="E16" s="282" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="285">
+        <v>100</v>
+      </c>
+      <c r="G16" s="285">
+        <v>100</v>
+      </c>
+      <c r="H16" s="285"/>
+      <c r="I16" s="285"/>
+      <c r="J16" s="285"/>
+      <c r="K16" s="285"/>
+      <c r="L16" s="285"/>
+      <c r="M16" s="285"/>
+      <c r="N16" s="285"/>
+      <c r="O16" s="286"/>
+      <c r="P16" s="286"/>
+      <c r="Q16" s="286"/>
+      <c r="R16" s="286"/>
+      <c r="S16" s="286"/>
+      <c r="T16" s="286"/>
+      <c r="U16" s="287"/>
+      <c r="V16" s="287"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="256" t="s">
+      <c r="B17" s="259" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="261">
-        <v>1</v>
-      </c>
-      <c r="D17" s="285" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="288">
-        <v>0</v>
-      </c>
-      <c r="F17" s="288">
-        <v>0</v>
-      </c>
-      <c r="G17" s="288"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="288"/>
-      <c r="L17" s="288"/>
-      <c r="M17" s="288"/>
-      <c r="N17" s="289"/>
-      <c r="O17" s="289"/>
-      <c r="P17" s="289"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="289"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="1"/>
+      <c r="C17" s="322">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D17" s="322">
+        <v>1</v>
+      </c>
+      <c r="E17" s="282" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="285">
+        <v>0</v>
+      </c>
+      <c r="G17" s="285">
+        <v>0</v>
+      </c>
+      <c r="H17" s="285"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="285"/>
+      <c r="K17" s="285"/>
+      <c r="L17" s="285"/>
+      <c r="M17" s="285"/>
+      <c r="N17" s="285"/>
+      <c r="O17" s="286"/>
+      <c r="P17" s="286"/>
+      <c r="Q17" s="286"/>
+      <c r="R17" s="286"/>
+      <c r="S17" s="286"/>
+      <c r="T17" s="286"/>
+      <c r="U17" s="287"/>
+      <c r="V17" s="287"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="256" t="s">
+      <c r="B18" s="259" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="261">
+      <c r="C18" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="322">
         <v>2</v>
       </c>
-      <c r="D18" s="285" t="s">
-        <v>291</v>
-      </c>
-      <c r="E18" s="288">
-        <v>100</v>
-      </c>
-      <c r="F18" s="288">
-        <v>100</v>
-      </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="289"/>
-      <c r="O18" s="289"/>
-      <c r="P18" s="289"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="289"/>
-      <c r="S18" s="289"/>
-      <c r="T18" s="290"/>
-      <c r="U18" s="290"/>
-      <c r="V18" s="1"/>
+      <c r="E18" s="282" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="285">
+        <v>100</v>
+      </c>
+      <c r="G18" s="285">
+        <v>100</v>
+      </c>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="285"/>
+      <c r="O18" s="286"/>
+      <c r="P18" s="286"/>
+      <c r="Q18" s="286"/>
+      <c r="R18" s="286"/>
+      <c r="S18" s="286"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="287"/>
+      <c r="V18" s="287"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="259" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="261">
+      <c r="C19" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="322">
         <v>2</v>
       </c>
-      <c r="D19" s="285" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="288">
-        <v>100</v>
-      </c>
-      <c r="F19" s="288">
-        <v>100</v>
-      </c>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="289"/>
-      <c r="O19" s="289"/>
-      <c r="P19" s="289"/>
-      <c r="Q19" s="289"/>
-      <c r="R19" s="289"/>
-      <c r="S19" s="289"/>
-      <c r="T19" s="290"/>
-      <c r="U19" s="290"/>
-      <c r="V19" s="1"/>
+      <c r="E19" s="282" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="285">
+        <v>100</v>
+      </c>
+      <c r="G19" s="285">
+        <v>100</v>
+      </c>
+      <c r="H19" s="285"/>
+      <c r="I19" s="285"/>
+      <c r="J19" s="285"/>
+      <c r="K19" s="285"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
+      <c r="N19" s="285"/>
+      <c r="O19" s="286"/>
+      <c r="P19" s="286"/>
+      <c r="Q19" s="286"/>
+      <c r="R19" s="286"/>
+      <c r="S19" s="286"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="287"/>
+      <c r="V19" s="287"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="256" t="s">
+      <c r="B20" s="259" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="261">
+      <c r="C20" s="322">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D20" s="322">
         <v>2</v>
       </c>
-      <c r="D20" s="285" t="s">
-        <v>293</v>
-      </c>
-      <c r="E20" s="288">
-        <v>0</v>
-      </c>
-      <c r="F20" s="288">
-        <v>0</v>
-      </c>
-      <c r="G20" s="288"/>
-      <c r="H20" s="288"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="288"/>
-      <c r="K20" s="288"/>
-      <c r="L20" s="288"/>
-      <c r="M20" s="288"/>
-      <c r="N20" s="289"/>
-      <c r="O20" s="289"/>
-      <c r="P20" s="289"/>
-      <c r="Q20" s="289"/>
-      <c r="R20" s="289"/>
-      <c r="S20" s="289"/>
-      <c r="T20" s="290"/>
-      <c r="U20" s="290"/>
-      <c r="V20" s="1"/>
+      <c r="E20" s="282" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="285">
+        <v>0</v>
+      </c>
+      <c r="G20" s="285">
+        <v>0</v>
+      </c>
+      <c r="H20" s="285"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="285"/>
+      <c r="K20" s="285"/>
+      <c r="L20" s="285"/>
+      <c r="M20" s="285"/>
+      <c r="N20" s="285"/>
+      <c r="O20" s="286"/>
+      <c r="P20" s="286"/>
+      <c r="Q20" s="286"/>
+      <c r="R20" s="286"/>
+      <c r="S20" s="286"/>
+      <c r="T20" s="286"/>
+      <c r="U20" s="287"/>
+      <c r="V20" s="287"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="259" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="261">
+      <c r="C21" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="322">
         <v>2</v>
       </c>
-      <c r="D21" s="285" t="s">
-        <v>294</v>
-      </c>
-      <c r="E21" s="288">
-        <v>100</v>
-      </c>
-      <c r="F21" s="288">
-        <v>100</v>
-      </c>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="288"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="288"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="289"/>
-      <c r="Q21" s="289"/>
-      <c r="R21" s="289"/>
-      <c r="S21" s="289"/>
-      <c r="T21" s="290"/>
-      <c r="U21" s="290"/>
-      <c r="V21" s="1"/>
+      <c r="E21" s="282" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="285">
+        <v>100</v>
+      </c>
+      <c r="G21" s="285">
+        <v>100</v>
+      </c>
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="285"/>
+      <c r="L21" s="285"/>
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="286"/>
+      <c r="R21" s="286"/>
+      <c r="S21" s="286"/>
+      <c r="T21" s="286"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="287"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="256" t="s">
+      <c r="B22" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="261">
-        <v>1</v>
-      </c>
-      <c r="D22" s="285" t="s">
-        <v>295</v>
-      </c>
-      <c r="E22" s="288">
-        <v>100</v>
-      </c>
-      <c r="F22" s="288">
-        <v>100</v>
-      </c>
-      <c r="G22" s="288"/>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="288"/>
-      <c r="M22" s="288"/>
-      <c r="N22" s="289"/>
-      <c r="O22" s="289"/>
-      <c r="P22" s="289"/>
-      <c r="Q22" s="289"/>
-      <c r="R22" s="289"/>
-      <c r="S22" s="289"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="290"/>
-      <c r="V22" s="1"/>
+      <c r="C22" s="322">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D22" s="322">
+        <v>1</v>
+      </c>
+      <c r="E22" s="282" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="285">
+        <v>100</v>
+      </c>
+      <c r="G22" s="285">
+        <v>100</v>
+      </c>
+      <c r="H22" s="285"/>
+      <c r="I22" s="285"/>
+      <c r="J22" s="285"/>
+      <c r="K22" s="285"/>
+      <c r="L22" s="285"/>
+      <c r="M22" s="285"/>
+      <c r="N22" s="285"/>
+      <c r="O22" s="286"/>
+      <c r="P22" s="286"/>
+      <c r="Q22" s="286"/>
+      <c r="R22" s="286"/>
+      <c r="S22" s="286"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="287"/>
+      <c r="V22" s="287"/>
       <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="261">
+      <c r="C23" s="322">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D23" s="322">
         <v>2</v>
       </c>
-      <c r="D23" s="285" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="288">
-        <v>100</v>
-      </c>
-      <c r="F23" s="288">
-        <v>100</v>
-      </c>
-      <c r="G23" s="288"/>
-      <c r="H23" s="288"/>
-      <c r="I23" s="288"/>
-      <c r="J23" s="288"/>
-      <c r="K23" s="288"/>
-      <c r="L23" s="288"/>
-      <c r="M23" s="288"/>
-      <c r="N23" s="289"/>
-      <c r="O23" s="289"/>
-      <c r="P23" s="289"/>
-      <c r="Q23" s="289"/>
-      <c r="R23" s="289"/>
-      <c r="S23" s="289"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="290"/>
-      <c r="V23" s="1"/>
+      <c r="E23" s="282" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" s="285">
+        <v>100</v>
+      </c>
+      <c r="G23" s="285">
+        <v>100</v>
+      </c>
+      <c r="H23" s="285"/>
+      <c r="I23" s="285"/>
+      <c r="J23" s="285"/>
+      <c r="K23" s="285"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="285"/>
+      <c r="O23" s="286"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="286"/>
+      <c r="R23" s="286"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="287"/>
+      <c r="V23" s="287"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="256" t="s">
+      <c r="B24" s="259" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="261">
+      <c r="C24" s="322">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D24" s="322">
         <v>2</v>
       </c>
-      <c r="D24" s="285" t="s">
-        <v>297</v>
-      </c>
-      <c r="E24" s="288">
-        <v>100</v>
-      </c>
-      <c r="F24" s="288">
-        <v>0</v>
-      </c>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="288"/>
-      <c r="N24" s="289"/>
-      <c r="O24" s="289"/>
-      <c r="P24" s="289"/>
-      <c r="Q24" s="289"/>
-      <c r="R24" s="289"/>
-      <c r="S24" s="289"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="1"/>
+      <c r="E24" s="282" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="285">
+        <v>100</v>
+      </c>
+      <c r="G24" s="285">
+        <v>0</v>
+      </c>
+      <c r="H24" s="285"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="285"/>
+      <c r="K24" s="285"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="285"/>
+      <c r="N24" s="285"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="286"/>
+      <c r="Q24" s="286"/>
+      <c r="R24" s="286"/>
+      <c r="S24" s="286"/>
+      <c r="T24" s="286"/>
+      <c r="U24" s="287"/>
+      <c r="V24" s="287"/>
       <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="256" t="s">
+      <c r="B25" s="259" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="261">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="288">
-        <v>0</v>
-      </c>
-      <c r="F25" s="288">
-        <v>0</v>
-      </c>
-      <c r="G25" s="288"/>
-      <c r="H25" s="288"/>
-      <c r="I25" s="288"/>
-      <c r="J25" s="288"/>
-      <c r="K25" s="288"/>
-      <c r="L25" s="288"/>
-      <c r="M25" s="288"/>
-      <c r="N25" s="289"/>
-      <c r="O25" s="289"/>
-      <c r="P25" s="289"/>
-      <c r="Q25" s="289"/>
-      <c r="R25" s="289"/>
-      <c r="S25" s="289"/>
-      <c r="T25" s="290"/>
-      <c r="U25" s="290"/>
-      <c r="V25" s="1"/>
+      <c r="C25" s="322">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="322">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="285">
+        <v>0</v>
+      </c>
+      <c r="G25" s="285">
+        <v>0</v>
+      </c>
+      <c r="H25" s="285"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="285"/>
+      <c r="K25" s="285"/>
+      <c r="L25" s="285"/>
+      <c r="M25" s="285"/>
+      <c r="N25" s="285"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="287"/>
+      <c r="V25" s="287"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="256" t="s">
+      <c r="B26" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="322">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D26" s="322">
+        <v>1</v>
+      </c>
+      <c r="E26" s="282" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="261">
-        <v>1</v>
-      </c>
-      <c r="D26" s="285" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="288">
-        <v>0</v>
-      </c>
-      <c r="F26" s="288">
-        <v>0</v>
-      </c>
-      <c r="G26" s="288"/>
-      <c r="H26" s="288"/>
-      <c r="I26" s="288"/>
-      <c r="J26" s="288"/>
-      <c r="K26" s="288"/>
-      <c r="L26" s="288"/>
-      <c r="M26" s="288"/>
-      <c r="N26" s="289"/>
-      <c r="O26" s="289"/>
-      <c r="P26" s="289"/>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="289"/>
-      <c r="S26" s="289"/>
-      <c r="T26" s="290"/>
-      <c r="U26" s="290"/>
-      <c r="V26" s="1"/>
+      <c r="F26" s="285">
+        <v>0</v>
+      </c>
+      <c r="G26" s="285">
+        <v>0</v>
+      </c>
+      <c r="H26" s="285"/>
+      <c r="I26" s="285"/>
+      <c r="J26" s="285"/>
+      <c r="K26" s="285"/>
+      <c r="L26" s="285"/>
+      <c r="M26" s="285"/>
+      <c r="N26" s="285"/>
+      <c r="O26" s="286"/>
+      <c r="P26" s="286"/>
+      <c r="Q26" s="286"/>
+      <c r="R26" s="286"/>
+      <c r="S26" s="286"/>
+      <c r="T26" s="286"/>
+      <c r="U26" s="287"/>
+      <c r="V26" s="287"/>
       <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="256" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="261">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="288"/>
-      <c r="H27" s="288"/>
-      <c r="I27" s="288"/>
-      <c r="J27" s="288"/>
-      <c r="K27" s="288"/>
-      <c r="L27" s="288"/>
-      <c r="M27" s="288"/>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="1"/>
+      <c r="B27" s="259" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="322">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="322">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="285">
+        <v>0</v>
+      </c>
+      <c r="G27" s="285">
+        <v>0</v>
+      </c>
+      <c r="H27" s="285"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="285"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="285"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="286"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" s="286"/>
+      <c r="S27" s="286"/>
+      <c r="T27" s="286"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="287"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="256" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="261">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="288"/>
-      <c r="H28" s="288"/>
-      <c r="I28" s="288"/>
-      <c r="J28" s="288"/>
-      <c r="K28" s="288"/>
-      <c r="L28" s="288"/>
-      <c r="M28" s="288"/>
-      <c r="N28" s="289"/>
-      <c r="O28" s="289"/>
-      <c r="P28" s="289"/>
-      <c r="Q28" s="289"/>
-      <c r="R28" s="289"/>
-      <c r="S28" s="289"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="1"/>
+      <c r="B28" s="259" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="322">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="322">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="285">
+        <v>0</v>
+      </c>
+      <c r="G28" s="285">
+        <v>0</v>
+      </c>
+      <c r="H28" s="285"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="285"/>
+      <c r="K28" s="285"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
+      <c r="N28" s="285"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="287"/>
+      <c r="V28" s="287"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="X28" s="1"/>
+    </row>
+    <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="257"/>
+    </row>
+    <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="257"/>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="257"/>
+    </row>
+    <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
         <v>218</v>
       </c>
+      <c r="C37" s="257"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{B88B1819-D74D-4525-9C23-64EF1FA59B9A}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{999A75C5-570C-4159-8C1B-8497D937A254}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{1B568726-0B54-496A-95E7-55277168022F}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{25880CEC-1834-4C25-8577-4B1A2336E35F}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{918D6868-F4A5-4195-9600-219F97ECD7FE}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{D8EC3E77-02EF-4728-B9E6-55355B90D4FE}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{D3E822BB-CED0-4E5F-94BA-77B9FF9E4B86}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{F9D3A8F7-AD97-4A14-923F-240B7D1537E2}"/>
-    <hyperlink ref="D9" r:id="rId10" xr:uid="{14C0A389-C375-469D-A68D-C8FFF6B89859}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{30B128E1-0910-4C9F-B972-CFA730448FA6}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{76EF706F-C4F7-448C-BDF1-93DCAF15FC7A}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{E9537228-D47C-4C70-9C98-BF3B91095510}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{5CC09A73-81B7-49E0-A2C0-DFF436F14274}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{74133A5C-74EE-4043-A5BF-ED4569C22305}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{BF746EEF-332F-4301-91BD-72B56229B7C4}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{7992B8D8-C241-4C51-80E0-A3836DAF783A}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{CE73B5BE-F526-4A0F-8EA2-B91B9C7D762C}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{F0EE29BA-7AD7-4853-A58E-30ADC4429E5F}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{740E61FA-303F-4BB2-9328-4D80629BB4C6}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{B88B1819-D74D-4525-9C23-64EF1FA59B9A}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{999A75C5-570C-4159-8C1B-8497D937A254}"/>
+    <hyperlink ref="E19" r:id="rId4" xr:uid="{1B568726-0B54-496A-95E7-55277168022F}"/>
+    <hyperlink ref="E22" r:id="rId5" xr:uid="{25880CEC-1834-4C25-8577-4B1A2336E35F}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{918D6868-F4A5-4195-9600-219F97ECD7FE}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{D8EC3E77-02EF-4728-B9E6-55355B90D4FE}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{D3E822BB-CED0-4E5F-94BA-77B9FF9E4B86}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{F9D3A8F7-AD97-4A14-923F-240B7D1537E2}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{14C0A389-C375-469D-A68D-C8FFF6B89859}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{30B128E1-0910-4C9F-B972-CFA730448FA6}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{76EF706F-C4F7-448C-BDF1-93DCAF15FC7A}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{E9537228-D47C-4C70-9C98-BF3B91095510}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{5CC09A73-81B7-49E0-A2C0-DFF436F14274}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{74133A5C-74EE-4043-A5BF-ED4569C22305}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{BF746EEF-332F-4301-91BD-72B56229B7C4}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{7992B8D8-C241-4C51-80E0-A3836DAF783A}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{CE73B5BE-F526-4A0F-8EA2-B91B9C7D762C}"/>
+    <hyperlink ref="E24" r:id="rId19" xr:uid="{F0EE29BA-7AD7-4853-A58E-30ADC4429E5F}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{740E61FA-303F-4BB2-9328-4D80629BB4C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
@@ -4225,33 +4382,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A2:U25"/>
+  <dimension ref="A2:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="279" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="256">
+      <c r="C3" s="312"/>
+      <c r="D3" s="256">
         <v>2</v>
       </c>
-      <c r="D3" s="256"/>
       <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="F3" s="256">
+        <v>2</v>
+      </c>
       <c r="G3" s="256"/>
       <c r="H3" s="256"/>
       <c r="I3" s="256"/>
@@ -4260,784 +4419,872 @@
       <c r="L3" s="256"/>
       <c r="M3" s="256"/>
       <c r="N3" s="256"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="256"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="301" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="302" t="s">
+      <c r="B4" s="296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="315" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="314" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="E4" s="297" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="F4" s="297" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="304" t="s">
+      <c r="G4" s="298" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="305" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="305"/>
-      <c r="I4" s="305"/>
-      <c r="J4" s="305"/>
-      <c r="K4" s="305"/>
-      <c r="L4" s="305"/>
-      <c r="M4" s="305"/>
-      <c r="N4" s="305"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="307"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="299" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="300"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="300"/>
+      <c r="S4" s="300"/>
+      <c r="T4" s="300"/>
+      <c r="U4" s="300"/>
+      <c r="V4" s="301"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="311" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="298">
+      <c r="C5" s="329">
+        <f>( (D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="294">
         <v>2</v>
       </c>
-      <c r="D5" s="299" t="s">
+      <c r="E5" s="295" t="s">
         <v>256</v>
       </c>
-      <c r="E5" s="298">
-        <v>100</v>
-      </c>
-      <c r="F5" s="298">
-        <v>100</v>
-      </c>
-      <c r="G5" s="298">
-        <v>100</v>
-      </c>
-      <c r="H5" s="298"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
-      <c r="T5" s="300"/>
-      <c r="U5" s="300"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="325">
+        <v>100</v>
+      </c>
+      <c r="G5" s="325">
+        <v>100</v>
+      </c>
+      <c r="H5" s="325">
+        <v>100</v>
+      </c>
+      <c r="I5" s="325"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="325"/>
+      <c r="N5" s="325"/>
+      <c r="O5" s="325"/>
+      <c r="P5" s="326"/>
+      <c r="Q5" s="326"/>
+      <c r="R5" s="326"/>
+      <c r="S5" s="326"/>
+      <c r="T5" s="326"/>
+      <c r="U5" s="326"/>
+      <c r="V5" s="326"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="294" t="s">
+      <c r="B6" s="291" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="261">
-        <v>1</v>
-      </c>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="329">
+        <f t="shared" ref="C6:C25" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D6" s="259">
+        <v>1</v>
+      </c>
+      <c r="E6" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="261">
+      <c r="F6" s="322">
         <v>50</v>
       </c>
-      <c r="F6" s="261">
-        <v>0</v>
-      </c>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="322">
+        <v>0</v>
+      </c>
+      <c r="H6" s="322"/>
+      <c r="I6" s="322"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="322"/>
+      <c r="L6" s="322"/>
+      <c r="M6" s="322"/>
+      <c r="N6" s="322"/>
+      <c r="O6" s="322"/>
+      <c r="P6" s="327"/>
+      <c r="Q6" s="327"/>
+      <c r="R6" s="327"/>
+      <c r="S6" s="327"/>
+      <c r="T6" s="327"/>
+      <c r="U6" s="327"/>
+      <c r="V6" s="327"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="315" t="s">
+      <c r="B7" s="308" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="316">
-        <v>0</v>
-      </c>
-      <c r="D7" s="316">
-        <v>0</v>
-      </c>
-      <c r="E7" s="316">
-        <v>0</v>
-      </c>
-      <c r="F7" s="316">
-        <v>0</v>
-      </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="329">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="309">
+        <v>0</v>
+      </c>
+      <c r="E7" s="309">
+        <v>0</v>
+      </c>
+      <c r="F7" s="328">
+        <v>0</v>
+      </c>
+      <c r="G7" s="328">
+        <v>0</v>
+      </c>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
+      <c r="K7" s="322"/>
+      <c r="L7" s="322"/>
+      <c r="M7" s="322"/>
+      <c r="N7" s="322"/>
+      <c r="O7" s="322"/>
+      <c r="P7" s="327"/>
+      <c r="Q7" s="327"/>
+      <c r="R7" s="327"/>
+      <c r="S7" s="327"/>
+      <c r="T7" s="327"/>
+      <c r="U7" s="327"/>
+      <c r="V7" s="327"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="294" t="s">
+      <c r="B8" s="291" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="261">
+      <c r="C8" s="329">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="259">
         <v>2</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="E8" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="261">
-        <v>100</v>
-      </c>
-      <c r="F8" s="261">
-        <v>100</v>
-      </c>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="322">
+        <v>100</v>
+      </c>
+      <c r="G8" s="322">
+        <v>100</v>
+      </c>
+      <c r="H8" s="322"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="322"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="322"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="322"/>
+      <c r="P8" s="327"/>
+      <c r="Q8" s="327"/>
+      <c r="R8" s="327"/>
+      <c r="S8" s="327"/>
+      <c r="T8" s="327"/>
+      <c r="U8" s="327"/>
+      <c r="V8" s="327"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="294" t="s">
+      <c r="B9" s="291" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="261">
+      <c r="C9" s="329">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="259">
         <v>2</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="E9" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="261">
-        <v>100</v>
-      </c>
-      <c r="F9" s="261">
-        <v>100</v>
-      </c>
-      <c r="G9" s="261"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="322">
+        <v>100</v>
+      </c>
+      <c r="G9" s="322">
+        <v>100</v>
+      </c>
+      <c r="H9" s="322"/>
+      <c r="I9" s="322"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="322"/>
+      <c r="L9" s="322"/>
+      <c r="M9" s="322"/>
+      <c r="N9" s="322"/>
+      <c r="O9" s="322"/>
+      <c r="P9" s="327"/>
+      <c r="Q9" s="327"/>
+      <c r="R9" s="327"/>
+      <c r="S9" s="327"/>
+      <c r="T9" s="327"/>
+      <c r="U9" s="327"/>
+      <c r="V9" s="327"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="291" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="261">
+      <c r="C10" s="329">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D10" s="259">
         <v>2</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="E10" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="261">
-        <v>100</v>
-      </c>
-      <c r="F10" s="261">
+      <c r="F10" s="322">
+        <v>100</v>
+      </c>
+      <c r="G10" s="322">
         <v>90</v>
       </c>
-      <c r="G10" s="261"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="261"/>
-      <c r="J10" s="261"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="261"/>
-      <c r="M10" s="261"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="322"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="322"/>
+      <c r="L10" s="322"/>
+      <c r="M10" s="322"/>
+      <c r="N10" s="322"/>
+      <c r="O10" s="322"/>
+      <c r="P10" s="327"/>
+      <c r="Q10" s="327"/>
+      <c r="R10" s="327"/>
+      <c r="S10" s="327"/>
+      <c r="T10" s="327"/>
+      <c r="U10" s="327"/>
+      <c r="V10" s="327"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="294" t="s">
+      <c r="B11" s="291" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="261">
-        <v>0</v>
-      </c>
-      <c r="D11" s="136" t="s">
+      <c r="C11" s="329">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="259">
+        <v>0</v>
+      </c>
+      <c r="E11" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="261">
-        <v>0</v>
-      </c>
-      <c r="F11" s="261">
-        <v>0</v>
-      </c>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="322">
+        <v>0</v>
+      </c>
+      <c r="G11" s="322">
+        <v>0</v>
+      </c>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="322"/>
+      <c r="N11" s="322"/>
+      <c r="O11" s="322"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
+      <c r="R11" s="327"/>
+      <c r="S11" s="327"/>
+      <c r="T11" s="327"/>
+      <c r="U11" s="327"/>
+      <c r="V11" s="327"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="261">
-        <v>0</v>
-      </c>
-      <c r="D12" s="136" t="s">
+      <c r="C12" s="329">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="259">
+        <v>0</v>
+      </c>
+      <c r="E12" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="261">
-        <v>0</v>
-      </c>
-      <c r="F12" s="261">
-        <v>0</v>
-      </c>
-      <c r="G12" s="261"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="261"/>
-      <c r="J12" s="261"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="322">
+        <v>0</v>
+      </c>
+      <c r="G12" s="322">
+        <v>0</v>
+      </c>
+      <c r="H12" s="322"/>
+      <c r="I12" s="322"/>
+      <c r="J12" s="322"/>
+      <c r="K12" s="322"/>
+      <c r="L12" s="322"/>
+      <c r="M12" s="322"/>
+      <c r="N12" s="322"/>
+      <c r="O12" s="322"/>
+      <c r="P12" s="327"/>
+      <c r="Q12" s="327"/>
+      <c r="R12" s="327"/>
+      <c r="S12" s="327"/>
+      <c r="T12" s="327"/>
+      <c r="U12" s="327"/>
+      <c r="V12" s="327"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="297" t="s">
+      <c r="B13" s="293" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="261">
-        <v>1</v>
-      </c>
-      <c r="D13" s="136" t="s">
+      <c r="C13" s="329">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="259">
+        <v>1</v>
+      </c>
+      <c r="E13" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="261">
-        <v>100</v>
-      </c>
-      <c r="F13" s="261">
-        <v>0</v>
-      </c>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="322">
+        <v>100</v>
+      </c>
+      <c r="G13" s="322">
+        <v>0</v>
+      </c>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="322"/>
+      <c r="K13" s="322"/>
+      <c r="L13" s="322"/>
+      <c r="M13" s="322"/>
+      <c r="N13" s="322"/>
+      <c r="O13" s="322"/>
+      <c r="P13" s="327"/>
+      <c r="Q13" s="327"/>
+      <c r="R13" s="327"/>
+      <c r="S13" s="327"/>
+      <c r="T13" s="327"/>
+      <c r="U13" s="327"/>
+      <c r="V13" s="327"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="294" t="s">
+      <c r="B14" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="261">
-        <v>1</v>
-      </c>
-      <c r="D14" s="136" t="s">
+      <c r="C14" s="329">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D14" s="259">
+        <v>1</v>
+      </c>
+      <c r="E14" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="261">
-        <v>100</v>
-      </c>
-      <c r="F14" s="261" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="261"/>
-      <c r="H14" s="261"/>
-      <c r="I14" s="261"/>
-      <c r="J14" s="261"/>
-      <c r="K14" s="261"/>
-      <c r="L14" s="261"/>
-      <c r="M14" s="261"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="322">
+        <v>100</v>
+      </c>
+      <c r="G14" s="322">
+        <v>100</v>
+      </c>
+      <c r="H14" s="322"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="322"/>
+      <c r="L14" s="322"/>
+      <c r="M14" s="322"/>
+      <c r="N14" s="322"/>
+      <c r="O14" s="322"/>
+      <c r="P14" s="327"/>
+      <c r="Q14" s="327"/>
+      <c r="R14" s="327"/>
+      <c r="S14" s="327"/>
+      <c r="T14" s="327"/>
+      <c r="U14" s="327"/>
+      <c r="V14" s="327"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="291" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="261">
-        <v>0</v>
-      </c>
-      <c r="D15" s="136" t="s">
+      <c r="C15" s="329">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="259">
+        <v>0</v>
+      </c>
+      <c r="E15" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="E15" s="261">
-        <v>0</v>
-      </c>
-      <c r="F15" s="261">
-        <v>0</v>
-      </c>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="261"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="261"/>
-      <c r="M15" s="261"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="322">
+        <v>0</v>
+      </c>
+      <c r="G15" s="322">
+        <v>0</v>
+      </c>
+      <c r="H15" s="322"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
+      <c r="M15" s="322"/>
+      <c r="N15" s="322"/>
+      <c r="O15" s="322"/>
+      <c r="P15" s="327"/>
+      <c r="Q15" s="327"/>
+      <c r="R15" s="327"/>
+      <c r="S15" s="327"/>
+      <c r="T15" s="327"/>
+      <c r="U15" s="327"/>
+      <c r="V15" s="327"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="291" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="261">
-        <v>0</v>
-      </c>
-      <c r="D16" s="136" t="s">
+      <c r="C16" s="329">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D16" s="259">
+        <v>0</v>
+      </c>
+      <c r="E16" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="261">
-        <v>100</v>
-      </c>
-      <c r="F16" s="261">
-        <v>0</v>
-      </c>
-      <c r="G16" s="261"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="261"/>
-      <c r="L16" s="261"/>
-      <c r="M16" s="261"/>
-      <c r="N16" s="261"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" s="322">
+        <v>100</v>
+      </c>
+      <c r="G16" s="322">
+        <v>0</v>
+      </c>
+      <c r="H16" s="322"/>
+      <c r="I16" s="322"/>
+      <c r="J16" s="322"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
+      <c r="M16" s="322"/>
+      <c r="N16" s="322"/>
+      <c r="O16" s="322"/>
+      <c r="P16" s="327"/>
+      <c r="Q16" s="327"/>
+      <c r="R16" s="327"/>
+      <c r="S16" s="327"/>
+      <c r="T16" s="327"/>
+      <c r="U16" s="327"/>
+      <c r="V16" s="327"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="294" t="s">
+      <c r="B17" s="291" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="261">
+      <c r="C17" s="329">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D17" s="259">
         <v>2</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="E17" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="261">
-        <v>0</v>
-      </c>
-      <c r="F17" s="261">
-        <v>0</v>
-      </c>
-      <c r="G17" s="261"/>
-      <c r="H17" s="261"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="261"/>
-      <c r="K17" s="261"/>
-      <c r="L17" s="261"/>
-      <c r="M17" s="261"/>
-      <c r="N17" s="261"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="322">
+        <v>0</v>
+      </c>
+      <c r="G17" s="322">
+        <v>0</v>
+      </c>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="322"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="322"/>
+      <c r="N17" s="322"/>
+      <c r="O17" s="322"/>
+      <c r="P17" s="327"/>
+      <c r="Q17" s="327"/>
+      <c r="R17" s="327"/>
+      <c r="S17" s="327"/>
+      <c r="T17" s="327"/>
+      <c r="U17" s="327"/>
+      <c r="V17" s="327"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="294" t="s">
+      <c r="B18" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="261">
+      <c r="C18" s="329">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="259">
         <v>2</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="E18" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="261">
-        <v>100</v>
-      </c>
-      <c r="F18" s="261">
-        <v>100</v>
-      </c>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="261"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="261"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="322">
+        <v>100</v>
+      </c>
+      <c r="G18" s="322">
+        <v>100</v>
+      </c>
+      <c r="H18" s="322"/>
+      <c r="I18" s="322"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="322"/>
+      <c r="L18" s="322"/>
+      <c r="M18" s="322"/>
+      <c r="N18" s="322"/>
+      <c r="O18" s="322"/>
+      <c r="P18" s="327"/>
+      <c r="Q18" s="327"/>
+      <c r="R18" s="327"/>
+      <c r="S18" s="327"/>
+      <c r="T18" s="327"/>
+      <c r="U18" s="327"/>
+      <c r="V18" s="327"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="294" t="s">
+      <c r="B19" s="291" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="261">
-        <v>1</v>
-      </c>
-      <c r="D19" s="136" t="s">
+      <c r="C19" s="329">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D19" s="259">
+        <v>1</v>
+      </c>
+      <c r="E19" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="261">
-        <v>100</v>
-      </c>
-      <c r="F19" s="261">
-        <v>100</v>
-      </c>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
-      <c r="K19" s="261"/>
-      <c r="L19" s="261"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19" s="322">
+        <v>100</v>
+      </c>
+      <c r="G19" s="322">
+        <v>100</v>
+      </c>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="322"/>
+      <c r="M19" s="322"/>
+      <c r="N19" s="322"/>
+      <c r="O19" s="322"/>
+      <c r="P19" s="327"/>
+      <c r="Q19" s="327"/>
+      <c r="R19" s="327"/>
+      <c r="S19" s="327"/>
+      <c r="T19" s="327"/>
+      <c r="U19" s="327"/>
+      <c r="V19" s="327"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="294" t="s">
+      <c r="B20" s="291" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="261">
+      <c r="C20" s="329">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="259">
         <v>2</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="E20" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="261">
-        <v>100</v>
-      </c>
-      <c r="F20" s="261">
-        <v>0</v>
-      </c>
-      <c r="G20" s="261"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="261"/>
-      <c r="K20" s="261"/>
-      <c r="L20" s="261"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20" s="322">
+        <v>100</v>
+      </c>
+      <c r="G20" s="322">
+        <v>100</v>
+      </c>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="322"/>
+      <c r="N20" s="322"/>
+      <c r="O20" s="322"/>
+      <c r="P20" s="327"/>
+      <c r="Q20" s="327"/>
+      <c r="R20" s="327"/>
+      <c r="S20" s="327"/>
+      <c r="T20" s="327"/>
+      <c r="U20" s="327"/>
+      <c r="V20" s="327"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="295" t="s">
+      <c r="B21" s="292" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="296">
-        <v>0</v>
-      </c>
-      <c r="D21" s="261">
-        <v>0</v>
-      </c>
-      <c r="E21" s="261">
-        <v>0</v>
-      </c>
-      <c r="F21" s="261">
-        <v>0</v>
-      </c>
-      <c r="G21" s="261"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="261"/>
-      <c r="K21" s="261"/>
-      <c r="L21" s="261"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="329">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="313">
+        <v>0</v>
+      </c>
+      <c r="E21" s="259">
+        <v>0</v>
+      </c>
+      <c r="F21" s="322">
+        <v>0</v>
+      </c>
+      <c r="G21" s="322">
+        <v>0</v>
+      </c>
+      <c r="H21" s="322"/>
+      <c r="I21" s="322"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="322"/>
+      <c r="N21" s="322"/>
+      <c r="O21" s="322"/>
+      <c r="P21" s="327"/>
+      <c r="Q21" s="327"/>
+      <c r="R21" s="327"/>
+      <c r="S21" s="327"/>
+      <c r="T21" s="327"/>
+      <c r="U21" s="327"/>
+      <c r="V21" s="327"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="294" t="s">
+      <c r="B22" s="291" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="261">
+      <c r="C22" s="329">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D22" s="259">
         <v>2</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="E22" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="261"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="261"/>
-      <c r="M22" s="261"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22" s="322"/>
+      <c r="G22" s="322"/>
+      <c r="H22" s="322"/>
+      <c r="I22" s="322"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="322"/>
+      <c r="L22" s="322"/>
+      <c r="M22" s="322"/>
+      <c r="N22" s="322"/>
+      <c r="O22" s="322"/>
+      <c r="P22" s="327"/>
+      <c r="Q22" s="327"/>
+      <c r="R22" s="327"/>
+      <c r="S22" s="327"/>
+      <c r="T22" s="327"/>
+      <c r="U22" s="327"/>
+      <c r="V22" s="327"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="294" t="s">
+      <c r="B23" s="291" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="261">
-        <v>1</v>
-      </c>
-      <c r="D23" s="136" t="s">
+      <c r="C23" s="329">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D23" s="259">
+        <v>1</v>
+      </c>
+      <c r="E23" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="261"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="261"/>
-      <c r="K23" s="261"/>
-      <c r="L23" s="261"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
+      <c r="N23" s="322"/>
+      <c r="O23" s="322"/>
+      <c r="P23" s="327"/>
+      <c r="Q23" s="327"/>
+      <c r="R23" s="327"/>
+      <c r="S23" s="327"/>
+      <c r="T23" s="327"/>
+      <c r="U23" s="327"/>
+      <c r="V23" s="327"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="294" t="s">
+      <c r="B24" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="261">
+      <c r="C24" s="329">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D24" s="259">
         <v>2</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="E24" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="E24" s="261"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="261"/>
-      <c r="K24" s="261"/>
-      <c r="L24" s="261"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="322"/>
+      <c r="G24" s="322"/>
+      <c r="H24" s="322"/>
+      <c r="I24" s="322"/>
+      <c r="J24" s="322"/>
+      <c r="K24" s="322"/>
+      <c r="L24" s="322"/>
+      <c r="M24" s="322"/>
+      <c r="N24" s="322"/>
+      <c r="O24" s="322"/>
+      <c r="P24" s="327"/>
+      <c r="Q24" s="327"/>
+      <c r="R24" s="327"/>
+      <c r="S24" s="327"/>
+      <c r="T24" s="327"/>
+      <c r="U24" s="327"/>
+      <c r="V24" s="327"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="291" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="261">
+      <c r="C25" s="329">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D25" s="259">
         <v>2</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="E25" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="261"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="261"/>
-      <c r="K25" s="261"/>
-      <c r="L25" s="261"/>
-      <c r="M25" s="261"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
+      <c r="M25" s="322"/>
+      <c r="N25" s="322"/>
+      <c r="O25" s="322"/>
+      <c r="P25" s="327"/>
+      <c r="Q25" s="327"/>
+      <c r="R25" s="327"/>
+      <c r="S25" s="327"/>
+      <c r="T25" s="327"/>
+      <c r="U25" s="327"/>
+      <c r="V25" s="327"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
-    <hyperlink ref="D6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
-    <hyperlink ref="D8" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
-    <hyperlink ref="D9" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
-    <hyperlink ref="D10" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
-    <hyperlink ref="D11" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
-    <hyperlink ref="D12" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
-    <hyperlink ref="D13" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
-    <hyperlink ref="D14" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
-    <hyperlink ref="D15" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
-    <hyperlink ref="D16" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
-    <hyperlink ref="D17" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
-    <hyperlink ref="D18" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
-    <hyperlink ref="D19" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
-    <hyperlink ref="D20" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
-    <hyperlink ref="D25" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
-    <hyperlink ref="D22" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
-    <hyperlink ref="D23" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
-    <hyperlink ref="D24" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
+    <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
+    <hyperlink ref="E6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
+    <hyperlink ref="E8" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
+    <hyperlink ref="E9" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
+    <hyperlink ref="E10" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
+    <hyperlink ref="E11" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
+    <hyperlink ref="E12" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
+    <hyperlink ref="E13" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
+    <hyperlink ref="E14" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
+    <hyperlink ref="E15" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
+    <hyperlink ref="E16" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
+    <hyperlink ref="E17" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
+    <hyperlink ref="E18" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
+    <hyperlink ref="E19" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
+    <hyperlink ref="E20" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
+    <hyperlink ref="E25" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
+    <hyperlink ref="E22" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
+    <hyperlink ref="E23" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
+    <hyperlink ref="E24" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -5047,53 +5294,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A2:X30"/>
+  <dimension ref="A2:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="279" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="256">
-        <v>3</v>
-      </c>
-      <c r="D3" s="256"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="256">
+        <v>2</v>
+      </c>
       <c r="E3" s="256"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="293" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="258" t="s">
+      <c r="B4" s="290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="315" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="318" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="317">
+      <c r="E4" s="317">
         <v>45918</v>
       </c>
-      <c r="E4" s="259" t="s">
+      <c r="F4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="314" t="s">
+      <c r="H4" s="307" t="s">
         <v>253</v>
       </c>
-      <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
@@ -5109,31 +5362,35 @@
       <c r="U4" s="58"/>
       <c r="V4" s="58"/>
       <c r="W4" s="58"/>
-      <c r="X4" s="62"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="62"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="294" t="s">
+      <c r="B5" s="291" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="261">
+      <c r="C5" s="330">
+        <f>(D5/$D$3*100 + G5 + H5)/($F$3+1)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D5" s="259">
         <v>2</v>
       </c>
-      <c r="D5" s="261">
-        <v>0</v>
-      </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="259">
+        <v>0</v>
+      </c>
+      <c r="F5" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="26">
-        <v>100</v>
-      </c>
       <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -5150,30 +5407,34 @@
       <c r="V5" s="26"/>
       <c r="W5" s="26"/>
       <c r="X5" s="26"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="294" t="s">
+      <c r="B6" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="261">
+      <c r="C6" s="330">
+        <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6)/($F$3+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="259">
         <v>2</v>
       </c>
-      <c r="D6" s="261">
-        <v>1</v>
-      </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="259">
+        <v>1</v>
+      </c>
+      <c r="F6" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="F6" s="26">
-        <v>100</v>
-      </c>
       <c r="G6" s="26">
         <v>100</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="26">
+        <v>100</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -5190,30 +5451,34 @@
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
       <c r="X6" s="26"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y6" s="26"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="294" t="s">
+      <c r="B7" s="291" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="261">
+      <c r="C7" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="259">
         <v>2</v>
       </c>
-      <c r="D7" s="261">
-        <v>1</v>
-      </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="259">
+        <v>1</v>
+      </c>
+      <c r="F7" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="26">
-        <v>100</v>
-      </c>
       <c r="G7" s="26">
         <v>100</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="26">
+        <v>100</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -5230,30 +5495,34 @@
       <c r="V7" s="26"/>
       <c r="W7" s="26"/>
       <c r="X7" s="26"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y7" s="26"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="294" t="s">
+      <c r="B8" s="291" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="261">
+      <c r="C8" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D8" s="259">
         <v>2</v>
       </c>
-      <c r="D8" s="261">
-        <v>1</v>
-      </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="259">
+        <v>1</v>
+      </c>
+      <c r="F8" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="F8" s="26">
-        <v>100</v>
-      </c>
       <c r="G8" s="26">
         <v>100</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <v>100</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -5270,30 +5539,34 @@
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="294" t="s">
+      <c r="B9" s="291" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="261">
+      <c r="C9" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="259">
         <v>2</v>
       </c>
-      <c r="D9" s="261">
-        <v>1</v>
-      </c>
-      <c r="E9" s="136" t="s">
+      <c r="E9" s="259">
+        <v>1</v>
+      </c>
+      <c r="F9" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="26">
-        <v>100</v>
-      </c>
       <c r="G9" s="26">
         <v>100</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="26">
+        <v>100</v>
+      </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -5310,30 +5583,34 @@
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="291" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="261">
+      <c r="C10" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D10" s="259">
         <v>2</v>
       </c>
-      <c r="D10" s="261">
-        <v>1</v>
-      </c>
-      <c r="E10" s="136" t="s">
+      <c r="E10" s="259">
+        <v>1</v>
+      </c>
+      <c r="F10" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="26">
-        <v>100</v>
-      </c>
       <c r="G10" s="26">
         <v>100</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="26">
+        <v>100</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5350,30 +5627,34 @@
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="297" t="s">
+      <c r="B11" s="293" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="261">
+      <c r="C11" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="259">
         <v>2</v>
       </c>
-      <c r="D11" s="261">
-        <v>0</v>
-      </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="259">
+        <v>0</v>
+      </c>
+      <c r="F11" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="26">
-        <v>100</v>
-      </c>
       <c r="G11" s="26">
         <v>100</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26">
+        <v>100</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5390,30 +5671,34 @@
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y11" s="26"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="294" t="s">
+      <c r="B12" s="291" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="261">
+      <c r="C12" s="330">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D12" s="259">
         <v>2</v>
       </c>
-      <c r="D12" s="261">
-        <v>1</v>
-      </c>
-      <c r="E12" s="136" t="s">
+      <c r="E12" s="259">
+        <v>1</v>
+      </c>
+      <c r="F12" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="26">
-        <v>100</v>
-      </c>
       <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -5430,30 +5715,34 @@
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
       <c r="X12" s="26"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="294" t="s">
+      <c r="B13" s="291" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="261">
+      <c r="C13" s="330">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="D13" s="259">
         <v>2</v>
       </c>
-      <c r="D13" s="261">
-        <v>1</v>
-      </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="259">
+        <v>1</v>
+      </c>
+      <c r="F13" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="26">
-        <v>100</v>
-      </c>
       <c r="G13" s="26">
+        <v>100</v>
+      </c>
+      <c r="H13" s="26">
         <v>90</v>
       </c>
-      <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -5470,30 +5759,34 @@
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y13" s="26"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="294" t="s">
+      <c r="B14" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="261">
+      <c r="C14" s="330">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D14" s="259">
         <v>2</v>
       </c>
-      <c r="D14" s="261">
-        <v>1</v>
-      </c>
-      <c r="E14" s="285" t="s">
-        <v>322</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="E14" s="259">
+        <v>1</v>
+      </c>
+      <c r="F14" s="282" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" s="26">
         <v>20</v>
       </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -5510,30 +5803,34 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="291" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="261">
+      <c r="C15" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D15" s="259">
         <v>2</v>
       </c>
-      <c r="D15" s="261">
-        <v>0</v>
-      </c>
-      <c r="E15" s="136" t="s">
+      <c r="E15" s="259">
+        <v>0</v>
+      </c>
+      <c r="F15" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="26">
-        <v>100</v>
-      </c>
       <c r="G15" s="26">
         <v>100</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="26">
+        <v>100</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -5550,30 +5847,34 @@
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y15" s="26"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="291" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="261">
+      <c r="C16" s="330">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D16" s="259">
         <v>2</v>
       </c>
-      <c r="D16" s="261">
-        <v>1</v>
-      </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="259">
+        <v>1</v>
+      </c>
+      <c r="F16" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="26">
+      <c r="G16" s="26">
         <v>60</v>
       </c>
-      <c r="G16" s="26">
-        <v>100</v>
-      </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="26">
+        <v>100</v>
+      </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -5590,30 +5891,34 @@
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="294" t="s">
+      <c r="B17" s="291" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="261">
+      <c r="C17" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="259">
         <v>2</v>
       </c>
-      <c r="D17" s="261">
-        <v>1</v>
-      </c>
-      <c r="E17" s="136" t="s">
+      <c r="E17" s="259">
+        <v>1</v>
+      </c>
+      <c r="F17" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="26">
-        <v>100</v>
-      </c>
       <c r="G17" s="26">
         <v>100</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="26">
+        <v>100</v>
+      </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -5630,30 +5935,34 @@
       <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="294" t="s">
+      <c r="B18" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="261">
+      <c r="C18" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="259">
         <v>2</v>
       </c>
-      <c r="D18" s="261">
-        <v>1</v>
-      </c>
-      <c r="E18" s="136" t="s">
+      <c r="E18" s="259">
+        <v>1</v>
+      </c>
+      <c r="F18" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="F18" s="26">
-        <v>100</v>
-      </c>
       <c r="G18" s="26">
         <v>100</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="26">
+        <v>100</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -5670,30 +5979,34 @@
       <c r="V18" s="26"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y18" s="26"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="294" t="s">
+      <c r="B19" s="291" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="261">
+      <c r="C19" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="259">
         <v>2</v>
       </c>
-      <c r="D19" s="261">
-        <v>1</v>
-      </c>
-      <c r="E19" s="285" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="26">
-        <v>100</v>
+      <c r="E19" s="259">
+        <v>1</v>
+      </c>
+      <c r="F19" s="282" t="s">
+        <v>320</v>
       </c>
       <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="26">
+        <v>100</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -5710,30 +6023,34 @@
       <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y19" s="26"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="294" t="s">
+      <c r="B20" s="291" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="261">
-        <v>1</v>
-      </c>
-      <c r="D20" s="261">
-        <v>1</v>
-      </c>
-      <c r="E20" s="136" t="s">
+      <c r="C20" s="330">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D20" s="259">
+        <v>1</v>
+      </c>
+      <c r="E20" s="259">
+        <v>1</v>
+      </c>
+      <c r="F20" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="26">
-        <v>100</v>
-      </c>
       <c r="G20" s="26">
         <v>100</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="26">
+        <v>100</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -5750,30 +6067,34 @@
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="294" t="s">
+      <c r="B21" s="291" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="261">
+      <c r="C21" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="259">
         <v>2</v>
       </c>
-      <c r="D21" s="261">
-        <v>1</v>
-      </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="259">
+        <v>1</v>
+      </c>
+      <c r="F21" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="26">
-        <v>100</v>
-      </c>
       <c r="G21" s="26">
         <v>100</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="26">
+        <v>100</v>
+      </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
@@ -5790,30 +6111,34 @@
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="310" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="261">
+      <c r="C22" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D22" s="259">
         <v>2</v>
       </c>
-      <c r="D22" s="261">
-        <v>1</v>
-      </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="259">
+        <v>1</v>
+      </c>
+      <c r="F22" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="26">
-        <v>100</v>
-      </c>
       <c r="G22" s="26">
         <v>100</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="26">
+        <v>100</v>
+      </c>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -5830,30 +6155,34 @@
       <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="294" t="s">
+      <c r="B23" s="291" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="261">
+      <c r="C23" s="330">
+        <f t="shared" si="0"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D23" s="259">
         <v>2</v>
       </c>
-      <c r="D23" s="261">
-        <v>1</v>
-      </c>
-      <c r="E23" s="136" t="s">
+      <c r="E23" s="259">
+        <v>1</v>
+      </c>
+      <c r="F23" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="26">
-        <v>100</v>
-      </c>
       <c r="G23" s="26">
+        <v>100</v>
+      </c>
+      <c r="H23" s="26">
         <v>80</v>
       </c>
-      <c r="H23" s="26"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -5870,30 +6199,34 @@
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="294" t="s">
+      <c r="B24" s="291" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="261">
+      <c r="C24" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D24" s="259">
         <v>2</v>
       </c>
-      <c r="D24" s="261">
-        <v>1</v>
-      </c>
-      <c r="E24" s="136" t="s">
-        <v>320</v>
-      </c>
-      <c r="F24" s="26">
-        <v>100</v>
+      <c r="E24" s="259">
+        <v>1</v>
+      </c>
+      <c r="F24" s="136" t="s">
+        <v>319</v>
       </c>
       <c r="G24" s="26">
         <v>100</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="26">
+        <v>100</v>
+      </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -5910,30 +6243,34 @@
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y24" s="26"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="291" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="261">
+      <c r="C25" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D25" s="259">
         <v>2</v>
       </c>
-      <c r="D25" s="261">
-        <v>1</v>
-      </c>
-      <c r="E25" s="136" t="s">
+      <c r="E25" s="259">
+        <v>1</v>
+      </c>
+      <c r="F25" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="26">
-        <v>100</v>
-      </c>
       <c r="G25" s="26">
         <v>100</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="26">
+        <v>100</v>
+      </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -5950,30 +6287,34 @@
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="294" t="s">
+      <c r="B26" s="291" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="261">
+      <c r="C26" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D26" s="259">
         <v>2</v>
       </c>
-      <c r="D26" s="261">
-        <v>1</v>
-      </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="259">
+        <v>1</v>
+      </c>
+      <c r="F26" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="F26" s="26">
-        <v>100</v>
-      </c>
       <c r="G26" s="26">
         <v>100</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="26">
+        <v>100</v>
+      </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -5990,30 +6331,34 @@
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y26" s="26"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="318" t="s">
+      <c r="B27" s="310" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="261">
+      <c r="C27" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D27" s="259">
         <v>2</v>
       </c>
-      <c r="D27" s="261">
-        <v>1</v>
-      </c>
-      <c r="E27" s="136" t="s">
+      <c r="E27" s="259">
+        <v>1</v>
+      </c>
+      <c r="F27" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="26">
-        <v>100</v>
-      </c>
       <c r="G27" s="26">
         <v>100</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="26">
+        <v>100</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -6030,30 +6375,34 @@
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y27" s="26"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="294" t="s">
+      <c r="B28" s="291" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="261">
+      <c r="C28" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D28" s="259">
         <v>2</v>
       </c>
-      <c r="D28" s="261">
-        <v>1</v>
-      </c>
-      <c r="E28" s="136" t="s">
+      <c r="E28" s="259">
+        <v>1</v>
+      </c>
+      <c r="F28" s="136" t="s">
         <v>250</v>
       </c>
-      <c r="F28" s="26">
-        <v>100</v>
-      </c>
       <c r="G28" s="26">
         <v>100</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="26">
+        <v>100</v>
+      </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -6070,30 +6419,34 @@
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y28" s="26"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="256">
         <v>25</v>
       </c>
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="291" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="261">
+      <c r="C29" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D29" s="259">
         <v>2</v>
       </c>
-      <c r="D29" s="261">
-        <v>1</v>
-      </c>
-      <c r="E29" s="136" t="s">
+      <c r="E29" s="259">
+        <v>1</v>
+      </c>
+      <c r="F29" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="26">
-        <v>100</v>
-      </c>
       <c r="G29" s="26">
         <v>100</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="26">
+        <v>100</v>
+      </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -6110,30 +6463,34 @@
       <c r="V29" s="26"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Y29" s="26"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="294" t="s">
+      <c r="B30" s="291" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="261">
+      <c r="C30" s="330">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="259">
         <v>2</v>
       </c>
-      <c r="D30" s="261">
-        <v>0</v>
-      </c>
-      <c r="E30" s="136" t="s">
+      <c r="E30" s="259">
+        <v>0</v>
+      </c>
+      <c r="F30" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="26">
-        <v>100</v>
-      </c>
       <c r="G30" s="26">
         <v>100</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="26">
+        <v>100</v>
+      </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -6150,35 +6507,36 @@
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{35602F18-F7C7-440A-8671-5BAED164562D}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{BE77414A-4419-4B1A-9733-AE230022A7BC}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{F22EBB5C-8007-4660-A11F-48671A6C4DE8}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{06508BE1-E9A0-471D-89E2-837CD4251450}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
-    <hyperlink ref="E26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
-    <hyperlink ref="E23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
-    <hyperlink ref="E28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
-    <hyperlink ref="E29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
-    <hyperlink ref="E30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
-    <hyperlink ref="E20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
-    <hyperlink ref="E17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
-    <hyperlink ref="E18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
-    <hyperlink ref="E19" r:id="rId25" tooltip="https://github.com/Nimda3/Visual-programming" xr:uid="{442DC397-A830-45C2-8248-B84CCC0F261B}"/>
-    <hyperlink ref="E14" r:id="rId26" tooltip="https://github.com/mitsum551/Android" xr:uid="{CF3532AD-8157-4BBA-B73B-B8998A61BF2D}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{35602F18-F7C7-440A-8671-5BAED164562D}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{BE77414A-4419-4B1A-9733-AE230022A7BC}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{F22EBB5C-8007-4660-A11F-48671A6C4DE8}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{06508BE1-E9A0-471D-89E2-837CD4251450}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
+    <hyperlink ref="F25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
+    <hyperlink ref="F23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
+    <hyperlink ref="F15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
+    <hyperlink ref="F28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
+    <hyperlink ref="F29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
+    <hyperlink ref="F30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
+    <hyperlink ref="F20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
+    <hyperlink ref="F17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
+    <hyperlink ref="F18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
+    <hyperlink ref="F19" r:id="rId25" tooltip="https://github.com/Nimda3/Visual-programming" xr:uid="{442DC397-A830-45C2-8248-B84CCC0F261B}"/>
+    <hyperlink ref="F14" r:id="rId26" tooltip="https://github.com/mitsum551/Android" xr:uid="{CF3532AD-8157-4BBA-B73B-B8998A61BF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
@@ -6192,7 +6550,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ4" sqref="AQ4"/>
+      <selection pane="topRight" activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6462,7 +6820,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="276" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -6571,7 +6929,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -7021,7 +7379,7 @@
       <c r="AP7" s="26"/>
     </row>
     <row r="8" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="279" t="s">
+      <c r="A8" s="277" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25">
@@ -7473,111 +7831,111 @@
       </c>
       <c r="AP11" s="26"/>
     </row>
-    <row r="12" spans="1:43" s="277" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="262" t="s">
+    <row r="12" spans="1:43" s="275" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="263">
-        <v>0</v>
-      </c>
-      <c r="C12" s="264"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="266">
-        <v>1</v>
-      </c>
-      <c r="G12" s="267">
-        <v>1</v>
-      </c>
-      <c r="H12" s="266">
+      <c r="B12" s="261">
+        <v>0</v>
+      </c>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264">
+        <v>1</v>
+      </c>
+      <c r="G12" s="265">
+        <v>1</v>
+      </c>
+      <c r="H12" s="264">
         <v>-0.5</v>
       </c>
-      <c r="I12" s="268">
+      <c r="I12" s="266">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="268">
+      <c r="J12" s="266">
         <v>-0.5</v>
       </c>
-      <c r="K12" s="269">
-        <v>1</v>
-      </c>
-      <c r="L12" s="268">
+      <c r="K12" s="267">
+        <v>1</v>
+      </c>
+      <c r="L12" s="266">
         <v>-0.5</v>
       </c>
-      <c r="M12" s="269">
+      <c r="M12" s="267">
         <v>-0.5</v>
       </c>
-      <c r="N12" s="269">
-        <v>1</v>
-      </c>
-      <c r="O12" s="269">
-        <v>1</v>
-      </c>
-      <c r="P12" s="270">
+      <c r="N12" s="267">
+        <v>1</v>
+      </c>
+      <c r="O12" s="267">
+        <v>1</v>
+      </c>
+      <c r="P12" s="268">
         <v>-0.5</v>
       </c>
-      <c r="Q12" s="269">
-        <v>1</v>
-      </c>
-      <c r="R12" s="269" t="s">
+      <c r="Q12" s="267">
+        <v>1</v>
+      </c>
+      <c r="R12" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="269">
+      <c r="S12" s="267">
         <v>3</v>
       </c>
-      <c r="T12" s="269">
-        <v>1</v>
-      </c>
-      <c r="U12" s="269">
+      <c r="T12" s="267">
+        <v>1</v>
+      </c>
+      <c r="U12" s="267">
         <v>-1</v>
       </c>
-      <c r="V12" s="268">
-        <v>1</v>
-      </c>
-      <c r="W12" s="269">
-        <v>1</v>
-      </c>
-      <c r="X12" s="269">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="269">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="271">
+      <c r="V12" s="266">
+        <v>1</v>
+      </c>
+      <c r="W12" s="267">
+        <v>1</v>
+      </c>
+      <c r="X12" s="267">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="267">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="269">
         <f>-40 - 40 - 40</f>
         <v>-120</v>
       </c>
-      <c r="AD12" s="272">
+      <c r="AD12" s="270">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AE12" s="273">
+      <c r="AE12" s="271">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="AF12" s="273">
+      <c r="AF12" s="271">
         <v>-100</v>
       </c>
-      <c r="AG12" s="274">
+      <c r="AG12" s="272">
         <v>-100</v>
       </c>
-      <c r="AH12" s="275">
+      <c r="AH12" s="273">
         <v>-100</v>
       </c>
-      <c r="AI12" s="275"/>
-      <c r="AJ12" s="275"/>
-      <c r="AK12" s="275"/>
-      <c r="AL12" s="275"/>
-      <c r="AM12" s="275"/>
-      <c r="AN12" s="275"/>
-      <c r="AO12" s="276">
+      <c r="AI12" s="273"/>
+      <c r="AJ12" s="273"/>
+      <c r="AK12" s="273"/>
+      <c r="AL12" s="273"/>
+      <c r="AM12" s="273"/>
+      <c r="AN12" s="273"/>
+      <c r="AO12" s="274">
         <f t="shared" si="1"/>
         <v>16.53846153846154</v>
       </c>
-      <c r="AP12" s="264"/>
+      <c r="AP12" s="262"/>
     </row>
     <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
@@ -8029,7 +8387,7 @@
       <c r="AP16" s="26"/>
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="280" t="s">
+      <c r="A17" s="278" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="25">
@@ -8145,7 +8503,7 @@
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="277" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25">
@@ -8708,7 +9066,7 @@
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="280" t="s">
+      <c r="A23" s="278" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="25">
@@ -11881,81 +12239,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="284" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="284" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="287" t="s">
+      <c r="C3" s="284" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="284" t="s">
         <v>302</v>
       </c>
-      <c r="C3" s="287" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="284" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="284" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="284" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="284" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="284" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="284" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="284" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="287" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="287" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="287" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="287" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="287" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="287" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="287" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="287" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="284" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="287" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="284" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="287" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="284" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="287" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="284" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="287" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="284" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="287" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF8E4E6-FD11-427D-942A-27F118B22F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B233F6F-F548-4F02-80D0-CDA411721934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -4384,8 +4384,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C22" s="329">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="D22" s="259">
         <v>2</v>
@@ -5141,8 +5141,12 @@
       <c r="E22" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="322"/>
-      <c r="G22" s="322"/>
+      <c r="F22" s="322">
+        <v>100</v>
+      </c>
+      <c r="G22" s="322">
+        <v>100</v>
+      </c>
       <c r="H22" s="322"/>
       <c r="I22" s="322"/>
       <c r="J22" s="322"/>
@@ -5168,7 +5172,7 @@
       </c>
       <c r="C23" s="329">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>50</v>
       </c>
       <c r="D23" s="259">
         <v>1</v>
@@ -5176,8 +5180,12 @@
       <c r="E23" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="F23" s="322"/>
-      <c r="G23" s="322"/>
+      <c r="F23" s="322">
+        <v>100</v>
+      </c>
+      <c r="G23" s="322">
+        <v>0</v>
+      </c>
       <c r="H23" s="322"/>
       <c r="I23" s="322"/>
       <c r="J23" s="322"/>
@@ -5203,7 +5211,7 @@
       </c>
       <c r="C24" s="329">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="D24" s="259">
         <v>2</v>
@@ -5211,8 +5219,12 @@
       <c r="E24" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="F24" s="322"/>
-      <c r="G24" s="322"/>
+      <c r="F24" s="322">
+        <v>100</v>
+      </c>
+      <c r="G24" s="322">
+        <v>100</v>
+      </c>
       <c r="H24" s="322"/>
       <c r="I24" s="322"/>
       <c r="J24" s="322"/>
@@ -5238,7 +5250,7 @@
       </c>
       <c r="C25" s="329">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="D25" s="259">
         <v>2</v>
@@ -5246,8 +5258,12 @@
       <c r="E25" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
+      <c r="F25" s="322">
+        <v>100</v>
+      </c>
+      <c r="G25" s="322">
+        <v>100</v>
+      </c>
       <c r="H25" s="322"/>
       <c r="I25" s="322"/>
       <c r="J25" s="322"/>
@@ -5296,7 +5312,7 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B233F6F-F548-4F02-80D0-CDA411721934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D34EFE-E7BB-49E4-ABF7-1F3B5FF34CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="324">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>УСПЕВАЕМОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПР.2 </t>
   </si>
 </sst>
 </file>
@@ -3279,8 +3282,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,6 +3294,7 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3301,7 +3305,7 @@
       </c>
       <c r="C3" s="316"/>
       <c r="D3" s="280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="280"/>
       <c r="F3" s="114">
@@ -3330,7 +3334,9 @@
       <c r="G4" s="306" t="s">
         <v>299</v>
       </c>
-      <c r="H4" s="300"/>
+      <c r="H4" s="300" t="s">
+        <v>323</v>
+      </c>
       <c r="I4" s="300"/>
       <c r="J4" s="300"/>
       <c r="K4" s="300"/>
@@ -3356,10 +3362,10 @@
       </c>
       <c r="C5" s="322">
         <f>((D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
-        <v>0</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="D5" s="323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="282" t="s">
         <v>278</v>
@@ -3400,7 +3406,7 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D6" s="324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="282" t="s">
         <v>279</v>
@@ -3438,19 +3444,19 @@
       </c>
       <c r="C7" s="322">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="D7" s="324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="282" t="s">
         <v>280</v>
       </c>
       <c r="F7" s="289">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="283">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" s="285"/>
       <c r="I7" s="285"/>
@@ -3479,10 +3485,10 @@
       </c>
       <c r="C8" s="322">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>22.222222222222218</v>
       </c>
       <c r="D8" s="322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="282" t="s">
         <v>281</v>
@@ -3523,7 +3529,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="282" t="s">
         <v>282</v>
@@ -3564,7 +3570,7 @@
         <v>96.666666666666671</v>
       </c>
       <c r="D10" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="282" t="s">
         <v>283</v>
@@ -3605,7 +3611,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="282" t="s">
         <v>284</v>
@@ -3687,7 +3693,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="282" t="s">
         <v>285</v>
@@ -3725,10 +3731,10 @@
       </c>
       <c r="C14" s="322">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D14" s="322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="282" t="s">
         <v>286</v>
@@ -3769,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="282" t="s">
         <v>287</v>
@@ -3810,7 +3816,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="282" t="s">
         <v>288</v>
@@ -3848,7 +3854,7 @@
       </c>
       <c r="C17" s="322">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="D17" s="322">
         <v>1</v>
@@ -3892,7 +3898,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="282" t="s">
         <v>290</v>
@@ -3933,7 +3939,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="282" t="s">
         <v>291</v>
@@ -3971,16 +3977,16 @@
       </c>
       <c r="C20" s="322">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="D20" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="282" t="s">
         <v>292</v>
       </c>
       <c r="F20" s="285">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G20" s="285">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="282" t="s">
         <v>293</v>
@@ -4053,10 +4059,10 @@
       </c>
       <c r="C22" s="322">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D22" s="322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="282" t="s">
         <v>294</v>
@@ -4097,7 +4103,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="282" t="s">
         <v>295</v>
@@ -4135,10 +4141,10 @@
       </c>
       <c r="C24" s="322">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="D24" s="322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="282" t="s">
         <v>296</v>
@@ -4147,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="285">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="285"/>
       <c r="I24" s="285"/>
@@ -4217,7 +4223,7 @@
       </c>
       <c r="C26" s="322">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="D26" s="322">
         <v>1</v>
@@ -4384,8 +4390,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4411,7 @@
       </c>
       <c r="C3" s="312"/>
       <c r="D3" s="256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256">
@@ -4471,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="295" t="s">
         <v>256</v>
@@ -4509,10 +4515,10 @@
       </c>
       <c r="C6" s="329">
         <f t="shared" ref="C6:C25" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
-        <v>33.333333333333336</v>
+        <v>38.888888888888886</v>
       </c>
       <c r="D6" s="259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
         <v>257</v>
@@ -4590,7 +4596,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>258</v>
@@ -4629,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="136" t="s">
         <v>259</v>
@@ -4668,7 +4674,7 @@
         <v>96.666666666666671</v>
       </c>
       <c r="D10" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="136" t="s">
         <v>260</v>
@@ -4704,10 +4710,10 @@
       </c>
       <c r="C11" s="329">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.111111111111109</v>
       </c>
       <c r="D11" s="259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="136" t="s">
         <v>261</v>
@@ -4782,7 +4788,7 @@
       </c>
       <c r="C13" s="329">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>44.444444444444436</v>
       </c>
       <c r="D13" s="259">
         <v>1</v>
@@ -4821,10 +4827,10 @@
       </c>
       <c r="C14" s="329">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D14" s="259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="136" t="s">
         <v>264</v>
@@ -4938,7 +4944,7 @@
       </c>
       <c r="C17" s="329">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>22.222222222222218</v>
       </c>
       <c r="D17" s="259">
         <v>2</v>
@@ -4977,7 +4983,7 @@
       </c>
       <c r="C18" s="329">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D18" s="259">
         <v>2</v>
@@ -5016,10 +5022,10 @@
       </c>
       <c r="C19" s="329">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D19" s="259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="136" t="s">
         <v>269</v>
@@ -5058,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="136" t="s">
         <v>270</v>
@@ -5136,7 +5142,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="136" t="s">
         <v>272</v>
@@ -5172,7 +5178,7 @@
       </c>
       <c r="C23" s="329">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>44.444444444444436</v>
       </c>
       <c r="D23" s="259">
         <v>1</v>
@@ -5214,7 +5220,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="136" t="s">
         <v>274</v>
@@ -5225,7 +5231,9 @@
       <c r="G24" s="322">
         <v>100</v>
       </c>
-      <c r="H24" s="322"/>
+      <c r="H24" s="322">
+        <v>100</v>
+      </c>
       <c r="I24" s="322"/>
       <c r="J24" s="322"/>
       <c r="K24" s="322"/>
@@ -5253,7 +5261,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="136" t="s">
         <v>271</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D34EFE-E7BB-49E4-ABF7-1F3B5FF34CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02813378-A565-41F4-8D83-001859207C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -738,9 +738,6 @@
     <t>Исов Антон Анатольевич</t>
   </si>
   <si>
-    <t>https://github.com/AntonIsov/-</t>
-  </si>
-  <si>
     <t>Кириленко Матвей Вениаминович</t>
   </si>
   <si>
@@ -1606,6 +1603,9 @@
   </si>
   <si>
     <t xml:space="preserve">ПР.2 </t>
+  </si>
+  <si>
+    <t>https://github.com/AntonIsov/</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1765,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1961,6 +1961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,7 +2302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2781,7 +2787,6 @@
     <xf numFmtId="2" fontId="2" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="28" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2882,6 +2887,8 @@
     <xf numFmtId="1" fontId="17" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3282,7 +3289,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3300,14 +3307,14 @@
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="281" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="316"/>
-      <c r="D3" s="280">
+      <c r="B3" s="280" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="315"/>
+      <c r="D3" s="279">
         <v>3</v>
       </c>
-      <c r="E3" s="280"/>
+      <c r="E3" s="279"/>
       <c r="F3" s="114">
         <v>2</v>
       </c>
@@ -3315,82 +3322,82 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="319" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="320" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="314" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="297" t="s">
+      <c r="B4" s="318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="319" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="313" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="305" t="str">
+      <c r="F4" s="304" t="str">
         <f>CONST!C3</f>
         <v>ПР0. Git.</v>
       </c>
-      <c r="G4" s="306" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="300" t="s">
-        <v>323</v>
-      </c>
-      <c r="I4" s="300"/>
-      <c r="J4" s="300"/>
-      <c r="K4" s="300"/>
-      <c r="L4" s="300"/>
-      <c r="M4" s="300"/>
-      <c r="N4" s="300"/>
-      <c r="O4" s="300"/>
-      <c r="P4" s="300"/>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="300"/>
-      <c r="T4" s="300"/>
-      <c r="U4" s="300"/>
-      <c r="V4" s="300"/>
-      <c r="W4" s="301"/>
+      <c r="G4" s="305" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="299" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="299"/>
+      <c r="W4" s="300"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
       <c r="B5" s="259" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="322">
+        <v>168</v>
+      </c>
+      <c r="C5" s="321">
         <f>((D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
         <v>11.111111111111109</v>
       </c>
-      <c r="D5" s="323">
-        <v>1</v>
-      </c>
-      <c r="E5" s="282" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="302">
-        <v>0</v>
-      </c>
-      <c r="G5" s="303">
-        <v>0</v>
-      </c>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="286"/>
-      <c r="T5" s="286"/>
-      <c r="U5" s="287"/>
-      <c r="V5" s="287"/>
+      <c r="D5" s="322">
+        <v>1</v>
+      </c>
+      <c r="E5" s="281" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="301">
+        <v>0</v>
+      </c>
+      <c r="G5" s="302">
+        <v>0</v>
+      </c>
+      <c r="H5" s="303"/>
+      <c r="I5" s="303"/>
+      <c r="J5" s="303"/>
+      <c r="K5" s="303"/>
+      <c r="L5" s="303"/>
+      <c r="M5" s="303"/>
+      <c r="N5" s="303"/>
+      <c r="O5" s="285"/>
+      <c r="P5" s="285"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="285"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="285"/>
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
@@ -3399,39 +3406,39 @@
         <v>2</v>
       </c>
       <c r="B6" s="259" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="322">
+        <v>167</v>
+      </c>
+      <c r="C6" s="321">
         <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="D6" s="324">
+      <c r="D6" s="323">
         <v>3</v>
       </c>
-      <c r="E6" s="282" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="288">
-        <v>100</v>
-      </c>
-      <c r="G6" s="283">
-        <v>0</v>
-      </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
-      <c r="M6" s="285"/>
-      <c r="N6" s="285"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="286"/>
-      <c r="Q6" s="286"/>
-      <c r="R6" s="286"/>
-      <c r="S6" s="286"/>
-      <c r="T6" s="286"/>
-      <c r="U6" s="287"/>
-      <c r="V6" s="287"/>
+      <c r="E6" s="281" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="287">
+        <v>100</v>
+      </c>
+      <c r="G6" s="282">
+        <v>0</v>
+      </c>
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="284"/>
+      <c r="N6" s="284"/>
+      <c r="O6" s="285"/>
+      <c r="P6" s="285"/>
+      <c r="Q6" s="285"/>
+      <c r="R6" s="285"/>
+      <c r="S6" s="285"/>
+      <c r="T6" s="285"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
@@ -3440,39 +3447,39 @@
         <v>3</v>
       </c>
       <c r="B7" s="259" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="322">
+        <v>166</v>
+      </c>
+      <c r="C7" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D7" s="324">
+      <c r="D7" s="323">
         <v>3</v>
       </c>
-      <c r="E7" s="282" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="289">
-        <v>100</v>
-      </c>
-      <c r="G7" s="283">
-        <v>100</v>
-      </c>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="285"/>
-      <c r="N7" s="285"/>
-      <c r="O7" s="286"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="286"/>
-      <c r="R7" s="286"/>
-      <c r="S7" s="286"/>
-      <c r="T7" s="286"/>
-      <c r="U7" s="287"/>
-      <c r="V7" s="287"/>
+      <c r="E7" s="281" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="288">
+        <v>100</v>
+      </c>
+      <c r="G7" s="282">
+        <v>100</v>
+      </c>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="284"/>
+      <c r="N7" s="284"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="285"/>
+      <c r="Q7" s="285"/>
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="286"/>
+      <c r="V7" s="286"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
@@ -3481,39 +3488,39 @@
         <v>4</v>
       </c>
       <c r="B8" s="259" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="322">
+        <v>165</v>
+      </c>
+      <c r="C8" s="321">
         <f t="shared" si="0"/>
         <v>22.222222222222218</v>
       </c>
-      <c r="D8" s="322">
+      <c r="D8" s="321">
         <v>2</v>
       </c>
-      <c r="E8" s="282" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="285">
-        <v>0</v>
-      </c>
-      <c r="G8" s="285">
-        <v>0</v>
-      </c>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
-      <c r="M8" s="285"/>
-      <c r="N8" s="285"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="286"/>
-      <c r="Q8" s="286"/>
-      <c r="R8" s="286"/>
-      <c r="S8" s="286"/>
-      <c r="T8" s="286"/>
-      <c r="U8" s="287"/>
-      <c r="V8" s="287"/>
+      <c r="E8" s="281" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="284">
+        <v>0</v>
+      </c>
+      <c r="G8" s="284">
+        <v>0</v>
+      </c>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="284"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="285"/>
+      <c r="P8" s="285"/>
+      <c r="Q8" s="285"/>
+      <c r="R8" s="285"/>
+      <c r="S8" s="285"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="286"/>
+      <c r="V8" s="286"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
@@ -3522,39 +3529,39 @@
         <v>5</v>
       </c>
       <c r="B9" s="259" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="322">
+        <v>164</v>
+      </c>
+      <c r="C9" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D9" s="322">
+      <c r="D9" s="321">
         <v>3</v>
       </c>
-      <c r="E9" s="282" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="285">
-        <v>100</v>
-      </c>
-      <c r="G9" s="285">
-        <v>100</v>
-      </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="286"/>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="287"/>
-      <c r="V9" s="287"/>
+      <c r="E9" s="281" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="284">
+        <v>100</v>
+      </c>
+      <c r="G9" s="284">
+        <v>100</v>
+      </c>
+      <c r="H9" s="284"/>
+      <c r="I9" s="284"/>
+      <c r="J9" s="284"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="285"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
+      <c r="V9" s="286"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
@@ -3563,39 +3570,39 @@
         <v>6</v>
       </c>
       <c r="B10" s="259" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="322">
+        <v>163</v>
+      </c>
+      <c r="C10" s="321">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="D10" s="322">
+      <c r="D10" s="321">
         <v>3</v>
       </c>
-      <c r="E10" s="282" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="285">
-        <v>100</v>
-      </c>
-      <c r="G10" s="285">
+      <c r="E10" s="281" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="284">
+        <v>100</v>
+      </c>
+      <c r="G10" s="284">
         <v>90</v>
       </c>
-      <c r="H10" s="285"/>
-      <c r="I10" s="285"/>
-      <c r="J10" s="285"/>
-      <c r="K10" s="285"/>
-      <c r="L10" s="285"/>
-      <c r="M10" s="285"/>
-      <c r="N10" s="285"/>
-      <c r="O10" s="286"/>
-      <c r="P10" s="286"/>
-      <c r="Q10" s="286"/>
-      <c r="R10" s="286"/>
-      <c r="S10" s="286"/>
-      <c r="T10" s="286"/>
-      <c r="U10" s="287"/>
-      <c r="V10" s="287"/>
+      <c r="H10" s="284"/>
+      <c r="I10" s="284"/>
+      <c r="J10" s="284"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="284"/>
+      <c r="M10" s="284"/>
+      <c r="N10" s="284"/>
+      <c r="O10" s="285"/>
+      <c r="P10" s="285"/>
+      <c r="Q10" s="285"/>
+      <c r="R10" s="285"/>
+      <c r="S10" s="285"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="286"/>
+      <c r="V10" s="286"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
@@ -3604,39 +3611,39 @@
         <v>7</v>
       </c>
       <c r="B11" s="259" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="322">
+        <v>162</v>
+      </c>
+      <c r="C11" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D11" s="322">
+      <c r="D11" s="321">
         <v>3</v>
       </c>
-      <c r="E11" s="282" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="285">
-        <v>100</v>
-      </c>
-      <c r="G11" s="285">
-        <v>100</v>
-      </c>
-      <c r="H11" s="285"/>
-      <c r="I11" s="285"/>
-      <c r="J11" s="285"/>
-      <c r="K11" s="285"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="285"/>
-      <c r="N11" s="285"/>
-      <c r="O11" s="286"/>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="286"/>
-      <c r="U11" s="287"/>
-      <c r="V11" s="287"/>
+      <c r="E11" s="281" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="284">
+        <v>100</v>
+      </c>
+      <c r="G11" s="284">
+        <v>100</v>
+      </c>
+      <c r="H11" s="284"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="284"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="284"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="285"/>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="285"/>
+      <c r="R11" s="285"/>
+      <c r="S11" s="285"/>
+      <c r="T11" s="285"/>
+      <c r="U11" s="286"/>
+      <c r="V11" s="286"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
@@ -3645,39 +3652,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="259" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="322">
+        <v>161</v>
+      </c>
+      <c r="C12" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="322">
+      <c r="D12" s="321">
         <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="285">
-        <v>0</v>
-      </c>
-      <c r="G12" s="285">
-        <v>0</v>
-      </c>
-      <c r="H12" s="285"/>
-      <c r="I12" s="285"/>
-      <c r="J12" s="285"/>
-      <c r="K12" s="285"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="285"/>
-      <c r="N12" s="285"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="286"/>
-      <c r="Q12" s="286"/>
-      <c r="R12" s="286"/>
-      <c r="S12" s="286"/>
-      <c r="T12" s="286"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="287"/>
+      <c r="F12" s="284">
+        <v>0</v>
+      </c>
+      <c r="G12" s="284">
+        <v>0</v>
+      </c>
+      <c r="H12" s="284"/>
+      <c r="I12" s="284"/>
+      <c r="J12" s="284"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="286"/>
+      <c r="V12" s="286"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
@@ -3686,39 +3693,39 @@
         <v>9</v>
       </c>
       <c r="B13" s="259" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="322">
+        <v>160</v>
+      </c>
+      <c r="C13" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D13" s="322">
+      <c r="D13" s="321">
         <v>3</v>
       </c>
-      <c r="E13" s="282" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="285">
-        <v>100</v>
-      </c>
-      <c r="G13" s="285">
-        <v>100</v>
-      </c>
-      <c r="H13" s="285"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="285"/>
-      <c r="M13" s="285"/>
-      <c r="N13" s="285"/>
-      <c r="O13" s="286"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="286"/>
-      <c r="R13" s="286"/>
-      <c r="S13" s="286"/>
-      <c r="T13" s="286"/>
-      <c r="U13" s="287"/>
-      <c r="V13" s="287"/>
+      <c r="E13" s="281" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="284">
+        <v>100</v>
+      </c>
+      <c r="G13" s="284">
+        <v>100</v>
+      </c>
+      <c r="H13" s="284"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="284"/>
+      <c r="K13" s="284"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="284"/>
+      <c r="N13" s="284"/>
+      <c r="O13" s="285"/>
+      <c r="P13" s="285"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="285"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="286"/>
+      <c r="V13" s="286"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
@@ -3726,40 +3733,40 @@
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="321" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="322">
+      <c r="B14" s="320" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="321">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D14" s="322">
+      <c r="D14" s="321">
         <v>2</v>
       </c>
-      <c r="E14" s="282" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="285">
-        <v>100</v>
-      </c>
-      <c r="G14" s="285">
-        <v>100</v>
-      </c>
-      <c r="H14" s="285"/>
-      <c r="I14" s="285"/>
-      <c r="J14" s="285"/>
-      <c r="K14" s="285"/>
-      <c r="L14" s="285"/>
-      <c r="M14" s="285"/>
-      <c r="N14" s="285"/>
-      <c r="O14" s="286"/>
-      <c r="P14" s="286"/>
-      <c r="Q14" s="286"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="286"/>
-      <c r="T14" s="286"/>
-      <c r="U14" s="287"/>
-      <c r="V14" s="287"/>
+      <c r="E14" s="281" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="284">
+        <v>100</v>
+      </c>
+      <c r="G14" s="284">
+        <v>100</v>
+      </c>
+      <c r="H14" s="284"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="284"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="284"/>
+      <c r="N14" s="284"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="285"/>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="286"/>
+      <c r="V14" s="286"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
@@ -3768,39 +3775,39 @@
         <v>11</v>
       </c>
       <c r="B15" s="259" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="322">
+        <v>158</v>
+      </c>
+      <c r="C15" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D15" s="322">
+      <c r="D15" s="321">
         <v>3</v>
       </c>
-      <c r="E15" s="282" t="s">
-        <v>287</v>
-      </c>
-      <c r="F15" s="285">
-        <v>100</v>
-      </c>
-      <c r="G15" s="285">
-        <v>100</v>
-      </c>
-      <c r="H15" s="285"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="285"/>
-      <c r="K15" s="285"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="285"/>
-      <c r="N15" s="285"/>
-      <c r="O15" s="286"/>
-      <c r="P15" s="286"/>
-      <c r="Q15" s="286"/>
-      <c r="R15" s="286"/>
-      <c r="S15" s="286"/>
-      <c r="T15" s="286"/>
-      <c r="U15" s="287"/>
-      <c r="V15" s="287"/>
+      <c r="E15" s="281" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="284">
+        <v>100</v>
+      </c>
+      <c r="G15" s="284">
+        <v>100</v>
+      </c>
+      <c r="H15" s="284"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="284"/>
+      <c r="L15" s="284"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="284"/>
+      <c r="O15" s="285"/>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="286"/>
+      <c r="V15" s="286"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
@@ -3809,39 +3816,39 @@
         <v>12</v>
       </c>
       <c r="B16" s="259" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="322">
+        <v>157</v>
+      </c>
+      <c r="C16" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D16" s="322">
+      <c r="D16" s="321">
         <v>3</v>
       </c>
-      <c r="E16" s="282" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="285">
-        <v>100</v>
-      </c>
-      <c r="G16" s="285">
-        <v>100</v>
-      </c>
-      <c r="H16" s="285"/>
-      <c r="I16" s="285"/>
-      <c r="J16" s="285"/>
-      <c r="K16" s="285"/>
-      <c r="L16" s="285"/>
-      <c r="M16" s="285"/>
-      <c r="N16" s="285"/>
-      <c r="O16" s="286"/>
-      <c r="P16" s="286"/>
-      <c r="Q16" s="286"/>
-      <c r="R16" s="286"/>
-      <c r="S16" s="286"/>
-      <c r="T16" s="286"/>
-      <c r="U16" s="287"/>
-      <c r="V16" s="287"/>
+      <c r="E16" s="281" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="284">
+        <v>100</v>
+      </c>
+      <c r="G16" s="284">
+        <v>100</v>
+      </c>
+      <c r="H16" s="284"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="284"/>
+      <c r="K16" s="284"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="284"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="285"/>
+      <c r="P16" s="285"/>
+      <c r="Q16" s="285"/>
+      <c r="R16" s="285"/>
+      <c r="S16" s="285"/>
+      <c r="T16" s="285"/>
+      <c r="U16" s="286"/>
+      <c r="V16" s="286"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
@@ -3850,39 +3857,39 @@
         <v>13</v>
       </c>
       <c r="B17" s="259" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="322">
+        <v>156</v>
+      </c>
+      <c r="C17" s="321">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D17" s="322">
-        <v>1</v>
-      </c>
-      <c r="E17" s="282" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="285">
-        <v>0</v>
-      </c>
-      <c r="G17" s="285">
-        <v>0</v>
-      </c>
-      <c r="H17" s="285"/>
-      <c r="I17" s="285"/>
-      <c r="J17" s="285"/>
-      <c r="K17" s="285"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="285"/>
-      <c r="N17" s="285"/>
-      <c r="O17" s="286"/>
-      <c r="P17" s="286"/>
-      <c r="Q17" s="286"/>
-      <c r="R17" s="286"/>
-      <c r="S17" s="286"/>
-      <c r="T17" s="286"/>
-      <c r="U17" s="287"/>
-      <c r="V17" s="287"/>
+      <c r="D17" s="321">
+        <v>1</v>
+      </c>
+      <c r="E17" s="281" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="284">
+        <v>0</v>
+      </c>
+      <c r="G17" s="284">
+        <v>0</v>
+      </c>
+      <c r="H17" s="284"/>
+      <c r="I17" s="284"/>
+      <c r="J17" s="284"/>
+      <c r="K17" s="284"/>
+      <c r="L17" s="284"/>
+      <c r="M17" s="284"/>
+      <c r="N17" s="284"/>
+      <c r="O17" s="285"/>
+      <c r="P17" s="285"/>
+      <c r="Q17" s="285"/>
+      <c r="R17" s="285"/>
+      <c r="S17" s="285"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="286"/>
+      <c r="V17" s="286"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
@@ -3891,39 +3898,39 @@
         <v>14</v>
       </c>
       <c r="B18" s="259" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="322">
+        <v>155</v>
+      </c>
+      <c r="C18" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D18" s="322">
+      <c r="D18" s="321">
         <v>3</v>
       </c>
-      <c r="E18" s="282" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="285">
-        <v>100</v>
-      </c>
-      <c r="G18" s="285">
-        <v>100</v>
-      </c>
-      <c r="H18" s="285"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="285"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="286"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="286"/>
-      <c r="R18" s="286"/>
-      <c r="S18" s="286"/>
-      <c r="T18" s="286"/>
-      <c r="U18" s="287"/>
-      <c r="V18" s="287"/>
+      <c r="E18" s="281" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="284">
+        <v>100</v>
+      </c>
+      <c r="G18" s="284">
+        <v>100</v>
+      </c>
+      <c r="H18" s="284"/>
+      <c r="I18" s="284"/>
+      <c r="J18" s="284"/>
+      <c r="K18" s="284"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="284"/>
+      <c r="N18" s="284"/>
+      <c r="O18" s="285"/>
+      <c r="P18" s="285"/>
+      <c r="Q18" s="285"/>
+      <c r="R18" s="285"/>
+      <c r="S18" s="285"/>
+      <c r="T18" s="285"/>
+      <c r="U18" s="286"/>
+      <c r="V18" s="286"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
@@ -3932,39 +3939,39 @@
         <v>15</v>
       </c>
       <c r="B19" s="259" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="322">
+        <v>154</v>
+      </c>
+      <c r="C19" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D19" s="322">
+      <c r="D19" s="321">
         <v>3</v>
       </c>
-      <c r="E19" s="282" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="285">
-        <v>100</v>
-      </c>
-      <c r="G19" s="285">
-        <v>100</v>
-      </c>
-      <c r="H19" s="285"/>
-      <c r="I19" s="285"/>
-      <c r="J19" s="285"/>
-      <c r="K19" s="285"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="285"/>
-      <c r="N19" s="285"/>
-      <c r="O19" s="286"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="286"/>
-      <c r="R19" s="286"/>
-      <c r="S19" s="286"/>
-      <c r="T19" s="286"/>
-      <c r="U19" s="287"/>
-      <c r="V19" s="287"/>
+      <c r="E19" s="281" t="s">
+        <v>290</v>
+      </c>
+      <c r="F19" s="284">
+        <v>100</v>
+      </c>
+      <c r="G19" s="284">
+        <v>100</v>
+      </c>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
+      <c r="O19" s="285"/>
+      <c r="P19" s="285"/>
+      <c r="Q19" s="285"/>
+      <c r="R19" s="285"/>
+      <c r="S19" s="285"/>
+      <c r="T19" s="285"/>
+      <c r="U19" s="286"/>
+      <c r="V19" s="286"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
@@ -3973,39 +3980,39 @@
         <v>16</v>
       </c>
       <c r="B20" s="259" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="322">
+        <v>228</v>
+      </c>
+      <c r="C20" s="321">
         <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="D20" s="322">
+      <c r="D20" s="321">
         <v>3</v>
       </c>
-      <c r="E20" s="282" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="285">
+      <c r="E20" s="281" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="284">
         <v>70</v>
       </c>
-      <c r="G20" s="285">
-        <v>0</v>
-      </c>
-      <c r="H20" s="285"/>
-      <c r="I20" s="285"/>
-      <c r="J20" s="285"/>
-      <c r="K20" s="285"/>
-      <c r="L20" s="285"/>
-      <c r="M20" s="285"/>
-      <c r="N20" s="285"/>
-      <c r="O20" s="286"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="286"/>
-      <c r="R20" s="286"/>
-      <c r="S20" s="286"/>
-      <c r="T20" s="286"/>
-      <c r="U20" s="287"/>
-      <c r="V20" s="287"/>
+      <c r="G20" s="284">
+        <v>0</v>
+      </c>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="284"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="285"/>
+      <c r="P20" s="285"/>
+      <c r="Q20" s="285"/>
+      <c r="R20" s="285"/>
+      <c r="S20" s="285"/>
+      <c r="T20" s="285"/>
+      <c r="U20" s="286"/>
+      <c r="V20" s="286"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
@@ -4014,39 +4021,39 @@
         <v>17</v>
       </c>
       <c r="B21" s="259" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="322">
+        <v>153</v>
+      </c>
+      <c r="C21" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D21" s="322">
+      <c r="D21" s="321">
         <v>3</v>
       </c>
-      <c r="E21" s="282" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="285">
-        <v>100</v>
-      </c>
-      <c r="G21" s="285">
-        <v>100</v>
-      </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="285"/>
-      <c r="L21" s="285"/>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="286"/>
-      <c r="R21" s="286"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="286"/>
-      <c r="U21" s="287"/>
-      <c r="V21" s="287"/>
+      <c r="E21" s="281" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="284">
+        <v>100</v>
+      </c>
+      <c r="G21" s="284">
+        <v>100</v>
+      </c>
+      <c r="H21" s="284"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="284"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="285"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="286"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
@@ -4055,39 +4062,39 @@
         <v>18</v>
       </c>
       <c r="B22" s="259" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="322">
+        <v>152</v>
+      </c>
+      <c r="C22" s="321">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D22" s="322">
+      <c r="D22" s="321">
         <v>2</v>
       </c>
-      <c r="E22" s="282" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="285">
-        <v>100</v>
-      </c>
-      <c r="G22" s="285">
-        <v>100</v>
-      </c>
-      <c r="H22" s="285"/>
-      <c r="I22" s="285"/>
-      <c r="J22" s="285"/>
-      <c r="K22" s="285"/>
-      <c r="L22" s="285"/>
-      <c r="M22" s="285"/>
-      <c r="N22" s="285"/>
-      <c r="O22" s="286"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="286"/>
-      <c r="R22" s="286"/>
-      <c r="S22" s="286"/>
-      <c r="T22" s="286"/>
-      <c r="U22" s="287"/>
-      <c r="V22" s="287"/>
+      <c r="E22" s="281" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="284">
+        <v>100</v>
+      </c>
+      <c r="G22" s="284">
+        <v>100</v>
+      </c>
+      <c r="H22" s="284"/>
+      <c r="I22" s="284"/>
+      <c r="J22" s="284"/>
+      <c r="K22" s="284"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="284"/>
+      <c r="N22" s="284"/>
+      <c r="O22" s="285"/>
+      <c r="P22" s="285"/>
+      <c r="Q22" s="285"/>
+      <c r="R22" s="285"/>
+      <c r="S22" s="285"/>
+      <c r="T22" s="285"/>
+      <c r="U22" s="286"/>
+      <c r="V22" s="286"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
@@ -4096,39 +4103,39 @@
         <v>19</v>
       </c>
       <c r="B23" s="259" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="322">
+        <v>151</v>
+      </c>
+      <c r="C23" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="322">
+      <c r="D23" s="321">
         <v>3</v>
       </c>
-      <c r="E23" s="282" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" s="285">
-        <v>100</v>
-      </c>
-      <c r="G23" s="285">
-        <v>100</v>
-      </c>
-      <c r="H23" s="285"/>
-      <c r="I23" s="285"/>
-      <c r="J23" s="285"/>
-      <c r="K23" s="285"/>
-      <c r="L23" s="285"/>
-      <c r="M23" s="285"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="286"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="286"/>
-      <c r="R23" s="286"/>
-      <c r="S23" s="286"/>
-      <c r="T23" s="286"/>
-      <c r="U23" s="287"/>
-      <c r="V23" s="287"/>
+      <c r="E23" s="281" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="284">
+        <v>100</v>
+      </c>
+      <c r="G23" s="284">
+        <v>100</v>
+      </c>
+      <c r="H23" s="284"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="284"/>
+      <c r="K23" s="284"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="284"/>
+      <c r="N23" s="284"/>
+      <c r="O23" s="285"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="285"/>
+      <c r="T23" s="285"/>
+      <c r="U23" s="286"/>
+      <c r="V23" s="286"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
@@ -4137,39 +4144,39 @@
         <v>20</v>
       </c>
       <c r="B24" s="259" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="322">
+        <v>150</v>
+      </c>
+      <c r="C24" s="321">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D24" s="322">
+      <c r="D24" s="321">
         <v>3</v>
       </c>
-      <c r="E24" s="282" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="285">
-        <v>100</v>
-      </c>
-      <c r="G24" s="285">
-        <v>100</v>
-      </c>
-      <c r="H24" s="285"/>
-      <c r="I24" s="285"/>
-      <c r="J24" s="285"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="285"/>
-      <c r="M24" s="285"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="286"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="286"/>
-      <c r="R24" s="286"/>
-      <c r="S24" s="286"/>
-      <c r="T24" s="286"/>
-      <c r="U24" s="287"/>
-      <c r="V24" s="287"/>
+      <c r="E24" s="281" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="284">
+        <v>100</v>
+      </c>
+      <c r="G24" s="284">
+        <v>100</v>
+      </c>
+      <c r="H24" s="284"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="284"/>
+      <c r="K24" s="284"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="284"/>
+      <c r="N24" s="284"/>
+      <c r="O24" s="285"/>
+      <c r="P24" s="285"/>
+      <c r="Q24" s="285"/>
+      <c r="R24" s="285"/>
+      <c r="S24" s="285"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="286"/>
+      <c r="V24" s="286"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
@@ -4178,39 +4185,39 @@
         <v>21</v>
       </c>
       <c r="B25" s="259" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="322">
+        <v>149</v>
+      </c>
+      <c r="C25" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="322">
+      <c r="D25" s="321">
         <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="285">
-        <v>0</v>
-      </c>
-      <c r="G25" s="285">
-        <v>0</v>
-      </c>
-      <c r="H25" s="285"/>
-      <c r="I25" s="285"/>
-      <c r="J25" s="285"/>
-      <c r="K25" s="285"/>
-      <c r="L25" s="285"/>
-      <c r="M25" s="285"/>
-      <c r="N25" s="285"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="286"/>
-      <c r="R25" s="286"/>
-      <c r="S25" s="286"/>
-      <c r="T25" s="286"/>
-      <c r="U25" s="287"/>
-      <c r="V25" s="287"/>
+      <c r="F25" s="284">
+        <v>0</v>
+      </c>
+      <c r="G25" s="284">
+        <v>0</v>
+      </c>
+      <c r="H25" s="284"/>
+      <c r="I25" s="284"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="284"/>
+      <c r="N25" s="284"/>
+      <c r="O25" s="285"/>
+      <c r="P25" s="285"/>
+      <c r="Q25" s="285"/>
+      <c r="R25" s="285"/>
+      <c r="S25" s="285"/>
+      <c r="T25" s="285"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
@@ -4219,39 +4226,39 @@
         <v>22</v>
       </c>
       <c r="B26" s="259" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="322">
+        <v>296</v>
+      </c>
+      <c r="C26" s="321">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D26" s="322">
-        <v>1</v>
-      </c>
-      <c r="E26" s="282" t="s">
-        <v>298</v>
-      </c>
-      <c r="F26" s="285">
-        <v>0</v>
-      </c>
-      <c r="G26" s="285">
-        <v>0</v>
-      </c>
-      <c r="H26" s="285"/>
-      <c r="I26" s="285"/>
-      <c r="J26" s="285"/>
-      <c r="K26" s="285"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="285"/>
-      <c r="N26" s="285"/>
-      <c r="O26" s="286"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="286"/>
-      <c r="R26" s="286"/>
-      <c r="S26" s="286"/>
-      <c r="T26" s="286"/>
-      <c r="U26" s="287"/>
-      <c r="V26" s="287"/>
+      <c r="D26" s="321">
+        <v>1</v>
+      </c>
+      <c r="E26" s="281" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="284">
+        <v>0</v>
+      </c>
+      <c r="G26" s="284">
+        <v>0</v>
+      </c>
+      <c r="H26" s="284"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="284"/>
+      <c r="K26" s="284"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="284"/>
+      <c r="O26" s="285"/>
+      <c r="P26" s="285"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="285"/>
+      <c r="S26" s="285"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="286"/>
+      <c r="V26" s="286"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
@@ -4260,37 +4267,37 @@
         <v>23</v>
       </c>
       <c r="B27" s="259" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="322">
+        <v>315</v>
+      </c>
+      <c r="C27" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="322">
+      <c r="D27" s="321">
         <v>0</v>
       </c>
       <c r="E27" s="26"/>
-      <c r="F27" s="285">
-        <v>0</v>
-      </c>
-      <c r="G27" s="285">
-        <v>0</v>
-      </c>
-      <c r="H27" s="285"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="285"/>
-      <c r="K27" s="285"/>
-      <c r="L27" s="285"/>
-      <c r="M27" s="285"/>
-      <c r="N27" s="285"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="286"/>
-      <c r="Q27" s="286"/>
-      <c r="R27" s="286"/>
-      <c r="S27" s="286"/>
-      <c r="T27" s="286"/>
-      <c r="U27" s="287"/>
-      <c r="V27" s="287"/>
+      <c r="F27" s="284">
+        <v>0</v>
+      </c>
+      <c r="G27" s="284">
+        <v>0</v>
+      </c>
+      <c r="H27" s="284"/>
+      <c r="I27" s="284"/>
+      <c r="J27" s="284"/>
+      <c r="K27" s="284"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="284"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="285"/>
+      <c r="P27" s="285"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="285"/>
+      <c r="S27" s="285"/>
+      <c r="T27" s="285"/>
+      <c r="U27" s="286"/>
+      <c r="V27" s="286"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
@@ -4299,61 +4306,61 @@
         <v>24</v>
       </c>
       <c r="B28" s="259" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" s="322">
+        <v>316</v>
+      </c>
+      <c r="C28" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="322">
+      <c r="D28" s="321">
         <v>0</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="285">
-        <v>0</v>
-      </c>
-      <c r="G28" s="285">
-        <v>0</v>
-      </c>
-      <c r="H28" s="285"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="285"/>
-      <c r="K28" s="285"/>
-      <c r="L28" s="285"/>
-      <c r="M28" s="285"/>
-      <c r="N28" s="285"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="286"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="287"/>
-      <c r="V28" s="287"/>
+      <c r="F28" s="284">
+        <v>0</v>
+      </c>
+      <c r="G28" s="284">
+        <v>0</v>
+      </c>
+      <c r="H28" s="284"/>
+      <c r="I28" s="284"/>
+      <c r="J28" s="284"/>
+      <c r="K28" s="284"/>
+      <c r="L28" s="284"/>
+      <c r="M28" s="284"/>
+      <c r="N28" s="284"/>
+      <c r="O28" s="285"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="285"/>
+      <c r="S28" s="285"/>
+      <c r="T28" s="285"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="286"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="257"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="257"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" s="257"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" s="257"/>
     </row>
@@ -4406,10 +4413,10 @@
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="279" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="312"/>
+      <c r="B3" s="278" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="311"/>
       <c r="D3" s="256">
         <v>3</v>
       </c>
@@ -4429,91 +4436,91 @@
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="296" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="315" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="314" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="297" t="s">
+      <c r="B4" s="295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="314" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="313" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="297" t="s">
+      <c r="F4" s="296" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="297" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="298" t="s">
+      <c r="H4" s="298" t="s">
         <v>276</v>
       </c>
-      <c r="H4" s="299" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="300"/>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="300"/>
-      <c r="S4" s="300"/>
-      <c r="T4" s="300"/>
-      <c r="U4" s="300"/>
-      <c r="V4" s="301"/>
+      <c r="I4" s="298"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="300"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="311" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="329">
+      <c r="B5" s="310" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="328">
         <f>( (D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
         <v>100</v>
       </c>
-      <c r="D5" s="294">
+      <c r="D5" s="293">
         <v>3</v>
       </c>
-      <c r="E5" s="295" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" s="325">
-        <v>100</v>
-      </c>
-      <c r="G5" s="325">
-        <v>100</v>
-      </c>
-      <c r="H5" s="325">
-        <v>100</v>
-      </c>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="325"/>
-      <c r="P5" s="326"/>
-      <c r="Q5" s="326"/>
-      <c r="R5" s="326"/>
-      <c r="S5" s="326"/>
-      <c r="T5" s="326"/>
-      <c r="U5" s="326"/>
-      <c r="V5" s="326"/>
+      <c r="E5" s="294" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="324">
+        <v>100</v>
+      </c>
+      <c r="G5" s="324">
+        <v>100</v>
+      </c>
+      <c r="H5" s="324">
+        <v>100</v>
+      </c>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="324"/>
+      <c r="O5" s="324"/>
+      <c r="P5" s="325"/>
+      <c r="Q5" s="325"/>
+      <c r="R5" s="325"/>
+      <c r="S5" s="325"/>
+      <c r="T5" s="325"/>
+      <c r="U5" s="325"/>
+      <c r="V5" s="325"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="291" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="329">
+      <c r="B6" s="290" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="328">
         <f t="shared" ref="C6:C25" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
         <v>38.888888888888886</v>
       </c>
@@ -4521,77 +4528,77 @@
         <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="322">
+        <v>256</v>
+      </c>
+      <c r="F6" s="321">
         <v>50</v>
       </c>
-      <c r="G6" s="322">
-        <v>0</v>
-      </c>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
-      <c r="K6" s="322"/>
-      <c r="L6" s="322"/>
-      <c r="M6" s="322"/>
-      <c r="N6" s="322"/>
-      <c r="O6" s="322"/>
-      <c r="P6" s="327"/>
-      <c r="Q6" s="327"/>
-      <c r="R6" s="327"/>
-      <c r="S6" s="327"/>
-      <c r="T6" s="327"/>
-      <c r="U6" s="327"/>
-      <c r="V6" s="327"/>
+      <c r="G6" s="321">
+        <v>0</v>
+      </c>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
+      <c r="M6" s="321"/>
+      <c r="N6" s="321"/>
+      <c r="O6" s="321"/>
+      <c r="P6" s="326"/>
+      <c r="Q6" s="326"/>
+      <c r="R6" s="326"/>
+      <c r="S6" s="326"/>
+      <c r="T6" s="326"/>
+      <c r="U6" s="326"/>
+      <c r="V6" s="326"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="308" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="329">
+      <c r="B7" s="307" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="309">
-        <v>0</v>
-      </c>
-      <c r="E7" s="309">
-        <v>0</v>
-      </c>
-      <c r="F7" s="328">
-        <v>0</v>
-      </c>
-      <c r="G7" s="328">
-        <v>0</v>
-      </c>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
-      <c r="J7" s="322"/>
-      <c r="K7" s="322"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="322"/>
-      <c r="N7" s="322"/>
-      <c r="O7" s="322"/>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="327"/>
-      <c r="R7" s="327"/>
-      <c r="S7" s="327"/>
-      <c r="T7" s="327"/>
-      <c r="U7" s="327"/>
-      <c r="V7" s="327"/>
+      <c r="D7" s="308">
+        <v>0</v>
+      </c>
+      <c r="E7" s="308">
+        <v>0</v>
+      </c>
+      <c r="F7" s="327">
+        <v>0</v>
+      </c>
+      <c r="G7" s="327">
+        <v>0</v>
+      </c>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="321"/>
+      <c r="N7" s="321"/>
+      <c r="O7" s="321"/>
+      <c r="P7" s="326"/>
+      <c r="Q7" s="326"/>
+      <c r="R7" s="326"/>
+      <c r="S7" s="326"/>
+      <c r="T7" s="326"/>
+      <c r="U7" s="326"/>
+      <c r="V7" s="326"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="291" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="329">
+      <c r="B8" s="290" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4599,38 +4606,38 @@
         <v>3</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="F8" s="322">
-        <v>100</v>
-      </c>
-      <c r="G8" s="322">
-        <v>100</v>
-      </c>
-      <c r="H8" s="322"/>
-      <c r="I8" s="322"/>
-      <c r="J8" s="322"/>
-      <c r="K8" s="322"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="322"/>
-      <c r="N8" s="322"/>
-      <c r="O8" s="322"/>
-      <c r="P8" s="327"/>
-      <c r="Q8" s="327"/>
-      <c r="R8" s="327"/>
-      <c r="S8" s="327"/>
-      <c r="T8" s="327"/>
-      <c r="U8" s="327"/>
-      <c r="V8" s="327"/>
+        <v>257</v>
+      </c>
+      <c r="F8" s="321">
+        <v>100</v>
+      </c>
+      <c r="G8" s="321">
+        <v>100</v>
+      </c>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="326"/>
+      <c r="Q8" s="326"/>
+      <c r="R8" s="326"/>
+      <c r="S8" s="326"/>
+      <c r="T8" s="326"/>
+      <c r="U8" s="326"/>
+      <c r="V8" s="326"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="291" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="329">
+      <c r="B9" s="290" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4638,38 +4645,38 @@
         <v>3</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="F9" s="322">
-        <v>100</v>
-      </c>
-      <c r="G9" s="322">
-        <v>100</v>
-      </c>
-      <c r="H9" s="322"/>
-      <c r="I9" s="322"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="322"/>
-      <c r="L9" s="322"/>
-      <c r="M9" s="322"/>
-      <c r="N9" s="322"/>
-      <c r="O9" s="322"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="327"/>
-      <c r="S9" s="327"/>
-      <c r="T9" s="327"/>
-      <c r="U9" s="327"/>
-      <c r="V9" s="327"/>
+        <v>258</v>
+      </c>
+      <c r="F9" s="321">
+        <v>100</v>
+      </c>
+      <c r="G9" s="321">
+        <v>100</v>
+      </c>
+      <c r="H9" s="321"/>
+      <c r="I9" s="321"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="326"/>
+      <c r="S9" s="326"/>
+      <c r="T9" s="326"/>
+      <c r="U9" s="326"/>
+      <c r="V9" s="326"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="291" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="329">
+      <c r="B10" s="290" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="328">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
@@ -4677,38 +4684,38 @@
         <v>3</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="322">
-        <v>100</v>
-      </c>
-      <c r="G10" s="322">
+        <v>259</v>
+      </c>
+      <c r="F10" s="321">
+        <v>100</v>
+      </c>
+      <c r="G10" s="321">
         <v>90</v>
       </c>
-      <c r="H10" s="322"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="322"/>
-      <c r="L10" s="322"/>
-      <c r="M10" s="322"/>
-      <c r="N10" s="322"/>
-      <c r="O10" s="322"/>
-      <c r="P10" s="327"/>
-      <c r="Q10" s="327"/>
-      <c r="R10" s="327"/>
-      <c r="S10" s="327"/>
-      <c r="T10" s="327"/>
-      <c r="U10" s="327"/>
-      <c r="V10" s="327"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="321"/>
+      <c r="J10" s="321"/>
+      <c r="K10" s="321"/>
+      <c r="L10" s="321"/>
+      <c r="M10" s="321"/>
+      <c r="N10" s="321"/>
+      <c r="O10" s="321"/>
+      <c r="P10" s="326"/>
+      <c r="Q10" s="326"/>
+      <c r="R10" s="326"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="326"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="291" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="329">
+      <c r="B11" s="290" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="328">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
@@ -4716,38 +4723,38 @@
         <v>1</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="322">
-        <v>0</v>
-      </c>
-      <c r="G11" s="322">
-        <v>0</v>
-      </c>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="322"/>
-      <c r="N11" s="322"/>
-      <c r="O11" s="322"/>
-      <c r="P11" s="327"/>
-      <c r="Q11" s="327"/>
-      <c r="R11" s="327"/>
-      <c r="S11" s="327"/>
-      <c r="T11" s="327"/>
-      <c r="U11" s="327"/>
-      <c r="V11" s="327"/>
+        <v>260</v>
+      </c>
+      <c r="F11" s="321">
+        <v>0</v>
+      </c>
+      <c r="G11" s="321">
+        <v>0</v>
+      </c>
+      <c r="H11" s="321"/>
+      <c r="I11" s="321"/>
+      <c r="J11" s="321"/>
+      <c r="K11" s="321"/>
+      <c r="L11" s="321"/>
+      <c r="M11" s="321"/>
+      <c r="N11" s="321"/>
+      <c r="O11" s="321"/>
+      <c r="P11" s="326"/>
+      <c r="Q11" s="326"/>
+      <c r="R11" s="326"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="326"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="326"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="291" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="329">
+      <c r="B12" s="290" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4755,38 +4762,38 @@
         <v>0</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="322">
-        <v>0</v>
-      </c>
-      <c r="G12" s="322">
-        <v>0</v>
-      </c>
-      <c r="H12" s="322"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="322"/>
-      <c r="L12" s="322"/>
-      <c r="M12" s="322"/>
-      <c r="N12" s="322"/>
-      <c r="O12" s="322"/>
-      <c r="P12" s="327"/>
-      <c r="Q12" s="327"/>
-      <c r="R12" s="327"/>
-      <c r="S12" s="327"/>
-      <c r="T12" s="327"/>
-      <c r="U12" s="327"/>
-      <c r="V12" s="327"/>
+        <v>261</v>
+      </c>
+      <c r="F12" s="321">
+        <v>0</v>
+      </c>
+      <c r="G12" s="321">
+        <v>0</v>
+      </c>
+      <c r="H12" s="321"/>
+      <c r="I12" s="321"/>
+      <c r="J12" s="321"/>
+      <c r="K12" s="321"/>
+      <c r="L12" s="321"/>
+      <c r="M12" s="321"/>
+      <c r="N12" s="321"/>
+      <c r="O12" s="321"/>
+      <c r="P12" s="326"/>
+      <c r="Q12" s="326"/>
+      <c r="R12" s="326"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="326"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="326"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="293" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="329">
+      <c r="B13" s="292" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="328">
         <f t="shared" si="0"/>
         <v>44.444444444444436</v>
       </c>
@@ -4794,38 +4801,38 @@
         <v>1</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="322">
-        <v>100</v>
-      </c>
-      <c r="G13" s="322">
-        <v>0</v>
-      </c>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="322"/>
-      <c r="M13" s="322"/>
-      <c r="N13" s="322"/>
-      <c r="O13" s="322"/>
-      <c r="P13" s="327"/>
-      <c r="Q13" s="327"/>
-      <c r="R13" s="327"/>
-      <c r="S13" s="327"/>
-      <c r="T13" s="327"/>
-      <c r="U13" s="327"/>
-      <c r="V13" s="327"/>
+        <v>262</v>
+      </c>
+      <c r="F13" s="321">
+        <v>100</v>
+      </c>
+      <c r="G13" s="321">
+        <v>0</v>
+      </c>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="321"/>
+      <c r="M13" s="321"/>
+      <c r="N13" s="321"/>
+      <c r="O13" s="321"/>
+      <c r="P13" s="326"/>
+      <c r="Q13" s="326"/>
+      <c r="R13" s="326"/>
+      <c r="S13" s="326"/>
+      <c r="T13" s="326"/>
+      <c r="U13" s="326"/>
+      <c r="V13" s="326"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="291" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="329">
+      <c r="B14" s="290" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="328">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
@@ -4833,38 +4840,38 @@
         <v>2</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="322">
-        <v>100</v>
-      </c>
-      <c r="G14" s="322">
-        <v>100</v>
-      </c>
-      <c r="H14" s="322"/>
-      <c r="I14" s="322"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="322"/>
-      <c r="L14" s="322"/>
-      <c r="M14" s="322"/>
-      <c r="N14" s="322"/>
-      <c r="O14" s="322"/>
-      <c r="P14" s="327"/>
-      <c r="Q14" s="327"/>
-      <c r="R14" s="327"/>
-      <c r="S14" s="327"/>
-      <c r="T14" s="327"/>
-      <c r="U14" s="327"/>
-      <c r="V14" s="327"/>
+        <v>263</v>
+      </c>
+      <c r="F14" s="321">
+        <v>100</v>
+      </c>
+      <c r="G14" s="321">
+        <v>100</v>
+      </c>
+      <c r="H14" s="321"/>
+      <c r="I14" s="321"/>
+      <c r="J14" s="321"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
+      <c r="M14" s="321"/>
+      <c r="N14" s="321"/>
+      <c r="O14" s="321"/>
+      <c r="P14" s="326"/>
+      <c r="Q14" s="326"/>
+      <c r="R14" s="326"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="326"/>
+      <c r="V14" s="326"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="291" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="329">
+      <c r="B15" s="290" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4872,38 +4879,38 @@
         <v>0</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="322">
-        <v>0</v>
-      </c>
-      <c r="G15" s="322">
-        <v>0</v>
-      </c>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
-      <c r="M15" s="322"/>
-      <c r="N15" s="322"/>
-      <c r="O15" s="322"/>
-      <c r="P15" s="327"/>
-      <c r="Q15" s="327"/>
-      <c r="R15" s="327"/>
-      <c r="S15" s="327"/>
-      <c r="T15" s="327"/>
-      <c r="U15" s="327"/>
-      <c r="V15" s="327"/>
+        <v>264</v>
+      </c>
+      <c r="F15" s="321">
+        <v>0</v>
+      </c>
+      <c r="G15" s="321">
+        <v>0</v>
+      </c>
+      <c r="H15" s="321"/>
+      <c r="I15" s="321"/>
+      <c r="J15" s="321"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="321"/>
+      <c r="M15" s="321"/>
+      <c r="N15" s="321"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="326"/>
+      <c r="Q15" s="326"/>
+      <c r="R15" s="326"/>
+      <c r="S15" s="326"/>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="291" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="329">
+      <c r="B16" s="290" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="328">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
@@ -4911,38 +4918,38 @@
         <v>0</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="322">
-        <v>100</v>
-      </c>
-      <c r="G16" s="322">
-        <v>0</v>
-      </c>
-      <c r="H16" s="322"/>
-      <c r="I16" s="322"/>
-      <c r="J16" s="322"/>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
-      <c r="M16" s="322"/>
-      <c r="N16" s="322"/>
-      <c r="O16" s="322"/>
-      <c r="P16" s="327"/>
-      <c r="Q16" s="327"/>
-      <c r="R16" s="327"/>
-      <c r="S16" s="327"/>
-      <c r="T16" s="327"/>
-      <c r="U16" s="327"/>
-      <c r="V16" s="327"/>
+        <v>265</v>
+      </c>
+      <c r="F16" s="321">
+        <v>100</v>
+      </c>
+      <c r="G16" s="321">
+        <v>0</v>
+      </c>
+      <c r="H16" s="321"/>
+      <c r="I16" s="321"/>
+      <c r="J16" s="321"/>
+      <c r="K16" s="321"/>
+      <c r="L16" s="321"/>
+      <c r="M16" s="321"/>
+      <c r="N16" s="321"/>
+      <c r="O16" s="321"/>
+      <c r="P16" s="326"/>
+      <c r="Q16" s="326"/>
+      <c r="R16" s="326"/>
+      <c r="S16" s="326"/>
+      <c r="T16" s="326"/>
+      <c r="U16" s="326"/>
+      <c r="V16" s="326"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="291" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="329">
+      <c r="B17" s="290" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="328">
         <f t="shared" si="0"/>
         <v>22.222222222222218</v>
       </c>
@@ -4950,38 +4957,38 @@
         <v>2</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="322">
-        <v>0</v>
-      </c>
-      <c r="G17" s="322">
-        <v>0</v>
-      </c>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
-      <c r="M17" s="322"/>
-      <c r="N17" s="322"/>
-      <c r="O17" s="322"/>
-      <c r="P17" s="327"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="327"/>
-      <c r="S17" s="327"/>
-      <c r="T17" s="327"/>
-      <c r="U17" s="327"/>
-      <c r="V17" s="327"/>
+        <v>266</v>
+      </c>
+      <c r="F17" s="321">
+        <v>0</v>
+      </c>
+      <c r="G17" s="321">
+        <v>0</v>
+      </c>
+      <c r="H17" s="321"/>
+      <c r="I17" s="321"/>
+      <c r="J17" s="321"/>
+      <c r="K17" s="321"/>
+      <c r="L17" s="321"/>
+      <c r="M17" s="321"/>
+      <c r="N17" s="321"/>
+      <c r="O17" s="321"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="326"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="291" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="329">
+      <c r="B18" s="290" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="328">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
@@ -4989,38 +4996,38 @@
         <v>2</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="F18" s="322">
-        <v>100</v>
-      </c>
-      <c r="G18" s="322">
-        <v>100</v>
-      </c>
-      <c r="H18" s="322"/>
-      <c r="I18" s="322"/>
-      <c r="J18" s="322"/>
-      <c r="K18" s="322"/>
-      <c r="L18" s="322"/>
-      <c r="M18" s="322"/>
-      <c r="N18" s="322"/>
-      <c r="O18" s="322"/>
-      <c r="P18" s="327"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="327"/>
-      <c r="S18" s="327"/>
-      <c r="T18" s="327"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="327"/>
+        <v>267</v>
+      </c>
+      <c r="F18" s="321">
+        <v>100</v>
+      </c>
+      <c r="G18" s="321">
+        <v>100</v>
+      </c>
+      <c r="H18" s="321"/>
+      <c r="I18" s="321"/>
+      <c r="J18" s="321"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="321"/>
+      <c r="M18" s="321"/>
+      <c r="N18" s="321"/>
+      <c r="O18" s="321"/>
+      <c r="P18" s="326"/>
+      <c r="Q18" s="326"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="326"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="291" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="329">
+      <c r="B19" s="290" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="328">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
@@ -5028,38 +5035,38 @@
         <v>2</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="322">
-        <v>100</v>
-      </c>
-      <c r="G19" s="322">
-        <v>100</v>
-      </c>
-      <c r="H19" s="322"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="322"/>
-      <c r="L19" s="322"/>
-      <c r="M19" s="322"/>
-      <c r="N19" s="322"/>
-      <c r="O19" s="322"/>
-      <c r="P19" s="327"/>
-      <c r="Q19" s="327"/>
-      <c r="R19" s="327"/>
-      <c r="S19" s="327"/>
-      <c r="T19" s="327"/>
-      <c r="U19" s="327"/>
-      <c r="V19" s="327"/>
+        <v>268</v>
+      </c>
+      <c r="F19" s="321">
+        <v>100</v>
+      </c>
+      <c r="G19" s="321">
+        <v>100</v>
+      </c>
+      <c r="H19" s="321"/>
+      <c r="I19" s="321"/>
+      <c r="J19" s="321"/>
+      <c r="K19" s="321"/>
+      <c r="L19" s="321"/>
+      <c r="M19" s="321"/>
+      <c r="N19" s="321"/>
+      <c r="O19" s="321"/>
+      <c r="P19" s="326"/>
+      <c r="Q19" s="326"/>
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="326"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="291" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="329">
+      <c r="B20" s="290" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5067,77 +5074,77 @@
         <v>3</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="322">
-        <v>100</v>
-      </c>
-      <c r="G20" s="322">
-        <v>100</v>
-      </c>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="322"/>
-      <c r="N20" s="322"/>
-      <c r="O20" s="322"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="327"/>
-      <c r="S20" s="327"/>
-      <c r="T20" s="327"/>
-      <c r="U20" s="327"/>
-      <c r="V20" s="327"/>
+        <v>269</v>
+      </c>
+      <c r="F20" s="321">
+        <v>100</v>
+      </c>
+      <c r="G20" s="321">
+        <v>100</v>
+      </c>
+      <c r="H20" s="321"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="321"/>
+      <c r="K20" s="321"/>
+      <c r="L20" s="321"/>
+      <c r="M20" s="321"/>
+      <c r="N20" s="321"/>
+      <c r="O20" s="321"/>
+      <c r="P20" s="326"/>
+      <c r="Q20" s="326"/>
+      <c r="R20" s="326"/>
+      <c r="S20" s="326"/>
+      <c r="T20" s="326"/>
+      <c r="U20" s="326"/>
+      <c r="V20" s="326"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="292" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="329">
+      <c r="B21" s="291" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="313">
+      <c r="D21" s="312">
         <v>0</v>
       </c>
       <c r="E21" s="259">
         <v>0</v>
       </c>
-      <c r="F21" s="322">
-        <v>0</v>
-      </c>
-      <c r="G21" s="322">
-        <v>0</v>
-      </c>
-      <c r="H21" s="322"/>
-      <c r="I21" s="322"/>
-      <c r="J21" s="322"/>
-      <c r="K21" s="322"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="322"/>
-      <c r="N21" s="322"/>
-      <c r="O21" s="322"/>
-      <c r="P21" s="327"/>
-      <c r="Q21" s="327"/>
-      <c r="R21" s="327"/>
-      <c r="S21" s="327"/>
-      <c r="T21" s="327"/>
-      <c r="U21" s="327"/>
-      <c r="V21" s="327"/>
+      <c r="F21" s="321">
+        <v>0</v>
+      </c>
+      <c r="G21" s="321">
+        <v>0</v>
+      </c>
+      <c r="H21" s="321"/>
+      <c r="I21" s="321"/>
+      <c r="J21" s="321"/>
+      <c r="K21" s="321"/>
+      <c r="L21" s="321"/>
+      <c r="M21" s="321"/>
+      <c r="N21" s="321"/>
+      <c r="O21" s="321"/>
+      <c r="P21" s="326"/>
+      <c r="Q21" s="326"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="326"/>
+      <c r="T21" s="326"/>
+      <c r="U21" s="326"/>
+      <c r="V21" s="326"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="291" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="329">
+      <c r="B22" s="290" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5145,38 +5152,38 @@
         <v>3</v>
       </c>
       <c r="E22" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="322">
-        <v>100</v>
-      </c>
-      <c r="G22" s="322">
-        <v>100</v>
-      </c>
-      <c r="H22" s="322"/>
-      <c r="I22" s="322"/>
-      <c r="J22" s="322"/>
-      <c r="K22" s="322"/>
-      <c r="L22" s="322"/>
-      <c r="M22" s="322"/>
-      <c r="N22" s="322"/>
-      <c r="O22" s="322"/>
-      <c r="P22" s="327"/>
-      <c r="Q22" s="327"/>
-      <c r="R22" s="327"/>
-      <c r="S22" s="327"/>
-      <c r="T22" s="327"/>
-      <c r="U22" s="327"/>
-      <c r="V22" s="327"/>
+        <v>271</v>
+      </c>
+      <c r="F22" s="321">
+        <v>100</v>
+      </c>
+      <c r="G22" s="321">
+        <v>100</v>
+      </c>
+      <c r="H22" s="321"/>
+      <c r="I22" s="321"/>
+      <c r="J22" s="321"/>
+      <c r="K22" s="321"/>
+      <c r="L22" s="321"/>
+      <c r="M22" s="321"/>
+      <c r="N22" s="321"/>
+      <c r="O22" s="321"/>
+      <c r="P22" s="326"/>
+      <c r="Q22" s="326"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="291" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="329">
+      <c r="B23" s="290" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="328">
         <f t="shared" si="0"/>
         <v>44.444444444444436</v>
       </c>
@@ -5184,38 +5191,38 @@
         <v>1</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" s="322">
-        <v>100</v>
-      </c>
-      <c r="G23" s="322">
-        <v>0</v>
-      </c>
-      <c r="H23" s="322"/>
-      <c r="I23" s="322"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="322"/>
-      <c r="L23" s="322"/>
-      <c r="M23" s="322"/>
-      <c r="N23" s="322"/>
-      <c r="O23" s="322"/>
-      <c r="P23" s="327"/>
-      <c r="Q23" s="327"/>
-      <c r="R23" s="327"/>
-      <c r="S23" s="327"/>
-      <c r="T23" s="327"/>
-      <c r="U23" s="327"/>
-      <c r="V23" s="327"/>
+        <v>272</v>
+      </c>
+      <c r="F23" s="321">
+        <v>100</v>
+      </c>
+      <c r="G23" s="321">
+        <v>0</v>
+      </c>
+      <c r="H23" s="321"/>
+      <c r="I23" s="321"/>
+      <c r="J23" s="321"/>
+      <c r="K23" s="321"/>
+      <c r="L23" s="321"/>
+      <c r="M23" s="321"/>
+      <c r="N23" s="321"/>
+      <c r="O23" s="321"/>
+      <c r="P23" s="326"/>
+      <c r="Q23" s="326"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="326"/>
+      <c r="V23" s="326"/>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="291" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" s="329">
+      <c r="B24" s="290" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5223,40 +5230,40 @@
         <v>3</v>
       </c>
       <c r="E24" s="136" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="322">
-        <v>100</v>
-      </c>
-      <c r="G24" s="322">
-        <v>100</v>
-      </c>
-      <c r="H24" s="322">
-        <v>100</v>
-      </c>
-      <c r="I24" s="322"/>
-      <c r="J24" s="322"/>
-      <c r="K24" s="322"/>
-      <c r="L24" s="322"/>
-      <c r="M24" s="322"/>
-      <c r="N24" s="322"/>
-      <c r="O24" s="322"/>
-      <c r="P24" s="327"/>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="327"/>
-      <c r="S24" s="327"/>
-      <c r="T24" s="327"/>
-      <c r="U24" s="327"/>
-      <c r="V24" s="327"/>
+        <v>273</v>
+      </c>
+      <c r="F24" s="321">
+        <v>100</v>
+      </c>
+      <c r="G24" s="321">
+        <v>100</v>
+      </c>
+      <c r="H24" s="321">
+        <v>100</v>
+      </c>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
+      <c r="K24" s="321"/>
+      <c r="L24" s="321"/>
+      <c r="M24" s="321"/>
+      <c r="N24" s="321"/>
+      <c r="O24" s="321"/>
+      <c r="P24" s="326"/>
+      <c r="Q24" s="326"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="326"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="291" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="329">
+      <c r="B25" s="290" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="328">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5264,29 +5271,29 @@
         <v>3</v>
       </c>
       <c r="E25" s="136" t="s">
-        <v>271</v>
-      </c>
-      <c r="F25" s="322">
-        <v>100</v>
-      </c>
-      <c r="G25" s="322">
-        <v>100</v>
-      </c>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="322"/>
-      <c r="L25" s="322"/>
-      <c r="M25" s="322"/>
-      <c r="N25" s="322"/>
-      <c r="O25" s="322"/>
-      <c r="P25" s="327"/>
-      <c r="Q25" s="327"/>
-      <c r="R25" s="327"/>
-      <c r="S25" s="327"/>
-      <c r="T25" s="327"/>
-      <c r="U25" s="327"/>
-      <c r="V25" s="327"/>
+        <v>270</v>
+      </c>
+      <c r="F25" s="321">
+        <v>100</v>
+      </c>
+      <c r="G25" s="321">
+        <v>100</v>
+      </c>
+      <c r="H25" s="321"/>
+      <c r="I25" s="321"/>
+      <c r="J25" s="321"/>
+      <c r="K25" s="321"/>
+      <c r="L25" s="321"/>
+      <c r="M25" s="321"/>
+      <c r="N25" s="321"/>
+      <c r="O25" s="321"/>
+      <c r="P25" s="326"/>
+      <c r="Q25" s="326"/>
+      <c r="R25" s="326"/>
+      <c r="S25" s="326"/>
+      <c r="T25" s="326"/>
+      <c r="U25" s="326"/>
+      <c r="V25" s="326"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5336,10 +5343,10 @@
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="279" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="312"/>
+      <c r="B3" s="278" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="311"/>
       <c r="D3" s="256">
         <v>2</v>
       </c>
@@ -5350,26 +5357,26 @@
     </row>
     <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="290" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="315" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="318" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="317">
+      <c r="B4" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="314" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="317" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="316">
         <v>45918</v>
       </c>
       <c r="F4" s="258" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="307" t="s">
-        <v>253</v>
+        <v>223</v>
+      </c>
+      <c r="H4" s="306" t="s">
+        <v>252</v>
       </c>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
@@ -5393,10 +5400,10 @@
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="291" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="330">
+      <c r="B5" s="290" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="329">
         <f>(D5/$D$3*100 + G5 + H5)/($F$3+1)</f>
         <v>66.666666666666671</v>
       </c>
@@ -5407,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G5" s="26">
         <v>100</v>
@@ -5437,10 +5444,10 @@
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="291" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="330">
+      <c r="B6" s="290" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="329">
         <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6)/($F$3+1)</f>
         <v>100</v>
       </c>
@@ -5451,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G6" s="26">
         <v>100</v>
@@ -5481,10 +5488,10 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="291" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="330">
+      <c r="B7" s="290" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5495,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G7" s="26">
         <v>100</v>
@@ -5525,10 +5532,10 @@
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="291" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="330">
+      <c r="B8" s="290" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="26">
         <v>100</v>
@@ -5569,10 +5576,10 @@
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="291" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="330">
+      <c r="B9" s="290" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="26">
         <v>100</v>
@@ -5613,10 +5620,10 @@
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="291" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="330">
+      <c r="B10" s="290" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="26">
         <v>100</v>
@@ -5657,10 +5664,10 @@
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="293" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="330">
+      <c r="B11" s="292" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="26">
         <v>100</v>
@@ -5701,10 +5708,10 @@
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="291" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="330">
+      <c r="B12" s="290" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="329">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
@@ -5715,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G12" s="26">
         <v>100</v>
@@ -5745,10 +5752,10 @@
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="291" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="330">
+      <c r="B13" s="290" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="329">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
@@ -5759,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G13" s="26">
         <v>100</v>
@@ -5789,10 +5796,10 @@
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="291" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="330">
+      <c r="B14" s="290" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="329">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -5802,8 +5809,8 @@
       <c r="E14" s="259">
         <v>1</v>
       </c>
-      <c r="F14" s="282" t="s">
-        <v>321</v>
+      <c r="F14" s="281" t="s">
+        <v>320</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -5833,10 +5840,10 @@
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="291" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="330">
+      <c r="B15" s="290" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5847,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="26">
         <v>100</v>
@@ -5877,10 +5884,10 @@
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="291" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="330">
+      <c r="B16" s="290" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="329">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
@@ -5891,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="26">
         <v>60</v>
@@ -5921,10 +5928,10 @@
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="291" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="330">
+      <c r="B17" s="290" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5935,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="26">
         <v>100</v>
@@ -5965,10 +5972,10 @@
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="291" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="330">
+      <c r="B18" s="290" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5979,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="26">
         <v>100</v>
@@ -6009,10 +6016,10 @@
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="291" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="330">
+      <c r="B19" s="290" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6022,8 +6029,8 @@
       <c r="E19" s="259">
         <v>1</v>
       </c>
-      <c r="F19" s="282" t="s">
-        <v>320</v>
+      <c r="F19" s="281" t="s">
+        <v>319</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6053,10 +6060,10 @@
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="291" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="330">
+      <c r="B20" s="290" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="329">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -6067,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="26">
         <v>100</v>
@@ -6097,10 +6104,10 @@
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="291" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="330">
+      <c r="B21" s="290" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6111,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" s="26">
         <v>100</v>
@@ -6141,10 +6148,10 @@
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="310" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="330">
+      <c r="B22" s="309" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6155,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" s="26">
         <v>100</v>
@@ -6185,10 +6192,10 @@
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="291" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="330">
+      <c r="B23" s="290" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="329">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G23" s="26">
         <v>100</v>
@@ -6229,10 +6236,10 @@
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="291" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="330">
+      <c r="B24" s="290" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G24" s="26">
         <v>100</v>
@@ -6273,10 +6280,10 @@
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="291" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="330">
+      <c r="B25" s="290" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6287,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G25" s="26">
         <v>100</v>
@@ -6317,10 +6324,10 @@
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="291" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="330">
+      <c r="B26" s="290" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6331,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G26" s="26">
         <v>100</v>
@@ -6361,10 +6368,10 @@
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="310" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="330">
+      <c r="B27" s="309" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6375,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G27" s="26">
         <v>100</v>
@@ -6405,10 +6412,10 @@
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="291" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="330">
+      <c r="B28" s="290" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="26">
         <v>100</v>
@@ -6449,10 +6456,10 @@
       <c r="A29" s="256">
         <v>25</v>
       </c>
-      <c r="B29" s="291" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="330">
+      <c r="B29" s="290" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6463,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G29" s="26">
         <v>100</v>
@@ -6493,10 +6500,10 @@
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="291" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="330">
+      <c r="B30" s="290" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6507,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="136" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="26">
         <v>100</v>
@@ -6572,9 +6579,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO3" sqref="AO3"/>
+      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6601,6 +6608,7 @@
     <col min="37" max="40" width="9.140625" customWidth="1"/>
     <col min="41" max="41" width="27.42578125" customWidth="1"/>
     <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -6732,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -6823,28 +6831,28 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
       <c r="AO2" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="331" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -6953,7 +6961,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -7293,7 +7301,7 @@
       <c r="AP6" s="26"/>
     </row>
     <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="330" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7403,7 +7411,7 @@
       <c r="AP7" s="26"/>
     </row>
     <row r="8" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="277" t="s">
+      <c r="A8" s="276" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25">
@@ -7629,7 +7637,7 @@
       <c r="AP9" s="26"/>
     </row>
     <row r="10" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="330" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -8187,7 +8195,7 @@
       <c r="AP14" s="25"/>
     </row>
     <row r="15" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="254" t="s">
+      <c r="A15" s="330" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8197,8 +8205,8 @@
       <c r="D15" s="25">
         <v>3</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>34</v>
+      <c r="E15" s="136" t="s">
+        <v>323</v>
       </c>
       <c r="F15" s="28">
         <v>1</v>
@@ -8299,8 +8307,8 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="254" t="s">
-        <v>35</v>
+      <c r="A16" s="330" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="25">
         <v>0</v>
@@ -8310,7 +8318,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="28">
         <v>1</v>
@@ -8411,8 +8419,8 @@
       <c r="AP16" s="26"/>
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="278" t="s">
-        <v>37</v>
+      <c r="A17" s="277" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
@@ -8422,7 +8430,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -8527,8 +8535,8 @@
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="277" t="s">
-        <v>39</v>
+      <c r="A18" s="276" t="s">
+        <v>38</v>
       </c>
       <c r="B18" s="25">
         <v>0</v>
@@ -8538,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="28">
         <v>1</v>
@@ -8641,8 +8649,8 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="254" t="s">
-        <v>41</v>
+      <c r="A19" s="330" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="25">
         <v>0</v>
@@ -8651,8 +8659,8 @@
       <c r="D19" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>42</v>
+      <c r="E19" s="136" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="28">
         <v>1</v>
@@ -8754,7 +8762,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="254" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="25">
         <v>0</v>
@@ -8764,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="28">
         <v>1</v>
@@ -8867,8 +8875,8 @@
       <c r="AP20" s="26"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="254" t="s">
-        <v>45</v>
+      <c r="A21" s="330" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="25">
         <v>0</v>
@@ -8978,7 +8986,7 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="25">
         <v>0</v>
@@ -8988,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="28">
         <v>1</v>
@@ -9090,8 +9098,8 @@
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="278" t="s">
-        <v>48</v>
+      <c r="A23" s="277" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="25">
         <v>0</v>
@@ -9101,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="28">
         <v>1</v>
@@ -9207,8 +9215,8 @@
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="254" t="s">
-        <v>50</v>
+      <c r="A24" s="330" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="25">
         <v>0</v>
@@ -9218,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="28">
         <v>1</v>
@@ -9322,7 +9330,7 @@
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" s="254" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="25">
         <v>0</v>
@@ -9432,7 +9440,7 @@
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" s="254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="25">
         <v>0</v>
@@ -9442,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="28">
         <v>1</v>
@@ -9546,7 +9554,7 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>
@@ -9556,7 +9564,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="50">
         <v>1</v>
@@ -9681,7 +9689,7 @@
     </row>
     <row r="28" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
@@ -9885,7 +9893,7 @@
     </row>
     <row r="30" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="137" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="25">
         <v>2</v>
@@ -9893,7 +9901,7 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="28">
         <v>1</v>
@@ -9992,7 +10000,7 @@
     </row>
     <row r="31" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="25">
         <v>0</v>
@@ -10096,7 +10104,7 @@
     </row>
     <row r="32" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="25">
         <v>0</v>
@@ -10104,7 +10112,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="28">
         <v>1</v>
@@ -10204,7 +10212,7 @@
     </row>
     <row r="33" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="244" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="25">
         <v>2</v>
@@ -10212,7 +10220,7 @@
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="28">
         <v>1</v>
@@ -10311,7 +10319,7 @@
     </row>
     <row r="34" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="25">
         <v>2</v>
@@ -10319,7 +10327,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="28">
         <v>1</v>
@@ -10418,7 +10426,7 @@
     </row>
     <row r="35" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="252" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="25">
         <v>0</v>
@@ -10426,7 +10434,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="28">
         <v>1</v>
@@ -10525,7 +10533,7 @@
     </row>
     <row r="36" spans="1:63" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="25">
         <v>2</v>
@@ -10533,7 +10541,7 @@
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="50">
         <v>1</v>
@@ -10654,7 +10662,7 @@
     </row>
     <row r="37" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="253" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="25">
         <v>2</v>
@@ -10662,7 +10670,7 @@
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="28">
         <v>1</v>
@@ -10764,7 +10772,7 @@
     </row>
     <row r="38" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="25">
         <v>0</v>
@@ -10772,7 +10780,7 @@
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="28">
         <v>1</v>
@@ -10872,7 +10880,7 @@
     </row>
     <row r="39" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="25">
         <v>2</v>
@@ -10880,7 +10888,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" s="28">
         <v>1</v>
@@ -10981,7 +10989,7 @@
     </row>
     <row r="40" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="244" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="25">
         <v>2</v>
@@ -10989,7 +10997,7 @@
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="28">
         <v>1</v>
@@ -11087,7 +11095,7 @@
     </row>
     <row r="41" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="245" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="25">
         <v>2</v>
@@ -11095,7 +11103,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" s="28">
         <v>1</v>
@@ -11194,7 +11202,7 @@
     </row>
     <row r="42" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="25">
         <v>2</v>
@@ -11202,7 +11210,7 @@
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="28">
         <v>1</v>
@@ -11302,7 +11310,7 @@
     </row>
     <row r="43" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="25">
         <v>0</v>
@@ -11310,7 +11318,7 @@
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" s="28">
         <v>1</v>
@@ -11411,13 +11419,13 @@
     </row>
     <row r="44" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" s="25">
-        <v>0</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="F44" s="28">
         <v>1</v>
@@ -11519,7 +11527,7 @@
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="25">
         <v>0</v>
@@ -11527,7 +11535,7 @@
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="28">
         <v>1</v>
@@ -11627,7 +11635,7 @@
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="25">
         <v>1</v>
@@ -11635,7 +11643,7 @@
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="28">
         <v>1</v>
@@ -11736,7 +11744,7 @@
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="25">
         <v>1</v>
@@ -11744,7 +11752,7 @@
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="28">
         <v>1</v>
@@ -11844,7 +11852,7 @@
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A48" s="255" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="25">
         <v>0</v>
@@ -11852,7 +11860,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="28">
         <v>1</v>
@@ -11949,7 +11957,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="246" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="25">
         <v>1</v>
@@ -11957,7 +11965,7 @@
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" s="28">
         <v>1</v>
@@ -12060,7 +12068,7 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="25">
         <v>2</v>
@@ -12068,7 +12076,7 @@
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="136" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="28">
         <v>1</v>
@@ -12237,10 +12245,12 @@
     <hyperlink ref="E42" r:id="rId26" xr:uid="{4DA5F499-5775-4693-A29F-54E04E442965}"/>
     <hyperlink ref="E6" r:id="rId27" xr:uid="{4F97F3AB-5D74-40BD-83FF-32546801296B}"/>
     <hyperlink ref="E35" r:id="rId28" xr:uid="{044EE66C-BA42-4D19-AEBF-0477B7195099}"/>
+    <hyperlink ref="E15" r:id="rId29" xr:uid="{9644EEDA-C395-4F29-B7DF-64A90A3D3E48}"/>
+    <hyperlink ref="E19" r:id="rId30" xr:uid="{37893B8F-18A1-4ECD-BB36-2369A865C515}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -12263,81 +12273,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="283" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="283" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="284" t="s">
+      <c r="C3" s="283" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="283" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="284" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="283" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="283" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="283" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="283" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="283" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="283" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="283" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="284" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="284" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="284" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="284" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="284" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="284" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="284" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="284" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="283" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="284" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="283" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="284" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="283" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="284" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="283" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="284" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="283" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="284" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -12379,7 +12389,7 @@
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
@@ -12401,7 +12411,7 @@
       <c r="U1" s="85"/>
       <c r="V1" s="58"/>
       <c r="W1" s="86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X1" s="87"/>
       <c r="Y1" s="15"/>
@@ -12423,22 +12433,22 @@
         <v>3</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="G2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="J2" s="16">
         <v>45579</v>
@@ -12471,44 +12481,44 @@
         <v>45649</v>
       </c>
       <c r="T2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="92" t="s">
+      <c r="V2" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="X2" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="Y2" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="94" t="s">
+      <c r="Z2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="AB2" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="21"/>
       <c r="AD2" s="21"/>
       <c r="AE2" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="180" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="171">
         <v>0</v>
@@ -12577,7 +12587,7 @@
     </row>
     <row r="4" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="205">
         <v>0</v>
@@ -12636,7 +12646,7 @@
     </row>
     <row r="5" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="100"/>
       <c r="C5" s="100"/>
@@ -12685,7 +12695,7 @@
     </row>
     <row r="6" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="223">
         <v>0</v>
@@ -12695,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="224" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="224">
         <v>0</v>
@@ -12749,7 +12759,7 @@
     </row>
     <row r="7" spans="1:32" s="204" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="203">
         <v>0</v>
@@ -12804,7 +12814,7 @@
     </row>
     <row r="8" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="182">
         <v>0</v>
@@ -12857,7 +12867,7 @@
     </row>
     <row r="9" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
@@ -12895,7 +12905,7 @@
     </row>
     <row r="10" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="148">
         <v>2</v>
@@ -12963,7 +12973,7 @@
     </row>
     <row r="11" spans="1:32" s="222" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="214">
         <v>0</v>
@@ -13032,7 +13042,7 @@
     </row>
     <row r="12" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="205">
         <v>0</v>
@@ -13093,7 +13103,7 @@
     </row>
     <row r="13" spans="1:32" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="100">
         <v>0</v>
@@ -13146,7 +13156,7 @@
     </row>
     <row r="14" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="148">
         <v>2</v>
@@ -13216,7 +13226,7 @@
     </row>
     <row r="15" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="182">
         <v>0</v>
@@ -13271,7 +13281,7 @@
     </row>
     <row r="16" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
@@ -13415,7 +13425,7 @@
       <c r="AC17" s="91"/>
       <c r="AD17" s="91"/>
       <c r="AE17" s="91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" s="91" t="str">
         <f>AF2</f>
@@ -13424,7 +13434,7 @@
     </row>
     <row r="18" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="232" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="161">
         <v>2</v>
@@ -13489,7 +13499,7 @@
     </row>
     <row r="19" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="193" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="182">
         <v>0</v>
@@ -13544,7 +13554,7 @@
     </row>
     <row r="20" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="148">
         <v>2</v>
@@ -13613,7 +13623,7 @@
     </row>
     <row r="21" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="148">
         <v>2</v>
@@ -13682,7 +13692,7 @@
     </row>
     <row r="22" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="233" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="223">
         <v>1</v>
@@ -13746,7 +13756,7 @@
     </row>
     <row r="23" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="193" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="182">
         <v>0</v>
@@ -13801,7 +13811,7 @@
     </row>
     <row r="24" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="182">
         <v>0</v>
@@ -13856,7 +13866,7 @@
     </row>
     <row r="25" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="193" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="182">
         <v>0</v>
@@ -13911,7 +13921,7 @@
     </row>
     <row r="26" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="193" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="182">
         <v>0</v>
@@ -13966,7 +13976,7 @@
     </row>
     <row r="27" spans="1:32" s="231" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="233" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="223">
         <v>0</v>
@@ -14030,7 +14040,7 @@
     </row>
     <row r="28" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="148">
         <v>1</v>
@@ -14098,7 +14108,7 @@
     </row>
     <row r="29" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="148">
         <v>2</v>
@@ -14166,7 +14176,7 @@
     </row>
     <row r="30" spans="1:32" s="158" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="148">
         <v>2</v>
@@ -14234,7 +14244,7 @@
     </row>
     <row r="31" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="235" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="205">
         <v>0</v>
@@ -14294,7 +14304,7 @@
     </row>
     <row r="32" spans="1:32" s="192" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="193" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="182">
         <v>0</v>
@@ -14349,7 +14359,7 @@
     </row>
     <row r="33" spans="1:32" s="213" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="235" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="205">
         <v>2</v>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02813378-A565-41F4-8D83-001859207C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA3A11-3214-426D-A6EC-900800672CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="324">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1305,9 +1305,6 @@
     <t>К\Р</t>
   </si>
   <si>
-    <t>ПР1. Git</t>
-  </si>
-  <si>
     <t>Крахмальный Кирилл В.</t>
   </si>
   <si>
@@ -1392,9 +1389,6 @@
     <t>https://github.com/Ssteynbreher/Android_visual-programming</t>
   </si>
   <si>
-    <t>ПР2. Human</t>
-  </si>
-  <si>
     <t>ПР5. Сокеты</t>
   </si>
   <si>
@@ -1606,6 +1600,12 @@
   </si>
   <si>
     <t>https://github.com/AntonIsov/</t>
+  </si>
+  <si>
+    <t>ПР1. Human</t>
+  </si>
+  <si>
+    <t>ПР2. Интерфейсы</t>
   </si>
 </sst>
 </file>
@@ -3289,8 +3289,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="319" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4" s="313" t="s">
         <v>169</v>
@@ -3339,10 +3339,10 @@
         <v>ПР0. Git.</v>
       </c>
       <c r="G4" s="305" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H4" s="299" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I4" s="299"/>
       <c r="J4" s="299"/>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="281" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F5" s="301">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" s="287">
         <v>100</v>
@@ -3457,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" s="288">
         <v>100</v>
@@ -3498,7 +3498,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="281" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" s="284">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F9" s="284">
         <v>100</v>
@@ -3580,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F10" s="284">
         <v>100</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="281" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F11" s="284">
         <v>100</v>
@@ -3703,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" s="284">
         <v>100</v>
@@ -3744,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="281" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F14" s="284">
         <v>100</v>
@@ -3785,7 +3785,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="281" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F15" s="284">
         <v>100</v>
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="281" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F16" s="284">
         <v>100</v>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="281" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F17" s="284">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="281" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" s="284">
         <v>100</v>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="281" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F19" s="284">
         <v>100</v>
@@ -3980,7 +3980,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="259" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="321">
         <f t="shared" si="0"/>
@@ -3990,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F20" s="284">
         <v>70</v>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="281" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F21" s="284">
         <v>100</v>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F22" s="284">
         <v>100</v>
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F23" s="284">
         <v>100</v>
@@ -4154,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="281" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F24" s="284">
         <v>100</v>
@@ -4226,7 +4226,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="259" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C26" s="321">
         <f t="shared" si="0"/>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="281" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F26" s="284">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="259" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="321">
         <f t="shared" si="0"/>
@@ -4306,7 +4306,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="259" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C28" s="321">
         <f t="shared" si="0"/>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="314" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4" s="313" t="s">
         <v>169</v>
@@ -4449,13 +4449,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="296" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="297" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="298" t="s">
         <v>274</v>
-      </c>
-      <c r="G4" s="297" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="298" t="s">
-        <v>276</v>
       </c>
       <c r="I4" s="298"/>
       <c r="J4" s="298"/>
@@ -4487,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="294" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F5" s="324">
         <v>100</v>
@@ -4528,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" s="321">
         <v>50</v>
@@ -4606,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F8" s="321">
         <v>100</v>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F9" s="321">
         <v>100</v>
@@ -4684,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="321">
         <v>100</v>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="321">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F12" s="321">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="321">
         <v>100</v>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F14" s="321">
         <v>100</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F15" s="321">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F16" s="321">
         <v>100</v>
@@ -4947,7 +4947,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="328">
         <f t="shared" si="0"/>
@@ -4957,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F17" s="321">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F18" s="321">
         <v>100</v>
@@ -5035,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F19" s="321">
         <v>100</v>
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F20" s="321">
         <v>100</v>
@@ -5152,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F22" s="321">
         <v>100</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" s="321">
         <v>100</v>
@@ -5230,7 +5230,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F24" s="321">
         <v>100</v>
@@ -5261,7 +5261,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="328">
         <f t="shared" si="0"/>
@@ -5271,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F25" s="321">
         <v>100</v>
@@ -5328,7 +5328,7 @@
   <dimension ref="A2:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,6 +5338,7 @@
     <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5348,7 +5349,7 @@
       </c>
       <c r="C3" s="311"/>
       <c r="D3" s="256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256">
@@ -5361,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="314" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D4" s="317" t="s">
         <v>169</v>
@@ -5373,12 +5374,14 @@
         <v>4</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="H4" s="306" t="s">
-        <v>252</v>
-      </c>
-      <c r="I4" s="58"/>
+        <v>322</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>323</v>
+      </c>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
       <c r="L4" s="58"/>
@@ -5408,13 +5411,13 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D5" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="259">
         <v>0</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G5" s="26">
         <v>100</v>
@@ -5452,13 +5455,13 @@
         <v>100</v>
       </c>
       <c r="D6" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="259">
         <v>1</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" s="26">
         <v>100</v>
@@ -5493,7 +5496,7 @@
       </c>
       <c r="C7" s="329">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D7" s="259">
         <v>2</v>
@@ -5502,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="136" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="26">
         <v>100</v>
@@ -5540,13 +5543,13 @@
         <v>100</v>
       </c>
       <c r="D8" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="259">
         <v>1</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="26">
         <v>100</v>
@@ -5584,13 +5587,13 @@
         <v>100</v>
       </c>
       <c r="D9" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="259">
         <v>1</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="26">
         <v>100</v>
@@ -5628,13 +5631,13 @@
         <v>100</v>
       </c>
       <c r="D10" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="259">
         <v>1</v>
       </c>
       <c r="F10" s="136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="26">
         <v>100</v>
@@ -5672,13 +5675,13 @@
         <v>100</v>
       </c>
       <c r="D11" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="259">
         <v>0</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="26">
         <v>100</v>
@@ -5713,7 +5716,7 @@
       </c>
       <c r="C12" s="329">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>55.55555555555555</v>
       </c>
       <c r="D12" s="259">
         <v>2</v>
@@ -5722,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" s="26">
         <v>100</v>
@@ -5760,13 +5763,13 @@
         <v>96.666666666666671</v>
       </c>
       <c r="D13" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="259">
         <v>1</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="26">
         <v>100</v>
@@ -5804,13 +5807,13 @@
         <v>40</v>
       </c>
       <c r="D14" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="259">
         <v>1</v>
       </c>
       <c r="F14" s="281" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -5848,13 +5851,13 @@
         <v>100</v>
       </c>
       <c r="D15" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="259">
         <v>0</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="26">
         <v>100</v>
@@ -5885,20 +5888,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="290" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="329">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
       <c r="D16" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="259">
         <v>1</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" s="26">
         <v>60</v>
@@ -5936,13 +5939,13 @@
         <v>100</v>
       </c>
       <c r="D17" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="259">
         <v>1</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G17" s="26">
         <v>100</v>
@@ -5980,13 +5983,13 @@
         <v>100</v>
       </c>
       <c r="D18" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="259">
         <v>1</v>
       </c>
       <c r="F18" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G18" s="26">
         <v>100</v>
@@ -6021,7 +6024,7 @@
       </c>
       <c r="C19" s="329">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D19" s="259">
         <v>2</v>
@@ -6030,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="281" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6065,7 +6068,7 @@
       </c>
       <c r="C20" s="329">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>77.777777777777771</v>
       </c>
       <c r="D20" s="259">
         <v>1</v>
@@ -6074,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" s="26">
         <v>100</v>
@@ -6112,13 +6115,13 @@
         <v>100</v>
       </c>
       <c r="D21" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="259">
         <v>1</v>
       </c>
       <c r="F21" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="26">
         <v>100</v>
@@ -6156,13 +6159,13 @@
         <v>100</v>
       </c>
       <c r="D22" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="259">
         <v>1</v>
       </c>
       <c r="F22" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G22" s="26">
         <v>100</v>
@@ -6200,13 +6203,13 @@
         <v>93.333333333333329</v>
       </c>
       <c r="D23" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="259">
         <v>1</v>
       </c>
       <c r="F23" s="136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="26">
         <v>100</v>
@@ -6244,13 +6247,13 @@
         <v>100</v>
       </c>
       <c r="D24" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="259">
         <v>1</v>
       </c>
       <c r="F24" s="136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G24" s="26">
         <v>100</v>
@@ -6285,7 +6288,7 @@
       </c>
       <c r="C25" s="329">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88.888888888888872</v>
       </c>
       <c r="D25" s="259">
         <v>2</v>
@@ -6294,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G25" s="26">
         <v>100</v>
@@ -6332,13 +6335,13 @@
         <v>100</v>
       </c>
       <c r="D26" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="259">
         <v>1</v>
       </c>
       <c r="F26" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G26" s="26">
         <v>100</v>
@@ -6376,13 +6379,13 @@
         <v>100</v>
       </c>
       <c r="D27" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="259">
         <v>1</v>
       </c>
       <c r="F27" s="136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="26">
         <v>100</v>
@@ -6420,13 +6423,13 @@
         <v>100</v>
       </c>
       <c r="D28" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="259">
         <v>1</v>
       </c>
       <c r="F28" s="136" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="26">
         <v>100</v>
@@ -6464,13 +6467,13 @@
         <v>100</v>
       </c>
       <c r="D29" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="259">
         <v>1</v>
       </c>
       <c r="F29" s="136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="26">
         <v>100</v>
@@ -6501,20 +6504,20 @@
         <v>26</v>
       </c>
       <c r="B30" s="290" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" s="329">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D30" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="259">
         <v>0</v>
       </c>
       <c r="F30" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="26">
         <v>100</v>
@@ -6579,7 +6582,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
     </sheetView>
@@ -6831,10 +6834,10 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>146</v>
@@ -6961,7 +6964,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -8206,7 +8209,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F15" s="28">
         <v>1</v>
@@ -12274,80 +12277,80 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="283" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="283" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="283" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="283" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="283" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="283" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="283" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="283" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="283" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="283" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="283" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="283" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="283" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="283" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="283" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CA3A11-3214-426D-A6EC-900800672CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719B467-DE68-4249-B706-0E81AD001AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -3289,8 +3289,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A2:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5327,8 +5327,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A2:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="C3" s="311"/>
       <c r="D3" s="256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256">
@@ -5411,7 +5411,7 @@
         <v>66.666666666666671</v>
       </c>
       <c r="D5" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="259">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="259">
         <v>1</v>
@@ -5469,7 +5469,9 @@
       <c r="H6" s="26">
         <v>100</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="26">
+        <v>90</v>
+      </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -5496,10 +5498,10 @@
       </c>
       <c r="C7" s="329">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="D7" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="259">
         <v>1</v>
@@ -5543,7 +5545,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="259">
         <v>1</v>
@@ -5587,7 +5589,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="259">
         <v>1</v>
@@ -5601,7 +5603,9 @@
       <c r="H9" s="26">
         <v>100</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="26">
+        <v>100</v>
+      </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
@@ -5631,7 +5635,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="259">
         <v>1</v>
@@ -5645,7 +5649,9 @@
       <c r="H10" s="26">
         <v>100</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="26">
+        <v>100</v>
+      </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -5675,7 +5681,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="259">
         <v>0</v>
@@ -5716,7 +5722,7 @@
       </c>
       <c r="C12" s="329">
         <f t="shared" si="0"/>
-        <v>55.55555555555555</v>
+        <v>50</v>
       </c>
       <c r="D12" s="259">
         <v>2</v>
@@ -5763,7 +5769,7 @@
         <v>96.666666666666671</v>
       </c>
       <c r="D13" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="259">
         <v>1</v>
@@ -5807,7 +5813,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="259">
         <v>1</v>
@@ -5851,7 +5857,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="259">
         <v>0</v>
@@ -5865,7 +5871,9 @@
       <c r="H15" s="26">
         <v>100</v>
       </c>
-      <c r="I15" s="26"/>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -5895,7 +5903,7 @@
         <v>86.666666666666671</v>
       </c>
       <c r="D16" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="259">
         <v>1</v>
@@ -5939,7 +5947,7 @@
         <v>100</v>
       </c>
       <c r="D17" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="259">
         <v>1</v>
@@ -5983,7 +5991,7 @@
         <v>100</v>
       </c>
       <c r="D18" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="259">
         <v>1</v>
@@ -6024,10 +6032,10 @@
       </c>
       <c r="C19" s="329">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="D19" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="259">
         <v>1</v>
@@ -6068,7 +6076,7 @@
       </c>
       <c r="C20" s="329">
         <f t="shared" si="0"/>
-        <v>77.777777777777771</v>
+        <v>75</v>
       </c>
       <c r="D20" s="259">
         <v>1</v>
@@ -6115,7 +6123,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="259">
         <v>1</v>
@@ -6159,7 +6167,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="259">
         <v>1</v>
@@ -6195,7 +6203,7 @@
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="290" t="s">
+      <c r="B23" s="309" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="329">
@@ -6203,7 +6211,7 @@
         <v>93.333333333333329</v>
       </c>
       <c r="D23" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="259">
         <v>1</v>
@@ -6217,7 +6225,9 @@
       <c r="H23" s="26">
         <v>80</v>
       </c>
-      <c r="I23" s="26"/>
+      <c r="I23" s="26">
+        <v>100</v>
+      </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
@@ -6247,7 +6257,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="259">
         <v>1</v>
@@ -6261,7 +6271,9 @@
       <c r="H24" s="26">
         <v>100</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -6288,7 +6300,7 @@
       </c>
       <c r="C25" s="329">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="D25" s="259">
         <v>2</v>
@@ -6335,7 +6347,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="259">
         <v>1</v>
@@ -6379,7 +6391,7 @@
         <v>100</v>
       </c>
       <c r="D27" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="259">
         <v>1</v>
@@ -6393,7 +6405,9 @@
       <c r="H27" s="26">
         <v>100</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="26">
+        <v>60</v>
+      </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -6423,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="259">
         <v>1</v>
@@ -6467,7 +6481,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="259">
         <v>1</v>
@@ -6481,7 +6495,9 @@
       <c r="H29" s="26">
         <v>100</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -6503,7 +6519,7 @@
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="290" t="s">
+      <c r="B30" s="309" t="s">
         <v>224</v>
       </c>
       <c r="C30" s="329">
@@ -6511,7 +6527,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="259">
         <v>0</v>
@@ -6525,7 +6541,9 @@
       <c r="H30" s="26">
         <v>100</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="26">
+        <v>90</v>
+      </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719B467-DE68-4249-B706-0E81AD001AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FBF54-CB3B-428F-B4EA-95E5B4BF698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="325">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1606,6 +1606,9 @@
   </si>
   <si>
     <t>ПР2. Интерфейсы</t>
+  </si>
+  <si>
+    <t>ПР3. Интерфейсы</t>
   </si>
 </sst>
 </file>
@@ -4397,8 +4400,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,6 +4411,8 @@
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4418,7 +4423,7 @@
       </c>
       <c r="C3" s="311"/>
       <c r="D3" s="256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256">
@@ -4457,7 +4462,9 @@
       <c r="H4" s="298" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="298"/>
+      <c r="I4" s="298" t="s">
+        <v>324</v>
+      </c>
       <c r="J4" s="298"/>
       <c r="K4" s="298"/>
       <c r="L4" s="298"/>
@@ -4484,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="294" t="s">
         <v>253</v>
@@ -4498,7 +4505,9 @@
       <c r="H5" s="324">
         <v>100</v>
       </c>
-      <c r="I5" s="324"/>
+      <c r="I5" s="324">
+        <v>100</v>
+      </c>
       <c r="J5" s="324"/>
       <c r="K5" s="324"/>
       <c r="L5" s="324"/>
@@ -4522,7 +4531,7 @@
       </c>
       <c r="C6" s="328">
         <f t="shared" ref="C6:C25" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
-        <v>38.888888888888886</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="D6" s="259">
         <v>2</v>
@@ -4603,7 +4612,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>255</v>
@@ -4614,7 +4623,9 @@
       <c r="G8" s="321">
         <v>100</v>
       </c>
-      <c r="H8" s="321"/>
+      <c r="H8" s="321">
+        <v>100</v>
+      </c>
       <c r="I8" s="321"/>
       <c r="J8" s="321"/>
       <c r="K8" s="321"/>
@@ -4642,7 +4653,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="136" t="s">
         <v>256</v>
@@ -4681,7 +4692,7 @@
         <v>96.666666666666671</v>
       </c>
       <c r="D10" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="136" t="s">
         <v>257</v>
@@ -4717,7 +4728,7 @@
       </c>
       <c r="C11" s="328">
         <f t="shared" si="0"/>
-        <v>11.111111111111109</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D11" s="259">
         <v>1</v>
@@ -4795,10 +4806,10 @@
       </c>
       <c r="C13" s="328">
         <f t="shared" si="0"/>
-        <v>44.444444444444436</v>
+        <v>50</v>
       </c>
       <c r="D13" s="259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="136" t="s">
         <v>260</v>
@@ -4809,7 +4820,9 @@
       <c r="G13" s="321">
         <v>0</v>
       </c>
-      <c r="H13" s="321"/>
+      <c r="H13" s="321">
+        <v>0</v>
+      </c>
       <c r="I13" s="321"/>
       <c r="J13" s="321"/>
       <c r="K13" s="321"/>
@@ -4834,7 +4847,7 @@
       </c>
       <c r="C14" s="328">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="D14" s="259">
         <v>2</v>
@@ -4912,10 +4925,10 @@
       </c>
       <c r="C16" s="328">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="D16" s="259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>263</v>
@@ -4926,8 +4939,12 @@
       <c r="G16" s="321">
         <v>0</v>
       </c>
-      <c r="H16" s="321"/>
-      <c r="I16" s="321"/>
+      <c r="H16" s="321">
+        <v>0</v>
+      </c>
+      <c r="I16" s="321">
+        <v>0</v>
+      </c>
       <c r="J16" s="321"/>
       <c r="K16" s="321"/>
       <c r="L16" s="321"/>
@@ -4951,10 +4968,10 @@
       </c>
       <c r="C17" s="328">
         <f t="shared" si="0"/>
-        <v>22.222222222222218</v>
+        <v>25</v>
       </c>
       <c r="D17" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="136" t="s">
         <v>264</v>
@@ -4965,8 +4982,12 @@
       <c r="G17" s="321">
         <v>0</v>
       </c>
-      <c r="H17" s="321"/>
-      <c r="I17" s="321"/>
+      <c r="H17" s="321">
+        <v>0</v>
+      </c>
+      <c r="I17" s="321">
+        <v>0</v>
+      </c>
       <c r="J17" s="321"/>
       <c r="K17" s="321"/>
       <c r="L17" s="321"/>
@@ -4990,22 +5011,26 @@
       </c>
       <c r="C18" s="328">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>75</v>
       </c>
       <c r="D18" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="136" t="s">
         <v>265</v>
       </c>
       <c r="F18" s="321">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G18" s="321">
         <v>100</v>
       </c>
-      <c r="H18" s="321"/>
-      <c r="I18" s="321"/>
+      <c r="H18" s="321">
+        <v>0</v>
+      </c>
+      <c r="I18" s="321">
+        <v>0</v>
+      </c>
       <c r="J18" s="321"/>
       <c r="K18" s="321"/>
       <c r="L18" s="321"/>
@@ -5029,10 +5054,10 @@
       </c>
       <c r="C19" s="328">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="D19" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="136" t="s">
         <v>266</v>
@@ -5043,8 +5068,12 @@
       <c r="G19" s="321">
         <v>100</v>
       </c>
-      <c r="H19" s="321"/>
-      <c r="I19" s="321"/>
+      <c r="H19" s="321">
+        <v>60</v>
+      </c>
+      <c r="I19" s="321">
+        <v>60</v>
+      </c>
       <c r="J19" s="321"/>
       <c r="K19" s="321"/>
       <c r="L19" s="321"/>
@@ -5071,7 +5100,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="136" t="s">
         <v>267</v>
@@ -5082,8 +5111,12 @@
       <c r="G20" s="321">
         <v>100</v>
       </c>
-      <c r="H20" s="321"/>
-      <c r="I20" s="321"/>
+      <c r="H20" s="321">
+        <v>60</v>
+      </c>
+      <c r="I20" s="321">
+        <v>60</v>
+      </c>
       <c r="J20" s="321"/>
       <c r="K20" s="321"/>
       <c r="L20" s="321"/>
@@ -5149,7 +5182,7 @@
         <v>100</v>
       </c>
       <c r="D22" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="136" t="s">
         <v>269</v>
@@ -5160,8 +5193,12 @@
       <c r="G22" s="321">
         <v>100</v>
       </c>
-      <c r="H22" s="321"/>
-      <c r="I22" s="321"/>
+      <c r="H22" s="321">
+        <v>100</v>
+      </c>
+      <c r="I22" s="321">
+        <v>100</v>
+      </c>
       <c r="J22" s="321"/>
       <c r="K22" s="321"/>
       <c r="L22" s="321"/>
@@ -5185,10 +5222,10 @@
       </c>
       <c r="C23" s="328">
         <f t="shared" si="0"/>
-        <v>44.444444444444436</v>
+        <v>50</v>
       </c>
       <c r="D23" s="259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="136" t="s">
         <v>270</v>
@@ -5227,7 +5264,7 @@
         <v>100</v>
       </c>
       <c r="D24" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="136" t="s">
         <v>271</v>
@@ -5241,7 +5278,9 @@
       <c r="H24" s="321">
         <v>100</v>
       </c>
-      <c r="I24" s="321"/>
+      <c r="I24" s="321">
+        <v>100</v>
+      </c>
       <c r="J24" s="321"/>
       <c r="K24" s="321"/>
       <c r="L24" s="321"/>
@@ -5268,7 +5307,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="136" t="s">
         <v>268</v>
@@ -5327,8 +5366,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5554,9 @@
       <c r="H7" s="26">
         <v>100</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="26">
+        <v>100</v>
+      </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FBF54-CB3B-428F-B4EA-95E5B4BF698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7330131-3304-4DC7-AB63-73208E1B5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="323">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1155,9 +1155,6 @@
     <t>Бенескул Игнат.М.</t>
   </si>
   <si>
-    <t>Боровецкий Иван.Я.</t>
-  </si>
-  <si>
     <t>Воинова Таисия.А.</t>
   </si>
   <si>
@@ -1192,9 +1189,6 @@
   </si>
   <si>
     <t>Фадеев Егор.А.</t>
-  </si>
-  <si>
-    <t>Цыренов Чингиз.Х.</t>
   </si>
   <si>
     <t>Шаламов Никита.В.</t>
@@ -2305,7 +2299,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2823,9 +2817,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2853,10 +2844,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2866,7 +2853,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2883,7 +2869,6 @@
     <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2892,6 +2877,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="33" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3313,7 +3301,7 @@
       <c r="B3" s="280" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315"/>
+      <c r="C3" s="311"/>
       <c r="D3" s="279">
         <v>3</v>
       </c>
@@ -3325,43 +3313,43 @@
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="318" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="319" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="313" t="s">
+      <c r="B4" s="314" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="315" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="296" t="s">
+      <c r="E4" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="304" t="str">
+      <c r="F4" s="303" t="str">
         <f>CONST!C3</f>
         <v>ПР0. Git.</v>
       </c>
-      <c r="G4" s="305" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="299" t="s">
-        <v>320</v>
-      </c>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="299"/>
-      <c r="T4" s="299"/>
-      <c r="U4" s="299"/>
-      <c r="V4" s="299"/>
-      <c r="W4" s="300"/>
+      <c r="G4" s="304" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="298" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="298"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="298"/>
+      <c r="R4" s="298"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="298"/>
+      <c r="W4" s="299"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
@@ -3370,29 +3358,29 @@
       <c r="B5" s="259" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="321">
+      <c r="C5" s="317">
         <f>((D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
         <v>11.111111111111109</v>
       </c>
-      <c r="D5" s="322">
+      <c r="D5" s="318">
         <v>1</v>
       </c>
       <c r="E5" s="281" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="301">
-        <v>0</v>
-      </c>
-      <c r="G5" s="302">
-        <v>0</v>
-      </c>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
+        <v>273</v>
+      </c>
+      <c r="F5" s="300">
+        <v>0</v>
+      </c>
+      <c r="G5" s="301">
+        <v>0</v>
+      </c>
+      <c r="H5" s="302"/>
+      <c r="I5" s="302"/>
+      <c r="J5" s="302"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="302"/>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302"/>
       <c r="O5" s="285"/>
       <c r="P5" s="285"/>
       <c r="Q5" s="285"/>
@@ -3411,15 +3399,15 @@
       <c r="B6" s="259" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="321">
+      <c r="C6" s="317">
         <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="D6" s="323">
+      <c r="D6" s="319">
         <v>3</v>
       </c>
       <c r="E6" s="281" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="287">
         <v>100</v>
@@ -3452,15 +3440,15 @@
       <c r="B7" s="259" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="321">
+      <c r="C7" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D7" s="323">
+      <c r="D7" s="319">
         <v>3</v>
       </c>
       <c r="E7" s="281" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F7" s="288">
         <v>100</v>
@@ -3493,15 +3481,15 @@
       <c r="B8" s="259" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="321">
+      <c r="C8" s="317">
         <f t="shared" si="0"/>
         <v>22.222222222222218</v>
       </c>
-      <c r="D8" s="321">
+      <c r="D8" s="317">
         <v>2</v>
       </c>
       <c r="E8" s="281" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" s="284">
         <v>0</v>
@@ -3534,15 +3522,15 @@
       <c r="B9" s="259" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="321">
+      <c r="C9" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D9" s="321">
+      <c r="D9" s="317">
         <v>3</v>
       </c>
       <c r="E9" s="281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F9" s="284">
         <v>100</v>
@@ -3575,15 +3563,15 @@
       <c r="B10" s="259" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="321">
+      <c r="C10" s="317">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="D10" s="321">
+      <c r="D10" s="317">
         <v>3</v>
       </c>
       <c r="E10" s="281" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F10" s="284">
         <v>100</v>
@@ -3616,15 +3604,15 @@
       <c r="B11" s="259" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="321">
+      <c r="C11" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D11" s="321">
+      <c r="D11" s="317">
         <v>3</v>
       </c>
       <c r="E11" s="281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" s="284">
         <v>100</v>
@@ -3657,11 +3645,11 @@
       <c r="B12" s="259" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="321">
+      <c r="C12" s="317">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="321">
+      <c r="D12" s="317">
         <v>0</v>
       </c>
       <c r="E12">
@@ -3698,15 +3686,15 @@
       <c r="B13" s="259" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="321">
+      <c r="C13" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D13" s="321">
+      <c r="D13" s="317">
         <v>3</v>
       </c>
       <c r="E13" s="281" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F13" s="284">
         <v>100</v>
@@ -3736,18 +3724,18 @@
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="320" t="s">
+      <c r="B14" s="316" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="321">
+      <c r="C14" s="317">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D14" s="321">
+      <c r="D14" s="317">
         <v>2</v>
       </c>
       <c r="E14" s="281" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F14" s="284">
         <v>100</v>
@@ -3780,15 +3768,15 @@
       <c r="B15" s="259" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="321">
+      <c r="C15" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D15" s="321">
+      <c r="D15" s="317">
         <v>3</v>
       </c>
       <c r="E15" s="281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F15" s="284">
         <v>100</v>
@@ -3821,15 +3809,15 @@
       <c r="B16" s="259" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="321">
+      <c r="C16" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D16" s="321">
+      <c r="D16" s="317">
         <v>3</v>
       </c>
       <c r="E16" s="281" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F16" s="284">
         <v>100</v>
@@ -3862,15 +3850,15 @@
       <c r="B17" s="259" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="321">
+      <c r="C17" s="317">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D17" s="321">
+      <c r="D17" s="317">
         <v>1</v>
       </c>
       <c r="E17" s="281" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="284">
         <v>0</v>
@@ -3903,15 +3891,15 @@
       <c r="B18" s="259" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="321">
+      <c r="C18" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D18" s="321">
+      <c r="D18" s="317">
         <v>3</v>
       </c>
       <c r="E18" s="281" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F18" s="284">
         <v>100</v>
@@ -3944,15 +3932,15 @@
       <c r="B19" s="259" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="321">
+      <c r="C19" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D19" s="321">
+      <c r="D19" s="317">
         <v>3</v>
       </c>
       <c r="E19" s="281" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="284">
         <v>100</v>
@@ -3983,17 +3971,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="259" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="321">
+        <v>225</v>
+      </c>
+      <c r="C20" s="317">
         <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="D20" s="321">
+      <c r="D20" s="317">
         <v>3</v>
       </c>
       <c r="E20" s="281" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="284">
         <v>70</v>
@@ -4026,15 +4014,15 @@
       <c r="B21" s="259" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="321">
+      <c r="C21" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D21" s="321">
+      <c r="D21" s="317">
         <v>3</v>
       </c>
       <c r="E21" s="281" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F21" s="284">
         <v>100</v>
@@ -4067,15 +4055,15 @@
       <c r="B22" s="259" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="321">
+      <c r="C22" s="317">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D22" s="321">
+      <c r="D22" s="317">
         <v>2</v>
       </c>
       <c r="E22" s="281" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F22" s="284">
         <v>100</v>
@@ -4108,15 +4096,15 @@
       <c r="B23" s="259" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="321">
+      <c r="C23" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="321">
+      <c r="D23" s="317">
         <v>3</v>
       </c>
       <c r="E23" s="281" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F23" s="284">
         <v>100</v>
@@ -4149,15 +4137,15 @@
       <c r="B24" s="259" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="321">
+      <c r="C24" s="317">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D24" s="321">
+      <c r="D24" s="317">
         <v>3</v>
       </c>
       <c r="E24" s="281" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F24" s="284">
         <v>100</v>
@@ -4190,11 +4178,11 @@
       <c r="B25" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="321">
+      <c r="C25" s="317">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="321">
+      <c r="D25" s="317">
         <v>0</v>
       </c>
       <c r="E25">
@@ -4229,17 +4217,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="259" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="321">
+        <v>292</v>
+      </c>
+      <c r="C26" s="317">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D26" s="321">
+      <c r="D26" s="317">
         <v>1</v>
       </c>
       <c r="E26" s="281" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F26" s="284">
         <v>0</v>
@@ -4270,13 +4258,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="259" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="321">
+        <v>311</v>
+      </c>
+      <c r="C27" s="317">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="321">
+      <c r="D27" s="317">
         <v>0</v>
       </c>
       <c r="E27" s="26"/>
@@ -4309,13 +4297,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="259" t="s">
-        <v>314</v>
-      </c>
-      <c r="C28" s="321">
+        <v>312</v>
+      </c>
+      <c r="C28" s="317">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="321">
+      <c r="D28" s="317">
         <v>0</v>
       </c>
       <c r="E28" s="26"/>
@@ -4345,25 +4333,25 @@
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="257" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C34" s="257"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="257" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C35" s="257"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="257" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C36" s="257"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="257" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" s="257"/>
     </row>
@@ -4398,10 +4386,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A2:V25"/>
+  <dimension ref="A2:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K12:K13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4419,11 +4407,11 @@
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="278" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="311"/>
+        <v>188</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="256"/>
       <c r="F3" s="256">
@@ -4441,86 +4429,86 @@
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="295" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="314" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="313" t="s">
+      <c r="B4" s="294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="310" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="296" t="s">
+      <c r="E4" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="296" t="s">
+      <c r="F4" s="295" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="296" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="297" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="297" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="298" t="s">
-        <v>274</v>
-      </c>
-      <c r="I4" s="298" t="s">
-        <v>324</v>
-      </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="299"/>
-      <c r="S4" s="299"/>
-      <c r="T4" s="299"/>
-      <c r="U4" s="299"/>
-      <c r="V4" s="300"/>
+      <c r="I4" s="297" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="298"/>
+      <c r="R4" s="298"/>
+      <c r="S4" s="298"/>
+      <c r="T4" s="298"/>
+      <c r="U4" s="298"/>
+      <c r="V4" s="299"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="310" t="s">
+      <c r="B5" s="307" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="328">
+      <c r="C5" s="323">
         <f>( (D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
         <v>100</v>
       </c>
-      <c r="D5" s="293">
-        <v>4</v>
-      </c>
-      <c r="E5" s="294" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="324">
-        <v>100</v>
-      </c>
-      <c r="G5" s="324">
-        <v>100</v>
-      </c>
-      <c r="H5" s="324">
-        <v>100</v>
-      </c>
-      <c r="I5" s="324">
-        <v>100</v>
-      </c>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="324"/>
-      <c r="P5" s="325"/>
-      <c r="Q5" s="325"/>
-      <c r="R5" s="325"/>
-      <c r="S5" s="325"/>
-      <c r="T5" s="325"/>
-      <c r="U5" s="325"/>
-      <c r="V5" s="325"/>
+      <c r="D5" s="292">
+        <v>5</v>
+      </c>
+      <c r="E5" s="293" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="327">
+        <v>100</v>
+      </c>
+      <c r="G5" s="327">
+        <v>100</v>
+      </c>
+      <c r="H5" s="327">
+        <v>100</v>
+      </c>
+      <c r="I5" s="327">
+        <v>100</v>
+      </c>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="320"/>
+      <c r="P5" s="321"/>
+      <c r="Q5" s="321"/>
+      <c r="R5" s="321"/>
+      <c r="S5" s="321"/>
+      <c r="T5" s="321"/>
+      <c r="U5" s="321"/>
+      <c r="V5" s="321"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
@@ -4529,832 +4517,758 @@
       <c r="B6" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="328">
-        <f t="shared" ref="C6:C25" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
-        <v>33.333333333333336</v>
+      <c r="C6" s="323">
+        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
+        <v>30</v>
       </c>
       <c r="D6" s="259">
         <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="321">
+        <v>252</v>
+      </c>
+      <c r="F6" s="317">
         <v>50</v>
       </c>
-      <c r="G6" s="321">
-        <v>0</v>
-      </c>
-      <c r="H6" s="321"/>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="321"/>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="326"/>
-      <c r="Q6" s="326"/>
-      <c r="R6" s="326"/>
-      <c r="S6" s="326"/>
-      <c r="T6" s="326"/>
-      <c r="U6" s="326"/>
-      <c r="V6" s="326"/>
+      <c r="G6" s="317">
+        <v>0</v>
+      </c>
+      <c r="H6" s="317"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
+      <c r="P6" s="322"/>
+      <c r="Q6" s="322"/>
+      <c r="R6" s="322"/>
+      <c r="S6" s="322"/>
+      <c r="T6" s="322"/>
+      <c r="U6" s="322"/>
+      <c r="V6" s="322"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
-        <v>3</v>
-      </c>
-      <c r="B7" s="307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="290" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="328">
+      <c r="C7" s="323">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="308">
-        <v>0</v>
-      </c>
-      <c r="E7" s="308">
-        <v>0</v>
-      </c>
-      <c r="F7" s="327">
-        <v>0</v>
-      </c>
-      <c r="G7" s="327">
-        <v>0</v>
-      </c>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="321"/>
-      <c r="M7" s="321"/>
-      <c r="N7" s="321"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="326"/>
-      <c r="R7" s="326"/>
-      <c r="S7" s="326"/>
-      <c r="T7" s="326"/>
-      <c r="U7" s="326"/>
-      <c r="V7" s="326"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="259">
+        <v>5</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="329">
+        <v>100</v>
+      </c>
+      <c r="G7" s="329">
+        <v>100</v>
+      </c>
+      <c r="H7" s="329">
+        <v>100</v>
+      </c>
+      <c r="I7" s="329">
+        <v>100</v>
+      </c>
+      <c r="J7" s="317"/>
+      <c r="K7" s="317"/>
+      <c r="L7" s="317"/>
+      <c r="M7" s="317"/>
+      <c r="N7" s="317"/>
+      <c r="O7" s="317"/>
+      <c r="P7" s="322"/>
+      <c r="Q7" s="322"/>
+      <c r="R7" s="322"/>
+      <c r="S7" s="322"/>
+      <c r="T7" s="322"/>
+      <c r="U7" s="322"/>
+      <c r="V7" s="322"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="290" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="328">
+      <c r="C8" s="323">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="D8" s="259">
         <v>4</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="321">
-        <v>100</v>
-      </c>
-      <c r="G8" s="321">
-        <v>100</v>
-      </c>
-      <c r="H8" s="321">
-        <v>100</v>
-      </c>
-      <c r="I8" s="321"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="321"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="326"/>
-      <c r="Q8" s="326"/>
-      <c r="R8" s="326"/>
-      <c r="S8" s="326"/>
-      <c r="T8" s="326"/>
-      <c r="U8" s="326"/>
-      <c r="V8" s="326"/>
+        <v>254</v>
+      </c>
+      <c r="F8" s="317">
+        <v>100</v>
+      </c>
+      <c r="G8" s="317">
+        <v>100</v>
+      </c>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="317"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="322"/>
+      <c r="R8" s="322"/>
+      <c r="S8" s="322"/>
+      <c r="T8" s="322"/>
+      <c r="U8" s="322"/>
+      <c r="V8" s="322"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="328">
+      <c r="C9" s="323">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="D9" s="259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="F9" s="321">
-        <v>100</v>
-      </c>
-      <c r="G9" s="321">
-        <v>100</v>
-      </c>
-      <c r="H9" s="321"/>
-      <c r="I9" s="321"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
-      <c r="M9" s="321"/>
-      <c r="N9" s="321"/>
-      <c r="O9" s="321"/>
-      <c r="P9" s="326"/>
-      <c r="Q9" s="326"/>
-      <c r="R9" s="326"/>
-      <c r="S9" s="326"/>
-      <c r="T9" s="326"/>
-      <c r="U9" s="326"/>
-      <c r="V9" s="326"/>
+        <v>255</v>
+      </c>
+      <c r="F9" s="317">
+        <v>100</v>
+      </c>
+      <c r="G9" s="317">
+        <v>90</v>
+      </c>
+      <c r="H9" s="317"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="317"/>
+      <c r="K9" s="317"/>
+      <c r="L9" s="317"/>
+      <c r="M9" s="317"/>
+      <c r="N9" s="317"/>
+      <c r="O9" s="317"/>
+      <c r="P9" s="322"/>
+      <c r="Q9" s="322"/>
+      <c r="R9" s="322"/>
+      <c r="S9" s="322"/>
+      <c r="T9" s="322"/>
+      <c r="U9" s="322"/>
+      <c r="V9" s="322"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="328">
+      <c r="C10" s="323">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D10" s="259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="321">
-        <v>100</v>
-      </c>
-      <c r="G10" s="321">
-        <v>90</v>
-      </c>
-      <c r="H10" s="321"/>
-      <c r="I10" s="321"/>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
-      <c r="M10" s="321"/>
-      <c r="N10" s="321"/>
-      <c r="O10" s="321"/>
-      <c r="P10" s="326"/>
-      <c r="Q10" s="326"/>
-      <c r="R10" s="326"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="326"/>
-      <c r="U10" s="326"/>
-      <c r="V10" s="326"/>
+        <v>256</v>
+      </c>
+      <c r="F10" s="317">
+        <v>0</v>
+      </c>
+      <c r="G10" s="317">
+        <v>0</v>
+      </c>
+      <c r="H10" s="317"/>
+      <c r="I10" s="317"/>
+      <c r="J10" s="317"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="317"/>
+      <c r="M10" s="317"/>
+      <c r="N10" s="317"/>
+      <c r="O10" s="317"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="322"/>
+      <c r="R10" s="322"/>
+      <c r="S10" s="322"/>
+      <c r="T10" s="322"/>
+      <c r="U10" s="322"/>
+      <c r="V10" s="322"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="323">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="D11" s="259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="321">
-        <v>0</v>
-      </c>
-      <c r="G11" s="321">
-        <v>0</v>
-      </c>
-      <c r="H11" s="321"/>
-      <c r="I11" s="321"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="326"/>
-      <c r="Q11" s="326"/>
-      <c r="R11" s="326"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="326"/>
+        <v>257</v>
+      </c>
+      <c r="F11" s="317">
+        <v>0</v>
+      </c>
+      <c r="G11" s="317">
+        <v>0</v>
+      </c>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="317"/>
+      <c r="K11" s="317"/>
+      <c r="L11" s="317"/>
+      <c r="M11" s="317"/>
+      <c r="N11" s="317"/>
+      <c r="O11" s="317"/>
+      <c r="P11" s="322"/>
+      <c r="Q11" s="322"/>
+      <c r="R11" s="322"/>
+      <c r="S11" s="322"/>
+      <c r="T11" s="322"/>
+      <c r="U11" s="322"/>
+      <c r="V11" s="322"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
-        <v>8</v>
-      </c>
-      <c r="B12" s="290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="291" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="328">
+      <c r="C12" s="323">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="D12" s="259">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="321">
-        <v>0</v>
-      </c>
-      <c r="G12" s="321">
-        <v>0</v>
-      </c>
-      <c r="H12" s="321"/>
-      <c r="I12" s="321"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="326"/>
-      <c r="Q12" s="326"/>
-      <c r="R12" s="326"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="326"/>
-      <c r="U12" s="326"/>
-      <c r="V12" s="326"/>
+        <v>258</v>
+      </c>
+      <c r="F12" s="317">
+        <v>100</v>
+      </c>
+      <c r="G12" s="317">
+        <v>70</v>
+      </c>
+      <c r="H12" s="317">
+        <v>70</v>
+      </c>
+      <c r="I12" s="317">
+        <v>70</v>
+      </c>
+      <c r="J12" s="317"/>
+      <c r="K12" s="317"/>
+      <c r="L12" s="317"/>
+      <c r="M12" s="317"/>
+      <c r="N12" s="317"/>
+      <c r="O12" s="317"/>
+      <c r="P12" s="322"/>
+      <c r="Q12" s="322"/>
+      <c r="R12" s="322"/>
+      <c r="S12" s="322"/>
+      <c r="T12" s="322"/>
+      <c r="U12" s="322"/>
+      <c r="V12" s="322"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
-        <v>9</v>
-      </c>
-      <c r="B13" s="292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="328">
+      <c r="C13" s="323">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="D13" s="259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="321">
-        <v>100</v>
-      </c>
-      <c r="G13" s="321">
-        <v>0</v>
-      </c>
-      <c r="H13" s="321">
-        <v>0</v>
-      </c>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="321"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="321"/>
-      <c r="P13" s="326"/>
-      <c r="Q13" s="326"/>
-      <c r="R13" s="326"/>
-      <c r="S13" s="326"/>
-      <c r="T13" s="326"/>
-      <c r="U13" s="326"/>
-      <c r="V13" s="326"/>
+        <v>259</v>
+      </c>
+      <c r="F13" s="317">
+        <v>100</v>
+      </c>
+      <c r="G13" s="317">
+        <v>100</v>
+      </c>
+      <c r="H13" s="317"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="317"/>
+      <c r="P13" s="322"/>
+      <c r="Q13" s="322"/>
+      <c r="R13" s="322"/>
+      <c r="S13" s="322"/>
+      <c r="T13" s="322"/>
+      <c r="U13" s="322"/>
+      <c r="V13" s="322"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="328">
+      <c r="C14" s="323">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="D14" s="259">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="321">
-        <v>100</v>
-      </c>
-      <c r="G14" s="321">
-        <v>100</v>
-      </c>
-      <c r="H14" s="321"/>
-      <c r="I14" s="321"/>
-      <c r="J14" s="321"/>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
-      <c r="M14" s="321"/>
-      <c r="N14" s="321"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="326"/>
-      <c r="Q14" s="326"/>
-      <c r="R14" s="326"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="326"/>
-      <c r="U14" s="326"/>
-      <c r="V14" s="326"/>
+        <v>260</v>
+      </c>
+      <c r="F14" s="317">
+        <v>0</v>
+      </c>
+      <c r="G14" s="317">
+        <v>0</v>
+      </c>
+      <c r="H14" s="317"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="317"/>
+      <c r="K14" s="317"/>
+      <c r="L14" s="317"/>
+      <c r="M14" s="317"/>
+      <c r="N14" s="317"/>
+      <c r="O14" s="317"/>
+      <c r="P14" s="322"/>
+      <c r="Q14" s="322"/>
+      <c r="R14" s="322"/>
+      <c r="S14" s="322"/>
+      <c r="T14" s="322"/>
+      <c r="U14" s="322"/>
+      <c r="V14" s="322"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="328">
+      <c r="C15" s="323">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="D15" s="259">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="321">
-        <v>0</v>
-      </c>
-      <c r="G15" s="321">
-        <v>0</v>
-      </c>
-      <c r="H15" s="321"/>
-      <c r="I15" s="321"/>
-      <c r="J15" s="321"/>
-      <c r="K15" s="321"/>
-      <c r="L15" s="321"/>
-      <c r="M15" s="321"/>
-      <c r="N15" s="321"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
+        <v>261</v>
+      </c>
+      <c r="F15" s="317">
+        <v>100</v>
+      </c>
+      <c r="G15" s="328">
+        <v>0</v>
+      </c>
+      <c r="H15" s="328">
+        <v>0</v>
+      </c>
+      <c r="I15" s="328">
+        <v>0</v>
+      </c>
+      <c r="J15" s="317"/>
+      <c r="K15" s="317"/>
+      <c r="L15" s="317"/>
+      <c r="M15" s="317"/>
+      <c r="N15" s="317"/>
+      <c r="O15" s="317"/>
+      <c r="P15" s="322"/>
+      <c r="Q15" s="322"/>
+      <c r="R15" s="322"/>
+      <c r="S15" s="322"/>
+      <c r="T15" s="322"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="322"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="290" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="328">
+        <v>223</v>
+      </c>
+      <c r="C16" s="323">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
+        <v>20</v>
       </c>
       <c r="D16" s="259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>263</v>
-      </c>
-      <c r="F16" s="321">
-        <v>100</v>
-      </c>
-      <c r="G16" s="321">
-        <v>0</v>
-      </c>
-      <c r="H16" s="321">
-        <v>0</v>
-      </c>
-      <c r="I16" s="321">
-        <v>0</v>
-      </c>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
-      <c r="P16" s="326"/>
-      <c r="Q16" s="326"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="326"/>
-      <c r="U16" s="326"/>
-      <c r="V16" s="326"/>
+        <v>262</v>
+      </c>
+      <c r="F16" s="317">
+        <v>0</v>
+      </c>
+      <c r="G16" s="317">
+        <v>0</v>
+      </c>
+      <c r="H16" s="317">
+        <v>0</v>
+      </c>
+      <c r="I16" s="317">
+        <v>0</v>
+      </c>
+      <c r="J16" s="317"/>
+      <c r="K16" s="317"/>
+      <c r="L16" s="317"/>
+      <c r="M16" s="317"/>
+      <c r="N16" s="317"/>
+      <c r="O16" s="317"/>
+      <c r="P16" s="322"/>
+      <c r="Q16" s="322"/>
+      <c r="R16" s="322"/>
+      <c r="S16" s="322"/>
+      <c r="T16" s="322"/>
+      <c r="U16" s="322"/>
+      <c r="V16" s="322"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="290" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="328">
+        <v>182</v>
+      </c>
+      <c r="C17" s="323">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="D17" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="321">
-        <v>0</v>
-      </c>
-      <c r="G17" s="321">
-        <v>0</v>
-      </c>
-      <c r="H17" s="321">
-        <v>0</v>
-      </c>
-      <c r="I17" s="321">
-        <v>0</v>
-      </c>
-      <c r="J17" s="321"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="326"/>
-      <c r="Q17" s="326"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
+        <v>263</v>
+      </c>
+      <c r="F17" s="317">
+        <v>80</v>
+      </c>
+      <c r="G17" s="317">
+        <v>100</v>
+      </c>
+      <c r="H17" s="317">
+        <v>100</v>
+      </c>
+      <c r="I17" s="317">
+        <v>100</v>
+      </c>
+      <c r="J17" s="317"/>
+      <c r="K17" s="317"/>
+      <c r="L17" s="317"/>
+      <c r="M17" s="317"/>
+      <c r="N17" s="317"/>
+      <c r="O17" s="317"/>
+      <c r="P17" s="322"/>
+      <c r="Q17" s="322"/>
+      <c r="R17" s="322"/>
+      <c r="S17" s="322"/>
+      <c r="T17" s="322"/>
+      <c r="U17" s="322"/>
+      <c r="V17" s="322"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="290" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="328">
+      <c r="C18" s="323">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="D18" s="259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="321">
-        <v>50</v>
-      </c>
-      <c r="G18" s="321">
-        <v>100</v>
-      </c>
-      <c r="H18" s="321">
-        <v>0</v>
-      </c>
-      <c r="I18" s="321">
-        <v>0</v>
-      </c>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="321"/>
-      <c r="M18" s="321"/>
-      <c r="N18" s="321"/>
-      <c r="O18" s="321"/>
-      <c r="P18" s="326"/>
-      <c r="Q18" s="326"/>
-      <c r="R18" s="326"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="326"/>
-      <c r="V18" s="326"/>
+        <v>264</v>
+      </c>
+      <c r="F18" s="329">
+        <v>100</v>
+      </c>
+      <c r="G18" s="329">
+        <v>100</v>
+      </c>
+      <c r="H18" s="329">
+        <v>90</v>
+      </c>
+      <c r="I18" s="317">
+        <v>60</v>
+      </c>
+      <c r="J18" s="317"/>
+      <c r="K18" s="317"/>
+      <c r="L18" s="317"/>
+      <c r="M18" s="317"/>
+      <c r="N18" s="317"/>
+      <c r="O18" s="317"/>
+      <c r="P18" s="322"/>
+      <c r="Q18" s="322"/>
+      <c r="R18" s="322"/>
+      <c r="S18" s="322"/>
+      <c r="T18" s="322"/>
+      <c r="U18" s="322"/>
+      <c r="V18" s="322"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="328">
+      <c r="C19" s="323">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="D19" s="259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="321">
-        <v>100</v>
-      </c>
-      <c r="G19" s="321">
-        <v>100</v>
-      </c>
-      <c r="H19" s="321">
+        <v>265</v>
+      </c>
+      <c r="F19" s="317">
+        <v>100</v>
+      </c>
+      <c r="G19" s="317">
+        <v>100</v>
+      </c>
+      <c r="H19" s="328">
         <v>60</v>
       </c>
-      <c r="I19" s="321">
+      <c r="I19" s="328">
         <v>60</v>
       </c>
-      <c r="J19" s="321"/>
-      <c r="K19" s="321"/>
-      <c r="L19" s="321"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="326"/>
-      <c r="Q19" s="326"/>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="326"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="317"/>
+      <c r="M19" s="317"/>
+      <c r="N19" s="317"/>
+      <c r="O19" s="317"/>
+      <c r="P19" s="322"/>
+      <c r="Q19" s="322"/>
+      <c r="R19" s="322"/>
+      <c r="S19" s="322"/>
+      <c r="T19" s="322"/>
+      <c r="U19" s="322"/>
+      <c r="V19" s="322"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="290" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="328">
+      <c r="C20" s="323">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D20" s="259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="321">
-        <v>100</v>
-      </c>
-      <c r="G20" s="321">
-        <v>100</v>
-      </c>
-      <c r="H20" s="321">
-        <v>60</v>
-      </c>
-      <c r="I20" s="321">
-        <v>60</v>
-      </c>
-      <c r="J20" s="321"/>
-      <c r="K20" s="321"/>
-      <c r="L20" s="321"/>
-      <c r="M20" s="321"/>
-      <c r="N20" s="321"/>
-      <c r="O20" s="321"/>
-      <c r="P20" s="326"/>
-      <c r="Q20" s="326"/>
-      <c r="R20" s="326"/>
-      <c r="S20" s="326"/>
-      <c r="T20" s="326"/>
-      <c r="U20" s="326"/>
-      <c r="V20" s="326"/>
+      <c r="F20" s="317">
+        <v>100</v>
+      </c>
+      <c r="G20" s="317">
+        <v>100</v>
+      </c>
+      <c r="H20" s="317">
+        <v>100</v>
+      </c>
+      <c r="I20" s="317">
+        <v>100</v>
+      </c>
+      <c r="J20" s="317"/>
+      <c r="K20" s="317"/>
+      <c r="L20" s="317"/>
+      <c r="M20" s="317"/>
+      <c r="N20" s="317"/>
+      <c r="O20" s="317"/>
+      <c r="P20" s="322"/>
+      <c r="Q20" s="322"/>
+      <c r="R20" s="322"/>
+      <c r="S20" s="322"/>
+      <c r="T20" s="322"/>
+      <c r="U20" s="322"/>
+      <c r="V20" s="322"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
-        <v>17</v>
-      </c>
-      <c r="B21" s="291" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="290" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="328">
+      <c r="C21" s="323">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="312">
-        <v>0</v>
-      </c>
-      <c r="E21" s="259">
-        <v>0</v>
-      </c>
-      <c r="F21" s="321">
-        <v>0</v>
-      </c>
-      <c r="G21" s="321">
-        <v>0</v>
-      </c>
-      <c r="H21" s="321"/>
-      <c r="I21" s="321"/>
-      <c r="J21" s="321"/>
-      <c r="K21" s="321"/>
-      <c r="L21" s="321"/>
-      <c r="M21" s="321"/>
-      <c r="N21" s="321"/>
-      <c r="O21" s="321"/>
-      <c r="P21" s="326"/>
-      <c r="Q21" s="326"/>
-      <c r="R21" s="326"/>
-      <c r="S21" s="326"/>
-      <c r="T21" s="326"/>
-      <c r="U21" s="326"/>
-      <c r="V21" s="326"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="D21" s="259">
+        <v>3</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="317">
+        <v>100</v>
+      </c>
+      <c r="G21" s="317">
+        <v>0</v>
+      </c>
+      <c r="H21" s="317"/>
+      <c r="I21" s="317"/>
+      <c r="J21" s="317"/>
+      <c r="K21" s="317"/>
+      <c r="L21" s="317"/>
+      <c r="M21" s="317"/>
+      <c r="N21" s="317"/>
+      <c r="O21" s="317"/>
+      <c r="P21" s="322"/>
+      <c r="Q21" s="322"/>
+      <c r="R21" s="322"/>
+      <c r="S21" s="322"/>
+      <c r="T21" s="322"/>
+      <c r="U21" s="322"/>
+      <c r="V21" s="322"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="290" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="328">
+      <c r="C22" s="323">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" s="259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="321">
-        <v>100</v>
-      </c>
-      <c r="G22" s="321">
-        <v>100</v>
-      </c>
-      <c r="H22" s="321">
-        <v>100</v>
-      </c>
-      <c r="I22" s="321">
-        <v>100</v>
-      </c>
-      <c r="J22" s="321"/>
-      <c r="K22" s="321"/>
-      <c r="L22" s="321"/>
-      <c r="M22" s="321"/>
-      <c r="N22" s="321"/>
-      <c r="O22" s="321"/>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
+      <c r="F22" s="317">
+        <v>100</v>
+      </c>
+      <c r="G22" s="317">
+        <v>100</v>
+      </c>
+      <c r="H22" s="317">
+        <v>100</v>
+      </c>
+      <c r="I22" s="317">
+        <v>100</v>
+      </c>
+      <c r="J22" s="317"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="317"/>
+      <c r="N22" s="317"/>
+      <c r="O22" s="317"/>
+      <c r="P22" s="322"/>
+      <c r="Q22" s="322"/>
+      <c r="R22" s="322"/>
+      <c r="S22" s="322"/>
+      <c r="T22" s="322"/>
+      <c r="U22" s="322"/>
+      <c r="V22" s="322"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="290" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="328">
+        <v>224</v>
+      </c>
+      <c r="C23" s="323">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" s="259">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" s="321">
-        <v>100</v>
-      </c>
-      <c r="G23" s="321">
-        <v>0</v>
-      </c>
-      <c r="H23" s="321"/>
-      <c r="I23" s="321"/>
-      <c r="J23" s="321"/>
-      <c r="K23" s="321"/>
-      <c r="L23" s="321"/>
-      <c r="M23" s="321"/>
-      <c r="N23" s="321"/>
-      <c r="O23" s="321"/>
-      <c r="P23" s="326"/>
-      <c r="Q23" s="326"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="326"/>
-      <c r="U23" s="326"/>
-      <c r="V23" s="326"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="256">
-        <v>20</v>
-      </c>
-      <c r="B24" s="290" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="328">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D24" s="259">
-        <v>4</v>
-      </c>
-      <c r="E24" s="136" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="321">
-        <v>100</v>
-      </c>
-      <c r="G24" s="321">
-        <v>100</v>
-      </c>
-      <c r="H24" s="321">
-        <v>100</v>
-      </c>
-      <c r="I24" s="321">
-        <v>100</v>
-      </c>
-      <c r="J24" s="321"/>
-      <c r="K24" s="321"/>
-      <c r="L24" s="321"/>
-      <c r="M24" s="321"/>
-      <c r="N24" s="321"/>
-      <c r="O24" s="321"/>
-      <c r="P24" s="326"/>
-      <c r="Q24" s="326"/>
-      <c r="R24" s="326"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326"/>
-      <c r="U24" s="326"/>
-      <c r="V24" s="326"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="256">
-        <v>21</v>
-      </c>
-      <c r="B25" s="290" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="328">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D25" s="259">
-        <v>4</v>
-      </c>
-      <c r="E25" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="F25" s="321">
-        <v>100</v>
-      </c>
-      <c r="G25" s="321">
-        <v>100</v>
-      </c>
-      <c r="H25" s="321"/>
-      <c r="I25" s="321"/>
-      <c r="J25" s="321"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="321"/>
-      <c r="N25" s="321"/>
-      <c r="O25" s="321"/>
-      <c r="P25" s="326"/>
-      <c r="Q25" s="326"/>
-      <c r="R25" s="326"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="326"/>
-      <c r="U25" s="326"/>
-      <c r="V25" s="326"/>
+        <v>266</v>
+      </c>
+      <c r="F23" s="317">
+        <v>100</v>
+      </c>
+      <c r="G23" s="317">
+        <v>100</v>
+      </c>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="317"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="317"/>
+      <c r="M23" s="317"/>
+      <c r="N23" s="317"/>
+      <c r="O23" s="317"/>
+      <c r="P23" s="322"/>
+      <c r="Q23" s="322"/>
+      <c r="R23" s="322"/>
+      <c r="S23" s="322"/>
+      <c r="T23" s="322"/>
+      <c r="U23" s="322"/>
+      <c r="V23" s="322"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
     <hyperlink ref="E6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
-    <hyperlink ref="E8" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
-    <hyperlink ref="E9" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
-    <hyperlink ref="E10" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
-    <hyperlink ref="E11" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
-    <hyperlink ref="E12" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
-    <hyperlink ref="E13" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
-    <hyperlink ref="E14" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
-    <hyperlink ref="E15" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
-    <hyperlink ref="E16" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
-    <hyperlink ref="E17" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
-    <hyperlink ref="E18" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
-    <hyperlink ref="E19" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
-    <hyperlink ref="E20" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
-    <hyperlink ref="E25" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
-    <hyperlink ref="E22" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
-    <hyperlink ref="E23" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
-    <hyperlink ref="E24" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
+    <hyperlink ref="E7" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
+    <hyperlink ref="E8" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
+    <hyperlink ref="E9" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
+    <hyperlink ref="E10" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
+    <hyperlink ref="E11" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
+    <hyperlink ref="E12" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
+    <hyperlink ref="E14" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
+    <hyperlink ref="E15" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
+    <hyperlink ref="E16" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
+    <hyperlink ref="E17" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
+    <hyperlink ref="E18" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
+    <hyperlink ref="E19" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
+    <hyperlink ref="E23" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
+    <hyperlink ref="E20" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
+    <hyperlink ref="E21" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
+    <hyperlink ref="E22" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -5384,9 +5298,9 @@
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
       <c r="B3" s="278" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="311"/>
+        <v>189</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="256">
         <v>4</v>
       </c>
@@ -5400,26 +5314,26 @@
       <c r="B4" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="314" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="317" t="s">
+      <c r="C4" s="310" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="313" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="316">
+      <c r="E4" s="312">
         <v>45918</v>
       </c>
       <c r="F4" s="258" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="306" t="s">
-        <v>322</v>
+        <v>270</v>
+      </c>
+      <c r="H4" s="305" t="s">
+        <v>320</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
@@ -5443,9 +5357,9 @@
         <v>1</v>
       </c>
       <c r="B5" s="290" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="329">
+        <v>190</v>
+      </c>
+      <c r="C5" s="324">
         <f>(D5/$D$3*100 + G5 + H5)/($F$3+1)</f>
         <v>66.666666666666671</v>
       </c>
@@ -5456,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="26">
         <v>100</v>
@@ -5487,9 +5401,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="290" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="329">
+        <v>191</v>
+      </c>
+      <c r="C6" s="324">
         <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6)/($F$3+1)</f>
         <v>100</v>
       </c>
@@ -5500,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G6" s="26">
         <v>100</v>
@@ -5533,9 +5447,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="290" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="329">
+        <v>192</v>
+      </c>
+      <c r="C7" s="324">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
@@ -5546,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G7" s="26">
         <v>100</v>
@@ -5579,9 +5493,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="290" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="329">
+        <v>193</v>
+      </c>
+      <c r="C8" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5592,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="136" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G8" s="26">
         <v>100</v>
@@ -5623,9 +5537,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="290" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="329">
+        <v>194</v>
+      </c>
+      <c r="C9" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5636,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="136" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G9" s="26">
         <v>100</v>
@@ -5669,9 +5583,9 @@
         <v>6</v>
       </c>
       <c r="B10" s="290" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="329">
+        <v>195</v>
+      </c>
+      <c r="C10" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5682,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="26">
         <v>100</v>
@@ -5714,10 +5628,10 @@
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="292" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="329">
+      <c r="B11" s="291" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5728,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="26">
         <v>100</v>
@@ -5759,9 +5673,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="290" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="329">
+        <v>197</v>
+      </c>
+      <c r="C12" s="324">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -5772,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G12" s="26">
         <v>100</v>
@@ -5803,9 +5717,9 @@
         <v>9</v>
       </c>
       <c r="B13" s="290" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="329">
+        <v>198</v>
+      </c>
+      <c r="C13" s="324">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
@@ -5816,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="26">
         <v>100</v>
@@ -5847,9 +5761,9 @@
         <v>10</v>
       </c>
       <c r="B14" s="290" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="329">
+        <v>199</v>
+      </c>
+      <c r="C14" s="324">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -5860,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="281" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -5891,9 +5805,9 @@
         <v>11</v>
       </c>
       <c r="B15" s="290" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="329">
+        <v>200</v>
+      </c>
+      <c r="C15" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5904,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="136" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="26">
         <v>100</v>
@@ -5937,9 +5851,9 @@
         <v>12</v>
       </c>
       <c r="B16" s="290" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="329">
+        <v>221</v>
+      </c>
+      <c r="C16" s="324">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
@@ -5950,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="136" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16" s="26">
         <v>60</v>
@@ -5981,9 +5895,9 @@
         <v>13</v>
       </c>
       <c r="B17" s="290" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="329">
+        <v>201</v>
+      </c>
+      <c r="C17" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5994,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="136" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G17" s="26">
         <v>100</v>
@@ -6025,9 +5939,9 @@
         <v>14</v>
       </c>
       <c r="B18" s="290" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="329">
+        <v>202</v>
+      </c>
+      <c r="C18" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6038,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="136" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G18" s="26">
         <v>100</v>
@@ -6069,9 +5983,9 @@
         <v>15</v>
       </c>
       <c r="B19" s="290" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="329">
+        <v>203</v>
+      </c>
+      <c r="C19" s="324">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
@@ -6082,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="281" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6113,9 +6027,9 @@
         <v>16</v>
       </c>
       <c r="B20" s="290" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="329">
+        <v>204</v>
+      </c>
+      <c r="C20" s="324">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -6126,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="136" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G20" s="26">
         <v>100</v>
@@ -6157,9 +6071,9 @@
         <v>17</v>
       </c>
       <c r="B21" s="290" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="329">
+        <v>205</v>
+      </c>
+      <c r="C21" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6170,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G21" s="26">
         <v>100</v>
@@ -6200,10 +6114,10 @@
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="309" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="329">
+      <c r="B22" s="306" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6214,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G22" s="26">
         <v>100</v>
@@ -6244,10 +6158,10 @@
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="309" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="329">
+      <c r="B23" s="306" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="324">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
@@ -6258,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G23" s="26">
         <v>100</v>
@@ -6291,9 +6205,9 @@
         <v>20</v>
       </c>
       <c r="B24" s="290" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="329">
+        <v>208</v>
+      </c>
+      <c r="C24" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6304,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="136" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G24" s="26">
         <v>100</v>
@@ -6337,9 +6251,9 @@
         <v>21</v>
       </c>
       <c r="B25" s="290" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="329">
+        <v>209</v>
+      </c>
+      <c r="C25" s="324">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -6350,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G25" s="26">
         <v>100</v>
@@ -6381,9 +6295,9 @@
         <v>22</v>
       </c>
       <c r="B26" s="290" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="329">
+        <v>210</v>
+      </c>
+      <c r="C26" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6394,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="136" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G26" s="26">
         <v>100</v>
@@ -6424,10 +6338,10 @@
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="309" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="329">
+      <c r="B27" s="306" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6438,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="136" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G27" s="26">
         <v>100</v>
@@ -6471,9 +6385,9 @@
         <v>24</v>
       </c>
       <c r="B28" s="290" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="329">
+        <v>212</v>
+      </c>
+      <c r="C28" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6484,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G28" s="26">
         <v>100</v>
@@ -6515,9 +6429,9 @@
         <v>25</v>
       </c>
       <c r="B29" s="290" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="329">
+        <v>213</v>
+      </c>
+      <c r="C29" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6528,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G29" s="26">
         <v>100</v>
@@ -6560,10 +6474,10 @@
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="309" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="329">
+      <c r="B30" s="306" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="324">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6574,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="136" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G30" s="26">
         <v>100</v>
@@ -6802,7 +6716,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -6893,16 +6807,16 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>146</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM2" s="21"/>
       <c r="AN2" s="23"/>
@@ -6914,7 +6828,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="326" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -7023,7 +6937,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -7363,7 +7277,7 @@
       <c r="AP6" s="26"/>
     </row>
     <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="330" t="s">
+      <c r="A7" s="325" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7699,7 +7613,7 @@
       <c r="AP9" s="26"/>
     </row>
     <row r="10" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="330" t="s">
+      <c r="A10" s="325" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -8257,7 +8171,7 @@
       <c r="AP14" s="25"/>
     </row>
     <row r="15" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="325" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8268,7 +8182,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F15" s="28">
         <v>1</v>
@@ -8369,7 +8283,7 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="330" t="s">
+      <c r="A16" s="325" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="25">
@@ -8711,7 +8625,7 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="325" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="25">
@@ -8937,7 +8851,7 @@
       <c r="AP20" s="26"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="330" t="s">
+      <c r="A21" s="325" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="25">
@@ -9277,7 +9191,7 @@
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="330" t="s">
+      <c r="A24" s="325" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="25">
@@ -9616,7 +9530,7 @@
     </row>
     <row r="27" spans="1:63" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="247" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="25">
         <v>0</v>
@@ -12336,80 +12250,80 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="283" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="283" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C3" s="283" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="283" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="283" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="283" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="283" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="283" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="283" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="283" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="283" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="283" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="283" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="283" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="283" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="283" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7330131-3304-4DC7-AB63-73208E1B5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B007990-2A48-4AC9-A502-2007668D1EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="313">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1446,15 +1446,6 @@
     <t>https://github.com/Nikitulka0120/Android-project</t>
   </si>
   <si>
-    <t>ПР0. Git</t>
-  </si>
-  <si>
-    <t>ПР1. Class</t>
-  </si>
-  <si>
-    <t>ПР2. Наследование. Threads</t>
-  </si>
-  <si>
     <t>https://github.com/dokbrawn/visprog</t>
   </si>
   <si>
@@ -1518,57 +1509,15 @@
     <t>https://github.com/qwertynhappy-del/Visual_p_Brovchenko</t>
   </si>
   <si>
-    <t>ПР.1 Основы ООП.</t>
-  </si>
-  <si>
     <t>Global List</t>
   </si>
   <si>
     <t>Visual Programming</t>
   </si>
   <si>
-    <t>ПР1. Основы ООП.</t>
-  </si>
-  <si>
-    <t>ПР2. Наследование. Thread.</t>
-  </si>
-  <si>
-    <t>ПР3. Интерфейсы.</t>
-  </si>
-  <si>
-    <t>ПР4. Android. Основы.</t>
-  </si>
-  <si>
-    <t>ПР5. Android. Виджеты.</t>
-  </si>
-  <si>
-    <t>ПР6. Android. Калькулятор.</t>
-  </si>
-  <si>
-    <t>Пр7. Android. МедиаПлеер.</t>
-  </si>
-  <si>
     <t>ПР0. Git.</t>
   </si>
   <si>
-    <t>ПР8. Android. Json.</t>
-  </si>
-  <si>
-    <t>ПР9. Android. Местоположение Телефона</t>
-  </si>
-  <si>
-    <t>ПР10. Android. Информация о 2\3\4\5G.</t>
-  </si>
-  <si>
-    <t>ПР11. Android. Сокеты.</t>
-  </si>
-  <si>
-    <t>ПР12. Desktop. Python. Сокеты</t>
-  </si>
-  <si>
-    <t>ПР13. Desktop. База данных.</t>
-  </si>
-  <si>
     <t>Богатырев Юрий А.</t>
   </si>
   <si>
@@ -1590,19 +1539,40 @@
     <t>УСПЕВАЕМОСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">ПР.2 </t>
-  </si>
-  <si>
     <t>https://github.com/AntonIsov/</t>
   </si>
   <si>
-    <t>ПР1. Human</t>
-  </si>
-  <si>
-    <t>ПР2. Интерфейсы</t>
-  </si>
-  <si>
-    <t>ПР3. Интерфейсы</t>
+    <t>ПР4. Android. Калькулятор.</t>
+  </si>
+  <si>
+    <t>Пр5. Android. МедиаПлеер.</t>
+  </si>
+  <si>
+    <t>ПР6. Android. Местоположение Телефона</t>
+  </si>
+  <si>
+    <t>ПР7. Android. Информация о 2\3\4\5G.</t>
+  </si>
+  <si>
+    <t>ПР1. Kotlin. Основы ООП.</t>
+  </si>
+  <si>
+    <t>ПР2. Kotlin. Наследование. Thread.</t>
+  </si>
+  <si>
+    <t>ПР3. Kotlin. Интерфейсы.</t>
+  </si>
+  <si>
+    <t>ПР8. Desktop. Python\Clang. Сокеты</t>
+  </si>
+  <si>
+    <t>ПР9. Android-Desktop. ZeroMQ.</t>
+  </si>
+  <si>
+    <t>ПР10. Android-Desktop. Data-классы. Сериализация.</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2282,13 +2252,51 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2299,7 +2307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2752,9 +2760,6 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2813,7 +2818,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2826,8 +2830,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2839,11 +2841,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2858,10 +2855,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2880,6 +2873,61 @@
     <xf numFmtId="1" fontId="17" fillId="33" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="24" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3278,10 +3326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A2:X37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,104 +3339,164 @@
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F1" s="338" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="339" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="340" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="340" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="340" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="340" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="340" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="340" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="340" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="340" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="341" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="342"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="343"/>
+    </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="280" t="s">
+      <c r="B3" s="279" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="279">
+      <c r="C3" s="304"/>
+      <c r="D3" s="278">
         <v>3</v>
       </c>
-      <c r="E3" s="279"/>
-      <c r="F3" s="114">
+      <c r="E3" s="278">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="342"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="343"/>
+    </row>
+    <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="314" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="315" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="309" t="s">
+      <c r="B4" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="303" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="302" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="295" t="s">
+      <c r="E4" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="303" t="str">
-        <f>CONST!C3</f>
-        <v>ПР0. Git.</v>
-      </c>
-      <c r="G4" s="304" t="s">
-        <v>294</v>
-      </c>
-      <c r="H4" s="298" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="298"/>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="298"/>
-      <c r="W4" s="299"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336"/>
+      <c r="M4" s="336"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="345"/>
+      <c r="Q4" s="319" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" s="294"/>
+      <c r="S4" s="294"/>
+      <c r="T4" s="294"/>
+      <c r="U4" s="294"/>
+      <c r="V4" s="294"/>
+      <c r="W4" s="295"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="290" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="317">
-        <f>((D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
+      <c r="C5" s="309">
+        <f>((D5/$D$3)*100 + F5 + G5)/($E$3+1)</f>
         <v>11.111111111111109</v>
       </c>
-      <c r="D5" s="318">
-        <v>1</v>
-      </c>
-      <c r="E5" s="281" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="300">
-        <v>0</v>
-      </c>
-      <c r="G5" s="301">
-        <v>0</v>
-      </c>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="285"/>
-      <c r="R5" s="285"/>
-      <c r="S5" s="285"/>
-      <c r="T5" s="285"/>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
+      <c r="D5" s="307">
+        <v>1</v>
+      </c>
+      <c r="E5" s="280" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="296">
+        <v>0</v>
+      </c>
+      <c r="G5" s="297">
+        <v>0</v>
+      </c>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="284"/>
+      <c r="R5" s="284"/>
+      <c r="S5" s="284"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="285"/>
+      <c r="V5" s="285"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
@@ -3396,40 +3504,40 @@
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="258" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="317">
-        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
+      <c r="C6" s="309">
+        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($E$3+1)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="D6" s="319">
+      <c r="D6" s="308">
         <v>3</v>
       </c>
-      <c r="E6" s="281" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="287">
-        <v>100</v>
-      </c>
-      <c r="G6" s="282">
-        <v>0</v>
-      </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="284"/>
-      <c r="O6" s="285"/>
-      <c r="P6" s="285"/>
-      <c r="Q6" s="285"/>
-      <c r="R6" s="285"/>
-      <c r="S6" s="285"/>
-      <c r="T6" s="285"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="286"/>
+      <c r="E6" s="280" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="286">
+        <v>100</v>
+      </c>
+      <c r="G6" s="281">
+        <v>0</v>
+      </c>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="284"/>
+      <c r="R6" s="284"/>
+      <c r="S6" s="284"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="285"/>
+      <c r="V6" s="285"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
@@ -3437,40 +3545,40 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="317">
+      <c r="C7" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D7" s="319">
+      <c r="D7" s="308">
         <v>3</v>
       </c>
-      <c r="E7" s="281" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="288">
-        <v>100</v>
-      </c>
-      <c r="G7" s="282">
-        <v>100</v>
-      </c>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="284"/>
-      <c r="N7" s="284"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="285"/>
-      <c r="Q7" s="285"/>
-      <c r="R7" s="285"/>
-      <c r="S7" s="285"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="286"/>
-      <c r="V7" s="286"/>
+      <c r="E7" s="280" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="287">
+        <v>100</v>
+      </c>
+      <c r="G7" s="281">
+        <v>100</v>
+      </c>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="283"/>
+      <c r="L7" s="283"/>
+      <c r="M7" s="283"/>
+      <c r="N7" s="283"/>
+      <c r="O7" s="283"/>
+      <c r="P7" s="283"/>
+      <c r="Q7" s="284"/>
+      <c r="R7" s="284"/>
+      <c r="S7" s="284"/>
+      <c r="T7" s="284"/>
+      <c r="U7" s="285"/>
+      <c r="V7" s="285"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
@@ -3478,40 +3586,40 @@
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="317">
+      <c r="C8" s="309">
         <f t="shared" si="0"/>
         <v>22.222222222222218</v>
       </c>
-      <c r="D8" s="317">
+      <c r="D8" s="306">
         <v>2</v>
       </c>
-      <c r="E8" s="281" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" s="284">
-        <v>0</v>
-      </c>
-      <c r="G8" s="284">
-        <v>0</v>
-      </c>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="285"/>
-      <c r="P8" s="285"/>
-      <c r="Q8" s="285"/>
-      <c r="R8" s="285"/>
-      <c r="S8" s="285"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="286"/>
-      <c r="V8" s="286"/>
+      <c r="E8" s="280" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="283">
+        <v>0</v>
+      </c>
+      <c r="G8" s="283">
+        <v>0</v>
+      </c>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="283"/>
+      <c r="Q8" s="284"/>
+      <c r="R8" s="284"/>
+      <c r="S8" s="284"/>
+      <c r="T8" s="284"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="285"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
@@ -3519,40 +3627,40 @@
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="258" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="317">
+      <c r="C9" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D9" s="317">
+      <c r="D9" s="306">
         <v>3</v>
       </c>
-      <c r="E9" s="281" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="284">
-        <v>100</v>
-      </c>
-      <c r="G9" s="284">
-        <v>100</v>
-      </c>
-      <c r="H9" s="284"/>
-      <c r="I9" s="284"/>
-      <c r="J9" s="284"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="284"/>
-      <c r="M9" s="284"/>
-      <c r="N9" s="284"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="285"/>
-      <c r="Q9" s="285"/>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="286"/>
+      <c r="E9" s="280" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="283">
+        <v>100</v>
+      </c>
+      <c r="G9" s="283">
+        <v>100</v>
+      </c>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="283"/>
+      <c r="Q9" s="284"/>
+      <c r="R9" s="284"/>
+      <c r="S9" s="284"/>
+      <c r="T9" s="284"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="285"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
@@ -3560,40 +3668,40 @@
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="258" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="317">
+      <c r="C10" s="309">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="D10" s="317">
+      <c r="D10" s="306">
         <v>3</v>
       </c>
-      <c r="E10" s="281" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="284">
-        <v>100</v>
-      </c>
-      <c r="G10" s="284">
+      <c r="E10" s="280" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="283">
+        <v>100</v>
+      </c>
+      <c r="G10" s="283">
         <v>90</v>
       </c>
-      <c r="H10" s="284"/>
-      <c r="I10" s="284"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="284"/>
-      <c r="L10" s="284"/>
-      <c r="M10" s="284"/>
-      <c r="N10" s="284"/>
-      <c r="O10" s="285"/>
-      <c r="P10" s="285"/>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="285"/>
-      <c r="S10" s="285"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="286"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="283"/>
+      <c r="K10" s="283"/>
+      <c r="L10" s="283"/>
+      <c r="M10" s="283"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="283"/>
+      <c r="P10" s="283"/>
+      <c r="Q10" s="284"/>
+      <c r="R10" s="284"/>
+      <c r="S10" s="284"/>
+      <c r="T10" s="284"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="285"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
@@ -3601,40 +3709,40 @@
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="259" t="s">
+      <c r="B11" s="258" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="317">
+      <c r="C11" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D11" s="317">
+      <c r="D11" s="306">
         <v>3</v>
       </c>
-      <c r="E11" s="281" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="284">
-        <v>100</v>
-      </c>
-      <c r="G11" s="284">
-        <v>100</v>
-      </c>
-      <c r="H11" s="284"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="284"/>
-      <c r="K11" s="284"/>
-      <c r="L11" s="284"/>
-      <c r="M11" s="284"/>
-      <c r="N11" s="284"/>
-      <c r="O11" s="285"/>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="285"/>
-      <c r="R11" s="285"/>
-      <c r="S11" s="285"/>
-      <c r="T11" s="285"/>
-      <c r="U11" s="286"/>
-      <c r="V11" s="286"/>
+      <c r="E11" s="280" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="283">
+        <v>100</v>
+      </c>
+      <c r="G11" s="283">
+        <v>100</v>
+      </c>
+      <c r="H11" s="283"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="283"/>
+      <c r="K11" s="283"/>
+      <c r="L11" s="283"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="283"/>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="284"/>
+      <c r="R11" s="284"/>
+      <c r="S11" s="284"/>
+      <c r="T11" s="284"/>
+      <c r="U11" s="285"/>
+      <c r="V11" s="285"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
@@ -3642,40 +3750,40 @@
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="258" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="317">
+      <c r="C12" s="309">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="317">
+      <c r="D12" s="306">
         <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="284">
-        <v>0</v>
-      </c>
-      <c r="G12" s="284">
-        <v>0</v>
-      </c>
-      <c r="H12" s="284"/>
-      <c r="I12" s="284"/>
-      <c r="J12" s="284"/>
-      <c r="K12" s="284"/>
-      <c r="L12" s="284"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="284"/>
-      <c r="O12" s="285"/>
-      <c r="P12" s="285"/>
-      <c r="Q12" s="285"/>
-      <c r="R12" s="285"/>
-      <c r="S12" s="285"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="286"/>
+      <c r="F12" s="283">
+        <v>0</v>
+      </c>
+      <c r="G12" s="283">
+        <v>0</v>
+      </c>
+      <c r="H12" s="283"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="283"/>
+      <c r="O12" s="283"/>
+      <c r="P12" s="283"/>
+      <c r="Q12" s="284"/>
+      <c r="R12" s="284"/>
+      <c r="S12" s="284"/>
+      <c r="T12" s="284"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
@@ -3683,40 +3791,40 @@
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="259" t="s">
+      <c r="B13" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="317">
+      <c r="C13" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D13" s="317">
+      <c r="D13" s="306">
         <v>3</v>
       </c>
-      <c r="E13" s="281" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="284">
-        <v>100</v>
-      </c>
-      <c r="G13" s="284">
-        <v>100</v>
-      </c>
-      <c r="H13" s="284"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="284"/>
-      <c r="L13" s="284"/>
-      <c r="M13" s="284"/>
-      <c r="N13" s="284"/>
-      <c r="O13" s="285"/>
-      <c r="P13" s="285"/>
-      <c r="Q13" s="285"/>
-      <c r="R13" s="285"/>
-      <c r="S13" s="285"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="286"/>
-      <c r="V13" s="286"/>
+      <c r="E13" s="280" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="283">
+        <v>100</v>
+      </c>
+      <c r="G13" s="283">
+        <v>100</v>
+      </c>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="283"/>
+      <c r="M13" s="283"/>
+      <c r="N13" s="283"/>
+      <c r="O13" s="283"/>
+      <c r="P13" s="283"/>
+      <c r="Q13" s="284"/>
+      <c r="R13" s="284"/>
+      <c r="S13" s="284"/>
+      <c r="T13" s="284"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="285"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
@@ -3724,40 +3832,40 @@
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="316" t="s">
+      <c r="B14" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="317">
+      <c r="C14" s="309">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D14" s="317">
+      <c r="D14" s="306">
         <v>2</v>
       </c>
-      <c r="E14" s="281" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="284">
-        <v>100</v>
-      </c>
-      <c r="G14" s="284">
-        <v>100</v>
-      </c>
-      <c r="H14" s="284"/>
-      <c r="I14" s="284"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="284"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="284"/>
-      <c r="N14" s="284"/>
-      <c r="O14" s="285"/>
-      <c r="P14" s="285"/>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="285"/>
-      <c r="S14" s="285"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="286"/>
-      <c r="V14" s="286"/>
+      <c r="E14" s="280" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="283">
+        <v>100</v>
+      </c>
+      <c r="G14" s="283">
+        <v>100</v>
+      </c>
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="283"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="283"/>
+      <c r="M14" s="283"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="283"/>
+      <c r="P14" s="283"/>
+      <c r="Q14" s="284"/>
+      <c r="R14" s="284"/>
+      <c r="S14" s="284"/>
+      <c r="T14" s="284"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
@@ -3765,40 +3873,40 @@
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="259" t="s">
+      <c r="B15" s="258" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="317">
+      <c r="C15" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D15" s="317">
+      <c r="D15" s="306">
         <v>3</v>
       </c>
-      <c r="E15" s="281" t="s">
-        <v>282</v>
-      </c>
-      <c r="F15" s="284">
-        <v>100</v>
-      </c>
-      <c r="G15" s="284">
-        <v>100</v>
-      </c>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284"/>
-      <c r="L15" s="284"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="284"/>
-      <c r="O15" s="285"/>
-      <c r="P15" s="285"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="286"/>
+      <c r="E15" s="280" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="283">
+        <v>100</v>
+      </c>
+      <c r="G15" s="283">
+        <v>100</v>
+      </c>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="283"/>
+      <c r="K15" s="283"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="283"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="283"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="284"/>
+      <c r="R15" s="284"/>
+      <c r="S15" s="284"/>
+      <c r="T15" s="284"/>
+      <c r="U15" s="285"/>
+      <c r="V15" s="285"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
@@ -3806,40 +3914,40 @@
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="259" t="s">
+      <c r="B16" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="317">
+      <c r="C16" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D16" s="317">
+      <c r="D16" s="306">
         <v>3</v>
       </c>
-      <c r="E16" s="281" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="284">
-        <v>100</v>
-      </c>
-      <c r="G16" s="284">
-        <v>100</v>
-      </c>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="284"/>
-      <c r="L16" s="284"/>
-      <c r="M16" s="284"/>
-      <c r="N16" s="284"/>
-      <c r="O16" s="285"/>
-      <c r="P16" s="285"/>
-      <c r="Q16" s="285"/>
-      <c r="R16" s="285"/>
-      <c r="S16" s="285"/>
-      <c r="T16" s="285"/>
-      <c r="U16" s="286"/>
-      <c r="V16" s="286"/>
+      <c r="E16" s="280" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="283">
+        <v>100</v>
+      </c>
+      <c r="G16" s="283">
+        <v>100</v>
+      </c>
+      <c r="H16" s="283"/>
+      <c r="I16" s="283"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="283"/>
+      <c r="L16" s="283"/>
+      <c r="M16" s="283"/>
+      <c r="N16" s="283"/>
+      <c r="O16" s="283"/>
+      <c r="P16" s="283"/>
+      <c r="Q16" s="284"/>
+      <c r="R16" s="284"/>
+      <c r="S16" s="284"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="285"/>
+      <c r="V16" s="285"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
@@ -3847,40 +3955,40 @@
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="259" t="s">
+      <c r="B17" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="317">
+      <c r="C17" s="309">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D17" s="317">
-        <v>1</v>
-      </c>
-      <c r="E17" s="281" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="284">
-        <v>0</v>
-      </c>
-      <c r="G17" s="284">
-        <v>0</v>
-      </c>
-      <c r="H17" s="284"/>
-      <c r="I17" s="284"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="284"/>
-      <c r="L17" s="284"/>
-      <c r="M17" s="284"/>
-      <c r="N17" s="284"/>
-      <c r="O17" s="285"/>
-      <c r="P17" s="285"/>
-      <c r="Q17" s="285"/>
-      <c r="R17" s="285"/>
-      <c r="S17" s="285"/>
-      <c r="T17" s="285"/>
-      <c r="U17" s="286"/>
-      <c r="V17" s="286"/>
+      <c r="D17" s="306">
+        <v>1</v>
+      </c>
+      <c r="E17" s="280" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="283">
+        <v>0</v>
+      </c>
+      <c r="G17" s="283">
+        <v>0</v>
+      </c>
+      <c r="H17" s="283"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="283"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="283"/>
+      <c r="N17" s="283"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="284"/>
+      <c r="R17" s="284"/>
+      <c r="S17" s="284"/>
+      <c r="T17" s="284"/>
+      <c r="U17" s="285"/>
+      <c r="V17" s="285"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
@@ -3888,40 +3996,40 @@
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="259" t="s">
+      <c r="B18" s="258" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="317">
+      <c r="C18" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D18" s="317">
+      <c r="D18" s="306">
         <v>3</v>
       </c>
-      <c r="E18" s="281" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="284">
-        <v>100</v>
-      </c>
-      <c r="G18" s="284">
-        <v>100</v>
-      </c>
-      <c r="H18" s="284"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="284"/>
-      <c r="K18" s="284"/>
-      <c r="L18" s="284"/>
-      <c r="M18" s="284"/>
-      <c r="N18" s="284"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="285"/>
-      <c r="R18" s="285"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="285"/>
-      <c r="U18" s="286"/>
-      <c r="V18" s="286"/>
+      <c r="E18" s="280" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="283">
+        <v>100</v>
+      </c>
+      <c r="G18" s="283">
+        <v>100</v>
+      </c>
+      <c r="H18" s="283"/>
+      <c r="I18" s="283"/>
+      <c r="J18" s="283"/>
+      <c r="K18" s="283"/>
+      <c r="L18" s="283"/>
+      <c r="M18" s="283"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="283"/>
+      <c r="P18" s="283"/>
+      <c r="Q18" s="284"/>
+      <c r="R18" s="284"/>
+      <c r="S18" s="284"/>
+      <c r="T18" s="284"/>
+      <c r="U18" s="285"/>
+      <c r="V18" s="285"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
@@ -3929,40 +4037,40 @@
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="259" t="s">
+      <c r="B19" s="258" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="317">
+      <c r="C19" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D19" s="317">
+      <c r="D19" s="306">
         <v>3</v>
       </c>
-      <c r="E19" s="281" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="284">
-        <v>100</v>
-      </c>
-      <c r="G19" s="284">
-        <v>100</v>
-      </c>
-      <c r="H19" s="284"/>
-      <c r="I19" s="284"/>
-      <c r="J19" s="284"/>
-      <c r="K19" s="284"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="284"/>
-      <c r="N19" s="284"/>
-      <c r="O19" s="285"/>
-      <c r="P19" s="285"/>
-      <c r="Q19" s="285"/>
-      <c r="R19" s="285"/>
-      <c r="S19" s="285"/>
-      <c r="T19" s="285"/>
-      <c r="U19" s="286"/>
-      <c r="V19" s="286"/>
+      <c r="E19" s="280" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="283">
+        <v>100</v>
+      </c>
+      <c r="G19" s="283">
+        <v>100</v>
+      </c>
+      <c r="H19" s="283"/>
+      <c r="I19" s="283"/>
+      <c r="J19" s="283"/>
+      <c r="K19" s="283"/>
+      <c r="L19" s="283"/>
+      <c r="M19" s="283"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="283"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="284"/>
+      <c r="R19" s="284"/>
+      <c r="S19" s="284"/>
+      <c r="T19" s="284"/>
+      <c r="U19" s="285"/>
+      <c r="V19" s="285"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
@@ -3970,40 +4078,40 @@
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="259" t="s">
+      <c r="B20" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="317">
+      <c r="C20" s="309">
         <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="D20" s="317">
+      <c r="D20" s="306">
         <v>3</v>
       </c>
-      <c r="E20" s="281" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="284">
+      <c r="E20" s="280" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="283">
         <v>70</v>
       </c>
-      <c r="G20" s="284">
-        <v>0</v>
-      </c>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="284"/>
-      <c r="N20" s="284"/>
-      <c r="O20" s="285"/>
-      <c r="P20" s="285"/>
-      <c r="Q20" s="285"/>
-      <c r="R20" s="285"/>
-      <c r="S20" s="285"/>
-      <c r="T20" s="285"/>
-      <c r="U20" s="286"/>
-      <c r="V20" s="286"/>
+      <c r="G20" s="283">
+        <v>0</v>
+      </c>
+      <c r="H20" s="283"/>
+      <c r="I20" s="283"/>
+      <c r="J20" s="283"/>
+      <c r="K20" s="283"/>
+      <c r="L20" s="283"/>
+      <c r="M20" s="283"/>
+      <c r="N20" s="283"/>
+      <c r="O20" s="283"/>
+      <c r="P20" s="283"/>
+      <c r="Q20" s="284"/>
+      <c r="R20" s="284"/>
+      <c r="S20" s="284"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="285"/>
+      <c r="V20" s="285"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
@@ -4011,40 +4119,40 @@
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="259" t="s">
+      <c r="B21" s="258" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="317">
+      <c r="C21" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D21" s="317">
+      <c r="D21" s="306">
         <v>3</v>
       </c>
-      <c r="E21" s="281" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="284">
-        <v>100</v>
-      </c>
-      <c r="G21" s="284">
-        <v>100</v>
-      </c>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="284"/>
-      <c r="N21" s="284"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="285"/>
-      <c r="Q21" s="285"/>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="286"/>
+      <c r="E21" s="280" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="283">
+        <v>100</v>
+      </c>
+      <c r="G21" s="283">
+        <v>100</v>
+      </c>
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="284"/>
+      <c r="R21" s="284"/>
+      <c r="S21" s="284"/>
+      <c r="T21" s="284"/>
+      <c r="U21" s="285"/>
+      <c r="V21" s="285"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
@@ -4052,40 +4160,40 @@
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="259" t="s">
+      <c r="B22" s="258" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="317">
+      <c r="C22" s="309">
         <f t="shared" si="0"/>
         <v>88.888888888888872</v>
       </c>
-      <c r="D22" s="317">
+      <c r="D22" s="306">
         <v>2</v>
       </c>
-      <c r="E22" s="281" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="284">
-        <v>100</v>
-      </c>
-      <c r="G22" s="284">
-        <v>100</v>
-      </c>
-      <c r="H22" s="284"/>
-      <c r="I22" s="284"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="284"/>
-      <c r="N22" s="284"/>
-      <c r="O22" s="285"/>
-      <c r="P22" s="285"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="285"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="285"/>
-      <c r="U22" s="286"/>
-      <c r="V22" s="286"/>
+      <c r="E22" s="280" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="283">
+        <v>100</v>
+      </c>
+      <c r="G22" s="283">
+        <v>100</v>
+      </c>
+      <c r="H22" s="283"/>
+      <c r="I22" s="283"/>
+      <c r="J22" s="283"/>
+      <c r="K22" s="283"/>
+      <c r="L22" s="283"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="283"/>
+      <c r="P22" s="283"/>
+      <c r="Q22" s="284"/>
+      <c r="R22" s="284"/>
+      <c r="S22" s="284"/>
+      <c r="T22" s="284"/>
+      <c r="U22" s="285"/>
+      <c r="V22" s="285"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
@@ -4093,40 +4201,40 @@
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="259" t="s">
+      <c r="B23" s="258" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="317">
+      <c r="C23" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="317">
+      <c r="D23" s="306">
         <v>3</v>
       </c>
-      <c r="E23" s="281" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="284">
-        <v>100</v>
-      </c>
-      <c r="G23" s="284">
-        <v>100</v>
-      </c>
-      <c r="H23" s="284"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="284"/>
-      <c r="K23" s="284"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="284"/>
-      <c r="N23" s="284"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="285"/>
-      <c r="Q23" s="285"/>
-      <c r="R23" s="285"/>
-      <c r="S23" s="285"/>
-      <c r="T23" s="285"/>
-      <c r="U23" s="286"/>
-      <c r="V23" s="286"/>
+      <c r="E23" s="280" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="283">
+        <v>100</v>
+      </c>
+      <c r="G23" s="283">
+        <v>100</v>
+      </c>
+      <c r="H23" s="283"/>
+      <c r="I23" s="283"/>
+      <c r="J23" s="283"/>
+      <c r="K23" s="283"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="283"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="283"/>
+      <c r="P23" s="283"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="284"/>
+      <c r="S23" s="284"/>
+      <c r="T23" s="284"/>
+      <c r="U23" s="285"/>
+      <c r="V23" s="285"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
@@ -4134,40 +4242,40 @@
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="259" t="s">
+      <c r="B24" s="258" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="317">
+      <c r="C24" s="309">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D24" s="317">
+      <c r="D24" s="306">
         <v>3</v>
       </c>
-      <c r="E24" s="281" t="s">
-        <v>291</v>
-      </c>
-      <c r="F24" s="284">
-        <v>100</v>
-      </c>
-      <c r="G24" s="284">
-        <v>100</v>
-      </c>
-      <c r="H24" s="284"/>
-      <c r="I24" s="284"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="284"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="285"/>
-      <c r="S24" s="285"/>
-      <c r="T24" s="285"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="286"/>
+      <c r="E24" s="280" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="283">
+        <v>100</v>
+      </c>
+      <c r="G24" s="283">
+        <v>100</v>
+      </c>
+      <c r="H24" s="283"/>
+      <c r="I24" s="283"/>
+      <c r="J24" s="283"/>
+      <c r="K24" s="283"/>
+      <c r="L24" s="283"/>
+      <c r="M24" s="283"/>
+      <c r="N24" s="283"/>
+      <c r="O24" s="283"/>
+      <c r="P24" s="283"/>
+      <c r="Q24" s="284"/>
+      <c r="R24" s="284"/>
+      <c r="S24" s="284"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="285"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
@@ -4175,40 +4283,40 @@
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="259" t="s">
+      <c r="B25" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="317">
+      <c r="C25" s="309">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="317">
+      <c r="D25" s="306">
         <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="284">
-        <v>0</v>
-      </c>
-      <c r="G25" s="284">
-        <v>0</v>
-      </c>
-      <c r="H25" s="284"/>
-      <c r="I25" s="284"/>
-      <c r="J25" s="284"/>
-      <c r="K25" s="284"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="284"/>
-      <c r="N25" s="284"/>
-      <c r="O25" s="285"/>
-      <c r="P25" s="285"/>
-      <c r="Q25" s="285"/>
-      <c r="R25" s="285"/>
-      <c r="S25" s="285"/>
-      <c r="T25" s="285"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="286"/>
+      <c r="F25" s="283">
+        <v>0</v>
+      </c>
+      <c r="G25" s="283">
+        <v>0</v>
+      </c>
+      <c r="H25" s="283"/>
+      <c r="I25" s="283"/>
+      <c r="J25" s="283"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="283"/>
+      <c r="M25" s="283"/>
+      <c r="N25" s="283"/>
+      <c r="O25" s="283"/>
+      <c r="P25" s="283"/>
+      <c r="Q25" s="284"/>
+      <c r="R25" s="284"/>
+      <c r="S25" s="284"/>
+      <c r="T25" s="284"/>
+      <c r="U25" s="285"/>
+      <c r="V25" s="285"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
@@ -4216,40 +4324,40 @@
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="259" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="317">
+      <c r="B26" s="258" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="309">
         <f t="shared" si="0"/>
         <v>11.111111111111109</v>
       </c>
-      <c r="D26" s="317">
-        <v>1</v>
-      </c>
-      <c r="E26" s="281" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="284">
-        <v>0</v>
-      </c>
-      <c r="G26" s="284">
-        <v>0</v>
-      </c>
-      <c r="H26" s="284"/>
-      <c r="I26" s="284"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="284"/>
-      <c r="O26" s="285"/>
-      <c r="P26" s="285"/>
-      <c r="Q26" s="285"/>
-      <c r="R26" s="285"/>
-      <c r="S26" s="285"/>
-      <c r="T26" s="285"/>
-      <c r="U26" s="286"/>
-      <c r="V26" s="286"/>
+      <c r="D26" s="306">
+        <v>1</v>
+      </c>
+      <c r="E26" s="280" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="283">
+        <v>0</v>
+      </c>
+      <c r="G26" s="283">
+        <v>0</v>
+      </c>
+      <c r="H26" s="283"/>
+      <c r="I26" s="283"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+      <c r="N26" s="283"/>
+      <c r="O26" s="283"/>
+      <c r="P26" s="283"/>
+      <c r="Q26" s="284"/>
+      <c r="R26" s="284"/>
+      <c r="S26" s="284"/>
+      <c r="T26" s="284"/>
+      <c r="U26" s="285"/>
+      <c r="V26" s="285"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
@@ -4257,38 +4365,38 @@
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="259" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="317">
+      <c r="B27" s="258" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="309">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="317">
+      <c r="D27" s="306">
         <v>0</v>
       </c>
       <c r="E27" s="26"/>
-      <c r="F27" s="284">
-        <v>0</v>
-      </c>
-      <c r="G27" s="284">
-        <v>0</v>
-      </c>
-      <c r="H27" s="284"/>
-      <c r="I27" s="284"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="284"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="284"/>
-      <c r="N27" s="284"/>
-      <c r="O27" s="285"/>
-      <c r="P27" s="285"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="285"/>
-      <c r="S27" s="285"/>
-      <c r="T27" s="285"/>
-      <c r="U27" s="286"/>
-      <c r="V27" s="286"/>
+      <c r="F27" s="283">
+        <v>0</v>
+      </c>
+      <c r="G27" s="283">
+        <v>0</v>
+      </c>
+      <c r="H27" s="283"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="283"/>
+      <c r="K27" s="283"/>
+      <c r="L27" s="283"/>
+      <c r="M27" s="283"/>
+      <c r="N27" s="283"/>
+      <c r="O27" s="283"/>
+      <c r="P27" s="283"/>
+      <c r="Q27" s="284"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="284"/>
+      <c r="T27" s="284"/>
+      <c r="U27" s="285"/>
+      <c r="V27" s="285"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
@@ -4296,38 +4404,38 @@
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="259" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="317">
+      <c r="B28" s="258" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="309">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="317">
+      <c r="D28" s="306">
         <v>0</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="284">
-        <v>0</v>
-      </c>
-      <c r="G28" s="284">
-        <v>0</v>
-      </c>
-      <c r="H28" s="284"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="284"/>
-      <c r="O28" s="285"/>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="285"/>
-      <c r="S28" s="285"/>
-      <c r="T28" s="285"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="286"/>
+      <c r="F28" s="283">
+        <v>0</v>
+      </c>
+      <c r="G28" s="283">
+        <v>0</v>
+      </c>
+      <c r="H28" s="283"/>
+      <c r="I28" s="283"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="283"/>
+      <c r="L28" s="283"/>
+      <c r="M28" s="283"/>
+      <c r="N28" s="283"/>
+      <c r="O28" s="283"/>
+      <c r="P28" s="283"/>
+      <c r="Q28" s="284"/>
+      <c r="R28" s="284"/>
+      <c r="S28" s="284"/>
+      <c r="T28" s="284"/>
+      <c r="U28" s="285"/>
+      <c r="V28" s="285"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
@@ -4356,6 +4464,19 @@
       <c r="C37" s="257"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{B88B1819-D74D-4525-9C23-64EF1FA59B9A}"/>
@@ -4386,10 +4507,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A2:V23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4401,854 +4522,917 @@
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F1" s="338" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="339" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" s="340" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="340" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="340" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="340" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="340" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="340" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="340" t="s">
+        <v>309</v>
+      </c>
+      <c r="O1" s="340" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="341" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="342"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="343"/>
+    </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="277" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="308"/>
+      <c r="C3" s="301"/>
       <c r="D3" s="256">
         <v>5</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256">
+      <c r="E3" s="256">
         <v>2</v>
       </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="342"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="343"/>
+    </row>
+    <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="256"/>
-      <c r="B4" s="294" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="310" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="309" t="s">
+      <c r="B4" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="303" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="302" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="295" t="s">
+      <c r="E4" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="295" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="296" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="297" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="297" t="s">
-        <v>322</v>
-      </c>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
-      <c r="P4" s="298"/>
-      <c r="Q4" s="298"/>
-      <c r="R4" s="298"/>
-      <c r="S4" s="298"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="298"/>
-      <c r="V4" s="299"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="336"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336"/>
+      <c r="M4" s="336"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="345"/>
+      <c r="Q4" s="320" t="s">
+        <v>312</v>
+      </c>
+      <c r="R4" s="294"/>
+      <c r="S4" s="294"/>
+      <c r="T4" s="294"/>
+      <c r="U4" s="294"/>
+      <c r="V4" s="295"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="307" t="s">
+      <c r="B5" s="300" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="323">
-        <f>( (D5/$D$3)*100 + F5 + G5)/($F$3+1)</f>
-        <v>100</v>
-      </c>
-      <c r="D5" s="292">
+      <c r="C5" s="312">
+        <f>( (D5/$D$3)*100 + F5 + G5)/($E$3+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="290">
         <v>5</v>
       </c>
-      <c r="E5" s="293" t="s">
+      <c r="E5" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="327">
-        <v>100</v>
-      </c>
-      <c r="G5" s="327">
-        <v>100</v>
-      </c>
-      <c r="H5" s="327">
-        <v>100</v>
-      </c>
-      <c r="I5" s="327">
-        <v>100</v>
-      </c>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="320"/>
-      <c r="M5" s="320"/>
-      <c r="N5" s="320"/>
-      <c r="O5" s="320"/>
-      <c r="P5" s="321"/>
-      <c r="Q5" s="321"/>
-      <c r="R5" s="321"/>
-      <c r="S5" s="321"/>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="321"/>
+      <c r="F5" s="316">
+        <v>100</v>
+      </c>
+      <c r="G5" s="316">
+        <v>100</v>
+      </c>
+      <c r="H5" s="316">
+        <v>100</v>
+      </c>
+      <c r="I5" s="316">
+        <v>100</v>
+      </c>
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+      <c r="N5" s="309"/>
+      <c r="O5" s="309"/>
+      <c r="P5" s="310"/>
+      <c r="Q5" s="310"/>
+      <c r="R5" s="310"/>
+      <c r="S5" s="310"/>
+      <c r="T5" s="310"/>
+      <c r="U5" s="310"/>
+      <c r="V5" s="310"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="288" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="323">
-        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6)/($F$3+1)</f>
+      <c r="C6" s="312">
+        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6)/($E$3+1)</f>
         <v>30</v>
       </c>
-      <c r="D6" s="259">
+      <c r="D6" s="258">
         <v>2</v>
       </c>
       <c r="E6" s="136" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="317">
+      <c r="F6" s="306">
         <v>50</v>
       </c>
-      <c r="G6" s="317">
-        <v>0</v>
-      </c>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="317"/>
-      <c r="O6" s="317"/>
-      <c r="P6" s="322"/>
-      <c r="Q6" s="322"/>
-      <c r="R6" s="322"/>
-      <c r="S6" s="322"/>
-      <c r="T6" s="322"/>
-      <c r="U6" s="322"/>
-      <c r="V6" s="322"/>
+      <c r="G6" s="306">
+        <v>0</v>
+      </c>
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="306"/>
+      <c r="M6" s="306"/>
+      <c r="N6" s="306"/>
+      <c r="O6" s="306"/>
+      <c r="P6" s="311"/>
+      <c r="Q6" s="311"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="311"/>
+      <c r="T6" s="311"/>
+      <c r="U6" s="311"/>
+      <c r="V6" s="311"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="256">
         <v>4</v>
       </c>
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="323">
+      <c r="C7" s="312">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D7" s="259">
+      <c r="D7" s="258">
         <v>5</v>
       </c>
       <c r="E7" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="329">
-        <v>100</v>
-      </c>
-      <c r="G7" s="329">
-        <v>100</v>
-      </c>
-      <c r="H7" s="329">
-        <v>100</v>
-      </c>
-      <c r="I7" s="329">
-        <v>100</v>
-      </c>
-      <c r="J7" s="317"/>
-      <c r="K7" s="317"/>
-      <c r="L7" s="317"/>
-      <c r="M7" s="317"/>
-      <c r="N7" s="317"/>
-      <c r="O7" s="317"/>
-      <c r="P7" s="322"/>
-      <c r="Q7" s="322"/>
-      <c r="R7" s="322"/>
-      <c r="S7" s="322"/>
-      <c r="T7" s="322"/>
-      <c r="U7" s="322"/>
-      <c r="V7" s="322"/>
+      <c r="F7" s="318">
+        <v>100</v>
+      </c>
+      <c r="G7" s="318">
+        <v>100</v>
+      </c>
+      <c r="H7" s="318">
+        <v>100</v>
+      </c>
+      <c r="I7" s="318">
+        <v>100</v>
+      </c>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
+      <c r="O7" s="306"/>
+      <c r="P7" s="311"/>
+      <c r="Q7" s="311"/>
+      <c r="R7" s="311"/>
+      <c r="S7" s="311"/>
+      <c r="T7" s="311"/>
+      <c r="U7" s="311"/>
+      <c r="V7" s="311"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="256">
         <v>5</v>
       </c>
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="288" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="323">
+      <c r="C8" s="312">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
-      <c r="D8" s="259">
+      <c r="D8" s="258">
         <v>4</v>
       </c>
       <c r="E8" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="317">
-        <v>100</v>
-      </c>
-      <c r="G8" s="317">
-        <v>100</v>
-      </c>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="317"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="322"/>
-      <c r="R8" s="322"/>
-      <c r="S8" s="322"/>
-      <c r="T8" s="322"/>
-      <c r="U8" s="322"/>
-      <c r="V8" s="322"/>
+      <c r="F8" s="306">
+        <v>100</v>
+      </c>
+      <c r="G8" s="306">
+        <v>100</v>
+      </c>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="311"/>
+      <c r="Q8" s="311"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="311"/>
+      <c r="V8" s="311"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="256">
         <v>6</v>
       </c>
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="323">
+      <c r="C9" s="312">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="D9" s="259">
+      <c r="D9" s="258">
         <v>5</v>
       </c>
       <c r="E9" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="317">
-        <v>100</v>
-      </c>
-      <c r="G9" s="317">
+      <c r="F9" s="306">
+        <v>100</v>
+      </c>
+      <c r="G9" s="306">
         <v>90</v>
       </c>
-      <c r="H9" s="317"/>
-      <c r="I9" s="317"/>
-      <c r="J9" s="317"/>
-      <c r="K9" s="317"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="317"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="317"/>
-      <c r="P9" s="322"/>
-      <c r="Q9" s="322"/>
-      <c r="R9" s="322"/>
-      <c r="S9" s="322"/>
-      <c r="T9" s="322"/>
-      <c r="U9" s="322"/>
-      <c r="V9" s="322"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="306"/>
+      <c r="N9" s="306"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="311"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="256">
         <v>7</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="288" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="323">
+      <c r="C10" s="312">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="D10" s="259">
+      <c r="D10" s="258">
         <v>1</v>
       </c>
       <c r="E10" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="317">
-        <v>0</v>
-      </c>
-      <c r="G10" s="317">
-        <v>0</v>
-      </c>
-      <c r="H10" s="317"/>
-      <c r="I10" s="317"/>
-      <c r="J10" s="317"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="317"/>
-      <c r="M10" s="317"/>
-      <c r="N10" s="317"/>
-      <c r="O10" s="317"/>
-      <c r="P10" s="322"/>
-      <c r="Q10" s="322"/>
-      <c r="R10" s="322"/>
-      <c r="S10" s="322"/>
-      <c r="T10" s="322"/>
-      <c r="U10" s="322"/>
-      <c r="V10" s="322"/>
+      <c r="F10" s="306">
+        <v>0</v>
+      </c>
+      <c r="G10" s="306">
+        <v>0</v>
+      </c>
+      <c r="H10" s="306"/>
+      <c r="I10" s="306"/>
+      <c r="J10" s="306"/>
+      <c r="K10" s="306"/>
+      <c r="L10" s="306"/>
+      <c r="M10" s="306"/>
+      <c r="N10" s="306"/>
+      <c r="O10" s="306"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="311"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="311"/>
+      <c r="T10" s="311"/>
+      <c r="U10" s="311"/>
+      <c r="V10" s="311"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="256">
         <v>8</v>
       </c>
-      <c r="B11" s="290" t="s">
+      <c r="B11" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="323">
+      <c r="C11" s="312">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="259">
+      <c r="D11" s="258">
         <v>0</v>
       </c>
       <c r="E11" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="317">
-        <v>0</v>
-      </c>
-      <c r="G11" s="317">
-        <v>0</v>
-      </c>
-      <c r="H11" s="317"/>
-      <c r="I11" s="317"/>
-      <c r="J11" s="317"/>
-      <c r="K11" s="317"/>
-      <c r="L11" s="317"/>
-      <c r="M11" s="317"/>
-      <c r="N11" s="317"/>
-      <c r="O11" s="317"/>
-      <c r="P11" s="322"/>
-      <c r="Q11" s="322"/>
-      <c r="R11" s="322"/>
-      <c r="S11" s="322"/>
-      <c r="T11" s="322"/>
-      <c r="U11" s="322"/>
-      <c r="V11" s="322"/>
+      <c r="F11" s="306">
+        <v>0</v>
+      </c>
+      <c r="G11" s="306">
+        <v>0</v>
+      </c>
+      <c r="H11" s="306"/>
+      <c r="I11" s="306"/>
+      <c r="J11" s="306"/>
+      <c r="K11" s="306"/>
+      <c r="L11" s="306"/>
+      <c r="M11" s="306"/>
+      <c r="N11" s="306"/>
+      <c r="O11" s="306"/>
+      <c r="P11" s="311"/>
+      <c r="Q11" s="311"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="311"/>
+      <c r="T11" s="311"/>
+      <c r="U11" s="311"/>
+      <c r="V11" s="311"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="256">
         <v>9</v>
       </c>
-      <c r="B12" s="291" t="s">
+      <c r="B12" s="289" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="323">
+      <c r="C12" s="312">
         <f t="shared" si="0"/>
         <v>76.666666666666671</v>
       </c>
-      <c r="D12" s="259">
+      <c r="D12" s="258">
         <v>3</v>
       </c>
       <c r="E12" s="136" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="317">
-        <v>100</v>
-      </c>
-      <c r="G12" s="317">
+      <c r="F12" s="306">
+        <v>100</v>
+      </c>
+      <c r="G12" s="306">
         <v>70</v>
       </c>
-      <c r="H12" s="317">
+      <c r="H12" s="306">
         <v>70</v>
       </c>
-      <c r="I12" s="317">
+      <c r="I12" s="306">
         <v>70</v>
       </c>
-      <c r="J12" s="317"/>
-      <c r="K12" s="317"/>
-      <c r="L12" s="317"/>
-      <c r="M12" s="317"/>
-      <c r="N12" s="317"/>
-      <c r="O12" s="317"/>
-      <c r="P12" s="322"/>
-      <c r="Q12" s="322"/>
-      <c r="R12" s="322"/>
-      <c r="S12" s="322"/>
-      <c r="T12" s="322"/>
-      <c r="U12" s="322"/>
-      <c r="V12" s="322"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="306"/>
+      <c r="O12" s="306"/>
+      <c r="P12" s="311"/>
+      <c r="Q12" s="311"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="311"/>
+      <c r="T12" s="311"/>
+      <c r="U12" s="311"/>
+      <c r="V12" s="311"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="256">
         <v>10</v>
       </c>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="288" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="323">
+      <c r="C13" s="312">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="D13" s="259">
+      <c r="D13" s="258">
         <v>3</v>
       </c>
       <c r="E13" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="F13" s="317">
-        <v>100</v>
-      </c>
-      <c r="G13" s="317">
-        <v>100</v>
-      </c>
-      <c r="H13" s="317"/>
-      <c r="I13" s="317"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="317"/>
-      <c r="L13" s="317"/>
-      <c r="M13" s="317"/>
-      <c r="N13" s="317"/>
-      <c r="O13" s="317"/>
-      <c r="P13" s="322"/>
-      <c r="Q13" s="322"/>
-      <c r="R13" s="322"/>
-      <c r="S13" s="322"/>
-      <c r="T13" s="322"/>
-      <c r="U13" s="322"/>
-      <c r="V13" s="322"/>
+      <c r="F13" s="306">
+        <v>100</v>
+      </c>
+      <c r="G13" s="306">
+        <v>100</v>
+      </c>
+      <c r="H13" s="306"/>
+      <c r="I13" s="306"/>
+      <c r="J13" s="306"/>
+      <c r="K13" s="306"/>
+      <c r="L13" s="306"/>
+      <c r="M13" s="306"/>
+      <c r="N13" s="306"/>
+      <c r="O13" s="306"/>
+      <c r="P13" s="311"/>
+      <c r="Q13" s="311"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="311"/>
+      <c r="T13" s="311"/>
+      <c r="U13" s="311"/>
+      <c r="V13" s="311"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="256">
         <v>11</v>
       </c>
-      <c r="B14" s="290" t="s">
+      <c r="B14" s="288" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="323">
+      <c r="C14" s="312">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="259">
+      <c r="D14" s="258">
         <v>0</v>
       </c>
       <c r="E14" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="317">
-        <v>0</v>
-      </c>
-      <c r="G14" s="317">
-        <v>0</v>
-      </c>
-      <c r="H14" s="317"/>
-      <c r="I14" s="317"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="317"/>
-      <c r="L14" s="317"/>
-      <c r="M14" s="317"/>
-      <c r="N14" s="317"/>
-      <c r="O14" s="317"/>
-      <c r="P14" s="322"/>
-      <c r="Q14" s="322"/>
-      <c r="R14" s="322"/>
-      <c r="S14" s="322"/>
-      <c r="T14" s="322"/>
-      <c r="U14" s="322"/>
-      <c r="V14" s="322"/>
+      <c r="F14" s="306">
+        <v>0</v>
+      </c>
+      <c r="G14" s="306">
+        <v>0</v>
+      </c>
+      <c r="H14" s="306"/>
+      <c r="I14" s="306"/>
+      <c r="J14" s="306"/>
+      <c r="K14" s="306"/>
+      <c r="L14" s="306"/>
+      <c r="M14" s="306"/>
+      <c r="N14" s="306"/>
+      <c r="O14" s="306"/>
+      <c r="P14" s="311"/>
+      <c r="Q14" s="311"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="311"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="311"/>
+      <c r="V14" s="311"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="256">
         <v>12</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="288" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="323">
+      <c r="C15" s="312">
         <f t="shared" si="0"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="D15" s="259">
+      <c r="D15" s="258">
         <v>2</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="317">
-        <v>100</v>
-      </c>
-      <c r="G15" s="328">
-        <v>0</v>
-      </c>
-      <c r="H15" s="328">
-        <v>0</v>
-      </c>
-      <c r="I15" s="328">
-        <v>0</v>
-      </c>
-      <c r="J15" s="317"/>
-      <c r="K15" s="317"/>
-      <c r="L15" s="317"/>
-      <c r="M15" s="317"/>
-      <c r="N15" s="317"/>
-      <c r="O15" s="317"/>
-      <c r="P15" s="322"/>
-      <c r="Q15" s="322"/>
-      <c r="R15" s="322"/>
-      <c r="S15" s="322"/>
-      <c r="T15" s="322"/>
-      <c r="U15" s="322"/>
-      <c r="V15" s="322"/>
+      <c r="F15" s="306">
+        <v>100</v>
+      </c>
+      <c r="G15" s="317">
+        <v>0</v>
+      </c>
+      <c r="H15" s="317">
+        <v>0</v>
+      </c>
+      <c r="I15" s="317">
+        <v>0</v>
+      </c>
+      <c r="J15" s="306"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="306"/>
+      <c r="N15" s="306"/>
+      <c r="O15" s="306"/>
+      <c r="P15" s="311"/>
+      <c r="Q15" s="311"/>
+      <c r="R15" s="311"/>
+      <c r="S15" s="311"/>
+      <c r="T15" s="311"/>
+      <c r="U15" s="311"/>
+      <c r="V15" s="311"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="256">
         <v>13</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="288" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="323">
+      <c r="C16" s="312">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D16" s="259">
+      <c r="D16" s="258">
         <v>3</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="317">
-        <v>0</v>
-      </c>
-      <c r="G16" s="317">
-        <v>0</v>
-      </c>
-      <c r="H16" s="317">
-        <v>0</v>
-      </c>
-      <c r="I16" s="317">
-        <v>0</v>
-      </c>
-      <c r="J16" s="317"/>
-      <c r="K16" s="317"/>
-      <c r="L16" s="317"/>
-      <c r="M16" s="317"/>
-      <c r="N16" s="317"/>
-      <c r="O16" s="317"/>
-      <c r="P16" s="322"/>
-      <c r="Q16" s="322"/>
-      <c r="R16" s="322"/>
-      <c r="S16" s="322"/>
-      <c r="T16" s="322"/>
-      <c r="U16" s="322"/>
-      <c r="V16" s="322"/>
+      <c r="F16" s="306">
+        <v>0</v>
+      </c>
+      <c r="G16" s="306">
+        <v>0</v>
+      </c>
+      <c r="H16" s="306">
+        <v>0</v>
+      </c>
+      <c r="I16" s="306">
+        <v>0</v>
+      </c>
+      <c r="J16" s="306"/>
+      <c r="K16" s="306"/>
+      <c r="L16" s="306"/>
+      <c r="M16" s="306"/>
+      <c r="N16" s="306"/>
+      <c r="O16" s="306"/>
+      <c r="P16" s="311"/>
+      <c r="Q16" s="311"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="311"/>
+      <c r="T16" s="311"/>
+      <c r="U16" s="311"/>
+      <c r="V16" s="311"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="256">
         <v>14</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="288" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="323">
+      <c r="C17" s="312">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="D17" s="259">
+      <c r="D17" s="258">
         <v>4</v>
       </c>
       <c r="E17" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="317">
+      <c r="F17" s="306">
         <v>80</v>
       </c>
-      <c r="G17" s="317">
-        <v>100</v>
-      </c>
-      <c r="H17" s="317">
-        <v>100</v>
-      </c>
-      <c r="I17" s="317">
-        <v>100</v>
-      </c>
-      <c r="J17" s="317"/>
-      <c r="K17" s="317"/>
-      <c r="L17" s="317"/>
-      <c r="M17" s="317"/>
-      <c r="N17" s="317"/>
-      <c r="O17" s="317"/>
-      <c r="P17" s="322"/>
-      <c r="Q17" s="322"/>
-      <c r="R17" s="322"/>
-      <c r="S17" s="322"/>
-      <c r="T17" s="322"/>
-      <c r="U17" s="322"/>
-      <c r="V17" s="322"/>
+      <c r="G17" s="306">
+        <v>100</v>
+      </c>
+      <c r="H17" s="306">
+        <v>100</v>
+      </c>
+      <c r="I17" s="306">
+        <v>100</v>
+      </c>
+      <c r="J17" s="306"/>
+      <c r="K17" s="306"/>
+      <c r="L17" s="306"/>
+      <c r="M17" s="306"/>
+      <c r="N17" s="306"/>
+      <c r="O17" s="306"/>
+      <c r="P17" s="311"/>
+      <c r="Q17" s="311"/>
+      <c r="R17" s="311"/>
+      <c r="S17" s="311"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="256">
         <v>15</v>
       </c>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="288" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="323">
+      <c r="C18" s="312">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
-      <c r="D18" s="259">
+      <c r="D18" s="258">
         <v>4</v>
       </c>
       <c r="E18" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="329">
-        <v>100</v>
-      </c>
-      <c r="G18" s="329">
-        <v>100</v>
-      </c>
-      <c r="H18" s="329">
+      <c r="F18" s="318">
+        <v>100</v>
+      </c>
+      <c r="G18" s="318">
+        <v>100</v>
+      </c>
+      <c r="H18" s="318">
         <v>90</v>
       </c>
-      <c r="I18" s="317">
+      <c r="I18" s="306">
         <v>60</v>
       </c>
-      <c r="J18" s="317"/>
-      <c r="K18" s="317"/>
-      <c r="L18" s="317"/>
-      <c r="M18" s="317"/>
-      <c r="N18" s="317"/>
-      <c r="O18" s="317"/>
-      <c r="P18" s="322"/>
-      <c r="Q18" s="322"/>
-      <c r="R18" s="322"/>
-      <c r="S18" s="322"/>
-      <c r="T18" s="322"/>
-      <c r="U18" s="322"/>
-      <c r="V18" s="322"/>
+      <c r="J18" s="306"/>
+      <c r="K18" s="306"/>
+      <c r="L18" s="306"/>
+      <c r="M18" s="306"/>
+      <c r="N18" s="306"/>
+      <c r="O18" s="306"/>
+      <c r="P18" s="311"/>
+      <c r="Q18" s="311"/>
+      <c r="R18" s="311"/>
+      <c r="S18" s="311"/>
+      <c r="T18" s="311"/>
+      <c r="U18" s="311"/>
+      <c r="V18" s="311"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="256">
         <v>16</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="288" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="323">
+      <c r="C19" s="312">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D19" s="259">
+      <c r="D19" s="258">
         <v>5</v>
       </c>
       <c r="E19" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="317">
-        <v>100</v>
-      </c>
-      <c r="G19" s="317">
-        <v>100</v>
-      </c>
-      <c r="H19" s="328">
+      <c r="F19" s="306">
+        <v>100</v>
+      </c>
+      <c r="G19" s="306">
+        <v>100</v>
+      </c>
+      <c r="H19" s="317">
         <v>60</v>
       </c>
-      <c r="I19" s="328">
+      <c r="I19" s="317">
         <v>60</v>
       </c>
-      <c r="J19" s="317"/>
-      <c r="K19" s="317"/>
-      <c r="L19" s="317"/>
-      <c r="M19" s="317"/>
-      <c r="N19" s="317"/>
-      <c r="O19" s="317"/>
-      <c r="P19" s="322"/>
-      <c r="Q19" s="322"/>
-      <c r="R19" s="322"/>
-      <c r="S19" s="322"/>
-      <c r="T19" s="322"/>
-      <c r="U19" s="322"/>
-      <c r="V19" s="322"/>
+      <c r="J19" s="306"/>
+      <c r="K19" s="306"/>
+      <c r="L19" s="306"/>
+      <c r="M19" s="306"/>
+      <c r="N19" s="306"/>
+      <c r="O19" s="306"/>
+      <c r="P19" s="311"/>
+      <c r="Q19" s="311"/>
+      <c r="R19" s="311"/>
+      <c r="S19" s="311"/>
+      <c r="T19" s="311"/>
+      <c r="U19" s="311"/>
+      <c r="V19" s="311"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="256">
         <v>18</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="288" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="323">
+      <c r="C20" s="312">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D20" s="259">
+      <c r="D20" s="258">
         <v>5</v>
       </c>
       <c r="E20" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="317">
-        <v>100</v>
-      </c>
-      <c r="G20" s="317">
-        <v>100</v>
-      </c>
-      <c r="H20" s="317">
-        <v>100</v>
-      </c>
-      <c r="I20" s="317">
-        <v>100</v>
-      </c>
-      <c r="J20" s="317"/>
-      <c r="K20" s="317"/>
-      <c r="L20" s="317"/>
-      <c r="M20" s="317"/>
-      <c r="N20" s="317"/>
-      <c r="O20" s="317"/>
-      <c r="P20" s="322"/>
-      <c r="Q20" s="322"/>
-      <c r="R20" s="322"/>
-      <c r="S20" s="322"/>
-      <c r="T20" s="322"/>
-      <c r="U20" s="322"/>
-      <c r="V20" s="322"/>
+      <c r="F20" s="306">
+        <v>100</v>
+      </c>
+      <c r="G20" s="306">
+        <v>100</v>
+      </c>
+      <c r="H20" s="306">
+        <v>100</v>
+      </c>
+      <c r="I20" s="306">
+        <v>100</v>
+      </c>
+      <c r="J20" s="306"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="306"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="311"/>
+      <c r="Q20" s="311"/>
+      <c r="R20" s="311"/>
+      <c r="S20" s="311"/>
+      <c r="T20" s="311"/>
+      <c r="U20" s="311"/>
+      <c r="V20" s="311"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="256">
         <v>19</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="288" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="323">
+      <c r="C21" s="312">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="D21" s="259">
+      <c r="D21" s="258">
         <v>3</v>
       </c>
       <c r="E21" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="317">
-        <v>100</v>
-      </c>
-      <c r="G21" s="317">
-        <v>0</v>
-      </c>
-      <c r="H21" s="317"/>
-      <c r="I21" s="317"/>
-      <c r="J21" s="317"/>
-      <c r="K21" s="317"/>
-      <c r="L21" s="317"/>
-      <c r="M21" s="317"/>
-      <c r="N21" s="317"/>
-      <c r="O21" s="317"/>
-      <c r="P21" s="322"/>
-      <c r="Q21" s="322"/>
-      <c r="R21" s="322"/>
-      <c r="S21" s="322"/>
-      <c r="T21" s="322"/>
-      <c r="U21" s="322"/>
-      <c r="V21" s="322"/>
+      <c r="F21" s="306">
+        <v>100</v>
+      </c>
+      <c r="G21" s="306">
+        <v>0</v>
+      </c>
+      <c r="H21" s="306"/>
+      <c r="I21" s="306"/>
+      <c r="J21" s="306"/>
+      <c r="K21" s="306"/>
+      <c r="L21" s="306"/>
+      <c r="M21" s="306"/>
+      <c r="N21" s="306"/>
+      <c r="O21" s="306"/>
+      <c r="P21" s="311"/>
+      <c r="Q21" s="311"/>
+      <c r="R21" s="311"/>
+      <c r="S21" s="311"/>
+      <c r="T21" s="311"/>
+      <c r="U21" s="311"/>
+      <c r="V21" s="311"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="256">
         <v>20</v>
       </c>
-      <c r="B22" s="290" t="s">
+      <c r="B22" s="288" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="323">
+      <c r="C22" s="312">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D22" s="259">
+      <c r="D22" s="258">
         <v>5</v>
       </c>
       <c r="E22" s="136" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="317">
-        <v>100</v>
-      </c>
-      <c r="G22" s="317">
-        <v>100</v>
-      </c>
-      <c r="H22" s="317">
-        <v>100</v>
-      </c>
-      <c r="I22" s="317">
-        <v>100</v>
-      </c>
-      <c r="J22" s="317"/>
-      <c r="K22" s="317"/>
-      <c r="L22" s="317"/>
-      <c r="M22" s="317"/>
-      <c r="N22" s="317"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="322"/>
-      <c r="Q22" s="322"/>
-      <c r="R22" s="322"/>
-      <c r="S22" s="322"/>
-      <c r="T22" s="322"/>
-      <c r="U22" s="322"/>
-      <c r="V22" s="322"/>
+      <c r="F22" s="306">
+        <v>100</v>
+      </c>
+      <c r="G22" s="306">
+        <v>100</v>
+      </c>
+      <c r="H22" s="306">
+        <v>100</v>
+      </c>
+      <c r="I22" s="306">
+        <v>100</v>
+      </c>
+      <c r="J22" s="306"/>
+      <c r="K22" s="306"/>
+      <c r="L22" s="306"/>
+      <c r="M22" s="306"/>
+      <c r="N22" s="306"/>
+      <c r="O22" s="306"/>
+      <c r="P22" s="311"/>
+      <c r="Q22" s="311"/>
+      <c r="R22" s="311"/>
+      <c r="S22" s="311"/>
+      <c r="T22" s="311"/>
+      <c r="U22" s="311"/>
+      <c r="V22" s="311"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="256">
         <v>21</v>
       </c>
-      <c r="B23" s="290" t="s">
+      <c r="B23" s="288" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="323">
+      <c r="C23" s="312">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D23" s="259">
+      <c r="D23" s="258">
         <v>5</v>
       </c>
       <c r="E23" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="317">
-        <v>100</v>
-      </c>
-      <c r="G23" s="317">
-        <v>100</v>
-      </c>
-      <c r="H23" s="317"/>
-      <c r="I23" s="317"/>
-      <c r="J23" s="317"/>
-      <c r="K23" s="317"/>
-      <c r="L23" s="317"/>
-      <c r="M23" s="317"/>
-      <c r="N23" s="317"/>
-      <c r="O23" s="317"/>
-      <c r="P23" s="322"/>
-      <c r="Q23" s="322"/>
-      <c r="R23" s="322"/>
-      <c r="S23" s="322"/>
-      <c r="T23" s="322"/>
-      <c r="U23" s="322"/>
-      <c r="V23" s="322"/>
+      <c r="F23" s="306">
+        <v>100</v>
+      </c>
+      <c r="G23" s="306">
+        <v>100</v>
+      </c>
+      <c r="H23" s="306"/>
+      <c r="I23" s="306"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="306"/>
+      <c r="L23" s="306"/>
+      <c r="M23" s="306"/>
+      <c r="N23" s="306"/>
+      <c r="O23" s="306"/>
+      <c r="P23" s="311"/>
+      <c r="Q23" s="311"/>
+      <c r="R23" s="311"/>
+      <c r="S23" s="311"/>
+      <c r="T23" s="311"/>
+      <c r="U23" s="311"/>
+      <c r="V23" s="311"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
     <hyperlink ref="E6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
@@ -5278,10 +5462,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A2:Y30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G1" sqref="G1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5290,17 +5474,74 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G1" s="338" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="339" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="340" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="340" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" s="340" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="340" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="340" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" s="340" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" s="340" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="340" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q1" s="341" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="342"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="343"/>
+    </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="256"/>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="277" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="308"/>
+      <c r="C3" s="301"/>
       <c r="D3" s="256">
         <v>4</v>
       </c>
@@ -5308,86 +5549,93 @@
       <c r="F3" s="256">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="256"/>
-      <c r="B4" s="289" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="310" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="313" t="s">
+      <c r="G3" s="342"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="343"/>
+    </row>
+    <row r="4" spans="1:25" s="325" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="323"/>
+      <c r="B4" s="330" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="324" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="331" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="312">
+      <c r="E4" s="331">
         <v>45918</v>
       </c>
-      <c r="F4" s="258" t="s">
+      <c r="F4" s="332" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="305" t="s">
-        <v>320</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="62"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="336"/>
+      <c r="J4" s="336"/>
+      <c r="K4" s="336"/>
+      <c r="L4" s="336"/>
+      <c r="M4" s="336"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="336"/>
+      <c r="Q4" s="345"/>
+      <c r="R4" s="333"/>
+      <c r="S4" s="327" t="s">
+        <v>312</v>
+      </c>
+      <c r="T4" s="321"/>
+      <c r="U4" s="321"/>
+      <c r="V4" s="321"/>
+      <c r="W4" s="321"/>
+      <c r="X4" s="321"/>
+      <c r="Y4" s="322"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="256">
         <v>1</v>
       </c>
-      <c r="B5" s="290" t="s">
+      <c r="B5" s="328" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="324">
+      <c r="C5" s="312">
         <f>(D5/$D$3*100 + G5 + H5)/($F$3+1)</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="D5" s="259">
+      <c r="D5" s="290">
         <v>4</v>
       </c>
-      <c r="E5" s="259">
-        <v>0</v>
-      </c>
-      <c r="F5" s="136" t="s">
+      <c r="E5" s="290">
+        <v>0</v>
+      </c>
+      <c r="F5" s="291" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="26">
-        <v>100</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="G5" s="329">
+        <v>100</v>
+      </c>
+      <c r="H5" s="329">
+        <v>0</v>
+      </c>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="329"/>
+      <c r="P5" s="329"/>
+      <c r="Q5" s="329"/>
+      <c r="R5" s="329"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
@@ -5400,17 +5648,17 @@
       <c r="A6" s="256">
         <v>2</v>
       </c>
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="288" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="324">
+      <c r="C6" s="313">
         <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6)/($F$3+1)</f>
         <v>100</v>
       </c>
-      <c r="D6" s="259">
+      <c r="D6" s="258">
         <v>4</v>
       </c>
-      <c r="E6" s="259">
+      <c r="E6" s="258">
         <v>1</v>
       </c>
       <c r="F6" s="136" t="s">
@@ -5446,17 +5694,17 @@
       <c r="A7" s="256">
         <v>3</v>
       </c>
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="288" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="324">
+      <c r="C7" s="313">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
-      <c r="D7" s="259">
+      <c r="D7" s="258">
         <v>3</v>
       </c>
-      <c r="E7" s="259">
+      <c r="E7" s="258">
         <v>1</v>
       </c>
       <c r="F7" s="136" t="s">
@@ -5492,17 +5740,17 @@
       <c r="A8" s="256">
         <v>4</v>
       </c>
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="288" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="324">
+      <c r="C8" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D8" s="259">
+      <c r="D8" s="258">
         <v>4</v>
       </c>
-      <c r="E8" s="259">
+      <c r="E8" s="258">
         <v>1</v>
       </c>
       <c r="F8" s="136" t="s">
@@ -5536,17 +5784,17 @@
       <c r="A9" s="256">
         <v>5</v>
       </c>
-      <c r="B9" s="290" t="s">
+      <c r="B9" s="288" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="324">
+      <c r="C9" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D9" s="259">
+      <c r="D9" s="258">
         <v>4</v>
       </c>
-      <c r="E9" s="259">
+      <c r="E9" s="258">
         <v>1</v>
       </c>
       <c r="F9" s="136" t="s">
@@ -5582,17 +5830,17 @@
       <c r="A10" s="256">
         <v>6</v>
       </c>
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="288" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="324">
+      <c r="C10" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D10" s="259">
+      <c r="D10" s="258">
         <v>4</v>
       </c>
-      <c r="E10" s="259">
+      <c r="E10" s="258">
         <v>1</v>
       </c>
       <c r="F10" s="136" t="s">
@@ -5628,17 +5876,17 @@
       <c r="A11" s="256">
         <v>7</v>
       </c>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="289" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="324">
+      <c r="C11" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D11" s="259">
+      <c r="D11" s="258">
         <v>4</v>
       </c>
-      <c r="E11" s="259">
+      <c r="E11" s="258">
         <v>0</v>
       </c>
       <c r="F11" s="136" t="s">
@@ -5672,17 +5920,17 @@
       <c r="A12" s="256">
         <v>8</v>
       </c>
-      <c r="B12" s="290" t="s">
+      <c r="B12" s="288" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="324">
+      <c r="C12" s="313">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D12" s="259">
+      <c r="D12" s="258">
         <v>2</v>
       </c>
-      <c r="E12" s="259">
+      <c r="E12" s="258">
         <v>1</v>
       </c>
       <c r="F12" s="136" t="s">
@@ -5716,17 +5964,17 @@
       <c r="A13" s="256">
         <v>9</v>
       </c>
-      <c r="B13" s="290" t="s">
+      <c r="B13" s="288" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="324">
+      <c r="C13" s="313">
         <f t="shared" si="0"/>
         <v>96.666666666666671</v>
       </c>
-      <c r="D13" s="259">
+      <c r="D13" s="258">
         <v>4</v>
       </c>
-      <c r="E13" s="259">
+      <c r="E13" s="258">
         <v>1</v>
       </c>
       <c r="F13" s="136" t="s">
@@ -5760,21 +6008,21 @@
       <c r="A14" s="256">
         <v>10</v>
       </c>
-      <c r="B14" s="290" t="s">
+      <c r="B14" s="288" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="324">
+      <c r="C14" s="313">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D14" s="259">
+      <c r="D14" s="258">
         <v>4</v>
       </c>
-      <c r="E14" s="259">
-        <v>1</v>
-      </c>
-      <c r="F14" s="281" t="s">
-        <v>316</v>
+      <c r="E14" s="258">
+        <v>1</v>
+      </c>
+      <c r="F14" s="280" t="s">
+        <v>299</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -5804,17 +6052,17 @@
       <c r="A15" s="256">
         <v>11</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="288" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="324">
+      <c r="C15" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D15" s="259">
+      <c r="D15" s="258">
         <v>4</v>
       </c>
-      <c r="E15" s="259">
+      <c r="E15" s="258">
         <v>0</v>
       </c>
       <c r="F15" s="136" t="s">
@@ -5850,17 +6098,17 @@
       <c r="A16" s="256">
         <v>12</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="288" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="324">
+      <c r="C16" s="313">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="D16" s="259">
+      <c r="D16" s="258">
         <v>4</v>
       </c>
-      <c r="E16" s="259">
+      <c r="E16" s="258">
         <v>1</v>
       </c>
       <c r="F16" s="136" t="s">
@@ -5894,17 +6142,17 @@
       <c r="A17" s="256">
         <v>13</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="288" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="324">
+      <c r="C17" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D17" s="259">
+      <c r="D17" s="258">
         <v>4</v>
       </c>
-      <c r="E17" s="259">
+      <c r="E17" s="258">
         <v>1</v>
       </c>
       <c r="F17" s="136" t="s">
@@ -5938,17 +6186,17 @@
       <c r="A18" s="256">
         <v>14</v>
       </c>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="288" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="324">
+      <c r="C18" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D18" s="259">
+      <c r="D18" s="258">
         <v>4</v>
       </c>
-      <c r="E18" s="259">
+      <c r="E18" s="258">
         <v>1</v>
       </c>
       <c r="F18" s="136" t="s">
@@ -5982,21 +6230,21 @@
       <c r="A19" s="256">
         <v>15</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="288" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="324">
+      <c r="C19" s="313">
         <f t="shared" si="0"/>
         <v>91.666666666666671</v>
       </c>
-      <c r="D19" s="259">
+      <c r="D19" s="258">
         <v>3</v>
       </c>
-      <c r="E19" s="259">
-        <v>1</v>
-      </c>
-      <c r="F19" s="281" t="s">
-        <v>315</v>
+      <c r="E19" s="258">
+        <v>1</v>
+      </c>
+      <c r="F19" s="280" t="s">
+        <v>298</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6026,17 +6274,17 @@
       <c r="A20" s="256">
         <v>16</v>
       </c>
-      <c r="B20" s="290" t="s">
+      <c r="B20" s="288" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="324">
+      <c r="C20" s="313">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D20" s="259">
-        <v>1</v>
-      </c>
-      <c r="E20" s="259">
+      <c r="D20" s="258">
+        <v>1</v>
+      </c>
+      <c r="E20" s="258">
         <v>1</v>
       </c>
       <c r="F20" s="136" t="s">
@@ -6070,17 +6318,17 @@
       <c r="A21" s="256">
         <v>17</v>
       </c>
-      <c r="B21" s="290" t="s">
+      <c r="B21" s="288" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="324">
+      <c r="C21" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D21" s="259">
+      <c r="D21" s="258">
         <v>4</v>
       </c>
-      <c r="E21" s="259">
+      <c r="E21" s="258">
         <v>1</v>
       </c>
       <c r="F21" s="136" t="s">
@@ -6114,17 +6362,17 @@
       <c r="A22" s="256">
         <v>18</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="299" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="324">
+      <c r="C22" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D22" s="259">
+      <c r="D22" s="258">
         <v>4</v>
       </c>
-      <c r="E22" s="259">
+      <c r="E22" s="258">
         <v>1</v>
       </c>
       <c r="F22" s="136" t="s">
@@ -6158,17 +6406,17 @@
       <c r="A23" s="256">
         <v>19</v>
       </c>
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="299" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="324">
+      <c r="C23" s="313">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
-      <c r="D23" s="259">
+      <c r="D23" s="258">
         <v>4</v>
       </c>
-      <c r="E23" s="259">
+      <c r="E23" s="258">
         <v>1</v>
       </c>
       <c r="F23" s="136" t="s">
@@ -6204,21 +6452,21 @@
       <c r="A24" s="256">
         <v>20</v>
       </c>
-      <c r="B24" s="290" t="s">
+      <c r="B24" s="288" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="324">
+      <c r="C24" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D24" s="259">
+      <c r="D24" s="258">
         <v>4</v>
       </c>
-      <c r="E24" s="259">
+      <c r="E24" s="258">
         <v>1</v>
       </c>
       <c r="F24" s="136" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G24" s="26">
         <v>100</v>
@@ -6250,17 +6498,17 @@
       <c r="A25" s="256">
         <v>21</v>
       </c>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="288" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="324">
+      <c r="C25" s="313">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="D25" s="259">
+      <c r="D25" s="258">
         <v>2</v>
       </c>
-      <c r="E25" s="259">
+      <c r="E25" s="258">
         <v>1</v>
       </c>
       <c r="F25" s="136" t="s">
@@ -6294,17 +6542,17 @@
       <c r="A26" s="256">
         <v>22</v>
       </c>
-      <c r="B26" s="290" t="s">
+      <c r="B26" s="288" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="324">
+      <c r="C26" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D26" s="259">
+      <c r="D26" s="258">
         <v>4</v>
       </c>
-      <c r="E26" s="259">
+      <c r="E26" s="258">
         <v>1</v>
       </c>
       <c r="F26" s="136" t="s">
@@ -6338,17 +6586,17 @@
       <c r="A27" s="256">
         <v>23</v>
       </c>
-      <c r="B27" s="306" t="s">
+      <c r="B27" s="299" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="324">
+      <c r="C27" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D27" s="259">
+      <c r="D27" s="258">
         <v>4</v>
       </c>
-      <c r="E27" s="259">
+      <c r="E27" s="258">
         <v>1</v>
       </c>
       <c r="F27" s="136" t="s">
@@ -6384,17 +6632,17 @@
       <c r="A28" s="256">
         <v>24</v>
       </c>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="288" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="324">
+      <c r="C28" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D28" s="259">
+      <c r="D28" s="258">
         <v>4</v>
       </c>
-      <c r="E28" s="259">
+      <c r="E28" s="258">
         <v>1</v>
       </c>
       <c r="F28" s="136" t="s">
@@ -6428,17 +6676,17 @@
       <c r="A29" s="256">
         <v>25</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="288" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="324">
+      <c r="C29" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D29" s="259">
+      <c r="D29" s="258">
         <v>4</v>
       </c>
-      <c r="E29" s="259">
+      <c r="E29" s="258">
         <v>1</v>
       </c>
       <c r="F29" s="136" t="s">
@@ -6474,17 +6722,17 @@
       <c r="A30" s="256">
         <v>26</v>
       </c>
-      <c r="B30" s="306" t="s">
+      <c r="B30" s="299" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="324">
+      <c r="C30" s="313">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D30" s="259">
+      <c r="D30" s="258">
         <v>4</v>
       </c>
-      <c r="E30" s="259">
+      <c r="E30" s="258">
         <v>0</v>
       </c>
       <c r="F30" s="136" t="s">
@@ -6517,6 +6765,19 @@
       <c r="Y30" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="L1:L4"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
     <hyperlink ref="F10" r:id="rId2" xr:uid="{FDC14B3B-3758-4ECB-B5DF-588C850A18E0}"/>
@@ -6555,9 +6816,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BK51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
+      <selection pane="topRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6828,7 +7089,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="315" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -6937,7 +7198,7 @@
       </c>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
@@ -7277,7 +7538,7 @@
       <c r="AP6" s="26"/>
     </row>
     <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="325" t="s">
+      <c r="A7" s="314" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7387,7 +7648,7 @@
       <c r="AP7" s="26"/>
     </row>
     <row r="8" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="276" t="s">
+      <c r="A8" s="275" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="25">
@@ -7613,7 +7874,7 @@
       <c r="AP9" s="26"/>
     </row>
     <row r="10" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="325" t="s">
+      <c r="A10" s="314" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -7839,111 +8100,111 @@
       </c>
       <c r="AP11" s="26"/>
     </row>
-    <row r="12" spans="1:43" s="275" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="260" t="s">
+    <row r="12" spans="1:43" s="274" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="259" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="261">
-        <v>0</v>
-      </c>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264">
-        <v>1</v>
-      </c>
-      <c r="G12" s="265">
-        <v>1</v>
-      </c>
-      <c r="H12" s="264">
+      <c r="B12" s="260">
+        <v>0</v>
+      </c>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263">
+        <v>1</v>
+      </c>
+      <c r="G12" s="264">
+        <v>1</v>
+      </c>
+      <c r="H12" s="263">
         <v>-0.5</v>
       </c>
-      <c r="I12" s="266">
+      <c r="I12" s="265">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="266">
+      <c r="J12" s="265">
         <v>-0.5</v>
       </c>
-      <c r="K12" s="267">
-        <v>1</v>
-      </c>
-      <c r="L12" s="266">
+      <c r="K12" s="266">
+        <v>1</v>
+      </c>
+      <c r="L12" s="265">
         <v>-0.5</v>
       </c>
-      <c r="M12" s="267">
+      <c r="M12" s="266">
         <v>-0.5</v>
       </c>
-      <c r="N12" s="267">
-        <v>1</v>
-      </c>
-      <c r="O12" s="267">
-        <v>1</v>
-      </c>
-      <c r="P12" s="268">
+      <c r="N12" s="266">
+        <v>1</v>
+      </c>
+      <c r="O12" s="266">
+        <v>1</v>
+      </c>
+      <c r="P12" s="267">
         <v>-0.5</v>
       </c>
-      <c r="Q12" s="267">
-        <v>1</v>
-      </c>
-      <c r="R12" s="267" t="s">
+      <c r="Q12" s="266">
+        <v>1</v>
+      </c>
+      <c r="R12" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="267">
+      <c r="S12" s="266">
         <v>3</v>
       </c>
-      <c r="T12" s="267">
-        <v>1</v>
-      </c>
-      <c r="U12" s="267">
+      <c r="T12" s="266">
+        <v>1</v>
+      </c>
+      <c r="U12" s="266">
         <v>-1</v>
       </c>
-      <c r="V12" s="266">
-        <v>1</v>
-      </c>
-      <c r="W12" s="267">
-        <v>1</v>
-      </c>
-      <c r="X12" s="267">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="267">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="267"/>
-      <c r="AA12" s="267"/>
-      <c r="AB12" s="267"/>
-      <c r="AC12" s="269">
+      <c r="V12" s="265">
+        <v>1</v>
+      </c>
+      <c r="W12" s="266">
+        <v>1</v>
+      </c>
+      <c r="X12" s="266">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="266">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="268">
         <f>-40 - 40 - 40</f>
         <v>-120</v>
       </c>
-      <c r="AD12" s="270">
+      <c r="AD12" s="269">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AE12" s="271">
+      <c r="AE12" s="270">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="AF12" s="271">
+      <c r="AF12" s="270">
         <v>-100</v>
       </c>
-      <c r="AG12" s="272">
+      <c r="AG12" s="271">
         <v>-100</v>
       </c>
-      <c r="AH12" s="273">
+      <c r="AH12" s="272">
         <v>-100</v>
       </c>
-      <c r="AI12" s="273"/>
-      <c r="AJ12" s="273"/>
-      <c r="AK12" s="273"/>
-      <c r="AL12" s="273"/>
-      <c r="AM12" s="273"/>
-      <c r="AN12" s="273"/>
-      <c r="AO12" s="274">
+      <c r="AI12" s="272"/>
+      <c r="AJ12" s="272"/>
+      <c r="AK12" s="272"/>
+      <c r="AL12" s="272"/>
+      <c r="AM12" s="272"/>
+      <c r="AN12" s="272"/>
+      <c r="AO12" s="273">
         <f t="shared" si="1"/>
         <v>16.53846153846154</v>
       </c>
-      <c r="AP12" s="262"/>
+      <c r="AP12" s="261"/>
     </row>
     <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="254" t="s">
@@ -8171,7 +8432,7 @@
       <c r="AP14" s="25"/>
     </row>
     <row r="15" spans="1:43" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="325" t="s">
+      <c r="A15" s="314" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8182,7 +8443,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F15" s="28">
         <v>1</v>
@@ -8283,7 +8544,7 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="325" t="s">
+      <c r="A16" s="314" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="25">
@@ -8395,7 +8656,7 @@
       <c r="AP16" s="26"/>
     </row>
     <row r="17" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="277" t="s">
+      <c r="A17" s="276" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="25">
@@ -8511,7 +8772,7 @@
       <c r="AP17" s="26"/>
     </row>
     <row r="18" spans="1:63" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="276" t="s">
+      <c r="A18" s="275" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="25">
@@ -8625,7 +8886,7 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A19" s="325" t="s">
+      <c r="A19" s="314" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="25">
@@ -8851,7 +9112,7 @@
       <c r="AP20" s="26"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A21" s="325" t="s">
+      <c r="A21" s="314" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="25">
@@ -9074,7 +9335,7 @@
       <c r="AP22" s="26"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A23" s="277" t="s">
+      <c r="A23" s="276" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="25">
@@ -9191,7 +9452,7 @@
       <c r="AP23" s="26"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="325" t="s">
+      <c r="A24" s="314" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="25">
@@ -12233,97 +12494,82 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502A96A7-D442-4F53-8C8F-2DEFBF394149}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="283" t="s">
-        <v>295</v>
+      <c r="B2" s="282" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="283" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="283" t="s">
+      <c r="B3" s="282" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="326" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="326" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="326" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="326" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="326" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="326" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="326" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="283" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="283" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="283" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="283" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="283" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="283" t="s">
-        <v>302</v>
-      </c>
-    </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="283" t="s">
-        <v>303</v>
+      <c r="C10" s="326" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="283" t="s">
-        <v>305</v>
+      <c r="C11" s="326" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="283" t="s">
-        <v>306</v>
+      <c r="C12" s="326" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="283" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="283" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="283" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="283" t="s">
-        <v>310</v>
+      <c r="C13" s="326" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D755D7-1207-4D21-BB73-B6156B1D8DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27631C-39D8-4EEC-9E17-C0713FAF17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="315">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1573,6 +1573,12 @@
   </si>
   <si>
     <t>Android-Desktop</t>
+  </si>
+  <si>
+    <t>сдал</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2329,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2816,42 +2822,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2957,6 +2927,45 @@
     </xf>
     <xf numFmtId="2" fontId="22" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3382,52 +3391,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="288" t="s">
+      <c r="F1" s="349" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="291" t="s">
+      <c r="G1" s="352" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="282" t="s">
+      <c r="H1" s="343" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="282" t="s">
+      <c r="I1" s="343" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="282" t="s">
+      <c r="J1" s="343" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="282" t="s">
+      <c r="K1" s="343" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="282" t="s">
+      <c r="L1" s="343" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="282" t="s">
+      <c r="M1" s="343" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="282" t="s">
+      <c r="N1" s="343" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="285" t="s">
+      <c r="P1" s="346" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="289"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="286"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="344"/>
+      <c r="P2" s="347"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3441,17 +3450,17 @@
       <c r="E3" s="226">
         <v>2</v>
       </c>
-      <c r="F3" s="289"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="286"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="347"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3467,17 +3476,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="284"/>
-      <c r="N4" s="284"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="287"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="348"/>
       <c r="Q4" s="267" t="s">
         <v>311</v>
       </c>
@@ -4562,52 +4571,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="288" t="s">
+      <c r="F1" s="349" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="291" t="s">
+      <c r="G1" s="352" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="282" t="s">
+      <c r="H1" s="343" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="282" t="s">
+      <c r="I1" s="343" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="282" t="s">
+      <c r="J1" s="343" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="282" t="s">
+      <c r="K1" s="343" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="282" t="s">
+      <c r="L1" s="343" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="282" t="s">
+      <c r="M1" s="343" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="282" t="s">
+      <c r="N1" s="343" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="285" t="s">
+      <c r="P1" s="346" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="289"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="286"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="344"/>
+      <c r="P2" s="347"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4621,17 +4630,17 @@
       <c r="E3" s="220">
         <v>2</v>
       </c>
-      <c r="F3" s="289"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="286"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="347"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4647,17 +4656,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="290"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="284"/>
-      <c r="N4" s="284"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="287"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="354"/>
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="348"/>
       <c r="Q4" s="268" t="s">
         <v>311</v>
       </c>
@@ -5493,8 +5502,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,52 +5527,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="288" t="s">
+      <c r="G1" s="349" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="291" t="s">
+      <c r="H1" s="352" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="282" t="s">
+      <c r="I1" s="343" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="282" t="s">
+      <c r="J1" s="343" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="282" t="s">
+      <c r="K1" s="343" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="282" t="s">
+      <c r="L1" s="343" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="282" t="s">
+      <c r="M1" s="343" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="282" t="s">
+      <c r="N1" s="343" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="343" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="282" t="s">
+      <c r="P1" s="343" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="285" t="s">
+      <c r="Q1" s="346" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="289"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="286"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="344"/>
+      <c r="P2" s="344"/>
+      <c r="Q2" s="347"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5578,17 +5587,17 @@
       <c r="F3" s="220">
         <v>2</v>
       </c>
-      <c r="G3" s="289"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="283"/>
-      <c r="M3" s="283"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="283"/>
-      <c r="Q3" s="286"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="344"/>
+      <c r="N3" s="344"/>
+      <c r="O3" s="344"/>
+      <c r="P3" s="344"/>
+      <c r="Q3" s="347"/>
     </row>
     <row r="4" spans="1:25" s="273" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="271"/>
@@ -5607,17 +5616,17 @@
       <c r="F4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="290"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
-      <c r="M4" s="284"/>
-      <c r="N4" s="284"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="284"/>
-      <c r="Q4" s="287"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="345"/>
+      <c r="P4" s="345"/>
+      <c r="Q4" s="348"/>
       <c r="R4" s="281"/>
       <c r="S4" s="275" t="s">
         <v>311</v>
@@ -5905,7 +5914,7 @@
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="355" t="s">
         <v>195</v>
       </c>
       <c r="C11" s="261">
@@ -6081,7 +6090,7 @@
       <c r="A15" s="220">
         <v>11</v>
       </c>
-      <c r="B15" s="236" t="s">
+      <c r="B15" s="237" t="s">
         <v>199</v>
       </c>
       <c r="C15" s="261">
@@ -6754,9 +6763,8 @@
       <c r="B30" s="247" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="261">
-        <f t="shared" si="0"/>
-        <v>100</v>
+      <c r="C30" s="261" t="s">
+        <v>314</v>
       </c>
       <c r="D30" s="222">
         <v>4</v>
@@ -6845,9 +6853,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR34" sqref="AR34"/>
+      <selection pane="topRight" activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7227,7 +7235,7 @@
       <c r="AN3" s="72"/>
       <c r="AO3" s="72"/>
       <c r="AP3" s="33">
-        <f>SUM(100*SUM(F3:AB3),AC3:AO3)/$AP$1</f>
+        <f t="shared" ref="AP3:AP26" si="0">SUM(100*SUM(F3:AB3),AC3:AO3)/$AP$1</f>
         <v>38.46153846153846</v>
       </c>
       <c r="AQ3" s="26"/>
@@ -7320,7 +7328,7 @@
         <v>100</v>
       </c>
       <c r="AE4" s="38">
-        <f t="shared" ref="AE4:AE26" si="0">I4*100</f>
+        <f t="shared" ref="AE4:AE26" si="1">I4*100</f>
         <v>100</v>
       </c>
       <c r="AF4" s="110">
@@ -7344,7 +7352,7 @@
       <c r="AN4" s="75"/>
       <c r="AO4" s="75"/>
       <c r="AP4" s="33">
-        <f>SUM(100*SUM(F4:AB4),AC4:AO4)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>69.615384615384613</v>
       </c>
       <c r="AQ4" s="26"/>
@@ -7434,7 +7442,7 @@
         <v>-100</v>
       </c>
       <c r="AE5" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF5" s="159">
@@ -7456,7 +7464,7 @@
       <c r="AN5" s="75"/>
       <c r="AO5" s="75"/>
       <c r="AP5" s="33">
-        <f>SUM(100*SUM(F5:AB5),AC5:AO5)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>13.461538461538462</v>
       </c>
       <c r="AQ5" s="26"/>
@@ -7547,7 +7555,7 @@
         <v>-100</v>
       </c>
       <c r="AE6" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF6" s="110">
@@ -7573,7 +7581,7 @@
       <c r="AN6" s="75"/>
       <c r="AO6" s="75"/>
       <c r="AP6" s="33">
-        <f>SUM(100*SUM(F6:AB6),AC6:AO6)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>83.84615384615384</v>
       </c>
       <c r="AQ6" s="26"/>
@@ -7662,7 +7670,7 @@
         <v>-100</v>
       </c>
       <c r="AE7" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF7" s="163">
@@ -7684,7 +7692,7 @@
       <c r="AN7" s="75"/>
       <c r="AO7" s="75"/>
       <c r="AP7" s="33">
-        <f>SUM(100*SUM(F7:AB7),AC7:AO7)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>31.923076923076923</v>
       </c>
       <c r="AQ7" s="26"/>
@@ -7773,7 +7781,7 @@
         <v>100</v>
       </c>
       <c r="AE8" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF8" s="38">
@@ -7799,7 +7807,7 @@
       <c r="AN8" s="90"/>
       <c r="AO8" s="90"/>
       <c r="AP8" s="33">
-        <f>SUM(100*SUM(F8:AB8),AC8:AO8)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>126.92307692307692</v>
       </c>
       <c r="AQ8" s="25"/>
@@ -7889,7 +7897,7 @@
         <v>-100</v>
       </c>
       <c r="AE9" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF9" s="110">
@@ -7912,7 +7920,7 @@
       <c r="AN9" s="75"/>
       <c r="AO9" s="75"/>
       <c r="AP9" s="33">
-        <f>SUM(100*SUM(F9:AB9),AC9:AO9)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>77.692307692307693</v>
       </c>
       <c r="AQ9" s="26"/>
@@ -8003,7 +8011,7 @@
         <v>-100</v>
       </c>
       <c r="AE10" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF10" s="159">
@@ -8025,7 +8033,7 @@
       <c r="AN10" s="90"/>
       <c r="AO10" s="90"/>
       <c r="AP10" s="33">
-        <f>SUM(100*SUM(F10:AB10),AC10:AO10)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>6.9230769230769234</v>
       </c>
       <c r="AQ10" s="25"/>
@@ -8116,7 +8124,7 @@
         <v>-100</v>
       </c>
       <c r="AE11" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF11" s="38">
@@ -8145,7 +8153,7 @@
       <c r="AN11" s="75"/>
       <c r="AO11" s="75"/>
       <c r="AP11" s="33">
-        <f>SUM(100*SUM(F11:AB11),AC11:AO11)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>102.69230769230769</v>
       </c>
       <c r="AQ11" s="26"/>
@@ -8236,7 +8244,7 @@
         <v>100</v>
       </c>
       <c r="AE12" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF12" s="38">
@@ -8261,7 +8269,7 @@
       <c r="AN12" s="75"/>
       <c r="AO12" s="75"/>
       <c r="AP12" s="33">
-        <f>SUM(100*SUM(F12:AB12),AC12:AO12)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>98.461538461538467</v>
       </c>
       <c r="AQ12" s="26"/>
@@ -8350,7 +8358,7 @@
         <v>-100</v>
       </c>
       <c r="AE13" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF13" s="159">
@@ -8372,7 +8380,7 @@
       <c r="AN13" s="90"/>
       <c r="AO13" s="90"/>
       <c r="AP13" s="33">
-        <f>SUM(100*SUM(F13:AB13),AC13:AO13)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>26.153846153846153</v>
       </c>
       <c r="AQ13" s="25"/>
@@ -8463,7 +8471,7 @@
         <v>-99</v>
       </c>
       <c r="AE14" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF14" s="159">
@@ -8485,7 +8493,7 @@
       <c r="AN14" s="90"/>
       <c r="AO14" s="90"/>
       <c r="AP14" s="33">
-        <f>SUM(100*SUM(F14:AB14),AC14:AO14)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>16.576923076923077</v>
       </c>
       <c r="AQ14" s="25"/>
@@ -8576,7 +8584,7 @@
         <v>-100</v>
       </c>
       <c r="AE15" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF15" s="159">
@@ -8598,10 +8606,13 @@
       <c r="AN15" s="75"/>
       <c r="AO15" s="75"/>
       <c r="AP15" s="33">
-        <f>SUM(100*SUM(F15:AB15),AC15:AO15)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AQ15" s="26"/>
+      <c r="AR15" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="224" t="s">
@@ -8688,7 +8699,7 @@
         <v>50</v>
       </c>
       <c r="AE16" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF16" s="110">
@@ -8715,7 +8726,7 @@
       <c r="AN16" s="75"/>
       <c r="AO16" s="75"/>
       <c r="AP16" s="33">
-        <f>SUM(100*SUM(F16:AB16),AC16:AO16)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>94.230769230769226</v>
       </c>
       <c r="AQ16" s="26"/>
@@ -8805,7 +8816,7 @@
         <v>30</v>
       </c>
       <c r="AE17" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF17" s="110">
@@ -8830,7 +8841,7 @@
       <c r="AN17" s="90"/>
       <c r="AO17" s="90"/>
       <c r="AP17" s="33">
-        <f>SUM(100*SUM(F17:AB17),AC17:AO17)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>74.615384615384613</v>
       </c>
       <c r="AQ17" s="25"/>
@@ -8921,7 +8932,7 @@
         <v>-100</v>
       </c>
       <c r="AE18" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF18" s="159">
@@ -8943,7 +8954,7 @@
       <c r="AN18" s="75"/>
       <c r="AO18" s="75"/>
       <c r="AP18" s="33">
-        <f>SUM(100*SUM(F18:AB18),AC18:AO18)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>28.076923076923077</v>
       </c>
       <c r="AQ18" s="26"/>
@@ -9033,7 +9044,7 @@
         <v>30</v>
       </c>
       <c r="AE19" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF19" s="38">
@@ -9058,7 +9069,7 @@
       <c r="AN19" s="75"/>
       <c r="AO19" s="75"/>
       <c r="AP19" s="33">
-        <f>SUM(100*SUM(F19:AB19),AC19:AO19)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>100.38461538461539</v>
       </c>
       <c r="AQ19" s="26"/>
@@ -9147,7 +9158,7 @@
         <v>-100</v>
       </c>
       <c r="AE20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF20" s="159">
@@ -9169,7 +9180,7 @@
       <c r="AN20" s="75"/>
       <c r="AO20" s="75"/>
       <c r="AP20" s="33">
-        <f>SUM(100*SUM(F20:AB20),AC20:AO20)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>-18.076923076923077</v>
       </c>
       <c r="AQ20" s="26"/>
@@ -9260,7 +9271,7 @@
         <v>50</v>
       </c>
       <c r="AE21" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF21" s="38">
@@ -9287,7 +9298,7 @@
       <c r="AN21" s="75"/>
       <c r="AO21" s="75"/>
       <c r="AP21" s="33">
-        <f>SUM(100*SUM(F21:AB21),AC21:AO21)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>99.230769230769226</v>
       </c>
       <c r="AQ21" s="26"/>
@@ -9378,7 +9389,7 @@
         <v>80</v>
       </c>
       <c r="AE22" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF22" s="38">
@@ -9405,7 +9416,7 @@
       <c r="AN22" s="75"/>
       <c r="AO22" s="75"/>
       <c r="AP22" s="33">
-        <f>SUM(100*SUM(F22:AB22),AC22:AO22)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>98.07692307692308</v>
       </c>
       <c r="AQ22" s="26"/>
@@ -9496,7 +9507,7 @@
         <v>-100</v>
       </c>
       <c r="AE23" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF23" s="159">
@@ -9520,7 +9531,7 @@
       <c r="AN23" s="75"/>
       <c r="AO23" s="75"/>
       <c r="AP23" s="33">
-        <f>SUM(100*SUM(F23:AB23),AC23:AO23)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>69.615384615384613</v>
       </c>
       <c r="AQ23" s="26"/>
@@ -9609,7 +9620,7 @@
         <v>-100</v>
       </c>
       <c r="AE24" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF24" s="159">
@@ -9631,7 +9642,7 @@
       <c r="AN24" s="75"/>
       <c r="AO24" s="75"/>
       <c r="AP24" s="33">
-        <f>SUM(100*SUM(F24:AB24),AC24:AO24)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>24.23076923076923</v>
       </c>
       <c r="AQ24" s="26"/>
@@ -9722,7 +9733,7 @@
         <v>100</v>
       </c>
       <c r="AE25" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-50</v>
       </c>
       <c r="AF25" s="110">
@@ -9746,7 +9757,7 @@
       <c r="AN25" s="75"/>
       <c r="AO25" s="75"/>
       <c r="AP25" s="33">
-        <f>SUM(100*SUM(F25:AB25),AC25:AO25)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>56.153846153846153</v>
       </c>
       <c r="AQ25" s="26"/>
@@ -9836,7 +9847,7 @@
         <v>50</v>
       </c>
       <c r="AE26" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AF26" s="116">
@@ -9865,7 +9876,7 @@
       <c r="AN26" s="90"/>
       <c r="AO26" s="90"/>
       <c r="AP26" s="33">
-        <f>SUM(100*SUM(F26:AB26),AC26:AO26)/$AP$1</f>
+        <f t="shared" si="0"/>
         <v>104.03846153846153</v>
       </c>
       <c r="AQ26" s="25"/>
@@ -9892,965 +9903,965 @@
       <c r="BL26" s="47"/>
     </row>
     <row r="27" spans="1:64" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="294" t="s">
+      <c r="A27" s="282" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="295"/>
-      <c r="C27" s="295"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="296"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="298"/>
-      <c r="J27" s="298"/>
-      <c r="K27" s="297"/>
-      <c r="L27" s="297"/>
-      <c r="M27" s="297"/>
-      <c r="N27" s="298"/>
-      <c r="O27" s="298"/>
-      <c r="P27" s="298"/>
-      <c r="Q27" s="298"/>
-      <c r="R27" s="298"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-      <c r="U27" s="299"/>
-      <c r="V27" s="299"/>
-      <c r="W27" s="299"/>
-      <c r="X27" s="299"/>
-      <c r="Y27" s="299"/>
-      <c r="Z27" s="299"/>
-      <c r="AA27" s="299"/>
-      <c r="AB27" s="299"/>
-      <c r="AC27" s="300"/>
-      <c r="AD27" s="297"/>
-      <c r="AE27" s="297"/>
-      <c r="AF27" s="297"/>
-      <c r="AG27" s="301"/>
-      <c r="AH27" s="297"/>
-      <c r="AI27" s="297"/>
-      <c r="AJ27" s="297"/>
-      <c r="AK27" s="297"/>
-      <c r="AL27" s="297"/>
-      <c r="AM27" s="297"/>
-      <c r="AN27" s="297"/>
-      <c r="AO27" s="302"/>
-      <c r="AP27" s="303"/>
+      <c r="B27" s="283"/>
+      <c r="C27" s="283"/>
+      <c r="D27" s="283"/>
+      <c r="E27" s="284"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="286"/>
+      <c r="I27" s="286"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="285"/>
+      <c r="L27" s="285"/>
+      <c r="M27" s="285"/>
+      <c r="N27" s="286"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="286"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" s="286"/>
+      <c r="S27" s="286"/>
+      <c r="T27" s="286"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="287"/>
+      <c r="W27" s="287"/>
+      <c r="X27" s="287"/>
+      <c r="Y27" s="287"/>
+      <c r="Z27" s="287"/>
+      <c r="AA27" s="287"/>
+      <c r="AB27" s="287"/>
+      <c r="AC27" s="288"/>
+      <c r="AD27" s="285"/>
+      <c r="AE27" s="285"/>
+      <c r="AF27" s="285"/>
+      <c r="AG27" s="289"/>
+      <c r="AH27" s="285"/>
+      <c r="AI27" s="285"/>
+      <c r="AJ27" s="285"/>
+      <c r="AK27" s="285"/>
+      <c r="AL27" s="285"/>
+      <c r="AM27" s="285"/>
+      <c r="AN27" s="285"/>
+      <c r="AO27" s="290"/>
+      <c r="AP27" s="291"/>
     </row>
     <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="304" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="305" t="str">
-        <f t="shared" ref="B28:AB28" si="1">B2</f>
+      <c r="A28" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="293" t="str">
+        <f t="shared" ref="B28:AB28" si="2">B2</f>
         <v>КР1</v>
       </c>
-      <c r="C28" s="306" t="str">
-        <f t="shared" si="1"/>
+      <c r="C28" s="294" t="str">
+        <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
-      <c r="D28" s="306"/>
-      <c r="E28" s="307" t="str">
-        <f t="shared" si="1"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="295" t="str">
+        <f t="shared" si="2"/>
         <v>Github</v>
       </c>
-      <c r="F28" s="308">
-        <f t="shared" si="1"/>
+      <c r="F28" s="296">
+        <f t="shared" si="2"/>
         <v>45691</v>
       </c>
-      <c r="G28" s="309">
-        <f t="shared" si="1"/>
+      <c r="G28" s="297">
+        <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="H28" s="309">
-        <f t="shared" si="1"/>
+      <c r="H28" s="297">
+        <f t="shared" si="2"/>
         <v>45701</v>
       </c>
-      <c r="I28" s="309">
-        <f t="shared" si="1"/>
+      <c r="I28" s="297">
+        <f t="shared" si="2"/>
         <v>45705</v>
       </c>
-      <c r="J28" s="309">
-        <f t="shared" si="1"/>
+      <c r="J28" s="297">
+        <f t="shared" si="2"/>
         <v>45712</v>
       </c>
-      <c r="K28" s="308">
-        <f t="shared" si="1"/>
+      <c r="K28" s="296">
+        <f t="shared" si="2"/>
         <v>45715</v>
       </c>
-      <c r="L28" s="308">
-        <f t="shared" si="1"/>
+      <c r="L28" s="296">
+        <f t="shared" si="2"/>
         <v>45719</v>
       </c>
-      <c r="M28" s="308">
-        <f t="shared" si="1"/>
+      <c r="M28" s="296">
+        <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="N28" s="309">
-        <f t="shared" si="1"/>
+      <c r="N28" s="297">
+        <f t="shared" si="2"/>
         <v>45729</v>
       </c>
-      <c r="O28" s="309">
-        <f t="shared" si="1"/>
+      <c r="O28" s="297">
+        <f t="shared" si="2"/>
         <v>45733</v>
       </c>
-      <c r="P28" s="309">
-        <f t="shared" si="1"/>
+      <c r="P28" s="297">
+        <f t="shared" si="2"/>
         <v>45740</v>
       </c>
-      <c r="Q28" s="309">
-        <f t="shared" si="1"/>
+      <c r="Q28" s="297">
+        <f t="shared" si="2"/>
         <v>45743</v>
       </c>
-      <c r="R28" s="309">
-        <f t="shared" si="1"/>
+      <c r="R28" s="297">
+        <f t="shared" si="2"/>
         <v>45747</v>
       </c>
-      <c r="S28" s="309">
-        <f t="shared" si="1"/>
+      <c r="S28" s="297">
+        <f t="shared" si="2"/>
         <v>45754</v>
       </c>
-      <c r="T28" s="309">
-        <f t="shared" si="1"/>
+      <c r="T28" s="297">
+        <f t="shared" si="2"/>
         <v>45761</v>
       </c>
-      <c r="U28" s="309">
-        <f t="shared" si="1"/>
+      <c r="U28" s="297">
+        <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="V28" s="309">
-        <f t="shared" si="1"/>
+      <c r="V28" s="297">
+        <f t="shared" si="2"/>
         <v>45771</v>
       </c>
-      <c r="W28" s="309">
-        <f t="shared" si="1"/>
+      <c r="W28" s="297">
+        <f t="shared" si="2"/>
         <v>45775</v>
       </c>
-      <c r="X28" s="309">
-        <f t="shared" si="1"/>
+      <c r="X28" s="297">
+        <f t="shared" si="2"/>
         <v>45782</v>
       </c>
-      <c r="Y28" s="309">
-        <f t="shared" si="1"/>
+      <c r="Y28" s="297">
+        <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="Z28" s="309">
-        <f t="shared" si="1"/>
+      <c r="Z28" s="297">
+        <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="AA28" s="309">
-        <f t="shared" si="1"/>
+      <c r="AA28" s="297">
+        <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="AB28" s="309">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="310" t="str">
-        <f t="shared" ref="AC28:AP28" si="2">AC2</f>
+      <c r="AB28" s="297">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="298" t="str">
+        <f t="shared" ref="AC28:AP28" si="3">AC2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
-      <c r="AD28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AD28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
-      <c r="AE28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AE28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
-      <c r="AF28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AF28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
-      <c r="AG28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AG28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
-      <c r="AH28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AH28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AI28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AI28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>ПР4. Telephony</v>
       </c>
-      <c r="AJ28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AJ28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>ПР5. Сокеты</v>
       </c>
-      <c r="AK28" s="311"/>
-      <c r="AL28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AK28" s="299"/>
+      <c r="AL28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>РГР</v>
       </c>
-      <c r="AM28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AM28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>К\Р</v>
       </c>
-      <c r="AN28" s="311">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="311">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="311" t="str">
-        <f t="shared" si="2"/>
+      <c r="AN28" s="299">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="299">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="299" t="str">
+        <f t="shared" si="3"/>
         <v>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="312" t="s">
+      <c r="A29" s="300" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="313">
+      <c r="B29" s="301">
         <v>2</v>
       </c>
-      <c r="C29" s="314"/>
-      <c r="D29" s="314"/>
-      <c r="E29" s="315" t="s">
+      <c r="C29" s="302"/>
+      <c r="D29" s="302"/>
+      <c r="E29" s="303" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="316">
-        <v>1</v>
-      </c>
-      <c r="G29" s="316">
-        <v>1</v>
-      </c>
-      <c r="H29" s="316">
+      <c r="F29" s="304">
+        <v>1</v>
+      </c>
+      <c r="G29" s="304">
+        <v>1</v>
+      </c>
+      <c r="H29" s="304">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="316">
-        <v>1</v>
-      </c>
-      <c r="J29" s="316">
-        <v>1</v>
-      </c>
-      <c r="K29" s="316">
-        <v>1</v>
-      </c>
-      <c r="L29" s="316">
-        <v>1</v>
-      </c>
-      <c r="M29" s="316">
-        <v>1</v>
-      </c>
-      <c r="N29" s="316">
-        <v>1</v>
-      </c>
-      <c r="O29" s="316">
-        <v>1</v>
-      </c>
-      <c r="P29" s="316">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="316">
-        <v>1</v>
-      </c>
-      <c r="R29" s="317" t="s">
+      <c r="I29" s="304">
+        <v>1</v>
+      </c>
+      <c r="J29" s="304">
+        <v>1</v>
+      </c>
+      <c r="K29" s="304">
+        <v>1</v>
+      </c>
+      <c r="L29" s="304">
+        <v>1</v>
+      </c>
+      <c r="M29" s="304">
+        <v>1</v>
+      </c>
+      <c r="N29" s="304">
+        <v>1</v>
+      </c>
+      <c r="O29" s="304">
+        <v>1</v>
+      </c>
+      <c r="P29" s="304">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="304">
+        <v>1</v>
+      </c>
+      <c r="R29" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="316">
+      <c r="S29" s="304">
         <v>3</v>
       </c>
-      <c r="T29" s="316">
-        <v>1</v>
-      </c>
-      <c r="U29" s="318">
-        <v>1</v>
-      </c>
-      <c r="V29" s="316">
-        <v>1</v>
-      </c>
-      <c r="W29" s="316">
-        <v>1</v>
-      </c>
-      <c r="X29" s="316">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="316">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="316"/>
-      <c r="AA29" s="316"/>
-      <c r="AB29" s="316"/>
-      <c r="AC29" s="319">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="320">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="321">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="322">
+      <c r="T29" s="304">
+        <v>1</v>
+      </c>
+      <c r="U29" s="306">
+        <v>1</v>
+      </c>
+      <c r="V29" s="304">
+        <v>1</v>
+      </c>
+      <c r="W29" s="304">
+        <v>1</v>
+      </c>
+      <c r="X29" s="304">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="304">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="304"/>
+      <c r="AA29" s="304"/>
+      <c r="AB29" s="304"/>
+      <c r="AC29" s="307">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="308">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="309">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="310">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG29" s="323">
-        <v>100</v>
-      </c>
-      <c r="AH29" s="322">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="322"/>
-      <c r="AJ29" s="322"/>
-      <c r="AK29" s="322"/>
-      <c r="AL29" s="322">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="322"/>
-      <c r="AN29" s="322"/>
-      <c r="AO29" s="322"/>
-      <c r="AP29" s="322">
-        <f>SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
+      <c r="AG29" s="311">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="310">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="310"/>
+      <c r="AJ29" s="310"/>
+      <c r="AK29" s="310"/>
+      <c r="AL29" s="310">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="310"/>
+      <c r="AN29" s="310"/>
+      <c r="AO29" s="310"/>
+      <c r="AP29" s="310">
+        <f t="shared" ref="AP29:AP48" si="4">SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
         <v>98.07692307692308</v>
       </c>
     </row>
     <row r="30" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="324" t="s">
+      <c r="A30" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="313">
-        <v>0</v>
-      </c>
-      <c r="C30" s="314"/>
-      <c r="D30" s="314"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="316">
-        <v>1</v>
-      </c>
-      <c r="G30" s="326">
-        <v>1</v>
-      </c>
-      <c r="H30" s="326">
-        <v>1</v>
-      </c>
-      <c r="I30" s="326">
-        <v>1</v>
-      </c>
-      <c r="J30" s="316">
+      <c r="B30" s="301">
+        <v>0</v>
+      </c>
+      <c r="C30" s="302"/>
+      <c r="D30" s="302"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="304">
+        <v>1</v>
+      </c>
+      <c r="G30" s="314">
+        <v>1</v>
+      </c>
+      <c r="H30" s="314">
+        <v>1</v>
+      </c>
+      <c r="I30" s="314">
+        <v>1</v>
+      </c>
+      <c r="J30" s="304">
         <v>-0.5</v>
       </c>
-      <c r="K30" s="316">
+      <c r="K30" s="304">
         <v>-0.5</v>
       </c>
-      <c r="L30" s="316">
+      <c r="L30" s="304">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="326">
-        <v>1</v>
-      </c>
-      <c r="N30" s="326">
-        <v>1</v>
-      </c>
-      <c r="O30" s="326">
-        <v>1</v>
-      </c>
-      <c r="P30" s="326">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="326">
-        <v>1</v>
-      </c>
-      <c r="R30" s="327">
-        <v>1</v>
-      </c>
-      <c r="S30" s="326">
+      <c r="M30" s="314">
+        <v>1</v>
+      </c>
+      <c r="N30" s="314">
+        <v>1</v>
+      </c>
+      <c r="O30" s="314">
+        <v>1</v>
+      </c>
+      <c r="P30" s="314">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="314">
+        <v>1</v>
+      </c>
+      <c r="R30" s="315">
+        <v>1</v>
+      </c>
+      <c r="S30" s="314">
         <v>3</v>
       </c>
-      <c r="T30" s="326">
-        <v>1</v>
-      </c>
-      <c r="U30" s="328">
+      <c r="T30" s="314">
+        <v>1</v>
+      </c>
+      <c r="U30" s="316">
         <v>-1</v>
       </c>
-      <c r="V30" s="316">
-        <v>1</v>
-      </c>
-      <c r="W30" s="326" t="s">
+      <c r="V30" s="304">
+        <v>1</v>
+      </c>
+      <c r="W30" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="326">
+      <c r="X30" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="314">
         <v>-1</v>
       </c>
-      <c r="Z30" s="326"/>
-      <c r="AA30" s="326"/>
-      <c r="AB30" s="326"/>
-      <c r="AC30" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="330">
+      <c r="Z30" s="314"/>
+      <c r="AA30" s="314"/>
+      <c r="AB30" s="314"/>
+      <c r="AC30" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="318">
         <f>-20 - 50 - 50</f>
         <v>-120</v>
       </c>
-      <c r="AE30" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="332">
+      <c r="AE30" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="320">
         <f>-50-20 + 40</f>
         <v>-30</v>
       </c>
-      <c r="AG30" s="333">
+      <c r="AG30" s="321">
         <v>-100</v>
       </c>
-      <c r="AH30" s="332">
+      <c r="AH30" s="320">
         <v>-100</v>
       </c>
-      <c r="AI30" s="332"/>
-      <c r="AJ30" s="332"/>
-      <c r="AK30" s="332"/>
-      <c r="AL30" s="332"/>
-      <c r="AM30" s="332"/>
-      <c r="AN30" s="332"/>
-      <c r="AO30" s="332"/>
-      <c r="AP30" s="322">
-        <f>SUM(100*SUM(F30:AB30),AC30:AO30)/$AP$1</f>
+      <c r="AI30" s="320"/>
+      <c r="AJ30" s="320"/>
+      <c r="AK30" s="320"/>
+      <c r="AL30" s="320"/>
+      <c r="AM30" s="320"/>
+      <c r="AN30" s="320"/>
+      <c r="AO30" s="320"/>
+      <c r="AP30" s="310">
+        <f t="shared" si="4"/>
         <v>38.46153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="324" t="s">
+      <c r="A31" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="313">
-        <v>0</v>
-      </c>
-      <c r="C31" s="314"/>
-      <c r="D31" s="314"/>
-      <c r="E31" s="315" t="s">
+      <c r="B31" s="301">
+        <v>0</v>
+      </c>
+      <c r="C31" s="302"/>
+      <c r="D31" s="302"/>
+      <c r="E31" s="303" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="316">
-        <v>1</v>
-      </c>
-      <c r="G31" s="326">
-        <v>1</v>
-      </c>
-      <c r="H31" s="326">
-        <v>1</v>
-      </c>
-      <c r="I31" s="326">
-        <v>1</v>
-      </c>
-      <c r="J31" s="326">
-        <v>1</v>
-      </c>
-      <c r="K31" s="326">
-        <v>1</v>
-      </c>
-      <c r="L31" s="316">
+      <c r="F31" s="304">
+        <v>1</v>
+      </c>
+      <c r="G31" s="314">
+        <v>1</v>
+      </c>
+      <c r="H31" s="314">
+        <v>1</v>
+      </c>
+      <c r="I31" s="314">
+        <v>1</v>
+      </c>
+      <c r="J31" s="314">
+        <v>1</v>
+      </c>
+      <c r="K31" s="314">
+        <v>1</v>
+      </c>
+      <c r="L31" s="304">
         <v>-0.5</v>
       </c>
-      <c r="M31" s="326">
+      <c r="M31" s="314">
         <v>-0.5</v>
       </c>
-      <c r="N31" s="326">
+      <c r="N31" s="314">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="326">
-        <v>1</v>
-      </c>
-      <c r="P31" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="334">
-        <v>1</v>
-      </c>
-      <c r="R31" s="327">
-        <v>1</v>
-      </c>
-      <c r="S31" s="326">
+      <c r="O31" s="314">
+        <v>1</v>
+      </c>
+      <c r="P31" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="322">
+        <v>1</v>
+      </c>
+      <c r="R31" s="315">
+        <v>1</v>
+      </c>
+      <c r="S31" s="314">
         <v>3</v>
       </c>
-      <c r="T31" s="326">
-        <v>1</v>
-      </c>
-      <c r="U31" s="328">
+      <c r="T31" s="314">
+        <v>1</v>
+      </c>
+      <c r="U31" s="316">
         <v>-1</v>
       </c>
-      <c r="V31" s="316">
-        <v>1</v>
-      </c>
-      <c r="W31" s="326">
-        <v>1</v>
-      </c>
-      <c r="X31" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="326"/>
-      <c r="AA31" s="326"/>
-      <c r="AB31" s="326"/>
-      <c r="AC31" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD31" s="335">
+      <c r="V31" s="304">
+        <v>1</v>
+      </c>
+      <c r="W31" s="314">
+        <v>1</v>
+      </c>
+      <c r="X31" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="314"/>
+      <c r="AA31" s="314"/>
+      <c r="AB31" s="314"/>
+      <c r="AC31" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="323">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE31" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="331">
+      <c r="AE31" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="319">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="AG31" s="333">
+      <c r="AG31" s="321">
         <v>60</v>
       </c>
-      <c r="AH31" s="332">
-        <v>100</v>
-      </c>
-      <c r="AI31" s="332"/>
-      <c r="AJ31" s="332"/>
-      <c r="AK31" s="332"/>
-      <c r="AL31" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="332"/>
-      <c r="AN31" s="332"/>
-      <c r="AO31" s="332"/>
-      <c r="AP31" s="322">
-        <f>SUM(100*SUM(F31:AB31),AC31:AO31)/$AP$1</f>
+      <c r="AH31" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI31" s="320"/>
+      <c r="AJ31" s="320"/>
+      <c r="AK31" s="320"/>
+      <c r="AL31" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="320"/>
+      <c r="AN31" s="320"/>
+      <c r="AO31" s="320"/>
+      <c r="AP31" s="310">
+        <f t="shared" si="4"/>
         <v>77.307692307692307</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="336" t="s">
+      <c r="A32" s="324" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="313">
+      <c r="B32" s="301">
         <v>2</v>
       </c>
-      <c r="C32" s="314"/>
-      <c r="D32" s="314"/>
-      <c r="E32" s="337" t="s">
+      <c r="C32" s="302"/>
+      <c r="D32" s="302"/>
+      <c r="E32" s="325" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="316">
-        <v>1</v>
-      </c>
-      <c r="G32" s="326">
-        <v>1</v>
-      </c>
-      <c r="H32" s="326">
-        <v>1</v>
-      </c>
-      <c r="I32" s="326">
-        <v>1</v>
-      </c>
-      <c r="J32" s="326">
-        <v>1</v>
-      </c>
-      <c r="K32" s="326">
-        <v>1</v>
-      </c>
-      <c r="L32" s="326">
-        <v>1</v>
-      </c>
-      <c r="M32" s="326">
-        <v>1</v>
-      </c>
-      <c r="N32" s="326">
-        <v>1</v>
-      </c>
-      <c r="O32" s="326">
-        <v>1</v>
-      </c>
-      <c r="P32" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="326">
-        <v>1</v>
-      </c>
-      <c r="R32" s="327">
-        <v>1</v>
-      </c>
-      <c r="S32" s="326">
+      <c r="F32" s="304">
+        <v>1</v>
+      </c>
+      <c r="G32" s="314">
+        <v>1</v>
+      </c>
+      <c r="H32" s="314">
+        <v>1</v>
+      </c>
+      <c r="I32" s="314">
+        <v>1</v>
+      </c>
+      <c r="J32" s="314">
+        <v>1</v>
+      </c>
+      <c r="K32" s="314">
+        <v>1</v>
+      </c>
+      <c r="L32" s="314">
+        <v>1</v>
+      </c>
+      <c r="M32" s="314">
+        <v>1</v>
+      </c>
+      <c r="N32" s="314">
+        <v>1</v>
+      </c>
+      <c r="O32" s="314">
+        <v>1</v>
+      </c>
+      <c r="P32" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="314">
+        <v>1</v>
+      </c>
+      <c r="R32" s="315">
+        <v>1</v>
+      </c>
+      <c r="S32" s="314">
         <v>3</v>
       </c>
-      <c r="T32" s="326">
-        <v>1</v>
-      </c>
-      <c r="U32" s="328">
-        <v>1</v>
-      </c>
-      <c r="V32" s="316">
-        <v>1</v>
-      </c>
-      <c r="W32" s="326">
-        <v>1</v>
-      </c>
-      <c r="X32" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD32" s="329">
+      <c r="T32" s="314">
+        <v>1</v>
+      </c>
+      <c r="U32" s="316">
+        <v>1</v>
+      </c>
+      <c r="V32" s="304">
+        <v>1</v>
+      </c>
+      <c r="W32" s="314">
+        <v>1</v>
+      </c>
+      <c r="X32" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="314"/>
+      <c r="AA32" s="314"/>
+      <c r="AB32" s="314"/>
+      <c r="AC32" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="317">
         <v>95</v>
       </c>
-      <c r="AE32" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF32" s="332">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="333">
+      <c r="AE32" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="320">
+        <v>100</v>
+      </c>
+      <c r="AG32" s="321">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH32" s="332">
-        <v>100</v>
-      </c>
-      <c r="AI32" s="332"/>
-      <c r="AJ32" s="332"/>
-      <c r="AK32" s="332"/>
-      <c r="AL32" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM32" s="332"/>
-      <c r="AN32" s="332"/>
-      <c r="AO32" s="332"/>
-      <c r="AP32" s="322">
-        <f>SUM(100*SUM(F32:AB32),AC32:AO32)/$AP$1</f>
+      <c r="AH32" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI32" s="320"/>
+      <c r="AJ32" s="320"/>
+      <c r="AK32" s="320"/>
+      <c r="AL32" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="320"/>
+      <c r="AN32" s="320"/>
+      <c r="AO32" s="320"/>
+      <c r="AP32" s="310">
+        <f t="shared" si="4"/>
         <v>110.57692307692308</v>
       </c>
     </row>
     <row r="33" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="324" t="s">
+      <c r="A33" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="313">
+      <c r="B33" s="301">
         <v>2</v>
       </c>
-      <c r="C33" s="314"/>
-      <c r="D33" s="314"/>
-      <c r="E33" s="315" t="s">
+      <c r="C33" s="302"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="303" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="316">
-        <v>1</v>
-      </c>
-      <c r="G33" s="326">
-        <v>1</v>
-      </c>
-      <c r="H33" s="326">
-        <v>1</v>
-      </c>
-      <c r="I33" s="326">
-        <v>1</v>
-      </c>
-      <c r="J33" s="326">
-        <v>1</v>
-      </c>
-      <c r="K33" s="326">
-        <v>1</v>
-      </c>
-      <c r="L33" s="326">
-        <v>1</v>
-      </c>
-      <c r="M33" s="326">
-        <v>1</v>
-      </c>
-      <c r="N33" s="326">
-        <v>1</v>
-      </c>
-      <c r="O33" s="326">
-        <v>1</v>
-      </c>
-      <c r="P33" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="326">
-        <v>1</v>
-      </c>
-      <c r="R33" s="327">
-        <v>1</v>
-      </c>
-      <c r="S33" s="326">
+      <c r="F33" s="304">
+        <v>1</v>
+      </c>
+      <c r="G33" s="314">
+        <v>1</v>
+      </c>
+      <c r="H33" s="314">
+        <v>1</v>
+      </c>
+      <c r="I33" s="314">
+        <v>1</v>
+      </c>
+      <c r="J33" s="314">
+        <v>1</v>
+      </c>
+      <c r="K33" s="314">
+        <v>1</v>
+      </c>
+      <c r="L33" s="314">
+        <v>1</v>
+      </c>
+      <c r="M33" s="314">
+        <v>1</v>
+      </c>
+      <c r="N33" s="314">
+        <v>1</v>
+      </c>
+      <c r="O33" s="314">
+        <v>1</v>
+      </c>
+      <c r="P33" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="314">
+        <v>1</v>
+      </c>
+      <c r="R33" s="315">
+        <v>1</v>
+      </c>
+      <c r="S33" s="314">
         <v>3</v>
       </c>
-      <c r="T33" s="326">
-        <v>1</v>
-      </c>
-      <c r="U33" s="328">
+      <c r="T33" s="314">
+        <v>1</v>
+      </c>
+      <c r="U33" s="316">
         <v>-1</v>
       </c>
-      <c r="V33" s="316">
-        <v>1</v>
-      </c>
-      <c r="W33" s="326">
-        <v>1</v>
-      </c>
-      <c r="X33" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="326"/>
-      <c r="AA33" s="326"/>
-      <c r="AB33" s="326"/>
-      <c r="AC33" s="329">
+      <c r="V33" s="304">
+        <v>1</v>
+      </c>
+      <c r="W33" s="314">
+        <v>1</v>
+      </c>
+      <c r="X33" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="314"/>
+      <c r="AA33" s="314"/>
+      <c r="AB33" s="314"/>
+      <c r="AC33" s="317">
         <v>80</v>
       </c>
-      <c r="AD33" s="329">
+      <c r="AD33" s="317">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AE33" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF33" s="331">
+      <c r="AE33" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="319">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG33" s="333">
+      <c r="AG33" s="321">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="AH33" s="332">
+      <c r="AH33" s="320">
         <v>-100</v>
       </c>
-      <c r="AI33" s="332"/>
-      <c r="AJ33" s="332"/>
-      <c r="AK33" s="332"/>
-      <c r="AL33" s="332"/>
-      <c r="AM33" s="332"/>
-      <c r="AN33" s="332"/>
-      <c r="AO33" s="332"/>
-      <c r="AP33" s="322">
-        <f>SUM(100*SUM(F33:AB33),AC33:AO33)/$AP$1</f>
+      <c r="AI33" s="320"/>
+      <c r="AJ33" s="320"/>
+      <c r="AK33" s="320"/>
+      <c r="AL33" s="320"/>
+      <c r="AM33" s="320"/>
+      <c r="AN33" s="320"/>
+      <c r="AO33" s="320"/>
+      <c r="AP33" s="310">
+        <f t="shared" si="4"/>
         <v>85.384615384615387</v>
       </c>
     </row>
     <row r="34" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="324" t="s">
+      <c r="A34" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="313">
-        <v>0</v>
-      </c>
-      <c r="C34" s="314"/>
-      <c r="D34" s="314"/>
-      <c r="E34" s="337" t="s">
+      <c r="B34" s="301">
+        <v>0</v>
+      </c>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="325" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="316">
-        <v>1</v>
-      </c>
-      <c r="G34" s="338">
-        <v>1</v>
-      </c>
-      <c r="H34" s="316">
+      <c r="F34" s="304">
+        <v>1</v>
+      </c>
+      <c r="G34" s="326">
+        <v>1</v>
+      </c>
+      <c r="H34" s="304">
         <v>-0.5</v>
       </c>
-      <c r="I34" s="316">
+      <c r="I34" s="304">
         <v>-0.5</v>
       </c>
-      <c r="J34" s="338">
-        <v>1</v>
-      </c>
-      <c r="K34" s="338">
-        <v>1</v>
-      </c>
-      <c r="L34" s="316">
+      <c r="J34" s="326">
+        <v>1</v>
+      </c>
+      <c r="K34" s="326">
+        <v>1</v>
+      </c>
+      <c r="L34" s="304">
         <v>-0.5</v>
       </c>
-      <c r="M34" s="338">
+      <c r="M34" s="326">
         <v>-0.5</v>
       </c>
-      <c r="N34" s="338">
-        <v>1</v>
-      </c>
-      <c r="O34" s="338">
-        <v>1</v>
-      </c>
-      <c r="P34" s="338">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="338">
-        <v>1</v>
-      </c>
-      <c r="R34" s="317" t="s">
+      <c r="N34" s="326">
+        <v>1</v>
+      </c>
+      <c r="O34" s="326">
+        <v>1</v>
+      </c>
+      <c r="P34" s="326">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="326">
+        <v>1</v>
+      </c>
+      <c r="R34" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="S34" s="338">
+      <c r="S34" s="326">
         <v>3</v>
       </c>
-      <c r="T34" s="338">
+      <c r="T34" s="326">
         <v>-0.5</v>
       </c>
-      <c r="U34" s="328">
+      <c r="U34" s="316">
         <v>-1</v>
       </c>
-      <c r="V34" s="316">
-        <v>1</v>
-      </c>
-      <c r="W34" s="326">
-        <v>1</v>
-      </c>
-      <c r="X34" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="326">
+      <c r="V34" s="304">
+        <v>1</v>
+      </c>
+      <c r="W34" s="314">
+        <v>1</v>
+      </c>
+      <c r="X34" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="314">
         <v>-1</v>
       </c>
-      <c r="Z34" s="326"/>
-      <c r="AA34" s="326"/>
-      <c r="AB34" s="326"/>
-      <c r="AC34" s="329">
+      <c r="Z34" s="314"/>
+      <c r="AA34" s="314"/>
+      <c r="AB34" s="314"/>
+      <c r="AC34" s="317">
         <v>80</v>
       </c>
-      <c r="AD34" s="339">
+      <c r="AD34" s="327">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE34" s="340">
+      <c r="AE34" s="328">
         <v>-100</v>
       </c>
-      <c r="AF34" s="332">
+      <c r="AF34" s="320">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AG34" s="341">
+      <c r="AG34" s="329">
         <f>-100</f>
         <v>-100</v>
       </c>
-      <c r="AH34" s="340">
+      <c r="AH34" s="328">
         <v>-100</v>
       </c>
-      <c r="AI34" s="340"/>
-      <c r="AJ34" s="340"/>
-      <c r="AK34" s="340"/>
-      <c r="AL34" s="340"/>
-      <c r="AM34" s="340"/>
-      <c r="AN34" s="340"/>
-      <c r="AO34" s="340"/>
-      <c r="AP34" s="322">
-        <f>SUM(100*SUM(F34:AB34),AC34:AO34)/$AP$1</f>
+      <c r="AI34" s="328"/>
+      <c r="AJ34" s="328"/>
+      <c r="AK34" s="328"/>
+      <c r="AL34" s="328"/>
+      <c r="AM34" s="328"/>
+      <c r="AN34" s="328"/>
+      <c r="AO34" s="328"/>
+      <c r="AP34" s="310">
+        <f t="shared" si="4"/>
         <v>20.384615384615383</v>
       </c>
     </row>
     <row r="35" spans="1:64" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="342" t="s">
+      <c r="A35" s="330" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="313">
+      <c r="B35" s="301">
         <v>2</v>
       </c>
-      <c r="C35" s="313"/>
-      <c r="D35" s="313"/>
-      <c r="E35" s="343" t="s">
+      <c r="C35" s="301"/>
+      <c r="D35" s="301"/>
+      <c r="E35" s="331" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="344">
-        <v>1</v>
-      </c>
-      <c r="G35" s="338">
-        <v>1</v>
-      </c>
-      <c r="H35" s="338">
-        <v>1</v>
-      </c>
-      <c r="I35" s="338">
-        <v>1</v>
-      </c>
-      <c r="J35" s="338">
-        <v>1</v>
-      </c>
-      <c r="K35" s="338">
-        <v>1</v>
-      </c>
-      <c r="L35" s="338">
-        <v>1</v>
-      </c>
-      <c r="M35" s="338">
-        <v>1</v>
-      </c>
-      <c r="N35" s="338">
-        <v>1</v>
-      </c>
-      <c r="O35" s="338">
-        <v>1</v>
-      </c>
-      <c r="P35" s="338">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="338">
-        <v>1</v>
-      </c>
-      <c r="R35" s="345">
-        <v>1</v>
-      </c>
-      <c r="S35" s="338">
+      <c r="F35" s="332">
+        <v>1</v>
+      </c>
+      <c r="G35" s="326">
+        <v>1</v>
+      </c>
+      <c r="H35" s="326">
+        <v>1</v>
+      </c>
+      <c r="I35" s="326">
+        <v>1</v>
+      </c>
+      <c r="J35" s="326">
+        <v>1</v>
+      </c>
+      <c r="K35" s="326">
+        <v>1</v>
+      </c>
+      <c r="L35" s="326">
+        <v>1</v>
+      </c>
+      <c r="M35" s="326">
+        <v>1</v>
+      </c>
+      <c r="N35" s="326">
+        <v>1</v>
+      </c>
+      <c r="O35" s="326">
+        <v>1</v>
+      </c>
+      <c r="P35" s="326">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="326">
+        <v>1</v>
+      </c>
+      <c r="R35" s="333">
+        <v>1</v>
+      </c>
+      <c r="S35" s="326">
         <v>3</v>
       </c>
-      <c r="T35" s="338">
-        <v>1</v>
-      </c>
-      <c r="U35" s="346">
-        <v>1</v>
-      </c>
-      <c r="V35" s="316">
-        <v>1</v>
-      </c>
-      <c r="W35" s="338">
-        <v>1</v>
-      </c>
-      <c r="X35" s="338">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="338">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="338"/>
-      <c r="AA35" s="338"/>
-      <c r="AB35" s="338"/>
-      <c r="AC35" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="329">
-        <v>100</v>
-      </c>
-      <c r="AE35" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF35" s="331">
+      <c r="T35" s="326">
+        <v>1</v>
+      </c>
+      <c r="U35" s="334">
+        <v>1</v>
+      </c>
+      <c r="V35" s="304">
+        <v>1</v>
+      </c>
+      <c r="W35" s="326">
+        <v>1</v>
+      </c>
+      <c r="X35" s="326">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="326">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="326"/>
+      <c r="AA35" s="326"/>
+      <c r="AB35" s="326"/>
+      <c r="AC35" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="317">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="319">
         <f>50+50</f>
         <v>100</v>
       </c>
-      <c r="AG35" s="341">
+      <c r="AG35" s="329">
         <v>80</v>
       </c>
-      <c r="AH35" s="340">
-        <v>100</v>
-      </c>
-      <c r="AI35" s="340"/>
-      <c r="AJ35" s="340"/>
-      <c r="AK35" s="340"/>
-      <c r="AL35" s="340">
-        <v>100</v>
-      </c>
-      <c r="AM35" s="340"/>
-      <c r="AN35" s="340"/>
-      <c r="AO35" s="340"/>
-      <c r="AP35" s="322">
-        <f>SUM(100*SUM(F35:AB35),AC35:AO35)/$AP$1</f>
+      <c r="AH35" s="328">
+        <v>100</v>
+      </c>
+      <c r="AI35" s="328"/>
+      <c r="AJ35" s="328"/>
+      <c r="AK35" s="328"/>
+      <c r="AL35" s="328">
+        <v>100</v>
+      </c>
+      <c r="AM35" s="328"/>
+      <c r="AN35" s="328"/>
+      <c r="AO35" s="328"/>
+      <c r="AP35" s="310">
+        <f t="shared" si="4"/>
         <v>110.76923076923077</v>
       </c>
       <c r="AQ35" s="47"/>
@@ -10877,1574 +10888,1574 @@
       <c r="BL35" s="47"/>
     </row>
     <row r="36" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="347" t="s">
+      <c r="A36" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="313">
+      <c r="B36" s="301">
         <v>2</v>
       </c>
-      <c r="C36" s="314"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="337" t="s">
+      <c r="C36" s="302"/>
+      <c r="D36" s="302"/>
+      <c r="E36" s="325" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="316">
-        <v>1</v>
-      </c>
-      <c r="G36" s="338">
-        <v>1</v>
-      </c>
-      <c r="H36" s="338">
-        <v>1</v>
-      </c>
-      <c r="I36" s="338">
-        <v>1</v>
-      </c>
-      <c r="J36" s="338">
-        <v>1</v>
-      </c>
-      <c r="K36" s="338">
-        <v>1</v>
-      </c>
-      <c r="L36" s="338">
-        <v>1</v>
-      </c>
-      <c r="M36" s="338">
-        <v>1</v>
-      </c>
-      <c r="N36" s="338">
-        <v>1</v>
-      </c>
-      <c r="O36" s="338">
-        <v>1</v>
-      </c>
-      <c r="P36" s="338">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="338">
-        <v>1</v>
-      </c>
-      <c r="R36" s="345">
-        <v>1</v>
-      </c>
-      <c r="S36" s="338">
+      <c r="F36" s="304">
+        <v>1</v>
+      </c>
+      <c r="G36" s="326">
+        <v>1</v>
+      </c>
+      <c r="H36" s="326">
+        <v>1</v>
+      </c>
+      <c r="I36" s="326">
+        <v>1</v>
+      </c>
+      <c r="J36" s="326">
+        <v>1</v>
+      </c>
+      <c r="K36" s="326">
+        <v>1</v>
+      </c>
+      <c r="L36" s="326">
+        <v>1</v>
+      </c>
+      <c r="M36" s="326">
+        <v>1</v>
+      </c>
+      <c r="N36" s="326">
+        <v>1</v>
+      </c>
+      <c r="O36" s="326">
+        <v>1</v>
+      </c>
+      <c r="P36" s="326">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="326">
+        <v>1</v>
+      </c>
+      <c r="R36" s="333">
+        <v>1</v>
+      </c>
+      <c r="S36" s="326">
         <v>3</v>
       </c>
-      <c r="T36" s="338">
-        <v>1</v>
-      </c>
-      <c r="U36" s="346">
-        <v>1</v>
-      </c>
-      <c r="V36" s="316">
-        <v>1</v>
-      </c>
-      <c r="W36" s="338">
-        <v>1</v>
-      </c>
-      <c r="X36" s="338">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="338">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="338"/>
-      <c r="AA36" s="338"/>
-      <c r="AB36" s="338"/>
-      <c r="AC36" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="329">
+      <c r="T36" s="326">
+        <v>1</v>
+      </c>
+      <c r="U36" s="334">
+        <v>1</v>
+      </c>
+      <c r="V36" s="304">
+        <v>1</v>
+      </c>
+      <c r="W36" s="326">
+        <v>1</v>
+      </c>
+      <c r="X36" s="326">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="326">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="326"/>
+      <c r="AA36" s="326"/>
+      <c r="AB36" s="326"/>
+      <c r="AC36" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD36" s="317">
         <f>-20 - 20 + 80</f>
         <v>40</v>
       </c>
-      <c r="AE36" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF36" s="348">
+      <c r="AE36" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF36" s="336">
         <f>10 + 50</f>
         <v>60</v>
       </c>
-      <c r="AG36" s="341">
+      <c r="AG36" s="329">
         <f>100 - 100 + 50</f>
         <v>50</v>
       </c>
-      <c r="AH36" s="340">
+      <c r="AH36" s="328">
         <f>-20+80</f>
         <v>60</v>
       </c>
-      <c r="AI36" s="340"/>
-      <c r="AJ36" s="340"/>
-      <c r="AK36" s="340"/>
-      <c r="AL36" s="340">
-        <v>100</v>
-      </c>
-      <c r="AM36" s="340"/>
-      <c r="AN36" s="340"/>
-      <c r="AO36" s="340"/>
-      <c r="AP36" s="322">
-        <f>SUM(100*SUM(F36:AB36),AC36:AO36)/$AP$1</f>
+      <c r="AI36" s="328"/>
+      <c r="AJ36" s="328"/>
+      <c r="AK36" s="328"/>
+      <c r="AL36" s="328">
+        <v>100</v>
+      </c>
+      <c r="AM36" s="328"/>
+      <c r="AN36" s="328"/>
+      <c r="AO36" s="328"/>
+      <c r="AP36" s="310">
+        <f t="shared" si="4"/>
         <v>104.23076923076923</v>
       </c>
     </row>
     <row r="37" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="324" t="s">
+      <c r="A37" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="313">
-        <v>0</v>
-      </c>
-      <c r="C37" s="314"/>
-      <c r="D37" s="314"/>
-      <c r="E37" s="314" t="s">
+      <c r="B37" s="301">
+        <v>0</v>
+      </c>
+      <c r="C37" s="302"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="316">
-        <v>1</v>
-      </c>
-      <c r="G37" s="326">
-        <v>1</v>
-      </c>
-      <c r="H37" s="326">
-        <v>1</v>
-      </c>
-      <c r="I37" s="326">
-        <v>1</v>
-      </c>
-      <c r="J37" s="326">
-        <v>1</v>
-      </c>
-      <c r="K37" s="326">
-        <v>1</v>
-      </c>
-      <c r="L37" s="326">
-        <v>1</v>
-      </c>
-      <c r="M37" s="326">
+      <c r="F37" s="304">
+        <v>1</v>
+      </c>
+      <c r="G37" s="314">
+        <v>1</v>
+      </c>
+      <c r="H37" s="314">
+        <v>1</v>
+      </c>
+      <c r="I37" s="314">
+        <v>1</v>
+      </c>
+      <c r="J37" s="314">
+        <v>1</v>
+      </c>
+      <c r="K37" s="314">
+        <v>1</v>
+      </c>
+      <c r="L37" s="314">
+        <v>1</v>
+      </c>
+      <c r="M37" s="314">
         <v>-0.5</v>
       </c>
-      <c r="N37" s="326">
-        <v>1</v>
-      </c>
-      <c r="O37" s="326">
-        <v>1</v>
-      </c>
-      <c r="P37" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="326">
-        <v>1</v>
-      </c>
-      <c r="R37" s="327">
-        <v>1</v>
-      </c>
-      <c r="S37" s="326">
+      <c r="N37" s="314">
+        <v>1</v>
+      </c>
+      <c r="O37" s="314">
+        <v>1</v>
+      </c>
+      <c r="P37" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="314">
+        <v>1</v>
+      </c>
+      <c r="R37" s="315">
+        <v>1</v>
+      </c>
+      <c r="S37" s="314">
         <v>3</v>
       </c>
-      <c r="T37" s="326">
-        <v>1</v>
-      </c>
-      <c r="U37" s="328">
-        <v>1</v>
-      </c>
-      <c r="V37" s="316">
-        <v>1</v>
-      </c>
-      <c r="W37" s="326">
-        <v>1</v>
-      </c>
-      <c r="X37" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="326"/>
-      <c r="AA37" s="326"/>
-      <c r="AB37" s="326"/>
-      <c r="AC37" s="329">
+      <c r="T37" s="314">
+        <v>1</v>
+      </c>
+      <c r="U37" s="316">
+        <v>1</v>
+      </c>
+      <c r="V37" s="304">
+        <v>1</v>
+      </c>
+      <c r="W37" s="314">
+        <v>1</v>
+      </c>
+      <c r="X37" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="314"/>
+      <c r="AA37" s="314"/>
+      <c r="AB37" s="314"/>
+      <c r="AC37" s="317">
         <v>60</v>
       </c>
-      <c r="AD37" s="329">
+      <c r="AD37" s="317">
         <f>-50 + 30 - 50 -50</f>
         <v>-120</v>
       </c>
-      <c r="AE37" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF37" s="331">
+      <c r="AE37" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="319">
         <f>-50 + 50 + 50</f>
         <v>50</v>
       </c>
-      <c r="AG37" s="333">
+      <c r="AG37" s="321">
         <v>70</v>
       </c>
-      <c r="AH37" s="332">
+      <c r="AH37" s="320">
         <v>-100</v>
       </c>
-      <c r="AI37" s="332"/>
-      <c r="AJ37" s="332"/>
-      <c r="AK37" s="332"/>
-      <c r="AL37" s="332">
+      <c r="AI37" s="320"/>
+      <c r="AJ37" s="320"/>
+      <c r="AK37" s="320"/>
+      <c r="AL37" s="320">
         <v>50</v>
       </c>
-      <c r="AM37" s="332"/>
-      <c r="AN37" s="332"/>
-      <c r="AO37" s="332"/>
-      <c r="AP37" s="322">
-        <f>SUM(100*SUM(F37:AB37),AC37:AO37)/$AP$1</f>
+      <c r="AM37" s="320"/>
+      <c r="AN37" s="320"/>
+      <c r="AO37" s="320"/>
+      <c r="AP37" s="310">
+        <f t="shared" si="4"/>
         <v>83.07692307692308</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="336" t="s">
+      <c r="A38" s="324" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="313">
+      <c r="B38" s="301">
         <v>2</v>
       </c>
-      <c r="C38" s="314"/>
-      <c r="D38" s="314"/>
-      <c r="E38" s="337" t="s">
+      <c r="C38" s="302"/>
+      <c r="D38" s="302"/>
+      <c r="E38" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="316">
-        <v>1</v>
-      </c>
-      <c r="G38" s="326">
-        <v>1</v>
-      </c>
-      <c r="H38" s="326">
-        <v>1</v>
-      </c>
-      <c r="I38" s="326">
-        <v>1</v>
-      </c>
-      <c r="J38" s="326">
-        <v>1</v>
-      </c>
-      <c r="K38" s="326">
-        <v>1</v>
-      </c>
-      <c r="L38" s="326">
-        <v>1</v>
-      </c>
-      <c r="M38" s="326">
-        <v>1</v>
-      </c>
-      <c r="N38" s="326">
-        <v>1</v>
-      </c>
-      <c r="O38" s="326">
-        <v>1</v>
-      </c>
-      <c r="P38" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="326">
-        <v>1</v>
-      </c>
-      <c r="R38" s="327">
-        <v>1</v>
-      </c>
-      <c r="S38" s="326">
+      <c r="F38" s="304">
+        <v>1</v>
+      </c>
+      <c r="G38" s="314">
+        <v>1</v>
+      </c>
+      <c r="H38" s="314">
+        <v>1</v>
+      </c>
+      <c r="I38" s="314">
+        <v>1</v>
+      </c>
+      <c r="J38" s="314">
+        <v>1</v>
+      </c>
+      <c r="K38" s="314">
+        <v>1</v>
+      </c>
+      <c r="L38" s="314">
+        <v>1</v>
+      </c>
+      <c r="M38" s="314">
+        <v>1</v>
+      </c>
+      <c r="N38" s="314">
+        <v>1</v>
+      </c>
+      <c r="O38" s="314">
+        <v>1</v>
+      </c>
+      <c r="P38" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="314">
+        <v>1</v>
+      </c>
+      <c r="R38" s="315">
+        <v>1</v>
+      </c>
+      <c r="S38" s="314">
         <v>3</v>
       </c>
-      <c r="T38" s="326">
-        <v>1</v>
-      </c>
-      <c r="U38" s="328">
-        <v>1</v>
-      </c>
-      <c r="V38" s="316">
-        <v>1</v>
-      </c>
-      <c r="W38" s="326">
-        <v>1</v>
-      </c>
-      <c r="X38" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="326"/>
-      <c r="AA38" s="326"/>
-      <c r="AB38" s="326"/>
-      <c r="AC38" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="329">
+      <c r="T38" s="314">
+        <v>1</v>
+      </c>
+      <c r="U38" s="316">
+        <v>1</v>
+      </c>
+      <c r="V38" s="304">
+        <v>1</v>
+      </c>
+      <c r="W38" s="314">
+        <v>1</v>
+      </c>
+      <c r="X38" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="314"/>
+      <c r="AA38" s="314"/>
+      <c r="AB38" s="314"/>
+      <c r="AC38" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD38" s="317">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE38" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF38" s="331">
-        <v>100</v>
-      </c>
-      <c r="AG38" s="333">
+      <c r="AE38" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF38" s="319">
+        <v>100</v>
+      </c>
+      <c r="AG38" s="321">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH38" s="332">
+      <c r="AH38" s="320">
         <f>-20+100</f>
         <v>80</v>
       </c>
-      <c r="AI38" s="332"/>
-      <c r="AJ38" s="332"/>
-      <c r="AK38" s="332"/>
-      <c r="AL38" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="332"/>
-      <c r="AN38" s="332"/>
-      <c r="AO38" s="332"/>
-      <c r="AP38" s="322">
-        <f>SUM(100*SUM(F38:AB38),AC38:AO38)/$AP$1</f>
+      <c r="AI38" s="320"/>
+      <c r="AJ38" s="320"/>
+      <c r="AK38" s="320"/>
+      <c r="AL38" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="320"/>
+      <c r="AN38" s="320"/>
+      <c r="AO38" s="320"/>
+      <c r="AP38" s="310">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="336" t="s">
+      <c r="A39" s="324" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="313">
+      <c r="B39" s="301">
         <v>2</v>
       </c>
-      <c r="C39" s="314"/>
-      <c r="D39" s="314"/>
-      <c r="E39" s="337" t="s">
+      <c r="C39" s="302"/>
+      <c r="D39" s="302"/>
+      <c r="E39" s="325" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="316">
-        <v>1</v>
-      </c>
-      <c r="G39" s="326">
-        <v>1</v>
-      </c>
-      <c r="H39" s="326">
-        <v>1</v>
-      </c>
-      <c r="I39" s="326">
-        <v>1</v>
-      </c>
-      <c r="J39" s="326">
-        <v>1</v>
-      </c>
-      <c r="K39" s="326">
-        <v>1</v>
-      </c>
-      <c r="L39" s="326">
-        <v>1</v>
-      </c>
-      <c r="M39" s="326">
-        <v>1</v>
-      </c>
-      <c r="N39" s="326">
-        <v>1</v>
-      </c>
-      <c r="O39" s="326">
-        <v>1</v>
-      </c>
-      <c r="P39" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="326">
-        <v>1</v>
-      </c>
-      <c r="R39" s="327">
-        <v>1</v>
-      </c>
-      <c r="S39" s="326">
+      <c r="F39" s="304">
+        <v>1</v>
+      </c>
+      <c r="G39" s="314">
+        <v>1</v>
+      </c>
+      <c r="H39" s="314">
+        <v>1</v>
+      </c>
+      <c r="I39" s="314">
+        <v>1</v>
+      </c>
+      <c r="J39" s="314">
+        <v>1</v>
+      </c>
+      <c r="K39" s="314">
+        <v>1</v>
+      </c>
+      <c r="L39" s="314">
+        <v>1</v>
+      </c>
+      <c r="M39" s="314">
+        <v>1</v>
+      </c>
+      <c r="N39" s="314">
+        <v>1</v>
+      </c>
+      <c r="O39" s="314">
+        <v>1</v>
+      </c>
+      <c r="P39" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="314">
+        <v>1</v>
+      </c>
+      <c r="R39" s="315">
+        <v>1</v>
+      </c>
+      <c r="S39" s="314">
         <v>3</v>
       </c>
-      <c r="T39" s="326">
-        <v>1</v>
-      </c>
-      <c r="U39" s="328">
-        <v>1</v>
-      </c>
-      <c r="V39" s="316">
-        <v>1</v>
-      </c>
-      <c r="W39" s="326">
-        <v>1</v>
-      </c>
-      <c r="X39" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="326"/>
-      <c r="AA39" s="326"/>
-      <c r="AB39" s="326"/>
-      <c r="AC39" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD39" s="329">
-        <v>100</v>
-      </c>
-      <c r="AE39" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF39" s="331">
-        <v>100</v>
-      </c>
-      <c r="AG39" s="333">
-        <v>100</v>
-      </c>
-      <c r="AH39" s="332">
-        <v>100</v>
-      </c>
-      <c r="AI39" s="332"/>
-      <c r="AJ39" s="332"/>
-      <c r="AK39" s="332"/>
-      <c r="AL39" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM39" s="332"/>
-      <c r="AN39" s="332"/>
-      <c r="AO39" s="332"/>
-      <c r="AP39" s="322">
-        <f>SUM(100*SUM(F39:AB39),AC39:AO39)/$AP$1</f>
+      <c r="T39" s="314">
+        <v>1</v>
+      </c>
+      <c r="U39" s="316">
+        <v>1</v>
+      </c>
+      <c r="V39" s="304">
+        <v>1</v>
+      </c>
+      <c r="W39" s="314">
+        <v>1</v>
+      </c>
+      <c r="X39" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="314"/>
+      <c r="AA39" s="314"/>
+      <c r="AB39" s="314"/>
+      <c r="AC39" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD39" s="317">
+        <v>100</v>
+      </c>
+      <c r="AE39" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF39" s="319">
+        <v>100</v>
+      </c>
+      <c r="AG39" s="321">
+        <v>100</v>
+      </c>
+      <c r="AH39" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI39" s="320"/>
+      <c r="AJ39" s="320"/>
+      <c r="AK39" s="320"/>
+      <c r="AL39" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="320"/>
+      <c r="AN39" s="320"/>
+      <c r="AO39" s="320"/>
+      <c r="AP39" s="310">
+        <f t="shared" si="4"/>
         <v>111.53846153846153</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="324" t="s">
+      <c r="A40" s="312" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="313">
+      <c r="B40" s="301">
         <v>2</v>
       </c>
-      <c r="C40" s="314"/>
-      <c r="D40" s="314"/>
-      <c r="E40" s="337" t="s">
+      <c r="C40" s="302"/>
+      <c r="D40" s="302"/>
+      <c r="E40" s="325" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="316">
-        <v>1</v>
-      </c>
-      <c r="G40" s="326">
-        <v>1</v>
-      </c>
-      <c r="H40" s="326">
-        <v>1</v>
-      </c>
-      <c r="I40" s="326">
-        <v>1</v>
-      </c>
-      <c r="J40" s="326">
-        <v>1</v>
-      </c>
-      <c r="K40" s="326">
-        <v>1</v>
-      </c>
-      <c r="L40" s="326">
-        <v>1</v>
-      </c>
-      <c r="M40" s="326">
-        <v>1</v>
-      </c>
-      <c r="N40" s="326">
-        <v>1</v>
-      </c>
-      <c r="O40" s="326">
-        <v>1</v>
-      </c>
-      <c r="P40" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="326">
-        <v>1</v>
-      </c>
-      <c r="R40" s="327">
-        <v>1</v>
-      </c>
-      <c r="S40" s="326">
+      <c r="F40" s="304">
+        <v>1</v>
+      </c>
+      <c r="G40" s="314">
+        <v>1</v>
+      </c>
+      <c r="H40" s="314">
+        <v>1</v>
+      </c>
+      <c r="I40" s="314">
+        <v>1</v>
+      </c>
+      <c r="J40" s="314">
+        <v>1</v>
+      </c>
+      <c r="K40" s="314">
+        <v>1</v>
+      </c>
+      <c r="L40" s="314">
+        <v>1</v>
+      </c>
+      <c r="M40" s="314">
+        <v>1</v>
+      </c>
+      <c r="N40" s="314">
+        <v>1</v>
+      </c>
+      <c r="O40" s="314">
+        <v>1</v>
+      </c>
+      <c r="P40" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="314">
+        <v>1</v>
+      </c>
+      <c r="R40" s="315">
+        <v>1</v>
+      </c>
+      <c r="S40" s="314">
         <v>3</v>
       </c>
-      <c r="T40" s="326">
-        <v>1</v>
-      </c>
-      <c r="U40" s="328">
-        <v>1</v>
-      </c>
-      <c r="V40" s="316">
-        <v>1</v>
-      </c>
-      <c r="W40" s="326">
-        <v>1</v>
-      </c>
-      <c r="X40" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="326"/>
-      <c r="AA40" s="326"/>
-      <c r="AB40" s="326"/>
-      <c r="AC40" s="329">
+      <c r="T40" s="314">
+        <v>1</v>
+      </c>
+      <c r="U40" s="316">
+        <v>1</v>
+      </c>
+      <c r="V40" s="304">
+        <v>1</v>
+      </c>
+      <c r="W40" s="314">
+        <v>1</v>
+      </c>
+      <c r="X40" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="314"/>
+      <c r="AA40" s="314"/>
+      <c r="AB40" s="314"/>
+      <c r="AC40" s="317">
         <v>60</v>
       </c>
-      <c r="AD40" s="329">
-        <v>100</v>
-      </c>
-      <c r="AE40" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF40" s="331">
+      <c r="AD40" s="317">
+        <v>100</v>
+      </c>
+      <c r="AE40" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="319">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG40" s="333">
-        <v>100</v>
-      </c>
-      <c r="AH40" s="332">
-        <v>100</v>
-      </c>
-      <c r="AI40" s="340"/>
-      <c r="AJ40" s="340"/>
-      <c r="AK40" s="340"/>
-      <c r="AL40" s="340">
-        <v>100</v>
-      </c>
-      <c r="AM40" s="332"/>
-      <c r="AN40" s="332"/>
-      <c r="AO40" s="332"/>
-      <c r="AP40" s="322">
-        <f>SUM(100*SUM(F40:AB40),AC40:AO40)/$AP$1</f>
+      <c r="AG40" s="321">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI40" s="328"/>
+      <c r="AJ40" s="328"/>
+      <c r="AK40" s="328"/>
+      <c r="AL40" s="328">
+        <v>100</v>
+      </c>
+      <c r="AM40" s="320"/>
+      <c r="AN40" s="320"/>
+      <c r="AO40" s="320"/>
+      <c r="AP40" s="310">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="324" t="s">
+      <c r="A41" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="313">
+      <c r="B41" s="301">
         <v>2</v>
       </c>
-      <c r="C41" s="314"/>
-      <c r="D41" s="314"/>
-      <c r="E41" s="337" t="s">
+      <c r="C41" s="302"/>
+      <c r="D41" s="302"/>
+      <c r="E41" s="325" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="316">
-        <v>1</v>
-      </c>
-      <c r="G41" s="316">
+      <c r="F41" s="304">
+        <v>1</v>
+      </c>
+      <c r="G41" s="304">
         <v>-0.5</v>
       </c>
-      <c r="H41" s="338">
-        <v>1</v>
-      </c>
-      <c r="I41" s="338">
-        <v>1</v>
-      </c>
-      <c r="J41" s="338">
-        <v>1</v>
-      </c>
-      <c r="K41" s="338">
-        <v>1</v>
-      </c>
-      <c r="L41" s="316">
+      <c r="H41" s="326">
+        <v>1</v>
+      </c>
+      <c r="I41" s="326">
+        <v>1</v>
+      </c>
+      <c r="J41" s="326">
+        <v>1</v>
+      </c>
+      <c r="K41" s="326">
+        <v>1</v>
+      </c>
+      <c r="L41" s="304">
         <v>-0.5</v>
       </c>
-      <c r="M41" s="338">
-        <v>1</v>
-      </c>
-      <c r="N41" s="338">
-        <v>1</v>
-      </c>
-      <c r="O41" s="338">
-        <v>1</v>
-      </c>
-      <c r="P41" s="338">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="338">
-        <v>1</v>
-      </c>
-      <c r="R41" s="345">
-        <v>1</v>
-      </c>
-      <c r="S41" s="338">
+      <c r="M41" s="326">
+        <v>1</v>
+      </c>
+      <c r="N41" s="326">
+        <v>1</v>
+      </c>
+      <c r="O41" s="326">
+        <v>1</v>
+      </c>
+      <c r="P41" s="326">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="326">
+        <v>1</v>
+      </c>
+      <c r="R41" s="333">
+        <v>1</v>
+      </c>
+      <c r="S41" s="326">
         <v>3</v>
       </c>
-      <c r="T41" s="338">
-        <v>1</v>
-      </c>
-      <c r="U41" s="346">
-        <v>1</v>
-      </c>
-      <c r="V41" s="316">
-        <v>1</v>
-      </c>
-      <c r="W41" s="338">
-        <v>1</v>
-      </c>
-      <c r="X41" s="338">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="338">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="338"/>
-      <c r="AA41" s="338"/>
-      <c r="AB41" s="338"/>
-      <c r="AC41" s="329">
+      <c r="T41" s="326">
+        <v>1</v>
+      </c>
+      <c r="U41" s="334">
+        <v>1</v>
+      </c>
+      <c r="V41" s="304">
+        <v>1</v>
+      </c>
+      <c r="W41" s="326">
+        <v>1</v>
+      </c>
+      <c r="X41" s="326">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="326">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="326"/>
+      <c r="AA41" s="326"/>
+      <c r="AB41" s="326"/>
+      <c r="AC41" s="317">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD41" s="329">
+      <c r="AD41" s="317">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE41" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF41" s="331">
-        <v>100</v>
-      </c>
-      <c r="AG41" s="341">
+      <c r="AE41" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="319">
+        <v>100</v>
+      </c>
+      <c r="AG41" s="329">
         <v>60</v>
       </c>
-      <c r="AH41" s="340">
-        <v>100</v>
-      </c>
-      <c r="AI41" s="340"/>
-      <c r="AJ41" s="340"/>
-      <c r="AK41" s="340"/>
-      <c r="AL41" s="340">
-        <v>100</v>
-      </c>
-      <c r="AM41" s="340"/>
-      <c r="AN41" s="340"/>
-      <c r="AO41" s="340"/>
-      <c r="AP41" s="322">
-        <f>SUM(100*SUM(F41:AB41),AC41:AO41)/$AP$1</f>
+      <c r="AH41" s="328">
+        <v>100</v>
+      </c>
+      <c r="AI41" s="328"/>
+      <c r="AJ41" s="328"/>
+      <c r="AK41" s="328"/>
+      <c r="AL41" s="328">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="328"/>
+      <c r="AN41" s="328"/>
+      <c r="AO41" s="328"/>
+      <c r="AP41" s="310">
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="324" t="s">
+      <c r="A42" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="313">
-        <v>0</v>
-      </c>
-      <c r="C42" s="314"/>
-      <c r="D42" s="314"/>
-      <c r="E42" s="343" t="s">
+      <c r="B42" s="301">
+        <v>0</v>
+      </c>
+      <c r="C42" s="302"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="331" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="316">
-        <v>1</v>
-      </c>
-      <c r="G42" s="316">
+      <c r="F42" s="304">
+        <v>1</v>
+      </c>
+      <c r="G42" s="304">
         <v>-0.5</v>
       </c>
-      <c r="H42" s="326">
-        <v>1</v>
-      </c>
-      <c r="I42" s="316">
+      <c r="H42" s="314">
+        <v>1</v>
+      </c>
+      <c r="I42" s="304">
         <v>-0.5</v>
       </c>
-      <c r="J42" s="326">
-        <v>1</v>
-      </c>
-      <c r="K42" s="326">
-        <v>1</v>
-      </c>
-      <c r="L42" s="326">
-        <v>1</v>
-      </c>
-      <c r="M42" s="326">
-        <v>1</v>
-      </c>
-      <c r="N42" s="326">
-        <v>1</v>
-      </c>
-      <c r="O42" s="326">
-        <v>1</v>
-      </c>
-      <c r="P42" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="326">
-        <v>1</v>
-      </c>
-      <c r="R42" s="327">
-        <v>1</v>
-      </c>
-      <c r="S42" s="326">
+      <c r="J42" s="314">
+        <v>1</v>
+      </c>
+      <c r="K42" s="314">
+        <v>1</v>
+      </c>
+      <c r="L42" s="314">
+        <v>1</v>
+      </c>
+      <c r="M42" s="314">
+        <v>1</v>
+      </c>
+      <c r="N42" s="314">
+        <v>1</v>
+      </c>
+      <c r="O42" s="314">
+        <v>1</v>
+      </c>
+      <c r="P42" s="314">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="314">
+        <v>1</v>
+      </c>
+      <c r="R42" s="315">
+        <v>1</v>
+      </c>
+      <c r="S42" s="314">
         <v>3</v>
       </c>
-      <c r="T42" s="326">
-        <v>1</v>
-      </c>
-      <c r="U42" s="328">
-        <v>1</v>
-      </c>
-      <c r="V42" s="316">
-        <v>1</v>
-      </c>
-      <c r="W42" s="326">
-        <v>1</v>
-      </c>
-      <c r="X42" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="329">
+      <c r="T42" s="314">
+        <v>1</v>
+      </c>
+      <c r="U42" s="316">
+        <v>1</v>
+      </c>
+      <c r="V42" s="304">
+        <v>1</v>
+      </c>
+      <c r="W42" s="314">
+        <v>1</v>
+      </c>
+      <c r="X42" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="314"/>
+      <c r="AA42" s="314"/>
+      <c r="AB42" s="314"/>
+      <c r="AC42" s="317">
         <f>-40 - 20 + 100</f>
         <v>40</v>
       </c>
-      <c r="AD42" s="339">
+      <c r="AD42" s="327">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE42" s="332">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="332">
+      <c r="AE42" s="320">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="320">
         <f>-50 + 20 - 20+50</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="333">
+      <c r="AG42" s="321">
         <v>-100</v>
       </c>
-      <c r="AH42" s="332">
+      <c r="AH42" s="320">
         <v>70</v>
       </c>
-      <c r="AI42" s="340"/>
-      <c r="AJ42" s="340"/>
-      <c r="AK42" s="340"/>
-      <c r="AL42" s="340">
-        <v>100</v>
-      </c>
-      <c r="AM42" s="332"/>
-      <c r="AN42" s="332"/>
-      <c r="AO42" s="332"/>
-      <c r="AP42" s="322">
-        <f>SUM(100*SUM(F42:AB42),AC42:AO42)/$AP$1</f>
+      <c r="AI42" s="328"/>
+      <c r="AJ42" s="328"/>
+      <c r="AK42" s="328"/>
+      <c r="AL42" s="328">
+        <v>100</v>
+      </c>
+      <c r="AM42" s="320"/>
+      <c r="AN42" s="320"/>
+      <c r="AO42" s="320"/>
+      <c r="AP42" s="310">
+        <f t="shared" si="4"/>
         <v>73.461538461538467</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="324" t="s">
+      <c r="A43" s="312" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="313">
-        <v>0</v>
-      </c>
-      <c r="C43" s="295"/>
-      <c r="D43" s="295"/>
-      <c r="E43" s="343" t="s">
+      <c r="B43" s="301">
+        <v>0</v>
+      </c>
+      <c r="C43" s="283"/>
+      <c r="D43" s="283"/>
+      <c r="E43" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="316">
-        <v>1</v>
-      </c>
-      <c r="G43" s="326">
-        <v>1</v>
-      </c>
-      <c r="H43" s="316">
+      <c r="F43" s="304">
+        <v>1</v>
+      </c>
+      <c r="G43" s="314">
+        <v>1</v>
+      </c>
+      <c r="H43" s="304">
         <v>-0.5</v>
       </c>
-      <c r="I43" s="316">
+      <c r="I43" s="304">
         <v>-0.5</v>
       </c>
-      <c r="J43" s="326">
-        <v>1</v>
-      </c>
-      <c r="K43" s="326">
-        <v>1</v>
-      </c>
-      <c r="L43" s="326">
-        <v>1</v>
-      </c>
-      <c r="M43" s="326">
+      <c r="J43" s="314">
+        <v>1</v>
+      </c>
+      <c r="K43" s="314">
+        <v>1</v>
+      </c>
+      <c r="L43" s="314">
+        <v>1</v>
+      </c>
+      <c r="M43" s="314">
         <v>-0.5</v>
       </c>
-      <c r="N43" s="326">
-        <v>1</v>
-      </c>
-      <c r="O43" s="326">
-        <v>1</v>
-      </c>
-      <c r="P43" s="326">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="326">
-        <v>1</v>
-      </c>
-      <c r="R43" s="327">
-        <v>1</v>
-      </c>
-      <c r="S43" s="326">
+      <c r="N43" s="314">
+        <v>1</v>
+      </c>
+      <c r="O43" s="314">
+        <v>1</v>
+      </c>
+      <c r="P43" s="314">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="314">
+        <v>1</v>
+      </c>
+      <c r="R43" s="315">
+        <v>1</v>
+      </c>
+      <c r="S43" s="314">
         <v>3</v>
       </c>
-      <c r="T43" s="326">
-        <v>1</v>
-      </c>
-      <c r="U43" s="328">
+      <c r="T43" s="314">
+        <v>1</v>
+      </c>
+      <c r="U43" s="316">
         <v>-1</v>
       </c>
-      <c r="V43" s="316">
-        <v>1</v>
-      </c>
-      <c r="W43" s="326">
-        <v>1</v>
-      </c>
-      <c r="X43" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="326"/>
-      <c r="AA43" s="326"/>
-      <c r="AB43" s="326"/>
-      <c r="AC43" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD43" s="329">
+      <c r="V43" s="304">
+        <v>1</v>
+      </c>
+      <c r="W43" s="314">
+        <v>1</v>
+      </c>
+      <c r="X43" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="314"/>
+      <c r="AA43" s="314"/>
+      <c r="AB43" s="314"/>
+      <c r="AC43" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="317">
         <f>-50 - 50 + 40</f>
         <v>-60</v>
       </c>
-      <c r="AE43" s="332">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="332">
+      <c r="AE43" s="320">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="320">
         <f>-50-20+100</f>
         <v>30</v>
       </c>
-      <c r="AG43" s="333">
+      <c r="AG43" s="321">
         <v>70</v>
       </c>
-      <c r="AH43" s="332">
-        <v>100</v>
-      </c>
-      <c r="AI43" s="332">
+      <c r="AH43" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI43" s="320">
         <v>40</v>
       </c>
-      <c r="AJ43" s="332"/>
-      <c r="AK43" s="332"/>
-      <c r="AL43" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM43" s="332"/>
-      <c r="AN43" s="332"/>
-      <c r="AO43" s="332"/>
-      <c r="AP43" s="322">
-        <f>SUM(100*SUM(F43:AB43),AC43:AO43)/$AP$1</f>
+      <c r="AJ43" s="320"/>
+      <c r="AK43" s="320"/>
+      <c r="AL43" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM43" s="320"/>
+      <c r="AN43" s="320"/>
+      <c r="AO43" s="320"/>
+      <c r="AP43" s="310">
+        <f t="shared" si="4"/>
         <v>70.384615384615387</v>
       </c>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A44" s="324" t="s">
+      <c r="A44" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="313">
-        <v>0</v>
-      </c>
-      <c r="C44" s="314"/>
-      <c r="D44" s="314"/>
-      <c r="E44" s="337" t="s">
+      <c r="B44" s="301">
+        <v>0</v>
+      </c>
+      <c r="C44" s="302"/>
+      <c r="D44" s="302"/>
+      <c r="E44" s="325" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="316">
-        <v>1</v>
-      </c>
-      <c r="G44" s="349">
-        <v>1</v>
-      </c>
-      <c r="H44" s="349">
-        <v>1</v>
-      </c>
-      <c r="I44" s="349">
-        <v>1</v>
-      </c>
-      <c r="J44" s="349">
-        <v>1</v>
-      </c>
-      <c r="K44" s="349">
-        <v>1</v>
-      </c>
-      <c r="L44" s="349">
-        <v>1</v>
-      </c>
-      <c r="M44" s="349">
+      <c r="F44" s="304">
+        <v>1</v>
+      </c>
+      <c r="G44" s="337">
+        <v>1</v>
+      </c>
+      <c r="H44" s="337">
+        <v>1</v>
+      </c>
+      <c r="I44" s="337">
+        <v>1</v>
+      </c>
+      <c r="J44" s="337">
+        <v>1</v>
+      </c>
+      <c r="K44" s="337">
+        <v>1</v>
+      </c>
+      <c r="L44" s="337">
+        <v>1</v>
+      </c>
+      <c r="M44" s="337">
         <v>-0.5</v>
       </c>
-      <c r="N44" s="349">
-        <v>1</v>
-      </c>
-      <c r="O44" s="349">
-        <v>1</v>
-      </c>
-      <c r="P44" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="349">
-        <v>1</v>
-      </c>
-      <c r="R44" s="350">
-        <v>1</v>
-      </c>
-      <c r="S44" s="349">
+      <c r="N44" s="337">
+        <v>1</v>
+      </c>
+      <c r="O44" s="337">
+        <v>1</v>
+      </c>
+      <c r="P44" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="337">
+        <v>1</v>
+      </c>
+      <c r="R44" s="338">
+        <v>1</v>
+      </c>
+      <c r="S44" s="337">
         <v>3</v>
       </c>
-      <c r="T44" s="349">
-        <v>1</v>
-      </c>
-      <c r="U44" s="328">
+      <c r="T44" s="337">
+        <v>1</v>
+      </c>
+      <c r="U44" s="316">
         <v>-1</v>
       </c>
-      <c r="V44" s="316">
-        <v>1</v>
-      </c>
-      <c r="W44" s="326">
-        <v>1</v>
-      </c>
-      <c r="X44" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="326">
+      <c r="V44" s="304">
+        <v>1</v>
+      </c>
+      <c r="W44" s="314">
+        <v>1</v>
+      </c>
+      <c r="X44" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="314">
         <v>-1</v>
       </c>
-      <c r="Z44" s="326"/>
-      <c r="AA44" s="326"/>
-      <c r="AB44" s="326"/>
-      <c r="AC44" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD44" s="335">
+      <c r="Z44" s="314"/>
+      <c r="AA44" s="314"/>
+      <c r="AB44" s="314"/>
+      <c r="AC44" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="323">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE44" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF44" s="332">
+      <c r="AE44" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF44" s="320">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="AG44" s="332">
+      <c r="AG44" s="320">
         <v>40</v>
       </c>
-      <c r="AH44" s="331">
-        <v>100</v>
-      </c>
-      <c r="AI44" s="332"/>
-      <c r="AJ44" s="332"/>
-      <c r="AK44" s="332"/>
-      <c r="AL44" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM44" s="332"/>
-      <c r="AN44" s="332"/>
-      <c r="AO44" s="332"/>
-      <c r="AP44" s="322">
-        <f>SUM(100*SUM(F44:AB44),AC44:AO44)/$AP$1</f>
+      <c r="AH44" s="319">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="320"/>
+      <c r="AJ44" s="320"/>
+      <c r="AK44" s="320"/>
+      <c r="AL44" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM44" s="320"/>
+      <c r="AN44" s="320"/>
+      <c r="AO44" s="320"/>
+      <c r="AP44" s="310">
+        <f t="shared" si="4"/>
         <v>78.461538461538467</v>
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A45" s="324" t="s">
+      <c r="A45" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="313">
-        <v>1</v>
-      </c>
-      <c r="C45" s="314"/>
-      <c r="D45" s="314"/>
-      <c r="E45" s="314" t="s">
+      <c r="B45" s="301">
+        <v>1</v>
+      </c>
+      <c r="C45" s="302"/>
+      <c r="D45" s="302"/>
+      <c r="E45" s="302" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="316">
-        <v>1</v>
-      </c>
-      <c r="G45" s="316">
+      <c r="F45" s="304">
+        <v>1</v>
+      </c>
+      <c r="G45" s="304">
         <v>-0.5</v>
       </c>
-      <c r="H45" s="349">
-        <v>1</v>
-      </c>
-      <c r="I45" s="349">
-        <v>1</v>
-      </c>
-      <c r="J45" s="349">
-        <v>1</v>
-      </c>
-      <c r="K45" s="349">
-        <v>1</v>
-      </c>
-      <c r="L45" s="316">
+      <c r="H45" s="337">
+        <v>1</v>
+      </c>
+      <c r="I45" s="337">
+        <v>1</v>
+      </c>
+      <c r="J45" s="337">
+        <v>1</v>
+      </c>
+      <c r="K45" s="337">
+        <v>1</v>
+      </c>
+      <c r="L45" s="304">
         <v>-0.5</v>
       </c>
-      <c r="M45" s="349">
-        <v>1</v>
-      </c>
-      <c r="N45" s="349">
-        <v>1</v>
-      </c>
-      <c r="O45" s="349">
-        <v>1</v>
-      </c>
-      <c r="P45" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="349">
-        <v>1</v>
-      </c>
-      <c r="R45" s="350">
-        <v>1</v>
-      </c>
-      <c r="S45" s="349">
+      <c r="M45" s="337">
+        <v>1</v>
+      </c>
+      <c r="N45" s="337">
+        <v>1</v>
+      </c>
+      <c r="O45" s="337">
+        <v>1</v>
+      </c>
+      <c r="P45" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="337">
+        <v>1</v>
+      </c>
+      <c r="R45" s="338">
+        <v>1</v>
+      </c>
+      <c r="S45" s="337">
         <v>3</v>
       </c>
-      <c r="T45" s="349">
-        <v>1</v>
-      </c>
-      <c r="U45" s="351">
-        <v>1</v>
-      </c>
-      <c r="V45" s="316">
-        <v>1</v>
-      </c>
-      <c r="W45" s="349">
-        <v>1</v>
-      </c>
-      <c r="X45" s="349">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="349">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="349"/>
-      <c r="AA45" s="349"/>
-      <c r="AB45" s="349"/>
-      <c r="AC45" s="329">
+      <c r="T45" s="337">
+        <v>1</v>
+      </c>
+      <c r="U45" s="339">
+        <v>1</v>
+      </c>
+      <c r="V45" s="304">
+        <v>1</v>
+      </c>
+      <c r="W45" s="337">
+        <v>1</v>
+      </c>
+      <c r="X45" s="337">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="337">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="337"/>
+      <c r="AA45" s="337"/>
+      <c r="AB45" s="337"/>
+      <c r="AC45" s="317">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD45" s="329">
+      <c r="AD45" s="317">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE45" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF45" s="331">
+      <c r="AE45" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="319">
         <f>-50 + 130</f>
         <v>80</v>
       </c>
-      <c r="AG45" s="332">
+      <c r="AG45" s="320">
         <v>-100</v>
       </c>
-      <c r="AH45" s="332">
+      <c r="AH45" s="320">
         <v>-100</v>
       </c>
-      <c r="AI45" s="332"/>
-      <c r="AJ45" s="332"/>
-      <c r="AK45" s="332"/>
-      <c r="AL45" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM45" s="332"/>
-      <c r="AN45" s="332"/>
-      <c r="AO45" s="332"/>
-      <c r="AP45" s="322">
-        <f>SUM(100*SUM(F45:AB45),AC45:AO45)/$AP$1</f>
+      <c r="AI45" s="320"/>
+      <c r="AJ45" s="320"/>
+      <c r="AK45" s="320"/>
+      <c r="AL45" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="320"/>
+      <c r="AN45" s="320"/>
+      <c r="AO45" s="320"/>
+      <c r="AP45" s="310">
+        <f t="shared" si="4"/>
         <v>80.384615384615387</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A46" s="324" t="s">
+      <c r="A46" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="313">
-        <v>1</v>
-      </c>
-      <c r="C46" s="314"/>
-      <c r="D46" s="314"/>
-      <c r="E46" s="325" t="s">
+      <c r="B46" s="301">
+        <v>1</v>
+      </c>
+      <c r="C46" s="302"/>
+      <c r="D46" s="302"/>
+      <c r="E46" s="313" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="316">
-        <v>1</v>
-      </c>
-      <c r="G46" s="349">
-        <v>1</v>
-      </c>
-      <c r="H46" s="349">
-        <v>1</v>
-      </c>
-      <c r="I46" s="349">
-        <v>1</v>
-      </c>
-      <c r="J46" s="316">
+      <c r="F46" s="304">
+        <v>1</v>
+      </c>
+      <c r="G46" s="337">
+        <v>1</v>
+      </c>
+      <c r="H46" s="337">
+        <v>1</v>
+      </c>
+      <c r="I46" s="337">
+        <v>1</v>
+      </c>
+      <c r="J46" s="304">
         <v>-0.5</v>
       </c>
-      <c r="K46" s="349">
-        <v>1</v>
-      </c>
-      <c r="L46" s="349">
-        <v>1</v>
-      </c>
-      <c r="M46" s="349">
+      <c r="K46" s="337">
+        <v>1</v>
+      </c>
+      <c r="L46" s="337">
+        <v>1</v>
+      </c>
+      <c r="M46" s="337">
         <v>-0.5</v>
       </c>
-      <c r="N46" s="349">
-        <v>1</v>
-      </c>
-      <c r="O46" s="349">
-        <v>1</v>
-      </c>
-      <c r="P46" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="349">
-        <v>1</v>
-      </c>
-      <c r="R46" s="350">
-        <v>1</v>
-      </c>
-      <c r="S46" s="349">
+      <c r="N46" s="337">
+        <v>1</v>
+      </c>
+      <c r="O46" s="337">
+        <v>1</v>
+      </c>
+      <c r="P46" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="337">
+        <v>1</v>
+      </c>
+      <c r="R46" s="338">
+        <v>1</v>
+      </c>
+      <c r="S46" s="337">
         <v>3</v>
       </c>
-      <c r="T46" s="349">
-        <v>1</v>
-      </c>
-      <c r="U46" s="351">
-        <v>1</v>
-      </c>
-      <c r="V46" s="316">
-        <v>1</v>
-      </c>
-      <c r="W46" s="349">
-        <v>1</v>
-      </c>
-      <c r="X46" s="349">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="349">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="349"/>
-      <c r="AA46" s="349"/>
-      <c r="AB46" s="349"/>
-      <c r="AC46" s="329">
-        <v>100</v>
-      </c>
-      <c r="AD46" s="329">
+      <c r="T46" s="337">
+        <v>1</v>
+      </c>
+      <c r="U46" s="339">
+        <v>1</v>
+      </c>
+      <c r="V46" s="304">
+        <v>1</v>
+      </c>
+      <c r="W46" s="337">
+        <v>1</v>
+      </c>
+      <c r="X46" s="337">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="337">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="337"/>
+      <c r="AA46" s="337"/>
+      <c r="AB46" s="337"/>
+      <c r="AC46" s="317">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="317">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF46" s="331">
+      <c r="AE46" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="319">
         <f>50 + 10 + 20+20</f>
         <v>100</v>
       </c>
-      <c r="AG46" s="332">
+      <c r="AG46" s="320">
         <v>-100</v>
       </c>
-      <c r="AH46" s="332">
+      <c r="AH46" s="320">
         <v>-100</v>
       </c>
-      <c r="AI46" s="332"/>
-      <c r="AJ46" s="332"/>
-      <c r="AK46" s="332"/>
-      <c r="AL46" s="332">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="332"/>
-      <c r="AN46" s="332"/>
-      <c r="AO46" s="332"/>
-      <c r="AP46" s="322">
-        <f>SUM(100*SUM(F46:AB46),AC46:AO46)/$AP$1</f>
+      <c r="AI46" s="320"/>
+      <c r="AJ46" s="320"/>
+      <c r="AK46" s="320"/>
+      <c r="AL46" s="320">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="320"/>
+      <c r="AN46" s="320"/>
+      <c r="AO46" s="320"/>
+      <c r="AP46" s="310">
+        <f t="shared" si="4"/>
         <v>76.961538461538467</v>
       </c>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A47" s="347" t="s">
+      <c r="A47" s="335" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="313">
-        <v>0</v>
-      </c>
-      <c r="C47" s="314"/>
-      <c r="D47" s="314"/>
-      <c r="E47" s="314" t="s">
+      <c r="B47" s="301">
+        <v>0</v>
+      </c>
+      <c r="C47" s="302"/>
+      <c r="D47" s="302"/>
+      <c r="E47" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="316">
-        <v>1</v>
-      </c>
-      <c r="G47" s="349">
-        <v>1</v>
-      </c>
-      <c r="H47" s="349">
-        <v>1</v>
-      </c>
-      <c r="I47" s="349">
-        <v>1</v>
-      </c>
-      <c r="J47" s="349">
-        <v>1</v>
-      </c>
-      <c r="K47" s="349">
-        <v>1</v>
-      </c>
-      <c r="L47" s="349">
-        <v>1</v>
-      </c>
-      <c r="M47" s="349">
-        <v>1</v>
-      </c>
-      <c r="N47" s="349">
-        <v>1</v>
-      </c>
-      <c r="O47" s="349">
-        <v>1</v>
-      </c>
-      <c r="P47" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="349">
-        <v>1</v>
-      </c>
-      <c r="R47" s="350">
-        <v>1</v>
-      </c>
-      <c r="S47" s="349">
+      <c r="F47" s="304">
+        <v>1</v>
+      </c>
+      <c r="G47" s="337">
+        <v>1</v>
+      </c>
+      <c r="H47" s="337">
+        <v>1</v>
+      </c>
+      <c r="I47" s="337">
+        <v>1</v>
+      </c>
+      <c r="J47" s="337">
+        <v>1</v>
+      </c>
+      <c r="K47" s="337">
+        <v>1</v>
+      </c>
+      <c r="L47" s="337">
+        <v>1</v>
+      </c>
+      <c r="M47" s="337">
+        <v>1</v>
+      </c>
+      <c r="N47" s="337">
+        <v>1</v>
+      </c>
+      <c r="O47" s="337">
+        <v>1</v>
+      </c>
+      <c r="P47" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="337">
+        <v>1</v>
+      </c>
+      <c r="R47" s="338">
+        <v>1</v>
+      </c>
+      <c r="S47" s="337">
         <v>3</v>
       </c>
-      <c r="T47" s="349">
-        <v>1</v>
-      </c>
-      <c r="U47" s="351">
-        <v>1</v>
-      </c>
-      <c r="V47" s="316">
-        <v>1</v>
-      </c>
-      <c r="W47" s="349">
-        <v>1</v>
-      </c>
-      <c r="X47" s="349">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="349">
+      <c r="T47" s="337">
+        <v>1</v>
+      </c>
+      <c r="U47" s="339">
+        <v>1</v>
+      </c>
+      <c r="V47" s="304">
+        <v>1</v>
+      </c>
+      <c r="W47" s="337">
+        <v>1</v>
+      </c>
+      <c r="X47" s="337">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="337">
         <v>-1</v>
       </c>
-      <c r="Z47" s="349"/>
-      <c r="AA47" s="349"/>
-      <c r="AB47" s="349"/>
-      <c r="AC47" s="329">
+      <c r="Z47" s="337"/>
+      <c r="AA47" s="337"/>
+      <c r="AB47" s="337"/>
+      <c r="AC47" s="317">
         <v>60</v>
       </c>
-      <c r="AD47" s="339">
+      <c r="AD47" s="327">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE47" s="331">
-        <v>100</v>
-      </c>
-      <c r="AF47" s="332">
+      <c r="AE47" s="319">
+        <v>100</v>
+      </c>
+      <c r="AF47" s="320">
         <v>-100</v>
       </c>
-      <c r="AG47" s="332">
+      <c r="AG47" s="320">
         <v>-100</v>
       </c>
-      <c r="AH47" s="332">
+      <c r="AH47" s="320">
         <v>-100</v>
       </c>
-      <c r="AI47" s="332"/>
-      <c r="AJ47" s="332"/>
-      <c r="AK47" s="332"/>
-      <c r="AL47" s="332"/>
-      <c r="AM47" s="332"/>
-      <c r="AN47" s="332"/>
-      <c r="AO47" s="332"/>
-      <c r="AP47" s="322">
-        <f>SUM(100*SUM(F47:AB47),AC47:AO47)/$AP$1</f>
+      <c r="AI47" s="320"/>
+      <c r="AJ47" s="320"/>
+      <c r="AK47" s="320"/>
+      <c r="AL47" s="320"/>
+      <c r="AM47" s="320"/>
+      <c r="AN47" s="320"/>
+      <c r="AO47" s="320"/>
+      <c r="AP47" s="310">
+        <f t="shared" si="4"/>
         <v>67.692307692307693</v>
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A48" s="342" t="s">
+      <c r="A48" s="330" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="313">
-        <v>1</v>
-      </c>
-      <c r="C48" s="314"/>
-      <c r="D48" s="314"/>
-      <c r="E48" s="343" t="s">
+      <c r="B48" s="301">
+        <v>1</v>
+      </c>
+      <c r="C48" s="302"/>
+      <c r="D48" s="302"/>
+      <c r="E48" s="331" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="316">
-        <v>1</v>
-      </c>
-      <c r="G48" s="316">
+      <c r="F48" s="304">
+        <v>1</v>
+      </c>
+      <c r="G48" s="304">
         <v>-0.5</v>
       </c>
-      <c r="H48" s="349">
-        <v>1</v>
-      </c>
-      <c r="I48" s="316">
+      <c r="H48" s="337">
+        <v>1</v>
+      </c>
+      <c r="I48" s="304">
         <v>-0.5</v>
       </c>
-      <c r="J48" s="349">
-        <v>1</v>
-      </c>
-      <c r="K48" s="349">
-        <v>1</v>
-      </c>
-      <c r="L48" s="349">
-        <v>1</v>
-      </c>
-      <c r="M48" s="349">
+      <c r="J48" s="337">
+        <v>1</v>
+      </c>
+      <c r="K48" s="337">
+        <v>1</v>
+      </c>
+      <c r="L48" s="337">
+        <v>1</v>
+      </c>
+      <c r="M48" s="337">
         <v>-0.5</v>
       </c>
-      <c r="N48" s="349">
-        <v>1</v>
-      </c>
-      <c r="O48" s="349">
-        <v>1</v>
-      </c>
-      <c r="P48" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="349">
-        <v>1</v>
-      </c>
-      <c r="R48" s="350">
-        <v>1</v>
-      </c>
-      <c r="S48" s="349">
+      <c r="N48" s="337">
+        <v>1</v>
+      </c>
+      <c r="O48" s="337">
+        <v>1</v>
+      </c>
+      <c r="P48" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="337">
+        <v>1</v>
+      </c>
+      <c r="R48" s="338">
+        <v>1</v>
+      </c>
+      <c r="S48" s="337">
         <v>3</v>
       </c>
-      <c r="T48" s="349">
-        <v>1</v>
-      </c>
-      <c r="U48" s="351">
-        <v>1</v>
-      </c>
-      <c r="V48" s="316">
-        <v>1</v>
-      </c>
-      <c r="W48" s="349">
-        <v>1</v>
-      </c>
-      <c r="X48" s="349">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="349">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="349"/>
-      <c r="AA48" s="349"/>
-      <c r="AB48" s="349"/>
-      <c r="AC48" s="329">
+      <c r="T48" s="337">
+        <v>1</v>
+      </c>
+      <c r="U48" s="339">
+        <v>1</v>
+      </c>
+      <c r="V48" s="304">
+        <v>1</v>
+      </c>
+      <c r="W48" s="337">
+        <v>1</v>
+      </c>
+      <c r="X48" s="337">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="337">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="337"/>
+      <c r="AA48" s="337"/>
+      <c r="AB48" s="337"/>
+      <c r="AC48" s="317">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD48" s="329">
+      <c r="AD48" s="317">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="332">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="331">
+      <c r="AE48" s="320">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="319">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG48" s="331">
-        <v>100</v>
-      </c>
-      <c r="AH48" s="331">
-        <v>100</v>
-      </c>
-      <c r="AI48" s="332">
+      <c r="AG48" s="319">
+        <v>100</v>
+      </c>
+      <c r="AH48" s="319">
+        <v>100</v>
+      </c>
+      <c r="AI48" s="320">
         <v>40</v>
       </c>
-      <c r="AJ48" s="332"/>
-      <c r="AK48" s="332"/>
-      <c r="AL48" s="332">
-        <v>100</v>
-      </c>
-      <c r="AM48" s="332"/>
-      <c r="AN48" s="332"/>
-      <c r="AO48" s="332"/>
-      <c r="AP48" s="322">
-        <f>SUM(100*SUM(F48:AB48),AC48:AO48)/$AP$1</f>
+      <c r="AJ48" s="320"/>
+      <c r="AK48" s="320"/>
+      <c r="AL48" s="320">
+        <v>100</v>
+      </c>
+      <c r="AM48" s="320"/>
+      <c r="AN48" s="320"/>
+      <c r="AO48" s="320"/>
+      <c r="AP48" s="310">
+        <f t="shared" si="4"/>
         <v>86.538461538461533</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" s="324" t="s">
+      <c r="A49" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="313">
+      <c r="B49" s="301">
         <v>2</v>
       </c>
-      <c r="C49" s="314"/>
-      <c r="D49" s="314"/>
-      <c r="E49" s="337" t="s">
+      <c r="C49" s="302"/>
+      <c r="D49" s="302"/>
+      <c r="E49" s="325" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="316">
-        <v>1</v>
-      </c>
-      <c r="G49" s="349">
-        <v>1</v>
-      </c>
-      <c r="H49" s="349">
-        <v>1</v>
-      </c>
-      <c r="I49" s="349">
-        <v>1</v>
-      </c>
-      <c r="J49" s="349">
-        <v>1</v>
-      </c>
-      <c r="K49" s="349">
-        <v>1</v>
-      </c>
-      <c r="L49" s="349">
-        <v>1</v>
-      </c>
-      <c r="M49" s="349">
-        <v>1</v>
-      </c>
-      <c r="N49" s="349">
-        <v>1</v>
-      </c>
-      <c r="O49" s="349">
-        <v>1</v>
-      </c>
-      <c r="P49" s="349">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="349">
-        <v>1</v>
-      </c>
-      <c r="R49" s="350">
-        <v>1</v>
-      </c>
-      <c r="S49" s="349">
+      <c r="F49" s="304">
+        <v>1</v>
+      </c>
+      <c r="G49" s="337">
+        <v>1</v>
+      </c>
+      <c r="H49" s="337">
+        <v>1</v>
+      </c>
+      <c r="I49" s="337">
+        <v>1</v>
+      </c>
+      <c r="J49" s="337">
+        <v>1</v>
+      </c>
+      <c r="K49" s="337">
+        <v>1</v>
+      </c>
+      <c r="L49" s="337">
+        <v>1</v>
+      </c>
+      <c r="M49" s="337">
+        <v>1</v>
+      </c>
+      <c r="N49" s="337">
+        <v>1</v>
+      </c>
+      <c r="O49" s="337">
+        <v>1</v>
+      </c>
+      <c r="P49" s="337">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="337">
+        <v>1</v>
+      </c>
+      <c r="R49" s="338">
+        <v>1</v>
+      </c>
+      <c r="S49" s="337">
         <v>3</v>
       </c>
-      <c r="T49" s="349">
-        <v>1</v>
-      </c>
-      <c r="U49" s="328">
+      <c r="T49" s="337">
+        <v>1</v>
+      </c>
+      <c r="U49" s="316">
         <v>-1</v>
       </c>
-      <c r="V49" s="316">
-        <v>1</v>
-      </c>
-      <c r="W49" s="326">
-        <v>1</v>
-      </c>
-      <c r="X49" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="326"/>
-      <c r="AA49" s="326"/>
-      <c r="AB49" s="326"/>
-      <c r="AC49" s="329">
+      <c r="V49" s="304">
+        <v>1</v>
+      </c>
+      <c r="W49" s="314">
+        <v>1</v>
+      </c>
+      <c r="X49" s="314">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="314">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="314"/>
+      <c r="AA49" s="314"/>
+      <c r="AB49" s="314"/>
+      <c r="AC49" s="317">
         <v>80</v>
       </c>
-      <c r="AD49" s="329">
+      <c r="AD49" s="317">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE49" s="331">
+      <c r="AE49" s="319">
         <v>50</v>
       </c>
-      <c r="AF49" s="331">
+      <c r="AF49" s="319">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG49" s="332">
+      <c r="AG49" s="320">
         <v>60</v>
       </c>
-      <c r="AH49" s="332"/>
-      <c r="AI49" s="332"/>
-      <c r="AJ49" s="332"/>
-      <c r="AK49" s="332"/>
-      <c r="AL49" s="332"/>
-      <c r="AM49" s="332"/>
-      <c r="AN49" s="332"/>
-      <c r="AO49" s="332"/>
-      <c r="AP49" s="322">
+      <c r="AH49" s="320"/>
+      <c r="AI49" s="320"/>
+      <c r="AJ49" s="320"/>
+      <c r="AK49" s="320"/>
+      <c r="AL49" s="320"/>
+      <c r="AM49" s="320"/>
+      <c r="AN49" s="320"/>
+      <c r="AO49" s="320"/>
+      <c r="AP49" s="310">
         <f>SUM(100*SUM(F49:U49),AC49:AO49)/$AP$1</f>
         <v>74.615384615384613</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" s="324"/>
-      <c r="B50" s="295"/>
-      <c r="C50" s="295"/>
-      <c r="D50" s="295"/>
-      <c r="E50" s="325"/>
-      <c r="F50" s="316"/>
-      <c r="G50" s="349"/>
-      <c r="H50" s="349"/>
-      <c r="I50" s="349"/>
-      <c r="J50" s="349"/>
-      <c r="K50" s="314"/>
-      <c r="L50" s="314"/>
-      <c r="M50" s="314"/>
-      <c r="N50" s="349"/>
-      <c r="O50" s="349"/>
-      <c r="P50" s="349"/>
-      <c r="Q50" s="349"/>
-      <c r="R50" s="349"/>
-      <c r="S50" s="349"/>
-      <c r="T50" s="349"/>
-      <c r="U50" s="351"/>
-      <c r="V50" s="352"/>
-      <c r="W50" s="352"/>
-      <c r="X50" s="352"/>
-      <c r="Y50" s="352"/>
-      <c r="Z50" s="352"/>
-      <c r="AA50" s="352"/>
-      <c r="AB50" s="352"/>
-      <c r="AC50" s="353"/>
-      <c r="AD50" s="354"/>
-      <c r="AE50" s="332"/>
-      <c r="AF50" s="332"/>
-      <c r="AG50" s="332"/>
-      <c r="AH50" s="332"/>
-      <c r="AI50" s="332"/>
-      <c r="AJ50" s="332"/>
-      <c r="AK50" s="332"/>
-      <c r="AL50" s="332"/>
-      <c r="AM50" s="332"/>
-      <c r="AN50" s="332"/>
-      <c r="AO50" s="332"/>
-      <c r="AP50" s="322"/>
+      <c r="A50" s="312"/>
+      <c r="B50" s="283"/>
+      <c r="C50" s="283"/>
+      <c r="D50" s="283"/>
+      <c r="E50" s="313"/>
+      <c r="F50" s="304"/>
+      <c r="G50" s="337"/>
+      <c r="H50" s="337"/>
+      <c r="I50" s="337"/>
+      <c r="J50" s="337"/>
+      <c r="K50" s="302"/>
+      <c r="L50" s="302"/>
+      <c r="M50" s="302"/>
+      <c r="N50" s="337"/>
+      <c r="O50" s="337"/>
+      <c r="P50" s="337"/>
+      <c r="Q50" s="337"/>
+      <c r="R50" s="337"/>
+      <c r="S50" s="337"/>
+      <c r="T50" s="337"/>
+      <c r="U50" s="339"/>
+      <c r="V50" s="340"/>
+      <c r="W50" s="340"/>
+      <c r="X50" s="340"/>
+      <c r="Y50" s="340"/>
+      <c r="Z50" s="340"/>
+      <c r="AA50" s="340"/>
+      <c r="AB50" s="340"/>
+      <c r="AC50" s="341"/>
+      <c r="AD50" s="342"/>
+      <c r="AE50" s="320"/>
+      <c r="AF50" s="320"/>
+      <c r="AG50" s="320"/>
+      <c r="AH50" s="320"/>
+      <c r="AI50" s="320"/>
+      <c r="AJ50" s="320"/>
+      <c r="AK50" s="320"/>
+      <c r="AL50" s="320"/>
+      <c r="AM50" s="320"/>
+      <c r="AN50" s="320"/>
+      <c r="AO50" s="320"/>
+      <c r="AP50" s="310"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AP29:AP50 AP3:AP26">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27631C-39D8-4EEC-9E17-C0713FAF17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE54CF-8BB1-4EA4-B3C8-DDEED8B928DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="314">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1576,9 +1576,6 @@
   </si>
   <si>
     <t>сдал</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2795,20 +2792,14 @@
     <xf numFmtId="1" fontId="17" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="24" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2927,6 +2918,9 @@
     </xf>
     <xf numFmtId="2" fontId="22" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2934,15 +2928,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2963,9 +2948,20 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3367,7 +3363,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,52 +3387,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="349" t="s">
+      <c r="F1" s="343" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="352" t="s">
+      <c r="G1" s="346" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="343" t="s">
+      <c r="H1" s="340" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="343" t="s">
+      <c r="I1" s="340" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="343" t="s">
+      <c r="J1" s="340" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="343" t="s">
+      <c r="K1" s="340" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="343" t="s">
+      <c r="L1" s="340" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="343" t="s">
+      <c r="M1" s="340" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="340" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="343" t="s">
+      <c r="O1" s="340" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="346" t="s">
+      <c r="P1" s="349" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="350"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="347"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="350"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3450,17 +3446,17 @@
       <c r="E3" s="226">
         <v>2</v>
       </c>
-      <c r="F3" s="350"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="347"/>
+      <c r="F3" s="344"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="350"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3476,18 +3472,18 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="351"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="345"/>
-      <c r="I4" s="345"/>
-      <c r="J4" s="345"/>
-      <c r="K4" s="345"/>
-      <c r="L4" s="345"/>
-      <c r="M4" s="345"/>
-      <c r="N4" s="345"/>
-      <c r="O4" s="345"/>
-      <c r="P4" s="348"/>
-      <c r="Q4" s="267" t="s">
+      <c r="F4" s="345"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
+      <c r="O4" s="342"/>
+      <c r="P4" s="351"/>
+      <c r="Q4" s="264" t="s">
         <v>311</v>
       </c>
       <c r="R4" s="242"/>
@@ -4503,17 +4499,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4548,7 +4544,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,52 +4567,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="349" t="s">
+      <c r="F1" s="343" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="352" t="s">
+      <c r="G1" s="346" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="343" t="s">
+      <c r="H1" s="340" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="343" t="s">
+      <c r="I1" s="340" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="343" t="s">
+      <c r="J1" s="340" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="343" t="s">
+      <c r="K1" s="340" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="343" t="s">
+      <c r="L1" s="340" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="343" t="s">
+      <c r="M1" s="340" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="340" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="343" t="s">
+      <c r="O1" s="340" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="346" t="s">
+      <c r="P1" s="349" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="350"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="347"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="350"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4628,19 +4624,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="220">
-        <v>2</v>
-      </c>
-      <c r="F3" s="350"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="347"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="344"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="350"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4656,18 +4652,18 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="351"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="345"/>
-      <c r="I4" s="345"/>
-      <c r="J4" s="345"/>
-      <c r="K4" s="345"/>
-      <c r="L4" s="345"/>
-      <c r="M4" s="345"/>
-      <c r="N4" s="345"/>
-      <c r="O4" s="345"/>
-      <c r="P4" s="348"/>
-      <c r="Q4" s="268" t="s">
+      <c r="F4" s="345"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
+      <c r="O4" s="342"/>
+      <c r="P4" s="351"/>
+      <c r="Q4" s="265" t="s">
         <v>311</v>
       </c>
       <c r="R4" s="242"/>
@@ -4684,7 +4680,7 @@
         <v>170</v>
       </c>
       <c r="C5" s="260">
-        <f>( (D5/$D$3)*100 + F5 + G5)/($E$3+1)</f>
+        <f>( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
         <v>100</v>
       </c>
       <c r="D5" s="238">
@@ -4693,16 +4689,16 @@
       <c r="E5" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="264">
-        <v>100</v>
-      </c>
-      <c r="G5" s="264">
-        <v>100</v>
-      </c>
-      <c r="H5" s="264">
-        <v>100</v>
-      </c>
-      <c r="I5" s="264">
+      <c r="F5" s="356">
+        <v>100</v>
+      </c>
+      <c r="G5" s="356">
+        <v>100</v>
+      </c>
+      <c r="H5" s="356">
+        <v>100</v>
+      </c>
+      <c r="I5" s="356">
         <v>100</v>
       </c>
       <c r="J5" s="257"/>
@@ -4727,8 +4723,8 @@
         <v>171</v>
       </c>
       <c r="C6" s="260">
-        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6)/($E$3+1)</f>
-        <v>30</v>
+        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6 + H6 + I6)/($E$3+1)</f>
+        <v>18</v>
       </c>
       <c r="D6" s="222">
         <v>2</v>
@@ -4775,16 +4771,16 @@
       <c r="E7" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="266">
-        <v>100</v>
-      </c>
-      <c r="G7" s="266">
-        <v>100</v>
-      </c>
-      <c r="H7" s="266">
-        <v>100</v>
-      </c>
-      <c r="I7" s="266">
+      <c r="F7" s="354">
+        <v>100</v>
+      </c>
+      <c r="G7" s="354">
+        <v>100</v>
+      </c>
+      <c r="H7" s="354">
+        <v>100</v>
+      </c>
+      <c r="I7" s="354">
         <v>100</v>
       </c>
       <c r="J7" s="254"/>
@@ -4810,7 +4806,7 @@
       </c>
       <c r="C8" s="260">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>56</v>
       </c>
       <c r="D8" s="222">
         <v>4</v>
@@ -4849,7 +4845,7 @@
       </c>
       <c r="C9" s="260">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>58</v>
       </c>
       <c r="D9" s="222">
         <v>5</v>
@@ -4888,7 +4884,7 @@
       </c>
       <c r="C10" s="260">
         <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D10" s="222">
         <v>1</v>
@@ -4966,7 +4962,7 @@
       </c>
       <c r="C12" s="260">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>74</v>
       </c>
       <c r="D12" s="222">
         <v>3</v>
@@ -4974,16 +4970,16 @@
       <c r="E12" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="254">
-        <v>100</v>
-      </c>
-      <c r="G12" s="254">
+      <c r="F12" s="355">
+        <v>100</v>
+      </c>
+      <c r="G12" s="355">
         <v>70</v>
       </c>
-      <c r="H12" s="254">
+      <c r="H12" s="355">
         <v>70</v>
       </c>
-      <c r="I12" s="254">
+      <c r="I12" s="355">
         <v>70</v>
       </c>
       <c r="J12" s="254"/>
@@ -5009,7 +5005,7 @@
       </c>
       <c r="C13" s="260">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>52</v>
       </c>
       <c r="D13" s="222">
         <v>3</v>
@@ -5087,7 +5083,7 @@
       </c>
       <c r="C15" s="260">
         <f t="shared" si="0"/>
-        <v>46.666666666666664</v>
+        <v>28</v>
       </c>
       <c r="D15" s="222">
         <v>2</v>
@@ -5098,13 +5094,13 @@
       <c r="F15" s="254">
         <v>100</v>
       </c>
-      <c r="G15" s="265">
-        <v>0</v>
-      </c>
-      <c r="H15" s="265">
-        <v>0</v>
-      </c>
-      <c r="I15" s="265">
+      <c r="G15" s="263">
+        <v>0</v>
+      </c>
+      <c r="H15" s="263">
+        <v>0</v>
+      </c>
+      <c r="I15" s="263">
         <v>0</v>
       </c>
       <c r="J15" s="254"/>
@@ -5130,7 +5126,7 @@
       </c>
       <c r="C16" s="260">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D16" s="222">
         <v>3</v>
@@ -5173,7 +5169,7 @@
       </c>
       <c r="C17" s="260">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>92</v>
       </c>
       <c r="D17" s="222">
         <v>4</v>
@@ -5181,16 +5177,16 @@
       <c r="E17" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="254">
+      <c r="F17" s="354">
         <v>80</v>
       </c>
-      <c r="G17" s="254">
-        <v>100</v>
-      </c>
-      <c r="H17" s="254">
-        <v>100</v>
-      </c>
-      <c r="I17" s="254">
+      <c r="G17" s="354">
+        <v>100</v>
+      </c>
+      <c r="H17" s="354">
+        <v>100</v>
+      </c>
+      <c r="I17" s="354">
         <v>100</v>
       </c>
       <c r="J17" s="254"/>
@@ -5216,7 +5212,7 @@
       </c>
       <c r="C18" s="260">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>90</v>
       </c>
       <c r="D18" s="222">
         <v>4</v>
@@ -5224,17 +5220,17 @@
       <c r="E18" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="266">
-        <v>100</v>
-      </c>
-      <c r="G18" s="266">
-        <v>100</v>
-      </c>
-      <c r="H18" s="266">
+      <c r="F18" s="354">
+        <v>100</v>
+      </c>
+      <c r="G18" s="354">
+        <v>100</v>
+      </c>
+      <c r="H18" s="354">
         <v>90</v>
       </c>
-      <c r="I18" s="254">
-        <v>60</v>
+      <c r="I18" s="354">
+        <v>80</v>
       </c>
       <c r="J18" s="254"/>
       <c r="K18" s="254"/>
@@ -5259,7 +5255,7 @@
       </c>
       <c r="C19" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D19" s="222">
         <v>5</v>
@@ -5273,10 +5269,10 @@
       <c r="G19" s="254">
         <v>100</v>
       </c>
-      <c r="H19" s="265">
+      <c r="H19" s="263">
         <v>60</v>
       </c>
-      <c r="I19" s="265">
+      <c r="I19" s="263">
         <v>60</v>
       </c>
       <c r="J19" s="254"/>
@@ -5310,16 +5306,16 @@
       <c r="E20" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="254">
-        <v>100</v>
-      </c>
-      <c r="G20" s="254">
-        <v>100</v>
-      </c>
-      <c r="H20" s="254">
-        <v>100</v>
-      </c>
-      <c r="I20" s="254">
+      <c r="F20" s="354">
+        <v>100</v>
+      </c>
+      <c r="G20" s="354">
+        <v>100</v>
+      </c>
+      <c r="H20" s="354">
+        <v>100</v>
+      </c>
+      <c r="I20" s="354">
         <v>100</v>
       </c>
       <c r="J20" s="254"/>
@@ -5345,7 +5341,7 @@
       </c>
       <c r="C21" s="260">
         <f t="shared" si="0"/>
-        <v>53.333333333333336</v>
+        <v>32</v>
       </c>
       <c r="D21" s="222">
         <v>3</v>
@@ -5392,16 +5388,16 @@
       <c r="E22" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="254">
-        <v>100</v>
-      </c>
-      <c r="G22" s="254">
-        <v>100</v>
-      </c>
-      <c r="H22" s="254">
-        <v>100</v>
-      </c>
-      <c r="I22" s="254">
+      <c r="F22" s="354">
+        <v>100</v>
+      </c>
+      <c r="G22" s="354">
+        <v>100</v>
+      </c>
+      <c r="H22" s="354">
+        <v>100</v>
+      </c>
+      <c r="I22" s="354">
         <v>100</v>
       </c>
       <c r="J22" s="254"/>
@@ -5427,7 +5423,7 @@
       </c>
       <c r="C23" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D23" s="222">
         <v>5</v>
@@ -5459,17 +5455,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5503,7 +5499,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,52 +5523,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="349" t="s">
+      <c r="G1" s="343" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="352" t="s">
+      <c r="H1" s="346" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="343" t="s">
+      <c r="I1" s="340" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="343" t="s">
+      <c r="J1" s="340" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="343" t="s">
+      <c r="K1" s="340" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="343" t="s">
+      <c r="L1" s="340" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="343" t="s">
+      <c r="M1" s="340" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="340" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="343" t="s">
+      <c r="O1" s="340" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="343" t="s">
+      <c r="P1" s="340" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="346" t="s">
+      <c r="Q1" s="349" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="350"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
-      <c r="P2" s="344"/>
-      <c r="Q2" s="347"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="350"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5585,69 +5581,69 @@
       </c>
       <c r="E3" s="220"/>
       <c r="F3" s="220">
-        <v>2</v>
-      </c>
-      <c r="G3" s="350"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="347"/>
-    </row>
-    <row r="4" spans="1:25" s="273" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="271"/>
-      <c r="B4" s="278" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="272" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="344"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="350"/>
+    </row>
+    <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="268"/>
+      <c r="B4" s="274" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="353" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="279" t="s">
+      <c r="D4" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="279">
+      <c r="E4" s="275">
         <v>45918</v>
       </c>
-      <c r="F4" s="280" t="s">
+      <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="351"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="345"/>
-      <c r="J4" s="345"/>
-      <c r="K4" s="345"/>
-      <c r="L4" s="345"/>
-      <c r="M4" s="345"/>
-      <c r="N4" s="345"/>
-      <c r="O4" s="345"/>
-      <c r="P4" s="345"/>
-      <c r="Q4" s="348"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="275" t="s">
+      <c r="G4" s="345"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
+      <c r="O4" s="342"/>
+      <c r="P4" s="342"/>
+      <c r="Q4" s="351"/>
+      <c r="R4" s="277"/>
+      <c r="S4" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="T4" s="269"/>
-      <c r="U4" s="269"/>
-      <c r="V4" s="269"/>
-      <c r="W4" s="269"/>
-      <c r="X4" s="269"/>
-      <c r="Y4" s="270"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="267"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="276" t="s">
+      <c r="B5" s="272" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="260">
-        <f>(D5/$D$3*100 + G5 + H5)/($F$3+1)</f>
-        <v>66.666666666666671</v>
+        <f>(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
+        <v>40</v>
       </c>
       <c r="D5" s="238">
         <v>4</v>
@@ -5658,22 +5654,26 @@
       <c r="F5" s="239" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="277">
-        <v>100</v>
-      </c>
-      <c r="H5" s="277">
-        <v>0</v>
-      </c>
-      <c r="I5" s="277"/>
-      <c r="J5" s="277"/>
-      <c r="K5" s="277"/>
-      <c r="L5" s="277"/>
-      <c r="M5" s="277"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="277"/>
-      <c r="P5" s="277"/>
-      <c r="Q5" s="277"/>
-      <c r="R5" s="277"/>
+      <c r="G5" s="273">
+        <v>100</v>
+      </c>
+      <c r="H5" s="352">
+        <v>0</v>
+      </c>
+      <c r="I5" s="352">
+        <v>0</v>
+      </c>
+      <c r="J5" s="352">
+        <v>0</v>
+      </c>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
@@ -5689,8 +5689,8 @@
       <c r="B6" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="261">
-        <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6)/($F$3+1)</f>
+      <c r="C6" s="260">
+        <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6 + I6 + J6)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D6" s="222">
@@ -5702,16 +5702,18 @@
       <c r="F6" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="26">
-        <v>100</v>
-      </c>
-      <c r="H6" s="26">
-        <v>100</v>
-      </c>
-      <c r="I6" s="26">
-        <v>90</v>
-      </c>
-      <c r="J6" s="26"/>
+      <c r="G6" s="119">
+        <v>100</v>
+      </c>
+      <c r="H6" s="119">
+        <v>100</v>
+      </c>
+      <c r="I6" s="119">
+        <v>100</v>
+      </c>
+      <c r="J6" s="119">
+        <v>100</v>
+      </c>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -5735,9 +5737,9 @@
       <c r="B7" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="261">
+      <c r="C7" s="260">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="D7" s="222">
         <v>3</v>
@@ -5757,7 +5759,9 @@
       <c r="I7" s="26">
         <v>100</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="26">
+        <v>100</v>
+      </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -5781,9 +5785,9 @@
       <c r="B8" s="236" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="261">
+      <c r="C8" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D8" s="222">
         <v>4</v>
@@ -5794,14 +5798,18 @@
       <c r="F8" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="26">
-        <v>100</v>
-      </c>
-      <c r="H8" s="26">
-        <v>100</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="153">
+        <v>40</v>
+      </c>
+      <c r="H8" s="176">
+        <v>100</v>
+      </c>
+      <c r="I8" s="176">
+        <v>60</v>
+      </c>
+      <c r="J8" s="176">
+        <v>60</v>
+      </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -5825,7 +5833,7 @@
       <c r="B9" s="236" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="261">
+      <c r="C9" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5847,7 +5855,9 @@
       <c r="I9" s="26">
         <v>100</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="26">
+        <v>100</v>
+      </c>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -5871,7 +5881,7 @@
       <c r="B10" s="236" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="261">
+      <c r="C10" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5893,7 +5903,9 @@
       <c r="I10" s="26">
         <v>100</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26">
+        <v>100</v>
+      </c>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -5914,12 +5926,12 @@
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="355" t="s">
+      <c r="B11" s="339" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="261">
+      <c r="C11" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D11" s="222">
         <v>4</v>
@@ -5936,8 +5948,12 @@
       <c r="H11" s="26">
         <v>100</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="26">
+        <v>80</v>
+      </c>
+      <c r="J11" s="26">
+        <v>80</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -5961,9 +5977,9 @@
       <c r="B12" s="236" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="261">
+      <c r="C12" s="260">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D12" s="222">
         <v>2</v>
@@ -6005,9 +6021,9 @@
       <c r="B13" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="261">
+      <c r="C13" s="260">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>90</v>
       </c>
       <c r="D13" s="222">
         <v>4</v>
@@ -6024,8 +6040,12 @@
       <c r="H13" s="26">
         <v>90</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="26">
+        <v>80</v>
+      </c>
+      <c r="J13" s="26">
+        <v>80</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -6049,9 +6069,9 @@
       <c r="B14" s="236" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="261">
+      <c r="C14" s="260">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D14" s="222">
         <v>4</v>
@@ -6093,9 +6113,9 @@
       <c r="B15" s="237" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="261">
+      <c r="C15" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="222">
         <v>4</v>
@@ -6106,16 +6126,18 @@
       <c r="F15" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="G15" s="26">
-        <v>100</v>
-      </c>
-      <c r="H15" s="26">
-        <v>100</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26"/>
+      <c r="G15" s="119">
+        <v>100</v>
+      </c>
+      <c r="H15" s="119">
+        <v>100</v>
+      </c>
+      <c r="I15" s="119">
+        <v>90</v>
+      </c>
+      <c r="J15" s="119">
+        <v>90</v>
+      </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -6139,9 +6161,9 @@
       <c r="B16" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="261">
+      <c r="C16" s="260">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
       <c r="D16" s="222">
         <v>4</v>
@@ -6152,14 +6174,18 @@
       <c r="F16" s="111" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="26">
-        <v>60</v>
-      </c>
-      <c r="H16" s="26">
-        <v>100</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="G16" s="153">
+        <v>50</v>
+      </c>
+      <c r="H16" s="119">
+        <v>100</v>
+      </c>
+      <c r="I16" s="119">
+        <v>100</v>
+      </c>
+      <c r="J16" s="119">
+        <v>100</v>
+      </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
@@ -6183,7 +6209,7 @@
       <c r="B17" s="236" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="261">
+      <c r="C17" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6196,14 +6222,18 @@
       <c r="F17" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="26">
-        <v>100</v>
-      </c>
-      <c r="H17" s="26">
-        <v>100</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="119">
+        <v>100</v>
+      </c>
+      <c r="H17" s="119">
+        <v>100</v>
+      </c>
+      <c r="I17" s="119">
+        <v>100</v>
+      </c>
+      <c r="J17" s="119">
+        <v>100</v>
+      </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
@@ -6227,9 +6257,9 @@
       <c r="B18" s="236" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="261">
+      <c r="C18" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D18" s="222">
         <v>4</v>
@@ -6240,14 +6270,18 @@
       <c r="F18" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="26">
-        <v>100</v>
-      </c>
-      <c r="H18" s="26">
-        <v>100</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="119">
+        <v>100</v>
+      </c>
+      <c r="H18" s="119">
+        <v>100</v>
+      </c>
+      <c r="I18" s="119">
+        <v>80</v>
+      </c>
+      <c r="J18" s="119">
+        <v>80</v>
+      </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -6271,9 +6305,9 @@
       <c r="B19" s="236" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="261">
+      <c r="C19" s="260">
         <f t="shared" si="0"/>
-        <v>91.666666666666671</v>
+        <v>55</v>
       </c>
       <c r="D19" s="222">
         <v>3</v>
@@ -6315,9 +6349,9 @@
       <c r="B20" s="236" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="261">
+      <c r="C20" s="260">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D20" s="222">
         <v>1</v>
@@ -6359,9 +6393,9 @@
       <c r="B21" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="261">
+      <c r="C21" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D21" s="222">
         <v>4</v>
@@ -6372,14 +6406,18 @@
       <c r="F21" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="26">
-        <v>100</v>
-      </c>
-      <c r="H21" s="26">
-        <v>100</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="G21" s="119">
+        <v>100</v>
+      </c>
+      <c r="H21" s="119">
+        <v>100</v>
+      </c>
+      <c r="I21" s="119">
+        <v>70</v>
+      </c>
+      <c r="J21" s="119">
+        <v>70</v>
+      </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -6403,9 +6441,9 @@
       <c r="B22" s="247" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="261">
+      <c r="C22" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D22" s="222">
         <v>4</v>
@@ -6416,14 +6454,18 @@
       <c r="F22" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="26">
-        <v>100</v>
-      </c>
-      <c r="H22" s="26">
-        <v>100</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="G22" s="119">
+        <v>100</v>
+      </c>
+      <c r="H22" s="119">
+        <v>100</v>
+      </c>
+      <c r="I22" s="176">
+        <v>50</v>
+      </c>
+      <c r="J22" s="176">
+        <v>50</v>
+      </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
@@ -6447,9 +6489,9 @@
       <c r="B23" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="261">
+      <c r="C23" s="260">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>96</v>
       </c>
       <c r="D23" s="222">
         <v>4</v>
@@ -6460,16 +6502,18 @@
       <c r="F23" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="G23" s="26">
-        <v>100</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="G23" s="119">
+        <v>100</v>
+      </c>
+      <c r="H23" s="119">
         <v>80</v>
       </c>
-      <c r="I23" s="26">
-        <v>100</v>
-      </c>
-      <c r="J23" s="26"/>
+      <c r="I23" s="119">
+        <v>100</v>
+      </c>
+      <c r="J23" s="119">
+        <v>100</v>
+      </c>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -6493,7 +6537,7 @@
       <c r="B24" s="236" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="261">
+      <c r="C24" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6506,16 +6550,18 @@
       <c r="F24" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="G24" s="26">
-        <v>100</v>
-      </c>
-      <c r="H24" s="26">
-        <v>100</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26"/>
+      <c r="G24" s="119">
+        <v>100</v>
+      </c>
+      <c r="H24" s="119">
+        <v>100</v>
+      </c>
+      <c r="I24" s="119">
+        <v>100</v>
+      </c>
+      <c r="J24" s="119">
+        <v>100</v>
+      </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
@@ -6539,9 +6585,9 @@
       <c r="B25" s="236" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="261">
+      <c r="C25" s="260">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>82</v>
       </c>
       <c r="D25" s="222">
         <v>2</v>
@@ -6552,14 +6598,18 @@
       <c r="F25" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="26">
-        <v>100</v>
-      </c>
-      <c r="H25" s="26">
-        <v>100</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="G25" s="119">
+        <v>100</v>
+      </c>
+      <c r="H25" s="119">
+        <v>100</v>
+      </c>
+      <c r="I25" s="119">
+        <v>80</v>
+      </c>
+      <c r="J25" s="119">
+        <v>80</v>
+      </c>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
@@ -6583,7 +6633,7 @@
       <c r="B26" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="261">
+      <c r="C26" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6596,14 +6646,18 @@
       <c r="F26" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="G26" s="26">
-        <v>100</v>
-      </c>
-      <c r="H26" s="26">
-        <v>100</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="G26" s="119">
+        <v>100</v>
+      </c>
+      <c r="H26" s="119">
+        <v>100</v>
+      </c>
+      <c r="I26" s="119">
+        <v>100</v>
+      </c>
+      <c r="J26" s="119">
+        <v>100</v>
+      </c>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
@@ -6627,7 +6681,7 @@
       <c r="B27" s="247" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="261">
+      <c r="C27" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6640,16 +6694,18 @@
       <c r="F27" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="G27" s="26">
-        <v>100</v>
-      </c>
-      <c r="H27" s="26">
-        <v>100</v>
-      </c>
-      <c r="I27" s="26">
-        <v>60</v>
-      </c>
-      <c r="J27" s="26"/>
+      <c r="G27" s="119">
+        <v>100</v>
+      </c>
+      <c r="H27" s="119">
+        <v>100</v>
+      </c>
+      <c r="I27" s="119">
+        <v>100</v>
+      </c>
+      <c r="J27" s="119">
+        <v>100</v>
+      </c>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
@@ -6673,9 +6729,9 @@
       <c r="B28" s="236" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="261">
+      <c r="C28" s="260">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D28" s="222">
         <v>4</v>
@@ -6686,14 +6742,18 @@
       <c r="F28" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="G28" s="26">
-        <v>100</v>
-      </c>
-      <c r="H28" s="26">
-        <v>100</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="G28" s="119">
+        <v>100</v>
+      </c>
+      <c r="H28" s="119">
+        <v>100</v>
+      </c>
+      <c r="I28" s="119">
+        <v>80</v>
+      </c>
+      <c r="J28" s="119">
+        <v>80</v>
+      </c>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
@@ -6717,7 +6777,7 @@
       <c r="B29" s="236" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="261">
+      <c r="C29" s="260">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6730,16 +6790,18 @@
       <c r="F29" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="G29" s="26">
-        <v>100</v>
-      </c>
-      <c r="H29" s="26">
-        <v>100</v>
-      </c>
-      <c r="I29" s="26">
-        <v>0</v>
-      </c>
-      <c r="J29" s="26"/>
+      <c r="G29" s="119">
+        <v>100</v>
+      </c>
+      <c r="H29" s="119">
+        <v>100</v>
+      </c>
+      <c r="I29" s="119">
+        <v>100</v>
+      </c>
+      <c r="J29" s="119">
+        <v>100</v>
+      </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
@@ -6763,8 +6825,9 @@
       <c r="B30" s="247" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="261" t="s">
-        <v>314</v>
+      <c r="C30" s="260">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="D30" s="222">
         <v>4</v>
@@ -6775,16 +6838,18 @@
       <c r="F30" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="G30" s="26">
-        <v>100</v>
-      </c>
-      <c r="H30" s="26">
-        <v>100</v>
-      </c>
-      <c r="I30" s="26">
+      <c r="G30" s="119">
+        <v>100</v>
+      </c>
+      <c r="H30" s="119">
+        <v>100</v>
+      </c>
+      <c r="I30" s="119">
         <v>90</v>
       </c>
-      <c r="J30" s="26"/>
+      <c r="J30" s="119">
+        <v>90</v>
+      </c>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
@@ -6803,17 +6868,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
@@ -7130,7 +7195,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="262" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -7587,7 +7652,7 @@
       <c r="AQ6" s="26"/>
     </row>
     <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="261" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7926,7 +7991,7 @@
       <c r="AQ9" s="26"/>
     </row>
     <row r="10" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="261" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -8386,7 +8451,7 @@
       <c r="AQ13" s="25"/>
     </row>
     <row r="14" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="262" t="s">
+      <c r="A14" s="261" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="25">
@@ -8499,7 +8564,7 @@
       <c r="AQ14" s="25"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="262" t="s">
+      <c r="A15" s="261" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8847,7 +8912,7 @@
       <c r="AQ17" s="25"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="262" t="s">
+      <c r="A18" s="261" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25">
@@ -9075,7 +9140,7 @@
       <c r="AQ19" s="26"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="262" t="s">
+      <c r="A20" s="261" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="25">
@@ -9422,7 +9487,7 @@
       <c r="AQ22" s="26"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="262" t="s">
+      <c r="A23" s="261" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="25">
@@ -9903,964 +9968,964 @@
       <c r="BL26" s="47"/>
     </row>
     <row r="27" spans="1:64" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="282" t="s">
+      <c r="A27" s="278" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="283"/>
-      <c r="C27" s="283"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="285"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="286"/>
-      <c r="I27" s="286"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="285"/>
-      <c r="L27" s="285"/>
-      <c r="M27" s="285"/>
-      <c r="N27" s="286"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="286"/>
-      <c r="Q27" s="286"/>
-      <c r="R27" s="286"/>
-      <c r="S27" s="286"/>
-      <c r="T27" s="286"/>
-      <c r="U27" s="287"/>
-      <c r="V27" s="287"/>
-      <c r="W27" s="287"/>
-      <c r="X27" s="287"/>
-      <c r="Y27" s="287"/>
-      <c r="Z27" s="287"/>
-      <c r="AA27" s="287"/>
-      <c r="AB27" s="287"/>
-      <c r="AC27" s="288"/>
-      <c r="AD27" s="285"/>
-      <c r="AE27" s="285"/>
-      <c r="AF27" s="285"/>
-      <c r="AG27" s="289"/>
-      <c r="AH27" s="285"/>
-      <c r="AI27" s="285"/>
-      <c r="AJ27" s="285"/>
-      <c r="AK27" s="285"/>
-      <c r="AL27" s="285"/>
-      <c r="AM27" s="285"/>
-      <c r="AN27" s="285"/>
-      <c r="AO27" s="290"/>
-      <c r="AP27" s="291"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="282"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
+      <c r="Q27" s="282"/>
+      <c r="R27" s="282"/>
+      <c r="S27" s="282"/>
+      <c r="T27" s="282"/>
+      <c r="U27" s="283"/>
+      <c r="V27" s="283"/>
+      <c r="W27" s="283"/>
+      <c r="X27" s="283"/>
+      <c r="Y27" s="283"/>
+      <c r="Z27" s="283"/>
+      <c r="AA27" s="283"/>
+      <c r="AB27" s="283"/>
+      <c r="AC27" s="284"/>
+      <c r="AD27" s="281"/>
+      <c r="AE27" s="281"/>
+      <c r="AF27" s="281"/>
+      <c r="AG27" s="285"/>
+      <c r="AH27" s="281"/>
+      <c r="AI27" s="281"/>
+      <c r="AJ27" s="281"/>
+      <c r="AK27" s="281"/>
+      <c r="AL27" s="281"/>
+      <c r="AM27" s="281"/>
+      <c r="AN27" s="281"/>
+      <c r="AO27" s="286"/>
+      <c r="AP27" s="287"/>
     </row>
     <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="292" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="293" t="str">
+      <c r="A28" s="288" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="289" t="str">
         <f t="shared" ref="B28:AB28" si="2">B2</f>
         <v>КР1</v>
       </c>
-      <c r="C28" s="294" t="str">
+      <c r="C28" s="290" t="str">
         <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295" t="str">
+      <c r="D28" s="290"/>
+      <c r="E28" s="291" t="str">
         <f t="shared" si="2"/>
         <v>Github</v>
       </c>
-      <c r="F28" s="296">
+      <c r="F28" s="292">
         <f t="shared" si="2"/>
         <v>45691</v>
       </c>
-      <c r="G28" s="297">
+      <c r="G28" s="293">
         <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="H28" s="297">
+      <c r="H28" s="293">
         <f t="shared" si="2"/>
         <v>45701</v>
       </c>
-      <c r="I28" s="297">
+      <c r="I28" s="293">
         <f t="shared" si="2"/>
         <v>45705</v>
       </c>
-      <c r="J28" s="297">
+      <c r="J28" s="293">
         <f t="shared" si="2"/>
         <v>45712</v>
       </c>
-      <c r="K28" s="296">
+      <c r="K28" s="292">
         <f t="shared" si="2"/>
         <v>45715</v>
       </c>
-      <c r="L28" s="296">
+      <c r="L28" s="292">
         <f t="shared" si="2"/>
         <v>45719</v>
       </c>
-      <c r="M28" s="296">
+      <c r="M28" s="292">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="N28" s="297">
+      <c r="N28" s="293">
         <f t="shared" si="2"/>
         <v>45729</v>
       </c>
-      <c r="O28" s="297">
+      <c r="O28" s="293">
         <f t="shared" si="2"/>
         <v>45733</v>
       </c>
-      <c r="P28" s="297">
+      <c r="P28" s="293">
         <f t="shared" si="2"/>
         <v>45740</v>
       </c>
-      <c r="Q28" s="297">
+      <c r="Q28" s="293">
         <f t="shared" si="2"/>
         <v>45743</v>
       </c>
-      <c r="R28" s="297">
+      <c r="R28" s="293">
         <f t="shared" si="2"/>
         <v>45747</v>
       </c>
-      <c r="S28" s="297">
+      <c r="S28" s="293">
         <f t="shared" si="2"/>
         <v>45754</v>
       </c>
-      <c r="T28" s="297">
+      <c r="T28" s="293">
         <f t="shared" si="2"/>
         <v>45761</v>
       </c>
-      <c r="U28" s="297">
+      <c r="U28" s="293">
         <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="V28" s="297">
+      <c r="V28" s="293">
         <f t="shared" si="2"/>
         <v>45771</v>
       </c>
-      <c r="W28" s="297">
+      <c r="W28" s="293">
         <f t="shared" si="2"/>
         <v>45775</v>
       </c>
-      <c r="X28" s="297">
+      <c r="X28" s="293">
         <f t="shared" si="2"/>
         <v>45782</v>
       </c>
-      <c r="Y28" s="297">
+      <c r="Y28" s="293">
         <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="Z28" s="297">
+      <c r="Z28" s="293">
         <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="AA28" s="297">
+      <c r="AA28" s="293">
         <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="AB28" s="297">
+      <c r="AB28" s="293">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="298" t="str">
+      <c r="AC28" s="294" t="str">
         <f t="shared" ref="AC28:AP28" si="3">AC2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
-      <c r="AD28" s="299" t="str">
+      <c r="AD28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
-      <c r="AE28" s="299" t="str">
+      <c r="AE28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
-      <c r="AF28" s="299" t="str">
+      <c r="AF28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
-      <c r="AG28" s="299" t="str">
+      <c r="AG28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
-      <c r="AH28" s="299" t="str">
+      <c r="AH28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AI28" s="299" t="str">
+      <c r="AI28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>ПР4. Telephony</v>
       </c>
-      <c r="AJ28" s="299" t="str">
+      <c r="AJ28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>ПР5. Сокеты</v>
       </c>
-      <c r="AK28" s="299"/>
-      <c r="AL28" s="299" t="str">
+      <c r="AK28" s="295"/>
+      <c r="AL28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>РГР</v>
       </c>
-      <c r="AM28" s="299" t="str">
+      <c r="AM28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>К\Р</v>
       </c>
-      <c r="AN28" s="299">
+      <c r="AN28" s="295">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="299">
+      <c r="AO28" s="295">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="299" t="str">
+      <c r="AP28" s="295" t="str">
         <f t="shared" si="3"/>
         <v>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="300" t="s">
+      <c r="A29" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="301">
+      <c r="B29" s="297">
         <v>2</v>
       </c>
-      <c r="C29" s="302"/>
-      <c r="D29" s="302"/>
-      <c r="E29" s="303" t="s">
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="299" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="304">
-        <v>1</v>
-      </c>
-      <c r="G29" s="304">
-        <v>1</v>
-      </c>
-      <c r="H29" s="304">
+      <c r="F29" s="300">
+        <v>1</v>
+      </c>
+      <c r="G29" s="300">
+        <v>1</v>
+      </c>
+      <c r="H29" s="300">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="304">
-        <v>1</v>
-      </c>
-      <c r="J29" s="304">
-        <v>1</v>
-      </c>
-      <c r="K29" s="304">
-        <v>1</v>
-      </c>
-      <c r="L29" s="304">
-        <v>1</v>
-      </c>
-      <c r="M29" s="304">
-        <v>1</v>
-      </c>
-      <c r="N29" s="304">
-        <v>1</v>
-      </c>
-      <c r="O29" s="304">
-        <v>1</v>
-      </c>
-      <c r="P29" s="304">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="304">
-        <v>1</v>
-      </c>
-      <c r="R29" s="305" t="s">
+      <c r="I29" s="300">
+        <v>1</v>
+      </c>
+      <c r="J29" s="300">
+        <v>1</v>
+      </c>
+      <c r="K29" s="300">
+        <v>1</v>
+      </c>
+      <c r="L29" s="300">
+        <v>1</v>
+      </c>
+      <c r="M29" s="300">
+        <v>1</v>
+      </c>
+      <c r="N29" s="300">
+        <v>1</v>
+      </c>
+      <c r="O29" s="300">
+        <v>1</v>
+      </c>
+      <c r="P29" s="300">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="300">
+        <v>1</v>
+      </c>
+      <c r="R29" s="301" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="304">
+      <c r="S29" s="300">
         <v>3</v>
       </c>
-      <c r="T29" s="304">
-        <v>1</v>
-      </c>
-      <c r="U29" s="306">
-        <v>1</v>
-      </c>
-      <c r="V29" s="304">
-        <v>1</v>
-      </c>
-      <c r="W29" s="304">
-        <v>1</v>
-      </c>
-      <c r="X29" s="304">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="304">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="304"/>
-      <c r="AA29" s="304"/>
-      <c r="AB29" s="304"/>
-      <c r="AC29" s="307">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="308">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="309">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="310">
+      <c r="T29" s="300">
+        <v>1</v>
+      </c>
+      <c r="U29" s="302">
+        <v>1</v>
+      </c>
+      <c r="V29" s="300">
+        <v>1</v>
+      </c>
+      <c r="W29" s="300">
+        <v>1</v>
+      </c>
+      <c r="X29" s="300">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="300">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="300"/>
+      <c r="AA29" s="300"/>
+      <c r="AB29" s="300"/>
+      <c r="AC29" s="303">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="304">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="305">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="306">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG29" s="311">
-        <v>100</v>
-      </c>
-      <c r="AH29" s="310">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="310"/>
-      <c r="AJ29" s="310"/>
-      <c r="AK29" s="310"/>
-      <c r="AL29" s="310">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="310"/>
-      <c r="AN29" s="310"/>
-      <c r="AO29" s="310"/>
-      <c r="AP29" s="310">
+      <c r="AG29" s="307">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="306">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="306"/>
+      <c r="AJ29" s="306"/>
+      <c r="AK29" s="306"/>
+      <c r="AL29" s="306">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="306"/>
+      <c r="AN29" s="306"/>
+      <c r="AO29" s="306"/>
+      <c r="AP29" s="306">
         <f t="shared" ref="AP29:AP48" si="4">SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
         <v>98.07692307692308</v>
       </c>
     </row>
     <row r="30" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="312" t="s">
+      <c r="A30" s="308" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="301">
-        <v>0</v>
-      </c>
-      <c r="C30" s="302"/>
-      <c r="D30" s="302"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="304">
-        <v>1</v>
-      </c>
-      <c r="G30" s="314">
-        <v>1</v>
-      </c>
-      <c r="H30" s="314">
-        <v>1</v>
-      </c>
-      <c r="I30" s="314">
-        <v>1</v>
-      </c>
-      <c r="J30" s="304">
+      <c r="B30" s="297">
+        <v>0</v>
+      </c>
+      <c r="C30" s="298"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="300">
+        <v>1</v>
+      </c>
+      <c r="G30" s="310">
+        <v>1</v>
+      </c>
+      <c r="H30" s="310">
+        <v>1</v>
+      </c>
+      <c r="I30" s="310">
+        <v>1</v>
+      </c>
+      <c r="J30" s="300">
         <v>-0.5</v>
       </c>
-      <c r="K30" s="304">
+      <c r="K30" s="300">
         <v>-0.5</v>
       </c>
-      <c r="L30" s="304">
+      <c r="L30" s="300">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="314">
-        <v>1</v>
-      </c>
-      <c r="N30" s="314">
-        <v>1</v>
-      </c>
-      <c r="O30" s="314">
-        <v>1</v>
-      </c>
-      <c r="P30" s="314">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="314">
-        <v>1</v>
-      </c>
-      <c r="R30" s="315">
-        <v>1</v>
-      </c>
-      <c r="S30" s="314">
+      <c r="M30" s="310">
+        <v>1</v>
+      </c>
+      <c r="N30" s="310">
+        <v>1</v>
+      </c>
+      <c r="O30" s="310">
+        <v>1</v>
+      </c>
+      <c r="P30" s="310">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="310">
+        <v>1</v>
+      </c>
+      <c r="R30" s="311">
+        <v>1</v>
+      </c>
+      <c r="S30" s="310">
         <v>3</v>
       </c>
-      <c r="T30" s="314">
-        <v>1</v>
-      </c>
-      <c r="U30" s="316">
+      <c r="T30" s="310">
+        <v>1</v>
+      </c>
+      <c r="U30" s="312">
         <v>-1</v>
       </c>
-      <c r="V30" s="304">
-        <v>1</v>
-      </c>
-      <c r="W30" s="314" t="s">
+      <c r="V30" s="300">
+        <v>1</v>
+      </c>
+      <c r="W30" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="314">
+      <c r="X30" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="310">
         <v>-1</v>
       </c>
-      <c r="Z30" s="314"/>
-      <c r="AA30" s="314"/>
-      <c r="AB30" s="314"/>
-      <c r="AC30" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="318">
+      <c r="Z30" s="310"/>
+      <c r="AA30" s="310"/>
+      <c r="AB30" s="310"/>
+      <c r="AC30" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="314">
         <f>-20 - 50 - 50</f>
         <v>-120</v>
       </c>
-      <c r="AE30" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="320">
+      <c r="AE30" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="316">
         <f>-50-20 + 40</f>
         <v>-30</v>
       </c>
-      <c r="AG30" s="321">
+      <c r="AG30" s="317">
         <v>-100</v>
       </c>
-      <c r="AH30" s="320">
+      <c r="AH30" s="316">
         <v>-100</v>
       </c>
-      <c r="AI30" s="320"/>
-      <c r="AJ30" s="320"/>
-      <c r="AK30" s="320"/>
-      <c r="AL30" s="320"/>
-      <c r="AM30" s="320"/>
-      <c r="AN30" s="320"/>
-      <c r="AO30" s="320"/>
-      <c r="AP30" s="310">
+      <c r="AI30" s="316"/>
+      <c r="AJ30" s="316"/>
+      <c r="AK30" s="316"/>
+      <c r="AL30" s="316"/>
+      <c r="AM30" s="316"/>
+      <c r="AN30" s="316"/>
+      <c r="AO30" s="316"/>
+      <c r="AP30" s="306">
         <f t="shared" si="4"/>
         <v>38.46153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="312" t="s">
+      <c r="A31" s="308" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="301">
-        <v>0</v>
-      </c>
-      <c r="C31" s="302"/>
-      <c r="D31" s="302"/>
-      <c r="E31" s="303" t="s">
+      <c r="B31" s="297">
+        <v>0</v>
+      </c>
+      <c r="C31" s="298"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="299" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="304">
-        <v>1</v>
-      </c>
-      <c r="G31" s="314">
-        <v>1</v>
-      </c>
-      <c r="H31" s="314">
-        <v>1</v>
-      </c>
-      <c r="I31" s="314">
-        <v>1</v>
-      </c>
-      <c r="J31" s="314">
-        <v>1</v>
-      </c>
-      <c r="K31" s="314">
-        <v>1</v>
-      </c>
-      <c r="L31" s="304">
+      <c r="F31" s="300">
+        <v>1</v>
+      </c>
+      <c r="G31" s="310">
+        <v>1</v>
+      </c>
+      <c r="H31" s="310">
+        <v>1</v>
+      </c>
+      <c r="I31" s="310">
+        <v>1</v>
+      </c>
+      <c r="J31" s="310">
+        <v>1</v>
+      </c>
+      <c r="K31" s="310">
+        <v>1</v>
+      </c>
+      <c r="L31" s="300">
         <v>-0.5</v>
       </c>
-      <c r="M31" s="314">
+      <c r="M31" s="310">
         <v>-0.5</v>
       </c>
-      <c r="N31" s="314">
+      <c r="N31" s="310">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="314">
-        <v>1</v>
-      </c>
-      <c r="P31" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="322">
-        <v>1</v>
-      </c>
-      <c r="R31" s="315">
-        <v>1</v>
-      </c>
-      <c r="S31" s="314">
+      <c r="O31" s="310">
+        <v>1</v>
+      </c>
+      <c r="P31" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="318">
+        <v>1</v>
+      </c>
+      <c r="R31" s="311">
+        <v>1</v>
+      </c>
+      <c r="S31" s="310">
         <v>3</v>
       </c>
-      <c r="T31" s="314">
-        <v>1</v>
-      </c>
-      <c r="U31" s="316">
+      <c r="T31" s="310">
+        <v>1</v>
+      </c>
+      <c r="U31" s="312">
         <v>-1</v>
       </c>
-      <c r="V31" s="304">
-        <v>1</v>
-      </c>
-      <c r="W31" s="314">
-        <v>1</v>
-      </c>
-      <c r="X31" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="314"/>
-      <c r="AA31" s="314"/>
-      <c r="AB31" s="314"/>
-      <c r="AC31" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD31" s="323">
+      <c r="V31" s="300">
+        <v>1</v>
+      </c>
+      <c r="W31" s="310">
+        <v>1</v>
+      </c>
+      <c r="X31" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="310"/>
+      <c r="AA31" s="310"/>
+      <c r="AB31" s="310"/>
+      <c r="AC31" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="319">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE31" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="319">
+      <c r="AE31" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="315">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="AG31" s="321">
+      <c r="AG31" s="317">
         <v>60</v>
       </c>
-      <c r="AH31" s="320">
-        <v>100</v>
-      </c>
-      <c r="AI31" s="320"/>
-      <c r="AJ31" s="320"/>
-      <c r="AK31" s="320"/>
-      <c r="AL31" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="320"/>
-      <c r="AN31" s="320"/>
-      <c r="AO31" s="320"/>
-      <c r="AP31" s="310">
+      <c r="AH31" s="316">
+        <v>100</v>
+      </c>
+      <c r="AI31" s="316"/>
+      <c r="AJ31" s="316"/>
+      <c r="AK31" s="316"/>
+      <c r="AL31" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="316"/>
+      <c r="AN31" s="316"/>
+      <c r="AO31" s="316"/>
+      <c r="AP31" s="306">
         <f t="shared" si="4"/>
         <v>77.307692307692307</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="324" t="s">
+      <c r="A32" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="301">
+      <c r="B32" s="297">
         <v>2</v>
       </c>
-      <c r="C32" s="302"/>
-      <c r="D32" s="302"/>
-      <c r="E32" s="325" t="s">
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="321" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="304">
-        <v>1</v>
-      </c>
-      <c r="G32" s="314">
-        <v>1</v>
-      </c>
-      <c r="H32" s="314">
-        <v>1</v>
-      </c>
-      <c r="I32" s="314">
-        <v>1</v>
-      </c>
-      <c r="J32" s="314">
-        <v>1</v>
-      </c>
-      <c r="K32" s="314">
-        <v>1</v>
-      </c>
-      <c r="L32" s="314">
-        <v>1</v>
-      </c>
-      <c r="M32" s="314">
-        <v>1</v>
-      </c>
-      <c r="N32" s="314">
-        <v>1</v>
-      </c>
-      <c r="O32" s="314">
-        <v>1</v>
-      </c>
-      <c r="P32" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="314">
-        <v>1</v>
-      </c>
-      <c r="R32" s="315">
-        <v>1</v>
-      </c>
-      <c r="S32" s="314">
+      <c r="F32" s="300">
+        <v>1</v>
+      </c>
+      <c r="G32" s="310">
+        <v>1</v>
+      </c>
+      <c r="H32" s="310">
+        <v>1</v>
+      </c>
+      <c r="I32" s="310">
+        <v>1</v>
+      </c>
+      <c r="J32" s="310">
+        <v>1</v>
+      </c>
+      <c r="K32" s="310">
+        <v>1</v>
+      </c>
+      <c r="L32" s="310">
+        <v>1</v>
+      </c>
+      <c r="M32" s="310">
+        <v>1</v>
+      </c>
+      <c r="N32" s="310">
+        <v>1</v>
+      </c>
+      <c r="O32" s="310">
+        <v>1</v>
+      </c>
+      <c r="P32" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="310">
+        <v>1</v>
+      </c>
+      <c r="R32" s="311">
+        <v>1</v>
+      </c>
+      <c r="S32" s="310">
         <v>3</v>
       </c>
-      <c r="T32" s="314">
-        <v>1</v>
-      </c>
-      <c r="U32" s="316">
-        <v>1</v>
-      </c>
-      <c r="V32" s="304">
-        <v>1</v>
-      </c>
-      <c r="W32" s="314">
-        <v>1</v>
-      </c>
-      <c r="X32" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="314"/>
-      <c r="AA32" s="314"/>
-      <c r="AB32" s="314"/>
-      <c r="AC32" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD32" s="317">
+      <c r="T32" s="310">
+        <v>1</v>
+      </c>
+      <c r="U32" s="312">
+        <v>1</v>
+      </c>
+      <c r="V32" s="300">
+        <v>1</v>
+      </c>
+      <c r="W32" s="310">
+        <v>1</v>
+      </c>
+      <c r="X32" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="310"/>
+      <c r="AA32" s="310"/>
+      <c r="AB32" s="310"/>
+      <c r="AC32" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="313">
         <v>95</v>
       </c>
-      <c r="AE32" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF32" s="320">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="321">
+      <c r="AE32" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="316">
+        <v>100</v>
+      </c>
+      <c r="AG32" s="317">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH32" s="320">
-        <v>100</v>
-      </c>
-      <c r="AI32" s="320"/>
-      <c r="AJ32" s="320"/>
-      <c r="AK32" s="320"/>
-      <c r="AL32" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM32" s="320"/>
-      <c r="AN32" s="320"/>
-      <c r="AO32" s="320"/>
-      <c r="AP32" s="310">
+      <c r="AH32" s="316">
+        <v>100</v>
+      </c>
+      <c r="AI32" s="316"/>
+      <c r="AJ32" s="316"/>
+      <c r="AK32" s="316"/>
+      <c r="AL32" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="316"/>
+      <c r="AN32" s="316"/>
+      <c r="AO32" s="316"/>
+      <c r="AP32" s="306">
         <f t="shared" si="4"/>
         <v>110.57692307692308</v>
       </c>
     </row>
     <row r="33" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="312" t="s">
+      <c r="A33" s="308" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="301">
+      <c r="B33" s="297">
         <v>2</v>
       </c>
-      <c r="C33" s="302"/>
-      <c r="D33" s="302"/>
-      <c r="E33" s="303" t="s">
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="304">
-        <v>1</v>
-      </c>
-      <c r="G33" s="314">
-        <v>1</v>
-      </c>
-      <c r="H33" s="314">
-        <v>1</v>
-      </c>
-      <c r="I33" s="314">
-        <v>1</v>
-      </c>
-      <c r="J33" s="314">
-        <v>1</v>
-      </c>
-      <c r="K33" s="314">
-        <v>1</v>
-      </c>
-      <c r="L33" s="314">
-        <v>1</v>
-      </c>
-      <c r="M33" s="314">
-        <v>1</v>
-      </c>
-      <c r="N33" s="314">
-        <v>1</v>
-      </c>
-      <c r="O33" s="314">
-        <v>1</v>
-      </c>
-      <c r="P33" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="314">
-        <v>1</v>
-      </c>
-      <c r="R33" s="315">
-        <v>1</v>
-      </c>
-      <c r="S33" s="314">
+      <c r="F33" s="300">
+        <v>1</v>
+      </c>
+      <c r="G33" s="310">
+        <v>1</v>
+      </c>
+      <c r="H33" s="310">
+        <v>1</v>
+      </c>
+      <c r="I33" s="310">
+        <v>1</v>
+      </c>
+      <c r="J33" s="310">
+        <v>1</v>
+      </c>
+      <c r="K33" s="310">
+        <v>1</v>
+      </c>
+      <c r="L33" s="310">
+        <v>1</v>
+      </c>
+      <c r="M33" s="310">
+        <v>1</v>
+      </c>
+      <c r="N33" s="310">
+        <v>1</v>
+      </c>
+      <c r="O33" s="310">
+        <v>1</v>
+      </c>
+      <c r="P33" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="310">
+        <v>1</v>
+      </c>
+      <c r="R33" s="311">
+        <v>1</v>
+      </c>
+      <c r="S33" s="310">
         <v>3</v>
       </c>
-      <c r="T33" s="314">
-        <v>1</v>
-      </c>
-      <c r="U33" s="316">
+      <c r="T33" s="310">
+        <v>1</v>
+      </c>
+      <c r="U33" s="312">
         <v>-1</v>
       </c>
-      <c r="V33" s="304">
-        <v>1</v>
-      </c>
-      <c r="W33" s="314">
-        <v>1</v>
-      </c>
-      <c r="X33" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="314"/>
-      <c r="AA33" s="314"/>
-      <c r="AB33" s="314"/>
-      <c r="AC33" s="317">
+      <c r="V33" s="300">
+        <v>1</v>
+      </c>
+      <c r="W33" s="310">
+        <v>1</v>
+      </c>
+      <c r="X33" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="310"/>
+      <c r="AA33" s="310"/>
+      <c r="AB33" s="310"/>
+      <c r="AC33" s="313">
         <v>80</v>
       </c>
-      <c r="AD33" s="317">
+      <c r="AD33" s="313">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AE33" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF33" s="319">
+      <c r="AE33" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="315">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG33" s="321">
+      <c r="AG33" s="317">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="AH33" s="320">
+      <c r="AH33" s="316">
         <v>-100</v>
       </c>
-      <c r="AI33" s="320"/>
-      <c r="AJ33" s="320"/>
-      <c r="AK33" s="320"/>
-      <c r="AL33" s="320"/>
-      <c r="AM33" s="320"/>
-      <c r="AN33" s="320"/>
-      <c r="AO33" s="320"/>
-      <c r="AP33" s="310">
+      <c r="AI33" s="316"/>
+      <c r="AJ33" s="316"/>
+      <c r="AK33" s="316"/>
+      <c r="AL33" s="316"/>
+      <c r="AM33" s="316"/>
+      <c r="AN33" s="316"/>
+      <c r="AO33" s="316"/>
+      <c r="AP33" s="306">
         <f t="shared" si="4"/>
         <v>85.384615384615387</v>
       </c>
     </row>
     <row r="34" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="312" t="s">
+      <c r="A34" s="308" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="301">
-        <v>0</v>
-      </c>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="325" t="s">
+      <c r="B34" s="297">
+        <v>0</v>
+      </c>
+      <c r="C34" s="298"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="321" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="304">
-        <v>1</v>
-      </c>
-      <c r="G34" s="326">
-        <v>1</v>
-      </c>
-      <c r="H34" s="304">
+      <c r="F34" s="300">
+        <v>1</v>
+      </c>
+      <c r="G34" s="322">
+        <v>1</v>
+      </c>
+      <c r="H34" s="300">
         <v>-0.5</v>
       </c>
-      <c r="I34" s="304">
+      <c r="I34" s="300">
         <v>-0.5</v>
       </c>
-      <c r="J34" s="326">
-        <v>1</v>
-      </c>
-      <c r="K34" s="326">
-        <v>1</v>
-      </c>
-      <c r="L34" s="304">
+      <c r="J34" s="322">
+        <v>1</v>
+      </c>
+      <c r="K34" s="322">
+        <v>1</v>
+      </c>
+      <c r="L34" s="300">
         <v>-0.5</v>
       </c>
-      <c r="M34" s="326">
+      <c r="M34" s="322">
         <v>-0.5</v>
       </c>
-      <c r="N34" s="326">
-        <v>1</v>
-      </c>
-      <c r="O34" s="326">
-        <v>1</v>
-      </c>
-      <c r="P34" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="326">
-        <v>1</v>
-      </c>
-      <c r="R34" s="305" t="s">
+      <c r="N34" s="322">
+        <v>1</v>
+      </c>
+      <c r="O34" s="322">
+        <v>1</v>
+      </c>
+      <c r="P34" s="322">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="322">
+        <v>1</v>
+      </c>
+      <c r="R34" s="301" t="s">
         <v>13</v>
       </c>
-      <c r="S34" s="326">
+      <c r="S34" s="322">
         <v>3</v>
       </c>
-      <c r="T34" s="326">
+      <c r="T34" s="322">
         <v>-0.5</v>
       </c>
-      <c r="U34" s="316">
+      <c r="U34" s="312">
         <v>-1</v>
       </c>
-      <c r="V34" s="304">
-        <v>1</v>
-      </c>
-      <c r="W34" s="314">
-        <v>1</v>
-      </c>
-      <c r="X34" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="314">
+      <c r="V34" s="300">
+        <v>1</v>
+      </c>
+      <c r="W34" s="310">
+        <v>1</v>
+      </c>
+      <c r="X34" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="310">
         <v>-1</v>
       </c>
-      <c r="Z34" s="314"/>
-      <c r="AA34" s="314"/>
-      <c r="AB34" s="314"/>
-      <c r="AC34" s="317">
+      <c r="Z34" s="310"/>
+      <c r="AA34" s="310"/>
+      <c r="AB34" s="310"/>
+      <c r="AC34" s="313">
         <v>80</v>
       </c>
-      <c r="AD34" s="327">
+      <c r="AD34" s="323">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE34" s="328">
+      <c r="AE34" s="324">
         <v>-100</v>
       </c>
-      <c r="AF34" s="320">
+      <c r="AF34" s="316">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AG34" s="329">
+      <c r="AG34" s="325">
         <f>-100</f>
         <v>-100</v>
       </c>
-      <c r="AH34" s="328">
+      <c r="AH34" s="324">
         <v>-100</v>
       </c>
-      <c r="AI34" s="328"/>
-      <c r="AJ34" s="328"/>
-      <c r="AK34" s="328"/>
-      <c r="AL34" s="328"/>
-      <c r="AM34" s="328"/>
-      <c r="AN34" s="328"/>
-      <c r="AO34" s="328"/>
-      <c r="AP34" s="310">
+      <c r="AI34" s="324"/>
+      <c r="AJ34" s="324"/>
+      <c r="AK34" s="324"/>
+      <c r="AL34" s="324"/>
+      <c r="AM34" s="324"/>
+      <c r="AN34" s="324"/>
+      <c r="AO34" s="324"/>
+      <c r="AP34" s="306">
         <f t="shared" si="4"/>
         <v>20.384615384615383</v>
       </c>
     </row>
     <row r="35" spans="1:64" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="330" t="s">
+      <c r="A35" s="326" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="301">
+      <c r="B35" s="297">
         <v>2</v>
       </c>
-      <c r="C35" s="301"/>
-      <c r="D35" s="301"/>
-      <c r="E35" s="331" t="s">
+      <c r="C35" s="297"/>
+      <c r="D35" s="297"/>
+      <c r="E35" s="327" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="332">
-        <v>1</v>
-      </c>
-      <c r="G35" s="326">
-        <v>1</v>
-      </c>
-      <c r="H35" s="326">
-        <v>1</v>
-      </c>
-      <c r="I35" s="326">
-        <v>1</v>
-      </c>
-      <c r="J35" s="326">
-        <v>1</v>
-      </c>
-      <c r="K35" s="326">
-        <v>1</v>
-      </c>
-      <c r="L35" s="326">
-        <v>1</v>
-      </c>
-      <c r="M35" s="326">
-        <v>1</v>
-      </c>
-      <c r="N35" s="326">
-        <v>1</v>
-      </c>
-      <c r="O35" s="326">
-        <v>1</v>
-      </c>
-      <c r="P35" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="326">
-        <v>1</v>
-      </c>
-      <c r="R35" s="333">
-        <v>1</v>
-      </c>
-      <c r="S35" s="326">
+      <c r="F35" s="328">
+        <v>1</v>
+      </c>
+      <c r="G35" s="322">
+        <v>1</v>
+      </c>
+      <c r="H35" s="322">
+        <v>1</v>
+      </c>
+      <c r="I35" s="322">
+        <v>1</v>
+      </c>
+      <c r="J35" s="322">
+        <v>1</v>
+      </c>
+      <c r="K35" s="322">
+        <v>1</v>
+      </c>
+      <c r="L35" s="322">
+        <v>1</v>
+      </c>
+      <c r="M35" s="322">
+        <v>1</v>
+      </c>
+      <c r="N35" s="322">
+        <v>1</v>
+      </c>
+      <c r="O35" s="322">
+        <v>1</v>
+      </c>
+      <c r="P35" s="322">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="322">
+        <v>1</v>
+      </c>
+      <c r="R35" s="329">
+        <v>1</v>
+      </c>
+      <c r="S35" s="322">
         <v>3</v>
       </c>
-      <c r="T35" s="326">
-        <v>1</v>
-      </c>
-      <c r="U35" s="334">
-        <v>1</v>
-      </c>
-      <c r="V35" s="304">
-        <v>1</v>
-      </c>
-      <c r="W35" s="326">
-        <v>1</v>
-      </c>
-      <c r="X35" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="326"/>
-      <c r="AA35" s="326"/>
-      <c r="AB35" s="326"/>
-      <c r="AC35" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="317">
-        <v>100</v>
-      </c>
-      <c r="AE35" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF35" s="319">
+      <c r="T35" s="322">
+        <v>1</v>
+      </c>
+      <c r="U35" s="330">
+        <v>1</v>
+      </c>
+      <c r="V35" s="300">
+        <v>1</v>
+      </c>
+      <c r="W35" s="322">
+        <v>1</v>
+      </c>
+      <c r="X35" s="322">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="322">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="322"/>
+      <c r="AA35" s="322"/>
+      <c r="AB35" s="322"/>
+      <c r="AC35" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="313">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="315">
         <f>50+50</f>
         <v>100</v>
       </c>
-      <c r="AG35" s="329">
+      <c r="AG35" s="325">
         <v>80</v>
       </c>
-      <c r="AH35" s="328">
-        <v>100</v>
-      </c>
-      <c r="AI35" s="328"/>
-      <c r="AJ35" s="328"/>
-      <c r="AK35" s="328"/>
-      <c r="AL35" s="328">
-        <v>100</v>
-      </c>
-      <c r="AM35" s="328"/>
-      <c r="AN35" s="328"/>
-      <c r="AO35" s="328"/>
-      <c r="AP35" s="310">
+      <c r="AH35" s="324">
+        <v>100</v>
+      </c>
+      <c r="AI35" s="324"/>
+      <c r="AJ35" s="324"/>
+      <c r="AK35" s="324"/>
+      <c r="AL35" s="324">
+        <v>100</v>
+      </c>
+      <c r="AM35" s="324"/>
+      <c r="AN35" s="324"/>
+      <c r="AO35" s="324"/>
+      <c r="AP35" s="306">
         <f t="shared" si="4"/>
         <v>110.76923076923077</v>
       </c>
@@ -10888,1574 +10953,1574 @@
       <c r="BL35" s="47"/>
     </row>
     <row r="36" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="335" t="s">
+      <c r="A36" s="331" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="301">
+      <c r="B36" s="297">
         <v>2</v>
       </c>
-      <c r="C36" s="302"/>
-      <c r="D36" s="302"/>
-      <c r="E36" s="325" t="s">
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
+      <c r="E36" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="304">
-        <v>1</v>
-      </c>
-      <c r="G36" s="326">
-        <v>1</v>
-      </c>
-      <c r="H36" s="326">
-        <v>1</v>
-      </c>
-      <c r="I36" s="326">
-        <v>1</v>
-      </c>
-      <c r="J36" s="326">
-        <v>1</v>
-      </c>
-      <c r="K36" s="326">
-        <v>1</v>
-      </c>
-      <c r="L36" s="326">
-        <v>1</v>
-      </c>
-      <c r="M36" s="326">
-        <v>1</v>
-      </c>
-      <c r="N36" s="326">
-        <v>1</v>
-      </c>
-      <c r="O36" s="326">
-        <v>1</v>
-      </c>
-      <c r="P36" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="326">
-        <v>1</v>
-      </c>
-      <c r="R36" s="333">
-        <v>1</v>
-      </c>
-      <c r="S36" s="326">
+      <c r="F36" s="300">
+        <v>1</v>
+      </c>
+      <c r="G36" s="322">
+        <v>1</v>
+      </c>
+      <c r="H36" s="322">
+        <v>1</v>
+      </c>
+      <c r="I36" s="322">
+        <v>1</v>
+      </c>
+      <c r="J36" s="322">
+        <v>1</v>
+      </c>
+      <c r="K36" s="322">
+        <v>1</v>
+      </c>
+      <c r="L36" s="322">
+        <v>1</v>
+      </c>
+      <c r="M36" s="322">
+        <v>1</v>
+      </c>
+      <c r="N36" s="322">
+        <v>1</v>
+      </c>
+      <c r="O36" s="322">
+        <v>1</v>
+      </c>
+      <c r="P36" s="322">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="322">
+        <v>1</v>
+      </c>
+      <c r="R36" s="329">
+        <v>1</v>
+      </c>
+      <c r="S36" s="322">
         <v>3</v>
       </c>
-      <c r="T36" s="326">
-        <v>1</v>
-      </c>
-      <c r="U36" s="334">
-        <v>1</v>
-      </c>
-      <c r="V36" s="304">
-        <v>1</v>
-      </c>
-      <c r="W36" s="326">
-        <v>1</v>
-      </c>
-      <c r="X36" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="326"/>
-      <c r="AA36" s="326"/>
-      <c r="AB36" s="326"/>
-      <c r="AC36" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="317">
+      <c r="T36" s="322">
+        <v>1</v>
+      </c>
+      <c r="U36" s="330">
+        <v>1</v>
+      </c>
+      <c r="V36" s="300">
+        <v>1</v>
+      </c>
+      <c r="W36" s="322">
+        <v>1</v>
+      </c>
+      <c r="X36" s="322">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="322">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="322"/>
+      <c r="AA36" s="322"/>
+      <c r="AB36" s="322"/>
+      <c r="AC36" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD36" s="313">
         <f>-20 - 20 + 80</f>
         <v>40</v>
       </c>
-      <c r="AE36" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF36" s="336">
+      <c r="AE36" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF36" s="332">
         <f>10 + 50</f>
         <v>60</v>
       </c>
-      <c r="AG36" s="329">
+      <c r="AG36" s="325">
         <f>100 - 100 + 50</f>
         <v>50</v>
       </c>
-      <c r="AH36" s="328">
+      <c r="AH36" s="324">
         <f>-20+80</f>
         <v>60</v>
       </c>
-      <c r="AI36" s="328"/>
-      <c r="AJ36" s="328"/>
-      <c r="AK36" s="328"/>
-      <c r="AL36" s="328">
-        <v>100</v>
-      </c>
-      <c r="AM36" s="328"/>
-      <c r="AN36" s="328"/>
-      <c r="AO36" s="328"/>
-      <c r="AP36" s="310">
+      <c r="AI36" s="324"/>
+      <c r="AJ36" s="324"/>
+      <c r="AK36" s="324"/>
+      <c r="AL36" s="324">
+        <v>100</v>
+      </c>
+      <c r="AM36" s="324"/>
+      <c r="AN36" s="324"/>
+      <c r="AO36" s="324"/>
+      <c r="AP36" s="306">
         <f t="shared" si="4"/>
         <v>104.23076923076923</v>
       </c>
     </row>
     <row r="37" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="312" t="s">
+      <c r="A37" s="308" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="301">
-        <v>0</v>
-      </c>
-      <c r="C37" s="302"/>
-      <c r="D37" s="302"/>
-      <c r="E37" s="302" t="s">
+      <c r="B37" s="297">
+        <v>0</v>
+      </c>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="304">
-        <v>1</v>
-      </c>
-      <c r="G37" s="314">
-        <v>1</v>
-      </c>
-      <c r="H37" s="314">
-        <v>1</v>
-      </c>
-      <c r="I37" s="314">
-        <v>1</v>
-      </c>
-      <c r="J37" s="314">
-        <v>1</v>
-      </c>
-      <c r="K37" s="314">
-        <v>1</v>
-      </c>
-      <c r="L37" s="314">
-        <v>1</v>
-      </c>
-      <c r="M37" s="314">
+      <c r="F37" s="300">
+        <v>1</v>
+      </c>
+      <c r="G37" s="310">
+        <v>1</v>
+      </c>
+      <c r="H37" s="310">
+        <v>1</v>
+      </c>
+      <c r="I37" s="310">
+        <v>1</v>
+      </c>
+      <c r="J37" s="310">
+        <v>1</v>
+      </c>
+      <c r="K37" s="310">
+        <v>1</v>
+      </c>
+      <c r="L37" s="310">
+        <v>1</v>
+      </c>
+      <c r="M37" s="310">
         <v>-0.5</v>
       </c>
-      <c r="N37" s="314">
-        <v>1</v>
-      </c>
-      <c r="O37" s="314">
-        <v>1</v>
-      </c>
-      <c r="P37" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="314">
-        <v>1</v>
-      </c>
-      <c r="R37" s="315">
-        <v>1</v>
-      </c>
-      <c r="S37" s="314">
+      <c r="N37" s="310">
+        <v>1</v>
+      </c>
+      <c r="O37" s="310">
+        <v>1</v>
+      </c>
+      <c r="P37" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="310">
+        <v>1</v>
+      </c>
+      <c r="R37" s="311">
+        <v>1</v>
+      </c>
+      <c r="S37" s="310">
         <v>3</v>
       </c>
-      <c r="T37" s="314">
-        <v>1</v>
-      </c>
-      <c r="U37" s="316">
-        <v>1</v>
-      </c>
-      <c r="V37" s="304">
-        <v>1</v>
-      </c>
-      <c r="W37" s="314">
-        <v>1</v>
-      </c>
-      <c r="X37" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="314"/>
-      <c r="AA37" s="314"/>
-      <c r="AB37" s="314"/>
-      <c r="AC37" s="317">
+      <c r="T37" s="310">
+        <v>1</v>
+      </c>
+      <c r="U37" s="312">
+        <v>1</v>
+      </c>
+      <c r="V37" s="300">
+        <v>1</v>
+      </c>
+      <c r="W37" s="310">
+        <v>1</v>
+      </c>
+      <c r="X37" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="310"/>
+      <c r="AA37" s="310"/>
+      <c r="AB37" s="310"/>
+      <c r="AC37" s="313">
         <v>60</v>
       </c>
-      <c r="AD37" s="317">
+      <c r="AD37" s="313">
         <f>-50 + 30 - 50 -50</f>
         <v>-120</v>
       </c>
-      <c r="AE37" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF37" s="319">
+      <c r="AE37" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="315">
         <f>-50 + 50 + 50</f>
         <v>50</v>
       </c>
-      <c r="AG37" s="321">
+      <c r="AG37" s="317">
         <v>70</v>
       </c>
-      <c r="AH37" s="320">
+      <c r="AH37" s="316">
         <v>-100</v>
       </c>
-      <c r="AI37" s="320"/>
-      <c r="AJ37" s="320"/>
-      <c r="AK37" s="320"/>
-      <c r="AL37" s="320">
+      <c r="AI37" s="316"/>
+      <c r="AJ37" s="316"/>
+      <c r="AK37" s="316"/>
+      <c r="AL37" s="316">
         <v>50</v>
       </c>
-      <c r="AM37" s="320"/>
-      <c r="AN37" s="320"/>
-      <c r="AO37" s="320"/>
-      <c r="AP37" s="310">
+      <c r="AM37" s="316"/>
+      <c r="AN37" s="316"/>
+      <c r="AO37" s="316"/>
+      <c r="AP37" s="306">
         <f t="shared" si="4"/>
         <v>83.07692307692308</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="324" t="s">
+      <c r="A38" s="320" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="301">
+      <c r="B38" s="297">
         <v>2</v>
       </c>
-      <c r="C38" s="302"/>
-      <c r="D38" s="302"/>
-      <c r="E38" s="325" t="s">
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="321" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="304">
-        <v>1</v>
-      </c>
-      <c r="G38" s="314">
-        <v>1</v>
-      </c>
-      <c r="H38" s="314">
-        <v>1</v>
-      </c>
-      <c r="I38" s="314">
-        <v>1</v>
-      </c>
-      <c r="J38" s="314">
-        <v>1</v>
-      </c>
-      <c r="K38" s="314">
-        <v>1</v>
-      </c>
-      <c r="L38" s="314">
-        <v>1</v>
-      </c>
-      <c r="M38" s="314">
-        <v>1</v>
-      </c>
-      <c r="N38" s="314">
-        <v>1</v>
-      </c>
-      <c r="O38" s="314">
-        <v>1</v>
-      </c>
-      <c r="P38" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="314">
-        <v>1</v>
-      </c>
-      <c r="R38" s="315">
-        <v>1</v>
-      </c>
-      <c r="S38" s="314">
+      <c r="F38" s="300">
+        <v>1</v>
+      </c>
+      <c r="G38" s="310">
+        <v>1</v>
+      </c>
+      <c r="H38" s="310">
+        <v>1</v>
+      </c>
+      <c r="I38" s="310">
+        <v>1</v>
+      </c>
+      <c r="J38" s="310">
+        <v>1</v>
+      </c>
+      <c r="K38" s="310">
+        <v>1</v>
+      </c>
+      <c r="L38" s="310">
+        <v>1</v>
+      </c>
+      <c r="M38" s="310">
+        <v>1</v>
+      </c>
+      <c r="N38" s="310">
+        <v>1</v>
+      </c>
+      <c r="O38" s="310">
+        <v>1</v>
+      </c>
+      <c r="P38" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="310">
+        <v>1</v>
+      </c>
+      <c r="R38" s="311">
+        <v>1</v>
+      </c>
+      <c r="S38" s="310">
         <v>3</v>
       </c>
-      <c r="T38" s="314">
-        <v>1</v>
-      </c>
-      <c r="U38" s="316">
-        <v>1</v>
-      </c>
-      <c r="V38" s="304">
-        <v>1</v>
-      </c>
-      <c r="W38" s="314">
-        <v>1</v>
-      </c>
-      <c r="X38" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="314"/>
-      <c r="AA38" s="314"/>
-      <c r="AB38" s="314"/>
-      <c r="AC38" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="317">
+      <c r="T38" s="310">
+        <v>1</v>
+      </c>
+      <c r="U38" s="312">
+        <v>1</v>
+      </c>
+      <c r="V38" s="300">
+        <v>1</v>
+      </c>
+      <c r="W38" s="310">
+        <v>1</v>
+      </c>
+      <c r="X38" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="310"/>
+      <c r="AA38" s="310"/>
+      <c r="AB38" s="310"/>
+      <c r="AC38" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD38" s="313">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE38" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF38" s="319">
-        <v>100</v>
-      </c>
-      <c r="AG38" s="321">
+      <c r="AE38" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF38" s="315">
+        <v>100</v>
+      </c>
+      <c r="AG38" s="317">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH38" s="320">
+      <c r="AH38" s="316">
         <f>-20+100</f>
         <v>80</v>
       </c>
-      <c r="AI38" s="320"/>
-      <c r="AJ38" s="320"/>
-      <c r="AK38" s="320"/>
-      <c r="AL38" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="320"/>
-      <c r="AN38" s="320"/>
-      <c r="AO38" s="320"/>
-      <c r="AP38" s="310">
+      <c r="AI38" s="316"/>
+      <c r="AJ38" s="316"/>
+      <c r="AK38" s="316"/>
+      <c r="AL38" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="316"/>
+      <c r="AN38" s="316"/>
+      <c r="AO38" s="316"/>
+      <c r="AP38" s="306">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="324" t="s">
+      <c r="A39" s="320" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="301">
+      <c r="B39" s="297">
         <v>2</v>
       </c>
-      <c r="C39" s="302"/>
-      <c r="D39" s="302"/>
-      <c r="E39" s="325" t="s">
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="304">
-        <v>1</v>
-      </c>
-      <c r="G39" s="314">
-        <v>1</v>
-      </c>
-      <c r="H39" s="314">
-        <v>1</v>
-      </c>
-      <c r="I39" s="314">
-        <v>1</v>
-      </c>
-      <c r="J39" s="314">
-        <v>1</v>
-      </c>
-      <c r="K39" s="314">
-        <v>1</v>
-      </c>
-      <c r="L39" s="314">
-        <v>1</v>
-      </c>
-      <c r="M39" s="314">
-        <v>1</v>
-      </c>
-      <c r="N39" s="314">
-        <v>1</v>
-      </c>
-      <c r="O39" s="314">
-        <v>1</v>
-      </c>
-      <c r="P39" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="314">
-        <v>1</v>
-      </c>
-      <c r="R39" s="315">
-        <v>1</v>
-      </c>
-      <c r="S39" s="314">
+      <c r="F39" s="300">
+        <v>1</v>
+      </c>
+      <c r="G39" s="310">
+        <v>1</v>
+      </c>
+      <c r="H39" s="310">
+        <v>1</v>
+      </c>
+      <c r="I39" s="310">
+        <v>1</v>
+      </c>
+      <c r="J39" s="310">
+        <v>1</v>
+      </c>
+      <c r="K39" s="310">
+        <v>1</v>
+      </c>
+      <c r="L39" s="310">
+        <v>1</v>
+      </c>
+      <c r="M39" s="310">
+        <v>1</v>
+      </c>
+      <c r="N39" s="310">
+        <v>1</v>
+      </c>
+      <c r="O39" s="310">
+        <v>1</v>
+      </c>
+      <c r="P39" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="310">
+        <v>1</v>
+      </c>
+      <c r="R39" s="311">
+        <v>1</v>
+      </c>
+      <c r="S39" s="310">
         <v>3</v>
       </c>
-      <c r="T39" s="314">
-        <v>1</v>
-      </c>
-      <c r="U39" s="316">
-        <v>1</v>
-      </c>
-      <c r="V39" s="304">
-        <v>1</v>
-      </c>
-      <c r="W39" s="314">
-        <v>1</v>
-      </c>
-      <c r="X39" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="314"/>
-      <c r="AA39" s="314"/>
-      <c r="AB39" s="314"/>
-      <c r="AC39" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD39" s="317">
-        <v>100</v>
-      </c>
-      <c r="AE39" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF39" s="319">
-        <v>100</v>
-      </c>
-      <c r="AG39" s="321">
-        <v>100</v>
-      </c>
-      <c r="AH39" s="320">
-        <v>100</v>
-      </c>
-      <c r="AI39" s="320"/>
-      <c r="AJ39" s="320"/>
-      <c r="AK39" s="320"/>
-      <c r="AL39" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM39" s="320"/>
-      <c r="AN39" s="320"/>
-      <c r="AO39" s="320"/>
-      <c r="AP39" s="310">
+      <c r="T39" s="310">
+        <v>1</v>
+      </c>
+      <c r="U39" s="312">
+        <v>1</v>
+      </c>
+      <c r="V39" s="300">
+        <v>1</v>
+      </c>
+      <c r="W39" s="310">
+        <v>1</v>
+      </c>
+      <c r="X39" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="310"/>
+      <c r="AA39" s="310"/>
+      <c r="AB39" s="310"/>
+      <c r="AC39" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD39" s="313">
+        <v>100</v>
+      </c>
+      <c r="AE39" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF39" s="315">
+        <v>100</v>
+      </c>
+      <c r="AG39" s="317">
+        <v>100</v>
+      </c>
+      <c r="AH39" s="316">
+        <v>100</v>
+      </c>
+      <c r="AI39" s="316"/>
+      <c r="AJ39" s="316"/>
+      <c r="AK39" s="316"/>
+      <c r="AL39" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="316"/>
+      <c r="AN39" s="316"/>
+      <c r="AO39" s="316"/>
+      <c r="AP39" s="306">
         <f t="shared" si="4"/>
         <v>111.53846153846153</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="312" t="s">
+      <c r="A40" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="301">
+      <c r="B40" s="297">
         <v>2</v>
       </c>
-      <c r="C40" s="302"/>
-      <c r="D40" s="302"/>
-      <c r="E40" s="325" t="s">
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="321" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="304">
-        <v>1</v>
-      </c>
-      <c r="G40" s="314">
-        <v>1</v>
-      </c>
-      <c r="H40" s="314">
-        <v>1</v>
-      </c>
-      <c r="I40" s="314">
-        <v>1</v>
-      </c>
-      <c r="J40" s="314">
-        <v>1</v>
-      </c>
-      <c r="K40" s="314">
-        <v>1</v>
-      </c>
-      <c r="L40" s="314">
-        <v>1</v>
-      </c>
-      <c r="M40" s="314">
-        <v>1</v>
-      </c>
-      <c r="N40" s="314">
-        <v>1</v>
-      </c>
-      <c r="O40" s="314">
-        <v>1</v>
-      </c>
-      <c r="P40" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="314">
-        <v>1</v>
-      </c>
-      <c r="R40" s="315">
-        <v>1</v>
-      </c>
-      <c r="S40" s="314">
+      <c r="F40" s="300">
+        <v>1</v>
+      </c>
+      <c r="G40" s="310">
+        <v>1</v>
+      </c>
+      <c r="H40" s="310">
+        <v>1</v>
+      </c>
+      <c r="I40" s="310">
+        <v>1</v>
+      </c>
+      <c r="J40" s="310">
+        <v>1</v>
+      </c>
+      <c r="K40" s="310">
+        <v>1</v>
+      </c>
+      <c r="L40" s="310">
+        <v>1</v>
+      </c>
+      <c r="M40" s="310">
+        <v>1</v>
+      </c>
+      <c r="N40" s="310">
+        <v>1</v>
+      </c>
+      <c r="O40" s="310">
+        <v>1</v>
+      </c>
+      <c r="P40" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="310">
+        <v>1</v>
+      </c>
+      <c r="R40" s="311">
+        <v>1</v>
+      </c>
+      <c r="S40" s="310">
         <v>3</v>
       </c>
-      <c r="T40" s="314">
-        <v>1</v>
-      </c>
-      <c r="U40" s="316">
-        <v>1</v>
-      </c>
-      <c r="V40" s="304">
-        <v>1</v>
-      </c>
-      <c r="W40" s="314">
-        <v>1</v>
-      </c>
-      <c r="X40" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="314"/>
-      <c r="AA40" s="314"/>
-      <c r="AB40" s="314"/>
-      <c r="AC40" s="317">
+      <c r="T40" s="310">
+        <v>1</v>
+      </c>
+      <c r="U40" s="312">
+        <v>1</v>
+      </c>
+      <c r="V40" s="300">
+        <v>1</v>
+      </c>
+      <c r="W40" s="310">
+        <v>1</v>
+      </c>
+      <c r="X40" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="310"/>
+      <c r="AA40" s="310"/>
+      <c r="AB40" s="310"/>
+      <c r="AC40" s="313">
         <v>60</v>
       </c>
-      <c r="AD40" s="317">
-        <v>100</v>
-      </c>
-      <c r="AE40" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF40" s="319">
+      <c r="AD40" s="313">
+        <v>100</v>
+      </c>
+      <c r="AE40" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="315">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG40" s="321">
-        <v>100</v>
-      </c>
-      <c r="AH40" s="320">
-        <v>100</v>
-      </c>
-      <c r="AI40" s="328"/>
-      <c r="AJ40" s="328"/>
-      <c r="AK40" s="328"/>
-      <c r="AL40" s="328">
-        <v>100</v>
-      </c>
-      <c r="AM40" s="320"/>
-      <c r="AN40" s="320"/>
-      <c r="AO40" s="320"/>
-      <c r="AP40" s="310">
+      <c r="AG40" s="317">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="316">
+        <v>100</v>
+      </c>
+      <c r="AI40" s="324"/>
+      <c r="AJ40" s="324"/>
+      <c r="AK40" s="324"/>
+      <c r="AL40" s="324">
+        <v>100</v>
+      </c>
+      <c r="AM40" s="316"/>
+      <c r="AN40" s="316"/>
+      <c r="AO40" s="316"/>
+      <c r="AP40" s="306">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="312" t="s">
+      <c r="A41" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="301">
+      <c r="B41" s="297">
         <v>2</v>
       </c>
-      <c r="C41" s="302"/>
-      <c r="D41" s="302"/>
-      <c r="E41" s="325" t="s">
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="304">
-        <v>1</v>
-      </c>
-      <c r="G41" s="304">
+      <c r="F41" s="300">
+        <v>1</v>
+      </c>
+      <c r="G41" s="300">
         <v>-0.5</v>
       </c>
-      <c r="H41" s="326">
-        <v>1</v>
-      </c>
-      <c r="I41" s="326">
-        <v>1</v>
-      </c>
-      <c r="J41" s="326">
-        <v>1</v>
-      </c>
-      <c r="K41" s="326">
-        <v>1</v>
-      </c>
-      <c r="L41" s="304">
+      <c r="H41" s="322">
+        <v>1</v>
+      </c>
+      <c r="I41" s="322">
+        <v>1</v>
+      </c>
+      <c r="J41" s="322">
+        <v>1</v>
+      </c>
+      <c r="K41" s="322">
+        <v>1</v>
+      </c>
+      <c r="L41" s="300">
         <v>-0.5</v>
       </c>
-      <c r="M41" s="326">
-        <v>1</v>
-      </c>
-      <c r="N41" s="326">
-        <v>1</v>
-      </c>
-      <c r="O41" s="326">
-        <v>1</v>
-      </c>
-      <c r="P41" s="326">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="326">
-        <v>1</v>
-      </c>
-      <c r="R41" s="333">
-        <v>1</v>
-      </c>
-      <c r="S41" s="326">
+      <c r="M41" s="322">
+        <v>1</v>
+      </c>
+      <c r="N41" s="322">
+        <v>1</v>
+      </c>
+      <c r="O41" s="322">
+        <v>1</v>
+      </c>
+      <c r="P41" s="322">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="322">
+        <v>1</v>
+      </c>
+      <c r="R41" s="329">
+        <v>1</v>
+      </c>
+      <c r="S41" s="322">
         <v>3</v>
       </c>
-      <c r="T41" s="326">
-        <v>1</v>
-      </c>
-      <c r="U41" s="334">
-        <v>1</v>
-      </c>
-      <c r="V41" s="304">
-        <v>1</v>
-      </c>
-      <c r="W41" s="326">
-        <v>1</v>
-      </c>
-      <c r="X41" s="326">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="326">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="326"/>
-      <c r="AA41" s="326"/>
-      <c r="AB41" s="326"/>
-      <c r="AC41" s="317">
+      <c r="T41" s="322">
+        <v>1</v>
+      </c>
+      <c r="U41" s="330">
+        <v>1</v>
+      </c>
+      <c r="V41" s="300">
+        <v>1</v>
+      </c>
+      <c r="W41" s="322">
+        <v>1</v>
+      </c>
+      <c r="X41" s="322">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="322">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="322"/>
+      <c r="AA41" s="322"/>
+      <c r="AB41" s="322"/>
+      <c r="AC41" s="313">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD41" s="317">
+      <c r="AD41" s="313">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE41" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF41" s="319">
-        <v>100</v>
-      </c>
-      <c r="AG41" s="329">
+      <c r="AE41" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="315">
+        <v>100</v>
+      </c>
+      <c r="AG41" s="325">
         <v>60</v>
       </c>
-      <c r="AH41" s="328">
-        <v>100</v>
-      </c>
-      <c r="AI41" s="328"/>
-      <c r="AJ41" s="328"/>
-      <c r="AK41" s="328"/>
-      <c r="AL41" s="328">
-        <v>100</v>
-      </c>
-      <c r="AM41" s="328"/>
-      <c r="AN41" s="328"/>
-      <c r="AO41" s="328"/>
-      <c r="AP41" s="310">
+      <c r="AH41" s="324">
+        <v>100</v>
+      </c>
+      <c r="AI41" s="324"/>
+      <c r="AJ41" s="324"/>
+      <c r="AK41" s="324"/>
+      <c r="AL41" s="324">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="324"/>
+      <c r="AN41" s="324"/>
+      <c r="AO41" s="324"/>
+      <c r="AP41" s="306">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="312" t="s">
+      <c r="A42" s="308" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="301">
-        <v>0</v>
-      </c>
-      <c r="C42" s="302"/>
-      <c r="D42" s="302"/>
-      <c r="E42" s="331" t="s">
+      <c r="B42" s="297">
+        <v>0</v>
+      </c>
+      <c r="C42" s="298"/>
+      <c r="D42" s="298"/>
+      <c r="E42" s="327" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="304">
-        <v>1</v>
-      </c>
-      <c r="G42" s="304">
+      <c r="F42" s="300">
+        <v>1</v>
+      </c>
+      <c r="G42" s="300">
         <v>-0.5</v>
       </c>
-      <c r="H42" s="314">
-        <v>1</v>
-      </c>
-      <c r="I42" s="304">
+      <c r="H42" s="310">
+        <v>1</v>
+      </c>
+      <c r="I42" s="300">
         <v>-0.5</v>
       </c>
-      <c r="J42" s="314">
-        <v>1</v>
-      </c>
-      <c r="K42" s="314">
-        <v>1</v>
-      </c>
-      <c r="L42" s="314">
-        <v>1</v>
-      </c>
-      <c r="M42" s="314">
-        <v>1</v>
-      </c>
-      <c r="N42" s="314">
-        <v>1</v>
-      </c>
-      <c r="O42" s="314">
-        <v>1</v>
-      </c>
-      <c r="P42" s="314">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="314">
-        <v>1</v>
-      </c>
-      <c r="R42" s="315">
-        <v>1</v>
-      </c>
-      <c r="S42" s="314">
+      <c r="J42" s="310">
+        <v>1</v>
+      </c>
+      <c r="K42" s="310">
+        <v>1</v>
+      </c>
+      <c r="L42" s="310">
+        <v>1</v>
+      </c>
+      <c r="M42" s="310">
+        <v>1</v>
+      </c>
+      <c r="N42" s="310">
+        <v>1</v>
+      </c>
+      <c r="O42" s="310">
+        <v>1</v>
+      </c>
+      <c r="P42" s="310">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="310">
+        <v>1</v>
+      </c>
+      <c r="R42" s="311">
+        <v>1</v>
+      </c>
+      <c r="S42" s="310">
         <v>3</v>
       </c>
-      <c r="T42" s="314">
-        <v>1</v>
-      </c>
-      <c r="U42" s="316">
-        <v>1</v>
-      </c>
-      <c r="V42" s="304">
-        <v>1</v>
-      </c>
-      <c r="W42" s="314">
-        <v>1</v>
-      </c>
-      <c r="X42" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="314"/>
-      <c r="AA42" s="314"/>
-      <c r="AB42" s="314"/>
-      <c r="AC42" s="317">
+      <c r="T42" s="310">
+        <v>1</v>
+      </c>
+      <c r="U42" s="312">
+        <v>1</v>
+      </c>
+      <c r="V42" s="300">
+        <v>1</v>
+      </c>
+      <c r="W42" s="310">
+        <v>1</v>
+      </c>
+      <c r="X42" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="310"/>
+      <c r="AA42" s="310"/>
+      <c r="AB42" s="310"/>
+      <c r="AC42" s="313">
         <f>-40 - 20 + 100</f>
         <v>40</v>
       </c>
-      <c r="AD42" s="327">
+      <c r="AD42" s="323">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE42" s="320">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="320">
+      <c r="AE42" s="316">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="316">
         <f>-50 + 20 - 20+50</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="321">
+      <c r="AG42" s="317">
         <v>-100</v>
       </c>
-      <c r="AH42" s="320">
+      <c r="AH42" s="316">
         <v>70</v>
       </c>
-      <c r="AI42" s="328"/>
-      <c r="AJ42" s="328"/>
-      <c r="AK42" s="328"/>
-      <c r="AL42" s="328">
-        <v>100</v>
-      </c>
-      <c r="AM42" s="320"/>
-      <c r="AN42" s="320"/>
-      <c r="AO42" s="320"/>
-      <c r="AP42" s="310">
+      <c r="AI42" s="324"/>
+      <c r="AJ42" s="324"/>
+      <c r="AK42" s="324"/>
+      <c r="AL42" s="324">
+        <v>100</v>
+      </c>
+      <c r="AM42" s="316"/>
+      <c r="AN42" s="316"/>
+      <c r="AO42" s="316"/>
+      <c r="AP42" s="306">
         <f t="shared" si="4"/>
         <v>73.461538461538467</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="312" t="s">
+      <c r="A43" s="308" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="301">
-        <v>0</v>
-      </c>
-      <c r="C43" s="283"/>
-      <c r="D43" s="283"/>
-      <c r="E43" s="331" t="s">
+      <c r="B43" s="297">
+        <v>0</v>
+      </c>
+      <c r="C43" s="279"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="304">
-        <v>1</v>
-      </c>
-      <c r="G43" s="314">
-        <v>1</v>
-      </c>
-      <c r="H43" s="304">
+      <c r="F43" s="300">
+        <v>1</v>
+      </c>
+      <c r="G43" s="310">
+        <v>1</v>
+      </c>
+      <c r="H43" s="300">
         <v>-0.5</v>
       </c>
-      <c r="I43" s="304">
+      <c r="I43" s="300">
         <v>-0.5</v>
       </c>
-      <c r="J43" s="314">
-        <v>1</v>
-      </c>
-      <c r="K43" s="314">
-        <v>1</v>
-      </c>
-      <c r="L43" s="314">
-        <v>1</v>
-      </c>
-      <c r="M43" s="314">
+      <c r="J43" s="310">
+        <v>1</v>
+      </c>
+      <c r="K43" s="310">
+        <v>1</v>
+      </c>
+      <c r="L43" s="310">
+        <v>1</v>
+      </c>
+      <c r="M43" s="310">
         <v>-0.5</v>
       </c>
-      <c r="N43" s="314">
-        <v>1</v>
-      </c>
-      <c r="O43" s="314">
-        <v>1</v>
-      </c>
-      <c r="P43" s="314">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="314">
-        <v>1</v>
-      </c>
-      <c r="R43" s="315">
-        <v>1</v>
-      </c>
-      <c r="S43" s="314">
+      <c r="N43" s="310">
+        <v>1</v>
+      </c>
+      <c r="O43" s="310">
+        <v>1</v>
+      </c>
+      <c r="P43" s="310">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="310">
+        <v>1</v>
+      </c>
+      <c r="R43" s="311">
+        <v>1</v>
+      </c>
+      <c r="S43" s="310">
         <v>3</v>
       </c>
-      <c r="T43" s="314">
-        <v>1</v>
-      </c>
-      <c r="U43" s="316">
+      <c r="T43" s="310">
+        <v>1</v>
+      </c>
+      <c r="U43" s="312">
         <v>-1</v>
       </c>
-      <c r="V43" s="304">
-        <v>1</v>
-      </c>
-      <c r="W43" s="314">
-        <v>1</v>
-      </c>
-      <c r="X43" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="314"/>
-      <c r="AA43" s="314"/>
-      <c r="AB43" s="314"/>
-      <c r="AC43" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD43" s="317">
+      <c r="V43" s="300">
+        <v>1</v>
+      </c>
+      <c r="W43" s="310">
+        <v>1</v>
+      </c>
+      <c r="X43" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="310"/>
+      <c r="AC43" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="313">
         <f>-50 - 50 + 40</f>
         <v>-60</v>
       </c>
-      <c r="AE43" s="320">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="320">
+      <c r="AE43" s="316">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="316">
         <f>-50-20+100</f>
         <v>30</v>
       </c>
-      <c r="AG43" s="321">
+      <c r="AG43" s="317">
         <v>70</v>
       </c>
-      <c r="AH43" s="320">
-        <v>100</v>
-      </c>
-      <c r="AI43" s="320">
+      <c r="AH43" s="316">
+        <v>100</v>
+      </c>
+      <c r="AI43" s="316">
         <v>40</v>
       </c>
-      <c r="AJ43" s="320"/>
-      <c r="AK43" s="320"/>
-      <c r="AL43" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM43" s="320"/>
-      <c r="AN43" s="320"/>
-      <c r="AO43" s="320"/>
-      <c r="AP43" s="310">
+      <c r="AJ43" s="316"/>
+      <c r="AK43" s="316"/>
+      <c r="AL43" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM43" s="316"/>
+      <c r="AN43" s="316"/>
+      <c r="AO43" s="316"/>
+      <c r="AP43" s="306">
         <f t="shared" si="4"/>
         <v>70.384615384615387</v>
       </c>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A44" s="312" t="s">
+      <c r="A44" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="301">
-        <v>0</v>
-      </c>
-      <c r="C44" s="302"/>
-      <c r="D44" s="302"/>
-      <c r="E44" s="325" t="s">
+      <c r="B44" s="297">
+        <v>0</v>
+      </c>
+      <c r="C44" s="298"/>
+      <c r="D44" s="298"/>
+      <c r="E44" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="304">
-        <v>1</v>
-      </c>
-      <c r="G44" s="337">
-        <v>1</v>
-      </c>
-      <c r="H44" s="337">
-        <v>1</v>
-      </c>
-      <c r="I44" s="337">
-        <v>1</v>
-      </c>
-      <c r="J44" s="337">
-        <v>1</v>
-      </c>
-      <c r="K44" s="337">
-        <v>1</v>
-      </c>
-      <c r="L44" s="337">
-        <v>1</v>
-      </c>
-      <c r="M44" s="337">
+      <c r="F44" s="300">
+        <v>1</v>
+      </c>
+      <c r="G44" s="333">
+        <v>1</v>
+      </c>
+      <c r="H44" s="333">
+        <v>1</v>
+      </c>
+      <c r="I44" s="333">
+        <v>1</v>
+      </c>
+      <c r="J44" s="333">
+        <v>1</v>
+      </c>
+      <c r="K44" s="333">
+        <v>1</v>
+      </c>
+      <c r="L44" s="333">
+        <v>1</v>
+      </c>
+      <c r="M44" s="333">
         <v>-0.5</v>
       </c>
-      <c r="N44" s="337">
-        <v>1</v>
-      </c>
-      <c r="O44" s="337">
-        <v>1</v>
-      </c>
-      <c r="P44" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="337">
-        <v>1</v>
-      </c>
-      <c r="R44" s="338">
-        <v>1</v>
-      </c>
-      <c r="S44" s="337">
+      <c r="N44" s="333">
+        <v>1</v>
+      </c>
+      <c r="O44" s="333">
+        <v>1</v>
+      </c>
+      <c r="P44" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="333">
+        <v>1</v>
+      </c>
+      <c r="R44" s="334">
+        <v>1</v>
+      </c>
+      <c r="S44" s="333">
         <v>3</v>
       </c>
-      <c r="T44" s="337">
-        <v>1</v>
-      </c>
-      <c r="U44" s="316">
+      <c r="T44" s="333">
+        <v>1</v>
+      </c>
+      <c r="U44" s="312">
         <v>-1</v>
       </c>
-      <c r="V44" s="304">
-        <v>1</v>
-      </c>
-      <c r="W44" s="314">
-        <v>1</v>
-      </c>
-      <c r="X44" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="314">
+      <c r="V44" s="300">
+        <v>1</v>
+      </c>
+      <c r="W44" s="310">
+        <v>1</v>
+      </c>
+      <c r="X44" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="310">
         <v>-1</v>
       </c>
-      <c r="Z44" s="314"/>
-      <c r="AA44" s="314"/>
-      <c r="AB44" s="314"/>
-      <c r="AC44" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD44" s="323">
+      <c r="Z44" s="310"/>
+      <c r="AA44" s="310"/>
+      <c r="AB44" s="310"/>
+      <c r="AC44" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="319">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE44" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF44" s="320">
+      <c r="AE44" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF44" s="316">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="AG44" s="320">
+      <c r="AG44" s="316">
         <v>40</v>
       </c>
-      <c r="AH44" s="319">
-        <v>100</v>
-      </c>
-      <c r="AI44" s="320"/>
-      <c r="AJ44" s="320"/>
-      <c r="AK44" s="320"/>
-      <c r="AL44" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM44" s="320"/>
-      <c r="AN44" s="320"/>
-      <c r="AO44" s="320"/>
-      <c r="AP44" s="310">
+      <c r="AH44" s="315">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="316"/>
+      <c r="AJ44" s="316"/>
+      <c r="AK44" s="316"/>
+      <c r="AL44" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM44" s="316"/>
+      <c r="AN44" s="316"/>
+      <c r="AO44" s="316"/>
+      <c r="AP44" s="306">
         <f t="shared" si="4"/>
         <v>78.461538461538467</v>
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A45" s="312" t="s">
+      <c r="A45" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="301">
-        <v>1</v>
-      </c>
-      <c r="C45" s="302"/>
-      <c r="D45" s="302"/>
-      <c r="E45" s="302" t="s">
+      <c r="B45" s="297">
+        <v>1</v>
+      </c>
+      <c r="C45" s="298"/>
+      <c r="D45" s="298"/>
+      <c r="E45" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="304">
-        <v>1</v>
-      </c>
-      <c r="G45" s="304">
+      <c r="F45" s="300">
+        <v>1</v>
+      </c>
+      <c r="G45" s="300">
         <v>-0.5</v>
       </c>
-      <c r="H45" s="337">
-        <v>1</v>
-      </c>
-      <c r="I45" s="337">
-        <v>1</v>
-      </c>
-      <c r="J45" s="337">
-        <v>1</v>
-      </c>
-      <c r="K45" s="337">
-        <v>1</v>
-      </c>
-      <c r="L45" s="304">
+      <c r="H45" s="333">
+        <v>1</v>
+      </c>
+      <c r="I45" s="333">
+        <v>1</v>
+      </c>
+      <c r="J45" s="333">
+        <v>1</v>
+      </c>
+      <c r="K45" s="333">
+        <v>1</v>
+      </c>
+      <c r="L45" s="300">
         <v>-0.5</v>
       </c>
-      <c r="M45" s="337">
-        <v>1</v>
-      </c>
-      <c r="N45" s="337">
-        <v>1</v>
-      </c>
-      <c r="O45" s="337">
-        <v>1</v>
-      </c>
-      <c r="P45" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="337">
-        <v>1</v>
-      </c>
-      <c r="R45" s="338">
-        <v>1</v>
-      </c>
-      <c r="S45" s="337">
+      <c r="M45" s="333">
+        <v>1</v>
+      </c>
+      <c r="N45" s="333">
+        <v>1</v>
+      </c>
+      <c r="O45" s="333">
+        <v>1</v>
+      </c>
+      <c r="P45" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="333">
+        <v>1</v>
+      </c>
+      <c r="R45" s="334">
+        <v>1</v>
+      </c>
+      <c r="S45" s="333">
         <v>3</v>
       </c>
-      <c r="T45" s="337">
-        <v>1</v>
-      </c>
-      <c r="U45" s="339">
-        <v>1</v>
-      </c>
-      <c r="V45" s="304">
-        <v>1</v>
-      </c>
-      <c r="W45" s="337">
-        <v>1</v>
-      </c>
-      <c r="X45" s="337">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="337">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="337"/>
-      <c r="AA45" s="337"/>
-      <c r="AB45" s="337"/>
-      <c r="AC45" s="317">
+      <c r="T45" s="333">
+        <v>1</v>
+      </c>
+      <c r="U45" s="335">
+        <v>1</v>
+      </c>
+      <c r="V45" s="300">
+        <v>1</v>
+      </c>
+      <c r="W45" s="333">
+        <v>1</v>
+      </c>
+      <c r="X45" s="333">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="333">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="333"/>
+      <c r="AA45" s="333"/>
+      <c r="AB45" s="333"/>
+      <c r="AC45" s="313">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD45" s="317">
+      <c r="AD45" s="313">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE45" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF45" s="319">
+      <c r="AE45" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="315">
         <f>-50 + 130</f>
         <v>80</v>
       </c>
-      <c r="AG45" s="320">
+      <c r="AG45" s="316">
         <v>-100</v>
       </c>
-      <c r="AH45" s="320">
+      <c r="AH45" s="316">
         <v>-100</v>
       </c>
-      <c r="AI45" s="320"/>
-      <c r="AJ45" s="320"/>
-      <c r="AK45" s="320"/>
-      <c r="AL45" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM45" s="320"/>
-      <c r="AN45" s="320"/>
-      <c r="AO45" s="320"/>
-      <c r="AP45" s="310">
+      <c r="AI45" s="316"/>
+      <c r="AJ45" s="316"/>
+      <c r="AK45" s="316"/>
+      <c r="AL45" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="316"/>
+      <c r="AN45" s="316"/>
+      <c r="AO45" s="316"/>
+      <c r="AP45" s="306">
         <f t="shared" si="4"/>
         <v>80.384615384615387</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A46" s="312" t="s">
+      <c r="A46" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="301">
-        <v>1</v>
-      </c>
-      <c r="C46" s="302"/>
-      <c r="D46" s="302"/>
-      <c r="E46" s="313" t="s">
+      <c r="B46" s="297">
+        <v>1</v>
+      </c>
+      <c r="C46" s="298"/>
+      <c r="D46" s="298"/>
+      <c r="E46" s="309" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="304">
-        <v>1</v>
-      </c>
-      <c r="G46" s="337">
-        <v>1</v>
-      </c>
-      <c r="H46" s="337">
-        <v>1</v>
-      </c>
-      <c r="I46" s="337">
-        <v>1</v>
-      </c>
-      <c r="J46" s="304">
+      <c r="F46" s="300">
+        <v>1</v>
+      </c>
+      <c r="G46" s="333">
+        <v>1</v>
+      </c>
+      <c r="H46" s="333">
+        <v>1</v>
+      </c>
+      <c r="I46" s="333">
+        <v>1</v>
+      </c>
+      <c r="J46" s="300">
         <v>-0.5</v>
       </c>
-      <c r="K46" s="337">
-        <v>1</v>
-      </c>
-      <c r="L46" s="337">
-        <v>1</v>
-      </c>
-      <c r="M46" s="337">
+      <c r="K46" s="333">
+        <v>1</v>
+      </c>
+      <c r="L46" s="333">
+        <v>1</v>
+      </c>
+      <c r="M46" s="333">
         <v>-0.5</v>
       </c>
-      <c r="N46" s="337">
-        <v>1</v>
-      </c>
-      <c r="O46" s="337">
-        <v>1</v>
-      </c>
-      <c r="P46" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="337">
-        <v>1</v>
-      </c>
-      <c r="R46" s="338">
-        <v>1</v>
-      </c>
-      <c r="S46" s="337">
+      <c r="N46" s="333">
+        <v>1</v>
+      </c>
+      <c r="O46" s="333">
+        <v>1</v>
+      </c>
+      <c r="P46" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="333">
+        <v>1</v>
+      </c>
+      <c r="R46" s="334">
+        <v>1</v>
+      </c>
+      <c r="S46" s="333">
         <v>3</v>
       </c>
-      <c r="T46" s="337">
-        <v>1</v>
-      </c>
-      <c r="U46" s="339">
-        <v>1</v>
-      </c>
-      <c r="V46" s="304">
-        <v>1</v>
-      </c>
-      <c r="W46" s="337">
-        <v>1</v>
-      </c>
-      <c r="X46" s="337">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="337">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="337"/>
-      <c r="AA46" s="337"/>
-      <c r="AB46" s="337"/>
-      <c r="AC46" s="317">
-        <v>100</v>
-      </c>
-      <c r="AD46" s="317">
+      <c r="T46" s="333">
+        <v>1</v>
+      </c>
+      <c r="U46" s="335">
+        <v>1</v>
+      </c>
+      <c r="V46" s="300">
+        <v>1</v>
+      </c>
+      <c r="W46" s="333">
+        <v>1</v>
+      </c>
+      <c r="X46" s="333">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="333">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="333"/>
+      <c r="AA46" s="333"/>
+      <c r="AB46" s="333"/>
+      <c r="AC46" s="313">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="313">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF46" s="319">
+      <c r="AE46" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="315">
         <f>50 + 10 + 20+20</f>
         <v>100</v>
       </c>
-      <c r="AG46" s="320">
+      <c r="AG46" s="316">
         <v>-100</v>
       </c>
-      <c r="AH46" s="320">
+      <c r="AH46" s="316">
         <v>-100</v>
       </c>
-      <c r="AI46" s="320"/>
-      <c r="AJ46" s="320"/>
-      <c r="AK46" s="320"/>
-      <c r="AL46" s="320">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="320"/>
-      <c r="AN46" s="320"/>
-      <c r="AO46" s="320"/>
-      <c r="AP46" s="310">
+      <c r="AI46" s="316"/>
+      <c r="AJ46" s="316"/>
+      <c r="AK46" s="316"/>
+      <c r="AL46" s="316">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="316"/>
+      <c r="AN46" s="316"/>
+      <c r="AO46" s="316"/>
+      <c r="AP46" s="306">
         <f t="shared" si="4"/>
         <v>76.961538461538467</v>
       </c>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A47" s="335" t="s">
+      <c r="A47" s="331" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="301">
-        <v>0</v>
-      </c>
-      <c r="C47" s="302"/>
-      <c r="D47" s="302"/>
-      <c r="E47" s="302" t="s">
+      <c r="B47" s="297">
+        <v>0</v>
+      </c>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
+      <c r="E47" s="298" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="304">
-        <v>1</v>
-      </c>
-      <c r="G47" s="337">
-        <v>1</v>
-      </c>
-      <c r="H47" s="337">
-        <v>1</v>
-      </c>
-      <c r="I47" s="337">
-        <v>1</v>
-      </c>
-      <c r="J47" s="337">
-        <v>1</v>
-      </c>
-      <c r="K47" s="337">
-        <v>1</v>
-      </c>
-      <c r="L47" s="337">
-        <v>1</v>
-      </c>
-      <c r="M47" s="337">
-        <v>1</v>
-      </c>
-      <c r="N47" s="337">
-        <v>1</v>
-      </c>
-      <c r="O47" s="337">
-        <v>1</v>
-      </c>
-      <c r="P47" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="337">
-        <v>1</v>
-      </c>
-      <c r="R47" s="338">
-        <v>1</v>
-      </c>
-      <c r="S47" s="337">
+      <c r="F47" s="300">
+        <v>1</v>
+      </c>
+      <c r="G47" s="333">
+        <v>1</v>
+      </c>
+      <c r="H47" s="333">
+        <v>1</v>
+      </c>
+      <c r="I47" s="333">
+        <v>1</v>
+      </c>
+      <c r="J47" s="333">
+        <v>1</v>
+      </c>
+      <c r="K47" s="333">
+        <v>1</v>
+      </c>
+      <c r="L47" s="333">
+        <v>1</v>
+      </c>
+      <c r="M47" s="333">
+        <v>1</v>
+      </c>
+      <c r="N47" s="333">
+        <v>1</v>
+      </c>
+      <c r="O47" s="333">
+        <v>1</v>
+      </c>
+      <c r="P47" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="333">
+        <v>1</v>
+      </c>
+      <c r="R47" s="334">
+        <v>1</v>
+      </c>
+      <c r="S47" s="333">
         <v>3</v>
       </c>
-      <c r="T47" s="337">
-        <v>1</v>
-      </c>
-      <c r="U47" s="339">
-        <v>1</v>
-      </c>
-      <c r="V47" s="304">
-        <v>1</v>
-      </c>
-      <c r="W47" s="337">
-        <v>1</v>
-      </c>
-      <c r="X47" s="337">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="337">
+      <c r="T47" s="333">
+        <v>1</v>
+      </c>
+      <c r="U47" s="335">
+        <v>1</v>
+      </c>
+      <c r="V47" s="300">
+        <v>1</v>
+      </c>
+      <c r="W47" s="333">
+        <v>1</v>
+      </c>
+      <c r="X47" s="333">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="333">
         <v>-1</v>
       </c>
-      <c r="Z47" s="337"/>
-      <c r="AA47" s="337"/>
-      <c r="AB47" s="337"/>
-      <c r="AC47" s="317">
+      <c r="Z47" s="333"/>
+      <c r="AA47" s="333"/>
+      <c r="AB47" s="333"/>
+      <c r="AC47" s="313">
         <v>60</v>
       </c>
-      <c r="AD47" s="327">
+      <c r="AD47" s="323">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE47" s="319">
-        <v>100</v>
-      </c>
-      <c r="AF47" s="320">
+      <c r="AE47" s="315">
+        <v>100</v>
+      </c>
+      <c r="AF47" s="316">
         <v>-100</v>
       </c>
-      <c r="AG47" s="320">
+      <c r="AG47" s="316">
         <v>-100</v>
       </c>
-      <c r="AH47" s="320">
+      <c r="AH47" s="316">
         <v>-100</v>
       </c>
-      <c r="AI47" s="320"/>
-      <c r="AJ47" s="320"/>
-      <c r="AK47" s="320"/>
-      <c r="AL47" s="320"/>
-      <c r="AM47" s="320"/>
-      <c r="AN47" s="320"/>
-      <c r="AO47" s="320"/>
-      <c r="AP47" s="310">
+      <c r="AI47" s="316"/>
+      <c r="AJ47" s="316"/>
+      <c r="AK47" s="316"/>
+      <c r="AL47" s="316"/>
+      <c r="AM47" s="316"/>
+      <c r="AN47" s="316"/>
+      <c r="AO47" s="316"/>
+      <c r="AP47" s="306">
         <f t="shared" si="4"/>
         <v>67.692307692307693</v>
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A48" s="330" t="s">
+      <c r="A48" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="301">
-        <v>1</v>
-      </c>
-      <c r="C48" s="302"/>
-      <c r="D48" s="302"/>
-      <c r="E48" s="331" t="s">
+      <c r="B48" s="297">
+        <v>1</v>
+      </c>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
+      <c r="E48" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="304">
-        <v>1</v>
-      </c>
-      <c r="G48" s="304">
+      <c r="F48" s="300">
+        <v>1</v>
+      </c>
+      <c r="G48" s="300">
         <v>-0.5</v>
       </c>
-      <c r="H48" s="337">
-        <v>1</v>
-      </c>
-      <c r="I48" s="304">
+      <c r="H48" s="333">
+        <v>1</v>
+      </c>
+      <c r="I48" s="300">
         <v>-0.5</v>
       </c>
-      <c r="J48" s="337">
-        <v>1</v>
-      </c>
-      <c r="K48" s="337">
-        <v>1</v>
-      </c>
-      <c r="L48" s="337">
-        <v>1</v>
-      </c>
-      <c r="M48" s="337">
+      <c r="J48" s="333">
+        <v>1</v>
+      </c>
+      <c r="K48" s="333">
+        <v>1</v>
+      </c>
+      <c r="L48" s="333">
+        <v>1</v>
+      </c>
+      <c r="M48" s="333">
         <v>-0.5</v>
       </c>
-      <c r="N48" s="337">
-        <v>1</v>
-      </c>
-      <c r="O48" s="337">
-        <v>1</v>
-      </c>
-      <c r="P48" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="337">
-        <v>1</v>
-      </c>
-      <c r="R48" s="338">
-        <v>1</v>
-      </c>
-      <c r="S48" s="337">
+      <c r="N48" s="333">
+        <v>1</v>
+      </c>
+      <c r="O48" s="333">
+        <v>1</v>
+      </c>
+      <c r="P48" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="333">
+        <v>1</v>
+      </c>
+      <c r="R48" s="334">
+        <v>1</v>
+      </c>
+      <c r="S48" s="333">
         <v>3</v>
       </c>
-      <c r="T48" s="337">
-        <v>1</v>
-      </c>
-      <c r="U48" s="339">
-        <v>1</v>
-      </c>
-      <c r="V48" s="304">
-        <v>1</v>
-      </c>
-      <c r="W48" s="337">
-        <v>1</v>
-      </c>
-      <c r="X48" s="337">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="337">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="337"/>
-      <c r="AA48" s="337"/>
-      <c r="AB48" s="337"/>
-      <c r="AC48" s="317">
+      <c r="T48" s="333">
+        <v>1</v>
+      </c>
+      <c r="U48" s="335">
+        <v>1</v>
+      </c>
+      <c r="V48" s="300">
+        <v>1</v>
+      </c>
+      <c r="W48" s="333">
+        <v>1</v>
+      </c>
+      <c r="X48" s="333">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="333">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="333"/>
+      <c r="AA48" s="333"/>
+      <c r="AB48" s="333"/>
+      <c r="AC48" s="313">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD48" s="317">
+      <c r="AD48" s="313">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="320">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="319">
+      <c r="AE48" s="316">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="315">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG48" s="319">
-        <v>100</v>
-      </c>
-      <c r="AH48" s="319">
-        <v>100</v>
-      </c>
-      <c r="AI48" s="320">
+      <c r="AG48" s="315">
+        <v>100</v>
+      </c>
+      <c r="AH48" s="315">
+        <v>100</v>
+      </c>
+      <c r="AI48" s="316">
         <v>40</v>
       </c>
-      <c r="AJ48" s="320"/>
-      <c r="AK48" s="320"/>
-      <c r="AL48" s="320">
-        <v>100</v>
-      </c>
-      <c r="AM48" s="320"/>
-      <c r="AN48" s="320"/>
-      <c r="AO48" s="320"/>
-      <c r="AP48" s="310">
+      <c r="AJ48" s="316"/>
+      <c r="AK48" s="316"/>
+      <c r="AL48" s="316">
+        <v>100</v>
+      </c>
+      <c r="AM48" s="316"/>
+      <c r="AN48" s="316"/>
+      <c r="AO48" s="316"/>
+      <c r="AP48" s="306">
         <f t="shared" si="4"/>
         <v>86.538461538461533</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" s="312" t="s">
+      <c r="A49" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="301">
+      <c r="B49" s="297">
         <v>2</v>
       </c>
-      <c r="C49" s="302"/>
-      <c r="D49" s="302"/>
-      <c r="E49" s="325" t="s">
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
+      <c r="E49" s="321" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="304">
-        <v>1</v>
-      </c>
-      <c r="G49" s="337">
-        <v>1</v>
-      </c>
-      <c r="H49" s="337">
-        <v>1</v>
-      </c>
-      <c r="I49" s="337">
-        <v>1</v>
-      </c>
-      <c r="J49" s="337">
-        <v>1</v>
-      </c>
-      <c r="K49" s="337">
-        <v>1</v>
-      </c>
-      <c r="L49" s="337">
-        <v>1</v>
-      </c>
-      <c r="M49" s="337">
-        <v>1</v>
-      </c>
-      <c r="N49" s="337">
-        <v>1</v>
-      </c>
-      <c r="O49" s="337">
-        <v>1</v>
-      </c>
-      <c r="P49" s="337">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="337">
-        <v>1</v>
-      </c>
-      <c r="R49" s="338">
-        <v>1</v>
-      </c>
-      <c r="S49" s="337">
+      <c r="F49" s="300">
+        <v>1</v>
+      </c>
+      <c r="G49" s="333">
+        <v>1</v>
+      </c>
+      <c r="H49" s="333">
+        <v>1</v>
+      </c>
+      <c r="I49" s="333">
+        <v>1</v>
+      </c>
+      <c r="J49" s="333">
+        <v>1</v>
+      </c>
+      <c r="K49" s="333">
+        <v>1</v>
+      </c>
+      <c r="L49" s="333">
+        <v>1</v>
+      </c>
+      <c r="M49" s="333">
+        <v>1</v>
+      </c>
+      <c r="N49" s="333">
+        <v>1</v>
+      </c>
+      <c r="O49" s="333">
+        <v>1</v>
+      </c>
+      <c r="P49" s="333">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="333">
+        <v>1</v>
+      </c>
+      <c r="R49" s="334">
+        <v>1</v>
+      </c>
+      <c r="S49" s="333">
         <v>3</v>
       </c>
-      <c r="T49" s="337">
-        <v>1</v>
-      </c>
-      <c r="U49" s="316">
+      <c r="T49" s="333">
+        <v>1</v>
+      </c>
+      <c r="U49" s="312">
         <v>-1</v>
       </c>
-      <c r="V49" s="304">
-        <v>1</v>
-      </c>
-      <c r="W49" s="314">
-        <v>1</v>
-      </c>
-      <c r="X49" s="314">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="314">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="314"/>
-      <c r="AA49" s="314"/>
-      <c r="AB49" s="314"/>
-      <c r="AC49" s="317">
+      <c r="V49" s="300">
+        <v>1</v>
+      </c>
+      <c r="W49" s="310">
+        <v>1</v>
+      </c>
+      <c r="X49" s="310">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="310">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="310"/>
+      <c r="AA49" s="310"/>
+      <c r="AB49" s="310"/>
+      <c r="AC49" s="313">
         <v>80</v>
       </c>
-      <c r="AD49" s="317">
+      <c r="AD49" s="313">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE49" s="319">
+      <c r="AE49" s="315">
         <v>50</v>
       </c>
-      <c r="AF49" s="319">
+      <c r="AF49" s="315">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG49" s="320">
+      <c r="AG49" s="316">
         <v>60</v>
       </c>
-      <c r="AH49" s="320"/>
-      <c r="AI49" s="320"/>
-      <c r="AJ49" s="320"/>
-      <c r="AK49" s="320"/>
-      <c r="AL49" s="320"/>
-      <c r="AM49" s="320"/>
-      <c r="AN49" s="320"/>
-      <c r="AO49" s="320"/>
-      <c r="AP49" s="310">
+      <c r="AH49" s="316"/>
+      <c r="AI49" s="316"/>
+      <c r="AJ49" s="316"/>
+      <c r="AK49" s="316"/>
+      <c r="AL49" s="316"/>
+      <c r="AM49" s="316"/>
+      <c r="AN49" s="316"/>
+      <c r="AO49" s="316"/>
+      <c r="AP49" s="306">
         <f>SUM(100*SUM(F49:U49),AC49:AO49)/$AP$1</f>
         <v>74.615384615384613</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" s="312"/>
-      <c r="B50" s="283"/>
-      <c r="C50" s="283"/>
-      <c r="D50" s="283"/>
-      <c r="E50" s="313"/>
-      <c r="F50" s="304"/>
-      <c r="G50" s="337"/>
-      <c r="H50" s="337"/>
-      <c r="I50" s="337"/>
-      <c r="J50" s="337"/>
-      <c r="K50" s="302"/>
-      <c r="L50" s="302"/>
-      <c r="M50" s="302"/>
-      <c r="N50" s="337"/>
-      <c r="O50" s="337"/>
-      <c r="P50" s="337"/>
-      <c r="Q50" s="337"/>
-      <c r="R50" s="337"/>
-      <c r="S50" s="337"/>
-      <c r="T50" s="337"/>
-      <c r="U50" s="339"/>
-      <c r="V50" s="340"/>
-      <c r="W50" s="340"/>
-      <c r="X50" s="340"/>
-      <c r="Y50" s="340"/>
-      <c r="Z50" s="340"/>
-      <c r="AA50" s="340"/>
-      <c r="AB50" s="340"/>
-      <c r="AC50" s="341"/>
-      <c r="AD50" s="342"/>
-      <c r="AE50" s="320"/>
-      <c r="AF50" s="320"/>
-      <c r="AG50" s="320"/>
-      <c r="AH50" s="320"/>
-      <c r="AI50" s="320"/>
-      <c r="AJ50" s="320"/>
-      <c r="AK50" s="320"/>
-      <c r="AL50" s="320"/>
-      <c r="AM50" s="320"/>
-      <c r="AN50" s="320"/>
-      <c r="AO50" s="320"/>
-      <c r="AP50" s="310"/>
+      <c r="A50" s="308"/>
+      <c r="B50" s="279"/>
+      <c r="C50" s="279"/>
+      <c r="D50" s="279"/>
+      <c r="E50" s="309"/>
+      <c r="F50" s="300"/>
+      <c r="G50" s="333"/>
+      <c r="H50" s="333"/>
+      <c r="I50" s="333"/>
+      <c r="J50" s="333"/>
+      <c r="K50" s="298"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="298"/>
+      <c r="N50" s="333"/>
+      <c r="O50" s="333"/>
+      <c r="P50" s="333"/>
+      <c r="Q50" s="333"/>
+      <c r="R50" s="333"/>
+      <c r="S50" s="333"/>
+      <c r="T50" s="333"/>
+      <c r="U50" s="335"/>
+      <c r="V50" s="336"/>
+      <c r="W50" s="336"/>
+      <c r="X50" s="336"/>
+      <c r="Y50" s="336"/>
+      <c r="Z50" s="336"/>
+      <c r="AA50" s="336"/>
+      <c r="AB50" s="336"/>
+      <c r="AC50" s="337"/>
+      <c r="AD50" s="338"/>
+      <c r="AE50" s="316"/>
+      <c r="AF50" s="316"/>
+      <c r="AG50" s="316"/>
+      <c r="AH50" s="316"/>
+      <c r="AI50" s="316"/>
+      <c r="AJ50" s="316"/>
+      <c r="AK50" s="316"/>
+      <c r="AL50" s="316"/>
+      <c r="AM50" s="316"/>
+      <c r="AN50" s="316"/>
+      <c r="AO50" s="316"/>
+      <c r="AP50" s="306"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AP29:AP50 AP3:AP26">
@@ -12528,57 +12593,57 @@
       <c r="B3" s="230" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="270" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="270" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="270" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="274" t="s">
+      <c r="C6" s="270" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="270" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="274" t="s">
+      <c r="C8" s="270" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="274" t="s">
+      <c r="C9" s="270" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="274" t="s">
+      <c r="C10" s="270" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="274" t="s">
+      <c r="C11" s="270" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="274" t="s">
+      <c r="C12" s="270" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="274" t="s">
+      <c r="C13" s="270" t="s">
         <v>310</v>
       </c>
     </row>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAE54CF-8BB1-4EA4-B3C8-DDEED8B928DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF435BA-EE2D-4243-83B3-CF3E41ED2B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -2921,6 +2921,11 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2928,6 +2933,15 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2948,20 +2962,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3387,52 +3387,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="343" t="s">
+      <c r="F1" s="351" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="346" t="s">
+      <c r="G1" s="354" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="340" t="s">
+      <c r="H1" s="345" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="340" t="s">
+      <c r="I1" s="345" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="340" t="s">
+      <c r="J1" s="345" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="340" t="s">
+      <c r="K1" s="345" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="345" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="340" t="s">
+      <c r="M1" s="345" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="340" t="s">
+      <c r="N1" s="345" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="340" t="s">
+      <c r="O1" s="345" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="349" t="s">
+      <c r="P1" s="348" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="344"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="350"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="349"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3446,17 +3446,17 @@
       <c r="E3" s="226">
         <v>2</v>
       </c>
-      <c r="F3" s="344"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
-      <c r="M3" s="341"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="350"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="349"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3472,17 +3472,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="G4" s="348"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="342"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="342"/>
-      <c r="O4" s="342"/>
-      <c r="P4" s="351"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="350"/>
       <c r="Q4" s="264" t="s">
         <v>311</v>
       </c>
@@ -4499,17 +4499,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4567,52 +4567,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="343" t="s">
+      <c r="F1" s="351" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="346" t="s">
+      <c r="G1" s="354" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="340" t="s">
+      <c r="H1" s="345" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="340" t="s">
+      <c r="I1" s="345" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="340" t="s">
+      <c r="J1" s="345" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="340" t="s">
+      <c r="K1" s="345" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="345" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="340" t="s">
+      <c r="M1" s="345" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="340" t="s">
+      <c r="N1" s="345" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="340" t="s">
+      <c r="O1" s="345" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="349" t="s">
+      <c r="P1" s="348" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="344"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="350"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="355"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="349"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4626,17 +4626,17 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="344"/>
-      <c r="G3" s="347"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
-      <c r="M3" s="341"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="350"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="349"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4652,17 +4652,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="345"/>
-      <c r="G4" s="348"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="342"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="342"/>
-      <c r="O4" s="342"/>
-      <c r="P4" s="351"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="350"/>
       <c r="Q4" s="265" t="s">
         <v>311</v>
       </c>
@@ -4689,16 +4689,16 @@
       <c r="E5" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="356">
-        <v>100</v>
-      </c>
-      <c r="G5" s="356">
-        <v>100</v>
-      </c>
-      <c r="H5" s="356">
-        <v>100</v>
-      </c>
-      <c r="I5" s="356">
+      <c r="F5" s="344">
+        <v>100</v>
+      </c>
+      <c r="G5" s="344">
+        <v>100</v>
+      </c>
+      <c r="H5" s="344">
+        <v>100</v>
+      </c>
+      <c r="I5" s="344">
         <v>100</v>
       </c>
       <c r="J5" s="257"/>
@@ -4771,16 +4771,16 @@
       <c r="E7" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="354">
-        <v>100</v>
-      </c>
-      <c r="G7" s="354">
-        <v>100</v>
-      </c>
-      <c r="H7" s="354">
-        <v>100</v>
-      </c>
-      <c r="I7" s="354">
+      <c r="F7" s="342">
+        <v>100</v>
+      </c>
+      <c r="G7" s="342">
+        <v>100</v>
+      </c>
+      <c r="H7" s="342">
+        <v>100</v>
+      </c>
+      <c r="I7" s="342">
         <v>100</v>
       </c>
       <c r="J7" s="254"/>
@@ -4970,16 +4970,16 @@
       <c r="E12" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="355">
-        <v>100</v>
-      </c>
-      <c r="G12" s="355">
+      <c r="F12" s="343">
+        <v>100</v>
+      </c>
+      <c r="G12" s="343">
         <v>70</v>
       </c>
-      <c r="H12" s="355">
+      <c r="H12" s="343">
         <v>70</v>
       </c>
-      <c r="I12" s="355">
+      <c r="I12" s="343">
         <v>70</v>
       </c>
       <c r="J12" s="254"/>
@@ -5177,16 +5177,16 @@
       <c r="E17" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="354">
+      <c r="F17" s="342">
         <v>80</v>
       </c>
-      <c r="G17" s="354">
-        <v>100</v>
-      </c>
-      <c r="H17" s="354">
-        <v>100</v>
-      </c>
-      <c r="I17" s="354">
+      <c r="G17" s="342">
+        <v>100</v>
+      </c>
+      <c r="H17" s="342">
+        <v>100</v>
+      </c>
+      <c r="I17" s="342">
         <v>100</v>
       </c>
       <c r="J17" s="254"/>
@@ -5220,16 +5220,16 @@
       <c r="E18" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="354">
-        <v>100</v>
-      </c>
-      <c r="G18" s="354">
-        <v>100</v>
-      </c>
-      <c r="H18" s="354">
+      <c r="F18" s="342">
+        <v>100</v>
+      </c>
+      <c r="G18" s="342">
+        <v>100</v>
+      </c>
+      <c r="H18" s="342">
         <v>90</v>
       </c>
-      <c r="I18" s="354">
+      <c r="I18" s="342">
         <v>80</v>
       </c>
       <c r="J18" s="254"/>
@@ -5306,16 +5306,16 @@
       <c r="E20" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="354">
-        <v>100</v>
-      </c>
-      <c r="G20" s="354">
-        <v>100</v>
-      </c>
-      <c r="H20" s="354">
-        <v>100</v>
-      </c>
-      <c r="I20" s="354">
+      <c r="F20" s="342">
+        <v>100</v>
+      </c>
+      <c r="G20" s="342">
+        <v>100</v>
+      </c>
+      <c r="H20" s="342">
+        <v>100</v>
+      </c>
+      <c r="I20" s="342">
         <v>100</v>
       </c>
       <c r="J20" s="254"/>
@@ -5388,16 +5388,16 @@
       <c r="E22" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="354">
-        <v>100</v>
-      </c>
-      <c r="G22" s="354">
-        <v>100</v>
-      </c>
-      <c r="H22" s="354">
-        <v>100</v>
-      </c>
-      <c r="I22" s="354">
+      <c r="F22" s="342">
+        <v>100</v>
+      </c>
+      <c r="G22" s="342">
+        <v>100</v>
+      </c>
+      <c r="H22" s="342">
+        <v>100</v>
+      </c>
+      <c r="I22" s="342">
         <v>100</v>
       </c>
       <c r="J22" s="254"/>
@@ -5455,17 +5455,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5498,8 +5498,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,52 +5523,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="343" t="s">
+      <c r="G1" s="351" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="346" t="s">
+      <c r="H1" s="354" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="340" t="s">
+      <c r="I1" s="345" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="340" t="s">
+      <c r="J1" s="345" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="340" t="s">
+      <c r="K1" s="345" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="345" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="340" t="s">
+      <c r="M1" s="345" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="340" t="s">
+      <c r="N1" s="345" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="340" t="s">
+      <c r="O1" s="345" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="340" t="s">
+      <c r="P1" s="345" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="349" t="s">
+      <c r="Q1" s="348" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="344"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="350"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="355"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="349"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5583,24 +5583,24 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="344"/>
-      <c r="H3" s="347"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
-      <c r="M3" s="341"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="341"/>
-      <c r="Q3" s="350"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="349"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
       <c r="B4" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="341" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="275" t="s">
@@ -5612,17 +5612,17 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="345"/>
-      <c r="H4" s="348"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="342"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="342"/>
-      <c r="O4" s="342"/>
-      <c r="P4" s="342"/>
-      <c r="Q4" s="351"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="347"/>
+      <c r="Q4" s="350"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
         <v>311</v>
@@ -5657,13 +5657,13 @@
       <c r="G5" s="273">
         <v>100</v>
       </c>
-      <c r="H5" s="352">
-        <v>0</v>
-      </c>
-      <c r="I5" s="352">
-        <v>0</v>
-      </c>
-      <c r="J5" s="352">
+      <c r="H5" s="340">
+        <v>0</v>
+      </c>
+      <c r="I5" s="340">
+        <v>0</v>
+      </c>
+      <c r="J5" s="340">
         <v>0</v>
       </c>
       <c r="K5" s="273"/>
@@ -6868,17 +6868,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF435BA-EE2D-4243-83B3-CF3E41ED2B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19111C53-48E0-46EF-9CAB-EBE2A2D833C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2922,7 +2922,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="21" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2933,15 +2932,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2962,6 +2952,16 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3363,7 +3363,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C5" sqref="C5:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,52 +3387,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="351" t="s">
+      <c r="F1" s="347" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="354" t="s">
+      <c r="G1" s="350" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="344" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="344" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="344" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="344" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="344" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="344" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="344" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="344" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="348" t="s">
+      <c r="P1" s="353" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="352"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="349"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="354"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3444,19 +3444,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="226">
-        <v>2</v>
-      </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="349"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="348"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="354"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3472,17 +3472,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="350"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="355"/>
       <c r="Q4" s="264" t="s">
         <v>311</v>
       </c>
@@ -3501,8 +3501,8 @@
         <v>167</v>
       </c>
       <c r="C5" s="257">
-        <f>((D5/$D$3)*100 + F5 + G5)/($E$3+1)</f>
-        <v>11.111111111111109</v>
+        <f>((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D5" s="255">
         <v>1</v>
@@ -3516,8 +3516,12 @@
       <c r="G5" s="245">
         <v>0</v>
       </c>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
+      <c r="H5" s="246">
+        <v>0</v>
+      </c>
+      <c r="I5" s="246">
+        <v>0</v>
+      </c>
       <c r="J5" s="246"/>
       <c r="K5" s="246"/>
       <c r="L5" s="246"/>
@@ -3542,8 +3546,8 @@
         <v>166</v>
       </c>
       <c r="C6" s="257">
-        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6)/($E$3+1)</f>
-        <v>66.666666666666671</v>
+        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6+H6+I6)/($E$3+1)</f>
+        <v>88</v>
       </c>
       <c r="D6" s="256">
         <v>3</v>
@@ -3555,10 +3559,14 @@
         <v>100</v>
       </c>
       <c r="G6" s="229">
-        <v>0</v>
-      </c>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
+        <v>80</v>
+      </c>
+      <c r="H6" s="231">
+        <v>80</v>
+      </c>
+      <c r="I6" s="231">
+        <v>80</v>
+      </c>
       <c r="J6" s="231"/>
       <c r="K6" s="231"/>
       <c r="L6" s="231"/>
@@ -3584,7 +3592,7 @@
       </c>
       <c r="C7" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D7" s="256">
         <v>3</v>
@@ -3598,8 +3606,12 @@
       <c r="G7" s="229">
         <v>100</v>
       </c>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="H7" s="231">
+        <v>80</v>
+      </c>
+      <c r="I7" s="231">
+        <v>80</v>
+      </c>
       <c r="J7" s="231"/>
       <c r="K7" s="231"/>
       <c r="L7" s="231"/>
@@ -3625,7 +3637,7 @@
       </c>
       <c r="C8" s="257">
         <f t="shared" si="0"/>
-        <v>22.222222222222218</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="D8" s="254">
         <v>2</v>
@@ -3639,8 +3651,12 @@
       <c r="G8" s="231">
         <v>0</v>
       </c>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
+      <c r="H8" s="231">
+        <v>0</v>
+      </c>
+      <c r="I8" s="231">
+        <v>0</v>
+      </c>
       <c r="J8" s="231"/>
       <c r="K8" s="231"/>
       <c r="L8" s="231"/>
@@ -3666,7 +3682,7 @@
       </c>
       <c r="C9" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D9" s="254">
         <v>3</v>
@@ -3680,8 +3696,12 @@
       <c r="G9" s="231">
         <v>100</v>
       </c>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
+      <c r="H9" s="231">
+        <v>80</v>
+      </c>
+      <c r="I9" s="231">
+        <v>80</v>
+      </c>
       <c r="J9" s="231"/>
       <c r="K9" s="231"/>
       <c r="L9" s="231"/>
@@ -3707,7 +3727,7 @@
       </c>
       <c r="C10" s="257">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>90</v>
       </c>
       <c r="D10" s="254">
         <v>3</v>
@@ -3721,8 +3741,12 @@
       <c r="G10" s="231">
         <v>90</v>
       </c>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="H10" s="231">
+        <v>80</v>
+      </c>
+      <c r="I10" s="231">
+        <v>80</v>
+      </c>
       <c r="J10" s="231"/>
       <c r="K10" s="231"/>
       <c r="L10" s="231"/>
@@ -3748,7 +3772,7 @@
       </c>
       <c r="C11" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" s="254">
         <v>3</v>
@@ -3762,8 +3786,12 @@
       <c r="G11" s="231">
         <v>100</v>
       </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="231"/>
+      <c r="H11" s="231">
+        <v>90</v>
+      </c>
+      <c r="I11" s="231">
+        <v>90</v>
+      </c>
       <c r="J11" s="231"/>
       <c r="K11" s="231"/>
       <c r="L11" s="231"/>
@@ -3803,8 +3831,12 @@
       <c r="G12" s="231">
         <v>0</v>
       </c>
-      <c r="H12" s="231"/>
-      <c r="I12" s="231"/>
+      <c r="H12" s="231">
+        <v>0</v>
+      </c>
+      <c r="I12" s="231">
+        <v>0</v>
+      </c>
       <c r="J12" s="231"/>
       <c r="K12" s="231"/>
       <c r="L12" s="231"/>
@@ -3830,7 +3862,7 @@
       </c>
       <c r="C13" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="254">
         <v>3</v>
@@ -3844,8 +3876,12 @@
       <c r="G13" s="231">
         <v>100</v>
       </c>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
+      <c r="H13" s="231">
+        <v>90</v>
+      </c>
+      <c r="I13" s="231">
+        <v>90</v>
+      </c>
       <c r="J13" s="231"/>
       <c r="K13" s="231"/>
       <c r="L13" s="231"/>
@@ -3871,7 +3907,7 @@
       </c>
       <c r="C14" s="257">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>85.333333333333329</v>
       </c>
       <c r="D14" s="254">
         <v>2</v>
@@ -3885,8 +3921,12 @@
       <c r="G14" s="231">
         <v>100</v>
       </c>
-      <c r="H14" s="231"/>
-      <c r="I14" s="231"/>
+      <c r="H14" s="231">
+        <v>80</v>
+      </c>
+      <c r="I14" s="231">
+        <v>80</v>
+      </c>
       <c r="J14" s="231"/>
       <c r="K14" s="231"/>
       <c r="L14" s="231"/>
@@ -3912,7 +3952,7 @@
       </c>
       <c r="C15" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D15" s="254">
         <v>3</v>
@@ -3926,8 +3966,12 @@
       <c r="G15" s="231">
         <v>100</v>
       </c>
-      <c r="H15" s="231"/>
-      <c r="I15" s="231"/>
+      <c r="H15" s="231">
+        <v>80</v>
+      </c>
+      <c r="I15" s="231">
+        <v>80</v>
+      </c>
       <c r="J15" s="231"/>
       <c r="K15" s="231"/>
       <c r="L15" s="231"/>
@@ -3953,7 +3997,7 @@
       </c>
       <c r="C16" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D16" s="254">
         <v>3</v>
@@ -3967,8 +4011,12 @@
       <c r="G16" s="231">
         <v>100</v>
       </c>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
+      <c r="H16" s="231">
+        <v>80</v>
+      </c>
+      <c r="I16" s="231">
+        <v>0</v>
+      </c>
       <c r="J16" s="231"/>
       <c r="K16" s="231"/>
       <c r="L16" s="231"/>
@@ -3994,7 +4042,7 @@
       </c>
       <c r="C17" s="257">
         <f t="shared" si="0"/>
-        <v>11.111111111111109</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D17" s="254">
         <v>1</v>
@@ -4008,8 +4056,12 @@
       <c r="G17" s="231">
         <v>0</v>
       </c>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
+      <c r="H17" s="231">
+        <v>0</v>
+      </c>
+      <c r="I17" s="231">
+        <v>0</v>
+      </c>
       <c r="J17" s="231"/>
       <c r="K17" s="231"/>
       <c r="L17" s="231"/>
@@ -4035,7 +4087,7 @@
       </c>
       <c r="C18" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" s="254">
         <v>3</v>
@@ -4049,8 +4101,12 @@
       <c r="G18" s="231">
         <v>100</v>
       </c>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
+      <c r="H18" s="231">
+        <v>90</v>
+      </c>
+      <c r="I18" s="231">
+        <v>90</v>
+      </c>
       <c r="J18" s="231"/>
       <c r="K18" s="231"/>
       <c r="L18" s="231"/>
@@ -4076,7 +4132,7 @@
       </c>
       <c r="C19" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D19" s="254">
         <v>3</v>
@@ -4090,8 +4146,12 @@
       <c r="G19" s="231">
         <v>100</v>
       </c>
-      <c r="H19" s="231"/>
-      <c r="I19" s="231"/>
+      <c r="H19" s="231">
+        <v>80</v>
+      </c>
+      <c r="I19" s="231">
+        <v>0</v>
+      </c>
       <c r="J19" s="231"/>
       <c r="K19" s="231"/>
       <c r="L19" s="231"/>
@@ -4117,7 +4177,7 @@
       </c>
       <c r="C20" s="257">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>44</v>
       </c>
       <c r="D20" s="254">
         <v>3</v>
@@ -4129,10 +4189,14 @@
         <v>70</v>
       </c>
       <c r="G20" s="231">
-        <v>0</v>
-      </c>
-      <c r="H20" s="231"/>
-      <c r="I20" s="231"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="231">
+        <v>0</v>
+      </c>
+      <c r="I20" s="231">
+        <v>0</v>
+      </c>
       <c r="J20" s="231"/>
       <c r="K20" s="231"/>
       <c r="L20" s="231"/>
@@ -4158,7 +4222,7 @@
       </c>
       <c r="C21" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D21" s="254">
         <v>3</v>
@@ -4172,8 +4236,12 @@
       <c r="G21" s="231">
         <v>100</v>
       </c>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
+      <c r="H21" s="231">
+        <v>90</v>
+      </c>
+      <c r="I21" s="231">
+        <v>90</v>
+      </c>
       <c r="J21" s="231"/>
       <c r="K21" s="231"/>
       <c r="L21" s="231"/>
@@ -4199,7 +4267,7 @@
       </c>
       <c r="C22" s="257">
         <f t="shared" si="0"/>
-        <v>88.888888888888872</v>
+        <v>67.333333333333329</v>
       </c>
       <c r="D22" s="254">
         <v>2</v>
@@ -4213,8 +4281,12 @@
       <c r="G22" s="231">
         <v>100</v>
       </c>
-      <c r="H22" s="231"/>
-      <c r="I22" s="231"/>
+      <c r="H22" s="231">
+        <v>70</v>
+      </c>
+      <c r="I22" s="231">
+        <v>0</v>
+      </c>
       <c r="J22" s="231"/>
       <c r="K22" s="231"/>
       <c r="L22" s="231"/>
@@ -4240,7 +4312,7 @@
       </c>
       <c r="C23" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D23" s="254">
         <v>3</v>
@@ -4254,8 +4326,12 @@
       <c r="G23" s="231">
         <v>100</v>
       </c>
-      <c r="H23" s="231"/>
-      <c r="I23" s="231"/>
+      <c r="H23" s="231">
+        <v>80</v>
+      </c>
+      <c r="I23" s="231">
+        <v>80</v>
+      </c>
       <c r="J23" s="231"/>
       <c r="K23" s="231"/>
       <c r="L23" s="231"/>
@@ -4281,7 +4357,7 @@
       </c>
       <c r="C24" s="257">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D24" s="254">
         <v>3</v>
@@ -4295,8 +4371,12 @@
       <c r="G24" s="231">
         <v>100</v>
       </c>
-      <c r="H24" s="231"/>
-      <c r="I24" s="231"/>
+      <c r="H24" s="231">
+        <v>20</v>
+      </c>
+      <c r="I24" s="231">
+        <v>20</v>
+      </c>
       <c r="J24" s="231"/>
       <c r="K24" s="231"/>
       <c r="L24" s="231"/>
@@ -4336,8 +4416,12 @@
       <c r="G25" s="231">
         <v>0</v>
       </c>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
+      <c r="H25" s="231">
+        <v>0</v>
+      </c>
+      <c r="I25" s="231">
+        <v>0</v>
+      </c>
       <c r="J25" s="231"/>
       <c r="K25" s="231"/>
       <c r="L25" s="231"/>
@@ -4363,7 +4447,7 @@
       </c>
       <c r="C26" s="257">
         <f t="shared" si="0"/>
-        <v>11.111111111111109</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D26" s="254">
         <v>1</v>
@@ -4377,8 +4461,12 @@
       <c r="G26" s="231">
         <v>0</v>
       </c>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
+      <c r="H26" s="231">
+        <v>0</v>
+      </c>
+      <c r="I26" s="231">
+        <v>0</v>
+      </c>
       <c r="J26" s="231"/>
       <c r="K26" s="231"/>
       <c r="L26" s="231"/>
@@ -4416,8 +4504,12 @@
       <c r="G27" s="231">
         <v>0</v>
       </c>
-      <c r="H27" s="231"/>
-      <c r="I27" s="231"/>
+      <c r="H27" s="231">
+        <v>0</v>
+      </c>
+      <c r="I27" s="231">
+        <v>0</v>
+      </c>
       <c r="J27" s="231"/>
       <c r="K27" s="231"/>
       <c r="L27" s="231"/>
@@ -4455,8 +4547,12 @@
       <c r="G28" s="231">
         <v>0</v>
       </c>
-      <c r="H28" s="231"/>
-      <c r="I28" s="231"/>
+      <c r="H28" s="231">
+        <v>0</v>
+      </c>
+      <c r="I28" s="231">
+        <v>0</v>
+      </c>
       <c r="J28" s="231"/>
       <c r="K28" s="231"/>
       <c r="L28" s="231"/>
@@ -4499,17 +4595,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4567,52 +4663,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="351" t="s">
+      <c r="F1" s="347" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="354" t="s">
+      <c r="G1" s="350" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="344" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="344" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="344" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="344" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="344" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="344" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="344" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="344" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="348" t="s">
+      <c r="P1" s="353" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="352"/>
-      <c r="G2" s="355"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="349"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="354"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4626,17 +4722,17 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="355"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="349"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="351"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="354"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4652,17 +4748,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="356"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="350"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="355"/>
       <c r="Q4" s="265" t="s">
         <v>311</v>
       </c>
@@ -4689,16 +4785,16 @@
       <c r="E5" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="344">
-        <v>100</v>
-      </c>
-      <c r="G5" s="344">
-        <v>100</v>
-      </c>
-      <c r="H5" s="344">
-        <v>100</v>
-      </c>
-      <c r="I5" s="344">
+      <c r="F5" s="343">
+        <v>100</v>
+      </c>
+      <c r="G5" s="343">
+        <v>100</v>
+      </c>
+      <c r="H5" s="343">
+        <v>100</v>
+      </c>
+      <c r="I5" s="343">
         <v>100</v>
       </c>
       <c r="J5" s="257"/>
@@ -4724,7 +4820,7 @@
       </c>
       <c r="C6" s="260">
         <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6 + H6 + I6)/($E$3+1)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D6" s="222">
         <v>2</v>
@@ -4736,10 +4832,14 @@
         <v>50</v>
       </c>
       <c r="G6" s="254">
-        <v>0</v>
-      </c>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="254">
+        <v>50</v>
+      </c>
+      <c r="I6" s="254">
+        <v>0</v>
+      </c>
       <c r="J6" s="254"/>
       <c r="K6" s="254"/>
       <c r="L6" s="254"/>
@@ -4771,16 +4871,16 @@
       <c r="E7" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="342">
-        <v>100</v>
-      </c>
-      <c r="G7" s="342">
-        <v>100</v>
-      </c>
-      <c r="H7" s="342">
-        <v>100</v>
-      </c>
-      <c r="I7" s="342">
+      <c r="F7" s="341">
+        <v>100</v>
+      </c>
+      <c r="G7" s="341">
+        <v>100</v>
+      </c>
+      <c r="H7" s="341">
+        <v>100</v>
+      </c>
+      <c r="I7" s="341">
         <v>100</v>
       </c>
       <c r="J7" s="254"/>
@@ -4806,7 +4906,7 @@
       </c>
       <c r="C8" s="260">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D8" s="222">
         <v>4</v>
@@ -4820,8 +4920,12 @@
       <c r="G8" s="254">
         <v>100</v>
       </c>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
+      <c r="H8" s="254">
+        <v>60</v>
+      </c>
+      <c r="I8" s="254">
+        <v>0</v>
+      </c>
       <c r="J8" s="254"/>
       <c r="K8" s="254"/>
       <c r="L8" s="254"/>
@@ -4845,7 +4949,7 @@
       </c>
       <c r="C9" s="260">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D9" s="222">
         <v>5</v>
@@ -4859,8 +4963,12 @@
       <c r="G9" s="254">
         <v>90</v>
       </c>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
+      <c r="H9" s="254">
+        <v>80</v>
+      </c>
+      <c r="I9" s="254">
+        <v>80</v>
+      </c>
       <c r="J9" s="254"/>
       <c r="K9" s="254"/>
       <c r="L9" s="254"/>
@@ -4898,8 +5006,12 @@
       <c r="G10" s="254">
         <v>0</v>
       </c>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
+      <c r="H10" s="254">
+        <v>0</v>
+      </c>
+      <c r="I10" s="254">
+        <v>0</v>
+      </c>
       <c r="J10" s="254"/>
       <c r="K10" s="254"/>
       <c r="L10" s="254"/>
@@ -4937,8 +5049,12 @@
       <c r="G11" s="254">
         <v>0</v>
       </c>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
+      <c r="H11" s="254">
+        <v>0</v>
+      </c>
+      <c r="I11" s="254">
+        <v>0</v>
+      </c>
       <c r="J11" s="254"/>
       <c r="K11" s="254"/>
       <c r="L11" s="254"/>
@@ -4970,16 +5086,16 @@
       <c r="E12" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="343">
-        <v>100</v>
-      </c>
-      <c r="G12" s="343">
+      <c r="F12" s="342">
+        <v>100</v>
+      </c>
+      <c r="G12" s="342">
         <v>70</v>
       </c>
-      <c r="H12" s="343">
+      <c r="H12" s="342">
         <v>70</v>
       </c>
-      <c r="I12" s="343">
+      <c r="I12" s="342">
         <v>70</v>
       </c>
       <c r="J12" s="254"/>
@@ -5005,7 +5121,7 @@
       </c>
       <c r="C13" s="260">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D13" s="222">
         <v>3</v>
@@ -5019,8 +5135,12 @@
       <c r="G13" s="254">
         <v>100</v>
       </c>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
+      <c r="H13" s="254">
+        <v>80</v>
+      </c>
+      <c r="I13" s="254">
+        <v>80</v>
+      </c>
       <c r="J13" s="254"/>
       <c r="K13" s="254"/>
       <c r="L13" s="254"/>
@@ -5058,8 +5178,12 @@
       <c r="G14" s="254">
         <v>0</v>
       </c>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
+      <c r="H14" s="254">
+        <v>0</v>
+      </c>
+      <c r="I14" s="254">
+        <v>0</v>
+      </c>
       <c r="J14" s="254"/>
       <c r="K14" s="254"/>
       <c r="L14" s="254"/>
@@ -5177,16 +5301,16 @@
       <c r="E17" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="342">
+      <c r="F17" s="341">
         <v>80</v>
       </c>
-      <c r="G17" s="342">
-        <v>100</v>
-      </c>
-      <c r="H17" s="342">
-        <v>100</v>
-      </c>
-      <c r="I17" s="342">
+      <c r="G17" s="341">
+        <v>100</v>
+      </c>
+      <c r="H17" s="341">
+        <v>100</v>
+      </c>
+      <c r="I17" s="341">
         <v>100</v>
       </c>
       <c r="J17" s="254"/>
@@ -5220,16 +5344,16 @@
       <c r="E18" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="342">
-        <v>100</v>
-      </c>
-      <c r="G18" s="342">
-        <v>100</v>
-      </c>
-      <c r="H18" s="342">
+      <c r="F18" s="341">
+        <v>100</v>
+      </c>
+      <c r="G18" s="341">
+        <v>100</v>
+      </c>
+      <c r="H18" s="341">
         <v>90</v>
       </c>
-      <c r="I18" s="342">
+      <c r="I18" s="341">
         <v>80</v>
       </c>
       <c r="J18" s="254"/>
@@ -5306,16 +5430,16 @@
       <c r="E20" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="342">
-        <v>100</v>
-      </c>
-      <c r="G20" s="342">
-        <v>100</v>
-      </c>
-      <c r="H20" s="342">
-        <v>100</v>
-      </c>
-      <c r="I20" s="342">
+      <c r="F20" s="341">
+        <v>100</v>
+      </c>
+      <c r="G20" s="341">
+        <v>100</v>
+      </c>
+      <c r="H20" s="341">
+        <v>100</v>
+      </c>
+      <c r="I20" s="341">
         <v>100</v>
       </c>
       <c r="J20" s="254"/>
@@ -5355,8 +5479,12 @@
       <c r="G21" s="254">
         <v>0</v>
       </c>
-      <c r="H21" s="254"/>
-      <c r="I21" s="254"/>
+      <c r="H21" s="254">
+        <v>0</v>
+      </c>
+      <c r="I21" s="254">
+        <v>0</v>
+      </c>
       <c r="J21" s="254"/>
       <c r="K21" s="254"/>
       <c r="L21" s="254"/>
@@ -5388,16 +5516,16 @@
       <c r="E22" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="342">
-        <v>100</v>
-      </c>
-      <c r="G22" s="342">
-        <v>100</v>
-      </c>
-      <c r="H22" s="342">
-        <v>100</v>
-      </c>
-      <c r="I22" s="342">
+      <c r="F22" s="341">
+        <v>100</v>
+      </c>
+      <c r="G22" s="341">
+        <v>100</v>
+      </c>
+      <c r="H22" s="341">
+        <v>100</v>
+      </c>
+      <c r="I22" s="341">
         <v>100</v>
       </c>
       <c r="J22" s="254"/>
@@ -5423,7 +5551,7 @@
       </c>
       <c r="C23" s="260">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D23" s="222">
         <v>5</v>
@@ -5437,8 +5565,12 @@
       <c r="G23" s="254">
         <v>100</v>
       </c>
-      <c r="H23" s="254"/>
-      <c r="I23" s="254"/>
+      <c r="H23" s="254">
+        <v>80</v>
+      </c>
+      <c r="I23" s="254">
+        <v>80</v>
+      </c>
       <c r="J23" s="254"/>
       <c r="K23" s="254"/>
       <c r="L23" s="254"/>
@@ -5455,17 +5587,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5498,8 +5630,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5523,52 +5655,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="347" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="354" t="s">
+      <c r="H1" s="350" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="344" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="344" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="344" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="344" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="344" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="344" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="344" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="345" t="s">
+      <c r="P1" s="344" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="348" t="s">
+      <c r="Q1" s="353" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="352"/>
-      <c r="H2" s="355"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="349"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="345"/>
+      <c r="P2" s="345"/>
+      <c r="Q2" s="354"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5583,24 +5715,24 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="352"/>
-      <c r="H3" s="355"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="349"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
+      <c r="K3" s="345"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="345"/>
+      <c r="N3" s="345"/>
+      <c r="O3" s="345"/>
+      <c r="P3" s="345"/>
+      <c r="Q3" s="354"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
       <c r="B4" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="341" t="s">
+      <c r="C4" s="356" t="s">
         <v>299</v>
       </c>
       <c r="D4" s="275" t="s">
@@ -5612,17 +5744,17 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="353"/>
-      <c r="H4" s="356"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="350"/>
+      <c r="G4" s="349"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="346"/>
+      <c r="Q4" s="355"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
         <v>311</v>
@@ -5979,7 +6111,7 @@
       </c>
       <c r="C12" s="260">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D12" s="222">
         <v>2</v>
@@ -5994,10 +6126,14 @@
         <v>100</v>
       </c>
       <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="26">
+        <v>50</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
@@ -6088,8 +6224,12 @@
       <c r="H14" s="26">
         <v>0</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0</v>
+      </c>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -6324,8 +6464,12 @@
       <c r="H19" s="26">
         <v>100</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -6351,7 +6495,7 @@
       </c>
       <c r="C20" s="260">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D20" s="222">
         <v>1</v>
@@ -6368,8 +6512,12 @@
       <c r="H20" s="26">
         <v>100</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="26">
+        <v>60</v>
+      </c>
+      <c r="J20" s="26">
+        <v>60</v>
+      </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
@@ -6868,17 +7016,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19111C53-48E0-46EF-9CAB-EBE2A2D833C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D203CE-D5FA-4220-B967-53E9B5584A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="CONST" sheetId="7" r:id="rId5"/>
     <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="302">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>https://github.com/Ruru25/Ruru25-Visual_app</t>
   </si>
   <si>
-    <t>Янин Алексей .Ю.</t>
-  </si>
-  <si>
     <t>Шеин Кирилл.Е.</t>
   </si>
   <si>
@@ -1101,9 +1098,6 @@
     <t>СавенкОв Анатолий.К.</t>
   </si>
   <si>
-    <t>МежЕков Иннокентий.А.</t>
-  </si>
-  <si>
     <t>Луценко Илья. М</t>
   </si>
   <si>
@@ -1161,21 +1155,12 @@
     <t>Григорьева Алёна .А.</t>
   </si>
   <si>
-    <t>Крикунов Роман.С.</t>
-  </si>
-  <si>
-    <t>Макаров Никита.С.</t>
-  </si>
-  <si>
     <t>Пастухов Александр.А.</t>
   </si>
   <si>
     <t>Петров Тимофей.И.</t>
   </si>
   <si>
-    <t>Подлягин Михаил.А.</t>
-  </si>
-  <si>
     <t>СалИй Владислав.П.</t>
   </si>
   <si>
@@ -1242,9 +1227,6 @@
     <t>Кутенков Андрей А.</t>
   </si>
   <si>
-    <t>Лазарев Матвей О.</t>
-  </si>
-  <si>
     <t>Лахтионов Никита С.</t>
   </si>
   <si>
@@ -1401,21 +1383,12 @@
     <t>https://github.com/alenkatopprogger/visual</t>
   </si>
   <si>
-    <t>https://github.com/TheR1nkro/Visual</t>
-  </si>
-  <si>
-    <t>https://github.com/NikitaMakarov393/android-project</t>
-  </si>
-  <si>
     <t>https://github.com/BlexArown/Visual-programming</t>
   </si>
   <si>
     <t>https://github.com/Gmmba/Visual_Programming</t>
   </si>
   <si>
-    <t>https://github.com/Tesayaa/programming</t>
-  </si>
-  <si>
     <t>https://github.com/saliyvlad/Android</t>
   </si>
   <si>
@@ -1476,9 +1449,6 @@
     <t>https://github.com/iliyagitH/andprog</t>
   </si>
   <si>
-    <t>https://github.com/iken4ik/Oop</t>
-  </si>
-  <si>
     <t>https://github.com/Qreuff/android_project</t>
   </si>
   <si>
@@ -1515,9 +1485,6 @@
     <t>ПР0. Git.</t>
   </si>
   <si>
-    <t>Богатырев Юрий А.</t>
-  </si>
-  <si>
     <t>Заров Иван А.</t>
   </si>
   <si>
@@ -1525,9 +1492,6 @@
   </si>
   <si>
     <t>https://github.com/CodebyTecs/visual-programming</t>
-  </si>
-  <si>
-    <t>https://github.com/Nimda3/Visual-programming</t>
   </si>
   <si>
     <t>https://github.com/mitsum551/Android</t>
@@ -2925,6 +2889,7 @@
     <xf numFmtId="1" fontId="17" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2961,7 +2926,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3360,10 +3324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C28"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,57 +3351,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="347" t="s">
+      <c r="F1" s="348" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="351" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="345" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="345" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="350" t="s">
-        <v>305</v>
-      </c>
-      <c r="H1" s="344" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="344" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="344" t="s">
-        <v>301</v>
-      </c>
-      <c r="K1" s="344" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="344" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="344" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="344" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="344" t="s">
-        <v>309</v>
-      </c>
-      <c r="P1" s="353" t="s">
-        <v>310</v>
+      <c r="N1" s="345" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="345" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="354" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="348"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="354"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="355"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="227" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="252"/>
       <c r="D3" s="226">
@@ -3446,17 +3410,17 @@
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="348"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="354"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="355"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3464,27 +3428,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="251" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D4" s="250" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="349"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="355"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="356"/>
       <c r="Q4" s="264" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="R4" s="242"/>
       <c r="S4" s="242"/>
@@ -3498,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="238" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="257">
         <f>((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
@@ -3508,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="228" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F5" s="244">
         <v>0</v>
@@ -3543,17 +3507,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="222" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="257">
-        <f t="shared" ref="C6:C28" si="0">((D6/$D$3)*100 + F6 + G6+H6+I6)/($E$3+1)</f>
+        <f>((D6/$D$3)*100 + F6 + G6+H6+I6)/($E$3+1)</f>
         <v>88</v>
       </c>
       <c r="D6" s="256">
         <v>3</v>
       </c>
       <c r="E6" s="228" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F6" s="234">
         <v>100</v>
@@ -3588,17 +3552,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="222" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="257">
-        <f t="shared" si="0"/>
+        <f>((D7/$D$3)*100 + F7 + G7+H7+I7)/($E$3+1)</f>
         <v>92</v>
       </c>
       <c r="D7" s="256">
         <v>3</v>
       </c>
       <c r="E7" s="228" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F7" s="235">
         <v>100</v>
@@ -3633,17 +3597,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="222" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="C8" s="257">
-        <f t="shared" si="0"/>
-        <v>13.333333333333332</v>
+        <f>((D8/$D$3)*100 + F8 + G8+H8+I8)/($E$3+1)</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D8" s="254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="228" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F8" s="231">
         <v>0</v>
@@ -3678,29 +3642,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="222" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="257">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>((D9/$D$3)*100 + F9 + G9+H9+I9)/($E$3+1)</f>
+        <v>13.333333333333332</v>
       </c>
       <c r="D9" s="254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="228" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F9" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="231">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I9" s="231">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J9" s="231"/>
       <c r="K9" s="231"/>
@@ -3723,23 +3687,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="222" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="257">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>((D10/$D$3)*100 + F10 + G10+H10+I10)/($E$3+1)</f>
+        <v>92</v>
       </c>
       <c r="D10" s="254">
         <v>3</v>
       </c>
       <c r="E10" s="228" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F10" s="231">
         <v>100</v>
       </c>
       <c r="G10" s="231">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H10" s="231">
         <v>80</v>
@@ -3768,29 +3732,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="222" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="257">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>((D11/$D$3)*100 + F11 + G11+H11+I11)/($E$3+1)</f>
+        <v>90</v>
       </c>
       <c r="D11" s="254">
         <v>3</v>
       </c>
       <c r="E11" s="228" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F11" s="231">
         <v>100</v>
       </c>
       <c r="G11" s="231">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H11" s="231">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I11" s="231">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J11" s="231"/>
       <c r="K11" s="231"/>
@@ -3813,29 +3777,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="257">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((D12/$D$3)*100 + F12 + G12+H12+I12)/($E$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D12" s="254">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="228" t="s">
+        <v>266</v>
       </c>
       <c r="F12" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="231">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I12" s="231">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J12" s="231"/>
       <c r="K12" s="231"/>
@@ -3858,29 +3822,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="222" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="257">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>((D13/$D$3)*100 + F13 + G13+H13+I13)/($E$3+1)</f>
+        <v>0</v>
       </c>
       <c r="D13" s="254">
-        <v>3</v>
-      </c>
-      <c r="E13" s="228" t="s">
-        <v>276</v>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="231">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I13" s="231">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J13" s="231"/>
       <c r="K13" s="231"/>
@@ -3902,18 +3866,18 @@
       <c r="A14" s="220">
         <v>10</v>
       </c>
-      <c r="B14" s="253" t="s">
-        <v>158</v>
+      <c r="B14" s="222" t="s">
+        <v>157</v>
       </c>
       <c r="C14" s="257">
-        <f t="shared" si="0"/>
-        <v>85.333333333333329</v>
+        <f>((D14/$D$3)*100 + F14 + G14+H14+I14)/($E$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D14" s="254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="228" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F14" s="231">
         <v>100</v>
@@ -3922,10 +3886,10 @@
         <v>100</v>
       </c>
       <c r="H14" s="231">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I14" s="231">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J14" s="231"/>
       <c r="K14" s="231"/>
@@ -3948,29 +3912,27 @@
         <v>11</v>
       </c>
       <c r="B15" s="222" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="C15" s="257">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>((D15/$D$3)*100 + F15 + G15+H15+I15)/($E$3+1)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="254">
-        <v>3</v>
-      </c>
-      <c r="E15" s="228" t="s">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="231">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I15" s="231">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J15" s="231"/>
       <c r="K15" s="231"/>
@@ -3992,18 +3954,18 @@
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="253" t="s">
         <v>156</v>
       </c>
       <c r="C16" s="257">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f>((D16/$D$3)*100 + F16 + G16+H16+I16)/($E$3+1)</f>
+        <v>85.333333333333329</v>
       </c>
       <c r="D16" s="254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="228" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F16" s="231">
         <v>100</v>
@@ -4015,7 +3977,7 @@
         <v>80</v>
       </c>
       <c r="I16" s="231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J16" s="231"/>
       <c r="K16" s="231"/>
@@ -4041,26 +4003,26 @@
         <v>155</v>
       </c>
       <c r="C17" s="257">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <f>((D17/$D$3)*100 + F17 + G17+H17+I17)/($E$3+1)</f>
+        <v>92</v>
       </c>
       <c r="D17" s="254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="228" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F17" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I17" s="231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J17" s="231"/>
       <c r="K17" s="231"/>
@@ -4086,14 +4048,14 @@
         <v>154</v>
       </c>
       <c r="C18" s="257">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>((D18/$D$3)*100 + F18 + G18+H18+I18)/($E$3+1)</f>
+        <v>76</v>
       </c>
       <c r="D18" s="254">
         <v>3</v>
       </c>
       <c r="E18" s="228" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F18" s="231">
         <v>100</v>
@@ -4102,10 +4064,10 @@
         <v>100</v>
       </c>
       <c r="H18" s="231">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I18" s="231">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J18" s="231"/>
       <c r="K18" s="231"/>
@@ -4131,14 +4093,14 @@
         <v>153</v>
       </c>
       <c r="C19" s="257">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f>((D19/$D$3)*100 + F19 + G19+H19+I19)/($E$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D19" s="254">
         <v>3</v>
       </c>
       <c r="E19" s="228" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F19" s="231">
         <v>100</v>
@@ -4147,10 +4109,10 @@
         <v>100</v>
       </c>
       <c r="H19" s="231">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I19" s="231">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J19" s="231"/>
       <c r="K19" s="231"/>
@@ -4173,26 +4135,26 @@
         <v>16</v>
       </c>
       <c r="B20" s="222" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="C20" s="257">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>((D20/$D$3)*100 + F20 + G20+H20+I20)/($E$3+1)</f>
+        <v>76</v>
       </c>
       <c r="D20" s="254">
         <v>3</v>
       </c>
       <c r="E20" s="228" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F20" s="231">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G20" s="231">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" s="231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I20" s="231">
         <v>0</v>
@@ -4218,29 +4180,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="222" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C21" s="257">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>((D21/$D$3)*100 + F21 + G21+H21+I21)/($E$3+1)</f>
+        <v>44</v>
       </c>
       <c r="D21" s="254">
         <v>3</v>
       </c>
       <c r="E21" s="228" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F21" s="231">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G21" s="231">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H21" s="231">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I21" s="231">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J21" s="231"/>
       <c r="K21" s="231"/>
@@ -4266,14 +4228,14 @@
         <v>151</v>
       </c>
       <c r="C22" s="257">
-        <f t="shared" si="0"/>
-        <v>67.333333333333329</v>
+        <f>((D22/$D$3)*100 + F22 + G22+H22+I22)/($E$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D22" s="254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="228" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F22" s="231">
         <v>100</v>
@@ -4282,10 +4244,10 @@
         <v>100</v>
       </c>
       <c r="H22" s="231">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I22" s="231">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J22" s="231"/>
       <c r="K22" s="231"/>
@@ -4311,14 +4273,14 @@
         <v>150</v>
       </c>
       <c r="C23" s="257">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>((D23/$D$3)*100 + F23 + G23+H23+I23)/($E$3+1)</f>
+        <v>67.333333333333329</v>
       </c>
       <c r="D23" s="254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="228" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F23" s="231">
         <v>100</v>
@@ -4327,10 +4289,10 @@
         <v>100</v>
       </c>
       <c r="H23" s="231">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I23" s="231">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J23" s="231"/>
       <c r="K23" s="231"/>
@@ -4356,14 +4318,14 @@
         <v>149</v>
       </c>
       <c r="C24" s="257">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f>((D24/$D$3)*100 + F24 + G24+H24+I24)/($E$3+1)</f>
+        <v>92</v>
       </c>
       <c r="D24" s="254">
         <v>3</v>
       </c>
       <c r="E24" s="228" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F24" s="231">
         <v>100</v>
@@ -4372,10 +4334,10 @@
         <v>100</v>
       </c>
       <c r="H24" s="231">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I24" s="231">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J24" s="231"/>
       <c r="K24" s="231"/>
@@ -4401,26 +4363,26 @@
         <v>148</v>
       </c>
       <c r="C25" s="257">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((D25/$D$3)*100 + F25 + G25+H25+I25)/($E$3+1)</f>
+        <v>68</v>
       </c>
       <c r="D25" s="254">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="111" t="s">
+        <v>277</v>
       </c>
       <c r="F25" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G25" s="231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" s="231">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I25" s="231">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25" s="231"/>
       <c r="K25" s="231"/>
@@ -4438,162 +4400,34 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="220">
-        <v>22</v>
-      </c>
-      <c r="B26" s="222" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="257">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="D26" s="254">
-        <v>1</v>
-      </c>
-      <c r="E26" s="228" t="s">
-        <v>289</v>
-      </c>
-      <c r="F26" s="231">
-        <v>0</v>
-      </c>
-      <c r="G26" s="231">
-        <v>0</v>
-      </c>
-      <c r="H26" s="231">
-        <v>0</v>
-      </c>
-      <c r="I26" s="231">
-        <v>0</v>
-      </c>
-      <c r="J26" s="231"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="231"/>
-      <c r="O26" s="231"/>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="232"/>
-      <c r="R26" s="232"/>
-      <c r="S26" s="232"/>
-      <c r="T26" s="232"/>
-      <c r="U26" s="233"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="220">
-        <v>23</v>
-      </c>
-      <c r="B27" s="222" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="257">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="254">
-        <v>0</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="231">
-        <v>0</v>
-      </c>
-      <c r="G27" s="231">
-        <v>0</v>
-      </c>
-      <c r="H27" s="231">
-        <v>0</v>
-      </c>
-      <c r="I27" s="231">
-        <v>0</v>
-      </c>
-      <c r="J27" s="231"/>
-      <c r="K27" s="231"/>
-      <c r="L27" s="231"/>
-      <c r="M27" s="231"/>
-      <c r="N27" s="231"/>
-      <c r="O27" s="231"/>
-      <c r="P27" s="231"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="232"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="232"/>
-      <c r="U27" s="233"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="220">
-        <v>24</v>
-      </c>
-      <c r="B28" s="222" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" s="257">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="254">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="231">
-        <v>0</v>
-      </c>
-      <c r="G28" s="231">
-        <v>0</v>
-      </c>
-      <c r="H28" s="231">
-        <v>0</v>
-      </c>
-      <c r="I28" s="231">
-        <v>0</v>
-      </c>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="231"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="232"/>
-      <c r="U28" s="233"/>
-      <c r="V28" s="233"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="221" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="221"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="221" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="221"/>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="221" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="221"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="221" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C34" s="221"/>
     </row>
-    <row r="35" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="221"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="221" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="221"/>
-    </row>
-    <row r="37" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="221" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="221"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P25">
+    <sortCondition ref="B5:B25"/>
+  </sortState>
   <mergeCells count="11">
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:M4"/>
@@ -4610,37 +4444,36 @@
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{B88B1819-D74D-4525-9C23-64EF1FA59B9A}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{999A75C5-570C-4159-8C1B-8497D937A254}"/>
-    <hyperlink ref="E19" r:id="rId4" xr:uid="{1B568726-0B54-496A-95E7-55277168022F}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{25880CEC-1834-4C25-8577-4B1A2336E35F}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{918D6868-F4A5-4195-9600-219F97ECD7FE}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{999A75C5-570C-4159-8C1B-8497D937A254}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{1B568726-0B54-496A-95E7-55277168022F}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{25880CEC-1834-4C25-8577-4B1A2336E35F}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{918D6868-F4A5-4195-9600-219F97ECD7FE}"/>
     <hyperlink ref="E5" r:id="rId7" xr:uid="{D8EC3E77-02EF-4728-B9E6-55355B90D4FE}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{D3E822BB-CED0-4E5F-94BA-77B9FF9E4B86}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{F9D3A8F7-AD97-4A14-923F-240B7D1537E2}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{14C0A389-C375-469D-A68D-C8FFF6B89859}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{30B128E1-0910-4C9F-B972-CFA730448FA6}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{76EF706F-C4F7-448C-BDF1-93DCAF15FC7A}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{E9537228-D47C-4C70-9C98-BF3B91095510}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{5CC09A73-81B7-49E0-A2C0-DFF436F14274}"/>
-    <hyperlink ref="E18" r:id="rId15" xr:uid="{74133A5C-74EE-4043-A5BF-ED4569C22305}"/>
-    <hyperlink ref="E20" r:id="rId16" xr:uid="{BF746EEF-332F-4301-91BD-72B56229B7C4}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{7992B8D8-C241-4C51-80E0-A3836DAF783A}"/>
-    <hyperlink ref="E23" r:id="rId18" xr:uid="{CE73B5BE-F526-4A0F-8EA2-B91B9C7D762C}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{F0EE29BA-7AD7-4853-A58E-30ADC4429E5F}"/>
-    <hyperlink ref="E26" r:id="rId20" xr:uid="{740E61FA-303F-4BB2-9328-4D80629BB4C6}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{D3E822BB-CED0-4E5F-94BA-77B9FF9E4B86}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{F9D3A8F7-AD97-4A14-923F-240B7D1537E2}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{14C0A389-C375-469D-A68D-C8FFF6B89859}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{30B128E1-0910-4C9F-B972-CFA730448FA6}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{76EF706F-C4F7-448C-BDF1-93DCAF15FC7A}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{E9537228-D47C-4C70-9C98-BF3B91095510}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{74133A5C-74EE-4043-A5BF-ED4569C22305}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{BF746EEF-332F-4301-91BD-72B56229B7C4}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{7992B8D8-C241-4C51-80E0-A3836DAF783A}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{CE73B5BE-F526-4A0F-8EA2-B91B9C7D762C}"/>
+    <hyperlink ref="E25" r:id="rId18" xr:uid="{F0EE29BA-7AD7-4853-A58E-30ADC4429E5F}"/>
+    <hyperlink ref="E8" r:id="rId19" xr:uid="{740E61FA-303F-4BB2-9328-4D80629BB4C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4663,57 +4496,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="347" t="s">
+      <c r="F1" s="348" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="351" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="345" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="345" t="s">
         <v>292</v>
       </c>
-      <c r="G1" s="350" t="s">
-        <v>305</v>
-      </c>
-      <c r="H1" s="344" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="344" t="s">
-        <v>307</v>
-      </c>
-      <c r="J1" s="344" t="s">
-        <v>301</v>
-      </c>
-      <c r="K1" s="344" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="344" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="344" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" s="344" t="s">
-        <v>308</v>
-      </c>
-      <c r="O1" s="344" t="s">
-        <v>309</v>
-      </c>
-      <c r="P1" s="353" t="s">
-        <v>310</v>
+      <c r="N1" s="345" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="345" t="s">
+        <v>297</v>
+      </c>
+      <c r="P1" s="354" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="348"/>
-      <c r="G2" s="351"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="354"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="355"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="225" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="249"/>
       <c r="D3" s="220">
@@ -4722,17 +4555,17 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="348"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="354"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="355"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4740,27 +4573,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="251" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D4" s="250" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="349"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="355"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="356"/>
       <c r="Q4" s="265" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="R4" s="242"/>
       <c r="S4" s="242"/>
@@ -4773,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="248" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="260">
         <f>( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
@@ -4783,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="239" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F5" s="343">
         <v>100</v>
@@ -4816,17 +4649,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="236" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="260">
-        <f t="shared" ref="C6:C23" si="0">( (D6/$D$3)*100 + F6 + G6 + H6 + I6)/($E$3+1)</f>
+        <f>( (D6/$D$3)*100 + F6 + G6 + H6 + I6)/($E$3+1)</f>
         <v>38</v>
       </c>
       <c r="D6" s="222">
         <v>2</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F6" s="254">
         <v>50</v>
@@ -4856,20 +4689,20 @@
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="236" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="260">
-        <f t="shared" si="0"/>
+        <f>( (D7/$D$3)*100 + F7 + G7 + H7 + I7)/($E$3+1)</f>
         <v>100</v>
       </c>
       <c r="D7" s="222">
         <v>5</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F7" s="341">
         <v>100</v>
@@ -4899,20 +4732,20 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="236" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="260">
-        <f t="shared" si="0"/>
+        <f>( (D8/$D$3)*100 + F8 + G8 + H8 + I8)/($E$3+1)</f>
         <v>68</v>
       </c>
       <c r="D8" s="222">
         <v>4</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F8" s="254">
         <v>100</v>
@@ -4942,20 +4775,20 @@
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="236" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="260">
-        <f t="shared" si="0"/>
+        <f>( (D9/$D$3)*100 + F9 + G9 + H9 + I9)/($E$3+1)</f>
         <v>90</v>
       </c>
       <c r="D9" s="222">
         <v>5</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F9" s="254">
         <v>100</v>
@@ -4985,32 +4818,32 @@
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="220">
-        <v>7</v>
-      </c>
-      <c r="B10" s="236" t="s">
-        <v>175</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="237" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="260">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>( (D10/$D$3)*100 + F10 + G10 + H10 + I10)/($E$3+1)</f>
+        <v>74</v>
       </c>
       <c r="D10" s="222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="254">
-        <v>0</v>
-      </c>
-      <c r="G10" s="254">
-        <v>0</v>
-      </c>
-      <c r="H10" s="254">
-        <v>0</v>
-      </c>
-      <c r="I10" s="254">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="F10" s="342">
+        <v>100</v>
+      </c>
+      <c r="G10" s="342">
+        <v>70</v>
+      </c>
+      <c r="H10" s="342">
+        <v>70</v>
+      </c>
+      <c r="I10" s="342">
+        <v>70</v>
       </c>
       <c r="J10" s="254"/>
       <c r="K10" s="254"/>
@@ -5028,32 +4861,32 @@
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="220">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="236" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" s="260">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>( (D11/$D$3)*100 + F11 + G11 + H11 + I11)/($E$3+1)</f>
+        <v>84</v>
       </c>
       <c r="D11" s="222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F11" s="254">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="254">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" s="254">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I11" s="254">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J11" s="254"/>
       <c r="K11" s="254"/>
@@ -5071,32 +4904,32 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="220">
-        <v>9</v>
-      </c>
-      <c r="B12" s="237" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="236" t="s">
+        <v>175</v>
       </c>
       <c r="C12" s="260">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f>( (D12/$D$3)*100 + F12 + G12 + H12 + I12)/($E$3+1)</f>
+        <v>28</v>
       </c>
       <c r="D12" s="222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="342">
-        <v>100</v>
-      </c>
-      <c r="G12" s="342">
-        <v>70</v>
-      </c>
-      <c r="H12" s="342">
-        <v>70</v>
-      </c>
-      <c r="I12" s="342">
-        <v>70</v>
+        <v>251</v>
+      </c>
+      <c r="F12" s="254">
+        <v>100</v>
+      </c>
+      <c r="G12" s="263">
+        <v>0</v>
+      </c>
+      <c r="H12" s="263">
+        <v>0</v>
+      </c>
+      <c r="I12" s="263">
+        <v>0</v>
       </c>
       <c r="J12" s="254"/>
       <c r="K12" s="254"/>
@@ -5114,32 +4947,32 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="220">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="236" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C13" s="260">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f>( (D13/$D$3)*100 + F13 + G13 + H13 + I13)/($E$3+1)</f>
+        <v>12</v>
       </c>
       <c r="D13" s="222">
         <v>3</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F13" s="254">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="254">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="254">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I13" s="254">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J13" s="254"/>
       <c r="K13" s="254"/>
@@ -5157,32 +4990,32 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="220">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C14" s="260">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>( (D14/$D$3)*100 + F14 + G14 + H14 + I14)/($E$3+1)</f>
+        <v>92</v>
       </c>
       <c r="D14" s="222">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="254">
-        <v>0</v>
-      </c>
-      <c r="G14" s="254">
-        <v>0</v>
-      </c>
-      <c r="H14" s="254">
-        <v>0</v>
-      </c>
-      <c r="I14" s="254">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="F14" s="341">
+        <v>80</v>
+      </c>
+      <c r="G14" s="341">
+        <v>100</v>
+      </c>
+      <c r="H14" s="341">
+        <v>100</v>
+      </c>
+      <c r="I14" s="341">
+        <v>100</v>
       </c>
       <c r="J14" s="254"/>
       <c r="K14" s="254"/>
@@ -5200,32 +5033,32 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="220">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="236" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="260">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>( (D15/$D$3)*100 + F15 + G15 + H15 + I15)/($E$3+1)</f>
+        <v>90</v>
       </c>
       <c r="D15" s="222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="254">
-        <v>100</v>
-      </c>
-      <c r="G15" s="263">
-        <v>0</v>
-      </c>
-      <c r="H15" s="263">
-        <v>0</v>
-      </c>
-      <c r="I15" s="263">
-        <v>0</v>
+        <v>254</v>
+      </c>
+      <c r="F15" s="341">
+        <v>100</v>
+      </c>
+      <c r="G15" s="341">
+        <v>100</v>
+      </c>
+      <c r="H15" s="341">
+        <v>90</v>
+      </c>
+      <c r="I15" s="341">
+        <v>80</v>
       </c>
       <c r="J15" s="254"/>
       <c r="K15" s="254"/>
@@ -5243,32 +5076,32 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="236" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="C16" s="260">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>( (D16/$D$3)*100 + F16 + G16 + H16 + I16)/($E$3+1)</f>
+        <v>84</v>
       </c>
       <c r="D16" s="222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F16" s="254">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16" s="254">
-        <v>0</v>
-      </c>
-      <c r="H16" s="254">
-        <v>0</v>
-      </c>
-      <c r="I16" s="254">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H16" s="263">
+        <v>60</v>
+      </c>
+      <c r="I16" s="263">
+        <v>60</v>
       </c>
       <c r="J16" s="254"/>
       <c r="K16" s="254"/>
@@ -5286,32 +5119,32 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="220">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="236" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="C17" s="260">
-        <f t="shared" si="0"/>
+        <f>( (D17/$D$3)*100 + F17 + G17 + H17 + I17)/($E$3+1)</f>
         <v>92</v>
       </c>
       <c r="D17" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="341">
+        <v>256</v>
+      </c>
+      <c r="F17" s="254">
+        <v>100</v>
+      </c>
+      <c r="G17" s="254">
+        <v>100</v>
+      </c>
+      <c r="H17" s="254">
         <v>80</v>
       </c>
-      <c r="G17" s="341">
-        <v>100</v>
-      </c>
-      <c r="H17" s="341">
-        <v>100</v>
-      </c>
-      <c r="I17" s="341">
-        <v>100</v>
+      <c r="I17" s="254">
+        <v>80</v>
       </c>
       <c r="J17" s="254"/>
       <c r="K17" s="254"/>
@@ -5329,20 +5162,20 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="220">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="236" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="260">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>( (D18/$D$3)*100 + F18 + G18 + H18 + I18)/($E$3+1)</f>
+        <v>100</v>
       </c>
       <c r="D18" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F18" s="341">
         <v>100</v>
@@ -5351,10 +5184,10 @@
         <v>100</v>
       </c>
       <c r="H18" s="341">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I18" s="341">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J18" s="254"/>
       <c r="K18" s="254"/>
@@ -5372,32 +5205,32 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="220">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="236" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C19" s="260">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f>( (D19/$D$3)*100 + F19 + G19 + H19 + I19)/($E$3+1)</f>
+        <v>32</v>
       </c>
       <c r="D19" s="222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F19" s="254">
         <v>100</v>
       </c>
       <c r="G19" s="254">
-        <v>100</v>
-      </c>
-      <c r="H19" s="263">
-        <v>60</v>
-      </c>
-      <c r="I19" s="263">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="254">
+        <v>0</v>
+      </c>
+      <c r="I19" s="254">
+        <v>0</v>
       </c>
       <c r="J19" s="254"/>
       <c r="K19" s="254"/>
@@ -5415,20 +5248,20 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="220">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="236" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" s="260">
-        <f t="shared" si="0"/>
+        <f>( (D20/$D$3)*100 + F20 + G20 + H20 + I20)/($E$3+1)</f>
         <v>100</v>
       </c>
       <c r="D20" s="222">
         <v>5</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F20" s="341">
         <v>100</v>
@@ -5457,135 +5290,12 @@
       <c r="V20" s="259"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="220">
-        <v>19</v>
-      </c>
-      <c r="B21" s="236" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="260">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D21" s="222">
-        <v>3</v>
-      </c>
-      <c r="E21" s="111" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="254">
-        <v>100</v>
-      </c>
-      <c r="G21" s="254">
-        <v>0</v>
-      </c>
-      <c r="H21" s="254">
-        <v>0</v>
-      </c>
-      <c r="I21" s="254">
-        <v>0</v>
-      </c>
-      <c r="J21" s="254"/>
-      <c r="K21" s="254"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="254"/>
-      <c r="O21" s="254"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="259"/>
-      <c r="S21" s="259"/>
-      <c r="T21" s="259"/>
-      <c r="U21" s="259"/>
-      <c r="V21" s="259"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="220">
-        <v>20</v>
-      </c>
-      <c r="B22" s="236" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D22" s="222">
-        <v>5</v>
-      </c>
-      <c r="E22" s="111" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="341">
-        <v>100</v>
-      </c>
-      <c r="G22" s="341">
-        <v>100</v>
-      </c>
-      <c r="H22" s="341">
-        <v>100</v>
-      </c>
-      <c r="I22" s="341">
-        <v>100</v>
-      </c>
-      <c r="J22" s="254"/>
-      <c r="K22" s="254"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="254"/>
-      <c r="N22" s="254"/>
-      <c r="O22" s="254"/>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="259"/>
-      <c r="S22" s="259"/>
-      <c r="T22" s="259"/>
-      <c r="U22" s="259"/>
-      <c r="V22" s="259"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="220">
-        <v>21</v>
-      </c>
-      <c r="B23" s="236" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="260">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D23" s="222">
-        <v>5</v>
-      </c>
-      <c r="E23" s="111" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="254">
-        <v>100</v>
-      </c>
-      <c r="G23" s="254">
-        <v>100</v>
-      </c>
-      <c r="H23" s="254">
-        <v>80</v>
-      </c>
-      <c r="I23" s="254">
-        <v>80</v>
-      </c>
-      <c r="J23" s="254"/>
-      <c r="K23" s="254"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="254"/>
-      <c r="N23" s="254"/>
-      <c r="O23" s="254"/>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="259"/>
-      <c r="S23" s="259"/>
-      <c r="T23" s="259"/>
-      <c r="U23" s="259"/>
-      <c r="V23" s="259"/>
+      <c r="A21" s="220"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P20">
+    <sortCondition ref="B5:B20"/>
+  </sortState>
   <mergeCells count="11">
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:M4"/>
@@ -5605,33 +5315,30 @@
     <hyperlink ref="E7" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
     <hyperlink ref="E8" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
     <hyperlink ref="E9" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
-    <hyperlink ref="E10" r:id="rId6" tooltip="https://github.com/TheR1nkro/Visual" xr:uid="{1734F9EE-741A-451E-BCE8-05AFAF16B208}"/>
-    <hyperlink ref="E11" r:id="rId7" tooltip="https://github.com/NikitaMakarov393/android-project" xr:uid="{A32B8164-0FED-440D-B5B9-379D4DC4C647}"/>
-    <hyperlink ref="E12" r:id="rId8" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
-    <hyperlink ref="E13" r:id="rId9" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
-    <hyperlink ref="E14" r:id="rId10" tooltip="https://github.com/Tesayaa/programming" xr:uid="{50040EBD-6A0B-4CD3-8401-4A8E7F4D1188}"/>
-    <hyperlink ref="E15" r:id="rId11" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
-    <hyperlink ref="E16" r:id="rId12" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
-    <hyperlink ref="E17" r:id="rId13" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
-    <hyperlink ref="E18" r:id="rId14" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
-    <hyperlink ref="E19" r:id="rId15" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
-    <hyperlink ref="E23" r:id="rId16" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
-    <hyperlink ref="E20" r:id="rId17" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
-    <hyperlink ref="E21" r:id="rId18" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
-    <hyperlink ref="E22" r:id="rId19" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
+    <hyperlink ref="E10" r:id="rId6" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
+    <hyperlink ref="E11" r:id="rId7" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
+    <hyperlink ref="E12" r:id="rId8" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
+    <hyperlink ref="E14" r:id="rId10" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
+    <hyperlink ref="E15" r:id="rId11" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
+    <hyperlink ref="E16" r:id="rId12" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
+    <hyperlink ref="E17" r:id="rId13" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
+    <hyperlink ref="E18" r:id="rId14" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
+    <hyperlink ref="E19" r:id="rId15" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
+    <hyperlink ref="E20" r:id="rId16" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5655,57 +5362,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="347" t="s">
+      <c r="G1" s="348" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="351" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="345" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="350" t="s">
-        <v>305</v>
-      </c>
-      <c r="I1" s="344" t="s">
-        <v>306</v>
-      </c>
-      <c r="J1" s="344" t="s">
-        <v>307</v>
-      </c>
-      <c r="K1" s="344" t="s">
-        <v>301</v>
-      </c>
-      <c r="L1" s="344" t="s">
-        <v>302</v>
-      </c>
-      <c r="M1" s="344" t="s">
-        <v>303</v>
-      </c>
-      <c r="N1" s="344" t="s">
-        <v>304</v>
-      </c>
-      <c r="O1" s="344" t="s">
-        <v>308</v>
-      </c>
-      <c r="P1" s="344" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q1" s="353" t="s">
-        <v>310</v>
+      <c r="O1" s="345" t="s">
+        <v>296</v>
+      </c>
+      <c r="P1" s="345" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q1" s="354" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="348"/>
-      <c r="H2" s="351"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
-      <c r="O2" s="345"/>
-      <c r="P2" s="345"/>
-      <c r="Q2" s="354"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="225" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C3" s="249"/>
       <c r="D3" s="220">
@@ -5715,28 +5422,28 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="348"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="354"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="355"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
       <c r="B4" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="356" t="s">
-        <v>299</v>
+      <c r="C4" s="344" t="s">
+        <v>287</v>
       </c>
       <c r="D4" s="275" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="275">
         <v>45918</v>
@@ -5744,20 +5451,20 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="349"/>
-      <c r="H4" s="352"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
-      <c r="O4" s="346"/>
-      <c r="P4" s="346"/>
-      <c r="Q4" s="355"/>
+      <c r="G4" s="350"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="347"/>
+      <c r="Q4" s="356"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="T4" s="266"/>
       <c r="U4" s="266"/>
@@ -5771,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="272" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C5" s="260">
         <f>(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
@@ -5784,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="239" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G5" s="273">
         <v>100</v>
@@ -5819,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="236" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C6" s="260">
-        <f t="shared" ref="C6:C30" si="0">(D6/$D$3*100 + G6 + H6 + I6 + J6)/($F$3+1)</f>
+        <f>(D6/$D$3*100 + G6 + H6 + I6 + J6)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D6" s="222">
@@ -5832,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="111" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G6" s="119">
         <v>100</v>
@@ -5867,10 +5574,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="236" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C7" s="260">
-        <f t="shared" si="0"/>
+        <f>(D7/$D$3*100 + G7 + H7 + I7 + J7)/($F$3+1)</f>
         <v>95</v>
       </c>
       <c r="D7" s="222">
@@ -5880,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G7" s="26">
         <v>100</v>
@@ -5915,10 +5622,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="236" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C8" s="260">
-        <f t="shared" si="0"/>
+        <f>(D8/$D$3*100 + G8 + H8 + I8 + J8)/($F$3+1)</f>
         <v>72</v>
       </c>
       <c r="D8" s="222">
@@ -5928,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="111" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G8" s="153">
         <v>40</v>
@@ -5963,10 +5670,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="236" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9" s="260">
-        <f t="shared" si="0"/>
+        <f>(D9/$D$3*100 + G9 + H9 + I9 + J9)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D9" s="222">
@@ -5976,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="111" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G9" s="26">
         <v>100</v>
@@ -6011,10 +5718,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="236" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="260">
-        <f t="shared" si="0"/>
+        <f>(D10/$D$3*100 + G10 + H10 + I10 + J10)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D10" s="222">
@@ -6024,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G10" s="26">
         <v>100</v>
@@ -6059,10 +5766,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="339" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="260">
-        <f t="shared" si="0"/>
+        <f>(D11/$D$3*100 + G11 + H11 + I11 + J11)/($F$3+1)</f>
         <v>92</v>
       </c>
       <c r="D11" s="222">
@@ -6072,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="111" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G11" s="26">
         <v>100</v>
@@ -6107,10 +5814,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="236" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C12" s="260">
-        <f t="shared" si="0"/>
+        <f>(D12/$D$3*100 + G12 + H12 + I12 + J12)/($F$3+1)</f>
         <v>50</v>
       </c>
       <c r="D12" s="222">
@@ -6120,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="111" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G12" s="26">
         <v>100</v>
@@ -6155,10 +5862,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="236" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C13" s="260">
-        <f t="shared" si="0"/>
+        <f>(D13/$D$3*100 + G13 + H13 + I13 + J13)/($F$3+1)</f>
         <v>90</v>
       </c>
       <c r="D13" s="222">
@@ -6168,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G13" s="26">
         <v>100</v>
@@ -6203,10 +5910,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="236" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C14" s="260">
-        <f t="shared" si="0"/>
+        <f>(D14/$D$3*100 + G14 + H14 + I14 + J14)/($F$3+1)</f>
         <v>24</v>
       </c>
       <c r="D14" s="222">
@@ -6216,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="228" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -6251,10 +5958,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="237" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C15" s="260">
-        <f t="shared" si="0"/>
+        <f>(D15/$D$3*100 + G15 + H15 + I15 + J15)/($F$3+1)</f>
         <v>96</v>
       </c>
       <c r="D15" s="222">
@@ -6264,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G15" s="119">
         <v>100</v>
@@ -6299,10 +6006,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="236" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C16" s="260">
-        <f t="shared" si="0"/>
+        <f>(D16/$D$3*100 + G16 + H16 + I16 + J16)/($F$3+1)</f>
         <v>90</v>
       </c>
       <c r="D16" s="222">
@@ -6312,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G16" s="153">
         <v>50</v>
@@ -6347,10 +6054,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="236" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="260">
-        <f t="shared" si="0"/>
+        <f>(D17/$D$3*100 + G17 + H17 + I17 + J17)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D17" s="222">
@@ -6360,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G17" s="119">
         <v>100</v>
@@ -6395,10 +6102,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="236" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C18" s="260">
-        <f t="shared" si="0"/>
+        <f>(D18/$D$3*100 + G18 + H18 + I18 + J18)/($F$3+1)</f>
         <v>92</v>
       </c>
       <c r="D18" s="222">
@@ -6408,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G18" s="119">
         <v>100</v>
@@ -6440,23 +6147,23 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="220">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="236" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C19" s="260">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>(D19/$D$3*100 + G19 + H19 + I19 + J19)/($F$3+1)</f>
+        <v>69</v>
       </c>
       <c r="D19" s="222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="222">
         <v>1</v>
       </c>
-      <c r="F19" s="228" t="s">
-        <v>297</v>
+      <c r="F19" s="111" t="s">
+        <v>232</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6465,10 +6172,10 @@
         <v>100</v>
       </c>
       <c r="I19" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J19" s="26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
@@ -6488,35 +6195,35 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="220">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="236" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C20" s="260">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f>(D20/$D$3*100 + G20 + H20 + I20 + J20)/($F$3+1)</f>
+        <v>88</v>
       </c>
       <c r="D20" s="222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="222">
         <v>1</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="26">
-        <v>100</v>
-      </c>
-      <c r="H20" s="26">
-        <v>100</v>
-      </c>
-      <c r="I20" s="26">
-        <v>60</v>
-      </c>
-      <c r="J20" s="26">
-        <v>60</v>
+        <v>233</v>
+      </c>
+      <c r="G20" s="119">
+        <v>100</v>
+      </c>
+      <c r="H20" s="119">
+        <v>100</v>
+      </c>
+      <c r="I20" s="119">
+        <v>70</v>
+      </c>
+      <c r="J20" s="119">
+        <v>70</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
@@ -6536,14 +6243,14 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="220">
-        <v>17</v>
-      </c>
-      <c r="B21" s="236" t="s">
-        <v>204</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="247" t="s">
+        <v>199</v>
       </c>
       <c r="C21" s="260">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>(D21/$D$3*100 + G21 + H21 + I21 + J21)/($F$3+1)</f>
+        <v>80</v>
       </c>
       <c r="D21" s="222">
         <v>4</v>
@@ -6552,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G21" s="119">
         <v>100</v>
@@ -6560,11 +6267,11 @@
       <c r="H21" s="119">
         <v>100</v>
       </c>
-      <c r="I21" s="119">
-        <v>70</v>
-      </c>
-      <c r="J21" s="119">
-        <v>70</v>
+      <c r="I21" s="176">
+        <v>50</v>
+      </c>
+      <c r="J21" s="176">
+        <v>50</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -6584,14 +6291,14 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="220">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="247" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C22" s="260">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>(D22/$D$3*100 + G22 + H22 + I22 + J22)/($F$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D22" s="222">
         <v>4</v>
@@ -6600,19 +6307,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G22" s="119">
         <v>100</v>
       </c>
       <c r="H22" s="119">
-        <v>100</v>
-      </c>
-      <c r="I22" s="176">
-        <v>50</v>
-      </c>
-      <c r="J22" s="176">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="I22" s="119">
+        <v>100</v>
+      </c>
+      <c r="J22" s="119">
+        <v>100</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
@@ -6632,14 +6339,14 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="220">
-        <v>19</v>
-      </c>
-      <c r="B23" s="247" t="s">
-        <v>206</v>
+        <v>20</v>
+      </c>
+      <c r="B23" s="236" t="s">
+        <v>201</v>
       </c>
       <c r="C23" s="260">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>(D23/$D$3*100 + G23 + H23 + I23 + J23)/($F$3+1)</f>
+        <v>100</v>
       </c>
       <c r="D23" s="222">
         <v>4</v>
@@ -6648,13 +6355,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="G23" s="119">
         <v>100</v>
       </c>
       <c r="H23" s="119">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I23" s="119">
         <v>100</v>
@@ -6680,23 +6387,23 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="220">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="236" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C24" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>(D24/$D$3*100 + G24 + H24 + I24 + J24)/($F$3+1)</f>
+        <v>82</v>
       </c>
       <c r="D24" s="222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="222">
         <v>1</v>
       </c>
       <c r="F24" s="111" t="s">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="G24" s="119">
         <v>100</v>
@@ -6705,10 +6412,10 @@
         <v>100</v>
       </c>
       <c r="I24" s="119">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J24" s="119">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
@@ -6728,23 +6435,23 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="220">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="236" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C25" s="260">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f>(D25/$D$3*100 + G25 + H25 + I25 + J25)/($F$3+1)</f>
+        <v>100</v>
       </c>
       <c r="D25" s="222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="222">
         <v>1</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G25" s="119">
         <v>100</v>
@@ -6753,10 +6460,10 @@
         <v>100</v>
       </c>
       <c r="I25" s="119">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J25" s="119">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
@@ -6776,13 +6483,13 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="220">
-        <v>22</v>
-      </c>
-      <c r="B26" s="236" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="B26" s="247" t="s">
+        <v>204</v>
       </c>
       <c r="C26" s="260">
-        <f t="shared" si="0"/>
+        <f>(D26/$D$3*100 + G26 + H26 + I26 + J26)/($F$3+1)</f>
         <v>100</v>
       </c>
       <c r="D26" s="222">
@@ -6792,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="111" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G26" s="119">
         <v>100</v>
@@ -6824,14 +6531,14 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="220">
-        <v>23</v>
-      </c>
-      <c r="B27" s="247" t="s">
-        <v>210</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="236" t="s">
+        <v>205</v>
       </c>
       <c r="C27" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>(D27/$D$3*100 + G27 + H27 + I27 + J27)/($F$3+1)</f>
+        <v>92</v>
       </c>
       <c r="D27" s="222">
         <v>4</v>
@@ -6840,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G27" s="119">
         <v>100</v>
@@ -6849,10 +6556,10 @@
         <v>100</v>
       </c>
       <c r="I27" s="119">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J27" s="119">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
@@ -6872,14 +6579,14 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="220">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="236" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" s="260">
-        <f t="shared" si="0"/>
-        <v>92</v>
+        <f>(D28/$D$3*100 + G28 + H28 + I28 + J28)/($F$3+1)</f>
+        <v>100</v>
       </c>
       <c r="D28" s="222">
         <v>4</v>
@@ -6888,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="111" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G28" s="119">
         <v>100</v>
@@ -6897,10 +6604,10 @@
         <v>100</v>
       </c>
       <c r="I28" s="119">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J28" s="119">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
@@ -6920,23 +6627,23 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="220">
-        <v>25</v>
-      </c>
-      <c r="B29" s="236" t="s">
-        <v>212</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="247" t="s">
+        <v>215</v>
       </c>
       <c r="C29" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>(D29/$D$3*100 + G29 + H29 + I29 + J29)/($F$3+1)</f>
+        <v>96</v>
       </c>
       <c r="D29" s="222">
         <v>4</v>
       </c>
       <c r="E29" s="222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G29" s="119">
         <v>100</v>
@@ -6945,10 +6652,10 @@
         <v>100</v>
       </c>
       <c r="I29" s="119">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J29" s="119">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
@@ -6966,55 +6673,10 @@
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="220">
-        <v>26</v>
-      </c>
-      <c r="B30" s="247" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="260">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="D30" s="222">
-        <v>4</v>
-      </c>
-      <c r="E30" s="222">
-        <v>0</v>
-      </c>
-      <c r="F30" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" s="119">
-        <v>100</v>
-      </c>
-      <c r="H30" s="119">
-        <v>100</v>
-      </c>
-      <c r="I30" s="119">
-        <v>90</v>
-      </c>
-      <c r="J30" s="119">
-        <v>90</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:Q29">
+    <sortCondition ref="B5:B29"/>
+  </sortState>
   <mergeCells count="11">
     <mergeCell ref="M1:M4"/>
     <mergeCell ref="N1:N4"/>
@@ -7038,26 +6700,25 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{9B5467F3-275A-4044-B6CD-786973FDF92A}"/>
     <hyperlink ref="F12" r:id="rId8" xr:uid="{D4B1C9C5-26A7-4FEB-AA51-5AE771C466CF}"/>
     <hyperlink ref="F13" r:id="rId9" xr:uid="{78FC8668-CD49-44DC-BB6E-0DB5B667FCE0}"/>
-    <hyperlink ref="F26" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
-    <hyperlink ref="F24" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
-    <hyperlink ref="F23" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
-    <hyperlink ref="F22" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{9FC66E8A-2113-40A8-92D8-A8B2FC4688E7}"/>
+    <hyperlink ref="F24" r:id="rId11" xr:uid="{F3C0E5DA-D60C-405F-B8B9-35BD94AB8AF4}"/>
+    <hyperlink ref="F23" r:id="rId12" xr:uid="{E79A1098-F96D-48F1-9957-290713C03C52}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{B2374F8A-CBD4-4038-9107-D79F626EDBE4}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{FFFC6D9A-038F-46C3-9095-BB4AB622B94D}"/>
     <hyperlink ref="F16" r:id="rId15" xr:uid="{66A52F54-5ADB-4D2A-BE1B-E679F92805A7}"/>
     <hyperlink ref="F15" r:id="rId16" xr:uid="{EB085A4D-DD72-4AA6-BBB4-28C48DE00618}"/>
-    <hyperlink ref="F28" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
-    <hyperlink ref="F29" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
-    <hyperlink ref="F27" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
-    <hyperlink ref="F30" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
-    <hyperlink ref="F20" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
+    <hyperlink ref="F27" r:id="rId17" xr:uid="{608DA759-EADE-4AD8-8E39-ACD47E49E99D}"/>
+    <hyperlink ref="F28" r:id="rId18" xr:uid="{82A4A84B-7889-4948-A2AD-7DE3CF0A3BBF}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{6ABDB2BA-A86D-412D-9514-B0B5D3B91A31}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{A285322C-835E-4476-825F-1068E102AC45}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{D992D2B4-FE24-4792-BB06-9BFEF2B6A17F}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{89664A75-24A0-4AE9-91C9-7C847C5FCB62}"/>
     <hyperlink ref="F17" r:id="rId23" xr:uid="{64C6FB32-A74F-407A-8B86-6909164CC679}"/>
     <hyperlink ref="F18" r:id="rId24" xr:uid="{74C59837-C579-4FB8-8995-606140335EAD}"/>
-    <hyperlink ref="F19" r:id="rId25" tooltip="https://github.com/Nimda3/Visual-programming" xr:uid="{442DC397-A830-45C2-8248-B84CCC0F261B}"/>
-    <hyperlink ref="F14" r:id="rId26" tooltip="https://github.com/mitsum551/Android" xr:uid="{CF3532AD-8157-4BBA-B73B-B8998A61BF2D}"/>
+    <hyperlink ref="F14" r:id="rId25" tooltip="https://github.com/mitsum551/Android" xr:uid="{CF3532AD-8157-4BBA-B73B-B8998A61BF2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -7228,7 +6889,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -7319,19 +6980,19 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AL2" s="21" t="s">
         <v>145</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AN2" s="21"/>
       <c r="AO2" s="23"/>
@@ -7453,7 +7114,7 @@
       </c>
       <c r="AQ3" s="26"/>
       <c r="AR3" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -8610,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F14" s="28">
         <v>1</v>
@@ -8824,7 +8485,7 @@
       </c>
       <c r="AQ15" s="26"/>
       <c r="AR15" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -9977,7 +9638,7 @@
     </row>
     <row r="26" spans="1:64" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="215" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B26" s="25">
         <v>0</v>
@@ -12734,65 +12395,65 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="230" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="230" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C3" s="270" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="270" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="270" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="270" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="270" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="270" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="270" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="270" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="270" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="270" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="270" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D203CE-D5FA-4220-B967-53E9B5584A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA273654-736A-4C19-9CD2-B3EC40D6C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="15345" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -2899,6 +2899,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2915,15 +2924,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3351,10 +3351,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="354" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="345" t="s">
@@ -3381,13 +3381,13 @@
       <c r="O1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="348" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="355"/>
       <c r="H2" s="346"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
@@ -3396,7 +3396,7 @@
       <c r="M2" s="346"/>
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="P2" s="349"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3410,8 +3410,8 @@
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="355"/>
       <c r="H3" s="346"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
@@ -3420,7 +3420,7 @@
       <c r="M3" s="346"/>
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="P3" s="349"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3436,8 +3436,8 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="356"/>
       <c r="H4" s="347"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
@@ -3446,7 +3446,7 @@
       <c r="M4" s="347"/>
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="P4" s="350"/>
       <c r="Q4" s="264" t="s">
         <v>299</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="257">
-        <f>((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
+        <f t="shared" ref="C5:C25" si="0">((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
         <v>6.6666666666666661</v>
       </c>
       <c r="D5" s="255">
@@ -3510,7 +3510,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="257">
-        <f>((D6/$D$3)*100 + F6 + G6+H6+I6)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D6" s="256">
@@ -3555,7 +3555,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="257">
-        <f>((D7/$D$3)*100 + F7 + G7+H7+I7)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D7" s="256">
@@ -3600,7 +3600,7 @@
         <v>278</v>
       </c>
       <c r="C8" s="257">
-        <f>((D8/$D$3)*100 + F8 + G8+H8+I8)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666661</v>
       </c>
       <c r="D8" s="254">
@@ -3645,7 +3645,7 @@
         <v>162</v>
       </c>
       <c r="C9" s="257">
-        <f>((D9/$D$3)*100 + F9 + G9+H9+I9)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>13.333333333333332</v>
       </c>
       <c r="D9" s="254">
@@ -3690,7 +3690,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="257">
-        <f>((D10/$D$3)*100 + F10 + G10+H10+I10)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D10" s="254">
@@ -3735,7 +3735,7 @@
         <v>160</v>
       </c>
       <c r="C11" s="257">
-        <f>((D11/$D$3)*100 + F11 + G11+H11+I11)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D11" s="254">
@@ -3780,7 +3780,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="257">
-        <f>((D12/$D$3)*100 + F12 + G12+H12+I12)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D12" s="254">
@@ -3825,7 +3825,7 @@
         <v>158</v>
       </c>
       <c r="C13" s="257">
-        <f>((D13/$D$3)*100 + F13 + G13+H13+I13)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="254">
@@ -3870,7 +3870,7 @@
         <v>157</v>
       </c>
       <c r="C14" s="257">
-        <f>((D14/$D$3)*100 + F14 + G14+H14+I14)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D14" s="254">
@@ -3915,7 +3915,7 @@
         <v>283</v>
       </c>
       <c r="C15" s="257">
-        <f>((D15/$D$3)*100 + F15 + G15+H15+I15)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="254">
@@ -3958,7 +3958,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="257">
-        <f>((D16/$D$3)*100 + F16 + G16+H16+I16)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>85.333333333333329</v>
       </c>
       <c r="D16" s="254">
@@ -4003,7 +4003,7 @@
         <v>155</v>
       </c>
       <c r="C17" s="257">
-        <f>((D17/$D$3)*100 + F17 + G17+H17+I17)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D17" s="254">
@@ -4048,7 +4048,7 @@
         <v>154</v>
       </c>
       <c r="C18" s="257">
-        <f>((D18/$D$3)*100 + F18 + G18+H18+I18)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="D18" s="254">
@@ -4093,7 +4093,7 @@
         <v>153</v>
       </c>
       <c r="C19" s="257">
-        <f>((D19/$D$3)*100 + F19 + G19+H19+I19)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D19" s="254">
@@ -4138,7 +4138,7 @@
         <v>152</v>
       </c>
       <c r="C20" s="257">
-        <f>((D20/$D$3)*100 + F20 + G20+H20+I20)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="D20" s="254">
@@ -4183,7 +4183,7 @@
         <v>218</v>
       </c>
       <c r="C21" s="257">
-        <f>((D21/$D$3)*100 + F21 + G21+H21+I21)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D21" s="254">
@@ -4228,7 +4228,7 @@
         <v>151</v>
       </c>
       <c r="C22" s="257">
-        <f>((D22/$D$3)*100 + F22 + G22+H22+I22)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D22" s="254">
@@ -4273,7 +4273,7 @@
         <v>150</v>
       </c>
       <c r="C23" s="257">
-        <f>((D23/$D$3)*100 + F23 + G23+H23+I23)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>67.333333333333329</v>
       </c>
       <c r="D23" s="254">
@@ -4318,7 +4318,7 @@
         <v>149</v>
       </c>
       <c r="C24" s="257">
-        <f>((D24/$D$3)*100 + F24 + G24+H24+I24)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D24" s="254">
@@ -4363,7 +4363,7 @@
         <v>148</v>
       </c>
       <c r="C25" s="257">
-        <f>((D25/$D$3)*100 + F25 + G25+H25+I25)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="D25" s="254">
@@ -4429,17 +4429,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4472,8 +4472,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,10 +4496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="354" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="345" t="s">
@@ -4526,13 +4526,13 @@
       <c r="O1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="348" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
+      <c r="F2" s="352"/>
+      <c r="G2" s="355"/>
       <c r="H2" s="346"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
@@ -4541,7 +4541,7 @@
       <c r="M2" s="346"/>
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="P2" s="349"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4555,8 +4555,8 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="355"/>
       <c r="H3" s="346"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
@@ -4565,7 +4565,7 @@
       <c r="M3" s="346"/>
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="P3" s="349"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4581,8 +4581,8 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="356"/>
       <c r="H4" s="347"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
@@ -4591,7 +4591,7 @@
       <c r="M4" s="347"/>
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="P4" s="350"/>
       <c r="Q4" s="265" t="s">
         <v>299</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>168</v>
       </c>
       <c r="C5" s="260">
-        <f>( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
+        <f t="shared" ref="C5:C20" si="0">( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
         <v>100</v>
       </c>
       <c r="D5" s="238">
@@ -4652,7 +4652,7 @@
         <v>169</v>
       </c>
       <c r="C6" s="260">
-        <f>( (D6/$D$3)*100 + F6 + G6 + H6 + I6)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D6" s="222">
@@ -4695,7 +4695,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="260">
-        <f>( (D7/$D$3)*100 + F7 + G7 + H7 + I7)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D7" s="222">
@@ -4738,7 +4738,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="260">
-        <f>( (D8/$D$3)*100 + F8 + G8 + H8 + I8)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="D8" s="222">
@@ -4781,7 +4781,7 @@
         <v>172</v>
       </c>
       <c r="C9" s="260">
-        <f>( (D9/$D$3)*100 + F9 + G9 + H9 + I9)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D9" s="222">
@@ -4824,7 +4824,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="260">
-        <f>( (D10/$D$3)*100 + F10 + G10 + H10 + I10)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D10" s="222">
@@ -4867,7 +4867,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="260">
-        <f>( (D11/$D$3)*100 + F11 + G11 + H11 + I11)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D11" s="222">
@@ -4910,7 +4910,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="260">
-        <f>( (D12/$D$3)*100 + F12 + G12 + H12 + I12)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D12" s="222">
@@ -4953,7 +4953,7 @@
         <v>216</v>
       </c>
       <c r="C13" s="260">
-        <f>( (D13/$D$3)*100 + F13 + G13 + H13 + I13)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D13" s="222">
@@ -4996,7 +4996,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="260">
-        <f>( (D14/$D$3)*100 + F14 + G14 + H14 + I14)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D14" s="222">
@@ -5039,7 +5039,7 @@
         <v>177</v>
       </c>
       <c r="C15" s="260">
-        <f>( (D15/$D$3)*100 + F15 + G15 + H15 + I15)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D15" s="222">
@@ -5082,7 +5082,7 @@
         <v>178</v>
       </c>
       <c r="C16" s="260">
-        <f>( (D16/$D$3)*100 + F16 + G16 + H16 + I16)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D16" s="222">
@@ -5125,7 +5125,7 @@
         <v>217</v>
       </c>
       <c r="C17" s="260">
-        <f>( (D17/$D$3)*100 + F17 + G17 + H17 + I17)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D17" s="222">
@@ -5168,7 +5168,7 @@
         <v>179</v>
       </c>
       <c r="C18" s="260">
-        <f>( (D18/$D$3)*100 + F18 + G18 + H18 + I18)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" s="222">
@@ -5189,7 +5189,9 @@
       <c r="I18" s="341">
         <v>100</v>
       </c>
-      <c r="J18" s="254"/>
+      <c r="J18" s="254">
+        <v>50</v>
+      </c>
       <c r="K18" s="254"/>
       <c r="L18" s="254"/>
       <c r="M18" s="254"/>
@@ -5211,7 +5213,7 @@
         <v>180</v>
       </c>
       <c r="C19" s="260">
-        <f>( (D19/$D$3)*100 + F19 + G19 + H19 + I19)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="D19" s="222">
@@ -5254,7 +5256,7 @@
         <v>181</v>
       </c>
       <c r="C20" s="260">
-        <f>( (D20/$D$3)*100 + F20 + G20 + H20 + I20)/($E$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D20" s="222">
@@ -5275,7 +5277,9 @@
       <c r="I20" s="341">
         <v>100</v>
       </c>
-      <c r="J20" s="254"/>
+      <c r="J20" s="254">
+        <v>50</v>
+      </c>
       <c r="K20" s="254"/>
       <c r="L20" s="254"/>
       <c r="M20" s="254"/>
@@ -5297,17 +5301,17 @@
     <sortCondition ref="B5:B20"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5337,7 +5341,7 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5362,10 +5366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="348" t="s">
+      <c r="G1" s="351" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="351" t="s">
+      <c r="H1" s="354" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="345" t="s">
@@ -5392,13 +5396,13 @@
       <c r="P1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" s="354" t="s">
+      <c r="Q1" s="348" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="349"/>
-      <c r="H2" s="352"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="355"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
       <c r="K2" s="346"/>
@@ -5407,7 +5411,7 @@
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
       <c r="P2" s="346"/>
-      <c r="Q2" s="355"/>
+      <c r="Q2" s="349"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5422,8 +5426,8 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="355"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
       <c r="K3" s="346"/>
@@ -5432,7 +5436,7 @@
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
       <c r="P3" s="346"/>
-      <c r="Q3" s="355"/>
+      <c r="Q3" s="349"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
@@ -5451,8 +5455,8 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="350"/>
-      <c r="H4" s="353"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="356"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
       <c r="K4" s="347"/>
@@ -5461,7 +5465,7 @@
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
       <c r="P4" s="347"/>
-      <c r="Q4" s="356"/>
+      <c r="Q4" s="350"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
         <v>299</v>
@@ -5481,7 +5485,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="260">
-        <f>(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
+        <f t="shared" ref="C5:C29" si="0">(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
         <v>40</v>
       </c>
       <c r="D5" s="238">
@@ -5529,7 +5533,7 @@
         <v>185</v>
       </c>
       <c r="C6" s="260">
-        <f>(D6/$D$3*100 + G6 + H6 + I6 + J6)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D6" s="222">
@@ -5577,7 +5581,7 @@
         <v>186</v>
       </c>
       <c r="C7" s="260">
-        <f>(D7/$D$3*100 + G7 + H7 + I7 + J7)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D7" s="222">
@@ -5625,7 +5629,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="260">
-        <f>(D8/$D$3*100 + G8 + H8 + I8 + J8)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D8" s="222">
@@ -5673,7 +5677,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="260">
-        <f>(D9/$D$3*100 + G9 + H9 + I9 + J9)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D9" s="222">
@@ -5721,7 +5725,7 @@
         <v>189</v>
       </c>
       <c r="C10" s="260">
-        <f>(D10/$D$3*100 + G10 + H10 + I10 + J10)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D10" s="222">
@@ -5769,7 +5773,7 @@
         <v>190</v>
       </c>
       <c r="C11" s="260">
-        <f>(D11/$D$3*100 + G11 + H11 + I11 + J11)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D11" s="222">
@@ -5817,7 +5821,7 @@
         <v>191</v>
       </c>
       <c r="C12" s="260">
-        <f>(D12/$D$3*100 + G12 + H12 + I12 + J12)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="D12" s="222">
@@ -5865,7 +5869,7 @@
         <v>192</v>
       </c>
       <c r="C13" s="260">
-        <f>(D13/$D$3*100 + G13 + H13 + I13 + J13)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D13" s="222">
@@ -5913,7 +5917,7 @@
         <v>193</v>
       </c>
       <c r="C14" s="260">
-        <f>(D14/$D$3*100 + G14 + H14 + I14 + J14)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D14" s="222">
@@ -5961,7 +5965,7 @@
         <v>194</v>
       </c>
       <c r="C15" s="260">
-        <f>(D15/$D$3*100 + G15 + H15 + I15 + J15)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D15" s="222">
@@ -6009,7 +6013,7 @@
         <v>214</v>
       </c>
       <c r="C16" s="260">
-        <f>(D16/$D$3*100 + G16 + H16 + I16 + J16)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D16" s="222">
@@ -6057,7 +6061,7 @@
         <v>195</v>
       </c>
       <c r="C17" s="260">
-        <f>(D17/$D$3*100 + G17 + H17 + I17 + J17)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" s="222">
@@ -6105,7 +6109,7 @@
         <v>196</v>
       </c>
       <c r="C18" s="260">
-        <f>(D18/$D$3*100 + G18 + H18 + I18 + J18)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D18" s="222">
@@ -6153,7 +6157,7 @@
         <v>197</v>
       </c>
       <c r="C19" s="260">
-        <f>(D19/$D$3*100 + G19 + H19 + I19 + J19)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D19" s="222">
@@ -6201,7 +6205,7 @@
         <v>198</v>
       </c>
       <c r="C20" s="260">
-        <f>(D20/$D$3*100 + G20 + H20 + I20 + J20)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D20" s="222">
@@ -6249,7 +6253,7 @@
         <v>199</v>
       </c>
       <c r="C21" s="260">
-        <f>(D21/$D$3*100 + G21 + H21 + I21 + J21)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D21" s="222">
@@ -6297,7 +6301,7 @@
         <v>200</v>
       </c>
       <c r="C22" s="260">
-        <f>(D22/$D$3*100 + G22 + H22 + I22 + J22)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D22" s="222">
@@ -6345,7 +6349,7 @@
         <v>201</v>
       </c>
       <c r="C23" s="260">
-        <f>(D23/$D$3*100 + G23 + H23 + I23 + J23)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D23" s="222">
@@ -6393,7 +6397,7 @@
         <v>202</v>
       </c>
       <c r="C24" s="260">
-        <f>(D24/$D$3*100 + G24 + H24 + I24 + J24)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="D24" s="222">
@@ -6441,7 +6445,7 @@
         <v>203</v>
       </c>
       <c r="C25" s="260">
-        <f>(D25/$D$3*100 + G25 + H25 + I25 + J25)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" s="222">
@@ -6489,7 +6493,7 @@
         <v>204</v>
       </c>
       <c r="C26" s="260">
-        <f>(D26/$D$3*100 + G26 + H26 + I26 + J26)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D26" s="222">
@@ -6537,7 +6541,7 @@
         <v>205</v>
       </c>
       <c r="C27" s="260">
-        <f>(D27/$D$3*100 + G27 + H27 + I27 + J27)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D27" s="222">
@@ -6585,7 +6589,7 @@
         <v>206</v>
       </c>
       <c r="C28" s="260">
-        <f>(D28/$D$3*100 + G28 + H28 + I28 + J28)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D28" s="222">
@@ -6633,7 +6637,7 @@
         <v>215</v>
       </c>
       <c r="C29" s="260">
-        <f>(D29/$D$3*100 + G29 + H29 + I29 + J29)/($F$3+1)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D29" s="222">
@@ -6678,17 +6682,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA273654-736A-4C19-9CD2-B3EC40D6C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4013C65-04F2-448E-BA75-974EEAEFCB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1745,7 +1745,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1918,6 +1918,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2290,7 +2296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,15 +2905,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2925,6 +2922,24 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3327,7 +3342,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,10 +3366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="351" t="s">
+      <c r="F1" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="354" t="s">
+      <c r="G1" s="351" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="345" t="s">
@@ -3381,13 +3396,13 @@
       <c r="O1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="348" t="s">
+      <c r="P1" s="354" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="352"/>
-      <c r="G2" s="355"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
       <c r="H2" s="346"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
@@ -3396,7 +3411,7 @@
       <c r="M2" s="346"/>
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
-      <c r="P2" s="349"/>
+      <c r="P2" s="355"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3405,13 +3420,13 @@
       </c>
       <c r="C3" s="252"/>
       <c r="D3" s="226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="355"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
       <c r="H3" s="346"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
@@ -3420,7 +3435,7 @@
       <c r="M3" s="346"/>
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
-      <c r="P3" s="349"/>
+      <c r="P3" s="355"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3436,8 +3451,8 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="356"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
       <c r="H4" s="347"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
@@ -3446,7 +3461,7 @@
       <c r="M4" s="347"/>
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
-      <c r="P4" s="350"/>
+      <c r="P4" s="356"/>
       <c r="Q4" s="264" t="s">
         <v>299</v>
       </c>
@@ -3466,10 +3481,10 @@
       </c>
       <c r="C5" s="257">
         <f t="shared" ref="C5:C25" si="0">((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
-        <v>6.6666666666666661</v>
+        <v>10</v>
       </c>
       <c r="D5" s="255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="228" t="s">
         <v>260</v>
@@ -3514,7 +3529,7 @@
         <v>88</v>
       </c>
       <c r="D6" s="256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="228" t="s">
         <v>261</v>
@@ -3559,7 +3574,7 @@
         <v>92</v>
       </c>
       <c r="D7" s="256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="228" t="s">
         <v>262</v>
@@ -3601,7 +3616,7 @@
       </c>
       <c r="C8" s="257">
         <f t="shared" si="0"/>
-        <v>6.6666666666666661</v>
+        <v>5</v>
       </c>
       <c r="D8" s="254">
         <v>1</v>
@@ -3646,10 +3661,10 @@
       </c>
       <c r="C9" s="257">
         <f t="shared" si="0"/>
-        <v>13.333333333333332</v>
+        <v>15</v>
       </c>
       <c r="D9" s="254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="228" t="s">
         <v>263</v>
@@ -3691,25 +3706,25 @@
       </c>
       <c r="C10" s="257">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D10" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="228" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="231">
-        <v>100</v>
-      </c>
-      <c r="G10" s="231">
-        <v>100</v>
-      </c>
-      <c r="H10" s="231">
-        <v>80</v>
-      </c>
-      <c r="I10" s="231">
-        <v>80</v>
+      <c r="F10" s="358">
+        <v>100</v>
+      </c>
+      <c r="G10" s="358">
+        <v>100</v>
+      </c>
+      <c r="H10" s="358">
+        <v>100</v>
+      </c>
+      <c r="I10" s="358">
+        <v>100</v>
       </c>
       <c r="J10" s="231"/>
       <c r="K10" s="231"/>
@@ -3739,7 +3754,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="228" t="s">
         <v>265</v>
@@ -3781,27 +3796,29 @@
       </c>
       <c r="C12" s="257">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="228" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="231">
-        <v>100</v>
-      </c>
-      <c r="G12" s="231">
-        <v>100</v>
-      </c>
-      <c r="H12" s="231">
-        <v>90</v>
-      </c>
-      <c r="I12" s="231">
-        <v>90</v>
-      </c>
-      <c r="J12" s="231"/>
+      <c r="F12" s="358">
+        <v>100</v>
+      </c>
+      <c r="G12" s="358">
+        <v>100</v>
+      </c>
+      <c r="H12" s="358">
+        <v>100</v>
+      </c>
+      <c r="I12" s="358">
+        <v>100</v>
+      </c>
+      <c r="J12" s="359">
+        <v>50</v>
+      </c>
       <c r="K12" s="231"/>
       <c r="L12" s="231"/>
       <c r="M12" s="231"/>
@@ -3874,7 +3891,7 @@
         <v>96</v>
       </c>
       <c r="D14" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="228" t="s">
         <v>267</v>
@@ -3959,10 +3976,10 @@
       </c>
       <c r="C16" s="257">
         <f t="shared" si="0"/>
-        <v>85.333333333333329</v>
+        <v>87</v>
       </c>
       <c r="D16" s="254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="228" t="s">
         <v>268</v>
@@ -4007,7 +4024,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="228" t="s">
         <v>269</v>
@@ -4049,7 +4066,7 @@
       </c>
       <c r="C18" s="257">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D18" s="254">
         <v>3</v>
@@ -4097,7 +4114,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="228" t="s">
         <v>271</v>
@@ -4139,25 +4156,25 @@
       </c>
       <c r="C20" s="257">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D20" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="228" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="231">
-        <v>100</v>
-      </c>
-      <c r="G20" s="231">
-        <v>100</v>
-      </c>
-      <c r="H20" s="231">
-        <v>80</v>
-      </c>
-      <c r="I20" s="231">
-        <v>0</v>
+      <c r="F20" s="357">
+        <v>100</v>
+      </c>
+      <c r="G20" s="357">
+        <v>100</v>
+      </c>
+      <c r="H20" s="357">
+        <v>70</v>
+      </c>
+      <c r="I20" s="357">
+        <v>70</v>
       </c>
       <c r="J20" s="231"/>
       <c r="K20" s="231"/>
@@ -4187,7 +4204,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="228" t="s">
         <v>273</v>
@@ -4232,7 +4249,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="228" t="s">
         <v>274</v>
@@ -4274,10 +4291,10 @@
       </c>
       <c r="C23" s="257">
         <f t="shared" si="0"/>
-        <v>67.333333333333329</v>
+        <v>69</v>
       </c>
       <c r="D23" s="254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="228" t="s">
         <v>275</v>
@@ -4322,7 +4339,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="228" t="s">
         <v>276</v>
@@ -4367,7 +4384,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="111" t="s">
         <v>277</v>
@@ -4429,17 +4446,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4473,7 +4490,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,10 +4513,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="351" t="s">
+      <c r="F1" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="354" t="s">
+      <c r="G1" s="351" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="345" t="s">
@@ -4526,13 +4543,13 @@
       <c r="O1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="348" t="s">
+      <c r="P1" s="354" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="352"/>
-      <c r="G2" s="355"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
       <c r="H2" s="346"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
@@ -4541,7 +4558,7 @@
       <c r="M2" s="346"/>
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
-      <c r="P2" s="349"/>
+      <c r="P2" s="355"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4555,8 +4572,8 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="352"/>
-      <c r="G3" s="355"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
       <c r="H3" s="346"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
@@ -4565,7 +4582,7 @@
       <c r="M3" s="346"/>
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
-      <c r="P3" s="349"/>
+      <c r="P3" s="355"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4581,8 +4598,8 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="356"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
       <c r="H4" s="347"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
@@ -4591,7 +4608,7 @@
       <c r="M4" s="347"/>
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
-      <c r="P4" s="350"/>
+      <c r="P4" s="356"/>
       <c r="Q4" s="265" t="s">
         <v>299</v>
       </c>
@@ -4630,7 +4647,9 @@
       <c r="I5" s="343">
         <v>100</v>
       </c>
-      <c r="J5" s="257"/>
+      <c r="J5" s="343">
+        <v>100</v>
+      </c>
       <c r="K5" s="257"/>
       <c r="L5" s="257"/>
       <c r="M5" s="257"/>
@@ -4716,7 +4735,9 @@
       <c r="I7" s="341">
         <v>100</v>
       </c>
-      <c r="J7" s="254"/>
+      <c r="J7" s="341">
+        <v>100</v>
+      </c>
       <c r="K7" s="254"/>
       <c r="L7" s="254"/>
       <c r="M7" s="254"/>
@@ -5301,17 +5322,17 @@
     <sortCondition ref="B5:B20"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5366,10 +5387,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="348" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="354" t="s">
+      <c r="H1" s="351" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="345" t="s">
@@ -5396,13 +5417,13 @@
       <c r="P1" s="345" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" s="348" t="s">
+      <c r="Q1" s="354" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="352"/>
-      <c r="H2" s="355"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="352"/>
       <c r="I2" s="346"/>
       <c r="J2" s="346"/>
       <c r="K2" s="346"/>
@@ -5411,7 +5432,7 @@
       <c r="N2" s="346"/>
       <c r="O2" s="346"/>
       <c r="P2" s="346"/>
-      <c r="Q2" s="349"/>
+      <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5426,8 +5447,8 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="352"/>
-      <c r="H3" s="355"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="352"/>
       <c r="I3" s="346"/>
       <c r="J3" s="346"/>
       <c r="K3" s="346"/>
@@ -5436,7 +5457,7 @@
       <c r="N3" s="346"/>
       <c r="O3" s="346"/>
       <c r="P3" s="346"/>
-      <c r="Q3" s="349"/>
+      <c r="Q3" s="355"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
@@ -5455,8 +5476,8 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="353"/>
-      <c r="H4" s="356"/>
+      <c r="G4" s="350"/>
+      <c r="H4" s="353"/>
       <c r="I4" s="347"/>
       <c r="J4" s="347"/>
       <c r="K4" s="347"/>
@@ -5465,7 +5486,7 @@
       <c r="N4" s="347"/>
       <c r="O4" s="347"/>
       <c r="P4" s="347"/>
-      <c r="Q4" s="350"/>
+      <c r="Q4" s="356"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
         <v>299</v>
@@ -6682,17 +6703,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4013C65-04F2-448E-BA75-974EEAEFCB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68646B-FB55-4677-8C53-50396A1AD595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1722,9 +1722,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1732,14 +1739,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2296,7 +2303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2801,93 +2808,6 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2896,6 +2816,15 @@
     <xf numFmtId="1" fontId="17" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="17" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2903,6 +2832,15 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2923,24 +2861,94 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="26" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3366,52 +3374,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="303" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="306" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="297" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="297" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="297" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="297" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="297" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="297" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="300" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="301"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3425,17 +3433,17 @@
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="301"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3451,17 +3459,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="302"/>
       <c r="Q4" s="264" t="s">
         <v>299</v>
       </c>
@@ -3714,16 +3722,16 @@
       <c r="E10" s="228" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="358">
-        <v>100</v>
-      </c>
-      <c r="G10" s="358">
-        <v>100</v>
-      </c>
-      <c r="H10" s="358">
-        <v>100</v>
-      </c>
-      <c r="I10" s="358">
+      <c r="F10" s="295">
+        <v>100</v>
+      </c>
+      <c r="G10" s="295">
+        <v>100</v>
+      </c>
+      <c r="H10" s="295">
+        <v>100</v>
+      </c>
+      <c r="I10" s="295">
         <v>100</v>
       </c>
       <c r="J10" s="231"/>
@@ -3804,19 +3812,19 @@
       <c r="E12" s="228" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="358">
-        <v>100</v>
-      </c>
-      <c r="G12" s="358">
-        <v>100</v>
-      </c>
-      <c r="H12" s="358">
-        <v>100</v>
-      </c>
-      <c r="I12" s="358">
-        <v>100</v>
-      </c>
-      <c r="J12" s="359">
+      <c r="F12" s="295">
+        <v>100</v>
+      </c>
+      <c r="G12" s="295">
+        <v>100</v>
+      </c>
+      <c r="H12" s="295">
+        <v>100</v>
+      </c>
+      <c r="I12" s="295">
+        <v>100</v>
+      </c>
+      <c r="J12" s="296">
         <v>50</v>
       </c>
       <c r="K12" s="231"/>
@@ -4164,16 +4172,16 @@
       <c r="E20" s="228" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="357">
-        <v>100</v>
-      </c>
-      <c r="G20" s="357">
-        <v>100</v>
-      </c>
-      <c r="H20" s="357">
+      <c r="F20" s="294">
+        <v>100</v>
+      </c>
+      <c r="G20" s="294">
+        <v>100</v>
+      </c>
+      <c r="H20" s="294">
         <v>70</v>
       </c>
-      <c r="I20" s="357">
+      <c r="I20" s="294">
         <v>70</v>
       </c>
       <c r="J20" s="231"/>
@@ -4446,17 +4454,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4489,7 +4497,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -4513,52 +4521,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="303" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="306" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="297" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="297" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="297" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="297" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="297" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="297" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="300" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="301"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4572,17 +4580,17 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="301"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -4598,17 +4606,17 @@
       <c r="E4" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="302"/>
       <c r="Q4" s="265" t="s">
         <v>299</v>
       </c>
@@ -4635,19 +4643,19 @@
       <c r="E5" s="239" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="343">
-        <v>100</v>
-      </c>
-      <c r="G5" s="343">
-        <v>100</v>
-      </c>
-      <c r="H5" s="343">
-        <v>100</v>
-      </c>
-      <c r="I5" s="343">
-        <v>100</v>
-      </c>
-      <c r="J5" s="343">
+      <c r="F5" s="292">
+        <v>100</v>
+      </c>
+      <c r="G5" s="292">
+        <v>100</v>
+      </c>
+      <c r="H5" s="292">
+        <v>100</v>
+      </c>
+      <c r="I5" s="292">
+        <v>100</v>
+      </c>
+      <c r="J5" s="292">
         <v>100</v>
       </c>
       <c r="K5" s="257"/>
@@ -4723,19 +4731,19 @@
       <c r="E7" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="341">
-        <v>100</v>
-      </c>
-      <c r="G7" s="341">
-        <v>100</v>
-      </c>
-      <c r="H7" s="341">
-        <v>100</v>
-      </c>
-      <c r="I7" s="341">
-        <v>100</v>
-      </c>
-      <c r="J7" s="341">
+      <c r="F7" s="290">
+        <v>100</v>
+      </c>
+      <c r="G7" s="290">
+        <v>100</v>
+      </c>
+      <c r="H7" s="290">
+        <v>100</v>
+      </c>
+      <c r="I7" s="290">
+        <v>100</v>
+      </c>
+      <c r="J7" s="290">
         <v>100</v>
       </c>
       <c r="K7" s="254"/>
@@ -4854,16 +4862,16 @@
       <c r="E10" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="342">
-        <v>100</v>
-      </c>
-      <c r="G10" s="342">
+      <c r="F10" s="291">
+        <v>100</v>
+      </c>
+      <c r="G10" s="291">
         <v>70</v>
       </c>
-      <c r="H10" s="342">
+      <c r="H10" s="291">
         <v>70</v>
       </c>
-      <c r="I10" s="342">
+      <c r="I10" s="291">
         <v>70</v>
       </c>
       <c r="J10" s="254"/>
@@ -5026,16 +5034,16 @@
       <c r="E14" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="341">
+      <c r="F14" s="290">
         <v>80</v>
       </c>
-      <c r="G14" s="341">
-        <v>100</v>
-      </c>
-      <c r="H14" s="341">
-        <v>100</v>
-      </c>
-      <c r="I14" s="341">
+      <c r="G14" s="290">
+        <v>100</v>
+      </c>
+      <c r="H14" s="290">
+        <v>100</v>
+      </c>
+      <c r="I14" s="290">
         <v>100</v>
       </c>
       <c r="J14" s="254"/>
@@ -5069,16 +5077,16 @@
       <c r="E15" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="341">
-        <v>100</v>
-      </c>
-      <c r="G15" s="341">
-        <v>100</v>
-      </c>
-      <c r="H15" s="341">
+      <c r="F15" s="290">
+        <v>100</v>
+      </c>
+      <c r="G15" s="290">
+        <v>100</v>
+      </c>
+      <c r="H15" s="290">
         <v>90</v>
       </c>
-      <c r="I15" s="341">
+      <c r="I15" s="290">
         <v>80</v>
       </c>
       <c r="J15" s="254"/>
@@ -5198,16 +5206,16 @@
       <c r="E18" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="341">
-        <v>100</v>
-      </c>
-      <c r="G18" s="341">
-        <v>100</v>
-      </c>
-      <c r="H18" s="341">
-        <v>100</v>
-      </c>
-      <c r="I18" s="341">
+      <c r="F18" s="290">
+        <v>100</v>
+      </c>
+      <c r="G18" s="290">
+        <v>100</v>
+      </c>
+      <c r="H18" s="290">
+        <v>100</v>
+      </c>
+      <c r="I18" s="290">
         <v>100</v>
       </c>
       <c r="J18" s="254">
@@ -5286,16 +5294,16 @@
       <c r="E20" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="F20" s="341">
-        <v>100</v>
-      </c>
-      <c r="G20" s="341">
-        <v>100</v>
-      </c>
-      <c r="H20" s="341">
-        <v>100</v>
-      </c>
-      <c r="I20" s="341">
+      <c r="F20" s="290">
+        <v>100</v>
+      </c>
+      <c r="G20" s="290">
+        <v>100</v>
+      </c>
+      <c r="H20" s="290">
+        <v>100</v>
+      </c>
+      <c r="I20" s="290">
         <v>100</v>
       </c>
       <c r="J20" s="254">
@@ -5322,17 +5330,17 @@
     <sortCondition ref="B5:B20"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -5387,52 +5395,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="348" t="s">
+      <c r="G1" s="303" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="351" t="s">
+      <c r="H1" s="306" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="297" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="297" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="297" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="297" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="297" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="297" t="s">
         <v>296</v>
       </c>
-      <c r="P1" s="345" t="s">
+      <c r="P1" s="297" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" s="354" t="s">
+      <c r="Q1" s="300" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="349"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="355"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="298"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -5447,24 +5455,24 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="352"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="355"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="298"/>
+      <c r="Q3" s="301"/>
     </row>
     <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
       <c r="B4" s="274" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="344" t="s">
+      <c r="C4" s="293" t="s">
         <v>287</v>
       </c>
       <c r="D4" s="275" t="s">
@@ -5476,17 +5484,17 @@
       <c r="F4" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="350"/>
-      <c r="H4" s="353"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="356"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="308"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299"/>
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="302"/>
       <c r="R4" s="277"/>
       <c r="S4" s="271" t="s">
         <v>299</v>
@@ -5521,13 +5529,13 @@
       <c r="G5" s="273">
         <v>100</v>
       </c>
-      <c r="H5" s="340">
-        <v>0</v>
-      </c>
-      <c r="I5" s="340">
-        <v>0</v>
-      </c>
-      <c r="J5" s="340">
+      <c r="H5" s="289">
+        <v>0</v>
+      </c>
+      <c r="I5" s="289">
+        <v>0</v>
+      </c>
+      <c r="J5" s="289">
         <v>0</v>
       </c>
       <c r="K5" s="273"/>
@@ -5790,7 +5798,7 @@
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="339" t="s">
+      <c r="B11" s="288" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="260">
@@ -6703,17 +6711,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
@@ -6752,9 +6760,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR16" sqref="AR16"/>
+      <selection pane="topRight" activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9848,918 +9856,918 @@
       <c r="AP27" s="287"/>
     </row>
     <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="288" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="289" t="str">
+      <c r="A28" s="309" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="310" t="str">
         <f t="shared" ref="B28:AB28" si="2">B2</f>
         <v>КР1</v>
       </c>
-      <c r="C28" s="290" t="str">
+      <c r="C28" s="311" t="str">
         <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
-      <c r="D28" s="290"/>
-      <c r="E28" s="291" t="str">
+      <c r="D28" s="311"/>
+      <c r="E28" s="312" t="str">
         <f t="shared" si="2"/>
         <v>Github</v>
       </c>
-      <c r="F28" s="292">
+      <c r="F28" s="313">
         <f t="shared" si="2"/>
         <v>45691</v>
       </c>
-      <c r="G28" s="293">
+      <c r="G28" s="314">
         <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="H28" s="293">
+      <c r="H28" s="314">
         <f t="shared" si="2"/>
         <v>45701</v>
       </c>
-      <c r="I28" s="293">
+      <c r="I28" s="314">
         <f t="shared" si="2"/>
         <v>45705</v>
       </c>
-      <c r="J28" s="293">
+      <c r="J28" s="314">
         <f t="shared" si="2"/>
         <v>45712</v>
       </c>
-      <c r="K28" s="292">
+      <c r="K28" s="313">
         <f t="shared" si="2"/>
         <v>45715</v>
       </c>
-      <c r="L28" s="292">
+      <c r="L28" s="313">
         <f t="shared" si="2"/>
         <v>45719</v>
       </c>
-      <c r="M28" s="292">
+      <c r="M28" s="313">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="N28" s="293">
+      <c r="N28" s="314">
         <f t="shared" si="2"/>
         <v>45729</v>
       </c>
-      <c r="O28" s="293">
+      <c r="O28" s="314">
         <f t="shared" si="2"/>
         <v>45733</v>
       </c>
-      <c r="P28" s="293">
+      <c r="P28" s="314">
         <f t="shared" si="2"/>
         <v>45740</v>
       </c>
-      <c r="Q28" s="293">
+      <c r="Q28" s="314">
         <f t="shared" si="2"/>
         <v>45743</v>
       </c>
-      <c r="R28" s="293">
+      <c r="R28" s="314">
         <f t="shared" si="2"/>
         <v>45747</v>
       </c>
-      <c r="S28" s="293">
+      <c r="S28" s="314">
         <f t="shared" si="2"/>
         <v>45754</v>
       </c>
-      <c r="T28" s="293">
+      <c r="T28" s="314">
         <f t="shared" si="2"/>
         <v>45761</v>
       </c>
-      <c r="U28" s="293">
+      <c r="U28" s="314">
         <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="V28" s="293">
+      <c r="V28" s="314">
         <f t="shared" si="2"/>
         <v>45771</v>
       </c>
-      <c r="W28" s="293">
+      <c r="W28" s="314">
         <f t="shared" si="2"/>
         <v>45775</v>
       </c>
-      <c r="X28" s="293">
+      <c r="X28" s="314">
         <f t="shared" si="2"/>
         <v>45782</v>
       </c>
-      <c r="Y28" s="293">
+      <c r="Y28" s="314">
         <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="Z28" s="293">
+      <c r="Z28" s="314">
         <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="AA28" s="293">
+      <c r="AA28" s="314">
         <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="AB28" s="293">
+      <c r="AB28" s="314">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="294" t="str">
+      <c r="AC28" s="315" t="str">
         <f t="shared" ref="AC28:AP28" si="3">AC2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
-      <c r="AD28" s="295" t="str">
+      <c r="AD28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
-      <c r="AE28" s="295" t="str">
+      <c r="AE28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
-      <c r="AF28" s="295" t="str">
+      <c r="AF28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
-      <c r="AG28" s="295" t="str">
+      <c r="AG28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
-      <c r="AH28" s="295" t="str">
+      <c r="AH28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AI28" s="295" t="str">
+      <c r="AI28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>ПР4. Telephony</v>
       </c>
-      <c r="AJ28" s="295" t="str">
+      <c r="AJ28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>ПР5. Сокеты</v>
       </c>
-      <c r="AK28" s="295"/>
-      <c r="AL28" s="295" t="str">
+      <c r="AK28" s="316"/>
+      <c r="AL28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>РГР</v>
       </c>
-      <c r="AM28" s="295" t="str">
+      <c r="AM28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>К\Р</v>
       </c>
-      <c r="AN28" s="295">
+      <c r="AN28" s="316">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="295">
+      <c r="AO28" s="316">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="295" t="str">
+      <c r="AP28" s="316" t="str">
         <f t="shared" si="3"/>
         <v>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="296" t="s">
+      <c r="A29" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="297">
+      <c r="B29" s="318">
         <v>2</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="299" t="s">
+      <c r="C29" s="319"/>
+      <c r="D29" s="319"/>
+      <c r="E29" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="300">
-        <v>1</v>
-      </c>
-      <c r="G29" s="300">
-        <v>1</v>
-      </c>
-      <c r="H29" s="300">
+      <c r="F29" s="321">
+        <v>1</v>
+      </c>
+      <c r="G29" s="321">
+        <v>1</v>
+      </c>
+      <c r="H29" s="321">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="300">
-        <v>1</v>
-      </c>
-      <c r="J29" s="300">
-        <v>1</v>
-      </c>
-      <c r="K29" s="300">
-        <v>1</v>
-      </c>
-      <c r="L29" s="300">
-        <v>1</v>
-      </c>
-      <c r="M29" s="300">
-        <v>1</v>
-      </c>
-      <c r="N29" s="300">
-        <v>1</v>
-      </c>
-      <c r="O29" s="300">
-        <v>1</v>
-      </c>
-      <c r="P29" s="300">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="300">
-        <v>1</v>
-      </c>
-      <c r="R29" s="301" t="s">
+      <c r="I29" s="321">
+        <v>1</v>
+      </c>
+      <c r="J29" s="321">
+        <v>1</v>
+      </c>
+      <c r="K29" s="321">
+        <v>1</v>
+      </c>
+      <c r="L29" s="321">
+        <v>1</v>
+      </c>
+      <c r="M29" s="321">
+        <v>1</v>
+      </c>
+      <c r="N29" s="321">
+        <v>1</v>
+      </c>
+      <c r="O29" s="321">
+        <v>1</v>
+      </c>
+      <c r="P29" s="321">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="321">
+        <v>1</v>
+      </c>
+      <c r="R29" s="322" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="300">
+      <c r="S29" s="321">
         <v>3</v>
       </c>
-      <c r="T29" s="300">
-        <v>1</v>
-      </c>
-      <c r="U29" s="302">
-        <v>1</v>
-      </c>
-      <c r="V29" s="300">
-        <v>1</v>
-      </c>
-      <c r="W29" s="300">
-        <v>1</v>
-      </c>
-      <c r="X29" s="300">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="300">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="300"/>
-      <c r="AA29" s="300"/>
-      <c r="AB29" s="300"/>
-      <c r="AC29" s="303">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="304">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="305">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="306">
+      <c r="T29" s="321">
+        <v>1</v>
+      </c>
+      <c r="U29" s="323">
+        <v>1</v>
+      </c>
+      <c r="V29" s="321">
+        <v>1</v>
+      </c>
+      <c r="W29" s="321">
+        <v>1</v>
+      </c>
+      <c r="X29" s="321">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="321">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="321"/>
+      <c r="AA29" s="321"/>
+      <c r="AB29" s="321"/>
+      <c r="AC29" s="324">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="325">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="326">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="327">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG29" s="307">
-        <v>100</v>
-      </c>
-      <c r="AH29" s="306">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="306"/>
-      <c r="AJ29" s="306"/>
-      <c r="AK29" s="306"/>
-      <c r="AL29" s="306">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="306"/>
-      <c r="AN29" s="306"/>
-      <c r="AO29" s="306"/>
-      <c r="AP29" s="306">
+      <c r="AG29" s="328">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="327">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="327"/>
+      <c r="AJ29" s="327"/>
+      <c r="AK29" s="327"/>
+      <c r="AL29" s="327">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="327"/>
+      <c r="AN29" s="327"/>
+      <c r="AO29" s="327"/>
+      <c r="AP29" s="327">
         <f t="shared" ref="AP29:AP48" si="4">SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
         <v>98.07692307692308</v>
       </c>
     </row>
     <row r="30" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="308" t="s">
+      <c r="A30" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="297">
-        <v>0</v>
-      </c>
-      <c r="C30" s="298"/>
-      <c r="D30" s="298"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="300">
-        <v>1</v>
-      </c>
-      <c r="G30" s="310">
-        <v>1</v>
-      </c>
-      <c r="H30" s="310">
-        <v>1</v>
-      </c>
-      <c r="I30" s="310">
-        <v>1</v>
-      </c>
-      <c r="J30" s="300">
+      <c r="B30" s="318">
+        <v>0</v>
+      </c>
+      <c r="C30" s="319"/>
+      <c r="D30" s="319"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="321">
+        <v>1</v>
+      </c>
+      <c r="G30" s="331">
+        <v>1</v>
+      </c>
+      <c r="H30" s="331">
+        <v>1</v>
+      </c>
+      <c r="I30" s="331">
+        <v>1</v>
+      </c>
+      <c r="J30" s="321">
         <v>-0.5</v>
       </c>
-      <c r="K30" s="300">
+      <c r="K30" s="321">
         <v>-0.5</v>
       </c>
-      <c r="L30" s="300">
+      <c r="L30" s="321">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="310">
-        <v>1</v>
-      </c>
-      <c r="N30" s="310">
-        <v>1</v>
-      </c>
-      <c r="O30" s="310">
-        <v>1</v>
-      </c>
-      <c r="P30" s="310">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="310">
-        <v>1</v>
-      </c>
-      <c r="R30" s="311">
-        <v>1</v>
-      </c>
-      <c r="S30" s="310">
+      <c r="M30" s="331">
+        <v>1</v>
+      </c>
+      <c r="N30" s="331">
+        <v>1</v>
+      </c>
+      <c r="O30" s="331">
+        <v>1</v>
+      </c>
+      <c r="P30" s="331">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="331">
+        <v>1</v>
+      </c>
+      <c r="R30" s="332">
+        <v>1</v>
+      </c>
+      <c r="S30" s="331">
         <v>3</v>
       </c>
-      <c r="T30" s="310">
-        <v>1</v>
-      </c>
-      <c r="U30" s="312">
+      <c r="T30" s="331">
+        <v>1</v>
+      </c>
+      <c r="U30" s="333">
         <v>-1</v>
       </c>
-      <c r="V30" s="300">
-        <v>1</v>
-      </c>
-      <c r="W30" s="310" t="s">
+      <c r="V30" s="321">
+        <v>1</v>
+      </c>
+      <c r="W30" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="310">
+      <c r="X30" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="331">
         <v>-1</v>
       </c>
-      <c r="Z30" s="310"/>
-      <c r="AA30" s="310"/>
-      <c r="AB30" s="310"/>
-      <c r="AC30" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="314">
+      <c r="Z30" s="331"/>
+      <c r="AA30" s="331"/>
+      <c r="AB30" s="331"/>
+      <c r="AC30" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="335">
         <f>-20 - 50 - 50</f>
         <v>-120</v>
       </c>
-      <c r="AE30" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="316">
+      <c r="AE30" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="337">
         <f>-50-20 + 40</f>
         <v>-30</v>
       </c>
-      <c r="AG30" s="317">
+      <c r="AG30" s="338">
         <v>-100</v>
       </c>
-      <c r="AH30" s="316">
+      <c r="AH30" s="337">
         <v>-100</v>
       </c>
-      <c r="AI30" s="316"/>
-      <c r="AJ30" s="316"/>
-      <c r="AK30" s="316"/>
-      <c r="AL30" s="316"/>
-      <c r="AM30" s="316"/>
-      <c r="AN30" s="316"/>
-      <c r="AO30" s="316"/>
-      <c r="AP30" s="306">
+      <c r="AI30" s="337"/>
+      <c r="AJ30" s="337"/>
+      <c r="AK30" s="337"/>
+      <c r="AL30" s="337"/>
+      <c r="AM30" s="337"/>
+      <c r="AN30" s="337"/>
+      <c r="AO30" s="337"/>
+      <c r="AP30" s="327">
         <f t="shared" si="4"/>
         <v>38.46153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="308" t="s">
+      <c r="A31" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="297">
-        <v>0</v>
-      </c>
-      <c r="C31" s="298"/>
-      <c r="D31" s="298"/>
-      <c r="E31" s="299" t="s">
+      <c r="B31" s="318">
+        <v>0</v>
+      </c>
+      <c r="C31" s="319"/>
+      <c r="D31" s="319"/>
+      <c r="E31" s="320" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="300">
-        <v>1</v>
-      </c>
-      <c r="G31" s="310">
-        <v>1</v>
-      </c>
-      <c r="H31" s="310">
-        <v>1</v>
-      </c>
-      <c r="I31" s="310">
-        <v>1</v>
-      </c>
-      <c r="J31" s="310">
-        <v>1</v>
-      </c>
-      <c r="K31" s="310">
-        <v>1</v>
-      </c>
-      <c r="L31" s="300">
+      <c r="F31" s="321">
+        <v>1</v>
+      </c>
+      <c r="G31" s="331">
+        <v>1</v>
+      </c>
+      <c r="H31" s="331">
+        <v>1</v>
+      </c>
+      <c r="I31" s="331">
+        <v>1</v>
+      </c>
+      <c r="J31" s="331">
+        <v>1</v>
+      </c>
+      <c r="K31" s="331">
+        <v>1</v>
+      </c>
+      <c r="L31" s="321">
         <v>-0.5</v>
       </c>
-      <c r="M31" s="310">
+      <c r="M31" s="331">
         <v>-0.5</v>
       </c>
-      <c r="N31" s="310">
+      <c r="N31" s="331">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="310">
-        <v>1</v>
-      </c>
-      <c r="P31" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="318">
-        <v>1</v>
-      </c>
-      <c r="R31" s="311">
-        <v>1</v>
-      </c>
-      <c r="S31" s="310">
+      <c r="O31" s="331">
+        <v>1</v>
+      </c>
+      <c r="P31" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="339">
+        <v>1</v>
+      </c>
+      <c r="R31" s="332">
+        <v>1</v>
+      </c>
+      <c r="S31" s="331">
         <v>3</v>
       </c>
-      <c r="T31" s="310">
-        <v>1</v>
-      </c>
-      <c r="U31" s="312">
+      <c r="T31" s="331">
+        <v>1</v>
+      </c>
+      <c r="U31" s="333">
         <v>-1</v>
       </c>
-      <c r="V31" s="300">
-        <v>1</v>
-      </c>
-      <c r="W31" s="310">
-        <v>1</v>
-      </c>
-      <c r="X31" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="310"/>
-      <c r="AA31" s="310"/>
-      <c r="AB31" s="310"/>
-      <c r="AC31" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD31" s="319">
+      <c r="V31" s="321">
+        <v>1</v>
+      </c>
+      <c r="W31" s="331">
+        <v>1</v>
+      </c>
+      <c r="X31" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="331"/>
+      <c r="AA31" s="331"/>
+      <c r="AB31" s="331"/>
+      <c r="AC31" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="340">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE31" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="315">
+      <c r="AE31" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="336">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="AG31" s="317">
+      <c r="AG31" s="338">
         <v>60</v>
       </c>
-      <c r="AH31" s="316">
-        <v>100</v>
-      </c>
-      <c r="AI31" s="316"/>
-      <c r="AJ31" s="316"/>
-      <c r="AK31" s="316"/>
-      <c r="AL31" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="316"/>
-      <c r="AN31" s="316"/>
-      <c r="AO31" s="316"/>
-      <c r="AP31" s="306">
+      <c r="AH31" s="337">
+        <v>100</v>
+      </c>
+      <c r="AI31" s="337"/>
+      <c r="AJ31" s="337"/>
+      <c r="AK31" s="337"/>
+      <c r="AL31" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="337"/>
+      <c r="AN31" s="337"/>
+      <c r="AO31" s="337"/>
+      <c r="AP31" s="327">
         <f t="shared" si="4"/>
         <v>77.307692307692307</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="320" t="s">
+      <c r="A32" s="341" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="297">
+      <c r="B32" s="318">
         <v>2</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="D32" s="298"/>
-      <c r="E32" s="321" t="s">
+      <c r="C32" s="319"/>
+      <c r="D32" s="319"/>
+      <c r="E32" s="342" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="300">
-        <v>1</v>
-      </c>
-      <c r="G32" s="310">
-        <v>1</v>
-      </c>
-      <c r="H32" s="310">
-        <v>1</v>
-      </c>
-      <c r="I32" s="310">
-        <v>1</v>
-      </c>
-      <c r="J32" s="310">
-        <v>1</v>
-      </c>
-      <c r="K32" s="310">
-        <v>1</v>
-      </c>
-      <c r="L32" s="310">
-        <v>1</v>
-      </c>
-      <c r="M32" s="310">
-        <v>1</v>
-      </c>
-      <c r="N32" s="310">
-        <v>1</v>
-      </c>
-      <c r="O32" s="310">
-        <v>1</v>
-      </c>
-      <c r="P32" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="310">
-        <v>1</v>
-      </c>
-      <c r="R32" s="311">
-        <v>1</v>
-      </c>
-      <c r="S32" s="310">
+      <c r="F32" s="321">
+        <v>1</v>
+      </c>
+      <c r="G32" s="331">
+        <v>1</v>
+      </c>
+      <c r="H32" s="331">
+        <v>1</v>
+      </c>
+      <c r="I32" s="331">
+        <v>1</v>
+      </c>
+      <c r="J32" s="331">
+        <v>1</v>
+      </c>
+      <c r="K32" s="331">
+        <v>1</v>
+      </c>
+      <c r="L32" s="331">
+        <v>1</v>
+      </c>
+      <c r="M32" s="331">
+        <v>1</v>
+      </c>
+      <c r="N32" s="331">
+        <v>1</v>
+      </c>
+      <c r="O32" s="331">
+        <v>1</v>
+      </c>
+      <c r="P32" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="331">
+        <v>1</v>
+      </c>
+      <c r="R32" s="332">
+        <v>1</v>
+      </c>
+      <c r="S32" s="331">
         <v>3</v>
       </c>
-      <c r="T32" s="310">
-        <v>1</v>
-      </c>
-      <c r="U32" s="312">
-        <v>1</v>
-      </c>
-      <c r="V32" s="300">
-        <v>1</v>
-      </c>
-      <c r="W32" s="310">
-        <v>1</v>
-      </c>
-      <c r="X32" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="310"/>
-      <c r="AA32" s="310"/>
-      <c r="AB32" s="310"/>
-      <c r="AC32" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD32" s="313">
+      <c r="T32" s="331">
+        <v>1</v>
+      </c>
+      <c r="U32" s="333">
+        <v>1</v>
+      </c>
+      <c r="V32" s="321">
+        <v>1</v>
+      </c>
+      <c r="W32" s="331">
+        <v>1</v>
+      </c>
+      <c r="X32" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="331"/>
+      <c r="AA32" s="331"/>
+      <c r="AB32" s="331"/>
+      <c r="AC32" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="334">
         <v>95</v>
       </c>
-      <c r="AE32" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF32" s="316">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="317">
+      <c r="AE32" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="337">
+        <v>100</v>
+      </c>
+      <c r="AG32" s="338">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH32" s="316">
-        <v>100</v>
-      </c>
-      <c r="AI32" s="316"/>
-      <c r="AJ32" s="316"/>
-      <c r="AK32" s="316"/>
-      <c r="AL32" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM32" s="316"/>
-      <c r="AN32" s="316"/>
-      <c r="AO32" s="316"/>
-      <c r="AP32" s="306">
+      <c r="AH32" s="337">
+        <v>100</v>
+      </c>
+      <c r="AI32" s="337"/>
+      <c r="AJ32" s="337"/>
+      <c r="AK32" s="337"/>
+      <c r="AL32" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="337"/>
+      <c r="AN32" s="337"/>
+      <c r="AO32" s="337"/>
+      <c r="AP32" s="327">
         <f t="shared" si="4"/>
         <v>110.57692307692308</v>
       </c>
     </row>
     <row r="33" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="308" t="s">
+      <c r="A33" s="329" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="297">
+      <c r="B33" s="318">
         <v>2</v>
       </c>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299" t="s">
+      <c r="C33" s="319"/>
+      <c r="D33" s="319"/>
+      <c r="E33" s="320" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="300">
-        <v>1</v>
-      </c>
-      <c r="G33" s="310">
-        <v>1</v>
-      </c>
-      <c r="H33" s="310">
-        <v>1</v>
-      </c>
-      <c r="I33" s="310">
-        <v>1</v>
-      </c>
-      <c r="J33" s="310">
-        <v>1</v>
-      </c>
-      <c r="K33" s="310">
-        <v>1</v>
-      </c>
-      <c r="L33" s="310">
-        <v>1</v>
-      </c>
-      <c r="M33" s="310">
-        <v>1</v>
-      </c>
-      <c r="N33" s="310">
-        <v>1</v>
-      </c>
-      <c r="O33" s="310">
-        <v>1</v>
-      </c>
-      <c r="P33" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="310">
-        <v>1</v>
-      </c>
-      <c r="R33" s="311">
-        <v>1</v>
-      </c>
-      <c r="S33" s="310">
+      <c r="F33" s="321">
+        <v>1</v>
+      </c>
+      <c r="G33" s="331">
+        <v>1</v>
+      </c>
+      <c r="H33" s="331">
+        <v>1</v>
+      </c>
+      <c r="I33" s="331">
+        <v>1</v>
+      </c>
+      <c r="J33" s="331">
+        <v>1</v>
+      </c>
+      <c r="K33" s="331">
+        <v>1</v>
+      </c>
+      <c r="L33" s="331">
+        <v>1</v>
+      </c>
+      <c r="M33" s="331">
+        <v>1</v>
+      </c>
+      <c r="N33" s="331">
+        <v>1</v>
+      </c>
+      <c r="O33" s="331">
+        <v>1</v>
+      </c>
+      <c r="P33" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="331">
+        <v>1</v>
+      </c>
+      <c r="R33" s="332">
+        <v>1</v>
+      </c>
+      <c r="S33" s="331">
         <v>3</v>
       </c>
-      <c r="T33" s="310">
-        <v>1</v>
-      </c>
-      <c r="U33" s="312">
+      <c r="T33" s="331">
+        <v>1</v>
+      </c>
+      <c r="U33" s="333">
         <v>-1</v>
       </c>
-      <c r="V33" s="300">
-        <v>1</v>
-      </c>
-      <c r="W33" s="310">
-        <v>1</v>
-      </c>
-      <c r="X33" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="310"/>
-      <c r="AA33" s="310"/>
-      <c r="AB33" s="310"/>
-      <c r="AC33" s="313">
+      <c r="V33" s="321">
+        <v>1</v>
+      </c>
+      <c r="W33" s="331">
+        <v>1</v>
+      </c>
+      <c r="X33" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="331"/>
+      <c r="AA33" s="331"/>
+      <c r="AB33" s="331"/>
+      <c r="AC33" s="334">
         <v>80</v>
       </c>
-      <c r="AD33" s="313">
+      <c r="AD33" s="334">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AE33" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF33" s="315">
+      <c r="AE33" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="336">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG33" s="317">
+      <c r="AG33" s="338">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="AH33" s="316">
+      <c r="AH33" s="337">
         <v>-100</v>
       </c>
-      <c r="AI33" s="316"/>
-      <c r="AJ33" s="316"/>
-      <c r="AK33" s="316"/>
-      <c r="AL33" s="316"/>
-      <c r="AM33" s="316"/>
-      <c r="AN33" s="316"/>
-      <c r="AO33" s="316"/>
-      <c r="AP33" s="306">
+      <c r="AI33" s="337"/>
+      <c r="AJ33" s="337"/>
+      <c r="AK33" s="337"/>
+      <c r="AL33" s="337"/>
+      <c r="AM33" s="337"/>
+      <c r="AN33" s="337"/>
+      <c r="AO33" s="337"/>
+      <c r="AP33" s="327">
         <f t="shared" si="4"/>
         <v>85.384615384615387</v>
       </c>
     </row>
     <row r="34" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="308" t="s">
+      <c r="A34" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="297">
-        <v>0</v>
-      </c>
-      <c r="C34" s="298"/>
-      <c r="D34" s="298"/>
-      <c r="E34" s="321" t="s">
+      <c r="B34" s="318">
+        <v>0</v>
+      </c>
+      <c r="C34" s="319"/>
+      <c r="D34" s="319"/>
+      <c r="E34" s="342" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="300">
-        <v>1</v>
-      </c>
-      <c r="G34" s="322">
-        <v>1</v>
-      </c>
-      <c r="H34" s="300">
+      <c r="F34" s="321">
+        <v>1</v>
+      </c>
+      <c r="G34" s="343">
+        <v>1</v>
+      </c>
+      <c r="H34" s="321">
         <v>-0.5</v>
       </c>
-      <c r="I34" s="300">
+      <c r="I34" s="321">
         <v>-0.5</v>
       </c>
-      <c r="J34" s="322">
-        <v>1</v>
-      </c>
-      <c r="K34" s="322">
-        <v>1</v>
-      </c>
-      <c r="L34" s="300">
+      <c r="J34" s="343">
+        <v>1</v>
+      </c>
+      <c r="K34" s="343">
+        <v>1</v>
+      </c>
+      <c r="L34" s="321">
         <v>-0.5</v>
       </c>
-      <c r="M34" s="322">
+      <c r="M34" s="343">
         <v>-0.5</v>
       </c>
-      <c r="N34" s="322">
-        <v>1</v>
-      </c>
-      <c r="O34" s="322">
-        <v>1</v>
-      </c>
-      <c r="P34" s="322">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="322">
-        <v>1</v>
-      </c>
-      <c r="R34" s="301" t="s">
+      <c r="N34" s="343">
+        <v>1</v>
+      </c>
+      <c r="O34" s="343">
+        <v>1</v>
+      </c>
+      <c r="P34" s="343">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="343">
+        <v>1</v>
+      </c>
+      <c r="R34" s="322" t="s">
         <v>13</v>
       </c>
-      <c r="S34" s="322">
+      <c r="S34" s="343">
         <v>3</v>
       </c>
-      <c r="T34" s="322">
+      <c r="T34" s="343">
         <v>-0.5</v>
       </c>
-      <c r="U34" s="312">
+      <c r="U34" s="333">
         <v>-1</v>
       </c>
-      <c r="V34" s="300">
-        <v>1</v>
-      </c>
-      <c r="W34" s="310">
-        <v>1</v>
-      </c>
-      <c r="X34" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="310">
+      <c r="V34" s="321">
+        <v>1</v>
+      </c>
+      <c r="W34" s="331">
+        <v>1</v>
+      </c>
+      <c r="X34" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="331">
         <v>-1</v>
       </c>
-      <c r="Z34" s="310"/>
-      <c r="AA34" s="310"/>
-      <c r="AB34" s="310"/>
-      <c r="AC34" s="313">
+      <c r="Z34" s="331"/>
+      <c r="AA34" s="331"/>
+      <c r="AB34" s="331"/>
+      <c r="AC34" s="334">
         <v>80</v>
       </c>
-      <c r="AD34" s="323">
+      <c r="AD34" s="344">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE34" s="324">
+      <c r="AE34" s="345">
         <v>-100</v>
       </c>
-      <c r="AF34" s="316">
+      <c r="AF34" s="337">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AG34" s="325">
+      <c r="AG34" s="346">
         <f>-100</f>
         <v>-100</v>
       </c>
-      <c r="AH34" s="324">
+      <c r="AH34" s="345">
         <v>-100</v>
       </c>
-      <c r="AI34" s="324"/>
-      <c r="AJ34" s="324"/>
-      <c r="AK34" s="324"/>
-      <c r="AL34" s="324"/>
-      <c r="AM34" s="324"/>
-      <c r="AN34" s="324"/>
-      <c r="AO34" s="324"/>
-      <c r="AP34" s="306">
+      <c r="AI34" s="345"/>
+      <c r="AJ34" s="345"/>
+      <c r="AK34" s="345"/>
+      <c r="AL34" s="345"/>
+      <c r="AM34" s="345"/>
+      <c r="AN34" s="345"/>
+      <c r="AO34" s="345"/>
+      <c r="AP34" s="327">
         <f t="shared" si="4"/>
         <v>20.384615384615383</v>
       </c>
     </row>
     <row r="35" spans="1:64" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="326" t="s">
+      <c r="A35" s="347" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="297">
+      <c r="B35" s="318">
         <v>2</v>
       </c>
-      <c r="C35" s="297"/>
-      <c r="D35" s="297"/>
-      <c r="E35" s="327" t="s">
+      <c r="C35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="348" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="328">
-        <v>1</v>
-      </c>
-      <c r="G35" s="322">
-        <v>1</v>
-      </c>
-      <c r="H35" s="322">
-        <v>1</v>
-      </c>
-      <c r="I35" s="322">
-        <v>1</v>
-      </c>
-      <c r="J35" s="322">
-        <v>1</v>
-      </c>
-      <c r="K35" s="322">
-        <v>1</v>
-      </c>
-      <c r="L35" s="322">
-        <v>1</v>
-      </c>
-      <c r="M35" s="322">
-        <v>1</v>
-      </c>
-      <c r="N35" s="322">
-        <v>1</v>
-      </c>
-      <c r="O35" s="322">
-        <v>1</v>
-      </c>
-      <c r="P35" s="322">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="322">
-        <v>1</v>
-      </c>
-      <c r="R35" s="329">
-        <v>1</v>
-      </c>
-      <c r="S35" s="322">
+      <c r="F35" s="349">
+        <v>1</v>
+      </c>
+      <c r="G35" s="343">
+        <v>1</v>
+      </c>
+      <c r="H35" s="343">
+        <v>1</v>
+      </c>
+      <c r="I35" s="343">
+        <v>1</v>
+      </c>
+      <c r="J35" s="343">
+        <v>1</v>
+      </c>
+      <c r="K35" s="343">
+        <v>1</v>
+      </c>
+      <c r="L35" s="343">
+        <v>1</v>
+      </c>
+      <c r="M35" s="343">
+        <v>1</v>
+      </c>
+      <c r="N35" s="343">
+        <v>1</v>
+      </c>
+      <c r="O35" s="343">
+        <v>1</v>
+      </c>
+      <c r="P35" s="343">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="343">
+        <v>1</v>
+      </c>
+      <c r="R35" s="350">
+        <v>1</v>
+      </c>
+      <c r="S35" s="343">
         <v>3</v>
       </c>
-      <c r="T35" s="322">
-        <v>1</v>
-      </c>
-      <c r="U35" s="330">
-        <v>1</v>
-      </c>
-      <c r="V35" s="300">
-        <v>1</v>
-      </c>
-      <c r="W35" s="322">
-        <v>1</v>
-      </c>
-      <c r="X35" s="322">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="322">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="322"/>
-      <c r="AA35" s="322"/>
-      <c r="AB35" s="322"/>
-      <c r="AC35" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="313">
-        <v>100</v>
-      </c>
-      <c r="AE35" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF35" s="315">
+      <c r="T35" s="343">
+        <v>1</v>
+      </c>
+      <c r="U35" s="351">
+        <v>1</v>
+      </c>
+      <c r="V35" s="321">
+        <v>1</v>
+      </c>
+      <c r="W35" s="343">
+        <v>1</v>
+      </c>
+      <c r="X35" s="343">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="343">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="343"/>
+      <c r="AA35" s="343"/>
+      <c r="AB35" s="343"/>
+      <c r="AC35" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="334">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="336">
         <f>50+50</f>
         <v>100</v>
       </c>
-      <c r="AG35" s="325">
+      <c r="AG35" s="346">
         <v>80</v>
       </c>
-      <c r="AH35" s="324">
-        <v>100</v>
-      </c>
-      <c r="AI35" s="324"/>
-      <c r="AJ35" s="324"/>
-      <c r="AK35" s="324"/>
-      <c r="AL35" s="324">
-        <v>100</v>
-      </c>
-      <c r="AM35" s="324"/>
-      <c r="AN35" s="324"/>
-      <c r="AO35" s="324"/>
-      <c r="AP35" s="306">
+      <c r="AH35" s="345">
+        <v>100</v>
+      </c>
+      <c r="AI35" s="345"/>
+      <c r="AJ35" s="345"/>
+      <c r="AK35" s="345"/>
+      <c r="AL35" s="345">
+        <v>100</v>
+      </c>
+      <c r="AM35" s="345"/>
+      <c r="AN35" s="345"/>
+      <c r="AO35" s="345"/>
+      <c r="AP35" s="327">
         <f t="shared" si="4"/>
         <v>110.76923076923077</v>
       </c>
@@ -10787,1574 +10795,1574 @@
       <c r="BL35" s="47"/>
     </row>
     <row r="36" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="331" t="s">
+      <c r="A36" s="352" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="297">
+      <c r="B36" s="318">
         <v>2</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="D36" s="298"/>
-      <c r="E36" s="321" t="s">
+      <c r="C36" s="319"/>
+      <c r="D36" s="319"/>
+      <c r="E36" s="342" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="300">
-        <v>1</v>
-      </c>
-      <c r="G36" s="322">
-        <v>1</v>
-      </c>
-      <c r="H36" s="322">
-        <v>1</v>
-      </c>
-      <c r="I36" s="322">
-        <v>1</v>
-      </c>
-      <c r="J36" s="322">
-        <v>1</v>
-      </c>
-      <c r="K36" s="322">
-        <v>1</v>
-      </c>
-      <c r="L36" s="322">
-        <v>1</v>
-      </c>
-      <c r="M36" s="322">
-        <v>1</v>
-      </c>
-      <c r="N36" s="322">
-        <v>1</v>
-      </c>
-      <c r="O36" s="322">
-        <v>1</v>
-      </c>
-      <c r="P36" s="322">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="322">
-        <v>1</v>
-      </c>
-      <c r="R36" s="329">
-        <v>1</v>
-      </c>
-      <c r="S36" s="322">
+      <c r="F36" s="321">
+        <v>1</v>
+      </c>
+      <c r="G36" s="343">
+        <v>1</v>
+      </c>
+      <c r="H36" s="343">
+        <v>1</v>
+      </c>
+      <c r="I36" s="343">
+        <v>1</v>
+      </c>
+      <c r="J36" s="343">
+        <v>1</v>
+      </c>
+      <c r="K36" s="343">
+        <v>1</v>
+      </c>
+      <c r="L36" s="343">
+        <v>1</v>
+      </c>
+      <c r="M36" s="343">
+        <v>1</v>
+      </c>
+      <c r="N36" s="343">
+        <v>1</v>
+      </c>
+      <c r="O36" s="343">
+        <v>1</v>
+      </c>
+      <c r="P36" s="343">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="343">
+        <v>1</v>
+      </c>
+      <c r="R36" s="350">
+        <v>1</v>
+      </c>
+      <c r="S36" s="343">
         <v>3</v>
       </c>
-      <c r="T36" s="322">
-        <v>1</v>
-      </c>
-      <c r="U36" s="330">
-        <v>1</v>
-      </c>
-      <c r="V36" s="300">
-        <v>1</v>
-      </c>
-      <c r="W36" s="322">
-        <v>1</v>
-      </c>
-      <c r="X36" s="322">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="322">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="322"/>
-      <c r="AA36" s="322"/>
-      <c r="AB36" s="322"/>
-      <c r="AC36" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="313">
+      <c r="T36" s="343">
+        <v>1</v>
+      </c>
+      <c r="U36" s="351">
+        <v>1</v>
+      </c>
+      <c r="V36" s="321">
+        <v>1</v>
+      </c>
+      <c r="W36" s="343">
+        <v>1</v>
+      </c>
+      <c r="X36" s="343">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="343">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="343"/>
+      <c r="AA36" s="343"/>
+      <c r="AB36" s="343"/>
+      <c r="AC36" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD36" s="334">
         <f>-20 - 20 + 80</f>
         <v>40</v>
       </c>
-      <c r="AE36" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF36" s="332">
+      <c r="AE36" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF36" s="353">
         <f>10 + 50</f>
         <v>60</v>
       </c>
-      <c r="AG36" s="325">
+      <c r="AG36" s="346">
         <f>100 - 100 + 50</f>
         <v>50</v>
       </c>
-      <c r="AH36" s="324">
+      <c r="AH36" s="345">
         <f>-20+80</f>
         <v>60</v>
       </c>
-      <c r="AI36" s="324"/>
-      <c r="AJ36" s="324"/>
-      <c r="AK36" s="324"/>
-      <c r="AL36" s="324">
-        <v>100</v>
-      </c>
-      <c r="AM36" s="324"/>
-      <c r="AN36" s="324"/>
-      <c r="AO36" s="324"/>
-      <c r="AP36" s="306">
+      <c r="AI36" s="345"/>
+      <c r="AJ36" s="345"/>
+      <c r="AK36" s="345"/>
+      <c r="AL36" s="345">
+        <v>100</v>
+      </c>
+      <c r="AM36" s="345"/>
+      <c r="AN36" s="345"/>
+      <c r="AO36" s="345"/>
+      <c r="AP36" s="327">
         <f t="shared" si="4"/>
         <v>104.23076923076923</v>
       </c>
     </row>
     <row r="37" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="308" t="s">
+      <c r="A37" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="297">
-        <v>0</v>
-      </c>
-      <c r="C37" s="298"/>
-      <c r="D37" s="298"/>
-      <c r="E37" s="298" t="s">
+      <c r="B37" s="318">
+        <v>0</v>
+      </c>
+      <c r="C37" s="319"/>
+      <c r="D37" s="319"/>
+      <c r="E37" s="319" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="300">
-        <v>1</v>
-      </c>
-      <c r="G37" s="310">
-        <v>1</v>
-      </c>
-      <c r="H37" s="310">
-        <v>1</v>
-      </c>
-      <c r="I37" s="310">
-        <v>1</v>
-      </c>
-      <c r="J37" s="310">
-        <v>1</v>
-      </c>
-      <c r="K37" s="310">
-        <v>1</v>
-      </c>
-      <c r="L37" s="310">
-        <v>1</v>
-      </c>
-      <c r="M37" s="310">
+      <c r="F37" s="321">
+        <v>1</v>
+      </c>
+      <c r="G37" s="331">
+        <v>1</v>
+      </c>
+      <c r="H37" s="331">
+        <v>1</v>
+      </c>
+      <c r="I37" s="331">
+        <v>1</v>
+      </c>
+      <c r="J37" s="331">
+        <v>1</v>
+      </c>
+      <c r="K37" s="331">
+        <v>1</v>
+      </c>
+      <c r="L37" s="331">
+        <v>1</v>
+      </c>
+      <c r="M37" s="331">
         <v>-0.5</v>
       </c>
-      <c r="N37" s="310">
-        <v>1</v>
-      </c>
-      <c r="O37" s="310">
-        <v>1</v>
-      </c>
-      <c r="P37" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="310">
-        <v>1</v>
-      </c>
-      <c r="R37" s="311">
-        <v>1</v>
-      </c>
-      <c r="S37" s="310">
+      <c r="N37" s="331">
+        <v>1</v>
+      </c>
+      <c r="O37" s="331">
+        <v>1</v>
+      </c>
+      <c r="P37" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="331">
+        <v>1</v>
+      </c>
+      <c r="R37" s="332">
+        <v>1</v>
+      </c>
+      <c r="S37" s="331">
         <v>3</v>
       </c>
-      <c r="T37" s="310">
-        <v>1</v>
-      </c>
-      <c r="U37" s="312">
-        <v>1</v>
-      </c>
-      <c r="V37" s="300">
-        <v>1</v>
-      </c>
-      <c r="W37" s="310">
-        <v>1</v>
-      </c>
-      <c r="X37" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="310"/>
-      <c r="AA37" s="310"/>
-      <c r="AB37" s="310"/>
-      <c r="AC37" s="313">
+      <c r="T37" s="331">
+        <v>1</v>
+      </c>
+      <c r="U37" s="333">
+        <v>1</v>
+      </c>
+      <c r="V37" s="321">
+        <v>1</v>
+      </c>
+      <c r="W37" s="331">
+        <v>1</v>
+      </c>
+      <c r="X37" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="331"/>
+      <c r="AA37" s="331"/>
+      <c r="AB37" s="331"/>
+      <c r="AC37" s="334">
         <v>60</v>
       </c>
-      <c r="AD37" s="313">
+      <c r="AD37" s="334">
         <f>-50 + 30 - 50 -50</f>
         <v>-120</v>
       </c>
-      <c r="AE37" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF37" s="315">
+      <c r="AE37" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="336">
         <f>-50 + 50 + 50</f>
         <v>50</v>
       </c>
-      <c r="AG37" s="317">
+      <c r="AG37" s="338">
         <v>70</v>
       </c>
-      <c r="AH37" s="316">
+      <c r="AH37" s="337">
         <v>-100</v>
       </c>
-      <c r="AI37" s="316"/>
-      <c r="AJ37" s="316"/>
-      <c r="AK37" s="316"/>
-      <c r="AL37" s="316">
+      <c r="AI37" s="337"/>
+      <c r="AJ37" s="337"/>
+      <c r="AK37" s="337"/>
+      <c r="AL37" s="337">
         <v>50</v>
       </c>
-      <c r="AM37" s="316"/>
-      <c r="AN37" s="316"/>
-      <c r="AO37" s="316"/>
-      <c r="AP37" s="306">
+      <c r="AM37" s="337"/>
+      <c r="AN37" s="337"/>
+      <c r="AO37" s="337"/>
+      <c r="AP37" s="327">
         <f t="shared" si="4"/>
         <v>83.07692307692308</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="320" t="s">
+      <c r="A38" s="341" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="297">
+      <c r="B38" s="318">
         <v>2</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="D38" s="298"/>
-      <c r="E38" s="321" t="s">
+      <c r="C38" s="319"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="342" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="300">
-        <v>1</v>
-      </c>
-      <c r="G38" s="310">
-        <v>1</v>
-      </c>
-      <c r="H38" s="310">
-        <v>1</v>
-      </c>
-      <c r="I38" s="310">
-        <v>1</v>
-      </c>
-      <c r="J38" s="310">
-        <v>1</v>
-      </c>
-      <c r="K38" s="310">
-        <v>1</v>
-      </c>
-      <c r="L38" s="310">
-        <v>1</v>
-      </c>
-      <c r="M38" s="310">
-        <v>1</v>
-      </c>
-      <c r="N38" s="310">
-        <v>1</v>
-      </c>
-      <c r="O38" s="310">
-        <v>1</v>
-      </c>
-      <c r="P38" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="310">
-        <v>1</v>
-      </c>
-      <c r="R38" s="311">
-        <v>1</v>
-      </c>
-      <c r="S38" s="310">
+      <c r="F38" s="321">
+        <v>1</v>
+      </c>
+      <c r="G38" s="331">
+        <v>1</v>
+      </c>
+      <c r="H38" s="331">
+        <v>1</v>
+      </c>
+      <c r="I38" s="331">
+        <v>1</v>
+      </c>
+      <c r="J38" s="331">
+        <v>1</v>
+      </c>
+      <c r="K38" s="331">
+        <v>1</v>
+      </c>
+      <c r="L38" s="331">
+        <v>1</v>
+      </c>
+      <c r="M38" s="331">
+        <v>1</v>
+      </c>
+      <c r="N38" s="331">
+        <v>1</v>
+      </c>
+      <c r="O38" s="331">
+        <v>1</v>
+      </c>
+      <c r="P38" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="331">
+        <v>1</v>
+      </c>
+      <c r="R38" s="332">
+        <v>1</v>
+      </c>
+      <c r="S38" s="331">
         <v>3</v>
       </c>
-      <c r="T38" s="310">
-        <v>1</v>
-      </c>
-      <c r="U38" s="312">
-        <v>1</v>
-      </c>
-      <c r="V38" s="300">
-        <v>1</v>
-      </c>
-      <c r="W38" s="310">
-        <v>1</v>
-      </c>
-      <c r="X38" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="310"/>
-      <c r="AA38" s="310"/>
-      <c r="AB38" s="310"/>
-      <c r="AC38" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="313">
+      <c r="T38" s="331">
+        <v>1</v>
+      </c>
+      <c r="U38" s="333">
+        <v>1</v>
+      </c>
+      <c r="V38" s="321">
+        <v>1</v>
+      </c>
+      <c r="W38" s="331">
+        <v>1</v>
+      </c>
+      <c r="X38" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="331"/>
+      <c r="AA38" s="331"/>
+      <c r="AB38" s="331"/>
+      <c r="AC38" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD38" s="334">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE38" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF38" s="315">
-        <v>100</v>
-      </c>
-      <c r="AG38" s="317">
+      <c r="AE38" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF38" s="336">
+        <v>100</v>
+      </c>
+      <c r="AG38" s="338">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH38" s="316">
+      <c r="AH38" s="337">
         <f>-20+100</f>
         <v>80</v>
       </c>
-      <c r="AI38" s="316"/>
-      <c r="AJ38" s="316"/>
-      <c r="AK38" s="316"/>
-      <c r="AL38" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="316"/>
-      <c r="AN38" s="316"/>
-      <c r="AO38" s="316"/>
-      <c r="AP38" s="306">
+      <c r="AI38" s="337"/>
+      <c r="AJ38" s="337"/>
+      <c r="AK38" s="337"/>
+      <c r="AL38" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="337"/>
+      <c r="AN38" s="337"/>
+      <c r="AO38" s="337"/>
+      <c r="AP38" s="327">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="341" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="297">
+      <c r="B39" s="318">
         <v>2</v>
       </c>
-      <c r="C39" s="298"/>
-      <c r="D39" s="298"/>
-      <c r="E39" s="321" t="s">
+      <c r="C39" s="319"/>
+      <c r="D39" s="319"/>
+      <c r="E39" s="342" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="300">
-        <v>1</v>
-      </c>
-      <c r="G39" s="310">
-        <v>1</v>
-      </c>
-      <c r="H39" s="310">
-        <v>1</v>
-      </c>
-      <c r="I39" s="310">
-        <v>1</v>
-      </c>
-      <c r="J39" s="310">
-        <v>1</v>
-      </c>
-      <c r="K39" s="310">
-        <v>1</v>
-      </c>
-      <c r="L39" s="310">
-        <v>1</v>
-      </c>
-      <c r="M39" s="310">
-        <v>1</v>
-      </c>
-      <c r="N39" s="310">
-        <v>1</v>
-      </c>
-      <c r="O39" s="310">
-        <v>1</v>
-      </c>
-      <c r="P39" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="310">
-        <v>1</v>
-      </c>
-      <c r="R39" s="311">
-        <v>1</v>
-      </c>
-      <c r="S39" s="310">
+      <c r="F39" s="321">
+        <v>1</v>
+      </c>
+      <c r="G39" s="331">
+        <v>1</v>
+      </c>
+      <c r="H39" s="331">
+        <v>1</v>
+      </c>
+      <c r="I39" s="331">
+        <v>1</v>
+      </c>
+      <c r="J39" s="331">
+        <v>1</v>
+      </c>
+      <c r="K39" s="331">
+        <v>1</v>
+      </c>
+      <c r="L39" s="331">
+        <v>1</v>
+      </c>
+      <c r="M39" s="331">
+        <v>1</v>
+      </c>
+      <c r="N39" s="331">
+        <v>1</v>
+      </c>
+      <c r="O39" s="331">
+        <v>1</v>
+      </c>
+      <c r="P39" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="331">
+        <v>1</v>
+      </c>
+      <c r="R39" s="332">
+        <v>1</v>
+      </c>
+      <c r="S39" s="331">
         <v>3</v>
       </c>
-      <c r="T39" s="310">
-        <v>1</v>
-      </c>
-      <c r="U39" s="312">
-        <v>1</v>
-      </c>
-      <c r="V39" s="300">
-        <v>1</v>
-      </c>
-      <c r="W39" s="310">
-        <v>1</v>
-      </c>
-      <c r="X39" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="310"/>
-      <c r="AA39" s="310"/>
-      <c r="AB39" s="310"/>
-      <c r="AC39" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD39" s="313">
-        <v>100</v>
-      </c>
-      <c r="AE39" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF39" s="315">
-        <v>100</v>
-      </c>
-      <c r="AG39" s="317">
-        <v>100</v>
-      </c>
-      <c r="AH39" s="316">
-        <v>100</v>
-      </c>
-      <c r="AI39" s="316"/>
-      <c r="AJ39" s="316"/>
-      <c r="AK39" s="316"/>
-      <c r="AL39" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM39" s="316"/>
-      <c r="AN39" s="316"/>
-      <c r="AO39" s="316"/>
-      <c r="AP39" s="306">
+      <c r="T39" s="331">
+        <v>1</v>
+      </c>
+      <c r="U39" s="333">
+        <v>1</v>
+      </c>
+      <c r="V39" s="321">
+        <v>1</v>
+      </c>
+      <c r="W39" s="331">
+        <v>1</v>
+      </c>
+      <c r="X39" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="331"/>
+      <c r="AA39" s="331"/>
+      <c r="AB39" s="331"/>
+      <c r="AC39" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD39" s="334">
+        <v>100</v>
+      </c>
+      <c r="AE39" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF39" s="336">
+        <v>100</v>
+      </c>
+      <c r="AG39" s="338">
+        <v>100</v>
+      </c>
+      <c r="AH39" s="337">
+        <v>100</v>
+      </c>
+      <c r="AI39" s="337"/>
+      <c r="AJ39" s="337"/>
+      <c r="AK39" s="337"/>
+      <c r="AL39" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="337"/>
+      <c r="AN39" s="337"/>
+      <c r="AO39" s="337"/>
+      <c r="AP39" s="327">
         <f t="shared" si="4"/>
         <v>111.53846153846153</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="308" t="s">
+      <c r="A40" s="329" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="297">
+      <c r="B40" s="318">
         <v>2</v>
       </c>
-      <c r="C40" s="298"/>
-      <c r="D40" s="298"/>
-      <c r="E40" s="321" t="s">
+      <c r="C40" s="319"/>
+      <c r="D40" s="319"/>
+      <c r="E40" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="300">
-        <v>1</v>
-      </c>
-      <c r="G40" s="310">
-        <v>1</v>
-      </c>
-      <c r="H40" s="310">
-        <v>1</v>
-      </c>
-      <c r="I40" s="310">
-        <v>1</v>
-      </c>
-      <c r="J40" s="310">
-        <v>1</v>
-      </c>
-      <c r="K40" s="310">
-        <v>1</v>
-      </c>
-      <c r="L40" s="310">
-        <v>1</v>
-      </c>
-      <c r="M40" s="310">
-        <v>1</v>
-      </c>
-      <c r="N40" s="310">
-        <v>1</v>
-      </c>
-      <c r="O40" s="310">
-        <v>1</v>
-      </c>
-      <c r="P40" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="310">
-        <v>1</v>
-      </c>
-      <c r="R40" s="311">
-        <v>1</v>
-      </c>
-      <c r="S40" s="310">
+      <c r="F40" s="321">
+        <v>1</v>
+      </c>
+      <c r="G40" s="331">
+        <v>1</v>
+      </c>
+      <c r="H40" s="331">
+        <v>1</v>
+      </c>
+      <c r="I40" s="331">
+        <v>1</v>
+      </c>
+      <c r="J40" s="331">
+        <v>1</v>
+      </c>
+      <c r="K40" s="331">
+        <v>1</v>
+      </c>
+      <c r="L40" s="331">
+        <v>1</v>
+      </c>
+      <c r="M40" s="331">
+        <v>1</v>
+      </c>
+      <c r="N40" s="331">
+        <v>1</v>
+      </c>
+      <c r="O40" s="331">
+        <v>1</v>
+      </c>
+      <c r="P40" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="331">
+        <v>1</v>
+      </c>
+      <c r="R40" s="332">
+        <v>1</v>
+      </c>
+      <c r="S40" s="331">
         <v>3</v>
       </c>
-      <c r="T40" s="310">
-        <v>1</v>
-      </c>
-      <c r="U40" s="312">
-        <v>1</v>
-      </c>
-      <c r="V40" s="300">
-        <v>1</v>
-      </c>
-      <c r="W40" s="310">
-        <v>1</v>
-      </c>
-      <c r="X40" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="310"/>
-      <c r="AA40" s="310"/>
-      <c r="AB40" s="310"/>
-      <c r="AC40" s="313">
+      <c r="T40" s="331">
+        <v>1</v>
+      </c>
+      <c r="U40" s="333">
+        <v>1</v>
+      </c>
+      <c r="V40" s="321">
+        <v>1</v>
+      </c>
+      <c r="W40" s="331">
+        <v>1</v>
+      </c>
+      <c r="X40" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="331"/>
+      <c r="AA40" s="331"/>
+      <c r="AB40" s="331"/>
+      <c r="AC40" s="334">
         <v>60</v>
       </c>
-      <c r="AD40" s="313">
-        <v>100</v>
-      </c>
-      <c r="AE40" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF40" s="315">
+      <c r="AD40" s="334">
+        <v>100</v>
+      </c>
+      <c r="AE40" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="336">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG40" s="317">
-        <v>100</v>
-      </c>
-      <c r="AH40" s="316">
-        <v>100</v>
-      </c>
-      <c r="AI40" s="324"/>
-      <c r="AJ40" s="324"/>
-      <c r="AK40" s="324"/>
-      <c r="AL40" s="324">
-        <v>100</v>
-      </c>
-      <c r="AM40" s="316"/>
-      <c r="AN40" s="316"/>
-      <c r="AO40" s="316"/>
-      <c r="AP40" s="306">
+      <c r="AG40" s="338">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="337">
+        <v>100</v>
+      </c>
+      <c r="AI40" s="345"/>
+      <c r="AJ40" s="345"/>
+      <c r="AK40" s="345"/>
+      <c r="AL40" s="345">
+        <v>100</v>
+      </c>
+      <c r="AM40" s="337"/>
+      <c r="AN40" s="337"/>
+      <c r="AO40" s="337"/>
+      <c r="AP40" s="327">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="308" t="s">
+      <c r="A41" s="329" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="297">
+      <c r="B41" s="318">
         <v>2</v>
       </c>
-      <c r="C41" s="298"/>
-      <c r="D41" s="298"/>
-      <c r="E41" s="321" t="s">
+      <c r="C41" s="319"/>
+      <c r="D41" s="319"/>
+      <c r="E41" s="342" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="300">
-        <v>1</v>
-      </c>
-      <c r="G41" s="300">
+      <c r="F41" s="321">
+        <v>1</v>
+      </c>
+      <c r="G41" s="321">
         <v>-0.5</v>
       </c>
-      <c r="H41" s="322">
-        <v>1</v>
-      </c>
-      <c r="I41" s="322">
-        <v>1</v>
-      </c>
-      <c r="J41" s="322">
-        <v>1</v>
-      </c>
-      <c r="K41" s="322">
-        <v>1</v>
-      </c>
-      <c r="L41" s="300">
+      <c r="H41" s="343">
+        <v>1</v>
+      </c>
+      <c r="I41" s="343">
+        <v>1</v>
+      </c>
+      <c r="J41" s="343">
+        <v>1</v>
+      </c>
+      <c r="K41" s="343">
+        <v>1</v>
+      </c>
+      <c r="L41" s="321">
         <v>-0.5</v>
       </c>
-      <c r="M41" s="322">
-        <v>1</v>
-      </c>
-      <c r="N41" s="322">
-        <v>1</v>
-      </c>
-      <c r="O41" s="322">
-        <v>1</v>
-      </c>
-      <c r="P41" s="322">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="322">
-        <v>1</v>
-      </c>
-      <c r="R41" s="329">
-        <v>1</v>
-      </c>
-      <c r="S41" s="322">
+      <c r="M41" s="343">
+        <v>1</v>
+      </c>
+      <c r="N41" s="343">
+        <v>1</v>
+      </c>
+      <c r="O41" s="343">
+        <v>1</v>
+      </c>
+      <c r="P41" s="343">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="343">
+        <v>1</v>
+      </c>
+      <c r="R41" s="350">
+        <v>1</v>
+      </c>
+      <c r="S41" s="343">
         <v>3</v>
       </c>
-      <c r="T41" s="322">
-        <v>1</v>
-      </c>
-      <c r="U41" s="330">
-        <v>1</v>
-      </c>
-      <c r="V41" s="300">
-        <v>1</v>
-      </c>
-      <c r="W41" s="322">
-        <v>1</v>
-      </c>
-      <c r="X41" s="322">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="322">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="322"/>
-      <c r="AA41" s="322"/>
-      <c r="AB41" s="322"/>
-      <c r="AC41" s="313">
+      <c r="T41" s="343">
+        <v>1</v>
+      </c>
+      <c r="U41" s="351">
+        <v>1</v>
+      </c>
+      <c r="V41" s="321">
+        <v>1</v>
+      </c>
+      <c r="W41" s="343">
+        <v>1</v>
+      </c>
+      <c r="X41" s="343">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="343">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="343"/>
+      <c r="AA41" s="343"/>
+      <c r="AB41" s="343"/>
+      <c r="AC41" s="334">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD41" s="313">
+      <c r="AD41" s="334">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE41" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF41" s="315">
-        <v>100</v>
-      </c>
-      <c r="AG41" s="325">
+      <c r="AE41" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="336">
+        <v>100</v>
+      </c>
+      <c r="AG41" s="346">
         <v>60</v>
       </c>
-      <c r="AH41" s="324">
-        <v>100</v>
-      </c>
-      <c r="AI41" s="324"/>
-      <c r="AJ41" s="324"/>
-      <c r="AK41" s="324"/>
-      <c r="AL41" s="324">
-        <v>100</v>
-      </c>
-      <c r="AM41" s="324"/>
-      <c r="AN41" s="324"/>
-      <c r="AO41" s="324"/>
-      <c r="AP41" s="306">
+      <c r="AH41" s="345">
+        <v>100</v>
+      </c>
+      <c r="AI41" s="345"/>
+      <c r="AJ41" s="345"/>
+      <c r="AK41" s="345"/>
+      <c r="AL41" s="345">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="345"/>
+      <c r="AN41" s="345"/>
+      <c r="AO41" s="345"/>
+      <c r="AP41" s="327">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="308" t="s">
+      <c r="A42" s="329" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="297">
-        <v>0</v>
-      </c>
-      <c r="C42" s="298"/>
-      <c r="D42" s="298"/>
-      <c r="E42" s="327" t="s">
+      <c r="B42" s="318">
+        <v>0</v>
+      </c>
+      <c r="C42" s="319"/>
+      <c r="D42" s="319"/>
+      <c r="E42" s="348" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="300">
-        <v>1</v>
-      </c>
-      <c r="G42" s="300">
+      <c r="F42" s="321">
+        <v>1</v>
+      </c>
+      <c r="G42" s="321">
         <v>-0.5</v>
       </c>
-      <c r="H42" s="310">
-        <v>1</v>
-      </c>
-      <c r="I42" s="300">
+      <c r="H42" s="331">
+        <v>1</v>
+      </c>
+      <c r="I42" s="321">
         <v>-0.5</v>
       </c>
-      <c r="J42" s="310">
-        <v>1</v>
-      </c>
-      <c r="K42" s="310">
-        <v>1</v>
-      </c>
-      <c r="L42" s="310">
-        <v>1</v>
-      </c>
-      <c r="M42" s="310">
-        <v>1</v>
-      </c>
-      <c r="N42" s="310">
-        <v>1</v>
-      </c>
-      <c r="O42" s="310">
-        <v>1</v>
-      </c>
-      <c r="P42" s="310">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="310">
-        <v>1</v>
-      </c>
-      <c r="R42" s="311">
-        <v>1</v>
-      </c>
-      <c r="S42" s="310">
+      <c r="J42" s="331">
+        <v>1</v>
+      </c>
+      <c r="K42" s="331">
+        <v>1</v>
+      </c>
+      <c r="L42" s="331">
+        <v>1</v>
+      </c>
+      <c r="M42" s="331">
+        <v>1</v>
+      </c>
+      <c r="N42" s="331">
+        <v>1</v>
+      </c>
+      <c r="O42" s="331">
+        <v>1</v>
+      </c>
+      <c r="P42" s="331">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="331">
+        <v>1</v>
+      </c>
+      <c r="R42" s="332">
+        <v>1</v>
+      </c>
+      <c r="S42" s="331">
         <v>3</v>
       </c>
-      <c r="T42" s="310">
-        <v>1</v>
-      </c>
-      <c r="U42" s="312">
-        <v>1</v>
-      </c>
-      <c r="V42" s="300">
-        <v>1</v>
-      </c>
-      <c r="W42" s="310">
-        <v>1</v>
-      </c>
-      <c r="X42" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="310"/>
-      <c r="AA42" s="310"/>
-      <c r="AB42" s="310"/>
-      <c r="AC42" s="313">
+      <c r="T42" s="331">
+        <v>1</v>
+      </c>
+      <c r="U42" s="333">
+        <v>1</v>
+      </c>
+      <c r="V42" s="321">
+        <v>1</v>
+      </c>
+      <c r="W42" s="331">
+        <v>1</v>
+      </c>
+      <c r="X42" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="331"/>
+      <c r="AA42" s="331"/>
+      <c r="AB42" s="331"/>
+      <c r="AC42" s="334">
         <f>-40 - 20 + 100</f>
         <v>40</v>
       </c>
-      <c r="AD42" s="323">
+      <c r="AD42" s="344">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE42" s="316">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="316">
+      <c r="AE42" s="337">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="337">
         <f>-50 + 20 - 20+50</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="317">
+      <c r="AG42" s="338">
         <v>-100</v>
       </c>
-      <c r="AH42" s="316">
+      <c r="AH42" s="337">
         <v>70</v>
       </c>
-      <c r="AI42" s="324"/>
-      <c r="AJ42" s="324"/>
-      <c r="AK42" s="324"/>
-      <c r="AL42" s="324">
-        <v>100</v>
-      </c>
-      <c r="AM42" s="316"/>
-      <c r="AN42" s="316"/>
-      <c r="AO42" s="316"/>
-      <c r="AP42" s="306">
+      <c r="AI42" s="345"/>
+      <c r="AJ42" s="345"/>
+      <c r="AK42" s="345"/>
+      <c r="AL42" s="345">
+        <v>100</v>
+      </c>
+      <c r="AM42" s="337"/>
+      <c r="AN42" s="337"/>
+      <c r="AO42" s="337"/>
+      <c r="AP42" s="327">
         <f t="shared" si="4"/>
         <v>73.461538461538467</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="308" t="s">
+      <c r="A43" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="297">
-        <v>0</v>
-      </c>
-      <c r="C43" s="279"/>
-      <c r="D43" s="279"/>
-      <c r="E43" s="327" t="s">
+      <c r="B43" s="318">
+        <v>0</v>
+      </c>
+      <c r="C43" s="354"/>
+      <c r="D43" s="354"/>
+      <c r="E43" s="348" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="300">
-        <v>1</v>
-      </c>
-      <c r="G43" s="310">
-        <v>1</v>
-      </c>
-      <c r="H43" s="300">
+      <c r="F43" s="321">
+        <v>1</v>
+      </c>
+      <c r="G43" s="331">
+        <v>1</v>
+      </c>
+      <c r="H43" s="321">
         <v>-0.5</v>
       </c>
-      <c r="I43" s="300">
+      <c r="I43" s="321">
         <v>-0.5</v>
       </c>
-      <c r="J43" s="310">
-        <v>1</v>
-      </c>
-      <c r="K43" s="310">
-        <v>1</v>
-      </c>
-      <c r="L43" s="310">
-        <v>1</v>
-      </c>
-      <c r="M43" s="310">
+      <c r="J43" s="331">
+        <v>1</v>
+      </c>
+      <c r="K43" s="331">
+        <v>1</v>
+      </c>
+      <c r="L43" s="331">
+        <v>1</v>
+      </c>
+      <c r="M43" s="331">
         <v>-0.5</v>
       </c>
-      <c r="N43" s="310">
-        <v>1</v>
-      </c>
-      <c r="O43" s="310">
-        <v>1</v>
-      </c>
-      <c r="P43" s="310">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="310">
-        <v>1</v>
-      </c>
-      <c r="R43" s="311">
-        <v>1</v>
-      </c>
-      <c r="S43" s="310">
+      <c r="N43" s="331">
+        <v>1</v>
+      </c>
+      <c r="O43" s="331">
+        <v>1</v>
+      </c>
+      <c r="P43" s="331">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="331">
+        <v>1</v>
+      </c>
+      <c r="R43" s="332">
+        <v>1</v>
+      </c>
+      <c r="S43" s="331">
         <v>3</v>
       </c>
-      <c r="T43" s="310">
-        <v>1</v>
-      </c>
-      <c r="U43" s="312">
+      <c r="T43" s="331">
+        <v>1</v>
+      </c>
+      <c r="U43" s="333">
         <v>-1</v>
       </c>
-      <c r="V43" s="300">
-        <v>1</v>
-      </c>
-      <c r="W43" s="310">
-        <v>1</v>
-      </c>
-      <c r="X43" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="310"/>
-      <c r="AC43" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD43" s="313">
+      <c r="V43" s="321">
+        <v>1</v>
+      </c>
+      <c r="W43" s="331">
+        <v>1</v>
+      </c>
+      <c r="X43" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="331"/>
+      <c r="AA43" s="331"/>
+      <c r="AB43" s="331"/>
+      <c r="AC43" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="334">
         <f>-50 - 50 + 40</f>
         <v>-60</v>
       </c>
-      <c r="AE43" s="316">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="316">
+      <c r="AE43" s="337">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="337">
         <f>-50-20+100</f>
         <v>30</v>
       </c>
-      <c r="AG43" s="317">
+      <c r="AG43" s="338">
         <v>70</v>
       </c>
-      <c r="AH43" s="316">
-        <v>100</v>
-      </c>
-      <c r="AI43" s="316">
+      <c r="AH43" s="337">
+        <v>100</v>
+      </c>
+      <c r="AI43" s="337">
         <v>40</v>
       </c>
-      <c r="AJ43" s="316"/>
-      <c r="AK43" s="316"/>
-      <c r="AL43" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM43" s="316"/>
-      <c r="AN43" s="316"/>
-      <c r="AO43" s="316"/>
-      <c r="AP43" s="306">
+      <c r="AJ43" s="337"/>
+      <c r="AK43" s="337"/>
+      <c r="AL43" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM43" s="337"/>
+      <c r="AN43" s="337"/>
+      <c r="AO43" s="337"/>
+      <c r="AP43" s="327">
         <f t="shared" si="4"/>
         <v>70.384615384615387</v>
       </c>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A44" s="308" t="s">
+      <c r="A44" s="329" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="297">
-        <v>0</v>
-      </c>
-      <c r="C44" s="298"/>
-      <c r="D44" s="298"/>
-      <c r="E44" s="321" t="s">
+      <c r="B44" s="318">
+        <v>0</v>
+      </c>
+      <c r="C44" s="319"/>
+      <c r="D44" s="319"/>
+      <c r="E44" s="342" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="300">
-        <v>1</v>
-      </c>
-      <c r="G44" s="333">
-        <v>1</v>
-      </c>
-      <c r="H44" s="333">
-        <v>1</v>
-      </c>
-      <c r="I44" s="333">
-        <v>1</v>
-      </c>
-      <c r="J44" s="333">
-        <v>1</v>
-      </c>
-      <c r="K44" s="333">
-        <v>1</v>
-      </c>
-      <c r="L44" s="333">
-        <v>1</v>
-      </c>
-      <c r="M44" s="333">
+      <c r="F44" s="321">
+        <v>1</v>
+      </c>
+      <c r="G44" s="355">
+        <v>1</v>
+      </c>
+      <c r="H44" s="355">
+        <v>1</v>
+      </c>
+      <c r="I44" s="355">
+        <v>1</v>
+      </c>
+      <c r="J44" s="355">
+        <v>1</v>
+      </c>
+      <c r="K44" s="355">
+        <v>1</v>
+      </c>
+      <c r="L44" s="355">
+        <v>1</v>
+      </c>
+      <c r="M44" s="355">
         <v>-0.5</v>
       </c>
-      <c r="N44" s="333">
-        <v>1</v>
-      </c>
-      <c r="O44" s="333">
-        <v>1</v>
-      </c>
-      <c r="P44" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="333">
-        <v>1</v>
-      </c>
-      <c r="R44" s="334">
-        <v>1</v>
-      </c>
-      <c r="S44" s="333">
+      <c r="N44" s="355">
+        <v>1</v>
+      </c>
+      <c r="O44" s="355">
+        <v>1</v>
+      </c>
+      <c r="P44" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="355">
+        <v>1</v>
+      </c>
+      <c r="R44" s="356">
+        <v>1</v>
+      </c>
+      <c r="S44" s="355">
         <v>3</v>
       </c>
-      <c r="T44" s="333">
-        <v>1</v>
-      </c>
-      <c r="U44" s="312">
+      <c r="T44" s="355">
+        <v>1</v>
+      </c>
+      <c r="U44" s="333">
         <v>-1</v>
       </c>
-      <c r="V44" s="300">
-        <v>1</v>
-      </c>
-      <c r="W44" s="310">
-        <v>1</v>
-      </c>
-      <c r="X44" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="310">
+      <c r="V44" s="321">
+        <v>1</v>
+      </c>
+      <c r="W44" s="331">
+        <v>1</v>
+      </c>
+      <c r="X44" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="331">
         <v>-1</v>
       </c>
-      <c r="Z44" s="310"/>
-      <c r="AA44" s="310"/>
-      <c r="AB44" s="310"/>
-      <c r="AC44" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD44" s="319">
+      <c r="Z44" s="331"/>
+      <c r="AA44" s="331"/>
+      <c r="AB44" s="331"/>
+      <c r="AC44" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="340">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE44" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF44" s="316">
+      <c r="AE44" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF44" s="337">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="AG44" s="316">
+      <c r="AG44" s="337">
         <v>40</v>
       </c>
-      <c r="AH44" s="315">
-        <v>100</v>
-      </c>
-      <c r="AI44" s="316"/>
-      <c r="AJ44" s="316"/>
-      <c r="AK44" s="316"/>
-      <c r="AL44" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM44" s="316"/>
-      <c r="AN44" s="316"/>
-      <c r="AO44" s="316"/>
-      <c r="AP44" s="306">
+      <c r="AH44" s="336">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="337"/>
+      <c r="AJ44" s="337"/>
+      <c r="AK44" s="337"/>
+      <c r="AL44" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM44" s="337"/>
+      <c r="AN44" s="337"/>
+      <c r="AO44" s="337"/>
+      <c r="AP44" s="327">
         <f t="shared" si="4"/>
         <v>78.461538461538467</v>
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A45" s="308" t="s">
+      <c r="A45" s="329" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="297">
-        <v>1</v>
-      </c>
-      <c r="C45" s="298"/>
-      <c r="D45" s="298"/>
-      <c r="E45" s="298" t="s">
+      <c r="B45" s="318">
+        <v>1</v>
+      </c>
+      <c r="C45" s="319"/>
+      <c r="D45" s="319"/>
+      <c r="E45" s="319" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="300">
-        <v>1</v>
-      </c>
-      <c r="G45" s="300">
+      <c r="F45" s="321">
+        <v>1</v>
+      </c>
+      <c r="G45" s="321">
         <v>-0.5</v>
       </c>
-      <c r="H45" s="333">
-        <v>1</v>
-      </c>
-      <c r="I45" s="333">
-        <v>1</v>
-      </c>
-      <c r="J45" s="333">
-        <v>1</v>
-      </c>
-      <c r="K45" s="333">
-        <v>1</v>
-      </c>
-      <c r="L45" s="300">
+      <c r="H45" s="355">
+        <v>1</v>
+      </c>
+      <c r="I45" s="355">
+        <v>1</v>
+      </c>
+      <c r="J45" s="355">
+        <v>1</v>
+      </c>
+      <c r="K45" s="355">
+        <v>1</v>
+      </c>
+      <c r="L45" s="321">
         <v>-0.5</v>
       </c>
-      <c r="M45" s="333">
-        <v>1</v>
-      </c>
-      <c r="N45" s="333">
-        <v>1</v>
-      </c>
-      <c r="O45" s="333">
-        <v>1</v>
-      </c>
-      <c r="P45" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="333">
-        <v>1</v>
-      </c>
-      <c r="R45" s="334">
-        <v>1</v>
-      </c>
-      <c r="S45" s="333">
+      <c r="M45" s="355">
+        <v>1</v>
+      </c>
+      <c r="N45" s="355">
+        <v>1</v>
+      </c>
+      <c r="O45" s="355">
+        <v>1</v>
+      </c>
+      <c r="P45" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="355">
+        <v>1</v>
+      </c>
+      <c r="R45" s="356">
+        <v>1</v>
+      </c>
+      <c r="S45" s="355">
         <v>3</v>
       </c>
-      <c r="T45" s="333">
-        <v>1</v>
-      </c>
-      <c r="U45" s="335">
-        <v>1</v>
-      </c>
-      <c r="V45" s="300">
-        <v>1</v>
-      </c>
-      <c r="W45" s="333">
-        <v>1</v>
-      </c>
-      <c r="X45" s="333">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="333">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="333"/>
-      <c r="AA45" s="333"/>
-      <c r="AB45" s="333"/>
-      <c r="AC45" s="313">
+      <c r="T45" s="355">
+        <v>1</v>
+      </c>
+      <c r="U45" s="357">
+        <v>1</v>
+      </c>
+      <c r="V45" s="321">
+        <v>1</v>
+      </c>
+      <c r="W45" s="355">
+        <v>1</v>
+      </c>
+      <c r="X45" s="355">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="355">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="355"/>
+      <c r="AA45" s="355"/>
+      <c r="AB45" s="355"/>
+      <c r="AC45" s="334">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD45" s="313">
+      <c r="AD45" s="334">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE45" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF45" s="315">
+      <c r="AE45" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="336">
         <f>-50 + 130</f>
         <v>80</v>
       </c>
-      <c r="AG45" s="316">
+      <c r="AG45" s="337">
         <v>-100</v>
       </c>
-      <c r="AH45" s="316">
+      <c r="AH45" s="337">
         <v>-100</v>
       </c>
-      <c r="AI45" s="316"/>
-      <c r="AJ45" s="316"/>
-      <c r="AK45" s="316"/>
-      <c r="AL45" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM45" s="316"/>
-      <c r="AN45" s="316"/>
-      <c r="AO45" s="316"/>
-      <c r="AP45" s="306">
+      <c r="AI45" s="337"/>
+      <c r="AJ45" s="337"/>
+      <c r="AK45" s="337"/>
+      <c r="AL45" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="337"/>
+      <c r="AN45" s="337"/>
+      <c r="AO45" s="337"/>
+      <c r="AP45" s="327">
         <f t="shared" si="4"/>
         <v>80.384615384615387</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A46" s="308" t="s">
+      <c r="A46" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="297">
-        <v>1</v>
-      </c>
-      <c r="C46" s="298"/>
-      <c r="D46" s="298"/>
-      <c r="E46" s="309" t="s">
+      <c r="B46" s="318">
+        <v>1</v>
+      </c>
+      <c r="C46" s="319"/>
+      <c r="D46" s="319"/>
+      <c r="E46" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="300">
-        <v>1</v>
-      </c>
-      <c r="G46" s="333">
-        <v>1</v>
-      </c>
-      <c r="H46" s="333">
-        <v>1</v>
-      </c>
-      <c r="I46" s="333">
-        <v>1</v>
-      </c>
-      <c r="J46" s="300">
+      <c r="F46" s="321">
+        <v>1</v>
+      </c>
+      <c r="G46" s="355">
+        <v>1</v>
+      </c>
+      <c r="H46" s="355">
+        <v>1</v>
+      </c>
+      <c r="I46" s="355">
+        <v>1</v>
+      </c>
+      <c r="J46" s="321">
         <v>-0.5</v>
       </c>
-      <c r="K46" s="333">
-        <v>1</v>
-      </c>
-      <c r="L46" s="333">
-        <v>1</v>
-      </c>
-      <c r="M46" s="333">
+      <c r="K46" s="355">
+        <v>1</v>
+      </c>
+      <c r="L46" s="355">
+        <v>1</v>
+      </c>
+      <c r="M46" s="355">
         <v>-0.5</v>
       </c>
-      <c r="N46" s="333">
-        <v>1</v>
-      </c>
-      <c r="O46" s="333">
-        <v>1</v>
-      </c>
-      <c r="P46" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="333">
-        <v>1</v>
-      </c>
-      <c r="R46" s="334">
-        <v>1</v>
-      </c>
-      <c r="S46" s="333">
+      <c r="N46" s="355">
+        <v>1</v>
+      </c>
+      <c r="O46" s="355">
+        <v>1</v>
+      </c>
+      <c r="P46" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="355">
+        <v>1</v>
+      </c>
+      <c r="R46" s="356">
+        <v>1</v>
+      </c>
+      <c r="S46" s="355">
         <v>3</v>
       </c>
-      <c r="T46" s="333">
-        <v>1</v>
-      </c>
-      <c r="U46" s="335">
-        <v>1</v>
-      </c>
-      <c r="V46" s="300">
-        <v>1</v>
-      </c>
-      <c r="W46" s="333">
-        <v>1</v>
-      </c>
-      <c r="X46" s="333">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="333">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="333"/>
-      <c r="AA46" s="333"/>
-      <c r="AB46" s="333"/>
-      <c r="AC46" s="313">
-        <v>100</v>
-      </c>
-      <c r="AD46" s="313">
+      <c r="T46" s="355">
+        <v>1</v>
+      </c>
+      <c r="U46" s="357">
+        <v>1</v>
+      </c>
+      <c r="V46" s="321">
+        <v>1</v>
+      </c>
+      <c r="W46" s="355">
+        <v>1</v>
+      </c>
+      <c r="X46" s="355">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="355">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="355"/>
+      <c r="AA46" s="355"/>
+      <c r="AB46" s="355"/>
+      <c r="AC46" s="334">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="334">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF46" s="315">
+      <c r="AE46" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="336">
         <f>50 + 10 + 20+20</f>
         <v>100</v>
       </c>
-      <c r="AG46" s="316">
+      <c r="AG46" s="337">
         <v>-100</v>
       </c>
-      <c r="AH46" s="316">
+      <c r="AH46" s="337">
         <v>-100</v>
       </c>
-      <c r="AI46" s="316"/>
-      <c r="AJ46" s="316"/>
-      <c r="AK46" s="316"/>
-      <c r="AL46" s="316">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="316"/>
-      <c r="AN46" s="316"/>
-      <c r="AO46" s="316"/>
-      <c r="AP46" s="306">
+      <c r="AI46" s="337"/>
+      <c r="AJ46" s="337"/>
+      <c r="AK46" s="337"/>
+      <c r="AL46" s="337">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="337"/>
+      <c r="AN46" s="337"/>
+      <c r="AO46" s="337"/>
+      <c r="AP46" s="327">
         <f t="shared" si="4"/>
         <v>76.961538461538467</v>
       </c>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A47" s="331" t="s">
+      <c r="A47" s="352" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="297">
-        <v>0</v>
-      </c>
-      <c r="C47" s="298"/>
-      <c r="D47" s="298"/>
-      <c r="E47" s="298" t="s">
+      <c r="B47" s="318">
+        <v>0</v>
+      </c>
+      <c r="C47" s="319"/>
+      <c r="D47" s="319"/>
+      <c r="E47" s="319" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="300">
-        <v>1</v>
-      </c>
-      <c r="G47" s="333">
-        <v>1</v>
-      </c>
-      <c r="H47" s="333">
-        <v>1</v>
-      </c>
-      <c r="I47" s="333">
-        <v>1</v>
-      </c>
-      <c r="J47" s="333">
-        <v>1</v>
-      </c>
-      <c r="K47" s="333">
-        <v>1</v>
-      </c>
-      <c r="L47" s="333">
-        <v>1</v>
-      </c>
-      <c r="M47" s="333">
-        <v>1</v>
-      </c>
-      <c r="N47" s="333">
-        <v>1</v>
-      </c>
-      <c r="O47" s="333">
-        <v>1</v>
-      </c>
-      <c r="P47" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="333">
-        <v>1</v>
-      </c>
-      <c r="R47" s="334">
-        <v>1</v>
-      </c>
-      <c r="S47" s="333">
+      <c r="F47" s="321">
+        <v>1</v>
+      </c>
+      <c r="G47" s="355">
+        <v>1</v>
+      </c>
+      <c r="H47" s="355">
+        <v>1</v>
+      </c>
+      <c r="I47" s="355">
+        <v>1</v>
+      </c>
+      <c r="J47" s="355">
+        <v>1</v>
+      </c>
+      <c r="K47" s="355">
+        <v>1</v>
+      </c>
+      <c r="L47" s="355">
+        <v>1</v>
+      </c>
+      <c r="M47" s="355">
+        <v>1</v>
+      </c>
+      <c r="N47" s="355">
+        <v>1</v>
+      </c>
+      <c r="O47" s="355">
+        <v>1</v>
+      </c>
+      <c r="P47" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="355">
+        <v>1</v>
+      </c>
+      <c r="R47" s="356">
+        <v>1</v>
+      </c>
+      <c r="S47" s="355">
         <v>3</v>
       </c>
-      <c r="T47" s="333">
-        <v>1</v>
-      </c>
-      <c r="U47" s="335">
-        <v>1</v>
-      </c>
-      <c r="V47" s="300">
-        <v>1</v>
-      </c>
-      <c r="W47" s="333">
-        <v>1</v>
-      </c>
-      <c r="X47" s="333">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="333">
+      <c r="T47" s="355">
+        <v>1</v>
+      </c>
+      <c r="U47" s="357">
+        <v>1</v>
+      </c>
+      <c r="V47" s="321">
+        <v>1</v>
+      </c>
+      <c r="W47" s="355">
+        <v>1</v>
+      </c>
+      <c r="X47" s="355">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="355">
         <v>-1</v>
       </c>
-      <c r="Z47" s="333"/>
-      <c r="AA47" s="333"/>
-      <c r="AB47" s="333"/>
-      <c r="AC47" s="313">
+      <c r="Z47" s="355"/>
+      <c r="AA47" s="355"/>
+      <c r="AB47" s="355"/>
+      <c r="AC47" s="334">
         <v>60</v>
       </c>
-      <c r="AD47" s="323">
+      <c r="AD47" s="344">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE47" s="315">
-        <v>100</v>
-      </c>
-      <c r="AF47" s="316">
+      <c r="AE47" s="336">
+        <v>100</v>
+      </c>
+      <c r="AF47" s="337">
         <v>-100</v>
       </c>
-      <c r="AG47" s="316">
+      <c r="AG47" s="337">
         <v>-100</v>
       </c>
-      <c r="AH47" s="316">
+      <c r="AH47" s="337">
         <v>-100</v>
       </c>
-      <c r="AI47" s="316"/>
-      <c r="AJ47" s="316"/>
-      <c r="AK47" s="316"/>
-      <c r="AL47" s="316"/>
-      <c r="AM47" s="316"/>
-      <c r="AN47" s="316"/>
-      <c r="AO47" s="316"/>
-      <c r="AP47" s="306">
+      <c r="AI47" s="337"/>
+      <c r="AJ47" s="337"/>
+      <c r="AK47" s="337"/>
+      <c r="AL47" s="337"/>
+      <c r="AM47" s="337"/>
+      <c r="AN47" s="337"/>
+      <c r="AO47" s="337"/>
+      <c r="AP47" s="327">
         <f t="shared" si="4"/>
         <v>67.692307692307693</v>
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A48" s="326" t="s">
+      <c r="A48" s="347" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="297">
-        <v>1</v>
-      </c>
-      <c r="C48" s="298"/>
-      <c r="D48" s="298"/>
-      <c r="E48" s="327" t="s">
+      <c r="B48" s="318">
+        <v>1</v>
+      </c>
+      <c r="C48" s="319"/>
+      <c r="D48" s="319"/>
+      <c r="E48" s="348" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="300">
-        <v>1</v>
-      </c>
-      <c r="G48" s="300">
+      <c r="F48" s="321">
+        <v>1</v>
+      </c>
+      <c r="G48" s="321">
         <v>-0.5</v>
       </c>
-      <c r="H48" s="333">
-        <v>1</v>
-      </c>
-      <c r="I48" s="300">
+      <c r="H48" s="355">
+        <v>1</v>
+      </c>
+      <c r="I48" s="321">
         <v>-0.5</v>
       </c>
-      <c r="J48" s="333">
-        <v>1</v>
-      </c>
-      <c r="K48" s="333">
-        <v>1</v>
-      </c>
-      <c r="L48" s="333">
-        <v>1</v>
-      </c>
-      <c r="M48" s="333">
+      <c r="J48" s="355">
+        <v>1</v>
+      </c>
+      <c r="K48" s="355">
+        <v>1</v>
+      </c>
+      <c r="L48" s="355">
+        <v>1</v>
+      </c>
+      <c r="M48" s="355">
         <v>-0.5</v>
       </c>
-      <c r="N48" s="333">
-        <v>1</v>
-      </c>
-      <c r="O48" s="333">
-        <v>1</v>
-      </c>
-      <c r="P48" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="333">
-        <v>1</v>
-      </c>
-      <c r="R48" s="334">
-        <v>1</v>
-      </c>
-      <c r="S48" s="333">
+      <c r="N48" s="355">
+        <v>1</v>
+      </c>
+      <c r="O48" s="355">
+        <v>1</v>
+      </c>
+      <c r="P48" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="355">
+        <v>1</v>
+      </c>
+      <c r="R48" s="356">
+        <v>1</v>
+      </c>
+      <c r="S48" s="355">
         <v>3</v>
       </c>
-      <c r="T48" s="333">
-        <v>1</v>
-      </c>
-      <c r="U48" s="335">
-        <v>1</v>
-      </c>
-      <c r="V48" s="300">
-        <v>1</v>
-      </c>
-      <c r="W48" s="333">
-        <v>1</v>
-      </c>
-      <c r="X48" s="333">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="333">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="333"/>
-      <c r="AA48" s="333"/>
-      <c r="AB48" s="333"/>
-      <c r="AC48" s="313">
+      <c r="T48" s="355">
+        <v>1</v>
+      </c>
+      <c r="U48" s="357">
+        <v>1</v>
+      </c>
+      <c r="V48" s="321">
+        <v>1</v>
+      </c>
+      <c r="W48" s="355">
+        <v>1</v>
+      </c>
+      <c r="X48" s="355">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="355">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="355"/>
+      <c r="AA48" s="355"/>
+      <c r="AB48" s="355"/>
+      <c r="AC48" s="334">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD48" s="313">
+      <c r="AD48" s="334">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="316">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="315">
+      <c r="AE48" s="337">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="336">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG48" s="315">
-        <v>100</v>
-      </c>
-      <c r="AH48" s="315">
-        <v>100</v>
-      </c>
-      <c r="AI48" s="316">
+      <c r="AG48" s="336">
+        <v>100</v>
+      </c>
+      <c r="AH48" s="336">
+        <v>100</v>
+      </c>
+      <c r="AI48" s="337">
         <v>40</v>
       </c>
-      <c r="AJ48" s="316"/>
-      <c r="AK48" s="316"/>
-      <c r="AL48" s="316">
-        <v>100</v>
-      </c>
-      <c r="AM48" s="316"/>
-      <c r="AN48" s="316"/>
-      <c r="AO48" s="316"/>
-      <c r="AP48" s="306">
+      <c r="AJ48" s="337"/>
+      <c r="AK48" s="337"/>
+      <c r="AL48" s="337">
+        <v>100</v>
+      </c>
+      <c r="AM48" s="337"/>
+      <c r="AN48" s="337"/>
+      <c r="AO48" s="337"/>
+      <c r="AP48" s="327">
         <f t="shared" si="4"/>
         <v>86.538461538461533</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" s="308" t="s">
+      <c r="A49" s="329" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="297">
+      <c r="B49" s="318">
         <v>2</v>
       </c>
-      <c r="C49" s="298"/>
-      <c r="D49" s="298"/>
-      <c r="E49" s="321" t="s">
+      <c r="C49" s="319"/>
+      <c r="D49" s="319"/>
+      <c r="E49" s="342" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="300">
-        <v>1</v>
-      </c>
-      <c r="G49" s="333">
-        <v>1</v>
-      </c>
-      <c r="H49" s="333">
-        <v>1</v>
-      </c>
-      <c r="I49" s="333">
-        <v>1</v>
-      </c>
-      <c r="J49" s="333">
-        <v>1</v>
-      </c>
-      <c r="K49" s="333">
-        <v>1</v>
-      </c>
-      <c r="L49" s="333">
-        <v>1</v>
-      </c>
-      <c r="M49" s="333">
-        <v>1</v>
-      </c>
-      <c r="N49" s="333">
-        <v>1</v>
-      </c>
-      <c r="O49" s="333">
-        <v>1</v>
-      </c>
-      <c r="P49" s="333">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="333">
-        <v>1</v>
-      </c>
-      <c r="R49" s="334">
-        <v>1</v>
-      </c>
-      <c r="S49" s="333">
+      <c r="F49" s="321">
+        <v>1</v>
+      </c>
+      <c r="G49" s="355">
+        <v>1</v>
+      </c>
+      <c r="H49" s="355">
+        <v>1</v>
+      </c>
+      <c r="I49" s="355">
+        <v>1</v>
+      </c>
+      <c r="J49" s="355">
+        <v>1</v>
+      </c>
+      <c r="K49" s="355">
+        <v>1</v>
+      </c>
+      <c r="L49" s="355">
+        <v>1</v>
+      </c>
+      <c r="M49" s="355">
+        <v>1</v>
+      </c>
+      <c r="N49" s="355">
+        <v>1</v>
+      </c>
+      <c r="O49" s="355">
+        <v>1</v>
+      </c>
+      <c r="P49" s="355">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="355">
+        <v>1</v>
+      </c>
+      <c r="R49" s="356">
+        <v>1</v>
+      </c>
+      <c r="S49" s="355">
         <v>3</v>
       </c>
-      <c r="T49" s="333">
-        <v>1</v>
-      </c>
-      <c r="U49" s="312">
+      <c r="T49" s="355">
+        <v>1</v>
+      </c>
+      <c r="U49" s="333">
         <v>-1</v>
       </c>
-      <c r="V49" s="300">
-        <v>1</v>
-      </c>
-      <c r="W49" s="310">
-        <v>1</v>
-      </c>
-      <c r="X49" s="310">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="310">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="310"/>
-      <c r="AA49" s="310"/>
-      <c r="AB49" s="310"/>
-      <c r="AC49" s="313">
+      <c r="V49" s="321">
+        <v>1</v>
+      </c>
+      <c r="W49" s="331">
+        <v>1</v>
+      </c>
+      <c r="X49" s="331">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="331">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="331"/>
+      <c r="AA49" s="331"/>
+      <c r="AB49" s="331"/>
+      <c r="AC49" s="334">
         <v>80</v>
       </c>
-      <c r="AD49" s="313">
+      <c r="AD49" s="334">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE49" s="315">
+      <c r="AE49" s="336">
         <v>50</v>
       </c>
-      <c r="AF49" s="315">
+      <c r="AF49" s="336">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG49" s="316">
+      <c r="AG49" s="337">
         <v>60</v>
       </c>
-      <c r="AH49" s="316"/>
-      <c r="AI49" s="316"/>
-      <c r="AJ49" s="316"/>
-      <c r="AK49" s="316"/>
-      <c r="AL49" s="316"/>
-      <c r="AM49" s="316"/>
-      <c r="AN49" s="316"/>
-      <c r="AO49" s="316"/>
-      <c r="AP49" s="306">
+      <c r="AH49" s="337"/>
+      <c r="AI49" s="337"/>
+      <c r="AJ49" s="337"/>
+      <c r="AK49" s="337"/>
+      <c r="AL49" s="337"/>
+      <c r="AM49" s="337"/>
+      <c r="AN49" s="337"/>
+      <c r="AO49" s="337"/>
+      <c r="AP49" s="327">
         <f>SUM(100*SUM(F49:U49),AC49:AO49)/$AP$1</f>
         <v>74.615384615384613</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" s="308"/>
-      <c r="B50" s="279"/>
-      <c r="C50" s="279"/>
-      <c r="D50" s="279"/>
-      <c r="E50" s="309"/>
-      <c r="F50" s="300"/>
-      <c r="G50" s="333"/>
-      <c r="H50" s="333"/>
-      <c r="I50" s="333"/>
-      <c r="J50" s="333"/>
-      <c r="K50" s="298"/>
-      <c r="L50" s="298"/>
-      <c r="M50" s="298"/>
-      <c r="N50" s="333"/>
-      <c r="O50" s="333"/>
-      <c r="P50" s="333"/>
-      <c r="Q50" s="333"/>
-      <c r="R50" s="333"/>
-      <c r="S50" s="333"/>
-      <c r="T50" s="333"/>
-      <c r="U50" s="335"/>
-      <c r="V50" s="336"/>
-      <c r="W50" s="336"/>
-      <c r="X50" s="336"/>
-      <c r="Y50" s="336"/>
-      <c r="Z50" s="336"/>
-      <c r="AA50" s="336"/>
-      <c r="AB50" s="336"/>
-      <c r="AC50" s="337"/>
-      <c r="AD50" s="338"/>
-      <c r="AE50" s="316"/>
-      <c r="AF50" s="316"/>
-      <c r="AG50" s="316"/>
-      <c r="AH50" s="316"/>
-      <c r="AI50" s="316"/>
-      <c r="AJ50" s="316"/>
-      <c r="AK50" s="316"/>
-      <c r="AL50" s="316"/>
-      <c r="AM50" s="316"/>
-      <c r="AN50" s="316"/>
-      <c r="AO50" s="316"/>
-      <c r="AP50" s="306"/>
+      <c r="A50" s="329"/>
+      <c r="B50" s="354"/>
+      <c r="C50" s="354"/>
+      <c r="D50" s="354"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="321"/>
+      <c r="G50" s="355"/>
+      <c r="H50" s="355"/>
+      <c r="I50" s="355"/>
+      <c r="J50" s="355"/>
+      <c r="K50" s="319"/>
+      <c r="L50" s="319"/>
+      <c r="M50" s="319"/>
+      <c r="N50" s="355"/>
+      <c r="O50" s="355"/>
+      <c r="P50" s="355"/>
+      <c r="Q50" s="355"/>
+      <c r="R50" s="355"/>
+      <c r="S50" s="355"/>
+      <c r="T50" s="355"/>
+      <c r="U50" s="357"/>
+      <c r="V50" s="358"/>
+      <c r="W50" s="358"/>
+      <c r="X50" s="358"/>
+      <c r="Y50" s="358"/>
+      <c r="Z50" s="358"/>
+      <c r="AA50" s="358"/>
+      <c r="AB50" s="358"/>
+      <c r="AC50" s="359"/>
+      <c r="AD50" s="360"/>
+      <c r="AE50" s="337"/>
+      <c r="AF50" s="337"/>
+      <c r="AG50" s="337"/>
+      <c r="AH50" s="337"/>
+      <c r="AI50" s="337"/>
+      <c r="AJ50" s="337"/>
+      <c r="AK50" s="337"/>
+      <c r="AL50" s="337"/>
+      <c r="AM50" s="337"/>
+      <c r="AN50" s="337"/>
+      <c r="AO50" s="337"/>
+      <c r="AP50" s="327"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AP29:AP50 AP3:AP26">

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68646B-FB55-4677-8C53-50396A1AD595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5536586-4CEC-4762-8D80-959C8FAAF20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
-    <sheet name="ИКС_432" sheetId="5" r:id="rId2"/>
-    <sheet name="ИКС_433" sheetId="6" r:id="rId3"/>
+    <sheet name="ИКС_433" sheetId="6" r:id="rId2"/>
+    <sheet name="ИКС_432" sheetId="5" r:id="rId3"/>
     <sheet name="Визуальное (ИА_331_332)" sheetId="1" r:id="rId4"/>
     <sheet name="CONST" sheetId="7" r:id="rId5"/>
     <sheet name="Моделирование (ИА_231_232)" sheetId="2" state="hidden" r:id="rId6"/>
@@ -1125,9 +1125,6 @@
     <t>Вдовиченко Денис.В.</t>
   </si>
   <si>
-    <t>Бобокулов Самир.О.</t>
-  </si>
-  <si>
     <t>Антропов Данил.С.</t>
   </si>
   <si>
@@ -1248,15 +1245,9 @@
     <t>Попова Валерия П.</t>
   </si>
   <si>
-    <t>Рудомётов Даниил Р.</t>
-  </si>
-  <si>
     <t>Синица Михаил А.</t>
   </si>
   <si>
-    <t>ХорОбров Георгий В.</t>
-  </si>
-  <si>
     <t>40 - 60 = 3</t>
   </si>
   <si>
@@ -1540,6 +1531,37 @@
   </si>
   <si>
     <t>сдал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рудомётов Даниил Р. </t>
+  </si>
+  <si>
+    <r>
+      <t>ХорОбров Георгий В. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>CXX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Бобокулов Самирхон О.</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1749,6 +1771,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -2303,7 +2332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2719,9 +2748,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2736,12 +2762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2821,45 +2841,6 @@
     </xf>
     <xf numFmtId="1" fontId="20" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="25" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2949,6 +2930,63 @@
     </xf>
     <xf numFmtId="2" fontId="24" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="24" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -3349,8 +3387,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3374,148 +3412,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="303" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="306" t="s">
+      <c r="F1" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="351" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="345" t="s">
         <v>293</v>
       </c>
-      <c r="H1" s="297" t="s">
+      <c r="O1" s="345" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="297" t="s">
+      <c r="P1" s="354" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="297" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="297" t="s">
-        <v>290</v>
-      </c>
-      <c r="L1" s="297" t="s">
-        <v>291</v>
-      </c>
-      <c r="M1" s="297" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" s="297" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" s="297" t="s">
-        <v>297</v>
-      </c>
-      <c r="P1" s="300" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="304"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="301"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="355"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="227" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="252"/>
+        <v>166</v>
+      </c>
+      <c r="C3" s="249"/>
       <c r="D3" s="226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="304"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="301"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="355"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
-      <c r="B4" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="251" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="250" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="241" t="s">
+      <c r="B4" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="248" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="247" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="302"/>
-      <c r="Q4" s="264" t="s">
-        <v>299</v>
-      </c>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="243"/>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="356"/>
+      <c r="Q4" s="261" t="s">
+        <v>296</v>
+      </c>
+      <c r="R4" s="241"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
+      <c r="V4" s="241"/>
+      <c r="W4" s="242"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="238" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="257">
+      <c r="B5" s="237" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="254">
         <f t="shared" ref="C5:C25" si="0">((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
-        <v>10</v>
-      </c>
-      <c r="D5" s="255">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="252">
+        <v>3</v>
       </c>
       <c r="E5" s="228" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="244">
-        <v>0</v>
-      </c>
-      <c r="G5" s="245">
-        <v>0</v>
-      </c>
-      <c r="H5" s="246">
-        <v>0</v>
-      </c>
-      <c r="I5" s="246">
-        <v>0</v>
-      </c>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
+        <v>257</v>
+      </c>
+      <c r="F5" s="357">
+        <v>0</v>
+      </c>
+      <c r="G5" s="358">
+        <v>0</v>
+      </c>
+      <c r="H5" s="359">
+        <v>0</v>
+      </c>
+      <c r="I5" s="359">
+        <v>0</v>
+      </c>
+      <c r="J5" s="359">
+        <v>0</v>
+      </c>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
       <c r="Q5" s="232"/>
       <c r="R5" s="232"/>
       <c r="S5" s="232"/>
@@ -3530,17 +3570,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="222" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="257">
+        <v>163</v>
+      </c>
+      <c r="C6" s="254">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D6" s="256">
-        <v>4</v>
+      <c r="D6" s="253">
+        <v>5</v>
       </c>
       <c r="E6" s="228" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="234">
         <v>100</v>
@@ -3554,7 +3594,9 @@
       <c r="I6" s="231">
         <v>80</v>
       </c>
-      <c r="J6" s="231"/>
+      <c r="J6" s="360">
+        <v>0</v>
+      </c>
       <c r="K6" s="231"/>
       <c r="L6" s="231"/>
       <c r="M6" s="231"/>
@@ -3575,31 +3617,33 @@
         <v>3</v>
       </c>
       <c r="B7" s="222" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="257">
+        <v>301</v>
+      </c>
+      <c r="C7" s="254">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D7" s="256">
+        <v>88</v>
+      </c>
+      <c r="D7" s="253">
         <v>4</v>
       </c>
       <c r="E7" s="228" t="s">
-        <v>262</v>
-      </c>
-      <c r="F7" s="235">
-        <v>100</v>
-      </c>
-      <c r="G7" s="229">
-        <v>100</v>
-      </c>
-      <c r="H7" s="231">
+        <v>259</v>
+      </c>
+      <c r="F7" s="362">
+        <v>100</v>
+      </c>
+      <c r="G7" s="363">
+        <v>100</v>
+      </c>
+      <c r="H7" s="361">
         <v>80</v>
       </c>
-      <c r="I7" s="231">
+      <c r="I7" s="361">
         <v>80</v>
       </c>
-      <c r="J7" s="231"/>
+      <c r="J7" s="360">
+        <v>0</v>
+      </c>
       <c r="K7" s="231"/>
       <c r="L7" s="231"/>
       <c r="M7" s="231"/>
@@ -3620,31 +3664,33 @@
         <v>4</v>
       </c>
       <c r="B8" s="222" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="257">
+        <v>275</v>
+      </c>
+      <c r="C8" s="254">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8" s="254">
+        <v>4</v>
+      </c>
+      <c r="D8" s="251">
         <v>1</v>
       </c>
       <c r="E8" s="228" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="231">
-        <v>0</v>
-      </c>
-      <c r="G8" s="231">
-        <v>0</v>
-      </c>
-      <c r="H8" s="231">
-        <v>0</v>
-      </c>
-      <c r="I8" s="231">
-        <v>0</v>
-      </c>
-      <c r="J8" s="231"/>
+        <v>276</v>
+      </c>
+      <c r="F8" s="360">
+        <v>0</v>
+      </c>
+      <c r="G8" s="360">
+        <v>0</v>
+      </c>
+      <c r="H8" s="360">
+        <v>0</v>
+      </c>
+      <c r="I8" s="360">
+        <v>0</v>
+      </c>
+      <c r="J8" s="360">
+        <v>0</v>
+      </c>
       <c r="K8" s="231"/>
       <c r="L8" s="231"/>
       <c r="M8" s="231"/>
@@ -3667,29 +3713,31 @@
       <c r="B9" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="257">
+      <c r="C9" s="254">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D9" s="254">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="251">
+        <v>4</v>
       </c>
       <c r="E9" s="228" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="231">
-        <v>0</v>
-      </c>
-      <c r="G9" s="231">
-        <v>0</v>
-      </c>
-      <c r="H9" s="231">
-        <v>0</v>
-      </c>
-      <c r="I9" s="231">
-        <v>0</v>
-      </c>
-      <c r="J9" s="231"/>
+        <v>260</v>
+      </c>
+      <c r="F9" s="360">
+        <v>0</v>
+      </c>
+      <c r="G9" s="360">
+        <v>0</v>
+      </c>
+      <c r="H9" s="360">
+        <v>0</v>
+      </c>
+      <c r="I9" s="360">
+        <v>0</v>
+      </c>
+      <c r="J9" s="360">
+        <v>0</v>
+      </c>
       <c r="K9" s="231"/>
       <c r="L9" s="231"/>
       <c r="M9" s="231"/>
@@ -3712,29 +3760,31 @@
       <c r="B10" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="257">
+      <c r="C10" s="254">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D10" s="254">
-        <v>4</v>
+      <c r="D10" s="251">
+        <v>5</v>
       </c>
       <c r="E10" s="228" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="295">
-        <v>100</v>
-      </c>
-      <c r="G10" s="295">
-        <v>100</v>
-      </c>
-      <c r="H10" s="295">
-        <v>100</v>
-      </c>
-      <c r="I10" s="295">
-        <v>100</v>
-      </c>
-      <c r="J10" s="231"/>
+        <v>261</v>
+      </c>
+      <c r="F10" s="292">
+        <v>100</v>
+      </c>
+      <c r="G10" s="292">
+        <v>100</v>
+      </c>
+      <c r="H10" s="292">
+        <v>100</v>
+      </c>
+      <c r="I10" s="292">
+        <v>100</v>
+      </c>
+      <c r="J10" s="292">
+        <v>100</v>
+      </c>
       <c r="K10" s="231"/>
       <c r="L10" s="231"/>
       <c r="M10" s="231"/>
@@ -3757,15 +3807,15 @@
       <c r="B11" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="257">
+      <c r="C11" s="254">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="254">
-        <v>4</v>
+      <c r="D11" s="251">
+        <v>5</v>
       </c>
       <c r="E11" s="228" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="231">
         <v>100</v>
@@ -3779,7 +3829,9 @@
       <c r="I11" s="231">
         <v>80</v>
       </c>
-      <c r="J11" s="231"/>
+      <c r="J11" s="360">
+        <v>0</v>
+      </c>
       <c r="K11" s="231"/>
       <c r="L11" s="231"/>
       <c r="M11" s="231"/>
@@ -3802,30 +3854,30 @@
       <c r="B12" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="257">
+      <c r="C12" s="254">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D12" s="254">
+        <v>96</v>
+      </c>
+      <c r="D12" s="251">
         <v>4</v>
       </c>
       <c r="E12" s="228" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="295">
-        <v>100</v>
-      </c>
-      <c r="G12" s="295">
-        <v>100</v>
-      </c>
-      <c r="H12" s="295">
-        <v>100</v>
-      </c>
-      <c r="I12" s="295">
-        <v>100</v>
-      </c>
-      <c r="J12" s="296">
-        <v>50</v>
+        <v>263</v>
+      </c>
+      <c r="F12" s="292">
+        <v>100</v>
+      </c>
+      <c r="G12" s="292">
+        <v>100</v>
+      </c>
+      <c r="H12" s="292">
+        <v>100</v>
+      </c>
+      <c r="I12" s="292">
+        <v>100</v>
+      </c>
+      <c r="J12" s="292">
+        <v>100</v>
       </c>
       <c r="K12" s="231"/>
       <c r="L12" s="231"/>
@@ -3849,29 +3901,31 @@
       <c r="B13" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="257">
+      <c r="C13" s="254">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="254">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="251">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="231">
-        <v>0</v>
-      </c>
-      <c r="G13" s="231">
-        <v>0</v>
-      </c>
-      <c r="H13" s="231">
-        <v>0</v>
-      </c>
-      <c r="I13" s="231">
-        <v>0</v>
-      </c>
-      <c r="J13" s="231"/>
+      <c r="F13" s="360">
+        <v>0</v>
+      </c>
+      <c r="G13" s="360">
+        <v>0</v>
+      </c>
+      <c r="H13" s="360">
+        <v>0</v>
+      </c>
+      <c r="I13" s="360">
+        <v>0</v>
+      </c>
+      <c r="J13" s="360">
+        <v>0</v>
+      </c>
       <c r="K13" s="231"/>
       <c r="L13" s="231"/>
       <c r="M13" s="231"/>
@@ -3894,15 +3948,15 @@
       <c r="B14" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="257">
+      <c r="C14" s="254">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D14" s="254">
-        <v>4</v>
+      <c r="D14" s="251">
+        <v>5</v>
       </c>
       <c r="E14" s="228" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="231">
         <v>100</v>
@@ -3916,7 +3970,9 @@
       <c r="I14" s="231">
         <v>90</v>
       </c>
-      <c r="J14" s="231"/>
+      <c r="J14" s="360">
+        <v>0</v>
+      </c>
       <c r="K14" s="231"/>
       <c r="L14" s="231"/>
       <c r="M14" s="231"/>
@@ -3937,13 +3993,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="222" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="257">
+        <v>280</v>
+      </c>
+      <c r="C15" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="254">
+      <c r="D15" s="251">
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
@@ -3959,7 +4015,9 @@
       <c r="I15" s="231">
         <v>0</v>
       </c>
-      <c r="J15" s="231"/>
+      <c r="J15" s="360">
+        <v>0</v>
+      </c>
       <c r="K15" s="231"/>
       <c r="L15" s="231"/>
       <c r="M15" s="231"/>
@@ -3979,32 +4037,34 @@
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="250" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="257">
+      <c r="C16" s="254">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="D16" s="254">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="D16" s="251">
+        <v>4</v>
       </c>
       <c r="E16" s="228" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="231">
-        <v>100</v>
-      </c>
-      <c r="G16" s="231">
-        <v>100</v>
-      </c>
-      <c r="H16" s="231">
+        <v>265</v>
+      </c>
+      <c r="F16" s="292">
+        <v>100</v>
+      </c>
+      <c r="G16" s="292">
+        <v>100</v>
+      </c>
+      <c r="H16" s="292">
         <v>80</v>
       </c>
-      <c r="I16" s="231">
+      <c r="I16" s="292">
         <v>80</v>
       </c>
-      <c r="J16" s="231"/>
+      <c r="J16" s="292">
+        <v>100</v>
+      </c>
       <c r="K16" s="231"/>
       <c r="L16" s="231"/>
       <c r="M16" s="231"/>
@@ -4027,15 +4087,15 @@
       <c r="B17" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="257">
+      <c r="C17" s="254">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D17" s="254">
-        <v>4</v>
+      <c r="D17" s="251">
+        <v>5</v>
       </c>
       <c r="E17" s="228" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F17" s="231">
         <v>100</v>
@@ -4049,7 +4109,9 @@
       <c r="I17" s="231">
         <v>80</v>
       </c>
-      <c r="J17" s="231"/>
+      <c r="J17" s="292">
+        <v>100</v>
+      </c>
       <c r="K17" s="231"/>
       <c r="L17" s="231"/>
       <c r="M17" s="231"/>
@@ -4072,15 +4134,15 @@
       <c r="B18" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="257">
+      <c r="C18" s="254">
         <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D18" s="254">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="D18" s="251">
+        <v>4</v>
       </c>
       <c r="E18" s="228" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F18" s="231">
         <v>100</v>
@@ -4094,7 +4156,9 @@
       <c r="I18" s="231">
         <v>0</v>
       </c>
-      <c r="J18" s="231"/>
+      <c r="J18" s="360">
+        <v>0</v>
+      </c>
       <c r="K18" s="231"/>
       <c r="L18" s="231"/>
       <c r="M18" s="231"/>
@@ -4117,15 +4181,15 @@
       <c r="B19" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="257">
+      <c r="C19" s="254">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D19" s="254">
-        <v>4</v>
+      <c r="D19" s="251">
+        <v>5</v>
       </c>
       <c r="E19" s="228" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F19" s="231">
         <v>100</v>
@@ -4139,7 +4203,9 @@
       <c r="I19" s="231">
         <v>90</v>
       </c>
-      <c r="J19" s="231"/>
+      <c r="J19" s="360">
+        <v>0</v>
+      </c>
       <c r="K19" s="231"/>
       <c r="L19" s="231"/>
       <c r="M19" s="231"/>
@@ -4162,29 +4228,31 @@
       <c r="B20" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="257">
+      <c r="C20" s="254">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D20" s="254">
-        <v>4</v>
+      <c r="D20" s="251">
+        <v>5</v>
       </c>
       <c r="E20" s="228" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="294">
-        <v>100</v>
-      </c>
-      <c r="G20" s="294">
-        <v>100</v>
-      </c>
-      <c r="H20" s="294">
+        <v>269</v>
+      </c>
+      <c r="F20" s="291">
+        <v>100</v>
+      </c>
+      <c r="G20" s="291">
+        <v>100</v>
+      </c>
+      <c r="H20" s="291">
         <v>70</v>
       </c>
-      <c r="I20" s="294">
+      <c r="I20" s="291">
         <v>70</v>
       </c>
-      <c r="J20" s="231"/>
+      <c r="J20" s="360">
+        <v>0</v>
+      </c>
       <c r="K20" s="231"/>
       <c r="L20" s="231"/>
       <c r="M20" s="231"/>
@@ -4205,31 +4273,33 @@
         <v>17</v>
       </c>
       <c r="B21" s="222" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="257">
+        <v>215</v>
+      </c>
+      <c r="C21" s="254">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D21" s="254">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="251">
+        <v>5</v>
       </c>
       <c r="E21" s="228" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F21" s="231">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G21" s="231">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" s="231">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I21" s="231">
-        <v>0</v>
-      </c>
-      <c r="J21" s="231"/>
+        <v>80</v>
+      </c>
+      <c r="J21" s="360">
+        <v>0</v>
+      </c>
       <c r="K21" s="231"/>
       <c r="L21" s="231"/>
       <c r="M21" s="231"/>
@@ -4252,15 +4322,15 @@
       <c r="B22" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="257">
+      <c r="C22" s="254">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D22" s="254">
-        <v>4</v>
+      <c r="D22" s="251">
+        <v>5</v>
       </c>
       <c r="E22" s="228" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F22" s="231">
         <v>100</v>
@@ -4274,7 +4344,9 @@
       <c r="I22" s="231">
         <v>90</v>
       </c>
-      <c r="J22" s="231"/>
+      <c r="J22" s="360">
+        <v>0</v>
+      </c>
       <c r="K22" s="231"/>
       <c r="L22" s="231"/>
       <c r="M22" s="231"/>
@@ -4297,15 +4369,15 @@
       <c r="B23" s="222" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="257">
+      <c r="C23" s="254">
         <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D23" s="254">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="251">
+        <v>4</v>
       </c>
       <c r="E23" s="228" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F23" s="231">
         <v>100</v>
@@ -4319,7 +4391,9 @@
       <c r="I23" s="231">
         <v>0</v>
       </c>
-      <c r="J23" s="231"/>
+      <c r="J23" s="360">
+        <v>0</v>
+      </c>
       <c r="K23" s="231"/>
       <c r="L23" s="231"/>
       <c r="M23" s="231"/>
@@ -4342,15 +4416,15 @@
       <c r="B24" s="222" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="257">
+      <c r="C24" s="254">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D24" s="254">
-        <v>4</v>
+      <c r="D24" s="251">
+        <v>5</v>
       </c>
       <c r="E24" s="228" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F24" s="231">
         <v>100</v>
@@ -4364,7 +4438,9 @@
       <c r="I24" s="231">
         <v>80</v>
       </c>
-      <c r="J24" s="231"/>
+      <c r="J24" s="361">
+        <v>50</v>
+      </c>
       <c r="K24" s="231"/>
       <c r="L24" s="231"/>
       <c r="M24" s="231"/>
@@ -4387,15 +4463,15 @@
       <c r="B25" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="257">
+      <c r="C25" s="254">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D25" s="254">
-        <v>4</v>
+      <c r="D25" s="251">
+        <v>5</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F25" s="231">
         <v>100</v>
@@ -4409,7 +4485,9 @@
       <c r="I25" s="231">
         <v>20</v>
       </c>
-      <c r="J25" s="231"/>
+      <c r="J25" s="292">
+        <v>100</v>
+      </c>
       <c r="K25" s="231"/>
       <c r="L25" s="231"/>
       <c r="M25" s="231"/>
@@ -4427,25 +4505,25 @@
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="221" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C31" s="221"/>
     </row>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="221" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C32" s="221"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="221" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C33" s="221"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="221" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C34" s="221"/>
     </row>
@@ -4454,17 +4532,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4493,885 +4571,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="303" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="306" t="s">
-        <v>293</v>
-      </c>
-      <c r="H1" s="297" t="s">
-        <v>294</v>
-      </c>
-      <c r="I1" s="297" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="297" t="s">
-        <v>289</v>
-      </c>
-      <c r="K1" s="297" t="s">
-        <v>290</v>
-      </c>
-      <c r="L1" s="297" t="s">
-        <v>291</v>
-      </c>
-      <c r="M1" s="297" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" s="297" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" s="297" t="s">
-        <v>297</v>
-      </c>
-      <c r="P1" s="300" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="304"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="301"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="220"/>
-      <c r="B3" s="225" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="220">
-        <v>5</v>
-      </c>
-      <c r="E3" s="220">
-        <v>4</v>
-      </c>
-      <c r="F3" s="304"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="301"/>
-    </row>
-    <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="220"/>
-      <c r="B4" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="251" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="250" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="241" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="305"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="302"/>
-      <c r="Q4" s="265" t="s">
-        <v>299</v>
-      </c>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="243"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="220">
-        <v>1</v>
-      </c>
-      <c r="B5" s="248" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="260">
-        <f t="shared" ref="C5:C20" si="0">( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
-        <v>100</v>
-      </c>
-      <c r="D5" s="238">
-        <v>5</v>
-      </c>
-      <c r="E5" s="239" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="292">
-        <v>100</v>
-      </c>
-      <c r="G5" s="292">
-        <v>100</v>
-      </c>
-      <c r="H5" s="292">
-        <v>100</v>
-      </c>
-      <c r="I5" s="292">
-        <v>100</v>
-      </c>
-      <c r="J5" s="292">
-        <v>100</v>
-      </c>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="220">
-        <v>2</v>
-      </c>
-      <c r="B6" s="236" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="260">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D6" s="222">
-        <v>2</v>
-      </c>
-      <c r="E6" s="111" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="254">
-        <v>50</v>
-      </c>
-      <c r="G6" s="254">
-        <v>50</v>
-      </c>
-      <c r="H6" s="254">
-        <v>50</v>
-      </c>
-      <c r="I6" s="254">
-        <v>0</v>
-      </c>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="254"/>
-      <c r="M6" s="254"/>
-      <c r="N6" s="254"/>
-      <c r="O6" s="254"/>
-      <c r="P6" s="259"/>
-      <c r="Q6" s="259"/>
-      <c r="R6" s="259"/>
-      <c r="S6" s="259"/>
-      <c r="T6" s="259"/>
-      <c r="U6" s="259"/>
-      <c r="V6" s="259"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="220">
-        <v>3</v>
-      </c>
-      <c r="B7" s="236" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D7" s="222">
-        <v>5</v>
-      </c>
-      <c r="E7" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="F7" s="290">
-        <v>100</v>
-      </c>
-      <c r="G7" s="290">
-        <v>100</v>
-      </c>
-      <c r="H7" s="290">
-        <v>100</v>
-      </c>
-      <c r="I7" s="290">
-        <v>100</v>
-      </c>
-      <c r="J7" s="290">
-        <v>100</v>
-      </c>
-      <c r="K7" s="254"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="259"/>
-      <c r="S7" s="259"/>
-      <c r="T7" s="259"/>
-      <c r="U7" s="259"/>
-      <c r="V7" s="259"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="220">
-        <v>4</v>
-      </c>
-      <c r="B8" s="236" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="260">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D8" s="222">
-        <v>4</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="254">
-        <v>100</v>
-      </c>
-      <c r="G8" s="254">
-        <v>100</v>
-      </c>
-      <c r="H8" s="254">
-        <v>60</v>
-      </c>
-      <c r="I8" s="254">
-        <v>0</v>
-      </c>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="259"/>
-      <c r="S8" s="259"/>
-      <c r="T8" s="259"/>
-      <c r="U8" s="259"/>
-      <c r="V8" s="259"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="220">
-        <v>5</v>
-      </c>
-      <c r="B9" s="236" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="260">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D9" s="222">
-        <v>5</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="254">
-        <v>100</v>
-      </c>
-      <c r="G9" s="254">
-        <v>90</v>
-      </c>
-      <c r="H9" s="254">
-        <v>80</v>
-      </c>
-      <c r="I9" s="254">
-        <v>80</v>
-      </c>
-      <c r="J9" s="254"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="254"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="259"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="259"/>
-      <c r="S9" s="259"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="259"/>
-      <c r="V9" s="259"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="220">
-        <v>6</v>
-      </c>
-      <c r="B10" s="237" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="260">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="D10" s="222">
-        <v>3</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="291">
-        <v>100</v>
-      </c>
-      <c r="G10" s="291">
-        <v>70</v>
-      </c>
-      <c r="H10" s="291">
-        <v>70</v>
-      </c>
-      <c r="I10" s="291">
-        <v>70</v>
-      </c>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="259"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="259"/>
-      <c r="S10" s="259"/>
-      <c r="T10" s="259"/>
-      <c r="U10" s="259"/>
-      <c r="V10" s="259"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="220">
-        <v>7</v>
-      </c>
-      <c r="B11" s="236" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="260">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D11" s="222">
-        <v>3</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="254">
-        <v>100</v>
-      </c>
-      <c r="G11" s="254">
-        <v>100</v>
-      </c>
-      <c r="H11" s="254">
-        <v>80</v>
-      </c>
-      <c r="I11" s="254">
-        <v>80</v>
-      </c>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="259"/>
-      <c r="S11" s="259"/>
-      <c r="T11" s="259"/>
-      <c r="U11" s="259"/>
-      <c r="V11" s="259"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="220">
-        <v>8</v>
-      </c>
-      <c r="B12" s="236" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="260">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D12" s="222">
-        <v>2</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>251</v>
-      </c>
-      <c r="F12" s="254">
-        <v>100</v>
-      </c>
-      <c r="G12" s="263">
-        <v>0</v>
-      </c>
-      <c r="H12" s="263">
-        <v>0</v>
-      </c>
-      <c r="I12" s="263">
-        <v>0</v>
-      </c>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="254"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="254"/>
-      <c r="O12" s="254"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="259"/>
-      <c r="U12" s="259"/>
-      <c r="V12" s="259"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="220">
-        <v>9</v>
-      </c>
-      <c r="B13" s="236" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="260">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="222">
-        <v>3</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="254">
-        <v>0</v>
-      </c>
-      <c r="G13" s="254">
-        <v>0</v>
-      </c>
-      <c r="H13" s="254">
-        <v>0</v>
-      </c>
-      <c r="I13" s="254">
-        <v>0</v>
-      </c>
-      <c r="J13" s="254"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="254"/>
-      <c r="M13" s="254"/>
-      <c r="N13" s="254"/>
-      <c r="O13" s="254"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="259"/>
-      <c r="S13" s="259"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="259"/>
-      <c r="V13" s="259"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="220">
-        <v>10</v>
-      </c>
-      <c r="B14" s="236" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="260">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D14" s="222">
-        <v>4</v>
-      </c>
-      <c r="E14" s="111" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="290">
-        <v>80</v>
-      </c>
-      <c r="G14" s="290">
-        <v>100</v>
-      </c>
-      <c r="H14" s="290">
-        <v>100</v>
-      </c>
-      <c r="I14" s="290">
-        <v>100</v>
-      </c>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="254"/>
-      <c r="P14" s="259"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="259"/>
-      <c r="S14" s="259"/>
-      <c r="T14" s="259"/>
-      <c r="U14" s="259"/>
-      <c r="V14" s="259"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="220">
-        <v>11</v>
-      </c>
-      <c r="B15" s="236" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="260">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D15" s="222">
-        <v>4</v>
-      </c>
-      <c r="E15" s="111" t="s">
-        <v>254</v>
-      </c>
-      <c r="F15" s="290">
-        <v>100</v>
-      </c>
-      <c r="G15" s="290">
-        <v>100</v>
-      </c>
-      <c r="H15" s="290">
-        <v>90</v>
-      </c>
-      <c r="I15" s="290">
-        <v>80</v>
-      </c>
-      <c r="J15" s="254"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="254"/>
-      <c r="O15" s="254"/>
-      <c r="P15" s="259"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="259"/>
-      <c r="S15" s="259"/>
-      <c r="T15" s="259"/>
-      <c r="U15" s="259"/>
-      <c r="V15" s="259"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="220">
-        <v>12</v>
-      </c>
-      <c r="B16" s="236" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="260">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D16" s="222">
-        <v>5</v>
-      </c>
-      <c r="E16" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="254">
-        <v>100</v>
-      </c>
-      <c r="G16" s="254">
-        <v>100</v>
-      </c>
-      <c r="H16" s="263">
-        <v>60</v>
-      </c>
-      <c r="I16" s="263">
-        <v>60</v>
-      </c>
-      <c r="J16" s="254"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="254"/>
-      <c r="N16" s="254"/>
-      <c r="O16" s="254"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="259"/>
-      <c r="U16" s="259"/>
-      <c r="V16" s="259"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="220">
-        <v>13</v>
-      </c>
-      <c r="B17" s="236" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="260">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D17" s="222">
-        <v>5</v>
-      </c>
-      <c r="E17" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="254">
-        <v>100</v>
-      </c>
-      <c r="G17" s="254">
-        <v>100</v>
-      </c>
-      <c r="H17" s="254">
-        <v>80</v>
-      </c>
-      <c r="I17" s="254">
-        <v>80</v>
-      </c>
-      <c r="J17" s="254"/>
-      <c r="K17" s="254"/>
-      <c r="L17" s="254"/>
-      <c r="M17" s="254"/>
-      <c r="N17" s="254"/>
-      <c r="O17" s="254"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="259"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="259"/>
-      <c r="V17" s="259"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="220">
-        <v>14</v>
-      </c>
-      <c r="B18" s="236" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D18" s="222">
-        <v>5</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" s="290">
-        <v>100</v>
-      </c>
-      <c r="G18" s="290">
-        <v>100</v>
-      </c>
-      <c r="H18" s="290">
-        <v>100</v>
-      </c>
-      <c r="I18" s="290">
-        <v>100</v>
-      </c>
-      <c r="J18" s="254">
-        <v>50</v>
-      </c>
-      <c r="K18" s="254"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="254"/>
-      <c r="N18" s="254"/>
-      <c r="O18" s="254"/>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="259"/>
-      <c r="S18" s="259"/>
-      <c r="T18" s="259"/>
-      <c r="U18" s="259"/>
-      <c r="V18" s="259"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="220">
-        <v>15</v>
-      </c>
-      <c r="B19" s="236" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="260">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D19" s="222">
-        <v>3</v>
-      </c>
-      <c r="E19" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="F19" s="254">
-        <v>100</v>
-      </c>
-      <c r="G19" s="254">
-        <v>0</v>
-      </c>
-      <c r="H19" s="254">
-        <v>0</v>
-      </c>
-      <c r="I19" s="254">
-        <v>0</v>
-      </c>
-      <c r="J19" s="254"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="254"/>
-      <c r="N19" s="254"/>
-      <c r="O19" s="254"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="259"/>
-      <c r="S19" s="259"/>
-      <c r="T19" s="259"/>
-      <c r="U19" s="259"/>
-      <c r="V19" s="259"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="220">
-        <v>16</v>
-      </c>
-      <c r="B20" s="236" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="260">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D20" s="222">
-        <v>5</v>
-      </c>
-      <c r="E20" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="290">
-        <v>100</v>
-      </c>
-      <c r="G20" s="290">
-        <v>100</v>
-      </c>
-      <c r="H20" s="290">
-        <v>100</v>
-      </c>
-      <c r="I20" s="290">
-        <v>100</v>
-      </c>
-      <c r="J20" s="254">
-        <v>50</v>
-      </c>
-      <c r="K20" s="254"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="254"/>
-      <c r="N20" s="254"/>
-      <c r="O20" s="254"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="259"/>
-      <c r="S20" s="259"/>
-      <c r="T20" s="259"/>
-      <c r="U20" s="259"/>
-      <c r="V20" s="259"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="220"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P20">
-    <sortCondition ref="B5:B20"/>
-  </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
-    <hyperlink ref="E6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
-    <hyperlink ref="E7" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
-    <hyperlink ref="E8" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
-    <hyperlink ref="E9" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
-    <hyperlink ref="E10" r:id="rId6" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
-    <hyperlink ref="E11" r:id="rId7" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
-    <hyperlink ref="E12" r:id="rId8" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
-    <hyperlink ref="E13" r:id="rId9" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
-    <hyperlink ref="E14" r:id="rId10" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
-    <hyperlink ref="E15" r:id="rId11" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
-    <hyperlink ref="E16" r:id="rId12" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
-    <hyperlink ref="E17" r:id="rId13" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
-    <hyperlink ref="E18" r:id="rId14" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
-    <hyperlink ref="E19" r:id="rId15" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
-    <hyperlink ref="E20" r:id="rId16" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,157 +4600,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="303" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" s="306" t="s">
+      <c r="G1" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="351" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="345" t="s">
+        <v>288</v>
+      </c>
+      <c r="N1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="O1" s="345" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="297" t="s">
+      <c r="P1" s="345" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="297" t="s">
+      <c r="Q1" s="354" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="297" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="297" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="297" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="297" t="s">
-        <v>292</v>
-      </c>
-      <c r="O1" s="297" t="s">
-        <v>296</v>
-      </c>
-      <c r="P1" s="297" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q1" s="300" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="304"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="298"/>
-      <c r="Q2" s="301"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="249"/>
+        <v>182</v>
+      </c>
+      <c r="C3" s="246"/>
       <c r="D3" s="220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="220"/>
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="304"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="301"/>
-    </row>
-    <row r="4" spans="1:25" s="269" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="268"/>
-      <c r="B4" s="274" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="293" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="275" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="275">
+      <c r="G3" s="349"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="355"/>
+    </row>
+    <row r="4" spans="1:25" s="266" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="265"/>
+      <c r="B4" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="290" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="272" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="272">
         <v>45918</v>
       </c>
-      <c r="F4" s="276" t="s">
+      <c r="F4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="305"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="299"/>
-      <c r="L4" s="299"/>
-      <c r="M4" s="299"/>
-      <c r="N4" s="299"/>
-      <c r="O4" s="299"/>
-      <c r="P4" s="299"/>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="271" t="s">
-        <v>299</v>
-      </c>
-      <c r="T4" s="266"/>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="267"/>
+      <c r="G4" s="350"/>
+      <c r="H4" s="353"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="347"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="268" t="s">
+        <v>296</v>
+      </c>
+      <c r="T4" s="263"/>
+      <c r="U4" s="263"/>
+      <c r="V4" s="263"/>
+      <c r="W4" s="263"/>
+      <c r="X4" s="263"/>
+      <c r="Y4" s="264"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="272" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="260">
+      <c r="B5" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="257">
         <f t="shared" ref="C5:C29" si="0">(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
         <v>40</v>
       </c>
-      <c r="D5" s="238">
-        <v>4</v>
-      </c>
-      <c r="E5" s="238">
-        <v>0</v>
-      </c>
-      <c r="F5" s="239" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="273">
-        <v>100</v>
-      </c>
-      <c r="H5" s="289">
-        <v>0</v>
-      </c>
-      <c r="I5" s="289">
-        <v>0</v>
-      </c>
-      <c r="J5" s="289">
-        <v>0</v>
-      </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
+      <c r="D5" s="237">
+        <v>5</v>
+      </c>
+      <c r="E5" s="237">
+        <v>0</v>
+      </c>
+      <c r="F5" s="238" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="270">
+        <v>100</v>
+      </c>
+      <c r="H5" s="286">
+        <v>0</v>
+      </c>
+      <c r="I5" s="286">
+        <v>0</v>
+      </c>
+      <c r="J5" s="286">
+        <v>0</v>
+      </c>
+      <c r="K5" s="270"/>
+      <c r="L5" s="270"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="270"/>
+      <c r="O5" s="270"/>
+      <c r="P5" s="270"/>
+      <c r="Q5" s="270"/>
+      <c r="R5" s="270"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
@@ -5558,21 +4763,21 @@
       <c r="A6" s="220">
         <v>2</v>
       </c>
-      <c r="B6" s="236" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="260">
+      <c r="B6" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D6" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="222">
         <v>1</v>
       </c>
       <c r="F6" s="111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G6" s="119">
         <v>100</v>
@@ -5586,7 +4791,9 @@
       <c r="J6" s="119">
         <v>100</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="26">
+        <v>70</v>
+      </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -5606,35 +4813,37 @@
       <c r="A7" s="220">
         <v>3</v>
       </c>
-      <c r="B7" s="236" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="260">
+      <c r="B7" s="235" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="257">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="222">
         <v>1</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="26">
-        <v>100</v>
-      </c>
-      <c r="H7" s="26">
-        <v>100</v>
-      </c>
-      <c r="I7" s="26">
-        <v>100</v>
-      </c>
-      <c r="J7" s="26">
-        <v>100</v>
-      </c>
-      <c r="K7" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="G7" s="119">
+        <v>100</v>
+      </c>
+      <c r="H7" s="119">
+        <v>100</v>
+      </c>
+      <c r="I7" s="119">
+        <v>100</v>
+      </c>
+      <c r="J7" s="119">
+        <v>100</v>
+      </c>
+      <c r="K7" s="119">
+        <v>100</v>
+      </c>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -5654,21 +4863,21 @@
       <c r="A8" s="220">
         <v>4</v>
       </c>
-      <c r="B8" s="236" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="260">
+      <c r="B8" s="235" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="257">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D8" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="222">
         <v>1</v>
       </c>
       <c r="F8" s="111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G8" s="153">
         <v>40</v>
@@ -5702,21 +4911,21 @@
       <c r="A9" s="220">
         <v>5</v>
       </c>
-      <c r="B9" s="236" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="260">
+      <c r="B9" s="235" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D9" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="222">
         <v>1</v>
       </c>
       <c r="F9" s="111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G9" s="26">
         <v>100</v>
@@ -5750,35 +4959,37 @@
       <c r="A10" s="220">
         <v>6</v>
       </c>
-      <c r="B10" s="236" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="260">
+      <c r="B10" s="235" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D10" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="222">
         <v>1</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="26">
-        <v>100</v>
-      </c>
-      <c r="H10" s="26">
-        <v>100</v>
-      </c>
-      <c r="I10" s="26">
-        <v>100</v>
-      </c>
-      <c r="J10" s="26">
-        <v>100</v>
-      </c>
-      <c r="K10" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="G10" s="119">
+        <v>100</v>
+      </c>
+      <c r="H10" s="119">
+        <v>100</v>
+      </c>
+      <c r="I10" s="119">
+        <v>100</v>
+      </c>
+      <c r="J10" s="119">
+        <v>100</v>
+      </c>
+      <c r="K10" s="26">
+        <v>70</v>
+      </c>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -5798,21 +5009,21 @@
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="288" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="260">
+      <c r="B11" s="285" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="257">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D11" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="222">
         <v>0</v>
       </c>
       <c r="F11" s="111" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G11" s="26">
         <v>100</v>
@@ -5846,21 +5057,21 @@
       <c r="A12" s="220">
         <v>8</v>
       </c>
-      <c r="B12" s="236" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="260">
+      <c r="B12" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="257">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="222">
         <v>1</v>
       </c>
       <c r="F12" s="111" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G12" s="26">
         <v>100</v>
@@ -5894,21 +5105,21 @@
       <c r="A13" s="220">
         <v>9</v>
       </c>
-      <c r="B13" s="236" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="260">
+      <c r="B13" s="235" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="257">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D13" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="222">
         <v>1</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G13" s="26">
         <v>100</v>
@@ -5942,21 +5153,21 @@
       <c r="A14" s="220">
         <v>10</v>
       </c>
-      <c r="B14" s="236" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="260">
+      <c r="B14" s="235" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="257">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D14" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="222">
         <v>1</v>
       </c>
       <c r="F14" s="228" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G14" s="26">
         <v>20</v>
@@ -5990,21 +5201,21 @@
       <c r="A15" s="220">
         <v>11</v>
       </c>
-      <c r="B15" s="237" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="260">
+      <c r="B15" s="236" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="257">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D15" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="222">
         <v>0</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G15" s="119">
         <v>100</v>
@@ -6038,21 +5249,21 @@
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="236" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="260">
+      <c r="B16" s="235" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="257">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D16" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="222">
         <v>1</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G16" s="153">
         <v>50</v>
@@ -6086,21 +5297,21 @@
       <c r="A17" s="220">
         <v>13</v>
       </c>
-      <c r="B17" s="236" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="260">
+      <c r="B17" s="235" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="222">
         <v>1</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G17" s="119">
         <v>100</v>
@@ -6134,21 +5345,21 @@
       <c r="A18" s="220">
         <v>14</v>
       </c>
-      <c r="B18" s="236" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="260">
+      <c r="B18" s="235" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="257">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D18" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="222">
         <v>1</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G18" s="119">
         <v>100</v>
@@ -6182,21 +5393,21 @@
       <c r="A19" s="220">
         <v>16</v>
       </c>
-      <c r="B19" s="236" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="260">
+      <c r="B19" s="235" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="257">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="222">
         <v>1</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G19" s="26">
         <v>100</v>
@@ -6230,21 +5441,21 @@
       <c r="A20" s="220">
         <v>17</v>
       </c>
-      <c r="B20" s="236" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="260">
+      <c r="B20" s="235" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="257">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D20" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="222">
         <v>1</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G20" s="119">
         <v>100</v>
@@ -6278,21 +5489,21 @@
       <c r="A21" s="220">
         <v>18</v>
       </c>
-      <c r="B21" s="247" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="260">
+      <c r="B21" s="244" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="257">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="D21" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="222">
         <v>1</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G21" s="119">
         <v>100</v>
@@ -6326,21 +5537,21 @@
       <c r="A22" s="220">
         <v>19</v>
       </c>
-      <c r="B22" s="247" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="260">
+      <c r="B22" s="244" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="257">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D22" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="222">
         <v>1</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G22" s="119">
         <v>100</v>
@@ -6374,21 +5585,21 @@
       <c r="A23" s="220">
         <v>20</v>
       </c>
-      <c r="B23" s="236" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="260">
+      <c r="B23" s="235" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D23" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="222">
         <v>1</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G23" s="119">
         <v>100</v>
@@ -6422,21 +5633,21 @@
       <c r="A24" s="220">
         <v>21</v>
       </c>
-      <c r="B24" s="236" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="260">
+      <c r="B24" s="235" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="257">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="222">
         <v>1</v>
       </c>
       <c r="F24" s="111" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G24" s="119">
         <v>100</v>
@@ -6470,21 +5681,21 @@
       <c r="A25" s="220">
         <v>22</v>
       </c>
-      <c r="B25" s="236" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="260">
+      <c r="B25" s="235" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="222">
         <v>1</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G25" s="119">
         <v>100</v>
@@ -6518,21 +5729,21 @@
       <c r="A26" s="220">
         <v>23</v>
       </c>
-      <c r="B26" s="247" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="260">
+      <c r="B26" s="244" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D26" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="222">
         <v>1</v>
       </c>
       <c r="F26" s="111" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G26" s="119">
         <v>100</v>
@@ -6566,21 +5777,21 @@
       <c r="A27" s="220">
         <v>24</v>
       </c>
-      <c r="B27" s="236" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="260">
+      <c r="B27" s="235" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="257">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D27" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="222">
         <v>1</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G27" s="119">
         <v>100</v>
@@ -6614,21 +5825,21 @@
       <c r="A28" s="220">
         <v>25</v>
       </c>
-      <c r="B28" s="236" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="260">
+      <c r="B28" s="235" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="257">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D28" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="222">
         <v>1</v>
       </c>
       <c r="F28" s="111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G28" s="119">
         <v>100</v>
@@ -6662,21 +5873,21 @@
       <c r="A29" s="220">
         <v>26</v>
       </c>
-      <c r="B29" s="247" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="260">
+      <c r="B29" s="244" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="257">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="D29" s="222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="222">
         <v>0</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G29" s="119">
         <v>100</v>
@@ -6711,17 +5922,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
@@ -6755,14 +5966,911 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BE5D17-FE0B-4F09-A28B-37BDD61580E2}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F1" s="348" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="351" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="345" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="345" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="345" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="345" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="345" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="345" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="345" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="345" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="354" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="349"/>
+      <c r="G2" s="352"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="355"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="220"/>
+      <c r="B3" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="246"/>
+      <c r="D3" s="220">
+        <v>6</v>
+      </c>
+      <c r="E3" s="220">
+        <v>4</v>
+      </c>
+      <c r="F3" s="349"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="355"/>
+    </row>
+    <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="220"/>
+      <c r="B4" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="248" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="247" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="240" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="350"/>
+      <c r="G4" s="353"/>
+      <c r="H4" s="347"/>
+      <c r="I4" s="347"/>
+      <c r="J4" s="347"/>
+      <c r="K4" s="347"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="356"/>
+      <c r="Q4" s="262" t="s">
+        <v>296</v>
+      </c>
+      <c r="R4" s="241"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
+      <c r="V4" s="242"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="220">
+        <v>1</v>
+      </c>
+      <c r="B5" s="245" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="257">
+        <f t="shared" ref="C5:C20" si="0">( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="237">
+        <v>6</v>
+      </c>
+      <c r="E5" s="238" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="289">
+        <v>100</v>
+      </c>
+      <c r="G5" s="289">
+        <v>100</v>
+      </c>
+      <c r="H5" s="289">
+        <v>100</v>
+      </c>
+      <c r="I5" s="289">
+        <v>100</v>
+      </c>
+      <c r="J5" s="289">
+        <v>100</v>
+      </c>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="255"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="255"/>
+      <c r="S5" s="255"/>
+      <c r="T5" s="255"/>
+      <c r="U5" s="255"/>
+      <c r="V5" s="255"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="220">
+        <v>2</v>
+      </c>
+      <c r="B6" s="235" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="257">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="222">
+        <v>3</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="251">
+        <v>50</v>
+      </c>
+      <c r="G6" s="251">
+        <v>50</v>
+      </c>
+      <c r="H6" s="251">
+        <v>50</v>
+      </c>
+      <c r="I6" s="251">
+        <v>0</v>
+      </c>
+      <c r="J6" s="260">
+        <v>0</v>
+      </c>
+      <c r="K6" s="251"/>
+      <c r="L6" s="251"/>
+      <c r="M6" s="251"/>
+      <c r="N6" s="251"/>
+      <c r="O6" s="251"/>
+      <c r="P6" s="256"/>
+      <c r="Q6" s="256"/>
+      <c r="R6" s="256"/>
+      <c r="S6" s="256"/>
+      <c r="T6" s="256"/>
+      <c r="U6" s="256"/>
+      <c r="V6" s="256"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="220">
+        <v>3</v>
+      </c>
+      <c r="B7" s="235" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="257">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="222">
+        <v>6</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="287">
+        <v>100</v>
+      </c>
+      <c r="G7" s="287">
+        <v>100</v>
+      </c>
+      <c r="H7" s="287">
+        <v>100</v>
+      </c>
+      <c r="I7" s="287">
+        <v>100</v>
+      </c>
+      <c r="J7" s="287">
+        <v>100</v>
+      </c>
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="256"/>
+      <c r="Q7" s="256"/>
+      <c r="R7" s="256"/>
+      <c r="S7" s="256"/>
+      <c r="T7" s="256"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="220">
+        <v>4</v>
+      </c>
+      <c r="B8" s="235" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="257">
+        <f t="shared" si="0"/>
+        <v>68.666666666666671</v>
+      </c>
+      <c r="D8" s="222">
+        <v>5</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="251">
+        <v>100</v>
+      </c>
+      <c r="G8" s="251">
+        <v>100</v>
+      </c>
+      <c r="H8" s="251">
+        <v>60</v>
+      </c>
+      <c r="I8" s="251">
+        <v>0</v>
+      </c>
+      <c r="J8" s="260">
+        <v>0</v>
+      </c>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="256"/>
+      <c r="Q8" s="256"/>
+      <c r="R8" s="256"/>
+      <c r="S8" s="256"/>
+      <c r="T8" s="256"/>
+      <c r="U8" s="256"/>
+      <c r="V8" s="256"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="220">
+        <v>5</v>
+      </c>
+      <c r="B9" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="257">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D9" s="222">
+        <v>5</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="251">
+        <v>100</v>
+      </c>
+      <c r="G9" s="251">
+        <v>90</v>
+      </c>
+      <c r="H9" s="251">
+        <v>80</v>
+      </c>
+      <c r="I9" s="251">
+        <v>80</v>
+      </c>
+      <c r="J9" s="260">
+        <v>0</v>
+      </c>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="256"/>
+      <c r="Q9" s="256"/>
+      <c r="R9" s="256"/>
+      <c r="S9" s="256"/>
+      <c r="T9" s="256"/>
+      <c r="U9" s="256"/>
+      <c r="V9" s="256"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="220">
+        <v>6</v>
+      </c>
+      <c r="B10" s="236" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="257">
+        <f t="shared" si="0"/>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="D10" s="222">
+        <v>4</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="288">
+        <v>100</v>
+      </c>
+      <c r="G10" s="288">
+        <v>70</v>
+      </c>
+      <c r="H10" s="288">
+        <v>70</v>
+      </c>
+      <c r="I10" s="288">
+        <v>70</v>
+      </c>
+      <c r="J10" s="288">
+        <v>70</v>
+      </c>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="256"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="256"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="256"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="220">
+        <v>7</v>
+      </c>
+      <c r="B11" s="235" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="257">
+        <f t="shared" si="0"/>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="D11" s="222">
+        <v>4</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="251">
+        <v>100</v>
+      </c>
+      <c r="G11" s="251">
+        <v>100</v>
+      </c>
+      <c r="H11" s="251">
+        <v>80</v>
+      </c>
+      <c r="I11" s="251">
+        <v>80</v>
+      </c>
+      <c r="J11" s="260">
+        <v>0</v>
+      </c>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="256"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="256"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="256"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="220">
+        <v>8</v>
+      </c>
+      <c r="B12" s="235" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="257">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="222">
+        <v>3</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="251">
+        <v>100</v>
+      </c>
+      <c r="G12" s="260">
+        <v>0</v>
+      </c>
+      <c r="H12" s="260">
+        <v>0</v>
+      </c>
+      <c r="I12" s="260">
+        <v>0</v>
+      </c>
+      <c r="J12" s="260">
+        <v>0</v>
+      </c>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="251"/>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="256"/>
+      <c r="Q12" s="256"/>
+      <c r="R12" s="256"/>
+      <c r="S12" s="256"/>
+      <c r="T12" s="256"/>
+      <c r="U12" s="256"/>
+      <c r="V12" s="256"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="220">
+        <v>9</v>
+      </c>
+      <c r="B13" s="235" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="257">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
+      </c>
+      <c r="D13" s="222">
+        <v>4</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="251">
+        <v>0</v>
+      </c>
+      <c r="G13" s="251">
+        <v>0</v>
+      </c>
+      <c r="H13" s="251">
+        <v>0</v>
+      </c>
+      <c r="I13" s="251">
+        <v>0</v>
+      </c>
+      <c r="J13" s="260">
+        <v>0</v>
+      </c>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="256"/>
+      <c r="Q13" s="256"/>
+      <c r="R13" s="256"/>
+      <c r="S13" s="256"/>
+      <c r="T13" s="256"/>
+      <c r="U13" s="256"/>
+      <c r="V13" s="256"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="220">
+        <v>10</v>
+      </c>
+      <c r="B14" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="257">
+        <f t="shared" si="0"/>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="D14" s="222">
+        <v>5</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="287">
+        <v>80</v>
+      </c>
+      <c r="G14" s="287">
+        <v>100</v>
+      </c>
+      <c r="H14" s="287">
+        <v>100</v>
+      </c>
+      <c r="I14" s="287">
+        <v>100</v>
+      </c>
+      <c r="J14" s="260">
+        <v>0</v>
+      </c>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="251"/>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="256"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="256"/>
+      <c r="U14" s="256"/>
+      <c r="V14" s="256"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="220">
+        <v>11</v>
+      </c>
+      <c r="B15" s="235" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="257">
+        <f t="shared" si="0"/>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="D15" s="222">
+        <v>5</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="287">
+        <v>100</v>
+      </c>
+      <c r="G15" s="287">
+        <v>100</v>
+      </c>
+      <c r="H15" s="287">
+        <v>90</v>
+      </c>
+      <c r="I15" s="287">
+        <v>80</v>
+      </c>
+      <c r="J15" s="288">
+        <v>30</v>
+      </c>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="251"/>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="256"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="256"/>
+      <c r="U15" s="256"/>
+      <c r="V15" s="256"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="220">
+        <v>12</v>
+      </c>
+      <c r="B16" s="235" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="257">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D16" s="222">
+        <v>6</v>
+      </c>
+      <c r="E16" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="251">
+        <v>100</v>
+      </c>
+      <c r="G16" s="251">
+        <v>100</v>
+      </c>
+      <c r="H16" s="260">
+        <v>60</v>
+      </c>
+      <c r="I16" s="260">
+        <v>60</v>
+      </c>
+      <c r="J16" s="260">
+        <v>0</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="256"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="256"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="220">
+        <v>13</v>
+      </c>
+      <c r="B17" s="235" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="257">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D17" s="222">
+        <v>6</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="251">
+        <v>100</v>
+      </c>
+      <c r="G17" s="251">
+        <v>100</v>
+      </c>
+      <c r="H17" s="251">
+        <v>80</v>
+      </c>
+      <c r="I17" s="251">
+        <v>80</v>
+      </c>
+      <c r="J17" s="260">
+        <v>0</v>
+      </c>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="256"/>
+      <c r="T17" s="256"/>
+      <c r="U17" s="256"/>
+      <c r="V17" s="256"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="220">
+        <v>14</v>
+      </c>
+      <c r="B18" s="235" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="257">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="222">
+        <v>6</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="287">
+        <v>100</v>
+      </c>
+      <c r="G18" s="287">
+        <v>100</v>
+      </c>
+      <c r="H18" s="287">
+        <v>100</v>
+      </c>
+      <c r="I18" s="287">
+        <v>100</v>
+      </c>
+      <c r="J18" s="287">
+        <v>100</v>
+      </c>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="256"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="220">
+        <v>15</v>
+      </c>
+      <c r="B19" s="235" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="257">
+        <f t="shared" si="0"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="D19" s="222">
+        <v>4</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="251">
+        <v>100</v>
+      </c>
+      <c r="G19" s="251">
+        <v>0</v>
+      </c>
+      <c r="H19" s="251">
+        <v>0</v>
+      </c>
+      <c r="I19" s="251">
+        <v>0</v>
+      </c>
+      <c r="J19" s="260">
+        <v>0</v>
+      </c>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="256"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="256"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="256"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="220">
+        <v>16</v>
+      </c>
+      <c r="B20" s="235" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="257">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D20" s="222">
+        <v>6</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="287">
+        <v>100</v>
+      </c>
+      <c r="G20" s="287">
+        <v>100</v>
+      </c>
+      <c r="H20" s="287">
+        <v>100</v>
+      </c>
+      <c r="I20" s="287">
+        <v>100</v>
+      </c>
+      <c r="J20" s="287">
+        <v>100</v>
+      </c>
+      <c r="K20" s="251"/>
+      <c r="L20" s="251"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="256"/>
+      <c r="Q20" s="256"/>
+      <c r="R20" s="256"/>
+      <c r="S20" s="256"/>
+      <c r="T20" s="256"/>
+      <c r="U20" s="256"/>
+      <c r="V20" s="256"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="220"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P20">
+    <sortCondition ref="B5:B20"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
+    <hyperlink ref="E6" r:id="rId2" tooltip="https://github.com/SandelMan222/visualprogramm" xr:uid="{A160E607-6173-4E01-ABB9-78B24FB0A189}"/>
+    <hyperlink ref="E7" r:id="rId3" tooltip="https://github.com/TayaVoin/VisualProg" xr:uid="{1D2799AA-E499-40B8-89E5-C0A7A8F1AF47}"/>
+    <hyperlink ref="E8" r:id="rId4" tooltip="https://github.com/defutfqr/vis" xr:uid="{4FBB29C3-D83F-4580-BAA0-A80A2CE89BCE}"/>
+    <hyperlink ref="E9" r:id="rId5" tooltip="https://github.com/alenkatopprogger/visual" xr:uid="{991FB422-411F-4189-9661-B8FD5D6DC65A}"/>
+    <hyperlink ref="E10" r:id="rId6" tooltip="https://github.com/BlexArown/Visual-programming" xr:uid="{BA1B02E0-3C5A-4C8A-B7EE-41AE5AE8DD1E}"/>
+    <hyperlink ref="E11" r:id="rId7" tooltip="https://github.com/Gmmba/Visual_Programming" xr:uid="{8119F31E-27BB-445A-BA7B-141FF6F1359E}"/>
+    <hyperlink ref="E12" r:id="rId8" tooltip="https://github.com/saliyvlad/Android" xr:uid="{A1EE1800-2BA2-4C3A-AEA0-841A4B9BC02A}"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="https://github.com/kirill2068/vizualnoe-progr" xr:uid="{34B29213-E008-4BA7-8CBD-4EE79800C56C}"/>
+    <hyperlink ref="E14" r:id="rId10" tooltip="https://github.com/KBACokk/Android_programm" xr:uid="{B7EBEE6D-E266-4A7F-9DE2-FD8904E20578}"/>
+    <hyperlink ref="E15" r:id="rId11" tooltip="https://github.com/MissViktoria/Visual" xr:uid="{ED618DF0-9705-4049-A0F0-7701CAD07254}"/>
+    <hyperlink ref="E16" r:id="rId12" tooltip="https://github.com/nevertoomuch/AndroidProject/tree/main#" display="https://github.com/nevertoomuch/AndroidProject/tree/main" xr:uid="{46D90AF5-CCD0-40E4-8E27-8E7366A6F87B}"/>
+    <hyperlink ref="E17" r:id="rId13" tooltip="https://github.com/Vapr2610/android" xr:uid="{F448F92B-DE68-46A4-98AD-BFBF90F55F83}"/>
+    <hyperlink ref="E18" r:id="rId14" tooltip="https://github.com/FacelessProfile/VProg" xr:uid="{7BBA00C6-B991-4E80-B556-D93A36C085EA}"/>
+    <hyperlink ref="E19" r:id="rId15" tooltip="https://github.com/lolokeyt/Android--" xr:uid="{69CBE0EA-D8DD-4107-89B6-F9EEED23B9EC}"/>
+    <hyperlink ref="E20" r:id="rId16" tooltip="https://github.com/Nikitulka0120/Android-project" xr:uid="{171C6333-D1EC-4200-A346-69C39273F6D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ53" sqref="AJ53"/>
+      <selection pane="topRight" activeCell="AR53" sqref="AR53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6922,7 +7030,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
@@ -7013,19 +7121,19 @@
         <v>10</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AL2" s="21" t="s">
         <v>145</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN2" s="21"/>
       <c r="AO2" s="23"/>
@@ -7037,7 +7145,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="259" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -7147,7 +7255,7 @@
       </c>
       <c r="AQ3" s="26"/>
       <c r="AR3" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -7494,7 +7602,7 @@
       <c r="AQ6" s="26"/>
     </row>
     <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="258" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7833,7 +7941,7 @@
       <c r="AQ9" s="26"/>
     </row>
     <row r="10" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="261" t="s">
+      <c r="A10" s="258" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -8293,7 +8401,7 @@
       <c r="AQ13" s="25"/>
     </row>
     <row r="14" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="261" t="s">
+      <c r="A14" s="258" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="25">
@@ -8304,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F14" s="28">
         <v>1</v>
@@ -8406,7 +8514,7 @@
       <c r="AQ14" s="25"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="261" t="s">
+      <c r="A15" s="258" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8518,7 +8626,7 @@
       </c>
       <c r="AQ15" s="26"/>
       <c r="AR15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -8754,7 +8862,7 @@
       <c r="AQ17" s="25"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="261" t="s">
+      <c r="A18" s="258" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25">
@@ -8982,7 +9090,7 @@
       <c r="AQ19" s="26"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="261" t="s">
+      <c r="A20" s="258" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="25">
@@ -9329,7 +9437,7 @@
       <c r="AQ22" s="26"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="261" t="s">
+      <c r="A23" s="258" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="25">
@@ -9671,7 +9779,7 @@
     </row>
     <row r="26" spans="1:64" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="215" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="25">
         <v>0</v>
@@ -9810,964 +9918,964 @@
       <c r="BL26" s="47"/>
     </row>
     <row r="27" spans="1:64" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="279"/>
-      <c r="C27" s="279"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="282"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="282"/>
-      <c r="R27" s="282"/>
-      <c r="S27" s="282"/>
-      <c r="T27" s="282"/>
-      <c r="U27" s="283"/>
-      <c r="V27" s="283"/>
-      <c r="W27" s="283"/>
-      <c r="X27" s="283"/>
-      <c r="Y27" s="283"/>
-      <c r="Z27" s="283"/>
-      <c r="AA27" s="283"/>
-      <c r="AB27" s="283"/>
-      <c r="AC27" s="284"/>
-      <c r="AD27" s="281"/>
-      <c r="AE27" s="281"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="285"/>
-      <c r="AH27" s="281"/>
-      <c r="AI27" s="281"/>
-      <c r="AJ27" s="281"/>
-      <c r="AK27" s="281"/>
-      <c r="AL27" s="281"/>
-      <c r="AM27" s="281"/>
-      <c r="AN27" s="281"/>
-      <c r="AO27" s="286"/>
-      <c r="AP27" s="287"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="279"/>
+      <c r="P27" s="279"/>
+      <c r="Q27" s="279"/>
+      <c r="R27" s="279"/>
+      <c r="S27" s="279"/>
+      <c r="T27" s="279"/>
+      <c r="U27" s="280"/>
+      <c r="V27" s="280"/>
+      <c r="W27" s="280"/>
+      <c r="X27" s="280"/>
+      <c r="Y27" s="280"/>
+      <c r="Z27" s="280"/>
+      <c r="AA27" s="280"/>
+      <c r="AB27" s="280"/>
+      <c r="AC27" s="281"/>
+      <c r="AD27" s="278"/>
+      <c r="AE27" s="278"/>
+      <c r="AF27" s="278"/>
+      <c r="AG27" s="282"/>
+      <c r="AH27" s="278"/>
+      <c r="AI27" s="278"/>
+      <c r="AJ27" s="278"/>
+      <c r="AK27" s="278"/>
+      <c r="AL27" s="278"/>
+      <c r="AM27" s="278"/>
+      <c r="AN27" s="278"/>
+      <c r="AO27" s="283"/>
+      <c r="AP27" s="284"/>
     </row>
     <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="309" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="310" t="str">
+      <c r="A28" s="293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="294" t="str">
         <f t="shared" ref="B28:AB28" si="2">B2</f>
         <v>КР1</v>
       </c>
-      <c r="C28" s="311" t="str">
+      <c r="C28" s="295" t="str">
         <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
-      <c r="D28" s="311"/>
-      <c r="E28" s="312" t="str">
+      <c r="D28" s="295"/>
+      <c r="E28" s="296" t="str">
         <f t="shared" si="2"/>
         <v>Github</v>
       </c>
-      <c r="F28" s="313">
+      <c r="F28" s="297">
         <f t="shared" si="2"/>
         <v>45691</v>
       </c>
-      <c r="G28" s="314">
+      <c r="G28" s="298">
         <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="H28" s="314">
+      <c r="H28" s="298">
         <f t="shared" si="2"/>
         <v>45701</v>
       </c>
-      <c r="I28" s="314">
+      <c r="I28" s="298">
         <f t="shared" si="2"/>
         <v>45705</v>
       </c>
-      <c r="J28" s="314">
+      <c r="J28" s="298">
         <f t="shared" si="2"/>
         <v>45712</v>
       </c>
-      <c r="K28" s="313">
+      <c r="K28" s="297">
         <f t="shared" si="2"/>
         <v>45715</v>
       </c>
-      <c r="L28" s="313">
+      <c r="L28" s="297">
         <f t="shared" si="2"/>
         <v>45719</v>
       </c>
-      <c r="M28" s="313">
+      <c r="M28" s="297">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="N28" s="314">
+      <c r="N28" s="298">
         <f t="shared" si="2"/>
         <v>45729</v>
       </c>
-      <c r="O28" s="314">
+      <c r="O28" s="298">
         <f t="shared" si="2"/>
         <v>45733</v>
       </c>
-      <c r="P28" s="314">
+      <c r="P28" s="298">
         <f t="shared" si="2"/>
         <v>45740</v>
       </c>
-      <c r="Q28" s="314">
+      <c r="Q28" s="298">
         <f t="shared" si="2"/>
         <v>45743</v>
       </c>
-      <c r="R28" s="314">
+      <c r="R28" s="298">
         <f t="shared" si="2"/>
         <v>45747</v>
       </c>
-      <c r="S28" s="314">
+      <c r="S28" s="298">
         <f t="shared" si="2"/>
         <v>45754</v>
       </c>
-      <c r="T28" s="314">
+      <c r="T28" s="298">
         <f t="shared" si="2"/>
         <v>45761</v>
       </c>
-      <c r="U28" s="314">
+      <c r="U28" s="298">
         <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="V28" s="314">
+      <c r="V28" s="298">
         <f t="shared" si="2"/>
         <v>45771</v>
       </c>
-      <c r="W28" s="314">
+      <c r="W28" s="298">
         <f t="shared" si="2"/>
         <v>45775</v>
       </c>
-      <c r="X28" s="314">
+      <c r="X28" s="298">
         <f t="shared" si="2"/>
         <v>45782</v>
       </c>
-      <c r="Y28" s="314">
+      <c r="Y28" s="298">
         <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="Z28" s="314">
+      <c r="Z28" s="298">
         <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="AA28" s="314">
+      <c r="AA28" s="298">
         <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="AB28" s="314">
+      <c r="AB28" s="298">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="315" t="str">
+      <c r="AC28" s="299" t="str">
         <f t="shared" ref="AC28:AP28" si="3">AC2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
-      <c r="AD28" s="316" t="str">
+      <c r="AD28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
-      <c r="AE28" s="316" t="str">
+      <c r="AE28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
-      <c r="AF28" s="316" t="str">
+      <c r="AF28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
-      <c r="AG28" s="316" t="str">
+      <c r="AG28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
-      <c r="AH28" s="316" t="str">
+      <c r="AH28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AI28" s="316" t="str">
+      <c r="AI28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>ПР4. Telephony</v>
       </c>
-      <c r="AJ28" s="316" t="str">
+      <c r="AJ28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>ПР5. Сокеты</v>
       </c>
-      <c r="AK28" s="316"/>
-      <c r="AL28" s="316" t="str">
+      <c r="AK28" s="300"/>
+      <c r="AL28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>РГР</v>
       </c>
-      <c r="AM28" s="316" t="str">
+      <c r="AM28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>К\Р</v>
       </c>
-      <c r="AN28" s="316">
+      <c r="AN28" s="300">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="316">
+      <c r="AO28" s="300">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="316" t="str">
+      <c r="AP28" s="300" t="str">
         <f t="shared" si="3"/>
         <v>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="317" t="s">
+      <c r="A29" s="301" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="318">
+      <c r="B29" s="302">
         <v>2</v>
       </c>
-      <c r="C29" s="319"/>
-      <c r="D29" s="319"/>
-      <c r="E29" s="320" t="s">
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="304" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="321">
-        <v>1</v>
-      </c>
-      <c r="G29" s="321">
-        <v>1</v>
-      </c>
-      <c r="H29" s="321">
+      <c r="F29" s="305">
+        <v>1</v>
+      </c>
+      <c r="G29" s="305">
+        <v>1</v>
+      </c>
+      <c r="H29" s="305">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="321">
-        <v>1</v>
-      </c>
-      <c r="J29" s="321">
-        <v>1</v>
-      </c>
-      <c r="K29" s="321">
-        <v>1</v>
-      </c>
-      <c r="L29" s="321">
-        <v>1</v>
-      </c>
-      <c r="M29" s="321">
-        <v>1</v>
-      </c>
-      <c r="N29" s="321">
-        <v>1</v>
-      </c>
-      <c r="O29" s="321">
-        <v>1</v>
-      </c>
-      <c r="P29" s="321">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="321">
-        <v>1</v>
-      </c>
-      <c r="R29" s="322" t="s">
+      <c r="I29" s="305">
+        <v>1</v>
+      </c>
+      <c r="J29" s="305">
+        <v>1</v>
+      </c>
+      <c r="K29" s="305">
+        <v>1</v>
+      </c>
+      <c r="L29" s="305">
+        <v>1</v>
+      </c>
+      <c r="M29" s="305">
+        <v>1</v>
+      </c>
+      <c r="N29" s="305">
+        <v>1</v>
+      </c>
+      <c r="O29" s="305">
+        <v>1</v>
+      </c>
+      <c r="P29" s="305">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="305">
+        <v>1</v>
+      </c>
+      <c r="R29" s="306" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="321">
+      <c r="S29" s="305">
         <v>3</v>
       </c>
-      <c r="T29" s="321">
-        <v>1</v>
-      </c>
-      <c r="U29" s="323">
-        <v>1</v>
-      </c>
-      <c r="V29" s="321">
-        <v>1</v>
-      </c>
-      <c r="W29" s="321">
-        <v>1</v>
-      </c>
-      <c r="X29" s="321">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="321">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="321"/>
-      <c r="AA29" s="321"/>
-      <c r="AB29" s="321"/>
-      <c r="AC29" s="324">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="325">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="326">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="327">
+      <c r="T29" s="305">
+        <v>1</v>
+      </c>
+      <c r="U29" s="307">
+        <v>1</v>
+      </c>
+      <c r="V29" s="305">
+        <v>1</v>
+      </c>
+      <c r="W29" s="305">
+        <v>1</v>
+      </c>
+      <c r="X29" s="305">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="305">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="305"/>
+      <c r="AA29" s="305"/>
+      <c r="AB29" s="305"/>
+      <c r="AC29" s="308">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="309">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="310">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="311">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG29" s="328">
-        <v>100</v>
-      </c>
-      <c r="AH29" s="327">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="327"/>
-      <c r="AJ29" s="327"/>
-      <c r="AK29" s="327"/>
-      <c r="AL29" s="327">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="327"/>
-      <c r="AN29" s="327"/>
-      <c r="AO29" s="327"/>
-      <c r="AP29" s="327">
+      <c r="AG29" s="312">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="311">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="311"/>
+      <c r="AJ29" s="311"/>
+      <c r="AK29" s="311"/>
+      <c r="AL29" s="311">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="311"/>
+      <c r="AN29" s="311"/>
+      <c r="AO29" s="311"/>
+      <c r="AP29" s="311">
         <f t="shared" ref="AP29:AP48" si="4">SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
         <v>98.07692307692308</v>
       </c>
     </row>
     <row r="30" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="329" t="s">
+      <c r="A30" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="318">
-        <v>0</v>
-      </c>
-      <c r="C30" s="319"/>
-      <c r="D30" s="319"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="321">
-        <v>1</v>
-      </c>
-      <c r="G30" s="331">
-        <v>1</v>
-      </c>
-      <c r="H30" s="331">
-        <v>1</v>
-      </c>
-      <c r="I30" s="331">
-        <v>1</v>
-      </c>
-      <c r="J30" s="321">
+      <c r="B30" s="302">
+        <v>0</v>
+      </c>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="305">
+        <v>1</v>
+      </c>
+      <c r="G30" s="315">
+        <v>1</v>
+      </c>
+      <c r="H30" s="315">
+        <v>1</v>
+      </c>
+      <c r="I30" s="315">
+        <v>1</v>
+      </c>
+      <c r="J30" s="305">
         <v>-0.5</v>
       </c>
-      <c r="K30" s="321">
+      <c r="K30" s="305">
         <v>-0.5</v>
       </c>
-      <c r="L30" s="321">
+      <c r="L30" s="305">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="331">
-        <v>1</v>
-      </c>
-      <c r="N30" s="331">
-        <v>1</v>
-      </c>
-      <c r="O30" s="331">
-        <v>1</v>
-      </c>
-      <c r="P30" s="331">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="331">
-        <v>1</v>
-      </c>
-      <c r="R30" s="332">
-        <v>1</v>
-      </c>
-      <c r="S30" s="331">
+      <c r="M30" s="315">
+        <v>1</v>
+      </c>
+      <c r="N30" s="315">
+        <v>1</v>
+      </c>
+      <c r="O30" s="315">
+        <v>1</v>
+      </c>
+      <c r="P30" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="315">
+        <v>1</v>
+      </c>
+      <c r="R30" s="316">
+        <v>1</v>
+      </c>
+      <c r="S30" s="315">
         <v>3</v>
       </c>
-      <c r="T30" s="331">
-        <v>1</v>
-      </c>
-      <c r="U30" s="333">
+      <c r="T30" s="315">
+        <v>1</v>
+      </c>
+      <c r="U30" s="317">
         <v>-1</v>
       </c>
-      <c r="V30" s="321">
-        <v>1</v>
-      </c>
-      <c r="W30" s="331" t="s">
+      <c r="V30" s="305">
+        <v>1</v>
+      </c>
+      <c r="W30" s="315" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="331">
+      <c r="X30" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="315">
         <v>-1</v>
       </c>
-      <c r="Z30" s="331"/>
-      <c r="AA30" s="331"/>
-      <c r="AB30" s="331"/>
-      <c r="AC30" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="335">
+      <c r="Z30" s="315"/>
+      <c r="AA30" s="315"/>
+      <c r="AB30" s="315"/>
+      <c r="AC30" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="319">
         <f>-20 - 50 - 50</f>
         <v>-120</v>
       </c>
-      <c r="AE30" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="337">
+      <c r="AE30" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="321">
         <f>-50-20 + 40</f>
         <v>-30</v>
       </c>
-      <c r="AG30" s="338">
+      <c r="AG30" s="322">
         <v>-100</v>
       </c>
-      <c r="AH30" s="337">
+      <c r="AH30" s="321">
         <v>-100</v>
       </c>
-      <c r="AI30" s="337"/>
-      <c r="AJ30" s="337"/>
-      <c r="AK30" s="337"/>
-      <c r="AL30" s="337"/>
-      <c r="AM30" s="337"/>
-      <c r="AN30" s="337"/>
-      <c r="AO30" s="337"/>
-      <c r="AP30" s="327">
+      <c r="AI30" s="321"/>
+      <c r="AJ30" s="321"/>
+      <c r="AK30" s="321"/>
+      <c r="AL30" s="321"/>
+      <c r="AM30" s="321"/>
+      <c r="AN30" s="321"/>
+      <c r="AO30" s="321"/>
+      <c r="AP30" s="311">
         <f t="shared" si="4"/>
         <v>38.46153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="329" t="s">
+      <c r="A31" s="313" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="318">
-        <v>0</v>
-      </c>
-      <c r="C31" s="319"/>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320" t="s">
+      <c r="B31" s="302">
+        <v>0</v>
+      </c>
+      <c r="C31" s="303"/>
+      <c r="D31" s="303"/>
+      <c r="E31" s="304" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="321">
-        <v>1</v>
-      </c>
-      <c r="G31" s="331">
-        <v>1</v>
-      </c>
-      <c r="H31" s="331">
-        <v>1</v>
-      </c>
-      <c r="I31" s="331">
-        <v>1</v>
-      </c>
-      <c r="J31" s="331">
-        <v>1</v>
-      </c>
-      <c r="K31" s="331">
-        <v>1</v>
-      </c>
-      <c r="L31" s="321">
+      <c r="F31" s="305">
+        <v>1</v>
+      </c>
+      <c r="G31" s="315">
+        <v>1</v>
+      </c>
+      <c r="H31" s="315">
+        <v>1</v>
+      </c>
+      <c r="I31" s="315">
+        <v>1</v>
+      </c>
+      <c r="J31" s="315">
+        <v>1</v>
+      </c>
+      <c r="K31" s="315">
+        <v>1</v>
+      </c>
+      <c r="L31" s="305">
         <v>-0.5</v>
       </c>
-      <c r="M31" s="331">
+      <c r="M31" s="315">
         <v>-0.5</v>
       </c>
-      <c r="N31" s="331">
+      <c r="N31" s="315">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="331">
-        <v>1</v>
-      </c>
-      <c r="P31" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="339">
-        <v>1</v>
-      </c>
-      <c r="R31" s="332">
-        <v>1</v>
-      </c>
-      <c r="S31" s="331">
+      <c r="O31" s="315">
+        <v>1</v>
+      </c>
+      <c r="P31" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="323">
+        <v>1</v>
+      </c>
+      <c r="R31" s="316">
+        <v>1</v>
+      </c>
+      <c r="S31" s="315">
         <v>3</v>
       </c>
-      <c r="T31" s="331">
-        <v>1</v>
-      </c>
-      <c r="U31" s="333">
+      <c r="T31" s="315">
+        <v>1</v>
+      </c>
+      <c r="U31" s="317">
         <v>-1</v>
       </c>
-      <c r="V31" s="321">
-        <v>1</v>
-      </c>
-      <c r="W31" s="331">
-        <v>1</v>
-      </c>
-      <c r="X31" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="331"/>
-      <c r="AA31" s="331"/>
-      <c r="AB31" s="331"/>
-      <c r="AC31" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD31" s="340">
+      <c r="V31" s="305">
+        <v>1</v>
+      </c>
+      <c r="W31" s="315">
+        <v>1</v>
+      </c>
+      <c r="X31" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="315"/>
+      <c r="AA31" s="315"/>
+      <c r="AB31" s="315"/>
+      <c r="AC31" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="324">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE31" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="336">
+      <c r="AE31" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="320">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="AG31" s="338">
+      <c r="AG31" s="322">
         <v>60</v>
       </c>
-      <c r="AH31" s="337">
-        <v>100</v>
-      </c>
-      <c r="AI31" s="337"/>
-      <c r="AJ31" s="337"/>
-      <c r="AK31" s="337"/>
-      <c r="AL31" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="337"/>
-      <c r="AN31" s="337"/>
-      <c r="AO31" s="337"/>
-      <c r="AP31" s="327">
+      <c r="AH31" s="321">
+        <v>100</v>
+      </c>
+      <c r="AI31" s="321"/>
+      <c r="AJ31" s="321"/>
+      <c r="AK31" s="321"/>
+      <c r="AL31" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="321"/>
+      <c r="AN31" s="321"/>
+      <c r="AO31" s="321"/>
+      <c r="AP31" s="311">
         <f t="shared" si="4"/>
         <v>77.307692307692307</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="341" t="s">
+      <c r="A32" s="325" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="318">
+      <c r="B32" s="302">
         <v>2</v>
       </c>
-      <c r="C32" s="319"/>
-      <c r="D32" s="319"/>
-      <c r="E32" s="342" t="s">
+      <c r="C32" s="303"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="326" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="321">
-        <v>1</v>
-      </c>
-      <c r="G32" s="331">
-        <v>1</v>
-      </c>
-      <c r="H32" s="331">
-        <v>1</v>
-      </c>
-      <c r="I32" s="331">
-        <v>1</v>
-      </c>
-      <c r="J32" s="331">
-        <v>1</v>
-      </c>
-      <c r="K32" s="331">
-        <v>1</v>
-      </c>
-      <c r="L32" s="331">
-        <v>1</v>
-      </c>
-      <c r="M32" s="331">
-        <v>1</v>
-      </c>
-      <c r="N32" s="331">
-        <v>1</v>
-      </c>
-      <c r="O32" s="331">
-        <v>1</v>
-      </c>
-      <c r="P32" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="331">
-        <v>1</v>
-      </c>
-      <c r="R32" s="332">
-        <v>1</v>
-      </c>
-      <c r="S32" s="331">
+      <c r="F32" s="305">
+        <v>1</v>
+      </c>
+      <c r="G32" s="315">
+        <v>1</v>
+      </c>
+      <c r="H32" s="315">
+        <v>1</v>
+      </c>
+      <c r="I32" s="315">
+        <v>1</v>
+      </c>
+      <c r="J32" s="315">
+        <v>1</v>
+      </c>
+      <c r="K32" s="315">
+        <v>1</v>
+      </c>
+      <c r="L32" s="315">
+        <v>1</v>
+      </c>
+      <c r="M32" s="315">
+        <v>1</v>
+      </c>
+      <c r="N32" s="315">
+        <v>1</v>
+      </c>
+      <c r="O32" s="315">
+        <v>1</v>
+      </c>
+      <c r="P32" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="315">
+        <v>1</v>
+      </c>
+      <c r="R32" s="316">
+        <v>1</v>
+      </c>
+      <c r="S32" s="315">
         <v>3</v>
       </c>
-      <c r="T32" s="331">
-        <v>1</v>
-      </c>
-      <c r="U32" s="333">
-        <v>1</v>
-      </c>
-      <c r="V32" s="321">
-        <v>1</v>
-      </c>
-      <c r="W32" s="331">
-        <v>1</v>
-      </c>
-      <c r="X32" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="331"/>
-      <c r="AA32" s="331"/>
-      <c r="AB32" s="331"/>
-      <c r="AC32" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD32" s="334">
+      <c r="T32" s="315">
+        <v>1</v>
+      </c>
+      <c r="U32" s="317">
+        <v>1</v>
+      </c>
+      <c r="V32" s="305">
+        <v>1</v>
+      </c>
+      <c r="W32" s="315">
+        <v>1</v>
+      </c>
+      <c r="X32" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="315"/>
+      <c r="AA32" s="315"/>
+      <c r="AB32" s="315"/>
+      <c r="AC32" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="318">
         <v>95</v>
       </c>
-      <c r="AE32" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF32" s="337">
-        <v>100</v>
-      </c>
-      <c r="AG32" s="338">
+      <c r="AE32" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="321">
+        <v>100</v>
+      </c>
+      <c r="AG32" s="322">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH32" s="337">
-        <v>100</v>
-      </c>
-      <c r="AI32" s="337"/>
-      <c r="AJ32" s="337"/>
-      <c r="AK32" s="337"/>
-      <c r="AL32" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM32" s="337"/>
-      <c r="AN32" s="337"/>
-      <c r="AO32" s="337"/>
-      <c r="AP32" s="327">
+      <c r="AH32" s="321">
+        <v>100</v>
+      </c>
+      <c r="AI32" s="321"/>
+      <c r="AJ32" s="321"/>
+      <c r="AK32" s="321"/>
+      <c r="AL32" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM32" s="321"/>
+      <c r="AN32" s="321"/>
+      <c r="AO32" s="321"/>
+      <c r="AP32" s="311">
         <f t="shared" si="4"/>
         <v>110.57692307692308</v>
       </c>
     </row>
     <row r="33" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="329" t="s">
+      <c r="A33" s="313" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="318">
+      <c r="B33" s="302">
         <v>2</v>
       </c>
-      <c r="C33" s="319"/>
-      <c r="D33" s="319"/>
-      <c r="E33" s="320" t="s">
+      <c r="C33" s="303"/>
+      <c r="D33" s="303"/>
+      <c r="E33" s="304" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="321">
-        <v>1</v>
-      </c>
-      <c r="G33" s="331">
-        <v>1</v>
-      </c>
-      <c r="H33" s="331">
-        <v>1</v>
-      </c>
-      <c r="I33" s="331">
-        <v>1</v>
-      </c>
-      <c r="J33" s="331">
-        <v>1</v>
-      </c>
-      <c r="K33" s="331">
-        <v>1</v>
-      </c>
-      <c r="L33" s="331">
-        <v>1</v>
-      </c>
-      <c r="M33" s="331">
-        <v>1</v>
-      </c>
-      <c r="N33" s="331">
-        <v>1</v>
-      </c>
-      <c r="O33" s="331">
-        <v>1</v>
-      </c>
-      <c r="P33" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="331">
-        <v>1</v>
-      </c>
-      <c r="R33" s="332">
-        <v>1</v>
-      </c>
-      <c r="S33" s="331">
+      <c r="F33" s="305">
+        <v>1</v>
+      </c>
+      <c r="G33" s="315">
+        <v>1</v>
+      </c>
+      <c r="H33" s="315">
+        <v>1</v>
+      </c>
+      <c r="I33" s="315">
+        <v>1</v>
+      </c>
+      <c r="J33" s="315">
+        <v>1</v>
+      </c>
+      <c r="K33" s="315">
+        <v>1</v>
+      </c>
+      <c r="L33" s="315">
+        <v>1</v>
+      </c>
+      <c r="M33" s="315">
+        <v>1</v>
+      </c>
+      <c r="N33" s="315">
+        <v>1</v>
+      </c>
+      <c r="O33" s="315">
+        <v>1</v>
+      </c>
+      <c r="P33" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="315">
+        <v>1</v>
+      </c>
+      <c r="R33" s="316">
+        <v>1</v>
+      </c>
+      <c r="S33" s="315">
         <v>3</v>
       </c>
-      <c r="T33" s="331">
-        <v>1</v>
-      </c>
-      <c r="U33" s="333">
+      <c r="T33" s="315">
+        <v>1</v>
+      </c>
+      <c r="U33" s="317">
         <v>-1</v>
       </c>
-      <c r="V33" s="321">
-        <v>1</v>
-      </c>
-      <c r="W33" s="331">
-        <v>1</v>
-      </c>
-      <c r="X33" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="331"/>
-      <c r="AA33" s="331"/>
-      <c r="AB33" s="331"/>
-      <c r="AC33" s="334">
+      <c r="V33" s="305">
+        <v>1</v>
+      </c>
+      <c r="W33" s="315">
+        <v>1</v>
+      </c>
+      <c r="X33" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="315"/>
+      <c r="AA33" s="315"/>
+      <c r="AB33" s="315"/>
+      <c r="AC33" s="318">
         <v>80</v>
       </c>
-      <c r="AD33" s="334">
+      <c r="AD33" s="318">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="AE33" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF33" s="336">
+      <c r="AE33" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="320">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG33" s="338">
+      <c r="AG33" s="322">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="AH33" s="337">
+      <c r="AH33" s="321">
         <v>-100</v>
       </c>
-      <c r="AI33" s="337"/>
-      <c r="AJ33" s="337"/>
-      <c r="AK33" s="337"/>
-      <c r="AL33" s="337"/>
-      <c r="AM33" s="337"/>
-      <c r="AN33" s="337"/>
-      <c r="AO33" s="337"/>
-      <c r="AP33" s="327">
+      <c r="AI33" s="321"/>
+      <c r="AJ33" s="321"/>
+      <c r="AK33" s="321"/>
+      <c r="AL33" s="321"/>
+      <c r="AM33" s="321"/>
+      <c r="AN33" s="321"/>
+      <c r="AO33" s="321"/>
+      <c r="AP33" s="311">
         <f t="shared" si="4"/>
         <v>85.384615384615387</v>
       </c>
     </row>
     <row r="34" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="329" t="s">
+      <c r="A34" s="313" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="318">
-        <v>0</v>
-      </c>
-      <c r="C34" s="319"/>
-      <c r="D34" s="319"/>
-      <c r="E34" s="342" t="s">
+      <c r="B34" s="302">
+        <v>0</v>
+      </c>
+      <c r="C34" s="303"/>
+      <c r="D34" s="303"/>
+      <c r="E34" s="326" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="321">
-        <v>1</v>
-      </c>
-      <c r="G34" s="343">
-        <v>1</v>
-      </c>
-      <c r="H34" s="321">
+      <c r="F34" s="305">
+        <v>1</v>
+      </c>
+      <c r="G34" s="327">
+        <v>1</v>
+      </c>
+      <c r="H34" s="305">
         <v>-0.5</v>
       </c>
-      <c r="I34" s="321">
+      <c r="I34" s="305">
         <v>-0.5</v>
       </c>
-      <c r="J34" s="343">
-        <v>1</v>
-      </c>
-      <c r="K34" s="343">
-        <v>1</v>
-      </c>
-      <c r="L34" s="321">
+      <c r="J34" s="327">
+        <v>1</v>
+      </c>
+      <c r="K34" s="327">
+        <v>1</v>
+      </c>
+      <c r="L34" s="305">
         <v>-0.5</v>
       </c>
-      <c r="M34" s="343">
+      <c r="M34" s="327">
         <v>-0.5</v>
       </c>
-      <c r="N34" s="343">
-        <v>1</v>
-      </c>
-      <c r="O34" s="343">
-        <v>1</v>
-      </c>
-      <c r="P34" s="343">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="343">
-        <v>1</v>
-      </c>
-      <c r="R34" s="322" t="s">
+      <c r="N34" s="327">
+        <v>1</v>
+      </c>
+      <c r="O34" s="327">
+        <v>1</v>
+      </c>
+      <c r="P34" s="327">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="327">
+        <v>1</v>
+      </c>
+      <c r="R34" s="306" t="s">
         <v>13</v>
       </c>
-      <c r="S34" s="343">
+      <c r="S34" s="327">
         <v>3</v>
       </c>
-      <c r="T34" s="343">
+      <c r="T34" s="327">
         <v>-0.5</v>
       </c>
-      <c r="U34" s="333">
+      <c r="U34" s="317">
         <v>-1</v>
       </c>
-      <c r="V34" s="321">
-        <v>1</v>
-      </c>
-      <c r="W34" s="331">
-        <v>1</v>
-      </c>
-      <c r="X34" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="331">
+      <c r="V34" s="305">
+        <v>1</v>
+      </c>
+      <c r="W34" s="315">
+        <v>1</v>
+      </c>
+      <c r="X34" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="315">
         <v>-1</v>
       </c>
-      <c r="Z34" s="331"/>
-      <c r="AA34" s="331"/>
-      <c r="AB34" s="331"/>
-      <c r="AC34" s="334">
+      <c r="Z34" s="315"/>
+      <c r="AA34" s="315"/>
+      <c r="AB34" s="315"/>
+      <c r="AC34" s="318">
         <v>80</v>
       </c>
-      <c r="AD34" s="344">
+      <c r="AD34" s="328">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE34" s="345">
+      <c r="AE34" s="329">
         <v>-100</v>
       </c>
-      <c r="AF34" s="337">
+      <c r="AF34" s="321">
         <f>-50-50</f>
         <v>-100</v>
       </c>
-      <c r="AG34" s="346">
+      <c r="AG34" s="330">
         <f>-100</f>
         <v>-100</v>
       </c>
-      <c r="AH34" s="345">
+      <c r="AH34" s="329">
         <v>-100</v>
       </c>
-      <c r="AI34" s="345"/>
-      <c r="AJ34" s="345"/>
-      <c r="AK34" s="345"/>
-      <c r="AL34" s="345"/>
-      <c r="AM34" s="345"/>
-      <c r="AN34" s="345"/>
-      <c r="AO34" s="345"/>
-      <c r="AP34" s="327">
+      <c r="AI34" s="329"/>
+      <c r="AJ34" s="329"/>
+      <c r="AK34" s="329"/>
+      <c r="AL34" s="329"/>
+      <c r="AM34" s="329"/>
+      <c r="AN34" s="329"/>
+      <c r="AO34" s="329"/>
+      <c r="AP34" s="311">
         <f t="shared" si="4"/>
         <v>20.384615384615383</v>
       </c>
     </row>
     <row r="35" spans="1:64" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="347" t="s">
+      <c r="A35" s="331" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="318">
+      <c r="B35" s="302">
         <v>2</v>
       </c>
-      <c r="C35" s="318"/>
-      <c r="D35" s="318"/>
-      <c r="E35" s="348" t="s">
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="349">
-        <v>1</v>
-      </c>
-      <c r="G35" s="343">
-        <v>1</v>
-      </c>
-      <c r="H35" s="343">
-        <v>1</v>
-      </c>
-      <c r="I35" s="343">
-        <v>1</v>
-      </c>
-      <c r="J35" s="343">
-        <v>1</v>
-      </c>
-      <c r="K35" s="343">
-        <v>1</v>
-      </c>
-      <c r="L35" s="343">
-        <v>1</v>
-      </c>
-      <c r="M35" s="343">
-        <v>1</v>
-      </c>
-      <c r="N35" s="343">
-        <v>1</v>
-      </c>
-      <c r="O35" s="343">
-        <v>1</v>
-      </c>
-      <c r="P35" s="343">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="343">
-        <v>1</v>
-      </c>
-      <c r="R35" s="350">
-        <v>1</v>
-      </c>
-      <c r="S35" s="343">
+      <c r="F35" s="333">
+        <v>1</v>
+      </c>
+      <c r="G35" s="327">
+        <v>1</v>
+      </c>
+      <c r="H35" s="327">
+        <v>1</v>
+      </c>
+      <c r="I35" s="327">
+        <v>1</v>
+      </c>
+      <c r="J35" s="327">
+        <v>1</v>
+      </c>
+      <c r="K35" s="327">
+        <v>1</v>
+      </c>
+      <c r="L35" s="327">
+        <v>1</v>
+      </c>
+      <c r="M35" s="327">
+        <v>1</v>
+      </c>
+      <c r="N35" s="327">
+        <v>1</v>
+      </c>
+      <c r="O35" s="327">
+        <v>1</v>
+      </c>
+      <c r="P35" s="327">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="327">
+        <v>1</v>
+      </c>
+      <c r="R35" s="334">
+        <v>1</v>
+      </c>
+      <c r="S35" s="327">
         <v>3</v>
       </c>
-      <c r="T35" s="343">
-        <v>1</v>
-      </c>
-      <c r="U35" s="351">
-        <v>1</v>
-      </c>
-      <c r="V35" s="321">
-        <v>1</v>
-      </c>
-      <c r="W35" s="343">
-        <v>1</v>
-      </c>
-      <c r="X35" s="343">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="343">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="343"/>
-      <c r="AA35" s="343"/>
-      <c r="AB35" s="343"/>
-      <c r="AC35" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="334">
-        <v>100</v>
-      </c>
-      <c r="AE35" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF35" s="336">
+      <c r="T35" s="327">
+        <v>1</v>
+      </c>
+      <c r="U35" s="335">
+        <v>1</v>
+      </c>
+      <c r="V35" s="305">
+        <v>1</v>
+      </c>
+      <c r="W35" s="327">
+        <v>1</v>
+      </c>
+      <c r="X35" s="327">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="327">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="327"/>
+      <c r="AA35" s="327"/>
+      <c r="AB35" s="327"/>
+      <c r="AC35" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="318">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="320">
         <f>50+50</f>
         <v>100</v>
       </c>
-      <c r="AG35" s="346">
+      <c r="AG35" s="330">
         <v>80</v>
       </c>
-      <c r="AH35" s="345">
-        <v>100</v>
-      </c>
-      <c r="AI35" s="345"/>
-      <c r="AJ35" s="345"/>
-      <c r="AK35" s="345"/>
-      <c r="AL35" s="345">
-        <v>100</v>
-      </c>
-      <c r="AM35" s="345"/>
-      <c r="AN35" s="345"/>
-      <c r="AO35" s="345"/>
-      <c r="AP35" s="327">
+      <c r="AH35" s="329">
+        <v>100</v>
+      </c>
+      <c r="AI35" s="329"/>
+      <c r="AJ35" s="329"/>
+      <c r="AK35" s="329"/>
+      <c r="AL35" s="329">
+        <v>100</v>
+      </c>
+      <c r="AM35" s="329"/>
+      <c r="AN35" s="329"/>
+      <c r="AO35" s="329"/>
+      <c r="AP35" s="311">
         <f t="shared" si="4"/>
         <v>110.76923076923077</v>
       </c>
@@ -10795,1574 +10903,1574 @@
       <c r="BL35" s="47"/>
     </row>
     <row r="36" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="352" t="s">
+      <c r="A36" s="336" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="318">
+      <c r="B36" s="302">
         <v>2</v>
       </c>
-      <c r="C36" s="319"/>
-      <c r="D36" s="319"/>
-      <c r="E36" s="342" t="s">
+      <c r="C36" s="303"/>
+      <c r="D36" s="303"/>
+      <c r="E36" s="326" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="321">
-        <v>1</v>
-      </c>
-      <c r="G36" s="343">
-        <v>1</v>
-      </c>
-      <c r="H36" s="343">
-        <v>1</v>
-      </c>
-      <c r="I36" s="343">
-        <v>1</v>
-      </c>
-      <c r="J36" s="343">
-        <v>1</v>
-      </c>
-      <c r="K36" s="343">
-        <v>1</v>
-      </c>
-      <c r="L36" s="343">
-        <v>1</v>
-      </c>
-      <c r="M36" s="343">
-        <v>1</v>
-      </c>
-      <c r="N36" s="343">
-        <v>1</v>
-      </c>
-      <c r="O36" s="343">
-        <v>1</v>
-      </c>
-      <c r="P36" s="343">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="343">
-        <v>1</v>
-      </c>
-      <c r="R36" s="350">
-        <v>1</v>
-      </c>
-      <c r="S36" s="343">
+      <c r="F36" s="305">
+        <v>1</v>
+      </c>
+      <c r="G36" s="327">
+        <v>1</v>
+      </c>
+      <c r="H36" s="327">
+        <v>1</v>
+      </c>
+      <c r="I36" s="327">
+        <v>1</v>
+      </c>
+      <c r="J36" s="327">
+        <v>1</v>
+      </c>
+      <c r="K36" s="327">
+        <v>1</v>
+      </c>
+      <c r="L36" s="327">
+        <v>1</v>
+      </c>
+      <c r="M36" s="327">
+        <v>1</v>
+      </c>
+      <c r="N36" s="327">
+        <v>1</v>
+      </c>
+      <c r="O36" s="327">
+        <v>1</v>
+      </c>
+      <c r="P36" s="327">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="327">
+        <v>1</v>
+      </c>
+      <c r="R36" s="334">
+        <v>1</v>
+      </c>
+      <c r="S36" s="327">
         <v>3</v>
       </c>
-      <c r="T36" s="343">
-        <v>1</v>
-      </c>
-      <c r="U36" s="351">
-        <v>1</v>
-      </c>
-      <c r="V36" s="321">
-        <v>1</v>
-      </c>
-      <c r="W36" s="343">
-        <v>1</v>
-      </c>
-      <c r="X36" s="343">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="343">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="343"/>
-      <c r="AA36" s="343"/>
-      <c r="AB36" s="343"/>
-      <c r="AC36" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="334">
+      <c r="T36" s="327">
+        <v>1</v>
+      </c>
+      <c r="U36" s="335">
+        <v>1</v>
+      </c>
+      <c r="V36" s="305">
+        <v>1</v>
+      </c>
+      <c r="W36" s="327">
+        <v>1</v>
+      </c>
+      <c r="X36" s="327">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="327">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="327"/>
+      <c r="AA36" s="327"/>
+      <c r="AB36" s="327"/>
+      <c r="AC36" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD36" s="318">
         <f>-20 - 20 + 80</f>
         <v>40</v>
       </c>
-      <c r="AE36" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF36" s="353">
+      <c r="AE36" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF36" s="337">
         <f>10 + 50</f>
         <v>60</v>
       </c>
-      <c r="AG36" s="346">
+      <c r="AG36" s="330">
         <f>100 - 100 + 50</f>
         <v>50</v>
       </c>
-      <c r="AH36" s="345">
+      <c r="AH36" s="329">
         <f>-20+80</f>
         <v>60</v>
       </c>
-      <c r="AI36" s="345"/>
-      <c r="AJ36" s="345"/>
-      <c r="AK36" s="345"/>
-      <c r="AL36" s="345">
-        <v>100</v>
-      </c>
-      <c r="AM36" s="345"/>
-      <c r="AN36" s="345"/>
-      <c r="AO36" s="345"/>
-      <c r="AP36" s="327">
+      <c r="AI36" s="329"/>
+      <c r="AJ36" s="329"/>
+      <c r="AK36" s="329"/>
+      <c r="AL36" s="329">
+        <v>100</v>
+      </c>
+      <c r="AM36" s="329"/>
+      <c r="AN36" s="329"/>
+      <c r="AO36" s="329"/>
+      <c r="AP36" s="311">
         <f t="shared" si="4"/>
         <v>104.23076923076923</v>
       </c>
     </row>
     <row r="37" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="329" t="s">
+      <c r="A37" s="313" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="318">
-        <v>0</v>
-      </c>
-      <c r="C37" s="319"/>
-      <c r="D37" s="319"/>
-      <c r="E37" s="319" t="s">
+      <c r="B37" s="302">
+        <v>0</v>
+      </c>
+      <c r="C37" s="303"/>
+      <c r="D37" s="303"/>
+      <c r="E37" s="303" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="321">
-        <v>1</v>
-      </c>
-      <c r="G37" s="331">
-        <v>1</v>
-      </c>
-      <c r="H37" s="331">
-        <v>1</v>
-      </c>
-      <c r="I37" s="331">
-        <v>1</v>
-      </c>
-      <c r="J37" s="331">
-        <v>1</v>
-      </c>
-      <c r="K37" s="331">
-        <v>1</v>
-      </c>
-      <c r="L37" s="331">
-        <v>1</v>
-      </c>
-      <c r="M37" s="331">
+      <c r="F37" s="305">
+        <v>1</v>
+      </c>
+      <c r="G37" s="315">
+        <v>1</v>
+      </c>
+      <c r="H37" s="315">
+        <v>1</v>
+      </c>
+      <c r="I37" s="315">
+        <v>1</v>
+      </c>
+      <c r="J37" s="315">
+        <v>1</v>
+      </c>
+      <c r="K37" s="315">
+        <v>1</v>
+      </c>
+      <c r="L37" s="315">
+        <v>1</v>
+      </c>
+      <c r="M37" s="315">
         <v>-0.5</v>
       </c>
-      <c r="N37" s="331">
-        <v>1</v>
-      </c>
-      <c r="O37" s="331">
-        <v>1</v>
-      </c>
-      <c r="P37" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="331">
-        <v>1</v>
-      </c>
-      <c r="R37" s="332">
-        <v>1</v>
-      </c>
-      <c r="S37" s="331">
+      <c r="N37" s="315">
+        <v>1</v>
+      </c>
+      <c r="O37" s="315">
+        <v>1</v>
+      </c>
+      <c r="P37" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="315">
+        <v>1</v>
+      </c>
+      <c r="R37" s="316">
+        <v>1</v>
+      </c>
+      <c r="S37" s="315">
         <v>3</v>
       </c>
-      <c r="T37" s="331">
-        <v>1</v>
-      </c>
-      <c r="U37" s="333">
-        <v>1</v>
-      </c>
-      <c r="V37" s="321">
-        <v>1</v>
-      </c>
-      <c r="W37" s="331">
-        <v>1</v>
-      </c>
-      <c r="X37" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="331"/>
-      <c r="AA37" s="331"/>
-      <c r="AB37" s="331"/>
-      <c r="AC37" s="334">
+      <c r="T37" s="315">
+        <v>1</v>
+      </c>
+      <c r="U37" s="317">
+        <v>1</v>
+      </c>
+      <c r="V37" s="305">
+        <v>1</v>
+      </c>
+      <c r="W37" s="315">
+        <v>1</v>
+      </c>
+      <c r="X37" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="315"/>
+      <c r="AA37" s="315"/>
+      <c r="AB37" s="315"/>
+      <c r="AC37" s="318">
         <v>60</v>
       </c>
-      <c r="AD37" s="334">
+      <c r="AD37" s="318">
         <f>-50 + 30 - 50 -50</f>
         <v>-120</v>
       </c>
-      <c r="AE37" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF37" s="336">
+      <c r="AE37" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="320">
         <f>-50 + 50 + 50</f>
         <v>50</v>
       </c>
-      <c r="AG37" s="338">
+      <c r="AG37" s="322">
         <v>70</v>
       </c>
-      <c r="AH37" s="337">
+      <c r="AH37" s="321">
         <v>-100</v>
       </c>
-      <c r="AI37" s="337"/>
-      <c r="AJ37" s="337"/>
-      <c r="AK37" s="337"/>
-      <c r="AL37" s="337">
+      <c r="AI37" s="321"/>
+      <c r="AJ37" s="321"/>
+      <c r="AK37" s="321"/>
+      <c r="AL37" s="321">
         <v>50</v>
       </c>
-      <c r="AM37" s="337"/>
-      <c r="AN37" s="337"/>
-      <c r="AO37" s="337"/>
-      <c r="AP37" s="327">
+      <c r="AM37" s="321"/>
+      <c r="AN37" s="321"/>
+      <c r="AO37" s="321"/>
+      <c r="AP37" s="311">
         <f t="shared" si="4"/>
         <v>83.07692307692308</v>
       </c>
     </row>
     <row r="38" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="341" t="s">
+      <c r="A38" s="325" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="318">
+      <c r="B38" s="302">
         <v>2</v>
       </c>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="342" t="s">
+      <c r="C38" s="303"/>
+      <c r="D38" s="303"/>
+      <c r="E38" s="326" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="321">
-        <v>1</v>
-      </c>
-      <c r="G38" s="331">
-        <v>1</v>
-      </c>
-      <c r="H38" s="331">
-        <v>1</v>
-      </c>
-      <c r="I38" s="331">
-        <v>1</v>
-      </c>
-      <c r="J38" s="331">
-        <v>1</v>
-      </c>
-      <c r="K38" s="331">
-        <v>1</v>
-      </c>
-      <c r="L38" s="331">
-        <v>1</v>
-      </c>
-      <c r="M38" s="331">
-        <v>1</v>
-      </c>
-      <c r="N38" s="331">
-        <v>1</v>
-      </c>
-      <c r="O38" s="331">
-        <v>1</v>
-      </c>
-      <c r="P38" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="331">
-        <v>1</v>
-      </c>
-      <c r="R38" s="332">
-        <v>1</v>
-      </c>
-      <c r="S38" s="331">
+      <c r="F38" s="305">
+        <v>1</v>
+      </c>
+      <c r="G38" s="315">
+        <v>1</v>
+      </c>
+      <c r="H38" s="315">
+        <v>1</v>
+      </c>
+      <c r="I38" s="315">
+        <v>1</v>
+      </c>
+      <c r="J38" s="315">
+        <v>1</v>
+      </c>
+      <c r="K38" s="315">
+        <v>1</v>
+      </c>
+      <c r="L38" s="315">
+        <v>1</v>
+      </c>
+      <c r="M38" s="315">
+        <v>1</v>
+      </c>
+      <c r="N38" s="315">
+        <v>1</v>
+      </c>
+      <c r="O38" s="315">
+        <v>1</v>
+      </c>
+      <c r="P38" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="315">
+        <v>1</v>
+      </c>
+      <c r="R38" s="316">
+        <v>1</v>
+      </c>
+      <c r="S38" s="315">
         <v>3</v>
       </c>
-      <c r="T38" s="331">
-        <v>1</v>
-      </c>
-      <c r="U38" s="333">
-        <v>1</v>
-      </c>
-      <c r="V38" s="321">
-        <v>1</v>
-      </c>
-      <c r="W38" s="331">
-        <v>1</v>
-      </c>
-      <c r="X38" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="331"/>
-      <c r="AA38" s="331"/>
-      <c r="AB38" s="331"/>
-      <c r="AC38" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="334">
+      <c r="T38" s="315">
+        <v>1</v>
+      </c>
+      <c r="U38" s="317">
+        <v>1</v>
+      </c>
+      <c r="V38" s="305">
+        <v>1</v>
+      </c>
+      <c r="W38" s="315">
+        <v>1</v>
+      </c>
+      <c r="X38" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="315"/>
+      <c r="AA38" s="315"/>
+      <c r="AB38" s="315"/>
+      <c r="AC38" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD38" s="318">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE38" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF38" s="336">
-        <v>100</v>
-      </c>
-      <c r="AG38" s="338">
+      <c r="AE38" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF38" s="320">
+        <v>100</v>
+      </c>
+      <c r="AG38" s="322">
         <f>50+30</f>
         <v>80</v>
       </c>
-      <c r="AH38" s="337">
+      <c r="AH38" s="321">
         <f>-20+100</f>
         <v>80</v>
       </c>
-      <c r="AI38" s="337"/>
-      <c r="AJ38" s="337"/>
-      <c r="AK38" s="337"/>
-      <c r="AL38" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM38" s="337"/>
-      <c r="AN38" s="337"/>
-      <c r="AO38" s="337"/>
-      <c r="AP38" s="327">
+      <c r="AI38" s="321"/>
+      <c r="AJ38" s="321"/>
+      <c r="AK38" s="321"/>
+      <c r="AL38" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="321"/>
+      <c r="AN38" s="321"/>
+      <c r="AO38" s="321"/>
+      <c r="AP38" s="311">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="341" t="s">
+      <c r="A39" s="325" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="318">
+      <c r="B39" s="302">
         <v>2</v>
       </c>
-      <c r="C39" s="319"/>
-      <c r="D39" s="319"/>
-      <c r="E39" s="342" t="s">
+      <c r="C39" s="303"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="326" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="321">
-        <v>1</v>
-      </c>
-      <c r="G39" s="331">
-        <v>1</v>
-      </c>
-      <c r="H39" s="331">
-        <v>1</v>
-      </c>
-      <c r="I39" s="331">
-        <v>1</v>
-      </c>
-      <c r="J39" s="331">
-        <v>1</v>
-      </c>
-      <c r="K39" s="331">
-        <v>1</v>
-      </c>
-      <c r="L39" s="331">
-        <v>1</v>
-      </c>
-      <c r="M39" s="331">
-        <v>1</v>
-      </c>
-      <c r="N39" s="331">
-        <v>1</v>
-      </c>
-      <c r="O39" s="331">
-        <v>1</v>
-      </c>
-      <c r="P39" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="331">
-        <v>1</v>
-      </c>
-      <c r="R39" s="332">
-        <v>1</v>
-      </c>
-      <c r="S39" s="331">
+      <c r="F39" s="305">
+        <v>1</v>
+      </c>
+      <c r="G39" s="315">
+        <v>1</v>
+      </c>
+      <c r="H39" s="315">
+        <v>1</v>
+      </c>
+      <c r="I39" s="315">
+        <v>1</v>
+      </c>
+      <c r="J39" s="315">
+        <v>1</v>
+      </c>
+      <c r="K39" s="315">
+        <v>1</v>
+      </c>
+      <c r="L39" s="315">
+        <v>1</v>
+      </c>
+      <c r="M39" s="315">
+        <v>1</v>
+      </c>
+      <c r="N39" s="315">
+        <v>1</v>
+      </c>
+      <c r="O39" s="315">
+        <v>1</v>
+      </c>
+      <c r="P39" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="315">
+        <v>1</v>
+      </c>
+      <c r="R39" s="316">
+        <v>1</v>
+      </c>
+      <c r="S39" s="315">
         <v>3</v>
       </c>
-      <c r="T39" s="331">
-        <v>1</v>
-      </c>
-      <c r="U39" s="333">
-        <v>1</v>
-      </c>
-      <c r="V39" s="321">
-        <v>1</v>
-      </c>
-      <c r="W39" s="331">
-        <v>1</v>
-      </c>
-      <c r="X39" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="331"/>
-      <c r="AA39" s="331"/>
-      <c r="AB39" s="331"/>
-      <c r="AC39" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD39" s="334">
-        <v>100</v>
-      </c>
-      <c r="AE39" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF39" s="336">
-        <v>100</v>
-      </c>
-      <c r="AG39" s="338">
-        <v>100</v>
-      </c>
-      <c r="AH39" s="337">
-        <v>100</v>
-      </c>
-      <c r="AI39" s="337"/>
-      <c r="AJ39" s="337"/>
-      <c r="AK39" s="337"/>
-      <c r="AL39" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM39" s="337"/>
-      <c r="AN39" s="337"/>
-      <c r="AO39" s="337"/>
-      <c r="AP39" s="327">
+      <c r="T39" s="315">
+        <v>1</v>
+      </c>
+      <c r="U39" s="317">
+        <v>1</v>
+      </c>
+      <c r="V39" s="305">
+        <v>1</v>
+      </c>
+      <c r="W39" s="315">
+        <v>1</v>
+      </c>
+      <c r="X39" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="315"/>
+      <c r="AA39" s="315"/>
+      <c r="AB39" s="315"/>
+      <c r="AC39" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD39" s="318">
+        <v>100</v>
+      </c>
+      <c r="AE39" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF39" s="320">
+        <v>100</v>
+      </c>
+      <c r="AG39" s="322">
+        <v>100</v>
+      </c>
+      <c r="AH39" s="321">
+        <v>100</v>
+      </c>
+      <c r="AI39" s="321"/>
+      <c r="AJ39" s="321"/>
+      <c r="AK39" s="321"/>
+      <c r="AL39" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM39" s="321"/>
+      <c r="AN39" s="321"/>
+      <c r="AO39" s="321"/>
+      <c r="AP39" s="311">
         <f t="shared" si="4"/>
         <v>111.53846153846153</v>
       </c>
     </row>
     <row r="40" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="329" t="s">
+      <c r="A40" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="318">
+      <c r="B40" s="302">
         <v>2</v>
       </c>
-      <c r="C40" s="319"/>
-      <c r="D40" s="319"/>
-      <c r="E40" s="342" t="s">
+      <c r="C40" s="303"/>
+      <c r="D40" s="303"/>
+      <c r="E40" s="326" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="321">
-        <v>1</v>
-      </c>
-      <c r="G40" s="331">
-        <v>1</v>
-      </c>
-      <c r="H40" s="331">
-        <v>1</v>
-      </c>
-      <c r="I40" s="331">
-        <v>1</v>
-      </c>
-      <c r="J40" s="331">
-        <v>1</v>
-      </c>
-      <c r="K40" s="331">
-        <v>1</v>
-      </c>
-      <c r="L40" s="331">
-        <v>1</v>
-      </c>
-      <c r="M40" s="331">
-        <v>1</v>
-      </c>
-      <c r="N40" s="331">
-        <v>1</v>
-      </c>
-      <c r="O40" s="331">
-        <v>1</v>
-      </c>
-      <c r="P40" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="331">
-        <v>1</v>
-      </c>
-      <c r="R40" s="332">
-        <v>1</v>
-      </c>
-      <c r="S40" s="331">
+      <c r="F40" s="305">
+        <v>1</v>
+      </c>
+      <c r="G40" s="315">
+        <v>1</v>
+      </c>
+      <c r="H40" s="315">
+        <v>1</v>
+      </c>
+      <c r="I40" s="315">
+        <v>1</v>
+      </c>
+      <c r="J40" s="315">
+        <v>1</v>
+      </c>
+      <c r="K40" s="315">
+        <v>1</v>
+      </c>
+      <c r="L40" s="315">
+        <v>1</v>
+      </c>
+      <c r="M40" s="315">
+        <v>1</v>
+      </c>
+      <c r="N40" s="315">
+        <v>1</v>
+      </c>
+      <c r="O40" s="315">
+        <v>1</v>
+      </c>
+      <c r="P40" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="315">
+        <v>1</v>
+      </c>
+      <c r="R40" s="316">
+        <v>1</v>
+      </c>
+      <c r="S40" s="315">
         <v>3</v>
       </c>
-      <c r="T40" s="331">
-        <v>1</v>
-      </c>
-      <c r="U40" s="333">
-        <v>1</v>
-      </c>
-      <c r="V40" s="321">
-        <v>1</v>
-      </c>
-      <c r="W40" s="331">
-        <v>1</v>
-      </c>
-      <c r="X40" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="331"/>
-      <c r="AA40" s="331"/>
-      <c r="AB40" s="331"/>
-      <c r="AC40" s="334">
+      <c r="T40" s="315">
+        <v>1</v>
+      </c>
+      <c r="U40" s="317">
+        <v>1</v>
+      </c>
+      <c r="V40" s="305">
+        <v>1</v>
+      </c>
+      <c r="W40" s="315">
+        <v>1</v>
+      </c>
+      <c r="X40" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="315"/>
+      <c r="AA40" s="315"/>
+      <c r="AB40" s="315"/>
+      <c r="AC40" s="318">
         <v>60</v>
       </c>
-      <c r="AD40" s="334">
-        <v>100</v>
-      </c>
-      <c r="AE40" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF40" s="336">
+      <c r="AD40" s="318">
+        <v>100</v>
+      </c>
+      <c r="AE40" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF40" s="320">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG40" s="338">
-        <v>100</v>
-      </c>
-      <c r="AH40" s="337">
-        <v>100</v>
-      </c>
-      <c r="AI40" s="345"/>
-      <c r="AJ40" s="345"/>
-      <c r="AK40" s="345"/>
-      <c r="AL40" s="345">
-        <v>100</v>
-      </c>
-      <c r="AM40" s="337"/>
-      <c r="AN40" s="337"/>
-      <c r="AO40" s="337"/>
-      <c r="AP40" s="327">
+      <c r="AG40" s="322">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="321">
+        <v>100</v>
+      </c>
+      <c r="AI40" s="329"/>
+      <c r="AJ40" s="329"/>
+      <c r="AK40" s="329"/>
+      <c r="AL40" s="329">
+        <v>100</v>
+      </c>
+      <c r="AM40" s="321"/>
+      <c r="AN40" s="321"/>
+      <c r="AO40" s="321"/>
+      <c r="AP40" s="311">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="329" t="s">
+      <c r="A41" s="313" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="318">
+      <c r="B41" s="302">
         <v>2</v>
       </c>
-      <c r="C41" s="319"/>
-      <c r="D41" s="319"/>
-      <c r="E41" s="342" t="s">
+      <c r="C41" s="303"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="326" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="321">
-        <v>1</v>
-      </c>
-      <c r="G41" s="321">
+      <c r="F41" s="305">
+        <v>1</v>
+      </c>
+      <c r="G41" s="305">
         <v>-0.5</v>
       </c>
-      <c r="H41" s="343">
-        <v>1</v>
-      </c>
-      <c r="I41" s="343">
-        <v>1</v>
-      </c>
-      <c r="J41" s="343">
-        <v>1</v>
-      </c>
-      <c r="K41" s="343">
-        <v>1</v>
-      </c>
-      <c r="L41" s="321">
+      <c r="H41" s="327">
+        <v>1</v>
+      </c>
+      <c r="I41" s="327">
+        <v>1</v>
+      </c>
+      <c r="J41" s="327">
+        <v>1</v>
+      </c>
+      <c r="K41" s="327">
+        <v>1</v>
+      </c>
+      <c r="L41" s="305">
         <v>-0.5</v>
       </c>
-      <c r="M41" s="343">
-        <v>1</v>
-      </c>
-      <c r="N41" s="343">
-        <v>1</v>
-      </c>
-      <c r="O41" s="343">
-        <v>1</v>
-      </c>
-      <c r="P41" s="343">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="343">
-        <v>1</v>
-      </c>
-      <c r="R41" s="350">
-        <v>1</v>
-      </c>
-      <c r="S41" s="343">
+      <c r="M41" s="327">
+        <v>1</v>
+      </c>
+      <c r="N41" s="327">
+        <v>1</v>
+      </c>
+      <c r="O41" s="327">
+        <v>1</v>
+      </c>
+      <c r="P41" s="327">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="327">
+        <v>1</v>
+      </c>
+      <c r="R41" s="334">
+        <v>1</v>
+      </c>
+      <c r="S41" s="327">
         <v>3</v>
       </c>
-      <c r="T41" s="343">
-        <v>1</v>
-      </c>
-      <c r="U41" s="351">
-        <v>1</v>
-      </c>
-      <c r="V41" s="321">
-        <v>1</v>
-      </c>
-      <c r="W41" s="343">
-        <v>1</v>
-      </c>
-      <c r="X41" s="343">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="343">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="343"/>
-      <c r="AA41" s="343"/>
-      <c r="AB41" s="343"/>
-      <c r="AC41" s="334">
+      <c r="T41" s="327">
+        <v>1</v>
+      </c>
+      <c r="U41" s="335">
+        <v>1</v>
+      </c>
+      <c r="V41" s="305">
+        <v>1</v>
+      </c>
+      <c r="W41" s="327">
+        <v>1</v>
+      </c>
+      <c r="X41" s="327">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="327">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="327"/>
+      <c r="AA41" s="327"/>
+      <c r="AB41" s="327"/>
+      <c r="AC41" s="318">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD41" s="334">
+      <c r="AD41" s="318">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE41" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF41" s="336">
-        <v>100</v>
-      </c>
-      <c r="AG41" s="346">
+      <c r="AE41" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF41" s="320">
+        <v>100</v>
+      </c>
+      <c r="AG41" s="330">
         <v>60</v>
       </c>
-      <c r="AH41" s="345">
-        <v>100</v>
-      </c>
-      <c r="AI41" s="345"/>
-      <c r="AJ41" s="345"/>
-      <c r="AK41" s="345"/>
-      <c r="AL41" s="345">
-        <v>100</v>
-      </c>
-      <c r="AM41" s="345"/>
-      <c r="AN41" s="345"/>
-      <c r="AO41" s="345"/>
-      <c r="AP41" s="327">
+      <c r="AH41" s="329">
+        <v>100</v>
+      </c>
+      <c r="AI41" s="329"/>
+      <c r="AJ41" s="329"/>
+      <c r="AK41" s="329"/>
+      <c r="AL41" s="329">
+        <v>100</v>
+      </c>
+      <c r="AM41" s="329"/>
+      <c r="AN41" s="329"/>
+      <c r="AO41" s="329"/>
+      <c r="AP41" s="311">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="329" t="s">
+      <c r="A42" s="313" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="318">
-        <v>0</v>
-      </c>
-      <c r="C42" s="319"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="348" t="s">
+      <c r="B42" s="302">
+        <v>0</v>
+      </c>
+      <c r="C42" s="303"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="332" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="321">
-        <v>1</v>
-      </c>
-      <c r="G42" s="321">
+      <c r="F42" s="305">
+        <v>1</v>
+      </c>
+      <c r="G42" s="305">
         <v>-0.5</v>
       </c>
-      <c r="H42" s="331">
-        <v>1</v>
-      </c>
-      <c r="I42" s="321">
+      <c r="H42" s="315">
+        <v>1</v>
+      </c>
+      <c r="I42" s="305">
         <v>-0.5</v>
       </c>
-      <c r="J42" s="331">
-        <v>1</v>
-      </c>
-      <c r="K42" s="331">
-        <v>1</v>
-      </c>
-      <c r="L42" s="331">
-        <v>1</v>
-      </c>
-      <c r="M42" s="331">
-        <v>1</v>
-      </c>
-      <c r="N42" s="331">
-        <v>1</v>
-      </c>
-      <c r="O42" s="331">
-        <v>1</v>
-      </c>
-      <c r="P42" s="331">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="331">
-        <v>1</v>
-      </c>
-      <c r="R42" s="332">
-        <v>1</v>
-      </c>
-      <c r="S42" s="331">
+      <c r="J42" s="315">
+        <v>1</v>
+      </c>
+      <c r="K42" s="315">
+        <v>1</v>
+      </c>
+      <c r="L42" s="315">
+        <v>1</v>
+      </c>
+      <c r="M42" s="315">
+        <v>1</v>
+      </c>
+      <c r="N42" s="315">
+        <v>1</v>
+      </c>
+      <c r="O42" s="315">
+        <v>1</v>
+      </c>
+      <c r="P42" s="315">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="315">
+        <v>1</v>
+      </c>
+      <c r="R42" s="316">
+        <v>1</v>
+      </c>
+      <c r="S42" s="315">
         <v>3</v>
       </c>
-      <c r="T42" s="331">
-        <v>1</v>
-      </c>
-      <c r="U42" s="333">
-        <v>1</v>
-      </c>
-      <c r="V42" s="321">
-        <v>1</v>
-      </c>
-      <c r="W42" s="331">
-        <v>1</v>
-      </c>
-      <c r="X42" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="331"/>
-      <c r="AA42" s="331"/>
-      <c r="AB42" s="331"/>
-      <c r="AC42" s="334">
+      <c r="T42" s="315">
+        <v>1</v>
+      </c>
+      <c r="U42" s="317">
+        <v>1</v>
+      </c>
+      <c r="V42" s="305">
+        <v>1</v>
+      </c>
+      <c r="W42" s="315">
+        <v>1</v>
+      </c>
+      <c r="X42" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="315"/>
+      <c r="AA42" s="315"/>
+      <c r="AB42" s="315"/>
+      <c r="AC42" s="318">
         <f>-40 - 20 + 100</f>
         <v>40</v>
       </c>
-      <c r="AD42" s="344">
+      <c r="AD42" s="328">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE42" s="337">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="337">
+      <c r="AE42" s="321">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="321">
         <f>-50 + 20 - 20+50</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="338">
+      <c r="AG42" s="322">
         <v>-100</v>
       </c>
-      <c r="AH42" s="337">
+      <c r="AH42" s="321">
         <v>70</v>
       </c>
-      <c r="AI42" s="345"/>
-      <c r="AJ42" s="345"/>
-      <c r="AK42" s="345"/>
-      <c r="AL42" s="345">
-        <v>100</v>
-      </c>
-      <c r="AM42" s="337"/>
-      <c r="AN42" s="337"/>
-      <c r="AO42" s="337"/>
-      <c r="AP42" s="327">
+      <c r="AI42" s="329"/>
+      <c r="AJ42" s="329"/>
+      <c r="AK42" s="329"/>
+      <c r="AL42" s="329">
+        <v>100</v>
+      </c>
+      <c r="AM42" s="321"/>
+      <c r="AN42" s="321"/>
+      <c r="AO42" s="321"/>
+      <c r="AP42" s="311">
         <f t="shared" si="4"/>
         <v>73.461538461538467</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="329" t="s">
+      <c r="A43" s="313" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="318">
-        <v>0</v>
-      </c>
-      <c r="C43" s="354"/>
-      <c r="D43" s="354"/>
-      <c r="E43" s="348" t="s">
+      <c r="B43" s="302">
+        <v>0</v>
+      </c>
+      <c r="C43" s="338"/>
+      <c r="D43" s="338"/>
+      <c r="E43" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="321">
-        <v>1</v>
-      </c>
-      <c r="G43" s="331">
-        <v>1</v>
-      </c>
-      <c r="H43" s="321">
+      <c r="F43" s="305">
+        <v>1</v>
+      </c>
+      <c r="G43" s="315">
+        <v>1</v>
+      </c>
+      <c r="H43" s="305">
         <v>-0.5</v>
       </c>
-      <c r="I43" s="321">
+      <c r="I43" s="305">
         <v>-0.5</v>
       </c>
-      <c r="J43" s="331">
-        <v>1</v>
-      </c>
-      <c r="K43" s="331">
-        <v>1</v>
-      </c>
-      <c r="L43" s="331">
-        <v>1</v>
-      </c>
-      <c r="M43" s="331">
+      <c r="J43" s="315">
+        <v>1</v>
+      </c>
+      <c r="K43" s="315">
+        <v>1</v>
+      </c>
+      <c r="L43" s="315">
+        <v>1</v>
+      </c>
+      <c r="M43" s="315">
         <v>-0.5</v>
       </c>
-      <c r="N43" s="331">
-        <v>1</v>
-      </c>
-      <c r="O43" s="331">
-        <v>1</v>
-      </c>
-      <c r="P43" s="331">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="331">
-        <v>1</v>
-      </c>
-      <c r="R43" s="332">
-        <v>1</v>
-      </c>
-      <c r="S43" s="331">
+      <c r="N43" s="315">
+        <v>1</v>
+      </c>
+      <c r="O43" s="315">
+        <v>1</v>
+      </c>
+      <c r="P43" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="315">
+        <v>1</v>
+      </c>
+      <c r="R43" s="316">
+        <v>1</v>
+      </c>
+      <c r="S43" s="315">
         <v>3</v>
       </c>
-      <c r="T43" s="331">
-        <v>1</v>
-      </c>
-      <c r="U43" s="333">
+      <c r="T43" s="315">
+        <v>1</v>
+      </c>
+      <c r="U43" s="317">
         <v>-1</v>
       </c>
-      <c r="V43" s="321">
-        <v>1</v>
-      </c>
-      <c r="W43" s="331">
-        <v>1</v>
-      </c>
-      <c r="X43" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="331"/>
-      <c r="AA43" s="331"/>
-      <c r="AB43" s="331"/>
-      <c r="AC43" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD43" s="334">
+      <c r="V43" s="305">
+        <v>1</v>
+      </c>
+      <c r="W43" s="315">
+        <v>1</v>
+      </c>
+      <c r="X43" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="315"/>
+      <c r="AA43" s="315"/>
+      <c r="AB43" s="315"/>
+      <c r="AC43" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="318">
         <f>-50 - 50 + 40</f>
         <v>-60</v>
       </c>
-      <c r="AE43" s="337">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="337">
+      <c r="AE43" s="321">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="321">
         <f>-50-20+100</f>
         <v>30</v>
       </c>
-      <c r="AG43" s="338">
+      <c r="AG43" s="322">
         <v>70</v>
       </c>
-      <c r="AH43" s="337">
-        <v>100</v>
-      </c>
-      <c r="AI43" s="337">
+      <c r="AH43" s="321">
+        <v>100</v>
+      </c>
+      <c r="AI43" s="321">
         <v>40</v>
       </c>
-      <c r="AJ43" s="337"/>
-      <c r="AK43" s="337"/>
-      <c r="AL43" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM43" s="337"/>
-      <c r="AN43" s="337"/>
-      <c r="AO43" s="337"/>
-      <c r="AP43" s="327">
+      <c r="AJ43" s="321"/>
+      <c r="AK43" s="321"/>
+      <c r="AL43" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM43" s="321"/>
+      <c r="AN43" s="321"/>
+      <c r="AO43" s="321"/>
+      <c r="AP43" s="311">
         <f t="shared" si="4"/>
         <v>70.384615384615387</v>
       </c>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A44" s="329" t="s">
+      <c r="A44" s="313" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="318">
-        <v>0</v>
-      </c>
-      <c r="C44" s="319"/>
-      <c r="D44" s="319"/>
-      <c r="E44" s="342" t="s">
+      <c r="B44" s="302">
+        <v>0</v>
+      </c>
+      <c r="C44" s="303"/>
+      <c r="D44" s="303"/>
+      <c r="E44" s="326" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="321">
-        <v>1</v>
-      </c>
-      <c r="G44" s="355">
-        <v>1</v>
-      </c>
-      <c r="H44" s="355">
-        <v>1</v>
-      </c>
-      <c r="I44" s="355">
-        <v>1</v>
-      </c>
-      <c r="J44" s="355">
-        <v>1</v>
-      </c>
-      <c r="K44" s="355">
-        <v>1</v>
-      </c>
-      <c r="L44" s="355">
-        <v>1</v>
-      </c>
-      <c r="M44" s="355">
+      <c r="F44" s="305">
+        <v>1</v>
+      </c>
+      <c r="G44" s="339">
+        <v>1</v>
+      </c>
+      <c r="H44" s="339">
+        <v>1</v>
+      </c>
+      <c r="I44" s="339">
+        <v>1</v>
+      </c>
+      <c r="J44" s="339">
+        <v>1</v>
+      </c>
+      <c r="K44" s="339">
+        <v>1</v>
+      </c>
+      <c r="L44" s="339">
+        <v>1</v>
+      </c>
+      <c r="M44" s="339">
         <v>-0.5</v>
       </c>
-      <c r="N44" s="355">
-        <v>1</v>
-      </c>
-      <c r="O44" s="355">
-        <v>1</v>
-      </c>
-      <c r="P44" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="355">
-        <v>1</v>
-      </c>
-      <c r="R44" s="356">
-        <v>1</v>
-      </c>
-      <c r="S44" s="355">
+      <c r="N44" s="339">
+        <v>1</v>
+      </c>
+      <c r="O44" s="339">
+        <v>1</v>
+      </c>
+      <c r="P44" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="339">
+        <v>1</v>
+      </c>
+      <c r="R44" s="340">
+        <v>1</v>
+      </c>
+      <c r="S44" s="339">
         <v>3</v>
       </c>
-      <c r="T44" s="355">
-        <v>1</v>
-      </c>
-      <c r="U44" s="333">
+      <c r="T44" s="339">
+        <v>1</v>
+      </c>
+      <c r="U44" s="317">
         <v>-1</v>
       </c>
-      <c r="V44" s="321">
-        <v>1</v>
-      </c>
-      <c r="W44" s="331">
-        <v>1</v>
-      </c>
-      <c r="X44" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="331">
+      <c r="V44" s="305">
+        <v>1</v>
+      </c>
+      <c r="W44" s="315">
+        <v>1</v>
+      </c>
+      <c r="X44" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="315">
         <v>-1</v>
       </c>
-      <c r="Z44" s="331"/>
-      <c r="AA44" s="331"/>
-      <c r="AB44" s="331"/>
-      <c r="AC44" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD44" s="340">
+      <c r="Z44" s="315"/>
+      <c r="AA44" s="315"/>
+      <c r="AB44" s="315"/>
+      <c r="AC44" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="324">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE44" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF44" s="337">
+      <c r="AE44" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF44" s="321">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="AG44" s="337">
+      <c r="AG44" s="321">
         <v>40</v>
       </c>
-      <c r="AH44" s="336">
-        <v>100</v>
-      </c>
-      <c r="AI44" s="337"/>
-      <c r="AJ44" s="337"/>
-      <c r="AK44" s="337"/>
-      <c r="AL44" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM44" s="337"/>
-      <c r="AN44" s="337"/>
-      <c r="AO44" s="337"/>
-      <c r="AP44" s="327">
+      <c r="AH44" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI44" s="321"/>
+      <c r="AJ44" s="321"/>
+      <c r="AK44" s="321"/>
+      <c r="AL44" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM44" s="321"/>
+      <c r="AN44" s="321"/>
+      <c r="AO44" s="321"/>
+      <c r="AP44" s="311">
         <f t="shared" si="4"/>
         <v>78.461538461538467</v>
       </c>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A45" s="329" t="s">
+      <c r="A45" s="313" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="318">
-        <v>1</v>
-      </c>
-      <c r="C45" s="319"/>
-      <c r="D45" s="319"/>
-      <c r="E45" s="319" t="s">
+      <c r="B45" s="302">
+        <v>1</v>
+      </c>
+      <c r="C45" s="303"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="303" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="321">
-        <v>1</v>
-      </c>
-      <c r="G45" s="321">
+      <c r="F45" s="305">
+        <v>1</v>
+      </c>
+      <c r="G45" s="305">
         <v>-0.5</v>
       </c>
-      <c r="H45" s="355">
-        <v>1</v>
-      </c>
-      <c r="I45" s="355">
-        <v>1</v>
-      </c>
-      <c r="J45" s="355">
-        <v>1</v>
-      </c>
-      <c r="K45" s="355">
-        <v>1</v>
-      </c>
-      <c r="L45" s="321">
+      <c r="H45" s="339">
+        <v>1</v>
+      </c>
+      <c r="I45" s="339">
+        <v>1</v>
+      </c>
+      <c r="J45" s="339">
+        <v>1</v>
+      </c>
+      <c r="K45" s="339">
+        <v>1</v>
+      </c>
+      <c r="L45" s="305">
         <v>-0.5</v>
       </c>
-      <c r="M45" s="355">
-        <v>1</v>
-      </c>
-      <c r="N45" s="355">
-        <v>1</v>
-      </c>
-      <c r="O45" s="355">
-        <v>1</v>
-      </c>
-      <c r="P45" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="355">
-        <v>1</v>
-      </c>
-      <c r="R45" s="356">
-        <v>1</v>
-      </c>
-      <c r="S45" s="355">
+      <c r="M45" s="339">
+        <v>1</v>
+      </c>
+      <c r="N45" s="339">
+        <v>1</v>
+      </c>
+      <c r="O45" s="339">
+        <v>1</v>
+      </c>
+      <c r="P45" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="339">
+        <v>1</v>
+      </c>
+      <c r="R45" s="340">
+        <v>1</v>
+      </c>
+      <c r="S45" s="339">
         <v>3</v>
       </c>
-      <c r="T45" s="355">
-        <v>1</v>
-      </c>
-      <c r="U45" s="357">
-        <v>1</v>
-      </c>
-      <c r="V45" s="321">
-        <v>1</v>
-      </c>
-      <c r="W45" s="355">
-        <v>1</v>
-      </c>
-      <c r="X45" s="355">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="355">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="355"/>
-      <c r="AA45" s="355"/>
-      <c r="AB45" s="355"/>
-      <c r="AC45" s="334">
+      <c r="T45" s="339">
+        <v>1</v>
+      </c>
+      <c r="U45" s="341">
+        <v>1</v>
+      </c>
+      <c r="V45" s="305">
+        <v>1</v>
+      </c>
+      <c r="W45" s="339">
+        <v>1</v>
+      </c>
+      <c r="X45" s="339">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="339">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="339"/>
+      <c r="AA45" s="339"/>
+      <c r="AB45" s="339"/>
+      <c r="AC45" s="318">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD45" s="334">
+      <c r="AD45" s="318">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AE45" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF45" s="336">
+      <c r="AE45" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="320">
         <f>-50 + 130</f>
         <v>80</v>
       </c>
-      <c r="AG45" s="337">
+      <c r="AG45" s="321">
         <v>-100</v>
       </c>
-      <c r="AH45" s="337">
+      <c r="AH45" s="321">
         <v>-100</v>
       </c>
-      <c r="AI45" s="337"/>
-      <c r="AJ45" s="337"/>
-      <c r="AK45" s="337"/>
-      <c r="AL45" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM45" s="337"/>
-      <c r="AN45" s="337"/>
-      <c r="AO45" s="337"/>
-      <c r="AP45" s="327">
+      <c r="AI45" s="321"/>
+      <c r="AJ45" s="321"/>
+      <c r="AK45" s="321"/>
+      <c r="AL45" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="321"/>
+      <c r="AN45" s="321"/>
+      <c r="AO45" s="321"/>
+      <c r="AP45" s="311">
         <f t="shared" si="4"/>
         <v>80.384615384615387</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A46" s="329" t="s">
+      <c r="A46" s="313" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="318">
-        <v>1</v>
-      </c>
-      <c r="C46" s="319"/>
-      <c r="D46" s="319"/>
-      <c r="E46" s="330" t="s">
+      <c r="B46" s="302">
+        <v>1</v>
+      </c>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="321">
-        <v>1</v>
-      </c>
-      <c r="G46" s="355">
-        <v>1</v>
-      </c>
-      <c r="H46" s="355">
-        <v>1</v>
-      </c>
-      <c r="I46" s="355">
-        <v>1</v>
-      </c>
-      <c r="J46" s="321">
+      <c r="F46" s="305">
+        <v>1</v>
+      </c>
+      <c r="G46" s="339">
+        <v>1</v>
+      </c>
+      <c r="H46" s="339">
+        <v>1</v>
+      </c>
+      <c r="I46" s="339">
+        <v>1</v>
+      </c>
+      <c r="J46" s="305">
         <v>-0.5</v>
       </c>
-      <c r="K46" s="355">
-        <v>1</v>
-      </c>
-      <c r="L46" s="355">
-        <v>1</v>
-      </c>
-      <c r="M46" s="355">
+      <c r="K46" s="339">
+        <v>1</v>
+      </c>
+      <c r="L46" s="339">
+        <v>1</v>
+      </c>
+      <c r="M46" s="339">
         <v>-0.5</v>
       </c>
-      <c r="N46" s="355">
-        <v>1</v>
-      </c>
-      <c r="O46" s="355">
-        <v>1</v>
-      </c>
-      <c r="P46" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="355">
-        <v>1</v>
-      </c>
-      <c r="R46" s="356">
-        <v>1</v>
-      </c>
-      <c r="S46" s="355">
+      <c r="N46" s="339">
+        <v>1</v>
+      </c>
+      <c r="O46" s="339">
+        <v>1</v>
+      </c>
+      <c r="P46" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="339">
+        <v>1</v>
+      </c>
+      <c r="R46" s="340">
+        <v>1</v>
+      </c>
+      <c r="S46" s="339">
         <v>3</v>
       </c>
-      <c r="T46" s="355">
-        <v>1</v>
-      </c>
-      <c r="U46" s="357">
-        <v>1</v>
-      </c>
-      <c r="V46" s="321">
-        <v>1</v>
-      </c>
-      <c r="W46" s="355">
-        <v>1</v>
-      </c>
-      <c r="X46" s="355">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="355">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="355"/>
-      <c r="AA46" s="355"/>
-      <c r="AB46" s="355"/>
-      <c r="AC46" s="334">
-        <v>100</v>
-      </c>
-      <c r="AD46" s="334">
+      <c r="T46" s="339">
+        <v>1</v>
+      </c>
+      <c r="U46" s="341">
+        <v>1</v>
+      </c>
+      <c r="V46" s="305">
+        <v>1</v>
+      </c>
+      <c r="W46" s="339">
+        <v>1</v>
+      </c>
+      <c r="X46" s="339">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="339">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="339"/>
+      <c r="AA46" s="339"/>
+      <c r="AB46" s="339"/>
+      <c r="AC46" s="318">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="318">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF46" s="336">
+      <c r="AE46" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF46" s="320">
         <f>50 + 10 + 20+20</f>
         <v>100</v>
       </c>
-      <c r="AG46" s="337">
+      <c r="AG46" s="321">
         <v>-100</v>
       </c>
-      <c r="AH46" s="337">
+      <c r="AH46" s="321">
         <v>-100</v>
       </c>
-      <c r="AI46" s="337"/>
-      <c r="AJ46" s="337"/>
-      <c r="AK46" s="337"/>
-      <c r="AL46" s="337">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="337"/>
-      <c r="AN46" s="337"/>
-      <c r="AO46" s="337"/>
-      <c r="AP46" s="327">
+      <c r="AI46" s="321"/>
+      <c r="AJ46" s="321"/>
+      <c r="AK46" s="321"/>
+      <c r="AL46" s="321">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="321"/>
+      <c r="AN46" s="321"/>
+      <c r="AO46" s="321"/>
+      <c r="AP46" s="311">
         <f t="shared" si="4"/>
         <v>76.961538461538467</v>
       </c>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A47" s="352" t="s">
+      <c r="A47" s="336" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="318">
-        <v>0</v>
-      </c>
-      <c r="C47" s="319"/>
-      <c r="D47" s="319"/>
-      <c r="E47" s="319" t="s">
+      <c r="B47" s="302">
+        <v>0</v>
+      </c>
+      <c r="C47" s="303"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="303" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="321">
-        <v>1</v>
-      </c>
-      <c r="G47" s="355">
-        <v>1</v>
-      </c>
-      <c r="H47" s="355">
-        <v>1</v>
-      </c>
-      <c r="I47" s="355">
-        <v>1</v>
-      </c>
-      <c r="J47" s="355">
-        <v>1</v>
-      </c>
-      <c r="K47" s="355">
-        <v>1</v>
-      </c>
-      <c r="L47" s="355">
-        <v>1</v>
-      </c>
-      <c r="M47" s="355">
-        <v>1</v>
-      </c>
-      <c r="N47" s="355">
-        <v>1</v>
-      </c>
-      <c r="O47" s="355">
-        <v>1</v>
-      </c>
-      <c r="P47" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="355">
-        <v>1</v>
-      </c>
-      <c r="R47" s="356">
-        <v>1</v>
-      </c>
-      <c r="S47" s="355">
+      <c r="F47" s="305">
+        <v>1</v>
+      </c>
+      <c r="G47" s="339">
+        <v>1</v>
+      </c>
+      <c r="H47" s="339">
+        <v>1</v>
+      </c>
+      <c r="I47" s="339">
+        <v>1</v>
+      </c>
+      <c r="J47" s="339">
+        <v>1</v>
+      </c>
+      <c r="K47" s="339">
+        <v>1</v>
+      </c>
+      <c r="L47" s="339">
+        <v>1</v>
+      </c>
+      <c r="M47" s="339">
+        <v>1</v>
+      </c>
+      <c r="N47" s="339">
+        <v>1</v>
+      </c>
+      <c r="O47" s="339">
+        <v>1</v>
+      </c>
+      <c r="P47" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="339">
+        <v>1</v>
+      </c>
+      <c r="R47" s="340">
+        <v>1</v>
+      </c>
+      <c r="S47" s="339">
         <v>3</v>
       </c>
-      <c r="T47" s="355">
-        <v>1</v>
-      </c>
-      <c r="U47" s="357">
-        <v>1</v>
-      </c>
-      <c r="V47" s="321">
-        <v>1</v>
-      </c>
-      <c r="W47" s="355">
-        <v>1</v>
-      </c>
-      <c r="X47" s="355">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="355">
+      <c r="T47" s="339">
+        <v>1</v>
+      </c>
+      <c r="U47" s="341">
+        <v>1</v>
+      </c>
+      <c r="V47" s="305">
+        <v>1</v>
+      </c>
+      <c r="W47" s="339">
+        <v>1</v>
+      </c>
+      <c r="X47" s="339">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="339">
         <v>-1</v>
       </c>
-      <c r="Z47" s="355"/>
-      <c r="AA47" s="355"/>
-      <c r="AB47" s="355"/>
-      <c r="AC47" s="334">
+      <c r="Z47" s="339"/>
+      <c r="AA47" s="339"/>
+      <c r="AB47" s="339"/>
+      <c r="AC47" s="318">
         <v>60</v>
       </c>
-      <c r="AD47" s="344">
+      <c r="AD47" s="328">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE47" s="336">
-        <v>100</v>
-      </c>
-      <c r="AF47" s="337">
+      <c r="AE47" s="320">
+        <v>100</v>
+      </c>
+      <c r="AF47" s="321">
         <v>-100</v>
       </c>
-      <c r="AG47" s="337">
+      <c r="AG47" s="321">
         <v>-100</v>
       </c>
-      <c r="AH47" s="337">
+      <c r="AH47" s="321">
         <v>-100</v>
       </c>
-      <c r="AI47" s="337"/>
-      <c r="AJ47" s="337"/>
-      <c r="AK47" s="337"/>
-      <c r="AL47" s="337"/>
-      <c r="AM47" s="337"/>
-      <c r="AN47" s="337"/>
-      <c r="AO47" s="337"/>
-      <c r="AP47" s="327">
+      <c r="AI47" s="321"/>
+      <c r="AJ47" s="321"/>
+      <c r="AK47" s="321"/>
+      <c r="AL47" s="321"/>
+      <c r="AM47" s="321"/>
+      <c r="AN47" s="321"/>
+      <c r="AO47" s="321"/>
+      <c r="AP47" s="311">
         <f t="shared" si="4"/>
         <v>67.692307692307693</v>
       </c>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A48" s="347" t="s">
+      <c r="A48" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="318">
-        <v>1</v>
-      </c>
-      <c r="C48" s="319"/>
-      <c r="D48" s="319"/>
-      <c r="E48" s="348" t="s">
+      <c r="B48" s="302">
+        <v>1</v>
+      </c>
+      <c r="C48" s="303"/>
+      <c r="D48" s="303"/>
+      <c r="E48" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="321">
-        <v>1</v>
-      </c>
-      <c r="G48" s="321">
+      <c r="F48" s="305">
+        <v>1</v>
+      </c>
+      <c r="G48" s="305">
         <v>-0.5</v>
       </c>
-      <c r="H48" s="355">
-        <v>1</v>
-      </c>
-      <c r="I48" s="321">
+      <c r="H48" s="339">
+        <v>1</v>
+      </c>
+      <c r="I48" s="305">
         <v>-0.5</v>
       </c>
-      <c r="J48" s="355">
-        <v>1</v>
-      </c>
-      <c r="K48" s="355">
-        <v>1</v>
-      </c>
-      <c r="L48" s="355">
-        <v>1</v>
-      </c>
-      <c r="M48" s="355">
+      <c r="J48" s="339">
+        <v>1</v>
+      </c>
+      <c r="K48" s="339">
+        <v>1</v>
+      </c>
+      <c r="L48" s="339">
+        <v>1</v>
+      </c>
+      <c r="M48" s="339">
         <v>-0.5</v>
       </c>
-      <c r="N48" s="355">
-        <v>1</v>
-      </c>
-      <c r="O48" s="355">
-        <v>1</v>
-      </c>
-      <c r="P48" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="355">
-        <v>1</v>
-      </c>
-      <c r="R48" s="356">
-        <v>1</v>
-      </c>
-      <c r="S48" s="355">
+      <c r="N48" s="339">
+        <v>1</v>
+      </c>
+      <c r="O48" s="339">
+        <v>1</v>
+      </c>
+      <c r="P48" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="339">
+        <v>1</v>
+      </c>
+      <c r="R48" s="340">
+        <v>1</v>
+      </c>
+      <c r="S48" s="339">
         <v>3</v>
       </c>
-      <c r="T48" s="355">
-        <v>1</v>
-      </c>
-      <c r="U48" s="357">
-        <v>1</v>
-      </c>
-      <c r="V48" s="321">
-        <v>1</v>
-      </c>
-      <c r="W48" s="355">
-        <v>1</v>
-      </c>
-      <c r="X48" s="355">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="355">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="355"/>
-      <c r="AA48" s="355"/>
-      <c r="AB48" s="355"/>
-      <c r="AC48" s="334">
+      <c r="T48" s="339">
+        <v>1</v>
+      </c>
+      <c r="U48" s="341">
+        <v>1</v>
+      </c>
+      <c r="V48" s="305">
+        <v>1</v>
+      </c>
+      <c r="W48" s="339">
+        <v>1</v>
+      </c>
+      <c r="X48" s="339">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="339">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="339"/>
+      <c r="AA48" s="339"/>
+      <c r="AB48" s="339"/>
+      <c r="AC48" s="318">
         <f>-40 + 100</f>
         <v>60</v>
       </c>
-      <c r="AD48" s="334">
+      <c r="AD48" s="318">
         <f>-50 - 50 + 100</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="337">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="336">
+      <c r="AE48" s="321">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="320">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG48" s="336">
-        <v>100</v>
-      </c>
-      <c r="AH48" s="336">
-        <v>100</v>
-      </c>
-      <c r="AI48" s="337">
+      <c r="AG48" s="320">
+        <v>100</v>
+      </c>
+      <c r="AH48" s="320">
+        <v>100</v>
+      </c>
+      <c r="AI48" s="321">
         <v>40</v>
       </c>
-      <c r="AJ48" s="337"/>
-      <c r="AK48" s="337"/>
-      <c r="AL48" s="337">
-        <v>100</v>
-      </c>
-      <c r="AM48" s="337"/>
-      <c r="AN48" s="337"/>
-      <c r="AO48" s="337"/>
-      <c r="AP48" s="327">
+      <c r="AJ48" s="321"/>
+      <c r="AK48" s="321"/>
+      <c r="AL48" s="321">
+        <v>100</v>
+      </c>
+      <c r="AM48" s="321"/>
+      <c r="AN48" s="321"/>
+      <c r="AO48" s="321"/>
+      <c r="AP48" s="311">
         <f t="shared" si="4"/>
         <v>86.538461538461533</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" s="329" t="s">
+      <c r="A49" s="313" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="318">
+      <c r="B49" s="302">
         <v>2</v>
       </c>
-      <c r="C49" s="319"/>
-      <c r="D49" s="319"/>
-      <c r="E49" s="342" t="s">
+      <c r="C49" s="303"/>
+      <c r="D49" s="303"/>
+      <c r="E49" s="326" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="321">
-        <v>1</v>
-      </c>
-      <c r="G49" s="355">
-        <v>1</v>
-      </c>
-      <c r="H49" s="355">
-        <v>1</v>
-      </c>
-      <c r="I49" s="355">
-        <v>1</v>
-      </c>
-      <c r="J49" s="355">
-        <v>1</v>
-      </c>
-      <c r="K49" s="355">
-        <v>1</v>
-      </c>
-      <c r="L49" s="355">
-        <v>1</v>
-      </c>
-      <c r="M49" s="355">
-        <v>1</v>
-      </c>
-      <c r="N49" s="355">
-        <v>1</v>
-      </c>
-      <c r="O49" s="355">
-        <v>1</v>
-      </c>
-      <c r="P49" s="355">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="355">
-        <v>1</v>
-      </c>
-      <c r="R49" s="356">
-        <v>1</v>
-      </c>
-      <c r="S49" s="355">
+      <c r="F49" s="305">
+        <v>1</v>
+      </c>
+      <c r="G49" s="339">
+        <v>1</v>
+      </c>
+      <c r="H49" s="339">
+        <v>1</v>
+      </c>
+      <c r="I49" s="339">
+        <v>1</v>
+      </c>
+      <c r="J49" s="339">
+        <v>1</v>
+      </c>
+      <c r="K49" s="339">
+        <v>1</v>
+      </c>
+      <c r="L49" s="339">
+        <v>1</v>
+      </c>
+      <c r="M49" s="339">
+        <v>1</v>
+      </c>
+      <c r="N49" s="339">
+        <v>1</v>
+      </c>
+      <c r="O49" s="339">
+        <v>1</v>
+      </c>
+      <c r="P49" s="339">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="339">
+        <v>1</v>
+      </c>
+      <c r="R49" s="340">
+        <v>1</v>
+      </c>
+      <c r="S49" s="339">
         <v>3</v>
       </c>
-      <c r="T49" s="355">
-        <v>1</v>
-      </c>
-      <c r="U49" s="333">
+      <c r="T49" s="339">
+        <v>1</v>
+      </c>
+      <c r="U49" s="317">
         <v>-1</v>
       </c>
-      <c r="V49" s="321">
-        <v>1</v>
-      </c>
-      <c r="W49" s="331">
-        <v>1</v>
-      </c>
-      <c r="X49" s="331">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="331">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="331"/>
-      <c r="AA49" s="331"/>
-      <c r="AB49" s="331"/>
-      <c r="AC49" s="334">
+      <c r="V49" s="305">
+        <v>1</v>
+      </c>
+      <c r="W49" s="315">
+        <v>1</v>
+      </c>
+      <c r="X49" s="315">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="315">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="315"/>
+      <c r="AA49" s="315"/>
+      <c r="AB49" s="315"/>
+      <c r="AC49" s="318">
         <v>80</v>
       </c>
-      <c r="AD49" s="334">
+      <c r="AD49" s="318">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="AE49" s="336">
+      <c r="AE49" s="320">
         <v>50</v>
       </c>
-      <c r="AF49" s="336">
+      <c r="AF49" s="320">
         <f>-50 + 100</f>
         <v>50</v>
       </c>
-      <c r="AG49" s="337">
+      <c r="AG49" s="321">
         <v>60</v>
       </c>
-      <c r="AH49" s="337"/>
-      <c r="AI49" s="337"/>
-      <c r="AJ49" s="337"/>
-      <c r="AK49" s="337"/>
-      <c r="AL49" s="337"/>
-      <c r="AM49" s="337"/>
-      <c r="AN49" s="337"/>
-      <c r="AO49" s="337"/>
-      <c r="AP49" s="327">
+      <c r="AH49" s="321"/>
+      <c r="AI49" s="321"/>
+      <c r="AJ49" s="321"/>
+      <c r="AK49" s="321"/>
+      <c r="AL49" s="321"/>
+      <c r="AM49" s="321"/>
+      <c r="AN49" s="321"/>
+      <c r="AO49" s="321"/>
+      <c r="AP49" s="311">
         <f>SUM(100*SUM(F49:U49),AC49:AO49)/$AP$1</f>
         <v>74.615384615384613</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" s="329"/>
-      <c r="B50" s="354"/>
-      <c r="C50" s="354"/>
-      <c r="D50" s="354"/>
-      <c r="E50" s="330"/>
-      <c r="F50" s="321"/>
-      <c r="G50" s="355"/>
-      <c r="H50" s="355"/>
-      <c r="I50" s="355"/>
-      <c r="J50" s="355"/>
-      <c r="K50" s="319"/>
-      <c r="L50" s="319"/>
-      <c r="M50" s="319"/>
-      <c r="N50" s="355"/>
-      <c r="O50" s="355"/>
-      <c r="P50" s="355"/>
-      <c r="Q50" s="355"/>
-      <c r="R50" s="355"/>
-      <c r="S50" s="355"/>
-      <c r="T50" s="355"/>
-      <c r="U50" s="357"/>
-      <c r="V50" s="358"/>
-      <c r="W50" s="358"/>
-      <c r="X50" s="358"/>
-      <c r="Y50" s="358"/>
-      <c r="Z50" s="358"/>
-      <c r="AA50" s="358"/>
-      <c r="AB50" s="358"/>
-      <c r="AC50" s="359"/>
-      <c r="AD50" s="360"/>
-      <c r="AE50" s="337"/>
-      <c r="AF50" s="337"/>
-      <c r="AG50" s="337"/>
-      <c r="AH50" s="337"/>
-      <c r="AI50" s="337"/>
-      <c r="AJ50" s="337"/>
-      <c r="AK50" s="337"/>
-      <c r="AL50" s="337"/>
-      <c r="AM50" s="337"/>
-      <c r="AN50" s="337"/>
-      <c r="AO50" s="337"/>
-      <c r="AP50" s="327"/>
+      <c r="A50" s="313"/>
+      <c r="B50" s="338"/>
+      <c r="C50" s="338"/>
+      <c r="D50" s="338"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="305"/>
+      <c r="G50" s="339"/>
+      <c r="H50" s="339"/>
+      <c r="I50" s="339"/>
+      <c r="J50" s="339"/>
+      <c r="K50" s="303"/>
+      <c r="L50" s="303"/>
+      <c r="M50" s="303"/>
+      <c r="N50" s="339"/>
+      <c r="O50" s="339"/>
+      <c r="P50" s="339"/>
+      <c r="Q50" s="339"/>
+      <c r="R50" s="339"/>
+      <c r="S50" s="339"/>
+      <c r="T50" s="339"/>
+      <c r="U50" s="341"/>
+      <c r="V50" s="342"/>
+      <c r="W50" s="342"/>
+      <c r="X50" s="342"/>
+      <c r="Y50" s="342"/>
+      <c r="Z50" s="342"/>
+      <c r="AA50" s="342"/>
+      <c r="AB50" s="342"/>
+      <c r="AC50" s="343"/>
+      <c r="AD50" s="344"/>
+      <c r="AE50" s="321"/>
+      <c r="AF50" s="321"/>
+      <c r="AG50" s="321"/>
+      <c r="AH50" s="321"/>
+      <c r="AI50" s="321"/>
+      <c r="AJ50" s="321"/>
+      <c r="AK50" s="321"/>
+      <c r="AL50" s="321"/>
+      <c r="AM50" s="321"/>
+      <c r="AN50" s="321"/>
+      <c r="AO50" s="321"/>
+      <c r="AP50" s="311"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AP29:AP50 AP3:AP26">
@@ -12428,65 +12536,65 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="230" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="230" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="270" t="s">
-        <v>282</v>
+        <v>278</v>
+      </c>
+      <c r="C3" s="267" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="270" t="s">
+      <c r="C4" s="267" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="267" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="267" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="267" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="267" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="267" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="267" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="267" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="270" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="267" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="270" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="267" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="270" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="270" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="270" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="270" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="270" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="270" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="270" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5536586-4CEC-4762-8D80-959C8FAAF20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5287C92-45F9-4195-A97A-05ED60027BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="303">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1562,6 +1562,9 @@
   </si>
   <si>
     <t>Бобокулов Самирхон О.</t>
+  </si>
+  <si>
+    <t>калькулятор</t>
   </si>
 </sst>
 </file>
@@ -2930,6 +2933,27 @@
     </xf>
     <xf numFmtId="2" fontId="24" fillId="21" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="24" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2965,27 +2989,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3387,7 +3390,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -3412,52 +3415,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="355" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="358" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="352" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="352" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="352" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="352" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="352" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="352" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="352" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="361" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="362"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3471,17 +3474,17 @@
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="362"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3497,17 +3500,17 @@
       <c r="E4" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="360"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="363"/>
       <c r="Q4" s="261" t="s">
         <v>296</v>
       </c>
@@ -3535,19 +3538,19 @@
       <c r="E5" s="228" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="357">
-        <v>0</v>
-      </c>
-      <c r="G5" s="358">
-        <v>0</v>
-      </c>
-      <c r="H5" s="359">
-        <v>0</v>
-      </c>
-      <c r="I5" s="359">
-        <v>0</v>
-      </c>
-      <c r="J5" s="359">
+      <c r="F5" s="345">
+        <v>0</v>
+      </c>
+      <c r="G5" s="346">
+        <v>0</v>
+      </c>
+      <c r="H5" s="347">
+        <v>0</v>
+      </c>
+      <c r="I5" s="347">
+        <v>0</v>
+      </c>
+      <c r="J5" s="347">
         <v>0</v>
       </c>
       <c r="K5" s="243"/>
@@ -3594,7 +3597,7 @@
       <c r="I6" s="231">
         <v>80</v>
       </c>
-      <c r="J6" s="360">
+      <c r="J6" s="348">
         <v>0</v>
       </c>
       <c r="K6" s="231"/>
@@ -3629,19 +3632,19 @@
       <c r="E7" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="362">
-        <v>100</v>
-      </c>
-      <c r="G7" s="363">
-        <v>100</v>
-      </c>
-      <c r="H7" s="361">
+      <c r="F7" s="350">
+        <v>100</v>
+      </c>
+      <c r="G7" s="351">
+        <v>100</v>
+      </c>
+      <c r="H7" s="349">
         <v>80</v>
       </c>
-      <c r="I7" s="361">
+      <c r="I7" s="349">
         <v>80</v>
       </c>
-      <c r="J7" s="360">
+      <c r="J7" s="348">
         <v>0</v>
       </c>
       <c r="K7" s="231"/>
@@ -3676,19 +3679,19 @@
       <c r="E8" s="228" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="360">
-        <v>0</v>
-      </c>
-      <c r="G8" s="360">
-        <v>0</v>
-      </c>
-      <c r="H8" s="360">
-        <v>0</v>
-      </c>
-      <c r="I8" s="360">
-        <v>0</v>
-      </c>
-      <c r="J8" s="360">
+      <c r="F8" s="348">
+        <v>0</v>
+      </c>
+      <c r="G8" s="348">
+        <v>0</v>
+      </c>
+      <c r="H8" s="348">
+        <v>0</v>
+      </c>
+      <c r="I8" s="348">
+        <v>0</v>
+      </c>
+      <c r="J8" s="348">
         <v>0</v>
       </c>
       <c r="K8" s="231"/>
@@ -3723,19 +3726,19 @@
       <c r="E9" s="228" t="s">
         <v>260</v>
       </c>
-      <c r="F9" s="360">
-        <v>0</v>
-      </c>
-      <c r="G9" s="360">
-        <v>0</v>
-      </c>
-      <c r="H9" s="360">
-        <v>0</v>
-      </c>
-      <c r="I9" s="360">
-        <v>0</v>
-      </c>
-      <c r="J9" s="360">
+      <c r="F9" s="348">
+        <v>0</v>
+      </c>
+      <c r="G9" s="348">
+        <v>0</v>
+      </c>
+      <c r="H9" s="348">
+        <v>0</v>
+      </c>
+      <c r="I9" s="348">
+        <v>0</v>
+      </c>
+      <c r="J9" s="348">
         <v>0</v>
       </c>
       <c r="K9" s="231"/>
@@ -3829,7 +3832,7 @@
       <c r="I11" s="231">
         <v>80</v>
       </c>
-      <c r="J11" s="360">
+      <c r="J11" s="348">
         <v>0</v>
       </c>
       <c r="K11" s="231"/>
@@ -3911,19 +3914,19 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="360">
-        <v>0</v>
-      </c>
-      <c r="G13" s="360">
-        <v>0</v>
-      </c>
-      <c r="H13" s="360">
-        <v>0</v>
-      </c>
-      <c r="I13" s="360">
-        <v>0</v>
-      </c>
-      <c r="J13" s="360">
+      <c r="F13" s="348">
+        <v>0</v>
+      </c>
+      <c r="G13" s="348">
+        <v>0</v>
+      </c>
+      <c r="H13" s="348">
+        <v>0</v>
+      </c>
+      <c r="I13" s="348">
+        <v>0</v>
+      </c>
+      <c r="J13" s="348">
         <v>0</v>
       </c>
       <c r="K13" s="231"/>
@@ -3970,7 +3973,7 @@
       <c r="I14" s="231">
         <v>90</v>
       </c>
-      <c r="J14" s="360">
+      <c r="J14" s="348">
         <v>0</v>
       </c>
       <c r="K14" s="231"/>
@@ -4015,7 +4018,7 @@
       <c r="I15" s="231">
         <v>0</v>
       </c>
-      <c r="J15" s="360">
+      <c r="J15" s="348">
         <v>0</v>
       </c>
       <c r="K15" s="231"/>
@@ -4156,7 +4159,7 @@
       <c r="I18" s="231">
         <v>0</v>
       </c>
-      <c r="J18" s="360">
+      <c r="J18" s="348">
         <v>0</v>
       </c>
       <c r="K18" s="231"/>
@@ -4203,7 +4206,7 @@
       <c r="I19" s="231">
         <v>90</v>
       </c>
-      <c r="J19" s="360">
+      <c r="J19" s="348">
         <v>0</v>
       </c>
       <c r="K19" s="231"/>
@@ -4250,7 +4253,7 @@
       <c r="I20" s="291">
         <v>70</v>
       </c>
-      <c r="J20" s="360">
+      <c r="J20" s="348">
         <v>0</v>
       </c>
       <c r="K20" s="231"/>
@@ -4297,7 +4300,7 @@
       <c r="I21" s="231">
         <v>80</v>
       </c>
-      <c r="J21" s="360">
+      <c r="J21" s="348">
         <v>0</v>
       </c>
       <c r="K21" s="231"/>
@@ -4344,7 +4347,7 @@
       <c r="I22" s="231">
         <v>90</v>
       </c>
-      <c r="J22" s="360">
+      <c r="J22" s="348">
         <v>0</v>
       </c>
       <c r="K22" s="231"/>
@@ -4391,7 +4394,7 @@
       <c r="I23" s="231">
         <v>0</v>
       </c>
-      <c r="J23" s="360">
+      <c r="J23" s="348">
         <v>0</v>
       </c>
       <c r="K23" s="231"/>
@@ -4438,7 +4441,7 @@
       <c r="I24" s="231">
         <v>80</v>
       </c>
-      <c r="J24" s="361">
+      <c r="J24" s="349">
         <v>50</v>
       </c>
       <c r="K24" s="231"/>
@@ -4600,52 +4603,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="348" t="s">
+      <c r="G1" s="355" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="351" t="s">
+      <c r="H1" s="358" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="352" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="352" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="352" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="352" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="352" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="352" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="352" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="345" t="s">
+      <c r="P1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="354" t="s">
+      <c r="Q1" s="361" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="349"/>
-      <c r="H2" s="352"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="355"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="353"/>
+      <c r="Q2" s="362"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4660,17 +4663,17 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="349"/>
-      <c r="H3" s="352"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="355"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="359"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="362"/>
     </row>
     <row r="4" spans="1:25" s="266" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="265"/>
@@ -4689,17 +4692,17 @@
       <c r="F4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="350"/>
-      <c r="H4" s="353"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="356"/>
+      <c r="G4" s="357"/>
+      <c r="H4" s="360"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="354"/>
+      <c r="Q4" s="363"/>
       <c r="R4" s="274"/>
       <c r="S4" s="268" t="s">
         <v>296</v>
@@ -5995,52 +5998,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="348" t="s">
+      <c r="F1" s="355" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="351" t="s">
+      <c r="G1" s="358" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="345" t="s">
+      <c r="H1" s="352" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="345" t="s">
+      <c r="I1" s="352" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="345" t="s">
+      <c r="J1" s="352" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="345" t="s">
+      <c r="K1" s="352" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="345" t="s">
+      <c r="L1" s="352" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="345" t="s">
+      <c r="M1" s="352" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="345" t="s">
+      <c r="N1" s="352" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="354" t="s">
+      <c r="P1" s="361" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="349"/>
-      <c r="G2" s="352"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="355"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="362"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -6054,17 +6057,17 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="349"/>
-      <c r="G3" s="352"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="355"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="362"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -6080,17 +6083,17 @@
       <c r="E4" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="G4" s="353"/>
-      <c r="H4" s="347"/>
-      <c r="I4" s="347"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="347"/>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="356"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="360"/>
+      <c r="H4" s="354"/>
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="354"/>
+      <c r="M4" s="354"/>
+      <c r="N4" s="354"/>
+      <c r="O4" s="354"/>
+      <c r="P4" s="363"/>
       <c r="Q4" s="262" t="s">
         <v>296</v>
       </c>
@@ -6868,9 +6871,9 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR53" sqref="AR53"/>
+      <selection pane="topRight" activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,7 +9450,7 @@
       <c r="D23" s="26">
         <v>3</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="111" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="28">
@@ -9550,6 +9553,9 @@
         <v>69.615384615384613</v>
       </c>
       <c r="AQ23" s="26"/>
+      <c r="AR23" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="219" t="s">
@@ -12509,10 +12515,11 @@
     <hyperlink ref="E34" r:id="rId28" xr:uid="{044EE66C-BA42-4D19-AEBF-0477B7195099}"/>
     <hyperlink ref="E14" r:id="rId29" xr:uid="{9644EEDA-C395-4F29-B7DF-64A90A3D3E48}"/>
     <hyperlink ref="E18" r:id="rId30" xr:uid="{37893B8F-18A1-4ECD-BB36-2369A865C515}"/>
+    <hyperlink ref="E23" r:id="rId31" xr:uid="{B6C65639-08C8-467E-983D-ED1A9039C023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5287C92-45F9-4195-A97A-05ED60027BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9BD3F-DC46-4DFA-8003-77C565E612FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -3390,8 +3390,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,8 +4441,8 @@
       <c r="I24" s="231">
         <v>80</v>
       </c>
-      <c r="J24" s="349">
-        <v>50</v>
+      <c r="J24" s="292">
+        <v>100</v>
       </c>
       <c r="K24" s="231"/>
       <c r="L24" s="231"/>
@@ -6871,7 +6871,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:BL50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AR23" sqref="AR23"/>
     </sheetView>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB9BD3F-DC46-4DFA-8003-77C565E612FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9284F5-7179-4358-ABED-667105D586AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -2963,6 +2963,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2979,15 +2988,6 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3390,8 +3390,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,10 +3415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="355" t="s">
+      <c r="F1" s="358" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="358" t="s">
+      <c r="G1" s="361" t="s">
         <v>290</v>
       </c>
       <c r="H1" s="352" t="s">
@@ -3445,13 +3445,13 @@
       <c r="O1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="361" t="s">
+      <c r="P1" s="355" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="356"/>
-      <c r="G2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="362"/>
       <c r="H2" s="353"/>
       <c r="I2" s="353"/>
       <c r="J2" s="353"/>
@@ -3460,7 +3460,7 @@
       <c r="M2" s="353"/>
       <c r="N2" s="353"/>
       <c r="O2" s="353"/>
-      <c r="P2" s="362"/>
+      <c r="P2" s="356"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -3474,8 +3474,8 @@
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="356"/>
-      <c r="G3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="362"/>
       <c r="H3" s="353"/>
       <c r="I3" s="353"/>
       <c r="J3" s="353"/>
@@ -3484,7 +3484,7 @@
       <c r="M3" s="353"/>
       <c r="N3" s="353"/>
       <c r="O3" s="353"/>
-      <c r="P3" s="362"/>
+      <c r="P3" s="356"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -3500,8 +3500,8 @@
       <c r="E4" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="357"/>
-      <c r="G4" s="360"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="363"/>
       <c r="H4" s="354"/>
       <c r="I4" s="354"/>
       <c r="J4" s="354"/>
@@ -3510,7 +3510,7 @@
       <c r="M4" s="354"/>
       <c r="N4" s="354"/>
       <c r="O4" s="354"/>
-      <c r="P4" s="363"/>
+      <c r="P4" s="357"/>
       <c r="Q4" s="261" t="s">
         <v>296</v>
       </c>
@@ -4535,17 +4535,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4578,8 +4578,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,10 +4603,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="355" t="s">
+      <c r="G1" s="358" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="358" t="s">
+      <c r="H1" s="361" t="s">
         <v>290</v>
       </c>
       <c r="I1" s="352" t="s">
@@ -4633,13 +4633,13 @@
       <c r="P1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="361" t="s">
+      <c r="Q1" s="355" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="356"/>
-      <c r="H2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="362"/>
       <c r="I2" s="353"/>
       <c r="J2" s="353"/>
       <c r="K2" s="353"/>
@@ -4648,7 +4648,7 @@
       <c r="N2" s="353"/>
       <c r="O2" s="353"/>
       <c r="P2" s="353"/>
-      <c r="Q2" s="362"/>
+      <c r="Q2" s="356"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -4663,8 +4663,8 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="356"/>
-      <c r="H3" s="359"/>
+      <c r="G3" s="359"/>
+      <c r="H3" s="362"/>
       <c r="I3" s="353"/>
       <c r="J3" s="353"/>
       <c r="K3" s="353"/>
@@ -4673,7 +4673,7 @@
       <c r="N3" s="353"/>
       <c r="O3" s="353"/>
       <c r="P3" s="353"/>
-      <c r="Q3" s="362"/>
+      <c r="Q3" s="356"/>
     </row>
     <row r="4" spans="1:25" s="266" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="265"/>
@@ -4692,8 +4692,8 @@
       <c r="F4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="357"/>
-      <c r="H4" s="360"/>
+      <c r="G4" s="360"/>
+      <c r="H4" s="363"/>
       <c r="I4" s="354"/>
       <c r="J4" s="354"/>
       <c r="K4" s="354"/>
@@ -4702,7 +4702,7 @@
       <c r="N4" s="354"/>
       <c r="O4" s="354"/>
       <c r="P4" s="354"/>
-      <c r="Q4" s="363"/>
+      <c r="Q4" s="357"/>
       <c r="R4" s="274"/>
       <c r="S4" s="268" t="s">
         <v>296</v>
@@ -4746,7 +4746,9 @@
       <c r="J5" s="286">
         <v>0</v>
       </c>
-      <c r="K5" s="270"/>
+      <c r="K5" s="286">
+        <v>0</v>
+      </c>
       <c r="L5" s="270"/>
       <c r="M5" s="270"/>
       <c r="N5" s="270"/>
@@ -4794,8 +4796,8 @@
       <c r="J6" s="119">
         <v>100</v>
       </c>
-      <c r="K6" s="26">
-        <v>70</v>
+      <c r="K6" s="119">
+        <v>100</v>
       </c>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -4894,7 +4896,9 @@
       <c r="J8" s="176">
         <v>60</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
@@ -4930,19 +4934,21 @@
       <c r="F9" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="G9" s="26">
-        <v>100</v>
-      </c>
-      <c r="H9" s="26">
-        <v>100</v>
-      </c>
-      <c r="I9" s="26">
-        <v>100</v>
-      </c>
-      <c r="J9" s="26">
-        <v>100</v>
-      </c>
-      <c r="K9" s="26"/>
+      <c r="G9" s="119">
+        <v>100</v>
+      </c>
+      <c r="H9" s="119">
+        <v>100</v>
+      </c>
+      <c r="I9" s="119">
+        <v>100</v>
+      </c>
+      <c r="J9" s="119">
+        <v>100</v>
+      </c>
+      <c r="K9" s="119">
+        <v>100</v>
+      </c>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -4991,7 +4997,7 @@
         <v>100</v>
       </c>
       <c r="K10" s="26">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -5040,7 +5046,9 @@
       <c r="J11" s="26">
         <v>80</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -5088,7 +5096,9 @@
       <c r="J12" s="26">
         <v>0</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
@@ -5136,7 +5146,9 @@
       <c r="J13" s="26">
         <v>80</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -5184,7 +5196,9 @@
       <c r="J14" s="26">
         <v>0</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -5232,7 +5246,9 @@
       <c r="J15" s="119">
         <v>90</v>
       </c>
-      <c r="K15" s="26"/>
+      <c r="K15" s="119">
+        <v>100</v>
+      </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -5257,7 +5273,7 @@
       </c>
       <c r="C16" s="257">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D16" s="222">
         <v>5</v>
@@ -5268,8 +5284,8 @@
       <c r="F16" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="153">
-        <v>50</v>
+      <c r="G16" s="119">
+        <v>100</v>
       </c>
       <c r="H16" s="119">
         <v>100</v>
@@ -5280,7 +5296,9 @@
       <c r="J16" s="119">
         <v>100</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="119">
+        <v>100</v>
+      </c>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
@@ -5328,7 +5346,9 @@
       <c r="J17" s="119">
         <v>100</v>
       </c>
-      <c r="K17" s="26"/>
+      <c r="K17" s="119">
+        <v>100</v>
+      </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
@@ -5376,7 +5396,9 @@
       <c r="J18" s="119">
         <v>80</v>
       </c>
-      <c r="K18" s="26"/>
+      <c r="K18" s="119">
+        <v>100</v>
+      </c>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
@@ -5424,7 +5446,9 @@
       <c r="J19" s="26">
         <v>60</v>
       </c>
-      <c r="K19" s="26"/>
+      <c r="K19" s="119">
+        <v>100</v>
+      </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
@@ -5472,7 +5496,9 @@
       <c r="J20" s="119">
         <v>70</v>
       </c>
-      <c r="K20" s="26"/>
+      <c r="K20" s="119">
+        <v>100</v>
+      </c>
       <c r="L20" s="26"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
@@ -5520,7 +5546,9 @@
       <c r="J21" s="176">
         <v>50</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
@@ -5568,7 +5596,9 @@
       <c r="J22" s="119">
         <v>100</v>
       </c>
-      <c r="K22" s="26"/>
+      <c r="K22" s="119">
+        <v>100</v>
+      </c>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
@@ -5616,7 +5646,9 @@
       <c r="J23" s="119">
         <v>100</v>
       </c>
-      <c r="K23" s="26"/>
+      <c r="K23" s="119">
+        <v>100</v>
+      </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -5664,7 +5696,9 @@
       <c r="J24" s="119">
         <v>80</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="119">
+        <v>100</v>
+      </c>
       <c r="L24" s="26"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
@@ -5712,7 +5746,9 @@
       <c r="J25" s="119">
         <v>100</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
@@ -5760,7 +5796,9 @@
       <c r="J26" s="119">
         <v>100</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="119">
+        <v>100</v>
+      </c>
       <c r="L26" s="26"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
@@ -5808,7 +5846,9 @@
       <c r="J27" s="119">
         <v>80</v>
       </c>
-      <c r="K27" s="26"/>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
@@ -5856,7 +5896,9 @@
       <c r="J28" s="119">
         <v>100</v>
       </c>
-      <c r="K28" s="26"/>
+      <c r="K28" s="119">
+        <v>100</v>
+      </c>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
@@ -5876,7 +5918,7 @@
       <c r="A29" s="220">
         <v>26</v>
       </c>
-      <c r="B29" s="244" t="s">
+      <c r="B29" s="285" t="s">
         <v>212</v>
       </c>
       <c r="C29" s="257">
@@ -5904,7 +5946,9 @@
       <c r="J29" s="119">
         <v>90</v>
       </c>
-      <c r="K29" s="26"/>
+      <c r="K29" s="176">
+        <v>70</v>
+      </c>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
@@ -5925,17 +5969,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
@@ -5975,7 +6019,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,10 +6042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="355" t="s">
+      <c r="F1" s="358" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="358" t="s">
+      <c r="G1" s="361" t="s">
         <v>290</v>
       </c>
       <c r="H1" s="352" t="s">
@@ -6028,13 +6072,13 @@
       <c r="O1" s="352" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="361" t="s">
+      <c r="P1" s="355" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="356"/>
-      <c r="G2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="362"/>
       <c r="H2" s="353"/>
       <c r="I2" s="353"/>
       <c r="J2" s="353"/>
@@ -6043,7 +6087,7 @@
       <c r="M2" s="353"/>
       <c r="N2" s="353"/>
       <c r="O2" s="353"/>
-      <c r="P2" s="362"/>
+      <c r="P2" s="356"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
@@ -6057,8 +6101,8 @@
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="356"/>
-      <c r="G3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="362"/>
       <c r="H3" s="353"/>
       <c r="I3" s="353"/>
       <c r="J3" s="353"/>
@@ -6067,7 +6111,7 @@
       <c r="M3" s="353"/>
       <c r="N3" s="353"/>
       <c r="O3" s="353"/>
-      <c r="P3" s="362"/>
+      <c r="P3" s="356"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
@@ -6083,8 +6127,8 @@
       <c r="E4" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="357"/>
-      <c r="G4" s="360"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="363"/>
       <c r="H4" s="354"/>
       <c r="I4" s="354"/>
       <c r="J4" s="354"/>
@@ -6093,7 +6137,7 @@
       <c r="M4" s="354"/>
       <c r="N4" s="354"/>
       <c r="O4" s="354"/>
-      <c r="P4" s="363"/>
+      <c r="P4" s="357"/>
       <c r="Q4" s="262" t="s">
         <v>296</v>
       </c>
@@ -6427,7 +6471,7 @@
       </c>
       <c r="C12" s="257">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D12" s="222">
         <v>3</v>
@@ -6435,17 +6479,17 @@
       <c r="E12" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="251">
-        <v>100</v>
-      </c>
-      <c r="G12" s="260">
-        <v>0</v>
-      </c>
-      <c r="H12" s="260">
-        <v>0</v>
-      </c>
-      <c r="I12" s="260">
-        <v>0</v>
+      <c r="F12" s="287">
+        <v>100</v>
+      </c>
+      <c r="G12" s="288">
+        <v>70</v>
+      </c>
+      <c r="H12" s="288">
+        <v>70</v>
+      </c>
+      <c r="I12" s="288">
+        <v>70</v>
       </c>
       <c r="J12" s="260">
         <v>0</v>
@@ -6831,17 +6875,17 @@
     <sortCondition ref="B5:B20"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>

--- a/students/Студенты.xlsx
+++ b/students/Студенты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.akhpashev\dev\notes\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9284F5-7179-4358-ABED-667105D586AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A99A43-29C7-4C74-9EDB-023D65E3A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИКС_431" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,76 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ruslan Akhpashev</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F494DBB7-242C-44E7-9F4C-F3A871915032}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ruslan Akhpashev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+17.10.2025 - плохо с пониманием ООП и программирования + использует нейронки
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ruslan Akhpashev</author>
+  </authors>
+  <commentList>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{0E9AFDD3-7CF7-4EA1-B848-198B8C1E24BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ruslan Akhpashev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+16.10.2025 - под вопросом понимание ООП
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -610,7 +680,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -634,7 +704,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="304">
   <si>
     <t>ИА-331</t>
   </si>
@@ -1565,6 +1635,9 @@
   </si>
   <si>
     <t>калькулятор</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2735,9 +2808,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2746,9 +2816,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2963,15 +3030,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2989,6 +3047,21 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3386,12 +3459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA29F18-FABA-4E21-A5BA-5C598F825019}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,156 +3488,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F1" s="358" t="s">
+      <c r="F1" s="353" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="361" t="s">
+      <c r="G1" s="356" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="352" t="s">
+      <c r="H1" s="350" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="352" t="s">
+      <c r="I1" s="350" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="352" t="s">
+      <c r="J1" s="350" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="352" t="s">
+      <c r="K1" s="350" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="352" t="s">
+      <c r="L1" s="350" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="352" t="s">
+      <c r="M1" s="350" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="352" t="s">
+      <c r="N1" s="350" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="352" t="s">
+      <c r="O1" s="350" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="355" t="s">
+      <c r="P1" s="359" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="359"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="353"/>
-      <c r="P2" s="356"/>
+      <c r="F2" s="354"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="360"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="249"/>
+      <c r="C3" s="247"/>
       <c r="D3" s="226">
         <v>5</v>
       </c>
       <c r="E3" s="226">
         <v>4</v>
       </c>
-      <c r="F3" s="359"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="353"/>
-      <c r="O3" s="353"/>
-      <c r="P3" s="356"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="360"/>
     </row>
     <row r="4" spans="1:24" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
-      <c r="B4" s="239" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="248" t="s">
+      <c r="B4" s="237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="246" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="D4" s="245" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="363"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="354"/>
-      <c r="L4" s="354"/>
-      <c r="M4" s="354"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="354"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="261" t="s">
+      <c r="F4" s="355"/>
+      <c r="G4" s="358"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="352"/>
+      <c r="N4" s="352"/>
+      <c r="O4" s="352"/>
+      <c r="P4" s="361"/>
+      <c r="Q4" s="259" t="s">
         <v>296</v>
       </c>
-      <c r="R4" s="241"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
-      <c r="V4" s="241"/>
-      <c r="W4" s="242"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="240"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="235" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="254">
+      <c r="C5" s="252">
         <f t="shared" ref="C5:C25" si="0">((D5/$D$3)*100 + F5 + G5+H5+I5)/($E$3+1)</f>
         <v>12</v>
       </c>
-      <c r="D5" s="252">
+      <c r="D5" s="250">
         <v>3</v>
       </c>
       <c r="E5" s="228" t="s">
         <v>257</v>
       </c>
-      <c r="F5" s="345">
-        <v>0</v>
-      </c>
-      <c r="G5" s="346">
-        <v>0</v>
-      </c>
-      <c r="H5" s="347">
-        <v>0</v>
-      </c>
-      <c r="I5" s="347">
-        <v>0</v>
-      </c>
-      <c r="J5" s="347">
-        <v>0</v>
-      </c>
-      <c r="K5" s="243"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="232"/>
-      <c r="R5" s="232"/>
-      <c r="S5" s="232"/>
-      <c r="T5" s="232"/>
-      <c r="U5" s="233"/>
-      <c r="V5" s="233"/>
+      <c r="F5" s="343">
+        <v>0</v>
+      </c>
+      <c r="G5" s="344">
+        <v>0</v>
+      </c>
+      <c r="H5" s="345">
+        <v>0</v>
+      </c>
+      <c r="I5" s="345">
+        <v>0</v>
+      </c>
+      <c r="J5" s="345">
+        <v>0</v>
+      </c>
+      <c r="K5" s="241"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="241"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="241"/>
+      <c r="P5" s="241"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="231"/>
+      <c r="T5" s="231"/>
+      <c r="U5" s="232"/>
+      <c r="V5" s="232"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
@@ -3575,43 +3648,43 @@
       <c r="B6" s="222" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="254">
+      <c r="C6" s="252">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D6" s="253">
+      <c r="D6" s="251">
         <v>5</v>
       </c>
       <c r="E6" s="228" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="234">
-        <v>100</v>
-      </c>
-      <c r="G6" s="229">
+      <c r="F6" s="362">
+        <v>100</v>
+      </c>
+      <c r="G6" s="363">
         <v>80</v>
       </c>
-      <c r="H6" s="231">
+      <c r="H6" s="346">
         <v>80</v>
       </c>
-      <c r="I6" s="231">
+      <c r="I6" s="346">
         <v>80</v>
       </c>
-      <c r="J6" s="348">
-        <v>0</v>
-      </c>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="231"/>
-      <c r="N6" s="231"/>
-      <c r="O6" s="231"/>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="232"/>
-      <c r="R6" s="232"/>
-      <c r="S6" s="232"/>
-      <c r="T6" s="232"/>
-      <c r="U6" s="233"/>
-      <c r="V6" s="233"/>
+      <c r="J6" s="346">
+        <v>0</v>
+      </c>
+      <c r="K6" s="230"/>
+      <c r="L6" s="230"/>
+      <c r="M6" s="230"/>
+      <c r="N6" s="230"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="231"/>
+      <c r="R6" s="231"/>
+      <c r="S6" s="231"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="232"/>
+      <c r="V6" s="232"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
@@ -3622,43 +3695,43 @@
       <c r="B7" s="222" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="254">
+      <c r="C7" s="252">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D7" s="253">
+      <c r="D7" s="251">
         <v>4</v>
       </c>
       <c r="E7" s="228" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="350">
-        <v>100</v>
-      </c>
-      <c r="G7" s="351">
-        <v>100</v>
-      </c>
-      <c r="H7" s="349">
+      <c r="F7" s="348">
+        <v>100</v>
+      </c>
+      <c r="G7" s="349">
+        <v>100</v>
+      </c>
+      <c r="H7" s="347">
         <v>80</v>
       </c>
-      <c r="I7" s="349">
+      <c r="I7" s="347">
         <v>80</v>
       </c>
-      <c r="J7" s="348">
-        <v>0</v>
-      </c>
-      <c r="K7" s="231"/>
-      <c r="L7" s="231"/>
-      <c r="M7" s="231"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="232"/>
-      <c r="S7" s="232"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="233"/>
+      <c r="J7" s="346">
+        <v>0</v>
+      </c>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="231"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="232"/>
+      <c r="V7" s="232"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
@@ -3669,43 +3742,43 @@
       <c r="B8" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="254">
+      <c r="C8" s="252">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="251">
+      <c r="D8" s="249">
         <v>1</v>
       </c>
       <c r="E8" s="228" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="348">
-        <v>0</v>
-      </c>
-      <c r="G8" s="348">
-        <v>0</v>
-      </c>
-      <c r="H8" s="348">
-        <v>0</v>
-      </c>
-      <c r="I8" s="348">
-        <v>0</v>
-      </c>
-      <c r="J8" s="348">
-        <v>0</v>
-      </c>
-      <c r="K8" s="231"/>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="231"/>
-      <c r="O8" s="231"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="232"/>
-      <c r="R8" s="232"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="233"/>
-      <c r="V8" s="233"/>
+      <c r="F8" s="346">
+        <v>0</v>
+      </c>
+      <c r="G8" s="346">
+        <v>0</v>
+      </c>
+      <c r="H8" s="346">
+        <v>0</v>
+      </c>
+      <c r="I8" s="346">
+        <v>0</v>
+      </c>
+      <c r="J8" s="346">
+        <v>0</v>
+      </c>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="231"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="232"/>
+      <c r="V8" s="232"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
@@ -3716,43 +3789,43 @@
       <c r="B9" s="222" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="254">
+      <c r="C9" s="252">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D9" s="251">
+      <c r="D9" s="249">
         <v>4</v>
       </c>
       <c r="E9" s="228" t="s">
         <v>260</v>
       </c>
-      <c r="F9" s="348">
-        <v>0</v>
-      </c>
-      <c r="G9" s="348">
-        <v>0</v>
-      </c>
-      <c r="H9" s="348">
-        <v>0</v>
-      </c>
-      <c r="I9" s="348">
-        <v>0</v>
-      </c>
-      <c r="J9" s="348">
-        <v>0</v>
-      </c>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
-      <c r="M9" s="231"/>
-      <c r="N9" s="231"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="231"/>
-      <c r="Q9" s="232"/>
-      <c r="R9" s="232"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="232"/>
-      <c r="U9" s="233"/>
-      <c r="V9" s="233"/>
+      <c r="F9" s="346">
+        <v>0</v>
+      </c>
+      <c r="G9" s="346">
+        <v>0</v>
+      </c>
+      <c r="H9" s="346">
+        <v>0</v>
+      </c>
+      <c r="I9" s="346">
+        <v>0</v>
+      </c>
+      <c r="J9" s="346">
+        <v>0</v>
+      </c>
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
+      <c r="O9" s="230"/>
+      <c r="P9" s="230"/>
+      <c r="Q9" s="231"/>
+      <c r="R9" s="231"/>
+      <c r="S9" s="231"/>
+      <c r="T9" s="231"/>
+      <c r="U9" s="232"/>
+      <c r="V9" s="232"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
@@ -3763,43 +3836,43 @@
       <c r="B10" s="222" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="254">
+      <c r="C10" s="252">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D10" s="251">
+      <c r="D10" s="249">
         <v>5</v>
       </c>
       <c r="E10" s="228" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="292">
-        <v>100</v>
-      </c>
-      <c r="G10" s="292">
-        <v>100</v>
-      </c>
-      <c r="H10" s="292">
-        <v>100</v>
-      </c>
-      <c r="I10" s="292">
-        <v>100</v>
-      </c>
-      <c r="J10" s="292">
-        <v>100</v>
-      </c>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="231"/>
-      <c r="Q10" s="232"/>
-      <c r="R10" s="232"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
+      <c r="F10" s="290">
+        <v>100</v>
+      </c>
+      <c r="G10" s="290">
+        <v>100</v>
+      </c>
+      <c r="H10" s="290">
+        <v>100</v>
+      </c>
+      <c r="I10" s="290">
+        <v>100</v>
+      </c>
+      <c r="J10" s="290">
+        <v>100</v>
+      </c>
+      <c r="K10" s="230"/>
+      <c r="L10" s="230"/>
+      <c r="M10" s="230"/>
+      <c r="N10" s="230"/>
+      <c r="O10" s="230"/>
+      <c r="P10" s="230"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="231"/>
+      <c r="S10" s="231"/>
+      <c r="T10" s="231"/>
+      <c r="U10" s="232"/>
+      <c r="V10" s="232"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
@@ -3810,43 +3883,43 @@
       <c r="B11" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="254">
+      <c r="C11" s="252">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="251">
+      <c r="D11" s="249">
         <v>5</v>
       </c>
       <c r="E11" s="228" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="231">
-        <v>100</v>
-      </c>
-      <c r="G11" s="231">
+      <c r="F11" s="230">
+        <v>100</v>
+      </c>
+      <c r="G11" s="230">
         <v>90</v>
       </c>
-      <c r="H11" s="231">
+      <c r="H11" s="230">
         <v>80</v>
       </c>
-      <c r="I11" s="231">
+      <c r="I11" s="230">
         <v>80</v>
       </c>
-      <c r="J11" s="348">
-        <v>0</v>
-      </c>
-      <c r="K11" s="231"/>
-      <c r="L11" s="231"/>
-      <c r="M11" s="231"/>
-      <c r="N11" s="231"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="231"/>
-      <c r="Q11" s="232"/>
-      <c r="R11" s="232"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="232"/>
-      <c r="U11" s="233"/>
-      <c r="V11" s="233"/>
+      <c r="J11" s="346">
+        <v>0</v>
+      </c>
+      <c r="K11" s="230"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="230"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="231"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="231"/>
+      <c r="U11" s="232"/>
+      <c r="V11" s="232"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
@@ -3857,43 +3930,43 @@
       <c r="B12" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="254">
+      <c r="C12" s="252">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D12" s="251">
+      <c r="D12" s="249">
         <v>4</v>
       </c>
       <c r="E12" s="228" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="292">
-        <v>100</v>
-      </c>
-      <c r="G12" s="292">
-        <v>100</v>
-      </c>
-      <c r="H12" s="292">
-        <v>100</v>
-      </c>
-      <c r="I12" s="292">
-        <v>100</v>
-      </c>
-      <c r="J12" s="292">
-        <v>100</v>
-      </c>
-      <c r="K12" s="231"/>
-      <c r="L12" s="231"/>
-      <c r="M12" s="231"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="232"/>
-      <c r="U12" s="233"/>
-      <c r="V12" s="233"/>
+      <c r="F12" s="290">
+        <v>100</v>
+      </c>
+      <c r="G12" s="290">
+        <v>100</v>
+      </c>
+      <c r="H12" s="290">
+        <v>100</v>
+      </c>
+      <c r="I12" s="290">
+        <v>100</v>
+      </c>
+      <c r="J12" s="290">
+        <v>100</v>
+      </c>
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="230"/>
+      <c r="P12" s="230"/>
+      <c r="Q12" s="231"/>
+      <c r="R12" s="231"/>
+      <c r="S12" s="231"/>
+      <c r="T12" s="231"/>
+      <c r="U12" s="232"/>
+      <c r="V12" s="232"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
@@ -3904,43 +3977,43 @@
       <c r="B13" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="254">
+      <c r="C13" s="252">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D13" s="251">
+      <c r="D13" s="249">
         <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="348">
-        <v>0</v>
-      </c>
-      <c r="G13" s="348">
-        <v>0</v>
-      </c>
-      <c r="H13" s="348">
-        <v>0</v>
-      </c>
-      <c r="I13" s="348">
-        <v>0</v>
-      </c>
-      <c r="J13" s="348">
-        <v>0</v>
-      </c>
-      <c r="K13" s="231"/>
-      <c r="L13" s="231"/>
-      <c r="M13" s="231"/>
-      <c r="N13" s="231"/>
-      <c r="O13" s="231"/>
-      <c r="P13" s="231"/>
-      <c r="Q13" s="232"/>
-      <c r="R13" s="232"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="232"/>
-      <c r="U13" s="233"/>
-      <c r="V13" s="233"/>
+      <c r="F13" s="346">
+        <v>0</v>
+      </c>
+      <c r="G13" s="346">
+        <v>0</v>
+      </c>
+      <c r="H13" s="346">
+        <v>0</v>
+      </c>
+      <c r="I13" s="346">
+        <v>0</v>
+      </c>
+      <c r="J13" s="346">
+        <v>0</v>
+      </c>
+      <c r="K13" s="230"/>
+      <c r="L13" s="230"/>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="231"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="231"/>
+      <c r="T13" s="231"/>
+      <c r="U13" s="232"/>
+      <c r="V13" s="232"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
@@ -3951,43 +4024,43 @@
       <c r="B14" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="254">
+      <c r="C14" s="252">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D14" s="251">
+      <c r="D14" s="249">
         <v>5</v>
       </c>
       <c r="E14" s="228" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="231">
-        <v>100</v>
-      </c>
-      <c r="G14" s="231">
-        <v>100</v>
-      </c>
-      <c r="H14" s="231">
+      <c r="F14" s="230">
+        <v>100</v>
+      </c>
+      <c r="G14" s="230">
+        <v>100</v>
+      </c>
+      <c r="H14" s="230">
         <v>90</v>
       </c>
-      <c r="I14" s="231">
+      <c r="I14" s="230">
         <v>90</v>
       </c>
-      <c r="J14" s="348">
-        <v>0</v>
-      </c>
-      <c r="K14" s="231"/>
-      <c r="L14" s="231"/>
-      <c r="M14" s="231"/>
-      <c r="N14" s="231"/>
-      <c r="O14" s="231"/>
-      <c r="P14" s="231"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="232"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="233"/>
-      <c r="V14" s="233"/>
+      <c r="J14" s="346">
+        <v>0</v>
+      </c>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="230"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="231"/>
+      <c r="R14" s="231"/>
+      <c r="S14" s="231"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="232"/>
+      <c r="V14" s="232"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
@@ -3998,41 +4071,41 @@
       <c r="B15" s="222" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="254">
+      <c r="C15" s="252">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="251">
+      <c r="D15" s="249">
         <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="231">
-        <v>0</v>
-      </c>
-      <c r="G15" s="231">
-        <v>0</v>
-      </c>
-      <c r="H15" s="231">
-        <v>0</v>
-      </c>
-      <c r="I15" s="231">
-        <v>0</v>
-      </c>
-      <c r="J15" s="348">
-        <v>0</v>
-      </c>
-      <c r="K15" s="231"/>
-      <c r="L15" s="231"/>
-      <c r="M15" s="231"/>
-      <c r="N15" s="231"/>
-      <c r="O15" s="231"/>
-      <c r="P15" s="231"/>
-      <c r="Q15" s="232"/>
-      <c r="R15" s="232"/>
-      <c r="S15" s="232"/>
-      <c r="T15" s="232"/>
-      <c r="U15" s="233"/>
-      <c r="V15" s="233"/>
+      <c r="F15" s="230">
+        <v>0</v>
+      </c>
+      <c r="G15" s="230">
+        <v>0</v>
+      </c>
+      <c r="H15" s="230">
+        <v>0</v>
+      </c>
+      <c r="I15" s="230">
+        <v>0</v>
+      </c>
+      <c r="J15" s="346">
+        <v>0</v>
+      </c>
+      <c r="K15" s="230"/>
+      <c r="L15" s="230"/>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
+      <c r="Q15" s="231"/>
+      <c r="R15" s="231"/>
+      <c r="S15" s="231"/>
+      <c r="T15" s="231"/>
+      <c r="U15" s="232"/>
+      <c r="V15" s="232"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
@@ -4040,46 +4113,46 @@
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="250" t="s">
+      <c r="B16" s="248" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="254">
+      <c r="C16" s="252">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D16" s="251">
+      <c r="D16" s="249">
         <v>4</v>
       </c>
       <c r="E16" s="228" t="s">
         <v>265</v>
       </c>
-      <c r="F16" s="292">
-        <v>100</v>
-      </c>
-      <c r="G16" s="292">
-        <v>100</v>
-      </c>
-      <c r="H16" s="292">
+      <c r="F16" s="290">
+        <v>100</v>
+      </c>
+      <c r="G16" s="290">
+        <v>100</v>
+      </c>
+      <c r="H16" s="290">
         <v>80</v>
       </c>
-      <c r="I16" s="292">
+      <c r="I16" s="290">
         <v>80</v>
       </c>
-      <c r="J16" s="292">
-        <v>100</v>
-      </c>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
-      <c r="M16" s="231"/>
-      <c r="N16" s="231"/>
-      <c r="O16" s="231"/>
-      <c r="P16" s="231"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="232"/>
-      <c r="U16" s="233"/>
-      <c r="V16" s="233"/>
+      <c r="J16" s="290">
+        <v>100</v>
+      </c>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="231"/>
+      <c r="R16" s="231"/>
+      <c r="S16" s="231"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="232"/>
+      <c r="V16" s="232"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
@@ -4090,43 +4163,43 @@
       <c r="B17" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="254">
+      <c r="C17" s="252">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D17" s="251">
+      <c r="D17" s="249">
         <v>5</v>
       </c>
       <c r="E17" s="228" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="231">
-        <v>100</v>
-      </c>
-      <c r="G17" s="231">
-        <v>100</v>
-      </c>
-      <c r="H17" s="231">
+      <c r="F17" s="230">
+        <v>100</v>
+      </c>
+      <c r="G17" s="230">
+        <v>100</v>
+      </c>
+      <c r="H17" s="230">
         <v>80</v>
       </c>
-      <c r="I17" s="231">
+      <c r="I17" s="230">
         <v>80</v>
       </c>
-      <c r="J17" s="292">
-        <v>100</v>
-      </c>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="232"/>
-      <c r="T17" s="232"/>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
+      <c r="J17" s="290">
+        <v>100</v>
+      </c>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="230"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="231"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="232"/>
+      <c r="V17" s="232"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
@@ -4137,43 +4210,43 @@
       <c r="B18" s="222" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="254">
+      <c r="C18" s="252">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="D18" s="251">
+      <c r="D18" s="249">
         <v>4</v>
       </c>
       <c r="E18" s="228" t="s">
         <v>267</v>
       </c>
-      <c r="F18" s="231">
-        <v>100</v>
-      </c>
-      <c r="G18" s="231">
-        <v>100</v>
-      </c>
-      <c r="H18" s="231">
+      <c r="F18" s="230">
+        <v>100</v>
+      </c>
+      <c r="G18" s="230">
+        <v>100</v>
+      </c>
+      <c r="H18" s="230">
         <v>80</v>
       </c>
-      <c r="I18" s="231">
-        <v>0</v>
-      </c>
-      <c r="J18" s="348">
-        <v>0</v>
-      </c>
-      <c r="K18" s="231"/>
-      <c r="L18" s="231"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="232"/>
-      <c r="R18" s="232"/>
-      <c r="S18" s="232"/>
-      <c r="T18" s="232"/>
-      <c r="U18" s="233"/>
-      <c r="V18" s="233"/>
+      <c r="I18" s="230">
+        <v>0</v>
+      </c>
+      <c r="J18" s="346">
+        <v>0</v>
+      </c>
+      <c r="K18" s="230"/>
+      <c r="L18" s="230"/>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="230"/>
+      <c r="P18" s="230"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
+      <c r="S18" s="231"/>
+      <c r="T18" s="231"/>
+      <c r="U18" s="232"/>
+      <c r="V18" s="232"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
@@ -4184,43 +4257,43 @@
       <c r="B19" s="222" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="254">
+      <c r="C19" s="252">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D19" s="251">
+      <c r="D19" s="249">
         <v>5</v>
       </c>
       <c r="E19" s="228" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="231">
-        <v>100</v>
-      </c>
-      <c r="G19" s="231">
-        <v>100</v>
-      </c>
-      <c r="H19" s="231">
+      <c r="F19" s="230">
+        <v>100</v>
+      </c>
+      <c r="G19" s="230">
+        <v>100</v>
+      </c>
+      <c r="H19" s="230">
         <v>90</v>
       </c>
-      <c r="I19" s="231">
+      <c r="I19" s="230">
         <v>90</v>
       </c>
-      <c r="J19" s="348">
-        <v>0</v>
-      </c>
-      <c r="K19" s="231"/>
-      <c r="L19" s="231"/>
-      <c r="M19" s="231"/>
-      <c r="N19" s="231"/>
-      <c r="O19" s="231"/>
-      <c r="P19" s="231"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="233"/>
-      <c r="V19" s="233"/>
+      <c r="J19" s="346">
+        <v>0</v>
+      </c>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="231"/>
+      <c r="S19" s="231"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="232"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
@@ -4231,43 +4304,43 @@
       <c r="B20" s="222" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="254">
+      <c r="C20" s="252">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D20" s="251">
+      <c r="D20" s="249">
         <v>5</v>
       </c>
       <c r="E20" s="228" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="291">
-        <v>100</v>
-      </c>
-      <c r="G20" s="291">
-        <v>100</v>
-      </c>
-      <c r="H20" s="291">
+      <c r="F20" s="289">
+        <v>100</v>
+      </c>
+      <c r="G20" s="289">
+        <v>100</v>
+      </c>
+      <c r="H20" s="289">
         <v>70</v>
       </c>
-      <c r="I20" s="291">
+      <c r="I20" s="289">
         <v>70</v>
       </c>
-      <c r="J20" s="348">
-        <v>0</v>
-      </c>
-      <c r="K20" s="231"/>
-      <c r="L20" s="231"/>
-      <c r="M20" s="231"/>
-      <c r="N20" s="231"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="232"/>
-      <c r="R20" s="232"/>
-      <c r="S20" s="232"/>
-      <c r="T20" s="232"/>
-      <c r="U20" s="233"/>
-      <c r="V20" s="233"/>
+      <c r="J20" s="346">
+        <v>0</v>
+      </c>
+      <c r="K20" s="230"/>
+      <c r="L20" s="230"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="230"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="231"/>
+      <c r="S20" s="231"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="232"/>
+      <c r="V20" s="232"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
@@ -4278,43 +4351,43 @@
       <c r="B21" s="222" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="254">
+      <c r="C21" s="252">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D21" s="251">
+      <c r="D21" s="249">
         <v>5</v>
       </c>
       <c r="E21" s="228" t="s">
         <v>270</v>
       </c>
-      <c r="F21" s="231">
+      <c r="F21" s="230">
         <v>60</v>
       </c>
-      <c r="G21" s="231">
+      <c r="G21" s="230">
         <v>80</v>
       </c>
-      <c r="H21" s="231">
+      <c r="H21" s="230">
         <v>80</v>
       </c>
-      <c r="I21" s="231">
+      <c r="I21" s="230">
         <v>80</v>
       </c>
-      <c r="J21" s="348">
-        <v>0</v>
-      </c>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="231"/>
-      <c r="N21" s="231"/>
-      <c r="O21" s="231"/>
-      <c r="P21" s="231"/>
-      <c r="Q21" s="232"/>
-      <c r="R21" s="232"/>
-      <c r="S21" s="232"/>
-      <c r="T21" s="232"/>
-      <c r="U21" s="233"/>
-      <c r="V21" s="233"/>
+      <c r="J21" s="346">
+        <v>0</v>
+      </c>
+      <c r="K21" s="230"/>
+      <c r="L21" s="230"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="230"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="231"/>
+      <c r="S21" s="231"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="232"/>
+      <c r="V21" s="232"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
@@ -4325,43 +4398,43 @@
       <c r="B22" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="254">
+      <c r="C22" s="252">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D22" s="251">
+      <c r="D22" s="249">
         <v>5</v>
       </c>
       <c r="E22" s="228" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="231">
-        <v>100</v>
-      </c>
-      <c r="G22" s="231">
-        <v>100</v>
-      </c>
-      <c r="H22" s="231">
+      <c r="F22" s="230">
+        <v>100</v>
+      </c>
+      <c r="G22" s="230">
+        <v>100</v>
+      </c>
+      <c r="H22" s="230">
         <v>90</v>
       </c>
-      <c r="I22" s="231">
+      <c r="I22" s="230">
         <v>90</v>
       </c>
-      <c r="J22" s="348">
-        <v>0</v>
-      </c>
-      <c r="K22" s="231"/>
-      <c r="L22" s="231"/>
-      <c r="M22" s="231"/>
-      <c r="N22" s="231"/>
-      <c r="O22" s="231"/>
-      <c r="P22" s="231"/>
-      <c r="Q22" s="232"/>
-      <c r="R22" s="232"/>
-      <c r="S22" s="232"/>
-      <c r="T22" s="232"/>
-      <c r="U22" s="233"/>
-      <c r="V22" s="233"/>
+      <c r="J22" s="346">
+        <v>0</v>
+      </c>
+      <c r="K22" s="230"/>
+      <c r="L22" s="230"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="230"/>
+      <c r="P22" s="230"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="232"/>
+      <c r="V22" s="232"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
@@ -4372,43 +4445,43 @@
       <c r="B23" s="222" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="254">
+      <c r="C23" s="252">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D23" s="251">
+      <c r="D23" s="249">
         <v>4</v>
       </c>
       <c r="E23" s="228" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="231">
-        <v>100</v>
-      </c>
-      <c r="G23" s="231">
-        <v>100</v>
-      </c>
-      <c r="H23" s="231">
+      <c r="F23" s="230">
+        <v>100</v>
+      </c>
+      <c r="G23" s="230">
+        <v>100</v>
+      </c>
+      <c r="H23" s="230">
         <v>70</v>
       </c>
-      <c r="I23" s="231">
-        <v>0</v>
-      </c>
-      <c r="J23" s="348">
-        <v>0</v>
-      </c>
-      <c r="K23" s="231"/>
-      <c r="L23" s="231"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="231"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="232"/>
-      <c r="R23" s="232"/>
-      <c r="S23" s="232"/>
-      <c r="T23" s="232"/>
-      <c r="U23" s="233"/>
-      <c r="V23" s="233"/>
+      <c r="I23" s="230">
+        <v>0</v>
+      </c>
+      <c r="J23" s="346">
+        <v>0</v>
+      </c>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="232"/>
+      <c r="V23" s="232"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
@@ -4419,43 +4492,43 @@
       <c r="B24" s="222" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="254">
+      <c r="C24" s="252">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D24" s="251">
+      <c r="D24" s="249">
         <v>5</v>
       </c>
       <c r="E24" s="228" t="s">
         <v>273</v>
       </c>
-      <c r="F24" s="231">
-        <v>100</v>
-      </c>
-      <c r="G24" s="231">
-        <v>100</v>
-      </c>
-      <c r="H24" s="231">
+      <c r="F24" s="230">
+        <v>100</v>
+      </c>
+      <c r="G24" s="230">
+        <v>100</v>
+      </c>
+      <c r="H24" s="230">
         <v>80</v>
       </c>
-      <c r="I24" s="231">
+      <c r="I24" s="230">
         <v>80</v>
       </c>
-      <c r="J24" s="292">
-        <v>100</v>
-      </c>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231"/>
-      <c r="O24" s="231"/>
-      <c r="P24" s="231"/>
-      <c r="Q24" s="232"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="232"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="233"/>
-      <c r="V24" s="233"/>
+      <c r="J24" s="290">
+        <v>100</v>
+      </c>
+      <c r="K24" s="230"/>
+      <c r="L24" s="230"/>
+      <c r="M24" s="230"/>
+      <c r="N24" s="230"/>
+      <c r="O24" s="230"/>
+      <c r="P24" s="230"/>
+      <c r="Q24" s="231"/>
+      <c r="R24" s="231"/>
+      <c r="S24" s="231"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="232"/>
+      <c r="V24" s="232"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
@@ -4466,45 +4539,50 @@
       <c r="B25" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="254">
+      <c r="C25" s="252">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D25" s="251">
+      <c r="D25" s="249">
         <v>5</v>
       </c>
       <c r="E25" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="231">
-        <v>100</v>
-      </c>
-      <c r="G25" s="231">
-        <v>100</v>
-      </c>
-      <c r="H25" s="231">
+      <c r="F25" s="230">
+        <v>100</v>
+      </c>
+      <c r="G25" s="230">
+        <v>100</v>
+      </c>
+      <c r="H25" s="230">
         <v>20</v>
       </c>
-      <c r="I25" s="231">
+      <c r="I25" s="230">
         <v>20</v>
       </c>
-      <c r="J25" s="292">
-        <v>100</v>
-      </c>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="232"/>
-      <c r="R25" s="232"/>
-      <c r="S25" s="232"/>
-      <c r="T25" s="232"/>
-      <c r="U25" s="233"/>
-      <c r="V25" s="233"/>
+      <c r="J25" s="290">
+        <v>100</v>
+      </c>
+      <c r="K25" s="230"/>
+      <c r="L25" s="230"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="230"/>
+      <c r="O25" s="230"/>
+      <c r="P25" s="230"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="232"/>
+      <c r="V25" s="232"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="221" t="s">
@@ -4535,17 +4613,17 @@
     <sortCondition ref="B5:B25"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{4465A7BA-0A60-4856-A192-53666DFC598C}"/>
@@ -4570,16 +4648,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095E6D8E-0614-4902-A4B4-2D9D77B724E9}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,59 +4682,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G1" s="358" t="s">
+      <c r="G1" s="353" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="361" t="s">
+      <c r="H1" s="356" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="352" t="s">
+      <c r="I1" s="350" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="352" t="s">
+      <c r="J1" s="350" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="352" t="s">
+      <c r="K1" s="350" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="352" t="s">
+      <c r="L1" s="350" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="352" t="s">
+      <c r="M1" s="350" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="352" t="s">
+      <c r="N1" s="350" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="352" t="s">
+      <c r="O1" s="350" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="352" t="s">
+      <c r="P1" s="350" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="355" t="s">
+      <c r="Q1" s="359" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="359"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="353"/>
-      <c r="P2" s="353"/>
-      <c r="Q2" s="356"/>
+      <c r="G2" s="354"/>
+      <c r="H2" s="357"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="360"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="225" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="246"/>
+      <c r="C3" s="244"/>
       <c r="D3" s="220">
         <v>5</v>
       </c>
@@ -4663,99 +4742,99 @@
       <c r="F3" s="220">
         <v>4</v>
       </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="353"/>
-      <c r="O3" s="353"/>
-      <c r="P3" s="353"/>
-      <c r="Q3" s="356"/>
-    </row>
-    <row r="4" spans="1:25" s="266" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="265"/>
-      <c r="B4" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="290" t="s">
+      <c r="G3" s="354"/>
+      <c r="H3" s="357"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="351"/>
+      <c r="Q3" s="360"/>
+    </row>
+    <row r="4" spans="1:25" s="264" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="263"/>
+      <c r="B4" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="288" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="270" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="272">
+      <c r="E4" s="270">
         <v>45918</v>
       </c>
-      <c r="F4" s="273" t="s">
+      <c r="F4" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="360"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="354"/>
-      <c r="L4" s="354"/>
-      <c r="M4" s="354"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="354"/>
-      <c r="P4" s="354"/>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="274"/>
-      <c r="S4" s="268" t="s">
+      <c r="G4" s="355"/>
+      <c r="H4" s="358"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="352"/>
+      <c r="N4" s="352"/>
+      <c r="O4" s="352"/>
+      <c r="P4" s="352"/>
+      <c r="Q4" s="361"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="266" t="s">
         <v>296</v>
       </c>
-      <c r="T4" s="263"/>
-      <c r="U4" s="263"/>
-      <c r="V4" s="263"/>
-      <c r="W4" s="263"/>
-      <c r="X4" s="263"/>
-      <c r="Y4" s="264"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="262"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="269" t="s">
+      <c r="B5" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="257">
+      <c r="C5" s="255">
         <f t="shared" ref="C5:C29" si="0">(D5/$D$3*100 + G5 + H5 + I5 + J5)/($F$3+1)</f>
         <v>40</v>
       </c>
-      <c r="D5" s="237">
+      <c r="D5" s="235">
         <v>5</v>
       </c>
-      <c r="E5" s="237">
-        <v>0</v>
-      </c>
-      <c r="F5" s="238" t="s">
+      <c r="E5" s="235">
+        <v>0</v>
+      </c>
+      <c r="F5" s="236" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="270">
-        <v>100</v>
-      </c>
-      <c r="H5" s="286">
-        <v>0</v>
-      </c>
-      <c r="I5" s="286">
-        <v>0</v>
-      </c>
-      <c r="J5" s="286">
-        <v>0</v>
-      </c>
-      <c r="K5" s="286">
-        <v>0</v>
-      </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="270"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
+      <c r="G5" s="268">
+        <v>100</v>
+      </c>
+      <c r="H5" s="284">
+        <v>0</v>
+      </c>
+      <c r="I5" s="284">
+        <v>0</v>
+      </c>
+      <c r="J5" s="284">
+        <v>0</v>
+      </c>
+      <c r="K5" s="284">
+        <v>0</v>
+      </c>
+      <c r="L5" s="268"/>
+      <c r="M5" s="268"/>
+      <c r="N5" s="268"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="268"/>
+      <c r="Q5" s="268"/>
+      <c r="R5" s="268"/>
       <c r="S5" s="26"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
@@ -4768,10 +4847,10 @@
       <c r="A6" s="220">
         <v>2</v>
       </c>
-      <c r="B6" s="235" t="s">
+      <c r="B6" s="233" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="257">
+      <c r="C6" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4818,10 +4897,10 @@
       <c r="A7" s="220">
         <v>3</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="257">
+      <c r="C7" s="255">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -4868,10 +4947,10 @@
       <c r="A8" s="220">
         <v>4</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="257">
+      <c r="C8" s="255">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -4918,10 +4997,10 @@
       <c r="A9" s="220">
         <v>5</v>
       </c>
-      <c r="B9" s="235" t="s">
+      <c r="B9" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="257">
+      <c r="C9" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4968,10 +5047,10 @@
       <c r="A10" s="220">
         <v>6</v>
       </c>
-      <c r="B10" s="235" t="s">
+      <c r="B10" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="257">
+      <c r="C10" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5018,10 +5097,10 @@
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="285" t="s">
+      <c r="B11" s="283" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="257">
+      <c r="C11" s="255">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -5068,10 +5147,10 @@
       <c r="A12" s="220">
         <v>8</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="233" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="257">
+      <c r="C12" s="255">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -5118,10 +5197,10 @@
       <c r="A13" s="220">
         <v>9</v>
       </c>
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="257">
+      <c r="C13" s="255">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -5168,10 +5247,10 @@
       <c r="A14" s="220">
         <v>10</v>
       </c>
-      <c r="B14" s="235" t="s">
+      <c r="B14" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="257">
+      <c r="C14" s="255">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -5218,10 +5297,10 @@
       <c r="A15" s="220">
         <v>11</v>
       </c>
-      <c r="B15" s="236" t="s">
+      <c r="B15" s="234" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="257">
+      <c r="C15" s="255">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -5268,10 +5347,10 @@
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="233" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="257">
+      <c r="C16" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5318,10 +5397,10 @@
       <c r="A17" s="220">
         <v>13</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="233" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="257">
+      <c r="C17" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5368,10 +5447,10 @@
       <c r="A18" s="220">
         <v>14</v>
       </c>
-      <c r="B18" s="235" t="s">
+      <c r="B18" s="233" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="257">
+      <c r="C18" s="255">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -5418,10 +5497,10 @@
       <c r="A19" s="220">
         <v>16</v>
       </c>
-      <c r="B19" s="235" t="s">
+      <c r="B19" s="233" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="257">
+      <c r="C19" s="255">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -5468,10 +5547,10 @@
       <c r="A20" s="220">
         <v>17</v>
       </c>
-      <c r="B20" s="235" t="s">
+      <c r="B20" s="233" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="257">
+      <c r="C20" s="255">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -5518,10 +5597,10 @@
       <c r="A21" s="220">
         <v>18</v>
       </c>
-      <c r="B21" s="244" t="s">
+      <c r="B21" s="242" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="257">
+      <c r="C21" s="255">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -5568,10 +5647,10 @@
       <c r="A22" s="220">
         <v>19</v>
       </c>
-      <c r="B22" s="244" t="s">
+      <c r="B22" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="257">
+      <c r="C22" s="255">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -5618,10 +5697,10 @@
       <c r="A23" s="220">
         <v>20</v>
       </c>
-      <c r="B23" s="235" t="s">
+      <c r="B23" s="233" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="257">
+      <c r="C23" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5668,10 +5747,10 @@
       <c r="A24" s="220">
         <v>21</v>
       </c>
-      <c r="B24" s="235" t="s">
+      <c r="B24" s="233" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="257">
+      <c r="C24" s="255">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -5718,10 +5797,10 @@
       <c r="A25" s="220">
         <v>22</v>
       </c>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="233" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="257">
+      <c r="C25" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5768,10 +5847,10 @@
       <c r="A26" s="220">
         <v>23</v>
       </c>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="242" t="s">
         <v>299</v>
       </c>
-      <c r="C26" s="257">
+      <c r="C26" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5818,10 +5897,10 @@
       <c r="A27" s="220">
         <v>24</v>
       </c>
-      <c r="B27" s="235" t="s">
+      <c r="B27" s="233" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="257">
+      <c r="C27" s="255">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -5868,10 +5947,10 @@
       <c r="A28" s="220">
         <v>25</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="233" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="257">
+      <c r="C28" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5918,10 +5997,10 @@
       <c r="A29" s="220">
         <v>26</v>
       </c>
-      <c r="B29" s="285" t="s">
+      <c r="B29" s="283" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="257">
+      <c r="C29" s="255">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -5969,17 +6048,17 @@
     <sortCondition ref="B5:B29"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="Q1:Q4"/>
     <mergeCell ref="L1:L4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="K1:K4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="Q1:Q4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{F31A88B2-28E5-46B9-8437-348D873B4C12}"/>
@@ -6010,6 +6089,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -6042,164 +6122,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="358" t="s">
+      <c r="F1" s="353" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="361" t="s">
+      <c r="G1" s="356" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="352" t="s">
+      <c r="H1" s="350" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="352" t="s">
+      <c r="I1" s="350" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="352" t="s">
+      <c r="J1" s="350" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="352" t="s">
+      <c r="K1" s="350" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="352" t="s">
+      <c r="L1" s="350" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="352" t="s">
+      <c r="M1" s="350" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="352" t="s">
+      <c r="N1" s="350" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="352" t="s">
+      <c r="O1" s="350" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="355" t="s">
+      <c r="P1" s="359" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="359"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="353"/>
-      <c r="P2" s="356"/>
+      <c r="F2" s="354"/>
+      <c r="G2" s="357"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="360"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="225" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="246"/>
+      <c r="C3" s="244"/>
       <c r="D3" s="220">
         <v>6</v>
       </c>
       <c r="E3" s="220">
         <v>4</v>
       </c>
-      <c r="F3" s="359"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="353"/>
-      <c r="O3" s="353"/>
-      <c r="P3" s="356"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="357"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="351"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="351"/>
+      <c r="L3" s="351"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="351"/>
+      <c r="O3" s="351"/>
+      <c r="P3" s="360"/>
     </row>
     <row r="4" spans="1:22" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
-      <c r="B4" s="239" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="248" t="s">
+      <c r="B4" s="237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="246" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="D4" s="245" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="363"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="354"/>
-      <c r="J4" s="354"/>
-      <c r="K4" s="354"/>
-      <c r="L4" s="354"/>
-      <c r="M4" s="354"/>
-      <c r="N4" s="354"/>
-      <c r="O4" s="354"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="262" t="s">
+      <c r="F4" s="355"/>
+      <c r="G4" s="358"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="352"/>
+      <c r="N4" s="352"/>
+      <c r="O4" s="352"/>
+      <c r="P4" s="361"/>
+      <c r="Q4" s="260" t="s">
         <v>296</v>
       </c>
-      <c r="R4" s="241"/>
-      <c r="S4" s="241"/>
-      <c r="T4" s="241"/>
-      <c r="U4" s="241"/>
-      <c r="V4" s="242"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="240"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="220">
         <v>1</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="257">
+      <c r="C5" s="255">
         <f t="shared" ref="C5:C20" si="0">( (D5/$D$3)*100 + F5 + G5 + H5 + I5)/($E$3+1)</f>
         <v>100</v>
       </c>
-      <c r="D5" s="237">
+      <c r="D5" s="235">
         <v>6</v>
       </c>
-      <c r="E5" s="238" t="s">
+      <c r="E5" s="236" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="289">
-        <v>100</v>
-      </c>
-      <c r="G5" s="289">
-        <v>100</v>
-      </c>
-      <c r="H5" s="289">
-        <v>100</v>
-      </c>
-      <c r="I5" s="289">
-        <v>100</v>
-      </c>
-      <c r="J5" s="289">
-        <v>100</v>
-      </c>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="254"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="255"/>
-      <c r="T5" s="255"/>
-      <c r="U5" s="255"/>
-      <c r="V5" s="255"/>
+      <c r="F5" s="287">
+        <v>100</v>
+      </c>
+      <c r="G5" s="287">
+        <v>100</v>
+      </c>
+      <c r="H5" s="287">
+        <v>100</v>
+      </c>
+      <c r="I5" s="287">
+        <v>100</v>
+      </c>
+      <c r="J5" s="287">
+        <v>100</v>
+      </c>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
+      <c r="U5" s="253"/>
+      <c r="V5" s="253"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="220">
         <v>2</v>
       </c>
-      <c r="B6" s="235" t="s">
+      <c r="B6" s="233" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="257">
+      <c r="C6" s="255">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -6209,42 +6289,42 @@
       <c r="E6" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="251">
+      <c r="F6" s="249">
         <v>50</v>
       </c>
-      <c r="G6" s="251">
+      <c r="G6" s="249">
         <v>50</v>
       </c>
-      <c r="H6" s="251">
+      <c r="H6" s="249">
         <v>50</v>
       </c>
-      <c r="I6" s="251">
-        <v>0</v>
-      </c>
-      <c r="J6" s="260">
-        <v>0</v>
-      </c>
-      <c r="K6" s="251"/>
-      <c r="L6" s="251"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="251"/>
-      <c r="O6" s="251"/>
-      <c r="P6" s="256"/>
-      <c r="Q6" s="256"/>
-      <c r="R6" s="256"/>
-      <c r="S6" s="256"/>
-      <c r="T6" s="256"/>
-      <c r="U6" s="256"/>
-      <c r="V6" s="256"/>
+      <c r="I6" s="249">
+        <v>0</v>
+      </c>
+      <c r="J6" s="258">
+        <v>0</v>
+      </c>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
+      <c r="R6" s="254"/>
+      <c r="S6" s="254"/>
+      <c r="T6" s="254"/>
+      <c r="U6" s="254"/>
+      <c r="V6" s="254"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="220">
         <v>3</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="233" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="257">
+      <c r="C7" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6254,42 +6334,42 @@
       <c r="E7" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="287">
-        <v>100</v>
-      </c>
-      <c r="G7" s="287">
-        <v>100</v>
-      </c>
-      <c r="H7" s="287">
-        <v>100</v>
-      </c>
-      <c r="I7" s="287">
-        <v>100</v>
-      </c>
-      <c r="J7" s="287">
-        <v>100</v>
-      </c>
-      <c r="K7" s="251"/>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="256"/>
-      <c r="R7" s="256"/>
-      <c r="S7" s="256"/>
-      <c r="T7" s="256"/>
-      <c r="U7" s="256"/>
-      <c r="V7" s="256"/>
+      <c r="F7" s="285">
+        <v>100</v>
+      </c>
+      <c r="G7" s="285">
+        <v>100</v>
+      </c>
+      <c r="H7" s="285">
+        <v>100</v>
+      </c>
+      <c r="I7" s="285">
+        <v>100</v>
+      </c>
+      <c r="J7" s="285">
+        <v>100</v>
+      </c>
+      <c r="K7" s="249"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
+      <c r="O7" s="249"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
+      <c r="R7" s="254"/>
+      <c r="S7" s="254"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="254"/>
+      <c r="V7" s="254"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="220">
         <v>4</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="257">
+      <c r="C8" s="255">
         <f t="shared" si="0"/>
         <v>68.666666666666671</v>
       </c>
@@ -6299,42 +6379,42 @@
       <c r="E8" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="251">
-        <v>100</v>
-      </c>
-      <c r="G8" s="251">
-        <v>100</v>
-      </c>
-      <c r="H8" s="251">
+      <c r="F8" s="249">
+        <v>100</v>
+      </c>
+      <c r="G8" s="249">
+        <v>100</v>
+      </c>
+      <c r="H8" s="249">
         <v>60</v>
       </c>
-      <c r="I8" s="251">
-        <v>0</v>
-      </c>
-      <c r="J8" s="260">
-        <v>0</v>
-      </c>
-      <c r="K8" s="251"/>
-      <c r="L8" s="251"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="251"/>
-      <c r="O8" s="251"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
+      <c r="I8" s="249">
+        <v>0</v>
+      </c>
+      <c r="J8" s="258">
+        <v>0</v>
+      </c>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="249"/>
+      <c r="N8" s="249"/>
+      <c r="O8" s="249"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="254"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="220">
         <v>5</v>
       </c>
-      <c r="B9" s="235" t="s">
+      <c r="B9" s="233" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="257">
+      <c r="C9" s="255">
         <f t="shared" si="0"/>
         <v>86.666666666666671</v>
       </c>
@@ -6344,42 +6424,42 @@
       <c r="E9" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="251">
-        <v>100</v>
-      </c>
-      <c r="G9" s="251">
+      <c r="F9" s="249">
+        <v>100</v>
+      </c>
+      <c r="G9" s="249">
         <v>90</v>
       </c>
-      <c r="H9" s="251">
+      <c r="H9" s="249">
         <v>80</v>
       </c>
-      <c r="I9" s="251">
+      <c r="I9" s="249">
         <v>80</v>
       </c>
-      <c r="J9" s="260">
-        <v>0</v>
-      </c>
-      <c r="K9" s="251"/>
-      <c r="L9" s="251"/>
-      <c r="M9" s="251"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="251"/>
-      <c r="P9" s="256"/>
-      <c r="Q9" s="256"/>
-      <c r="R9" s="256"/>
-      <c r="S9" s="256"/>
-      <c r="T9" s="256"/>
-      <c r="U9" s="256"/>
-      <c r="V9" s="256"/>
+      <c r="J9" s="258">
+        <v>0</v>
+      </c>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="249"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="254"/>
+      <c r="S9" s="254"/>
+      <c r="T9" s="254"/>
+      <c r="U9" s="254"/>
+      <c r="V9" s="254"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="220">
         <v>6</v>
       </c>
-      <c r="B10" s="236" t="s">
+      <c r="B10" s="234" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="257">
+      <c r="C10" s="255">
         <f t="shared" si="0"/>
         <v>75.333333333333329</v>
       </c>
@@ -6389,42 +6469,42 @@
       <c r="E10" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="288">
-        <v>100</v>
-      </c>
-      <c r="G10" s="288">
+      <c r="F10" s="286">
+        <v>100</v>
+      </c>
+      <c r="G10" s="286">
         <v>70</v>
       </c>
-      <c r="H10" s="288">
+      <c r="H10" s="286">
         <v>70</v>
       </c>
-      <c r="I10" s="288">
+      <c r="I10" s="286">
         <v>70</v>
       </c>
-      <c r="J10" s="288">
+      <c r="J10" s="286">
         <v>70</v>
       </c>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="251"/>
-      <c r="N10" s="251"/>
-      <c r="O10" s="251"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="256"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="256"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="249"/>
+      <c r="N10" s="249"/>
+      <c r="O10" s="249"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="254"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="220">
         <v>7</v>
       </c>
-      <c r="B11" s="235" t="s">
+      <c r="B11" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="257">
+      <c r="C11" s="255">
         <f t="shared" si="0"/>
         <v>85.333333333333329</v>
       </c>
@@ -6434,42 +6514,42 @@
       <c r="E11" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="251">
-        <v>100</v>
-      </c>
-      <c r="G11" s="251">
-        <v>100</v>
-      </c>
-      <c r="H11" s="251">
+      <c r="F11" s="249">
+        <v>100</v>
+      </c>
+      <c r="G11" s="249">
+        <v>100</v>
+      </c>
+      <c r="H11" s="249">
         <v>80</v>
       </c>
-      <c r="I11" s="251">
+      <c r="I11" s="249">
         <v>80</v>
       </c>
-      <c r="J11" s="260">
-        <v>0</v>
-      </c>
-      <c r="K11" s="251"/>
-      <c r="L11" s="251"/>
-      <c r="M11" s="251"/>
-      <c r="N11" s="251"/>
-      <c r="O11" s="251"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="256"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="256"/>
-      <c r="U11" s="256"/>
-      <c r="V11" s="256"/>
+      <c r="J11" s="258">
+        <v>0</v>
+      </c>
+      <c r="K11" s="249"/>
+      <c r="L11" s="249"/>
+      <c r="M11" s="249"/>
+      <c r="N11" s="249"/>
+      <c r="O11" s="249"/>
+      <c r="P11" s="254"/>
+      <c r="Q11" s="254"/>
+      <c r="R11" s="254"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="254"/>
+      <c r="V11" s="254"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="220">
         <v>8</v>
       </c>
-      <c r="B12" s="235" t="s">
+      <c r="B12" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="257">
+      <c r="C12" s="255">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
@@ -6479,42 +6559,42 @@
       <c r="E12" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="287">
-        <v>100</v>
-      </c>
-      <c r="G12" s="288">
+      <c r="F12" s="285">
+        <v>100</v>
+      </c>
+      <c r="G12" s="286">
         <v>70</v>
       </c>
-      <c r="H12" s="288">
+      <c r="H12" s="286">
         <v>70</v>
       </c>
-      <c r="I12" s="288">
+      <c r="I12" s="286">
         <v>70</v>
       </c>
-      <c r="J12" s="260">
-        <v>0</v>
-      </c>
-      <c r="K12" s="251"/>
-      <c r="L12" s="251"/>
-      <c r="M12" s="251"/>
-      <c r="N12" s="251"/>
-      <c r="O12" s="251"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
-      <c r="R12" s="256"/>
-      <c r="S12" s="256"/>
-      <c r="T12" s="256"/>
-      <c r="U12" s="256"/>
-      <c r="V12" s="256"/>
+      <c r="J12" s="258">
+        <v>0</v>
+      </c>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249"/>
+      <c r="O12" s="249"/>
+      <c r="P12" s="254"/>
+      <c r="Q12" s="254"/>
+      <c r="R12" s="254"/>
+      <c r="S12" s="254"/>
+      <c r="T12" s="254"/>
+      <c r="U12" s="254"/>
+      <c r="V12" s="254"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="220">
         <v>9</v>
       </c>
-      <c r="B13" s="235" t="s">
+      <c r="B13" s="233" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="257">
+      <c r="C13" s="255">
         <f t="shared" si="0"/>
         <v>13.333333333333332</v>
       </c>
@@ -6524,42 +6604,42 @@
       <c r="E13" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="251">
-        <v>0</v>
-      </c>
-      <c r="G13" s="251">
-        <v>0</v>
-      </c>
-      <c r="H13" s="251">
-        <v>0</v>
-      </c>
-      <c r="I13" s="251">
-        <v>0</v>
-      </c>
-      <c r="J13" s="260">
-        <v>0</v>
-      </c>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="251"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
-      <c r="R13" s="256"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="256"/>
-      <c r="U13" s="256"/>
-      <c r="V13" s="256"/>
+      <c r="F13" s="249">
+        <v>0</v>
+      </c>
+      <c r="G13" s="249">
+        <v>0</v>
+      </c>
+      <c r="H13" s="249">
+        <v>0</v>
+      </c>
+      <c r="I13" s="249">
+        <v>0</v>
+      </c>
+      <c r="J13" s="258">
+        <v>0</v>
+      </c>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+      <c r="P13" s="254"/>
+      <c r="Q13" s="254"/>
+      <c r="R13" s="254"/>
+      <c r="S13" s="254"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="254"/>
+      <c r="V13" s="254"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="220">
         <v>10</v>
       </c>
-      <c r="B14" s="235" t="s">
+      <c r="B14" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="257">
+      <c r="C14" s="255">
         <f t="shared" si="0"/>
         <v>92.666666666666671</v>
       </c>
@@ -6569,42 +6649,42 @@
       <c r="E14" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="287">
+      <c r="F14" s="285">
         <v>80</v>
       </c>
-      <c r="G14" s="287">
-        <v>100</v>
-      </c>
-      <c r="H14" s="287">
-        <v>100</v>
-      </c>
-      <c r="I14" s="287">
-        <v>100</v>
-      </c>
-      <c r="J14" s="260">
-        <v>0</v>
-      </c>
-      <c r="K14" s="251"/>
-      <c r="L14" s="251"/>
-      <c r="M14" s="251"/>
-      <c r="N14" s="251"/>
-      <c r="O14" s="251"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="256"/>
+      <c r="G14" s="285">
+        <v>100</v>
+      </c>
+      <c r="H14" s="285">
+        <v>100</v>
+      </c>
+      <c r="I14" s="285">
+        <v>100</v>
+      </c>
+      <c r="J14" s="258">
+        <v>0</v>
+      </c>
+      <c r="K14" s="249"/>
+      <c r="L14" s="249"/>
+      <c r="M14" s="249"/>
+      <c r="N14" s="249"/>
+      <c r="O14" s="249"/>
+      <c r="P14" s="254"/>
+      <c r="Q14" s="254"/>
+      <c r="R14" s="254"/>
+      <c r="S14" s="254"/>
+      <c r="T14" s="254"/>
+      <c r="U14" s="254"/>
+      <c r="V14" s="254"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="220">
         <v>11</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="257">
+      <c r="C15" s="255">
         <f t="shared" si="0"/>
         <v>90.666666666666671</v>
       </c>
@@ -6614,42 +6694,42 @@
       <c r="E15" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="287">
-        <v>100</v>
-      </c>
-      <c r="G15" s="287">
-        <v>100</v>
-      </c>
-      <c r="H15" s="287">
+      <c r="F15" s="285">
+        <v>100</v>
+      </c>
+      <c r="G15" s="285">
+        <v>100</v>
+      </c>
+      <c r="H15" s="285">
         <v>90</v>
       </c>
-      <c r="I15" s="287">
+      <c r="I15" s="285">
         <v>80</v>
       </c>
-      <c r="J15" s="288">
+      <c r="J15" s="286">
         <v>30</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
-      <c r="M15" s="251"/>
-      <c r="N15" s="251"/>
-      <c r="O15" s="251"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="256"/>
-      <c r="S15" s="256"/>
-      <c r="T15" s="256"/>
-      <c r="U15" s="256"/>
-      <c r="V15" s="256"/>
+      <c r="K15" s="249"/>
+      <c r="L15" s="249"/>
+      <c r="M15" s="249"/>
+      <c r="N15" s="249"/>
+      <c r="O15" s="249"/>
+      <c r="P15" s="254"/>
+      <c r="Q15" s="254"/>
+      <c r="R15" s="254"/>
+      <c r="S15" s="254"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="254"/>
+      <c r="V15" s="254"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="220">
         <v>12</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="257">
+      <c r="C16" s="255">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -6659,42 +6739,42 @@
       <c r="E16" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="251">
-        <v>100</v>
-      </c>
-      <c r="G16" s="251">
-        <v>100</v>
-      </c>
-      <c r="H16" s="260">
+      <c r="F16" s="249">
+        <v>100</v>
+      </c>
+      <c r="G16" s="249">
+        <v>100</v>
+      </c>
+      <c r="H16" s="258">
         <v>60</v>
       </c>
-      <c r="I16" s="260">
+      <c r="I16" s="258">
         <v>60</v>
       </c>
-      <c r="J16" s="260">
-        <v>0</v>
-      </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
-      <c r="M16" s="251"/>
-      <c r="N16" s="251"/>
-      <c r="O16" s="251"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="256"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="256"/>
-      <c r="U16" s="256"/>
-      <c r="V16" s="256"/>
+      <c r="J16" s="258">
+        <v>0</v>
+      </c>
+      <c r="K16" s="249"/>
+      <c r="L16" s="249"/>
+      <c r="M16" s="249"/>
+      <c r="N16" s="249"/>
+      <c r="O16" s="249"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
+      <c r="R16" s="254"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="254"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="220">
         <v>13</v>
       </c>
-      <c r="B17" s="235" t="s">
+      <c r="B17" s="233" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="257">
+      <c r="C17" s="255">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -6704,42 +6784,42 @@
       <c r="E17" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="251">
-        <v>100</v>
-      </c>
-      <c r="G17" s="251">
-        <v>100</v>
-      </c>
-      <c r="H17" s="251">
+      <c r="F17" s="249">
+        <v>100</v>
+      </c>
+      <c r="G17" s="249">
+        <v>100</v>
+      </c>
+      <c r="H17" s="249">
         <v>80</v>
       </c>
-      <c r="I17" s="251">
+      <c r="I17" s="249">
         <v>80</v>
       </c>
-      <c r="J17" s="260">
-        <v>0</v>
-      </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
-      <c r="M17" s="251"/>
-      <c r="N17" s="251"/>
-      <c r="O17" s="251"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="256"/>
-      <c r="U17" s="256"/>
-      <c r="V17" s="256"/>
+      <c r="J17" s="258">
+        <v>0</v>
+      </c>
+      <c r="K17" s="249"/>
+      <c r="L17" s="249"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="249"/>
+      <c r="O17" s="249"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="254"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="254"/>
+      <c r="V17" s="254"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="220">
         <v>14</v>
       </c>
-      <c r="B18" s="235" t="s">
+      <c r="B18" s="233" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="257">
+      <c r="C18" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6749,42 +6829,42 @@
       <c r="E18" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="287">
-        <v>100</v>
-      </c>
-      <c r="G18" s="287">
-        <v>100</v>
-      </c>
-      <c r="H18" s="287">
-        <v>100</v>
-      </c>
-      <c r="I18" s="287">
-        <v>100</v>
-      </c>
-      <c r="J18" s="287">
-        <v>100</v>
-      </c>
-      <c r="K18" s="251"/>
-      <c r="L18" s="251"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="251"/>
-      <c r="O18" s="251"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="256"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="256"/>
+      <c r="F18" s="285">
+        <v>100</v>
+      </c>
+      <c r="G18" s="285">
+        <v>100</v>
+      </c>
+      <c r="H18" s="285">
+        <v>100</v>
+      </c>
+      <c r="I18" s="285">
+        <v>100</v>
+      </c>
+      <c r="J18" s="285">
+        <v>100</v>
+      </c>
+      <c r="K18" s="249"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="249"/>
+      <c r="N18" s="249"/>
+      <c r="O18" s="249"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="254"/>
+      <c r="R18" s="254"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="254"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="220">
         <v>15</v>
       </c>
-      <c r="B19" s="235" t="s">
+      <c r="B19" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="257">
+      <c r="C19" s="255">
         <f t="shared" si="0"/>
         <v>33.333333333333329</v>
       </c>
@@ -6794,42 +6874,42 @@
       <c r="E19" s="111" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="251">
-        <v>100</v>
-      </c>
-      <c r="G19" s="251">
-        <v>0</v>
-      </c>
-      <c r="H19" s="251">
-        <v>0</v>
-      </c>
-      <c r="I19" s="251">
-        <v>0</v>
-      </c>
-      <c r="J19" s="260">
-        <v>0</v>
-      </c>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="251"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="256"/>
-      <c r="S19" s="256"/>
-      <c r="T19" s="256"/>
-      <c r="U19" s="256"/>
-      <c r="V19" s="256"/>
+      <c r="F19" s="249">
+        <v>100</v>
+      </c>
+      <c r="G19" s="249">
+        <v>0</v>
+      </c>
+      <c r="H19" s="249">
+        <v>0</v>
+      </c>
+      <c r="I19" s="249">
+        <v>0</v>
+      </c>
+      <c r="J19" s="258">
+        <v>0</v>
+      </c>
+      <c r="K19" s="249"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="249"/>
+      <c r="N19" s="249"/>
+      <c r="O19" s="249"/>
+      <c r="P19" s="254"/>
+      <c r="Q19" s="254"/>
+      <c r="R19" s="254"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
+      <c r="V19" s="254"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="220">
         <v>16</v>
       </c>
-      <c r="B20" s="235" t="s">
+      <c r="B20" s="233" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="257">
+      <c r="C20" s="255">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -6839,33 +6919,33 @@
       <c r="E20" s="111" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="287">
-        <v>100</v>
-      </c>
-      <c r="G20" s="287">
-        <v>100</v>
-      </c>
-      <c r="H20" s="287">
-        <v>100</v>
-      </c>
-      <c r="I20" s="287">
-        <v>100</v>
-      </c>
-      <c r="J20" s="287">
-        <v>100</v>
-      </c>
-      <c r="K20" s="251"/>
-      <c r="L20" s="251"/>
-      <c r="M20" s="251"/>
-      <c r="N20" s="251"/>
-      <c r="O20" s="251"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
-      <c r="R20" s="256"/>
-      <c r="S20" s="256"/>
-      <c r="T20" s="256"/>
-      <c r="U20" s="256"/>
-      <c r="V20" s="256"/>
+      <c r="F20" s="285">
+        <v>100</v>
+      </c>
+      <c r="G20" s="285">
+        <v>100</v>
+      </c>
+      <c r="H20" s="285">
+        <v>100</v>
+      </c>
+      <c r="I20" s="285">
+        <v>100</v>
+      </c>
+      <c r="J20" s="285">
+        <v>100</v>
+      </c>
+      <c r="K20" s="249"/>
+      <c r="L20" s="249"/>
+      <c r="M20" s="249"/>
+      <c r="N20" s="249"/>
+      <c r="O20" s="249"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="254"/>
+      <c r="R20" s="254"/>
+      <c r="S20" s="254"/>
+      <c r="T20" s="254"/>
+      <c r="U20" s="254"/>
+      <c r="V20" s="254"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="220"/>
@@ -6875,17 +6955,17 @@
     <sortCondition ref="B5:B20"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="N1:N4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:P4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="https://github.com/sea-krevetka/visual-prog-android" xr:uid="{593759B5-F130-422A-81CF-E366A993FDAB}"/>
@@ -7192,7 +7272,7 @@
       </c>
     </row>
     <row r="3" spans="1:44" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="257" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="25">
@@ -7649,7 +7729,7 @@
       <c r="AQ6" s="26"/>
     </row>
     <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="258" t="s">
+      <c r="A7" s="256" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="25">
@@ -7988,7 +8068,7 @@
       <c r="AQ9" s="26"/>
     </row>
     <row r="10" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="256" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="25">
@@ -8448,7 +8528,7 @@
       <c r="AQ13" s="25"/>
     </row>
     <row r="14" spans="1:44" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="258" t="s">
+      <c r="A14" s="256" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="25">
@@ -8561,7 +8641,7 @@
       <c r="AQ14" s="25"/>
     </row>
     <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="258" t="s">
+      <c r="A15" s="256" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="25">
@@ -8909,7 +8989,7 @@
       <c r="AQ17" s="25"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="256" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25">
@@ -9137,7 +9217,7 @@
       <c r="AQ19" s="26"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="258" t="s">
+      <c r="A20" s="256" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="25">
@@ -9484,7 +9564,7 @@
       <c r="AQ22" s="26"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="258" t="s">
+      <c r="A23" s="256" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="25">
@@ -9968,964 +10048,964 @@
       <c r="BL26" s="47"/>
     </row>
     <row r="27" spans="1:64" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="275" t="s">
+      <c r="A27" s="273" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="276"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="279"/>
-      <c r="O27" s="279"/>
-      <c r="P27" s="279"/>
-      <c r="Q27" s="279"/>
-      <c r="R27" s="279"/>
-      <c r="S27" s="279"/>
-      <c r="T27" s="279"/>
-      <c r="U27" s="280"/>
-      <c r="V27" s="280"/>
-      <c r="W27" s="280"/>
-      <c r="X27" s="280"/>
-      <c r="Y27" s="280"/>
-      <c r="Z27" s="280"/>
-      <c r="AA27" s="280"/>
-      <c r="AB27" s="280"/>
-      <c r="AC27" s="281"/>
-      <c r="AD27" s="278"/>
-      <c r="AE27" s="278"/>
-      <c r="AF27" s="278"/>
-      <c r="AG27" s="282"/>
-      <c r="AH27" s="278"/>
-      <c r="AI27" s="278"/>
-      <c r="AJ27" s="278"/>
-      <c r="AK27" s="278"/>
-      <c r="AL27" s="278"/>
-      <c r="AM27" s="278"/>
-      <c r="AN27" s="278"/>
-      <c r="AO27" s="283"/>
-      <c r="AP27" s="284"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="275"/>
+      <c r="F27" s="276"/>
+      <c r="G27" s="277"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="276"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="276"/>
+      <c r="N27" s="277"/>
+      <c r="O27" s="277"/>
+      <c r="P27" s="277"/>
+      <c r="Q27" s="277"/>
+      <c r="R27" s="277"/>
+      <c r="S27" s="277"/>
+      <c r="T27" s="277"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="278"/>
+      <c r="W27" s="278"/>
+      <c r="X27" s="278"/>
+      <c r="Y27" s="278"/>
+      <c r="Z27" s="278"/>
+      <c r="AA27" s="278"/>
+      <c r="AB27" s="278"/>
+      <c r="AC27" s="279"/>
+      <c r="AD27" s="276"/>
+      <c r="AE27" s="276"/>
+      <c r="AF27" s="276"/>
+      <c r="AG27" s="280"/>
+      <c r="AH27" s="276"/>
+      <c r="AI27" s="276"/>
+      <c r="AJ27" s="276"/>
+      <c r="AK27" s="276"/>
+      <c r="AL27" s="276"/>
+      <c r="AM27" s="276"/>
+      <c r="AN27" s="276"/>
+      <c r="AO27" s="281"/>
+      <c r="AP27" s="282"/>
     </row>
     <row r="28" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="293" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="294" t="str">
+      <c r="A28" s="291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="292" t="str">
         <f t="shared" ref="B28:AB28" si="2">B2</f>
         <v>КР1</v>
       </c>
-      <c r="C28" s="295" t="str">
+      <c r="C28" s="293" t="str">
         <f t="shared" si="2"/>
         <v>КР2</v>
       </c>
-      <c r="D28" s="295"/>
-      <c r="E28" s="296" t="str">
+      <c r="D28" s="293"/>
+      <c r="E28" s="294" t="str">
         <f t="shared" si="2"/>
         <v>Github</v>
       </c>
-      <c r="F28" s="297">
+      <c r="F28" s="295">
         <f t="shared" si="2"/>
         <v>45691</v>
       </c>
-      <c r="G28" s="298">
+      <c r="G28" s="296">
         <f t="shared" si="2"/>
         <v>45698</v>
       </c>
-      <c r="H28" s="298">
+      <c r="H28" s="296">
         <f t="shared" si="2"/>
         <v>45701</v>
       </c>
-      <c r="I28" s="298">
+      <c r="I28" s="296">
         <f t="shared" si="2"/>
         <v>45705</v>
       </c>
-      <c r="J28" s="298">
+      <c r="J28" s="296">
         <f t="shared" si="2"/>
         <v>45712</v>
       </c>
-      <c r="K28" s="297">
+      <c r="K28" s="295">
         <f t="shared" si="2"/>
         <v>45715</v>
       </c>
-      <c r="L28" s="297">
+      <c r="L28" s="295">
         <f t="shared" si="2"/>
         <v>45719</v>
       </c>
-      <c r="M28" s="297">
+      <c r="M28" s="295">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="N28" s="298">
+      <c r="N28" s="296">
         <f t="shared" si="2"/>
         <v>45729</v>
       </c>
-      <c r="O28" s="298">
+      <c r="O28" s="296">
         <f t="shared" si="2"/>
         <v>45733</v>
       </c>
-      <c r="P28" s="298">
+      <c r="P28" s="296">
         <f t="shared" si="2"/>
         <v>45740</v>
       </c>
-      <c r="Q28" s="298">
+      <c r="Q28" s="296">
         <f t="shared" si="2"/>
         <v>45743</v>
       </c>
-      <c r="R28" s="298">
+      <c r="R28" s="296">
         <f t="shared" si="2"/>
         <v>45747</v>
       </c>
-      <c r="S28" s="298">
+      <c r="S28" s="296">
         <f t="shared" si="2"/>
         <v>45754</v>
       </c>
-      <c r="T28" s="298">
+      <c r="T28" s="296">
         <f t="shared" si="2"/>
         <v>45761</v>
       </c>
-      <c r="U28" s="298">
+      <c r="U28" s="296">
         <f t="shared" si="2"/>
         <v>45768</v>
       </c>
-      <c r="V28" s="298">
+      <c r="V28" s="296">
         <f t="shared" si="2"/>
         <v>45771</v>
       </c>
-      <c r="W28" s="298">
+      <c r="W28" s="296">
         <f t="shared" si="2"/>
         <v>45775</v>
       </c>
-      <c r="X28" s="298">
+      <c r="X28" s="296">
         <f t="shared" si="2"/>
         <v>45782</v>
       </c>
-      <c r="Y28" s="298">
+      <c r="Y28" s="296">
         <f t="shared" si="2"/>
         <v>45789</v>
       </c>
-      <c r="Z28" s="298">
+      <c r="Z28" s="296">
         <f t="shared" si="2"/>
         <v>45796</v>
       </c>
-      <c r="AA28" s="298">
+      <c r="AA28" s="296">
         <f t="shared" si="2"/>
         <v>45799</v>
       </c>
-      <c r="AB28" s="298">
+      <c r="AB28" s="296">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="299" t="str">
+      <c r="AC28" s="297" t="str">
         <f t="shared" ref="AC28:AP28" si="3">AC2</f>
         <v>ПР1 (Latex, 10.02.2025)</v>
       </c>
-      <c r="AD28" s="300" t="str">
+      <c r="AD28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>ПР2(Android-калькулятор)</v>
       </c>
-      <c r="AE28" s="300" t="str">
+      <c r="AE28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>кабели</v>
       </c>
-      <c r="AF28" s="300" t="str">
+      <c r="AF28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>ПР3(Media-player)</v>
       </c>
-      <c r="AG28" s="300" t="str">
+      <c r="AG28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>ПР4 (GPS-координаты смартфона)</v>
       </c>
-      <c r="AH28" s="300" t="str">
+      <c r="AH28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>SSH</v>
       </c>
-      <c r="AI28" s="300" t="str">
+      <c r="AI28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>ПР4. Telephony</v>
       </c>
-      <c r="AJ28" s="300" t="str">
+      <c r="AJ28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>ПР5. Сокеты</v>
       </c>
-      <c r="AK28" s="300"/>
-      <c r="AL28" s="300" t="str">
+      <c r="AK28" s="298"/>
+      <c r="AL28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>РГР</v>
       </c>
-      <c r="AM28" s="300" t="str">
+      <c r="AM28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>К\Р</v>
       </c>
-      <c r="AN28" s="300">
+      <c r="AN28" s="298">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO28" s="300">
+      <c r="AO28" s="298">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP28" s="300" t="str">
+      <c r="AP28" s="298" t="str">
         <f t="shared" si="3"/>
         <v>КАРМА=ЗАЧЕТ(или НЕЗАЧЕТ)</v>
       </c>
     </row>
     <row r="29" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="301" t="s">
+      <c r="A29" s="299" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="302">
+      <c r="B29" s="300">
         <v>2</v>
       </c>
-      <c r="C29" s="303"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="304" t="s">
+      <c r="C29" s="301"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="302" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="305">
-        <v>1</v>
-      </c>
-      <c r="G29" s="305">
-        <v>1</v>
-      </c>
-      <c r="H29" s="305">
+      <c r="F29" s="303">
+        <v>1</v>
+      </c>
+      <c r="G29" s="303">
+        <v>1</v>
+      </c>
+      <c r="H29" s="303">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="305">
-        <v>1</v>
-      </c>
-      <c r="J29" s="305">
-        <v>1</v>
-      </c>
-      <c r="K29" s="305">
-        <v>1</v>
-      </c>
-      <c r="L29" s="305">
-        <v>1</v>
-      </c>
-      <c r="M29" s="305">
-        <v>1</v>
-      </c>
-      <c r="N29" s="305">
-        <v>1</v>
-      </c>
-      <c r="O29" s="305">
-        <v>1</v>
-      </c>
-      <c r="P29" s="305">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="305">
-        <v>1</v>
-      </c>
-      <c r="R29" s="306" t="s">
+      <c r="I29" s="303">
+        <v>1</v>
+      </c>
+      <c r="J29" s="303">
+        <v>1</v>
+      </c>
+      <c r="K29" s="303">
+        <v>1</v>
+      </c>
+      <c r="L29" s="303">
+        <v>1</v>
+      </c>
+      <c r="M29" s="303">
+        <v>1</v>
+      </c>
+      <c r="N29" s="303">
+        <v>1</v>
+      </c>
+      <c r="O29" s="303">
+        <v>1</v>
+      </c>
+      <c r="P29" s="303">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="303">
+        <v>1</v>
+      </c>
+      <c r="R29" s="304" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="305">
+      <c r="S29" s="303">
         <v>3</v>
       </c>
-      <c r="T29" s="305">
-        <v>1</v>
-      </c>
-      <c r="U29" s="307">
-        <v>1</v>
-      </c>
-      <c r="V29" s="305">
-        <v>1</v>
-      </c>
-      <c r="W29" s="305">
-        <v>1</v>
-      </c>
-      <c r="X29" s="305">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="305">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="305"/>
-      <c r="AA29" s="305"/>
-      <c r="AB29" s="305"/>
-      <c r="AC29" s="308">
-        <v>100</v>
-      </c>
-      <c r="AD29" s="309">
-        <v>100</v>
-      </c>
-      <c r="AE29" s="310">
-        <v>100</v>
-      </c>
-      <c r="AF29" s="311">
+      <c r="T29" s="303">
+        <v>1</v>
+      </c>
+      <c r="U29" s="305">
+        <v>1</v>
+      </c>
+      <c r="V29" s="303">
+        <v>1</v>
+      </c>
+      <c r="W29" s="303">
+        <v>1</v>
+      </c>
+      <c r="X29" s="303">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="303">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="303"/>
+      <c r="AA29" s="303"/>
+      <c r="AB29" s="303"/>
+      <c r="AC29" s="306">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="307">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="308">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="309">
         <f>50 + 50</f>
         <v>100</v>
       </c>
-      <c r="AG29" s="312">
-        <v>100</v>
-      </c>
-      <c r="AH29" s="311">
-        <v>100</v>
-      </c>
-      <c r="AI29" s="311"/>
-      <c r="AJ29" s="311"/>
-      <c r="AK29" s="311"/>
-      <c r="AL29" s="311">
-        <v>100</v>
-      </c>
-      <c r="AM29" s="311"/>
-      <c r="AN29" s="311"/>
-      <c r="AO29" s="311"/>
-      <c r="AP29" s="311">
+      <c r="AG29" s="310">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="309">
+        <v>100</v>
+      </c>
+      <c r="AI29" s="309"/>
+      <c r="AJ29" s="309"/>
+      <c r="AK29" s="309"/>
+      <c r="AL29" s="309">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="309"/>
+      <c r="AN29" s="309"/>
+      <c r="AO29" s="309"/>
+      <c r="AP29" s="309">
         <f t="shared" ref="AP29:AP48" si="4">SUM(100*SUM(F29:AB29),AC29:AO29)/$AP$1</f>
         <v>98.07692307692308</v>
       </c>
     </row>
     <row r="30" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="313" t="s">
+      <c r="A30" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="302">
-        <v>0</v>
-      </c>
-      <c r="C30" s="303"/>
-      <c r="D30" s="303"/>
-      <c r="E30" s="314"/>
-      <c r="F30" s="305">
-        <v>1</v>
-      </c>
-      <c r="G30" s="315">
-        <v>1</v>
-      </c>
-      <c r="H30" s="315">
-        <v>1</v>
-      </c>
-      <c r="I30" s="315">
-        <v>1</v>
-      </c>
-      <c r="J30" s="305">
+      <c r="B30" s="300">
+        <v>0</v>
+      </c>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="303">
+        <v>1</v>
+      </c>
+      <c r="G30" s="313">
+        <v>1</v>
+      </c>
+      <c r="H30" s="313">
+        <v>1</v>
+      </c>
+      <c r="I30" s="313">
+        <v>1</v>
+      </c>
+      <c r="J30" s="303">
         <v>-0.5</v>
       </c>
-      <c r="K30" s="305">
+      <c r="K30" s="303">
         <v>-0.5</v>
       </c>
-      <c r="L30" s="305">
+      <c r="L30" s="303">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="315">
-        <v>1</v>
-      </c>
-      <c r="N30" s="315">
-        <v>1</v>
-      </c>
-      <c r="O30" s="315">
-        <v>1</v>
-      </c>
-      <c r="P30" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="315">
-        <v>1</v>
-      </c>
-      <c r="R30" s="316">
-        <v>1</v>
-      </c>
-      <c r="S30" s="315">
+      <c r="M30" s="313">
+        <v>1</v>
+      </c>
+      <c r="N30" s="313">
+        <v>1</v>
+      </c>
+      <c r="O30" s="313">
+        <v>1</v>
+      </c>
+      <c r="P30" s="313">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="313">
+        <v>1</v>
+      </c>
+      <c r="R30" s="314">
+        <v>1</v>
+      </c>
+      <c r="S30" s="313">
         <v>3</v>
       </c>
-      <c r="T30" s="315">
-        <v>1</v>
-      </c>
-      <c r="U30" s="317">
+      <c r="T30" s="313">
+        <v>1</v>
+      </c>
+      <c r="U30" s="315">
         <v>-1</v>
       </c>
-      <c r="V30" s="305">
-        <v>1</v>
-      </c>
-      <c r="W30" s="315" t="s">
+      <c r="V30" s="303">
+        <v>1</v>
+      </c>
+      <c r="W30" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="315">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="315">
+      <c r="X30" s="313">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="313">
         <v>-1</v>
       </c>
-      <c r="Z30" s="315"/>
-      <c r="AA30" s="315"/>
-      <c r="AB30" s="315"/>
-      <c r="AC30" s="318">
-        <v>100</v>
-      </c>
-      <c r="AD30" s="319">
+      <c r="Z30" s="313"/>
+      <c r="AA30" s="313"/>
+      <c r="AB30" s="313"/>
+      <c r="AC30" s="316">
+        <v>100</v>
+      </c>
+      <c r="AD30" s="317">
         <f>-20 - 50 - 50</f>
         <v>-120</v>
       </c>
-      <c r="AE30" s="320">
-        <v>100</v>
-      </c>
-      <c r="AF30" s="321">
+      <c r="AE30" s="318">
+        <v>100</v>
+      </c>
+      <c r="AF30" s="319">
         <f>-50-20 + 40</f>
         <v>-30</v>
       </c>
-      <c r="AG30" s="322">
+      <c r="AG30" s="320">
         <v>-100</v>
       </c>
-      <c r="AH30" s="321">
+      <c r="AH30" s="319">
         <v>-100</v>
       </c>
-      <c r="AI30" s="321"/>
-      <c r="AJ30" s="321"/>
-      <c r="AK30" s="321"/>
-      <c r="AL30" s="321"/>
-      <c r="AM30" s="321"/>
-      <c r="AN30" s="321"/>
-      <c r="AO30" s="321"/>
-      <c r="AP30" s="311">
+      <c r="AI30" s="319"/>
+      <c r="AJ30" s="319"/>
+      <c r="AK30" s="319"/>
+      <c r="AL30" s="319"/>
+      <c r="AM30" s="319"/>
+      <c r="AN30" s="319"/>
+      <c r="AO30" s="319"/>
+      <c r="AP30" s="309">
         <f t="shared" si="4"/>
         <v>38.46153846153846</v>
       </c>
     </row>
     <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="313" t="s">
+      <c r="A31" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="302">
-        <v>0</v>
-      </c>
-      <c r="C31" s="303"/>
-      <c r="D31" s="303"/>
-      <c r="E31" s="304" t="s">
+      <c r="B31" s="300">
+        <v>0</v>
+      </c>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="302" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="305">
-        <v>1</v>
-      </c>
-      <c r="G31" s="315">
-        <v>1</v>
-      </c>
-      <c r="H31" s="315">
-        <v>1</v>
-      </c>
-      <c r="I31" s="315">
-        <v>1</v>
-      </c>
-      <c r="J31" s="315">
-        <v>1</v>
-      </c>
-      <c r="K31" s="315">
-        <v>1</v>
-      </c>
-      <c r="L31" s="305">
+      <c r="F31" s="303">
+        <v>1</v>
+      </c>
+      <c r="G31" s="313">
+        <v>1</v>
+      </c>
+      <c r="H31" s="313">
+        <v>1</v>
+      </c>
+      <c r="I31" s="313">
+        <v>1</v>
+      </c>
+      <c r="J31" s="313">
+        <v>1</v>
+      </c>
+      <c r="K31" s="313">
+        <v>1</v>
+      </c>
+      <c r="L31" s="303">
         <v>-0.5</v>
       </c>
-      <c r="M31" s="315">
+      <c r="M31" s="313">
         <v>-0.5</v>
       </c>
-      <c r="N31" s="315">
+      <c r="N31" s="313">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="315">
-        <v>1</v>
-      </c>
-      <c r="P31" s="315">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="323">
-        <v>1</v>
-      </c>
-      <c r="R31" s="316">
-        <v>1</v>
-      </c>
-      <c r="S31" s="315">
+      <c r="O31" s="313">
+        <v>1</v>
+      </c>
+      <c r="P31" s="313">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="321">
+        <v>1</v>
+      </c>
+      <c r="R31" s="314">
+        <v>1</v>
+      </c>
+      <c r="S31" s="313">
         <v>3</v>
       </c>
-      <c r="T31" s="315">
-        <v>1</v>
-      </c>
-      <c r="U31" s="317">
+      <c r="T31" s="313">
+        <v>1</v>
+      </c>
+      <c r="U31" s="315">
         <v>-1</v>
       </c>
-      <c r="V31" s="305">
-        <v>1</v>
-      </c>
-      <c r="W31" s="315">
-        <v>1</v>
-      </c>
-      <c r="X31" s="315">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="315">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="315"/>
-      <c r="AA31" s="315"/>
-      <c r="AB31" s="315"/>
-      <c r="AC31" s="318">
-        <v>100</v>
-      </c>
-      <c r="AD31" s="324">
+      <c r="V31" s="303">
+        <v>1</v>
+      </c>
+      <c r="W31" s="313">
+        <v>1</v>
+      </c>
+      <c r="X31" s="313">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="313">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="313"/>
+      <c r="AA31" s="313"/>
+      <c r="AB31" s="313"/>
+      <c r="AC31" s="316">
+        <v>100</v>
+      </c>
+      <c r="AD31" s="322">
         <f>-50 - 50</f>
         <v>-100</v>
       </c>
-      <c r="AE31" s="320">
-        <v>100</v>
-      </c>
-      <c r="AF31" s="320">
+      <c r="AE31" s="318">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="318">
         <f>30+70</f>
         <v>100</v>
       </c>
-      <c r="AG31" s="322">
+      <c r="AG31" s="320">
         <v>60</v>
       </c>
-      <c r="AH31" s="321">
-        <v>100</v>
-      </c>
-      <c r="AI31" s="321"/>
-      <c r="AJ31" s="321"/>
-      <c r="AK31" s="321"/>
-      <c r="AL31" s="321">
-        <v>100</v>
-      </c>
-      <c r="AM31" s="321"/>
-      <c r="AN31" s="321"/>
-      <c r="AO31" s="321"/>
-      <c r="AP31" s="311">
+      <c r="AH31" s="319">
+        <v>100</v>
+      </c>
+      <c r="AI31" s="319"/>
+      <c r="AJ31" s="319"/>
+      <c r="AK31" s="319"/>
+      <c r="AL31" s="319">
+        <v>100</v>
+      </c>
+      <c r="AM31" s="319"/>
+      <c r="AN31" s="319"/>
+      <c r="AO31" s="319"/>
+      <c r="AP31" s="309">
         <f t="shared" si="4"/>
         <v>77.307692307692307</v>
       </c>
     </row>
     <row r="32" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="325" t="s">
+      <c r="A32" s="323" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="302">
+      <c r="B32" s="300">
         <v>2</v>
       </c>
-      <c r="C32" s="303"/>
-      <c r="D32" s="303"/>
-      <c r="E32" s="326" t="s">
+      <c r="C32" s="301"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="324" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="305">
-        <v>1</v>
-      </c>
-      <c r="G32" s="315">
-        <v>1</v>
-      </c>
-      <c r="H32" s="315">
-        <v>1</v>
-      </c>
-      <c r="I32" s="315">
-        <v>1</v>
-      </c>
-      <c r="J32" s="315">
-        <v>1</v>
-      </c>
-      <c r="K32" s="315">
-        <v>1</v>
-      </c>
-      <c r="L32" s="315">
-        <v>1</v>
-      </c>
-      <c r="M32" s="315">
-        <v>1</v>
-      </c>
-      <c r="N32" s="315">
-        <v>1</v>
-      </c>
-      <c r="O32" s="315">
-        <v>1</v>
-      </c>
-      <c r="P32" s="315">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="315">
-        <v>1</v>
-      </c>
-      <c r="R32" s="316">
-        <v>1</v>
-      </c>
-      <c r="S32" s="315">
+      <c r="F32" s="303">
+        <v>1</v>
+      </c>
+      <c r="G32" s="313">
+        <v>1</v>
+      </c>
+      <c r="H32" s="313">
+        <v>1</v>
+      </c>
+      <c r="I32" s="313">
+        <v>1</v>
+      </c>
+      <c r="J32" s="313">
+        <v>1</v>
+      </c>
+      <c r="K32" s="313">
+        <v>1</v>
+      </c>
+      <c r="L32" s="313">
+        <v>1</v>
+      </c>
+      <c r="M32" s="313">
+        <v>1</v>
+      </c>
+      <c r="N32" s="313">
+        <v>1</v>
+      </c>
+      <c r="O32" s="313">
+        <v>1</v>
+      </c>
+      <c r="P32" s="313">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="313">
+        <v>1</v>
+      </c>
+      <c r="R32" s="314">
+        <v>1</v>
+      </c>
+      <c r="S32" s="313">
         <v>3</v>
       </c>
-      <c r="T32" s="315">
-        <v>1</v>
-      </c>
-      <c r="U32" s="317">
-        <v>1</v>
-      </c>
-      <c r="V32" s="305">
-        <v>1</v>
-      </c>
-      <c r="W32" s="315">
-        <v>1</v>
-      </c>
-      <c r="X32" s="315">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="315">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="315"/>
-      <c r="AA32" s="315"/>
-      <c r="AB32" s="315"/>
-      <c r="AC32" s="318">
-        <v>100</v>
-      </c>
-      <c r="AD32" s="318">
+      <c r="T32" s="313">
+        <v>1</v>
+      </c>
+      <c r="U32" s="315">
+        <v>1</v>
+      </c>
+      <c r="V32" s="303">
+        <v>1</v>
+      </c>
+      <c r="W32" s="313">
+        <v>1</v>
+      </c>
+      <c r="X32" s="313">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="313">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="313"/>
+      <c r="AA32" s="313"/>
+      <c r="AB32" s="313"/>
+      <c